--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3474" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{054BEE08-26AA-4249-AEE1-52ABF4BF45BA}"/>
+  <xr:revisionPtr revIDLastSave="3483" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799C7F5E-8C2A-4924-BE0A-DBFC8F307364}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -47,12 +47,12 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="99" r:id="rId18"/>
-    <pivotCache cacheId="106" r:id="rId19"/>
-    <pivotCache cacheId="112" r:id="rId20"/>
-    <pivotCache cacheId="117" r:id="rId21"/>
-    <pivotCache cacheId="121" r:id="rId22"/>
-    <pivotCache cacheId="125" r:id="rId23"/>
+    <pivotCache cacheId="15" r:id="rId18"/>
+    <pivotCache cacheId="16" r:id="rId19"/>
+    <pivotCache cacheId="17" r:id="rId20"/>
+    <pivotCache cacheId="18" r:id="rId21"/>
+    <pivotCache cacheId="19" r:id="rId22"/>
+    <pivotCache cacheId="20" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="266">
   <si>
     <t>Billing</t>
   </si>
@@ -940,6 +940,9 @@
   <si>
     <t>16/5/25 unpaid</t>
   </si>
+  <si>
+    <t>Ashraf Zia</t>
+  </si>
 </sst>
 </file>
 
@@ -1407,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,37 +1540,12 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="175">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
+  <dxfs count="123">
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1585,6 +1563,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1611,51 +1601,19 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <border>
@@ -1684,283 +1642,11 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1984,55 +1670,6 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -2043,6 +1680,18 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2058,6 +1707,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2329,6 +1981,15 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2336,6 +1997,25 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2389,6 +2069,30 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -2433,6 +2137,52 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2644,6 +2394,18 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2672,8 +2434,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>74809</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Party Name">
@@ -2696,7 +2458,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2750,8 +2512,8 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>36435</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Date">
@@ -2777,7 +2539,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -7729,7 +7491,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="121" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
@@ -7805,7 +7567,7 @@
     <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="71">
+    <format dxfId="122">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7814,7 +7576,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="121">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7823,7 +7585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="120">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7833,7 +7595,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="119">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7857,7 +7619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="D75:G126" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" showAll="0">
@@ -8372,7 +8134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I68:K82" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -8486,7 +8248,7 @@
     <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="86">
+    <format dxfId="99">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8509,7 +8271,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="112" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
   <location ref="E42:I85" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -8766,7 +8528,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="75">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -8775,7 +8537,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -8798,7 +8560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="125" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J163:L194" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -8962,7 +8724,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="70">
+    <format dxfId="77">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8979,7 +8741,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="117" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K9:M14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9071,7 +8833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="99" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9144,7 +8906,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="106" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
   <location ref="A3:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9375,26 +9137,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="77">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="29">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9404,13 +9166,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="25">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="24">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9624,14 +9386,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}" name="Table4" displayName="Table4" ref="B3:E15" totalsRowShown="0">
   <autoFilter ref="B3:E15" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="174">
+    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="118">
       <calculatedColumnFormula>B26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="173">
+    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="117">
       <calculatedColumnFormula>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC1535DD-3FE7-4F55-8040-E7643388A78E}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="172">
+    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="116">
       <calculatedColumnFormula>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9643,12 +9405,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G221" totalsRowCount="1">
   <autoFilter ref="A1:G220" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="145" totalsRowDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="76" totalsRowDxfId="75"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="144" totalsRowDxfId="100" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="143" totalsRowDxfId="99" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="98">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -9658,25 +9420,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="141" tableBorderDxfId="140" totalsRowBorderDxfId="139">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="138"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="136" headerRowBorderDxfId="135" tableBorderDxfId="134" totalsRowBorderDxfId="133">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="132" totalsRowDxfId="131"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="129">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="128">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="55">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9688,10 +9450,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="54" totalsRowDxfId="53"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9700,17 +9462,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="123" headerRowBorderDxfId="122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="50" headerRowBorderDxfId="49">
   <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="121"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="48"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="120">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="47">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -9720,22 +9482,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="119" headerRowBorderDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="46" headerRowBorderDxfId="45">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="117" totalsRowDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="42"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="115">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="41">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="114">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="40">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9765,7 +9527,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9776,8 +9538,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="111" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -9792,7 +9554,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="109" totalsRowDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="33" totalsRowDxfId="32"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -9803,12 +9565,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="171" dataDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
   <autoFilter ref="B7:D20" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="169"/>
-    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="168" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="167" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="112" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="111" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9818,7 +9580,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="107" totalsRowDxfId="106"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="22" totalsRowDxfId="21"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -9834,7 +9596,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="105" totalsRowDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -9849,10 +9611,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="103">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="18">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="102">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="17">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9865,7 +9627,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="166" totalsRowDxfId="165" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -9887,11 +9649,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="164" dataDxfId="163" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="162" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="161" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="106" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="105" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9901,8 +9663,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="160"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="159"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9912,12 +9674,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="102" totalsRowDxfId="101"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="156">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="100">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -9929,23 +9691,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K61" totalsRowCount="1" headerRowDxfId="89" dataDxfId="88" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K61" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:K60" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="18" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="17" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="14" totalsRowDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="12" totalsRowDxfId="11" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="8" totalsRowDxfId="7" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="12" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -9955,7 +9717,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="6" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9964,20 +9726,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I28" totalsRowCount="1" headerRowDxfId="155" headerRowBorderDxfId="154" tableBorderDxfId="153">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I28" totalsRowCount="1" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="A1:I27" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="152" totalsRowDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="91" totalsRowDxfId="90"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="151" totalsRowDxfId="96" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="150" totalsRowDxfId="95" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="149" totalsRowDxfId="94" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="148" totalsRowDxfId="93" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="147" totalsRowDxfId="92" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="146" totalsRowDxfId="91" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10302,7 +10064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E413788-DC3D-4686-B6D6-08186A86599F}">
-  <dimension ref="A1:Z52"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="89" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
@@ -10376,7 +10138,7 @@
       </c>
       <c r="C4" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>336473.11631309439</v>
+        <v>315162.7651792246</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -10455,20 +10217,20 @@
         <v>3082251.2801755676</v>
       </c>
       <c r="O5" s="25" t="str" cm="1">
-        <f t="array" ref="O5:O13">_xlfn.UNIQUE(Table1[Party Name])</f>
+        <f t="array" ref="O5:O14">_xlfn.UNIQUE(Table1[Party Name])</f>
         <v>BSC</v>
       </c>
       <c r="P5" s="23" cm="1">
         <f t="array" ref="P5">_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C44,0)</f>
-        <v>821010</v>
+        <v>797705</v>
       </c>
       <c r="Q5" s="23" cm="1">
         <f t="array" ref="Q5">_xlfn.BYROW(B26, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D44,0)</f>
-        <v>750740.67300658382</v>
+        <v>729430.32187271398</v>
       </c>
       <c r="R5" s="23" cm="1">
         <f t="array" ref="R5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E44,0)</f>
-        <v>750740.67300658382</v>
+        <v>729430.32187271398</v>
       </c>
       <c r="S5" s="78" cm="1">
         <f t="array" ref="S5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F44,0)</f>
@@ -10476,7 +10238,7 @@
       </c>
       <c r="T5" s="23" cm="1">
         <f t="array" ref="T5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)+_xlfn.IFNA(G44,0)</f>
-        <v>7507406.7300658375</v>
+        <v>7294303.2187271398</v>
       </c>
       <c r="U5" s="23" cm="1">
         <f t="array" ref="U5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H44,0)</f>
@@ -10484,7 +10246,7 @@
       </c>
       <c r="V5" s="44">
         <f>T5+U5</f>
-        <v>7507406.7300658375</v>
+        <v>7294303.2187271398</v>
       </c>
       <c r="W5" s="23">
         <f>(SUMIF(Table14[Party],O5,Table14[Credit]))+_xlfn.IFNA(J44,0)</f>
@@ -10492,7 +10254,7 @@
       </c>
       <c r="X5" s="98">
         <f>V5-W5</f>
-        <v>1237306.7300658375</v>
+        <v>1024203.2187271398</v>
       </c>
       <c r="Y5" s="22">
         <v>10</v>
@@ -11001,17 +10763,17 @@
       </c>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="B13" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Ashraf Zia</v>
       </c>
       <c r="C13" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B13, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>0</v>
+        <v>21310.35113386979</v>
       </c>
       <c r="E13" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B13, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B13, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>0</v>
+        <v>213103.51133869789</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>37</v>
@@ -11090,18 +10852,20 @@
       <c r="K14" s="14">
         <v>6117248.53694221</v>
       </c>
-      <c r="O14" s="25"/>
+      <c r="O14" s="25" t="str">
+        <v>Ashraf Zia</v>
+      </c>
       <c r="P14" s="23" cm="1">
         <f t="array" ref="P14">_xlfn.BYROW(B35,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C53,0)</f>
-        <v>0</v>
+        <v>23305</v>
       </c>
       <c r="Q14" s="23" cm="1">
         <f t="array" ref="Q14">_xlfn.BYROW(B35, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D53,0)</f>
-        <v>0</v>
+        <v>21310.35113386979</v>
       </c>
       <c r="R14" s="23" cm="1">
         <f t="array" ref="R14">(_xlfn.BYROW(B35,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E53,0)</f>
-        <v>0</v>
+        <v>21310.35113386979</v>
       </c>
       <c r="S14" s="78" cm="1">
         <f t="array" ref="S14">(_xlfn.BYROW(B35,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F53,0)</f>
@@ -11197,7 +10961,7 @@
       </c>
       <c r="C16" s="46">
         <f>SUM(G26:G38)+SUM(H26:H38)</f>
-        <v>6399728.4198975861</v>
+        <v>6186624.9085588884</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -11298,7 +11062,7 @@
       </c>
       <c r="C18" s="42">
         <f ca="1">SUM(OFFSET(I26,0,0,COUNTA(I:I)-ROW(I26)+9))</f>
-        <v>6399728.4198975861</v>
+        <v>6186624.9085588884</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -11439,28 +11203,28 @@
         <v>34</v>
       </c>
       <c r="B26" s="25" t="str" cm="1">
-        <f t="array" ref="B26:B34">_xlfn.UNIQUE(Table1[Party Name])</f>
+        <f t="array" ref="B26:B35">_xlfn.UNIQUE(Table1[Party Name])</f>
         <v>BSC</v>
       </c>
       <c r="C26" s="23" cm="1">
-        <f t="array" ref="C26:C34">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
-        <v>367967</v>
+        <f t="array" ref="C26:C35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
+        <v>344662</v>
       </c>
       <c r="D26" s="23" cm="1">
-        <f t="array" ref="D26:D34">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
-        <v>336473.11631309439</v>
+        <f t="array" ref="D26:D35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
+        <v>315162.7651792246</v>
       </c>
       <c r="E26" s="71" cm="1">
-        <f t="array" ref="E26:E34">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
-        <v>336473.11631309439</v>
+        <f t="array" ref="E26:E35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
+        <v>315162.7651792246</v>
       </c>
       <c r="F26" s="78" cm="1">
-        <f t="array" ref="F26:F34">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
+        <f t="array" ref="F26:F35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
         <v>0</v>
       </c>
       <c r="G26" s="23" cm="1">
         <f t="array" ref="G26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)</f>
-        <v>3364731.1631309437</v>
+        <v>3151627.6517922459</v>
       </c>
       <c r="H26" s="23" cm="1">
         <f t="array" ref="H26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M26)</f>
@@ -11468,7 +11232,7 @@
       </c>
       <c r="I26" s="44">
         <f t="shared" ref="I26:I34" si="7">G26+H26</f>
-        <v>3364731.1631309437</v>
+        <v>3151627.6517922459</v>
       </c>
       <c r="J26" s="23">
         <f>(SUMIF(Table14[Party],B26,Table14[Credit]))</f>
@@ -11476,7 +11240,7 @@
       </c>
       <c r="K26" s="42">
         <f>I26-J26</f>
-        <v>923469.16313094366</v>
+        <v>710365.65179224592</v>
       </c>
       <c r="L26" s="22">
         <v>10</v>
@@ -11830,11 +11594,21 @@
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="22"/>
+      <c r="B35" s="25" t="str">
+        <v>Ashraf Zia</v>
+      </c>
+      <c r="C35" s="23">
+        <v>23305</v>
+      </c>
+      <c r="D35" s="23">
+        <v>21310.35113386979</v>
+      </c>
+      <c r="E35" s="71">
+        <v>21310.35113386979</v>
+      </c>
+      <c r="F35" s="22">
+        <v>0</v>
+      </c>
       <c r="G35" s="23" cm="1">
         <f t="array" ref="G35">(_xlfn.BYROW(B35,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L35)</f>
         <v>0</v>
@@ -11990,7 +11764,7 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str" cm="1">
-        <f t="array" ref="B44:B52">_xlfn.UNIQUE(Table1[Party Name])</f>
+        <f t="array" ref="B44:B53">_xlfn.UNIQUE(Table1[Party Name])</f>
         <v>BSC</v>
       </c>
       <c r="C44" s="23">
@@ -12006,15 +11780,15 @@
         <v>414267.55669348943</v>
       </c>
       <c r="F44" s="78" cm="1">
-        <f t="array" ref="F44:F52">+_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$F$21:$F$29)</f>
+        <f t="array" ref="F44:F53">+_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$F$21:$F$29)</f>
         <v>0</v>
       </c>
       <c r="G44" s="23" cm="1">
-        <f t="array" ref="G44:G52">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$G$21:$G$29)</f>
+        <f t="array" ref="G44:G53">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$G$21:$G$29)</f>
         <v>4142675.5669348943</v>
       </c>
       <c r="H44" s="23" cm="1">
-        <f t="array" ref="H44:H52">+_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$H$21:$H$29)</f>
+        <f t="array" ref="H44:H53">+_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$H$21:$H$29)</f>
         <v>0</v>
       </c>
       <c r="I44" s="44">
@@ -12380,6 +12154,20 @@
       </c>
       <c r="M52" s="22">
         <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <v>Ashraf Zia</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H53" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -12475,11 +12263,10 @@
       <c r="J5" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101">
-        <v>0</v>
-      </c>
-      <c r="M5" s="101">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0</v>
       </c>
     </row>
@@ -12509,11 +12296,10 @@
       <c r="J6" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101">
+      <c r="L6">
         <v>60000</v>
       </c>
-      <c r="M6" s="101">
+      <c r="M6">
         <v>35000</v>
       </c>
     </row>
@@ -12535,13 +12321,13 @@
       <c r="J7" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7">
         <v>123050</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7">
         <v>123050</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7">
         <v>0</v>
       </c>
     </row>
@@ -12572,13 +12358,13 @@
       <c r="J8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8">
         <v>355350</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8">
         <v>355350</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8">
         <v>0</v>
       </c>
     </row>
@@ -12606,13 +12392,13 @@
       <c r="J9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="101">
+      <c r="K9">
         <v>478400</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9">
         <v>538400</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9">
         <v>35000</v>
       </c>
     </row>
@@ -12654,11 +12440,11 @@
       <c r="F11">
         <v>51600</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</f>
         <v>51600</v>
       </c>
-      <c r="H11" s="101">
+      <c r="H11">
         <f>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</f>
         <v>0</v>
       </c>
@@ -12666,11 +12452,11 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="G12" s="101">
+      <c r="G12">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</f>
         <v>0</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12">
         <f>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</f>
         <v>0</v>
       </c>
@@ -15723,9 +15509,9 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>Billing!O14</f>
-        <v>0</v>
+        <v>Ashraf Zia</v>
       </c>
       <c r="B11" s="14">
         <f>Billing!W14</f>
@@ -15764,7 +15550,7 @@
         <v>36</v>
       </c>
       <c r="J4" t="str" cm="1">
-        <f t="array" ref="J4:J12">_xlfn.UNIQUE(Table1[Party Name])</f>
+        <f t="array" ref="J4:J13">_xlfn.UNIQUE(Table1[Party Name])</f>
         <v>BSC</v>
       </c>
     </row>
@@ -15857,6 +15643,9 @@
       <c r="B13" s="73"/>
       <c r="C13" s="75"/>
       <c r="D13" s="75"/>
+      <c r="J13" t="str">
+        <v>Ashraf Zia</v>
+      </c>
     </row>
     <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B14" s="63" t="s">
@@ -16160,7 +15949,7 @@
       </c>
       <c r="C3" s="11">
         <f ca="1">Billing!C18 + SUMIFS(Table14[Credit], Table14[Party], "Transport")</f>
-        <v>6399728.4198975861</v>
+        <v>6186624.9085588884</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -16182,7 +15971,7 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C3-C4</f>
-        <v>851508.41989758611</v>
+        <v>638404.90855888836</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16199,7 +15988,7 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">C3</f>
-        <v>6399728.4198975861</v>
+        <v>6186624.9085588884</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16217,7 +16006,7 @@
       </c>
       <c r="C13" s="81">
         <f ca="1">(C11-C12)</f>
-        <v>314741.41989758611</v>
+        <v>101637.90855888836</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16274,14 +16063,14 @@
       </c>
       <c r="C21" s="69">
         <f ca="1">(C13-C17)+C19</f>
-        <v>851508.41989758611</v>
+        <v>638404.90855888836</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="88">
         <f ca="1">C5*0.05</f>
-        <v>42575.420994879307</v>
+        <v>31920.245427944421</v>
       </c>
     </row>
   </sheetData>
@@ -16767,10 +16556,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6302BF55-86DF-4B9C-ABE1-54F1EB648833}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AB126"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="103" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19181,13 +18973,13 @@
         <v>45899</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>21</v>
+        <v>265</v>
       </c>
       <c r="C49" s="29">
         <v>759</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="11">
         <v>1598</v>
@@ -20040,11 +19832,11 @@
       <c r="D76" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E76" s="101"/>
+      <c r="E76"/>
       <c r="F76" s="33">
         <v>972869.42209217278</v>
       </c>
-      <c r="G76" s="101">
+      <c r="G76">
         <v>9691041.9714703746</v>
       </c>
       <c r="I76" s="27">
@@ -20067,13 +19859,13 @@
       <c r="D77" s="16">
         <v>716</v>
       </c>
-      <c r="E77" s="101">
+      <c r="E77">
         <v>43689</v>
       </c>
       <c r="F77" s="33">
         <v>39949.70738844185</v>
       </c>
-      <c r="G77" s="101">
+      <c r="G77">
         <v>399497.07388441847</v>
       </c>
       <c r="I77" s="27">
@@ -20096,13 +19888,13 @@
       <c r="D78" s="16">
         <v>722</v>
       </c>
-      <c r="E78" s="101">
+      <c r="E78">
         <v>25952</v>
       </c>
       <c r="F78" s="33">
         <v>23730.797366495979</v>
       </c>
-      <c r="G78" s="101">
+      <c r="G78">
         <v>237307.97366495978</v>
       </c>
       <c r="I78" s="27">
@@ -20125,13 +19917,13 @@
       <c r="D79" s="16">
         <v>723</v>
       </c>
-      <c r="E79" s="101">
+      <c r="E79">
         <v>8742</v>
       </c>
       <c r="F79" s="33">
         <v>7993.7820043891743</v>
       </c>
-      <c r="G79" s="101">
+      <c r="G79">
         <v>79937.820043891741</v>
       </c>
       <c r="I79" s="27">
@@ -20154,13 +19946,13 @@
       <c r="D80" s="16">
         <v>724</v>
       </c>
-      <c r="E80" s="101">
+      <c r="E80">
         <v>48705</v>
       </c>
       <c r="F80" s="33">
         <v>44536.393562545723</v>
       </c>
-      <c r="G80" s="101">
+      <c r="G80">
         <v>445363.9356254572</v>
       </c>
       <c r="I80" s="27">
@@ -20183,13 +19975,13 @@
       <c r="D81" s="16">
         <v>725</v>
       </c>
-      <c r="E81" s="101">
+      <c r="E81">
         <v>4140</v>
       </c>
       <c r="F81" s="33">
         <v>3785.6620336503297</v>
       </c>
-      <c r="G81" s="101">
+      <c r="G81">
         <v>37856.6203365033</v>
       </c>
       <c r="I81" s="27">
@@ -20212,13 +20004,13 @@
       <c r="D82" s="16">
         <v>726</v>
       </c>
-      <c r="E82" s="101">
+      <c r="E82">
         <v>1980</v>
       </c>
       <c r="F82" s="33">
         <v>1810.534016093636</v>
       </c>
-      <c r="G82" s="101">
+      <c r="G82">
         <v>18105.340160936361</v>
       </c>
       <c r="I82" s="27" t="s">
@@ -20241,13 +20033,13 @@
       <c r="D83" s="16">
         <v>727</v>
       </c>
-      <c r="E83" s="101">
+      <c r="E83">
         <v>21621</v>
       </c>
       <c r="F83" s="33">
         <v>19770.48280907096</v>
       </c>
-      <c r="G83" s="101">
+      <c r="G83">
         <v>197704.82809070961</v>
       </c>
       <c r="L83"/>
@@ -20261,13 +20053,13 @@
       <c r="D84" s="16">
         <v>728</v>
       </c>
-      <c r="E84" s="101">
+      <c r="E84">
         <v>6406</v>
       </c>
       <c r="F84" s="33">
         <v>5857.7176298463792</v>
       </c>
-      <c r="G84" s="101">
+      <c r="G84">
         <v>58577.17629846379</v>
       </c>
       <c r="L84"/>
@@ -20281,13 +20073,13 @@
       <c r="D85" s="16">
         <v>729</v>
       </c>
-      <c r="E85" s="101">
+      <c r="E85">
         <v>7452</v>
       </c>
       <c r="F85" s="33">
         <v>6814.1916605705928</v>
       </c>
-      <c r="G85" s="101">
+      <c r="G85">
         <v>68141.916605705934</v>
       </c>
       <c r="L85"/>
@@ -20301,13 +20093,13 @@
       <c r="D86" s="16">
         <v>731</v>
       </c>
-      <c r="E86" s="101">
+      <c r="E86">
         <v>5597</v>
       </c>
       <c r="F86" s="33">
         <v>5117.9590343818581</v>
       </c>
-      <c r="G86" s="101">
+      <c r="G86">
         <v>51179.590343818578</v>
       </c>
       <c r="L86"/>
@@ -20321,13 +20113,13 @@
       <c r="D87" s="16">
         <v>732</v>
       </c>
-      <c r="E87" s="101">
+      <c r="E87">
         <v>21167</v>
       </c>
       <c r="F87" s="33">
         <v>19355.340160936357</v>
       </c>
-      <c r="G87" s="101">
+      <c r="G87">
         <v>193553.40160936356</v>
       </c>
       <c r="L87"/>
@@ -20341,13 +20133,13 @@
       <c r="D88" s="16">
         <v>733</v>
       </c>
-      <c r="E88" s="101">
+      <c r="E88">
         <v>2010</v>
       </c>
       <c r="F88" s="33">
         <v>0</v>
       </c>
-      <c r="G88" s="101">
+      <c r="G88">
         <v>0</v>
       </c>
       <c r="L88"/>
@@ -20361,13 +20153,13 @@
       <c r="D89" s="16">
         <v>734</v>
       </c>
-      <c r="E89" s="101">
+      <c r="E89">
         <v>16253</v>
       </c>
       <c r="F89" s="33">
         <v>14861.923920994881</v>
       </c>
-      <c r="G89" s="101">
+      <c r="G89">
         <v>148619.23920994881</v>
       </c>
       <c r="L89"/>
@@ -20381,13 +20173,13 @@
       <c r="D90" s="16">
         <v>735</v>
       </c>
-      <c r="E90" s="101">
+      <c r="E90">
         <v>33788</v>
       </c>
       <c r="F90" s="33">
         <v>30896.122896854427</v>
       </c>
-      <c r="G90" s="101">
+      <c r="G90">
         <v>308961.22896854428</v>
       </c>
       <c r="L90"/>
@@ -20401,13 +20193,13 @@
       <c r="D91" s="16">
         <v>736</v>
       </c>
-      <c r="E91" s="101">
+      <c r="E91">
         <v>8575</v>
       </c>
       <c r="F91" s="33">
         <v>7841.0753474762259</v>
       </c>
-      <c r="G91" s="101">
+      <c r="G91">
         <v>78410.753474762256</v>
       </c>
       <c r="L91"/>
@@ -20421,13 +20213,13 @@
       <c r="D92" s="16">
         <v>737</v>
       </c>
-      <c r="E92" s="101">
+      <c r="E92">
         <v>4298</v>
       </c>
       <c r="F92" s="33">
         <v>3930.1389904901248</v>
       </c>
-      <c r="G92" s="101">
+      <c r="G92">
         <v>35371.250914411125</v>
       </c>
       <c r="L92"/>
@@ -20441,13 +20233,13 @@
       <c r="D93" s="16">
         <v>738</v>
       </c>
-      <c r="E93" s="101">
+      <c r="E93">
         <v>22478</v>
       </c>
       <c r="F93" s="33">
         <v>20554.133138258963</v>
       </c>
-      <c r="G93" s="101">
+      <c r="G93">
         <v>205541.33138258965</v>
       </c>
       <c r="L93"/>
@@ -20461,13 +20253,13 @@
       <c r="D94" s="16">
         <v>739</v>
       </c>
-      <c r="E94" s="101">
+      <c r="E94">
         <v>8540</v>
       </c>
       <c r="F94" s="33">
         <v>7809.0709583028538</v>
       </c>
-      <c r="G94" s="101">
+      <c r="G94">
         <v>78090.70958302854</v>
       </c>
       <c r="L94"/>
@@ -20481,13 +20273,13 @@
       <c r="D95" s="16">
         <v>740</v>
       </c>
-      <c r="E95" s="101">
+      <c r="E95">
         <v>7214</v>
       </c>
       <c r="F95" s="33">
         <v>6596.5618141916611</v>
       </c>
-      <c r="G95" s="101">
+      <c r="G95">
         <v>65965.61814191661</v>
       </c>
       <c r="L95"/>
@@ -20501,13 +20293,13 @@
       <c r="D96" s="16">
         <v>741</v>
       </c>
-      <c r="E96" s="101">
+      <c r="E96">
         <v>6688</v>
       </c>
       <c r="F96" s="33">
         <v>6115.5815654718363</v>
       </c>
-      <c r="G96" s="101">
+      <c r="G96">
         <v>61155.815654718361</v>
       </c>
       <c r="L96"/>
@@ -20521,13 +20313,13 @@
       <c r="D97" s="16">
         <v>742</v>
       </c>
-      <c r="E97" s="101">
+      <c r="E97">
         <v>1914</v>
       </c>
       <c r="F97" s="33">
         <v>1750.1828822238481</v>
       </c>
-      <c r="G97" s="101">
+      <c r="G97">
         <v>17501.82882223848</v>
       </c>
       <c r="L97"/>
@@ -20541,13 +20333,13 @@
       <c r="D98" s="16">
         <v>743</v>
       </c>
-      <c r="E98" s="101">
+      <c r="E98">
         <v>9214</v>
       </c>
       <c r="F98" s="33">
         <v>8425.3840526700806</v>
       </c>
-      <c r="G98" s="101">
+      <c r="G98">
         <v>84253.840526700806</v>
       </c>
       <c r="L98"/>
@@ -20561,13 +20353,13 @@
       <c r="D99" s="16">
         <v>744</v>
       </c>
-      <c r="E99" s="101">
+      <c r="E99">
         <v>21448</v>
       </c>
       <c r="F99" s="33">
         <v>19612.289685442578</v>
       </c>
-      <c r="G99" s="101">
+      <c r="G99">
         <v>196122.89685442578</v>
       </c>
       <c r="L99"/>
@@ -20581,13 +20373,13 @@
       <c r="D100" s="16">
         <v>745</v>
       </c>
-      <c r="E100" s="101">
+      <c r="E100">
         <v>11858</v>
       </c>
       <c r="F100" s="33">
         <v>10843.087051938552</v>
       </c>
-      <c r="G100" s="101">
+      <c r="G100">
         <v>97587.783467446963</v>
       </c>
       <c r="L100"/>
@@ -20601,13 +20393,13 @@
       <c r="D101" s="16">
         <v>746</v>
       </c>
-      <c r="E101" s="101">
+      <c r="E101">
         <v>18918</v>
       </c>
       <c r="F101" s="33">
         <v>17298.829553767377</v>
       </c>
-      <c r="G101" s="101">
+      <c r="G101">
         <v>155689.46598390638</v>
       </c>
       <c r="L101"/>
@@ -20621,13 +20413,13 @@
       <c r="D102" s="16">
         <v>747</v>
       </c>
-      <c r="E102" s="101">
+      <c r="E102">
         <v>19780</v>
       </c>
       <c r="F102" s="33">
         <v>18087.051938551573</v>
       </c>
-      <c r="G102" s="101">
+      <c r="G102">
         <v>180870.51938551571</v>
       </c>
       <c r="L102"/>
@@ -20641,13 +20433,13 @@
       <c r="D103" s="16">
         <v>748</v>
       </c>
-      <c r="E103" s="101">
+      <c r="E103">
         <v>4342</v>
       </c>
       <c r="F103" s="33">
         <v>3970.3730797366497</v>
       </c>
-      <c r="G103" s="101">
+      <c r="G103">
         <v>35733.35771762985</v>
       </c>
       <c r="L103"/>
@@ -20661,13 +20453,13 @@
       <c r="D104" s="16">
         <v>749</v>
       </c>
-      <c r="E104" s="101">
+      <c r="E104">
         <v>28098</v>
       </c>
       <c r="F104" s="33">
         <v>25693.123628383324</v>
       </c>
-      <c r="G104" s="101">
+      <c r="G104">
         <v>231238.11265544992</v>
       </c>
       <c r="L104"/>
@@ -20681,13 +20473,13 @@
       <c r="D105" s="16">
         <v>750</v>
       </c>
-      <c r="E105" s="101">
+      <c r="E105">
         <v>13125</v>
       </c>
       <c r="F105" s="33">
         <v>12001.645940014632</v>
       </c>
-      <c r="G105" s="101">
+      <c r="G105">
         <v>108014.81346013169</v>
       </c>
     </row>
@@ -20695,13 +20487,13 @@
       <c r="D106" s="16">
         <v>721</v>
       </c>
-      <c r="E106" s="101">
+      <c r="E106">
         <v>2242</v>
       </c>
       <c r="F106" s="33">
         <v>2050.1097293343087</v>
       </c>
-      <c r="G106" s="101">
+      <c r="G106">
         <v>20501.097293343086</v>
       </c>
     </row>
@@ -20709,13 +20501,13 @@
       <c r="D107" s="16">
         <v>751</v>
       </c>
-      <c r="E107" s="101">
+      <c r="E107">
         <v>33502</v>
       </c>
       <c r="F107" s="33">
         <v>30634.601316752014</v>
       </c>
-      <c r="G107" s="101">
+      <c r="G107">
         <v>306346.01316752017</v>
       </c>
     </row>
@@ -20723,13 +20515,13 @@
       <c r="D108" s="16">
         <v>752</v>
       </c>
-      <c r="E108" s="101">
+      <c r="E108">
         <v>11702</v>
       </c>
       <c r="F108" s="33">
         <v>10700.438917337236</v>
       </c>
-      <c r="G108" s="101">
+      <c r="G108">
         <v>107004.38917337236</v>
       </c>
     </row>
@@ -20737,13 +20529,13 @@
       <c r="D109" s="16">
         <v>753</v>
       </c>
-      <c r="E109" s="101">
+      <c r="E109">
         <v>26158</v>
       </c>
       <c r="F109" s="33">
         <v>23919.166057059258</v>
       </c>
-      <c r="G109" s="101">
+      <c r="G109">
         <v>239191.66057059256</v>
       </c>
     </row>
@@ -20751,13 +20543,13 @@
       <c r="D110" s="16">
         <v>754</v>
       </c>
-      <c r="E110" s="101">
+      <c r="E110">
         <v>10346</v>
       </c>
       <c r="F110" s="33">
         <v>9460.4974396488669</v>
       </c>
-      <c r="G110" s="101">
+      <c r="G110">
         <v>85144.476956839804</v>
       </c>
     </row>
@@ -20765,13 +20557,13 @@
       <c r="D111" s="16">
         <v>755</v>
       </c>
-      <c r="E111" s="101">
+      <c r="E111">
         <v>7587</v>
       </c>
       <c r="F111" s="33">
         <v>6937.6371616678862</v>
       </c>
-      <c r="G111" s="101">
+      <c r="G111">
         <v>69376.371616678865</v>
       </c>
     </row>
@@ -20779,13 +20571,13 @@
       <c r="D112" s="16">
         <v>756</v>
       </c>
-      <c r="E112" s="101">
+      <c r="E112">
         <v>2244</v>
       </c>
       <c r="F112" s="33">
         <v>0</v>
       </c>
-      <c r="G112" s="101">
+      <c r="G112">
         <v>0</v>
       </c>
     </row>
@@ -20793,13 +20585,13 @@
       <c r="D113" s="16">
         <v>757</v>
       </c>
-      <c r="E113" s="101">
+      <c r="E113">
         <v>14872</v>
       </c>
       <c r="F113" s="33">
         <v>13599.122165325531</v>
       </c>
-      <c r="G113" s="101">
+      <c r="G113">
         <v>163189.46598390635</v>
       </c>
     </row>
@@ -20807,13 +20599,13 @@
       <c r="D114" s="16">
         <v>758</v>
       </c>
-      <c r="E114" s="101">
+      <c r="E114">
         <v>11018</v>
       </c>
       <c r="F114" s="33">
         <v>10074.981711777617</v>
       </c>
-      <c r="G114" s="101">
+      <c r="G114">
         <v>120899.78054133139</v>
       </c>
     </row>
@@ -20821,13 +20613,13 @@
       <c r="D115" s="16">
         <v>759</v>
       </c>
-      <c r="E115" s="101">
+      <c r="E115">
         <v>23305</v>
       </c>
       <c r="F115" s="33">
         <v>21310.35113386979</v>
       </c>
-      <c r="G115" s="101">
+      <c r="G115">
         <v>213103.51133869789</v>
       </c>
     </row>
@@ -20835,13 +20627,13 @@
       <c r="D116" s="16">
         <v>760</v>
       </c>
-      <c r="E116" s="101">
+      <c r="E116">
         <v>9308</v>
       </c>
       <c r="F116" s="33">
         <v>8511.3386978785675</v>
       </c>
-      <c r="G116" s="101">
+      <c r="G116">
         <v>85113.386978785682</v>
       </c>
     </row>
@@ -20849,13 +20641,13 @@
       <c r="D117" s="16">
         <v>761</v>
       </c>
-      <c r="E117" s="101">
+      <c r="E117">
         <v>20380</v>
       </c>
       <c r="F117" s="33">
         <v>18635.6986100951</v>
       </c>
-      <c r="G117" s="101">
+      <c r="G117">
         <v>186356.98610095101</v>
       </c>
     </row>
@@ -20863,13 +20655,13 @@
       <c r="D118" s="16">
         <v>762</v>
       </c>
-      <c r="E118" s="101">
+      <c r="E118">
         <v>9796</v>
       </c>
       <c r="F118" s="33">
         <v>8957.5713240673012</v>
       </c>
-      <c r="G118" s="101">
+      <c r="G118">
         <v>102414.04535479151</v>
       </c>
     </row>
@@ -20877,13 +20669,13 @@
       <c r="D119" s="16">
         <v>763</v>
       </c>
-      <c r="E119" s="101">
+      <c r="E119">
         <v>25394</v>
       </c>
       <c r="F119" s="33">
         <v>23220.555961960501</v>
       </c>
-      <c r="G119" s="101">
+      <c r="G119">
         <v>232205.55961960502</v>
       </c>
     </row>
@@ -20891,13 +20683,13 @@
       <c r="D120" s="16">
         <v>764</v>
       </c>
-      <c r="E120" s="101">
+      <c r="E120">
         <v>10496</v>
       </c>
       <c r="F120" s="33">
         <v>9597.6591075347478</v>
       </c>
-      <c r="G120" s="101">
+      <c r="G120">
         <v>95976.591075347475</v>
       </c>
     </row>
@@ -20905,13 +20697,13 @@
       <c r="D121" s="16">
         <v>765</v>
       </c>
-      <c r="E121" s="101">
+      <c r="E121">
         <v>9552</v>
       </c>
       <c r="F121" s="33">
         <v>8734.4550109729335</v>
       </c>
-      <c r="G121" s="101">
+      <c r="G121">
         <v>87344.550109729331</v>
       </c>
     </row>
@@ -20919,13 +20711,13 @@
       <c r="D122" s="16">
         <v>766</v>
       </c>
-      <c r="E122" s="101">
+      <c r="E122">
         <v>13908</v>
       </c>
       <c r="F122" s="33">
         <v>12717.629846378934</v>
       </c>
-      <c r="G122" s="101">
+      <c r="G122">
         <v>127176.29846378934</v>
       </c>
     </row>
@@ -20933,13 +20725,13 @@
       <c r="D123" s="16">
         <v>767</v>
       </c>
-      <c r="E123" s="101">
+      <c r="E123">
         <v>10672</v>
       </c>
       <c r="F123" s="33">
         <v>9758.5954645208494</v>
       </c>
-      <c r="G123" s="101">
+      <c r="G123">
         <v>97585.954645208491</v>
       </c>
     </row>
@@ -20947,13 +20739,13 @@
       <c r="D124" s="16">
         <v>768</v>
       </c>
-      <c r="E124" s="101">
+      <c r="E124">
         <v>15800</v>
       </c>
       <c r="F124" s="33">
         <v>14447.695683979518</v>
       </c>
-      <c r="G124" s="101">
+      <c r="G124">
         <v>130029.26115581566</v>
       </c>
     </row>
@@ -20961,13 +20753,13 @@
       <c r="D125" s="16">
         <v>769</v>
       </c>
-      <c r="E125" s="101">
+      <c r="E125">
         <v>6612</v>
       </c>
       <c r="F125" s="33">
         <v>6046.0863204096568</v>
       </c>
-      <c r="G125" s="101">
+      <c r="G125">
         <v>54414.776883686907</v>
       </c>
     </row>
@@ -20975,20 +20767,20 @@
       <c r="D126" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E126" s="101">
+      <c r="E126">
         <v>708886</v>
       </c>
       <c r="F126" s="33">
         <v>1617192.7578639355</v>
       </c>
-      <c r="G126" s="101">
+      <c r="G126">
         <v>16090770.391367961</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="12" fitToWidth="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="12" scale="93" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <drawing r:id="rId4"/>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
@@ -22588,7 +22380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBC7D8-36BA-4EBA-8685-891B9162141F}">
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="101" workbookViewId="0">
+    <sheetView topLeftCell="A207" zoomScale="101" workbookViewId="0">
       <selection activeCell="I222" sqref="I222"/>
     </sheetView>
   </sheetViews>
@@ -27054,10 +26846,10 @@
       <c r="K10" s="27">
         <v>45888</v>
       </c>
-      <c r="L10" s="101">
+      <c r="L10">
         <v>60100</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10">
         <v>-567500</v>
       </c>
     </row>
@@ -27088,10 +26880,10 @@
       <c r="K11" s="27">
         <v>45889</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11">
         <v>659500</v>
       </c>
-      <c r="M11" s="101">
+      <c r="M11">
         <v>659500</v>
       </c>
     </row>
@@ -27122,10 +26914,10 @@
       <c r="K12" s="27">
         <v>45892</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12">
         <v>166500</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12">
         <v>154500</v>
       </c>
     </row>
@@ -27156,10 +26948,10 @@
       <c r="K13" s="27">
         <v>45885</v>
       </c>
-      <c r="L13" s="101">
+      <c r="L13">
         <v>114250</v>
       </c>
-      <c r="M13" s="101">
+      <c r="M13">
         <v>567500</v>
       </c>
     </row>
@@ -27190,10 +26982,10 @@
       <c r="K14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="101">
+      <c r="L14">
         <v>1000350</v>
       </c>
-      <c r="M14" s="101">
+      <c r="M14">
         <v>814000</v>
       </c>
     </row>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3483" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799C7F5E-8C2A-4924-BE0A-DBFC8F307364}"/>
+  <xr:revisionPtr revIDLastSave="3489" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6135F2E3-2CD8-449B-A428-01D315836858}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -47,12 +47,12 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId18"/>
-    <pivotCache cacheId="16" r:id="rId19"/>
-    <pivotCache cacheId="17" r:id="rId20"/>
-    <pivotCache cacheId="18" r:id="rId21"/>
-    <pivotCache cacheId="19" r:id="rId22"/>
-    <pivotCache cacheId="20" r:id="rId23"/>
+    <pivotCache cacheId="21" r:id="rId18"/>
+    <pivotCache cacheId="22" r:id="rId19"/>
+    <pivotCache cacheId="23" r:id="rId20"/>
+    <pivotCache cacheId="24" r:id="rId21"/>
+    <pivotCache cacheId="25" r:id="rId22"/>
+    <pivotCache cacheId="26" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1547,57 +1547,6 @@
   </cellStyles>
   <dxfs count="123">
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -2147,6 +2096,57 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7491,7 +7491,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
@@ -7619,7 +7619,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="D75:G126" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" showAll="0">
@@ -8134,7 +8134,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I68:K82" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -8271,7 +8271,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
   <location ref="E42:I85" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -8528,7 +8528,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="96">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -8537,7 +8537,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -8560,7 +8560,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J163:L194" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -8724,7 +8724,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="77">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8741,7 +8741,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K9:M14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -8833,7 +8833,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -8906,7 +8906,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
   <location ref="A3:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9137,26 +9137,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="31">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="12">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9166,13 +9166,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="8">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="7">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9405,12 +9405,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G221" totalsRowCount="1">
   <autoFilter ref="A1:G220" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="59" totalsRowDxfId="58"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -9420,25 +9420,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="55">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="38">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9450,10 +9450,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9462,17 +9462,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="50" headerRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="33" headerRowBorderDxfId="32">
   <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="31"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="47">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="30">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -9482,22 +9482,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="46" headerRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="29" headerRowBorderDxfId="28">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="25"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="41">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="24">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="40">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="23">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9527,7 +9527,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9538,8 +9538,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -9554,7 +9554,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="16" totalsRowDxfId="15"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -9580,7 +9580,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -9596,7 +9596,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="3" totalsRowDxfId="2"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -9611,10 +9611,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="1">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="0">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9694,20 +9694,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K61" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:K60" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="16" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="14" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="13" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="12" totalsRowDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="96" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="95" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="94" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="93" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -9717,7 +9717,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="6" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="80" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9726,20 +9726,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I28" totalsRowCount="1" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I28" totalsRowCount="1" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75">
   <autoFilter ref="A1:I27" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="74" totalsRowDxfId="73"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10066,8 +10066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E413788-DC3D-4686-B6D6-08186A86599F}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="G2" zoomScale="89" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="T14" s="23" cm="1">
         <f t="array" ref="T14">(_xlfn.BYROW(B35,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L35)+_xlfn.IFNA(G53,0)</f>
-        <v>0</v>
+        <v>213103.51133869789</v>
       </c>
       <c r="U14" s="23" cm="1">
         <f t="array" ref="U14">(_xlfn.BYROW(B35,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H53,0)</f>
@@ -10881,7 +10881,7 @@
       </c>
       <c r="V14" s="44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>213103.51133869789</v>
       </c>
       <c r="W14" s="23">
         <f>(SUMIF(Table14[Party],O14,Table14[Credit]))+_xlfn.IFNA(J53,0)</f>
@@ -10889,7 +10889,7 @@
       </c>
       <c r="X14" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>213103.51133869789</v>
       </c>
       <c r="Y14" s="22">
         <v>10</v>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="C16" s="46">
         <f>SUM(G26:G38)+SUM(H26:H38)</f>
-        <v>6186624.9085588884</v>
+        <v>6399728.4198975861</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -11062,7 +11062,7 @@
       </c>
       <c r="C18" s="42">
         <f ca="1">SUM(OFFSET(I26,0,0,COUNTA(I:I)-ROW(I26)+9))</f>
-        <v>6186624.9085588884</v>
+        <v>6399728.4198975861</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="G35" s="23" cm="1">
         <f t="array" ref="G35">(_xlfn.BYROW(B35,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L35)</f>
-        <v>0</v>
+        <v>213103.51133869789</v>
       </c>
       <c r="H35" s="23" cm="1">
         <f t="array" ref="H35">(_xlfn.BYROW(B35,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M35)</f>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="I35" s="44">
         <f t="shared" ref="I35:I38" si="10">G35+H35</f>
-        <v>0</v>
+        <v>213103.51133869789</v>
       </c>
       <c r="J35" s="23">
         <f>SUMIF(Table14[Party], B35, Table14[Credit])</f>
@@ -11627,10 +11627,14 @@
       </c>
       <c r="K35" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+        <v>213103.51133869789</v>
+      </c>
+      <c r="L35" s="22">
+        <v>10</v>
+      </c>
+      <c r="M35" s="22">
+        <v>12</v>
+      </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="25"/>
@@ -11658,8 +11662,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
+      <c r="L36" s="22">
+        <v>10</v>
+      </c>
+      <c r="M36" s="22">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="25"/>
@@ -11687,8 +11695,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
+      <c r="L37" s="22">
+        <v>10</v>
+      </c>
+      <c r="M37" s="22">
+        <v>12</v>
+      </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="25"/>
@@ -11716,8 +11728,12 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
+      <c r="L38" s="22">
+        <v>10</v>
+      </c>
+      <c r="M38" s="22">
+        <v>12</v>
+      </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
@@ -15531,7 +15547,7 @@
   <dimension ref="B4:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15561,7 +15577,7 @@
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="72" t="s">
-        <v>23</v>
+        <v>265</v>
       </c>
       <c r="J6" t="str">
         <v>Arshad</v>
@@ -15588,7 +15604,7 @@
       <c r="C8" s="74"/>
       <c r="D8" s="76" cm="1">
         <f t="array" ref="D8">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), INDEX(Billing!P5:P19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>90939</v>
+        <v>23305</v>
       </c>
       <c r="J8" t="str">
         <v>Sufi Nawaz Sahab</v>
@@ -15609,7 +15625,7 @@
       <c r="C10" s="74"/>
       <c r="D10" s="76" cm="1">
         <f t="array" ref="D10">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!Q5:Q20, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>83155.632772494515</v>
+        <v>21310.35113386979</v>
       </c>
       <c r="J10" t="str">
         <v>Raaz Fabrics</v>
@@ -15629,11 +15645,11 @@
       </c>
       <c r="C12" s="74" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$B$26), OFFSET(Billing!L26, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!$B$26))), "Not Found")</f>
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="D12" s="74" cm="1">
         <f t="array" ref="D12">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!R5:R19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>83155.632772494515</v>
+        <v>21310.35113386979</v>
       </c>
       <c r="J12" t="str">
         <v>Ubaidullah</v>
@@ -15653,7 +15669,7 @@
       </c>
       <c r="C14" s="74" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$B$26), OFFSET(Billing!M26, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!$B$26))), "Not Found")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="74" cm="1">
         <f t="array" ref="D14">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!S5:S19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
@@ -15672,7 +15688,7 @@
       <c r="C16" s="74"/>
       <c r="D16" s="76" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!V5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>873134.14411119244</v>
+        <v>213103.51133869789</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.35">
@@ -15687,7 +15703,7 @@
       <c r="C18" s="74"/>
       <c r="D18" s="76" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!W5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.35">
@@ -15702,7 +15718,7 @@
       <c r="C20" s="74"/>
       <c r="D20" s="76" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!X5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>273134.14411119244</v>
+        <v>213103.51133869789</v>
       </c>
     </row>
   </sheetData>
@@ -15718,7 +15734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66267F4A-599E-4FA7-83B0-FA30D9237F09}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -15949,7 +15965,7 @@
       </c>
       <c r="C3" s="11">
         <f ca="1">Billing!C18 + SUMIFS(Table14[Credit], Table14[Party], "Transport")</f>
-        <v>6186624.9085588884</v>
+        <v>6399728.4198975861</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -15971,7 +15987,7 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C3-C4</f>
-        <v>638404.90855888836</v>
+        <v>851508.41989758611</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -15988,7 +16004,7 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">C3</f>
-        <v>6186624.9085588884</v>
+        <v>6399728.4198975861</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16006,7 +16022,7 @@
       </c>
       <c r="C13" s="81">
         <f ca="1">(C11-C12)</f>
-        <v>101637.90855888836</v>
+        <v>314741.41989758611</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16063,14 +16079,14 @@
       </c>
       <c r="C21" s="69">
         <f ca="1">(C13-C17)+C19</f>
-        <v>638404.90855888836</v>
+        <v>851508.41989758611</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="88">
         <f ca="1">C5*0.05</f>
-        <v>31920.245427944421</v>
+        <v>42575.420994879307</v>
       </c>
     </row>
   </sheetData>
@@ -16561,7 +16577,7 @@
   </sheetPr>
   <dimension ref="A1:AB126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="103" workbookViewId="0">
+    <sheetView topLeftCell="A39" zoomScale="103" workbookViewId="0">
       <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr updateLinks="always" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3489" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6135F2E3-2CD8-449B-A428-01D315836858}"/>
+  <xr:revisionPtr revIDLastSave="3687" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD03C59F-1ECC-4F3F-A3D6-391DA3DC1330}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -47,12 +47,12 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId18"/>
-    <pivotCache cacheId="22" r:id="rId19"/>
-    <pivotCache cacheId="23" r:id="rId20"/>
-    <pivotCache cacheId="24" r:id="rId21"/>
-    <pivotCache cacheId="25" r:id="rId22"/>
-    <pivotCache cacheId="26" r:id="rId23"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId19"/>
+    <pivotCache cacheId="2" r:id="rId20"/>
+    <pivotCache cacheId="3" r:id="rId21"/>
+    <pivotCache cacheId="4" r:id="rId22"/>
+    <pivotCache cacheId="5" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="279">
   <si>
     <t>Billing</t>
   </si>
@@ -943,6 +943,45 @@
   <si>
     <t>Ashraf Zia</t>
   </si>
+  <si>
+    <t>LXT 8141</t>
+  </si>
+  <si>
+    <t>LES 1961</t>
+  </si>
+  <si>
+    <t>7up</t>
+  </si>
+  <si>
+    <t>karaya//bearing+U</t>
+  </si>
+  <si>
+    <t>3x pheray</t>
+  </si>
+  <si>
+    <t>LES 3220</t>
+  </si>
+  <si>
+    <t>unloading</t>
+  </si>
+  <si>
+    <t>Ejaz folding</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>CAM switch x2</t>
+  </si>
+  <si>
+    <t>welding rods</t>
+  </si>
+  <si>
+    <t>waqas//ejaz salary</t>
+  </si>
+  <si>
+    <t>12k advance paid. 14500 left</t>
+  </si>
 </sst>
 </file>
 
@@ -1410,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1540,12 +1579,133 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="124">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1629,18 +1789,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -1930,15 +2078,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1946,25 +2085,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2021,27 +2141,6 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
@@ -2096,57 +2195,6 @@
       <font>
         <b/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3400,10 +3448,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45902.040145486113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
   <cacheSource type="worksheet">
@@ -7491,7 +7535,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
@@ -7567,7 +7611,7 @@
     <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="122">
+    <format dxfId="123">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7576,7 +7620,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="122">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -7585,7 +7629,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="121">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7595,7 +7639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="120">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -7619,8 +7663,145 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="D75:G126" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I74:K88" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="30">
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="28"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="100">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="D74:G125" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" showAll="0">
       <items count="30">
@@ -8133,145 +8314,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I68:K82" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="30">
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="28"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="99">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
   <location ref="E42:I85" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -8528,7 +8572,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="79">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -8537,7 +8581,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -8560,7 +8604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J163:L194" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -8724,7 +8768,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="60">
+    <format dxfId="85">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -8741,7 +8785,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K9:M14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -8833,7 +8877,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -8906,7 +8950,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
   <location ref="A3:C31" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9137,26 +9181,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="14">
+    <format dxfId="45">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="43">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9166,13 +9210,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="39">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="38">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9365,8 +9409,8 @@
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Party" xr10:uid="{8CB7DD44-BF59-47B2-AB64-03EC8FC8FD4A}" cache="Slicer_Party" caption="Party" columnCount="3" rowHeight="180000"/>
-  <slicer name="Date 1" xr10:uid="{8E7BDD3C-DB8C-4BD4-9ACC-14DA5E7A745C}" cache="Slicer_Date1" caption="Date" startItem="9" rowHeight="247650"/>
+  <slicer name="Party" xr10:uid="{8CB7DD44-BF59-47B2-AB64-03EC8FC8FD4A}" cache="Slicer_Party" caption="Party" startItem="15" columnCount="3" rowHeight="180000"/>
+  <slicer name="Date 1" xr10:uid="{8E7BDD3C-DB8C-4BD4-9ACC-14DA5E7A745C}" cache="Slicer_Date1" caption="Date" startItem="13" rowHeight="247650"/>
 </slicers>
 </file>
 
@@ -9386,14 +9430,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}" name="Table4" displayName="Table4" ref="B3:E15" totalsRowShown="0">
   <autoFilter ref="B3:E15" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="118">
+    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="119">
       <calculatedColumnFormula>B26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="117">
+    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="118">
       <calculatedColumnFormula>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC1535DD-3FE7-4F55-8040-E7643388A78E}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="116">
+    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="117">
       <calculatedColumnFormula>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9402,15 +9446,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G221" totalsRowCount="1">
-  <autoFilter ref="A1:G220" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G245" totalsRowCount="1">
+  <autoFilter ref="A1:G244" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="84" totalsRowDxfId="30"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="28" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="27">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -9420,25 +9464,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="51" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="80" tableBorderDxfId="79" totalsRowBorderDxfId="78">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44" totalsRowBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="75" headerRowBorderDxfId="74" tableBorderDxfId="73" totalsRowBorderDxfId="72">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="69" totalsRowDxfId="68">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="38">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="67">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9450,10 +9494,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="66" totalsRowDxfId="65"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9462,17 +9506,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="33" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="62" headerRowBorderDxfId="61">
   <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="60"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="30">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="59">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -9482,22 +9526,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="29" headerRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="58" headerRowBorderDxfId="57">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="54"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="53">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="23">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="52">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9527,7 +9571,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9538,8 +9582,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="49" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="48" totalsRowDxfId="18" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -9554,7 +9598,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="47" totalsRowDxfId="46"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -9565,12 +9609,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="115" dataDxfId="114">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115">
   <autoFilter ref="B7:D20" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="112" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="111" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="114"/>
+    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="113" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="112" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9580,7 +9624,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="36" totalsRowDxfId="35"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -9596,7 +9640,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="34" totalsRowDxfId="33"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -9611,10 +9655,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="32">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="31">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9627,7 +9671,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -9649,11 +9693,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="106" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="105" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="107" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="106" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9663,8 +9707,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9674,12 +9718,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="102" totalsRowDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="103" totalsRowDxfId="102"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="100">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="101">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -9691,23 +9735,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K61" totalsRowCount="1" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="A1:K60" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K64" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="A1:K63" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="96" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="95" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="94" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="93" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="16" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="15" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="13" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="12" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -9717,7 +9761,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="80" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="6" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9726,20 +9770,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I28" totalsRowCount="1" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75">
-  <autoFilter ref="A1:I27" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I33" totalsRowCount="1" headerRowDxfId="95" headerRowBorderDxfId="94" tableBorderDxfId="93">
+  <autoFilter ref="A1:I32" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="92" totalsRowDxfId="26"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="91" totalsRowDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="90" totalsRowDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="89" totalsRowDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="22" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="86" totalsRowDxfId="20" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10138,14 +10182,14 @@
       </c>
       <c r="C4" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>315162.7651792246</v>
+        <v>324901.24359912222</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>3082251.2801755676</v>
+        <v>3179636.0643745428</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
@@ -10222,15 +10266,15 @@
       </c>
       <c r="P5" s="23" cm="1">
         <f t="array" ref="P5">_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C44,0)</f>
-        <v>797705</v>
+        <v>808355</v>
       </c>
       <c r="Q5" s="23" cm="1">
         <f t="array" ref="Q5">_xlfn.BYROW(B26, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D44,0)</f>
-        <v>729430.32187271398</v>
+        <v>739168.80029261159</v>
       </c>
       <c r="R5" s="23" cm="1">
         <f t="array" ref="R5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E44,0)</f>
-        <v>729430.32187271398</v>
+        <v>739168.80029261159</v>
       </c>
       <c r="S5" s="78" cm="1">
         <f t="array" ref="S5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F44,0)</f>
@@ -10238,7 +10282,7 @@
       </c>
       <c r="T5" s="23" cm="1">
         <f t="array" ref="T5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)+_xlfn.IFNA(G44,0)</f>
-        <v>7294303.2187271398</v>
+        <v>7391688.0029261168</v>
       </c>
       <c r="U5" s="23" cm="1">
         <f t="array" ref="U5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H44,0)</f>
@@ -10246,15 +10290,15 @@
       </c>
       <c r="V5" s="44">
         <f>T5+U5</f>
-        <v>7294303.2187271398</v>
+        <v>7391688.0029261168</v>
       </c>
       <c r="W5" s="23">
         <f>(SUMIF(Table14[Party],O5,Table14[Credit]))+_xlfn.IFNA(J44,0)</f>
-        <v>6270100</v>
+        <v>6277000</v>
       </c>
       <c r="X5" s="98">
         <f>V5-W5</f>
-        <v>1024203.2187271398</v>
+        <v>1114688.0029261168</v>
       </c>
       <c r="Y5" s="22">
         <v>10</v>
@@ -10412,14 +10456,14 @@
       </c>
       <c r="C8" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>133784.74762253111</v>
+        <v>157327.1762984638</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" s="14">
         <f>((SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936) *12) + ((SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)* 9)</f>
-        <v>1294342.5384052671</v>
+        <v>1529388.2589612291</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -10506,31 +10550,31 @@
       </c>
       <c r="P9" s="23" cm="1">
         <f t="array" ref="P9">_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C48,0)</f>
-        <v>298842</v>
+        <v>324588</v>
       </c>
       <c r="Q9" s="23" cm="1">
         <f t="array" ref="Q9">_xlfn.BYROW(B30, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D48,0)</f>
-        <v>273264.44769568404</v>
+        <v>296806.87637161673</v>
       </c>
       <c r="R9" s="23" cm="1">
         <f t="array" ref="R9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E48,0)</f>
-        <v>223087.96634967084</v>
+        <v>238909.10753474763</v>
       </c>
       <c r="S9" s="78" cm="1">
         <f t="array" ref="S9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F48,0)</f>
-        <v>50176.48134601317</v>
+        <v>57897.768836869058</v>
       </c>
       <c r="T9" s="23" cm="1">
         <f t="array" ref="T9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L30)+_xlfn.IFNA(G48,0)</f>
-        <v>2007791.6971470376</v>
+        <v>2150181.9678127291</v>
       </c>
       <c r="U9" s="23" cm="1">
         <f t="array" ref="U9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H48,0)</f>
-        <v>602117.77615215804</v>
+        <v>694773.22604242875</v>
       </c>
       <c r="V9" s="44">
         <f t="shared" si="1"/>
-        <v>2609909.4732991955</v>
+        <v>2844955.1938551581</v>
       </c>
       <c r="W9" s="23">
         <f>(SUMIF(Table14[Party],O9,Table14[Credit]))+_xlfn.IFNA(J48,0)</f>
@@ -10538,7 +10582,7 @@
       </c>
       <c r="X9" s="98">
         <f t="shared" si="2"/>
-        <v>630809.47329919552</v>
+        <v>865855.19385515805</v>
       </c>
       <c r="Y9" s="22">
         <v>9</v>
@@ -10961,7 +11005,7 @@
       </c>
       <c r="C16" s="46">
         <f>SUM(G26:G38)+SUM(H26:H38)</f>
-        <v>6399728.4198975861</v>
+        <v>6732158.9246525243</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -11062,7 +11106,7 @@
       </c>
       <c r="C18" s="42">
         <f ca="1">SUM(OFFSET(I26,0,0,COUNTA(I:I)-ROW(I26)+9))</f>
-        <v>6399728.4198975861</v>
+        <v>6732158.9246525243</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -11208,15 +11252,15 @@
       </c>
       <c r="C26" s="23" cm="1">
         <f t="array" ref="C26:C35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
-        <v>344662</v>
+        <v>355312</v>
       </c>
       <c r="D26" s="23" cm="1">
         <f t="array" ref="D26:D35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
-        <v>315162.7651792246</v>
+        <v>324901.24359912222</v>
       </c>
       <c r="E26" s="71" cm="1">
         <f t="array" ref="E26:E35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
-        <v>315162.7651792246</v>
+        <v>324901.24359912222</v>
       </c>
       <c r="F26" s="78" cm="1">
         <f t="array" ref="F26:F35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
@@ -11224,7 +11268,7 @@
       </c>
       <c r="G26" s="23" cm="1">
         <f t="array" ref="G26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)</f>
-        <v>3151627.6517922459</v>
+        <v>3249012.435991222</v>
       </c>
       <c r="H26" s="23" cm="1">
         <f t="array" ref="H26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M26)</f>
@@ -11232,15 +11276,15 @@
       </c>
       <c r="I26" s="44">
         <f t="shared" ref="I26:I34" si="7">G26+H26</f>
-        <v>3151627.6517922459</v>
+        <v>3249012.435991222</v>
       </c>
       <c r="J26" s="23">
         <f>(SUMIF(Table14[Party],B26,Table14[Credit]))</f>
-        <v>2441262</v>
+        <v>2448162</v>
       </c>
       <c r="K26" s="42">
         <f>I26-J26</f>
-        <v>710365.65179224592</v>
+        <v>800850.43599122204</v>
       </c>
       <c r="L26" s="22">
         <v>10</v>
@@ -11383,28 +11427,28 @@
         <v>Sufi Nawaz Sahab</v>
       </c>
       <c r="C30" s="23">
-        <v>146307</v>
+        <v>172053</v>
       </c>
       <c r="D30" s="23">
-        <v>133784.74762253111</v>
+        <v>157327.1762984638</v>
       </c>
       <c r="E30" s="71">
-        <v>103691.4776883687</v>
+        <v>119512.61887344551</v>
       </c>
       <c r="F30" s="78">
-        <v>30093.269934162403</v>
+        <v>37814.557425018291</v>
       </c>
       <c r="G30" s="23" cm="1">
         <f t="array" ref="G30">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L30)</f>
-        <v>933223.29919531825</v>
+        <v>1075613.5698610095</v>
       </c>
       <c r="H30" s="23" cm="1">
         <f t="array" ref="H30">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M30)</f>
-        <v>361119.23920994881</v>
+        <v>453774.68910021952</v>
       </c>
       <c r="I30" s="44">
         <f t="shared" si="7"/>
-        <v>1294342.5384052671</v>
+        <v>1529388.2589612291</v>
       </c>
       <c r="J30" s="23">
         <f>(SUMIF(Table14[Party],B30,Table14[Credit]))</f>
@@ -11412,7 +11456,7 @@
       </c>
       <c r="K30" s="42">
         <f t="shared" si="8"/>
-        <v>-384757.46159473294</v>
+        <v>-149711.74103877088</v>
       </c>
       <c r="L30" s="22">
         <v>9</v>
@@ -12215,7 +12259,7 @@
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -12623,8 +12667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA2331-540A-4BE5-B987-3C6225CFE23F}">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="118" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12845,7 +12889,13 @@
       </c>
       <c r="C12" s="20">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table11[[#This Row],[Date]], Table14[Party],"Salary ", Table14[Description],Table11[[#This Row],[Column1]])</f>
-        <v>0</v>
+        <v>25000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" t="s">
+        <v>278</v>
       </c>
       <c r="H12" s="1">
         <v>45894</v>
@@ -12857,11 +12907,14 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="C13" s="20">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table11[[#This Row],[Date]], Table14[Party],"Salary ", Table14[Description],Table11[[#This Row],[Column1]])</f>
-        <v>0</v>
+        <v>8400</v>
+      </c>
+      <c r="D13" t="s">
+        <v>273</v>
       </c>
       <c r="H13" s="1">
         <v>45895</v>
@@ -13232,7 +13285,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="26">
         <f>SUM(Table11[Amount])</f>
-        <v>168400</v>
+        <v>201800</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35">
@@ -15104,7 +15157,7 @@
       </c>
       <c r="J19">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</f>
-        <v>0</v>
+        <v>22270</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
@@ -15401,7 +15454,7 @@
       <c r="H35" s="1"/>
       <c r="J35">
         <f>SUM(Table15[Amount])</f>
-        <v>257261</v>
+        <v>279531</v>
       </c>
     </row>
   </sheetData>
@@ -15441,7 +15494,7 @@
       </c>
       <c r="B2" s="14">
         <f>Billing!W5</f>
-        <v>6270100</v>
+        <v>6277000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -15734,7 +15787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66267F4A-599E-4FA7-83B0-FA30D9237F09}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -15782,7 +15835,7 @@
       </c>
       <c r="C4" s="11">
         <f>Wood!N14</f>
-        <v>3332140</v>
+        <v>3937750</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -15809,7 +15862,7 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(Table14[Debit], Table14[Party],Table12[[#This Row],[Type]])</f>
-        <v>38935</v>
+        <v>40165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -15827,7 +15880,7 @@
       </c>
       <c r="C9" s="11">
         <f>Table11[[#Totals],[Amount]]+'Salary Acc'!I35</f>
-        <v>308400</v>
+        <v>341800</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -15845,7 +15898,7 @@
       </c>
       <c r="C11" s="11">
         <f>Table13[[#Totals],[Debit]]</f>
-        <v>86035</v>
+        <v>90635</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -15854,7 +15907,7 @@
       </c>
       <c r="C12" s="11">
         <f>Table15[[#Totals],[Amount]]</f>
-        <v>257261</v>
+        <v>279531</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -15863,7 +15916,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <f>SUM(Table12[Amount])</f>
-        <v>5548220</v>
+        <v>6215330</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -15965,7 +16018,7 @@
       </c>
       <c r="C3" s="11">
         <f ca="1">Billing!C18 + SUMIFS(Table14[Credit], Table14[Party], "Transport")</f>
-        <v>6399728.4198975861</v>
+        <v>6732158.9246525243</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -15977,7 +16030,7 @@
       </c>
       <c r="C4" s="11">
         <f>Table12[[#Totals],[Amount]]</f>
-        <v>5548220</v>
+        <v>6215330</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -15987,7 +16040,7 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C3-C4</f>
-        <v>851508.41989758611</v>
+        <v>516828.92465252429</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16004,7 +16057,7 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">C3</f>
-        <v>6399728.4198975861</v>
+        <v>6732158.9246525243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16013,7 +16066,7 @@
       </c>
       <c r="C12" s="67">
         <f>SUM(Table14[Credit])</f>
-        <v>6084987</v>
+        <v>6093387</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16022,7 +16075,7 @@
       </c>
       <c r="C13" s="81">
         <f ca="1">(C11-C12)</f>
-        <v>314741.41989758611</v>
+        <v>638771.92465252429</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16035,7 +16088,7 @@
       </c>
       <c r="C15" s="65">
         <f>C4</f>
-        <v>5548220</v>
+        <v>6215330</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -16044,7 +16097,7 @@
       </c>
       <c r="C16" s="67">
         <f>SUM(Table14[Debit])</f>
-        <v>5515440</v>
+        <v>6003140</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16053,7 +16106,7 @@
       </c>
       <c r="C17" s="81">
         <f>C15-C16</f>
-        <v>32780</v>
+        <v>212190</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16066,7 +16119,7 @@
       </c>
       <c r="C19" s="84">
         <f>Table18[[#Totals],[amount]]</f>
-        <v>569547</v>
+        <v>90247</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16079,14 +16132,14 @@
       </c>
       <c r="C21" s="69">
         <f ca="1">(C13-C17)+C19</f>
-        <v>851508.41989758611</v>
+        <v>516828.92465252429</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="88">
         <f ca="1">C5*0.05</f>
-        <v>42575.420994879307</v>
+        <v>25841.446232626215</v>
       </c>
     </row>
   </sheetData>
@@ -16345,7 +16398,7 @@
       </c>
       <c r="D19">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="E19">
         <f>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
@@ -16551,7 +16604,7 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUBTOTAL(109,Table13[Debit])</f>
-        <v>86035</v>
+        <v>90635</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(109,Table13[Credit])</f>
@@ -16559,7 +16612,7 @@
       </c>
       <c r="F35">
         <f>Table13[[#Totals],[Debit]]-Table13[[#Totals],[Credit]]</f>
-        <v>86035</v>
+        <v>90635</v>
       </c>
     </row>
   </sheetData>
@@ -16575,10 +16628,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB126"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="103" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="103" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16589,7 +16642,7 @@
     <col min="4" max="4" width="16.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="10" customWidth="1"/>
     <col min="10" max="10" width="18" style="10" bestFit="1" customWidth="1"/>
@@ -17038,7 +17091,7 @@
         <v>3.6049079901958692</v>
       </c>
       <c r="I11" s="32">
-        <f>IF(E11="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>39949.70738844185</v>
       </c>
       <c r="J11" s="32" cm="1">
@@ -17087,7 +17140,7 @@
       </c>
       <c r="H12" s="32"/>
       <c r="I12" s="32">
-        <f>IF(E12="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>2050.1097293343087</v>
       </c>
       <c r="J12" s="32" cm="1">
@@ -17139,7 +17192,7 @@
         <v>1.1546260975675722</v>
       </c>
       <c r="I13" s="32">
-        <f>IF(E13="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>23730.797366495979</v>
       </c>
       <c r="J13" s="32" cm="1">
@@ -17191,7 +17244,7 @@
         <v>3.6049079901958692</v>
       </c>
       <c r="I14" s="32">
-        <f>IF(E14="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>7993.7820043891743</v>
       </c>
       <c r="J14" s="32" cm="1">
@@ -17243,7 +17296,7 @@
         <v>1.4266519823564607</v>
       </c>
       <c r="I15" s="32">
-        <f>IF(E15="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>44536.393562545723</v>
       </c>
       <c r="J15" s="32" cm="1">
@@ -17295,7 +17348,7 @@
         <v>1.0543117184963648</v>
       </c>
       <c r="I16" s="32">
-        <f>IF(E16="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>3785.6620336503297</v>
       </c>
       <c r="J16" s="32" cm="1">
@@ -17348,7 +17401,7 @@
         <v>26.285530898047298</v>
       </c>
       <c r="I17" s="32">
-        <f>IF(E17="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>1810.534016093636</v>
       </c>
       <c r="J17" s="32" cm="1">
@@ -17400,7 +17453,7 @@
         <v>1.1673524841483669</v>
       </c>
       <c r="I18" s="32">
-        <f>IF(E18="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>19770.48280907096</v>
       </c>
       <c r="J18" s="32" cm="1">
@@ -17453,7 +17506,7 @@
         <v>26.285530898047298</v>
       </c>
       <c r="I19" s="32">
-        <f>IF(E19="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>5857.7176298463792</v>
       </c>
       <c r="J19" s="32" cm="1">
@@ -17505,7 +17558,7 @@
         <v>2.1297287800330906</v>
       </c>
       <c r="I20" s="32">
-        <f>IF(E20="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>6814.1916605705928</v>
       </c>
       <c r="J20" s="32" cm="1">
@@ -17557,7 +17610,7 @@
         <v>1.4266519823564607</v>
       </c>
       <c r="I21" s="32">
-        <f>IF(E21="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>5117.9590343818581</v>
       </c>
       <c r="J21" s="32" cm="1">
@@ -17609,7 +17662,7 @@
         <v>2.1297287800330906</v>
       </c>
       <c r="I22" s="32">
-        <f>IF(E22="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>19355.340160936357</v>
       </c>
       <c r="J22" s="32" cm="1">
@@ -17659,7 +17712,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I23" s="32">
-        <f>IF(E23="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>0</v>
       </c>
       <c r="J23" s="32" cm="1">
@@ -17711,7 +17764,7 @@
         <v>3.6049079901958692</v>
       </c>
       <c r="I24" s="32">
-        <f>IF(E24="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>14861.923920994881</v>
       </c>
       <c r="J24" s="32" cm="1">
@@ -17763,7 +17816,7 @@
         <v>3.6049079901958692</v>
       </c>
       <c r="I25" s="32">
-        <f>IF(E25="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>30896.122896854427</v>
       </c>
       <c r="J25" s="32" cm="1">
@@ -17816,7 +17869,7 @@
         <v>26.285530898047298</v>
       </c>
       <c r="I26" s="32">
-        <f>IF(E26="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>7841.0753474762259</v>
       </c>
       <c r="J26" s="32" cm="1">
@@ -17868,7 +17921,7 @@
         <v>1.1646977004744201</v>
       </c>
       <c r="I27" s="32">
-        <f>IF(E27="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>3930.1389904901248</v>
       </c>
       <c r="J27" s="32" cm="1">
@@ -17920,7 +17973,7 @@
         <v>-0.29831229326579489</v>
       </c>
       <c r="I28" s="32">
-        <f>IF(E28="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>20554.133138258963</v>
       </c>
       <c r="J28" s="32" cm="1">
@@ -17973,7 +18026,7 @@
         <v>26.285530898047298</v>
       </c>
       <c r="I29" s="32">
-        <f>IF(E29="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>7809.0709583028538</v>
       </c>
       <c r="J29" s="32" cm="1">
@@ -18025,7 +18078,7 @@
         <v>0.1277545164018079</v>
       </c>
       <c r="I30" s="32">
-        <f>IF(E30="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>6596.5618141916611</v>
       </c>
       <c r="J30" s="32" cm="1">
@@ -18077,7 +18130,7 @@
         <v>3.6049079901958692</v>
       </c>
       <c r="I31" s="32">
-        <f>IF(E31="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>6115.5815654718363</v>
       </c>
       <c r="J31" s="32" cm="1">
@@ -18129,7 +18182,7 @@
         <v>-5.5718417093686412E-3</v>
       </c>
       <c r="I32" s="32">
-        <f>IF(E32="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>1750.1828822238481</v>
       </c>
       <c r="J32" s="32" cm="1">
@@ -18181,7 +18234,7 @@
         <v>-5.5718417093686412E-3</v>
       </c>
       <c r="I33" s="32">
-        <f>IF(E33="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>8425.3840526700806</v>
       </c>
       <c r="J33" s="32" cm="1">
@@ -18233,7 +18286,7 @@
         <v>39.837673547718609</v>
       </c>
       <c r="I34" s="32">
-        <f>IF(E34="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>19612.289685442578</v>
       </c>
       <c r="J34" s="32" cm="1">
@@ -18285,7 +18338,7 @@
         <v>1.1646977004744201</v>
       </c>
       <c r="I35" s="32">
-        <f>IF(E35="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>10843.087051938552</v>
       </c>
       <c r="J35" s="32" cm="1">
@@ -18337,7 +18390,7 @@
         <v>1.1646977004744201</v>
       </c>
       <c r="I36" s="32">
-        <f>IF(E36="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>17298.829553767377</v>
       </c>
       <c r="J36" s="32" cm="1">
@@ -18389,7 +18442,7 @@
         <v>39.837673547718609</v>
       </c>
       <c r="I37" s="32">
-        <f>IF(E37="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>18087.051938551573</v>
       </c>
       <c r="J37" s="32" cm="1">
@@ -18441,7 +18494,7 @@
         <v>1.6331850771986467</v>
       </c>
       <c r="I38" s="32">
-        <f>IF(E38="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>3970.3730797366497</v>
       </c>
       <c r="J38" s="32" cm="1">
@@ -18493,7 +18546,7 @@
         <v>1.6331850771986467</v>
       </c>
       <c r="I39" s="32">
-        <f>IF(E39="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>25693.123628383324</v>
       </c>
       <c r="J39" s="32" cm="1">
@@ -18545,7 +18598,7 @@
         <v>1.6039639663327563</v>
       </c>
       <c r="I40" s="32">
-        <f>IF(E40="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>12001.645940014632</v>
       </c>
       <c r="J40" s="32" cm="1">
@@ -18597,7 +18650,7 @@
         <v>3.3481309203728671</v>
       </c>
       <c r="I41" s="32">
-        <f>IF(E41="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>30634.601316752014</v>
       </c>
       <c r="J41" s="32" cm="1">
@@ -18649,7 +18702,7 @@
         <v>39.837673547718609</v>
       </c>
       <c r="I42" s="32">
-        <f>IF(E42="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>10700.438917337236</v>
       </c>
       <c r="J42" s="32" cm="1">
@@ -18701,7 +18754,7 @@
         <v>39.837673547718609</v>
       </c>
       <c r="I43" s="32">
-        <f>IF(E43="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>23919.166057059258</v>
       </c>
       <c r="J43" s="32" cm="1">
@@ -18753,7 +18806,7 @@
         <v>1.6039639663327563</v>
       </c>
       <c r="I44" s="32">
-        <f>IF(E44="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>9460.4974396488669</v>
       </c>
       <c r="J44" s="32" cm="1">
@@ -18805,7 +18858,7 @@
         <v>85.60596464237544</v>
       </c>
       <c r="I45" s="32">
-        <f>IF(E45="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>6937.6371616678862</v>
       </c>
       <c r="J45" s="32" cm="1">
@@ -18855,7 +18908,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I46" s="32">
-        <f>IF(E46="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>0</v>
       </c>
       <c r="J46" s="32" cm="1">
@@ -18907,7 +18960,7 @@
         <v>-3.7679603689369401E-2</v>
       </c>
       <c r="I47" s="32">
-        <f>IF(E47="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>13599.122165325531</v>
       </c>
       <c r="J47" s="32" cm="1">
@@ -18959,7 +19012,7 @@
         <v>2.882381802799145</v>
       </c>
       <c r="I48" s="32">
-        <f>IF(E48="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>10074.981711777617</v>
       </c>
       <c r="J48" s="32" cm="1">
@@ -19011,18 +19064,12 @@
         <v>5.8355745045743106</v>
       </c>
       <c r="I49" s="32">
-        <f>IF(E49="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>21310.35113386979</v>
       </c>
-      <c r="J49" s="32" cm="1">
-        <f t="array" ref="J49">_xlfn.IFS(
-AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
-AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
-AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
-Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
-Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
-)</f>
-        <v>213103.51133869789</v>
+      <c r="J49" s="32">
+        <f>Table1[[#This Row],[tiyar/meters]]*12</f>
+        <v>255724.21360643749</v>
       </c>
       <c r="K49" s="29"/>
       <c r="P49"/>
@@ -19063,7 +19110,7 @@
         <v>3.3481309203728671</v>
       </c>
       <c r="I50" s="32">
-        <f>IF(E50="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>8511.3386978785675</v>
       </c>
       <c r="J50" s="32" cm="1">
@@ -19115,7 +19162,7 @@
         <v>39.837673547718609</v>
       </c>
       <c r="I51" s="32">
-        <f>IF(E51="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>18635.6986100951</v>
       </c>
       <c r="J51" s="32" cm="1">
@@ -19167,7 +19214,7 @@
         <v>-3.2518265571699345</v>
       </c>
       <c r="I52" s="32">
-        <f>IF(E52="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>6419.1660570592539</v>
       </c>
       <c r="J52" s="32" cm="1">
@@ -19219,7 +19266,7 @@
         <v>0.9423118406070472</v>
       </c>
       <c r="I53" s="32">
-        <f>IF(E53="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>2538.4052670080468</v>
       </c>
       <c r="J53" s="32" cm="1">
@@ -19271,7 +19318,7 @@
         <v>0.9423118406070472</v>
       </c>
       <c r="I54" s="32">
-        <f>IF(E54="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>23220.555961960501</v>
       </c>
       <c r="J54" s="32" cm="1">
@@ -19323,7 +19370,7 @@
         <v>39.837673547718609</v>
       </c>
       <c r="I55" s="32">
-        <f>IF(E55="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>9597.6591075347478</v>
       </c>
       <c r="J55" s="32" cm="1">
@@ -19376,7 +19423,7 @@
         <v>26.285530898047298</v>
       </c>
       <c r="I56" s="32">
-        <f>IF(E56="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>8734.4550109729335</v>
       </c>
       <c r="J56" s="32" cm="1">
@@ -19429,7 +19476,7 @@
         <v>26.285530898047298</v>
       </c>
       <c r="I57" s="32">
-        <f>IF(E57="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>12717.629846378934</v>
       </c>
       <c r="J57" s="32" cm="1">
@@ -19481,7 +19528,7 @@
         <v>0.25965387856857092</v>
       </c>
       <c r="I58" s="32">
-        <f>IF(E58="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>9758.5954645208494</v>
       </c>
       <c r="J58" s="32" cm="1">
@@ -19531,7 +19578,7 @@
         <v>3.6756071472797061</v>
       </c>
       <c r="I59" s="32">
-        <f>IF(E59="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>14447.695683979518</v>
       </c>
       <c r="J59" s="32" cm="1">
@@ -19579,7 +19626,7 @@
         <v>72.435094736894058</v>
       </c>
       <c r="I60" s="32">
-        <f>IF(E60="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>6046.0863204096568</v>
       </c>
       <c r="J60" s="32" cm="1">
@@ -19603,26 +19650,47 @@
       <c r="U60"/>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50" cm="1">
-        <f t="array" aca="1" ref="I61" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>644323.335771763</v>
-      </c>
-      <c r="J61" s="50" cm="1">
-        <f t="array" aca="1" ref="J61" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>6399728.419897587</v>
-      </c>
-      <c r="K61">
-        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
-        <v>6399728.419897587</v>
-      </c>
+      <c r="A61" s="28">
+        <v>45901</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="29">
+        <v>770</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="11">
+        <v>1607</v>
+      </c>
+      <c r="F61" s="11">
+        <f>101239-40502</f>
+        <v>60737</v>
+      </c>
+      <c r="G61" s="11">
+        <v>10650</v>
+      </c>
+      <c r="H61" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>26.285530898047298</v>
+      </c>
+      <c r="I61" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>9738.4784198975867</v>
+      </c>
+      <c r="J61" s="32" cm="1">
+        <f t="array" ref="J61">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>97384.78419897586</v>
+      </c>
+      <c r="K61" s="29"/>
       <c r="L61"/>
       <c r="M61"/>
       <c r="P61"/>
@@ -19631,6 +19699,46 @@
       <c r="S61"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A62" s="28">
+        <v>45901</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="29">
+        <v>771</v>
+      </c>
+      <c r="D62" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E62" s="11">
+        <v>1659</v>
+      </c>
+      <c r="F62" s="11">
+        <v>21934</v>
+      </c>
+      <c r="G62" s="11">
+        <v>17302</v>
+      </c>
+      <c r="H62" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>72.435094736894058</v>
+      </c>
+      <c r="I62" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>15821.141185076813</v>
+      </c>
+      <c r="J62" s="32" cm="1">
+        <f t="array" ref="J62">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>142390.27066569132</v>
+      </c>
+      <c r="K62" s="29"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="P62"/>
@@ -19639,6 +19747,46 @@
       <c r="S62"/>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A63" s="28">
+        <v>45901</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="29">
+        <v>772</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="11">
+        <v>1669</v>
+      </c>
+      <c r="F63" s="11">
+        <v>30140</v>
+      </c>
+      <c r="G63" s="11">
+        <v>8444</v>
+      </c>
+      <c r="H63" s="32" t="str">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>NF</v>
+      </c>
+      <c r="I63" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>7721.2874908558897</v>
+      </c>
+      <c r="J63" s="32" cm="1">
+        <f t="array" ref="J63">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>92655.449890270684</v>
+      </c>
+      <c r="K63" s="29"/>
       <c r="L63"/>
       <c r="M63"/>
       <c r="P63"/>
@@ -19647,6 +19795,26 @@
       <c r="S63"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50" cm="1">
+        <f t="array" aca="1" ref="I64" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>677604.2428675933</v>
+      </c>
+      <c r="J64" s="50" cm="1">
+        <f t="array" aca="1" ref="J64" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>6774779.6269202651</v>
+      </c>
+      <c r="K64">
+        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
+        <v>6774779.6269202651</v>
+      </c>
       <c r="L64"/>
       <c r="M64"/>
       <c r="P64"/>
@@ -19679,15 +19847,6 @@
       <c r="S67"/>
     </row>
     <row r="68" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="I68" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J68" t="s">
-        <v>97</v>
-      </c>
-      <c r="K68" t="s">
-        <v>98</v>
-      </c>
       <c r="L68"/>
       <c r="M68"/>
       <c r="P68"/>
@@ -19696,15 +19855,6 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="I69" s="27">
-        <v>45885</v>
-      </c>
-      <c r="J69" s="50">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="K69" s="14">
-        <v>20501.097293343086</v>
-      </c>
       <c r="L69"/>
       <c r="M69"/>
       <c r="P69"/>
@@ -19713,14 +19863,11 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="I70" s="27">
-        <v>45886</v>
-      </c>
-      <c r="J70" s="50">
-        <v>972869.42209217278</v>
-      </c>
-      <c r="K70" s="14">
-        <v>9691041.9714703746</v>
+      <c r="D70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
       </c>
       <c r="L70"/>
       <c r="M70"/>
@@ -19731,19 +19878,10 @@
     </row>
     <row r="71" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D71" s="3" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="E71" t="s">
         <v>95</v>
-      </c>
-      <c r="I71" s="27">
-        <v>45888</v>
-      </c>
-      <c r="J71" s="50">
-        <v>71674.286759327006</v>
-      </c>
-      <c r="K71" s="14">
-        <v>716742.86759327003</v>
       </c>
       <c r="L71"/>
       <c r="M71"/>
@@ -19754,19 +19892,10 @@
     </row>
     <row r="72" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D72" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E72" t="s">
         <v>95</v>
-      </c>
-      <c r="I72" s="27">
-        <v>45890</v>
-      </c>
-      <c r="J72" s="50">
-        <v>50132.589612289696</v>
-      </c>
-      <c r="K72" s="14">
-        <v>501325.89612289687</v>
       </c>
       <c r="L72"/>
       <c r="M72"/>
@@ -19776,21 +19905,6 @@
       <c r="S72"/>
     </row>
     <row r="73" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D73" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E73" t="s">
-        <v>95</v>
-      </c>
-      <c r="I73" s="27">
-        <v>45891</v>
-      </c>
-      <c r="J73" s="50">
-        <v>37560.351133869786</v>
-      </c>
-      <c r="K73" s="14">
-        <v>375603.51133869792</v>
-      </c>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
@@ -19799,14 +19913,26 @@
       <c r="Q73"/>
     </row>
     <row r="74" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="I74" s="27">
-        <v>45892</v>
-      </c>
-      <c r="J74" s="50">
-        <v>76884.601316752029</v>
-      </c>
-      <c r="K74" s="14">
-        <v>764915.87417703005</v>
+      <c r="D74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" t="s">
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" t="s">
+        <v>97</v>
+      </c>
+      <c r="K74" t="s">
+        <v>98</v>
       </c>
       <c r="L74"/>
       <c r="M74"/>
@@ -19816,26 +19942,24 @@
       <c r="Q74"/>
     </row>
     <row r="75" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" t="s">
-        <v>96</v>
-      </c>
-      <c r="F75" t="s">
-        <v>97</v>
-      </c>
-      <c r="G75" t="s">
-        <v>98</v>
+      <c r="D75" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" s="33">
+        <v>972869.42209217278</v>
+      </c>
+      <c r="G75">
+        <v>9691041.9714703746</v>
       </c>
       <c r="I75" s="27">
-        <v>45894</v>
+        <v>45885</v>
       </c>
       <c r="J75" s="50">
-        <v>81706.291148500371</v>
+        <v>2050.1097293343087</v>
       </c>
       <c r="K75" s="14">
-        <v>806219.82443306514</v>
+        <v>20501.097293343086</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -19845,24 +19969,26 @@
       <c r="Q75"/>
     </row>
     <row r="76" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D76" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76"/>
+      <c r="D76" s="16">
+        <v>716</v>
+      </c>
+      <c r="E76">
+        <v>43689</v>
+      </c>
       <c r="F76" s="33">
+        <v>39949.70738844185</v>
+      </c>
+      <c r="G76">
+        <v>399497.07388441847</v>
+      </c>
+      <c r="I76" s="27">
+        <v>45886</v>
+      </c>
+      <c r="J76" s="50">
         <v>972869.42209217278</v>
       </c>
-      <c r="G76">
+      <c r="K76" s="14">
         <v>9691041.9714703746</v>
-      </c>
-      <c r="I76" s="27">
-        <v>45895</v>
-      </c>
-      <c r="J76" s="50">
-        <v>17298.829553767377</v>
-      </c>
-      <c r="K76" s="14">
-        <v>155689.46598390638</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -19873,25 +19999,25 @@
     </row>
     <row r="77" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D77" s="16">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E77">
-        <v>43689</v>
+        <v>25952</v>
       </c>
       <c r="F77" s="33">
-        <v>39949.70738844185</v>
+        <v>23730.797366495979</v>
       </c>
       <c r="G77">
-        <v>399497.07388441847</v>
+        <v>237307.97366495978</v>
       </c>
       <c r="I77" s="27">
-        <v>45896</v>
+        <v>45888</v>
       </c>
       <c r="J77" s="50">
-        <v>59752.194586686186</v>
+        <v>71674.286759327006</v>
       </c>
       <c r="K77" s="14">
-        <v>555856.80321872712</v>
+        <v>716742.86759327003</v>
       </c>
       <c r="L77"/>
       <c r="M77"/>
@@ -19902,25 +20028,25 @@
     </row>
     <row r="78" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D78" s="16">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E78">
-        <v>25952</v>
+        <v>8742</v>
       </c>
       <c r="F78" s="33">
-        <v>23730.797366495979</v>
+        <v>7993.7820043891743</v>
       </c>
       <c r="G78">
-        <v>237307.97366495978</v>
+        <v>79937.820043891741</v>
       </c>
       <c r="I78" s="27">
-        <v>45897</v>
+        <v>45890</v>
       </c>
       <c r="J78" s="50">
-        <v>41335.040234089247</v>
+        <v>50132.589612289696</v>
       </c>
       <c r="K78" s="14">
-        <v>413350.40234089253</v>
+        <v>501325.89612289687</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
@@ -19931,25 +20057,25 @@
     </row>
     <row r="79" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D79" s="16">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E79">
-        <v>8742</v>
+        <v>48705</v>
       </c>
       <c r="F79" s="33">
-        <v>7993.7820043891743</v>
+        <v>44536.393562545723</v>
       </c>
       <c r="G79">
-        <v>79937.820043891741</v>
+        <v>445363.9356254572</v>
       </c>
       <c r="I79" s="27">
-        <v>45898</v>
+        <v>45891</v>
       </c>
       <c r="J79" s="50">
-        <v>40317.300658376014</v>
+        <v>37560.351133869786</v>
       </c>
       <c r="K79" s="14">
-        <v>393712.50914411119</v>
+        <v>375603.51133869792</v>
       </c>
       <c r="L79"/>
       <c r="M79"/>
@@ -19960,25 +20086,25 @@
     </row>
     <row r="80" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D80" s="16">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E80">
-        <v>48705</v>
+        <v>4140</v>
       </c>
       <c r="F80" s="33">
-        <v>44536.393562545723</v>
+        <v>3785.6620336503297</v>
       </c>
       <c r="G80">
-        <v>445363.9356254572</v>
+        <v>37856.6203365033</v>
       </c>
       <c r="I80" s="27">
-        <v>45899</v>
+        <v>45892</v>
       </c>
       <c r="J80" s="50">
-        <v>53495.793708851503</v>
+        <v>76884.601316752029</v>
       </c>
       <c r="K80" s="14">
-        <v>582306.14484272129</v>
+        <v>764915.87417703005</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
@@ -19989,25 +20115,25 @@
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D81" s="16">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E81">
-        <v>4140</v>
+        <v>1980</v>
       </c>
       <c r="F81" s="33">
-        <v>3785.6620336503297</v>
+        <v>1810.534016093636</v>
       </c>
       <c r="G81">
-        <v>37856.6203365033</v>
+        <v>18105.340160936361</v>
       </c>
       <c r="I81" s="27">
-        <v>45900</v>
+        <v>45894</v>
       </c>
       <c r="J81" s="50">
-        <v>112115.94732991954</v>
+        <v>81706.291148500371</v>
       </c>
       <c r="K81" s="14">
-        <v>1113504.0234089247</v>
+        <v>806219.82443306514</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
@@ -20018,25 +20144,25 @@
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D82" s="16">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E82">
-        <v>1980</v>
+        <v>21621</v>
       </c>
       <c r="F82" s="33">
-        <v>1810.534016093636</v>
+        <v>19770.48280907096</v>
       </c>
       <c r="G82">
-        <v>18105.340160936361</v>
-      </c>
-      <c r="I82" s="27" t="s">
-        <v>28</v>
+        <v>197704.82809070961</v>
+      </c>
+      <c r="I82" s="27">
+        <v>45895</v>
       </c>
       <c r="J82" s="50">
-        <v>1617192.7578639358</v>
+        <v>17298.829553767377</v>
       </c>
       <c r="K82" s="14">
-        <v>16090770.391367963</v>
+        <v>155689.46598390638</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -20047,16 +20173,25 @@
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D83" s="16">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E83">
-        <v>21621</v>
+        <v>6406</v>
       </c>
       <c r="F83" s="33">
-        <v>19770.48280907096</v>
+        <v>5857.7176298463792</v>
       </c>
       <c r="G83">
-        <v>197704.82809070961</v>
+        <v>58577.17629846379</v>
+      </c>
+      <c r="I83" s="27">
+        <v>45896</v>
+      </c>
+      <c r="J83" s="50">
+        <v>59752.194586686186</v>
+      </c>
+      <c r="K83" s="14">
+        <v>555856.80321872712</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -20067,16 +20202,25 @@
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D84" s="16">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E84">
-        <v>6406</v>
+        <v>7452</v>
       </c>
       <c r="F84" s="33">
-        <v>5857.7176298463792</v>
+        <v>6814.1916605705928</v>
       </c>
       <c r="G84">
-        <v>58577.17629846379</v>
+        <v>68141.916605705934</v>
+      </c>
+      <c r="I84" s="27">
+        <v>45897</v>
+      </c>
+      <c r="J84" s="50">
+        <v>41335.040234089247</v>
+      </c>
+      <c r="K84" s="14">
+        <v>413350.40234089253</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -20087,16 +20231,25 @@
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D85" s="16">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E85">
-        <v>7452</v>
+        <v>5597</v>
       </c>
       <c r="F85" s="33">
-        <v>6814.1916605705928</v>
+        <v>5117.9590343818581</v>
       </c>
       <c r="G85">
-        <v>68141.916605705934</v>
+        <v>51179.590343818578</v>
+      </c>
+      <c r="I85" s="27">
+        <v>45898</v>
+      </c>
+      <c r="J85" s="50">
+        <v>40317.300658376014</v>
+      </c>
+      <c r="K85" s="14">
+        <v>393712.50914411119</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -20107,16 +20260,25 @@
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D86" s="16">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E86">
-        <v>5597</v>
+        <v>21167</v>
       </c>
       <c r="F86" s="33">
-        <v>5117.9590343818581</v>
+        <v>19355.340160936357</v>
       </c>
       <c r="G86">
-        <v>51179.590343818578</v>
+        <v>193553.40160936356</v>
+      </c>
+      <c r="I86" s="27">
+        <v>45899</v>
+      </c>
+      <c r="J86" s="50">
+        <v>53495.793708851503</v>
+      </c>
+      <c r="K86" s="14">
+        <v>582306.14484272129</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -20127,16 +20289,25 @@
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D87" s="16">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E87">
-        <v>21167</v>
+        <v>2010</v>
       </c>
       <c r="F87" s="33">
-        <v>19355.340160936357</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>193553.40160936356</v>
+        <v>0</v>
+      </c>
+      <c r="I87" s="27">
+        <v>45900</v>
+      </c>
+      <c r="J87" s="50">
+        <v>112115.94732991954</v>
+      </c>
+      <c r="K87" s="14">
+        <v>1113504.0234089247</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -20147,16 +20318,25 @@
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D88" s="16">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E88">
-        <v>2010</v>
+        <v>16253</v>
       </c>
       <c r="F88" s="33">
-        <v>0</v>
+        <v>14861.923920994881</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>148619.23920994881</v>
+      </c>
+      <c r="I88" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J88" s="50">
+        <v>1617192.7578639358</v>
+      </c>
+      <c r="K88" s="14">
+        <v>16090770.391367963</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -20167,16 +20347,16 @@
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D89" s="16">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E89">
-        <v>16253</v>
+        <v>33788</v>
       </c>
       <c r="F89" s="33">
-        <v>14861.923920994881</v>
+        <v>30896.122896854427</v>
       </c>
       <c r="G89">
-        <v>148619.23920994881</v>
+        <v>308961.22896854428</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -20187,16 +20367,16 @@
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D90" s="16">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E90">
-        <v>33788</v>
+        <v>8575</v>
       </c>
       <c r="F90" s="33">
-        <v>30896.122896854427</v>
+        <v>7841.0753474762259</v>
       </c>
       <c r="G90">
-        <v>308961.22896854428</v>
+        <v>78410.753474762256</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -20207,16 +20387,16 @@
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D91" s="16">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E91">
-        <v>8575</v>
+        <v>4298</v>
       </c>
       <c r="F91" s="33">
-        <v>7841.0753474762259</v>
+        <v>3930.1389904901248</v>
       </c>
       <c r="G91">
-        <v>78410.753474762256</v>
+        <v>35371.250914411125</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -20227,16 +20407,16 @@
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D92" s="16">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E92">
-        <v>4298</v>
+        <v>22478</v>
       </c>
       <c r="F92" s="33">
-        <v>3930.1389904901248</v>
+        <v>20554.133138258963</v>
       </c>
       <c r="G92">
-        <v>35371.250914411125</v>
+        <v>205541.33138258965</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -20247,16 +20427,16 @@
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D93" s="16">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E93">
-        <v>22478</v>
+        <v>8540</v>
       </c>
       <c r="F93" s="33">
-        <v>20554.133138258963</v>
+        <v>7809.0709583028538</v>
       </c>
       <c r="G93">
-        <v>205541.33138258965</v>
+        <v>78090.70958302854</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -20267,16 +20447,16 @@
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D94" s="16">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E94">
-        <v>8540</v>
+        <v>7214</v>
       </c>
       <c r="F94" s="33">
-        <v>7809.0709583028538</v>
+        <v>6596.5618141916611</v>
       </c>
       <c r="G94">
-        <v>78090.70958302854</v>
+        <v>65965.61814191661</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -20287,16 +20467,16 @@
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D95" s="16">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E95">
-        <v>7214</v>
+        <v>6688</v>
       </c>
       <c r="F95" s="33">
-        <v>6596.5618141916611</v>
+        <v>6115.5815654718363</v>
       </c>
       <c r="G95">
-        <v>65965.61814191661</v>
+        <v>61155.815654718361</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -20307,16 +20487,16 @@
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D96" s="16">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E96">
-        <v>6688</v>
+        <v>1914</v>
       </c>
       <c r="F96" s="33">
-        <v>6115.5815654718363</v>
+        <v>1750.1828822238481</v>
       </c>
       <c r="G96">
-        <v>61155.815654718361</v>
+        <v>17501.82882223848</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -20327,16 +20507,16 @@
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D97" s="16">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E97">
-        <v>1914</v>
+        <v>9214</v>
       </c>
       <c r="F97" s="33">
-        <v>1750.1828822238481</v>
+        <v>8425.3840526700806</v>
       </c>
       <c r="G97">
-        <v>17501.82882223848</v>
+        <v>84253.840526700806</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -20347,16 +20527,16 @@
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D98" s="16">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E98">
-        <v>9214</v>
+        <v>21448</v>
       </c>
       <c r="F98" s="33">
-        <v>8425.3840526700806</v>
+        <v>19612.289685442578</v>
       </c>
       <c r="G98">
-        <v>84253.840526700806</v>
+        <v>196122.89685442578</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -20367,16 +20547,16 @@
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D99" s="16">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E99">
-        <v>21448</v>
+        <v>11858</v>
       </c>
       <c r="F99" s="33">
-        <v>19612.289685442578</v>
+        <v>10843.087051938552</v>
       </c>
       <c r="G99">
-        <v>196122.89685442578</v>
+        <v>97587.783467446963</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -20387,16 +20567,16 @@
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D100" s="16">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E100">
-        <v>11858</v>
+        <v>18918</v>
       </c>
       <c r="F100" s="33">
-        <v>10843.087051938552</v>
+        <v>17298.829553767377</v>
       </c>
       <c r="G100">
-        <v>97587.783467446963</v>
+        <v>155689.46598390638</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -20407,16 +20587,16 @@
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D101" s="16">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E101">
-        <v>18918</v>
+        <v>19780</v>
       </c>
       <c r="F101" s="33">
-        <v>17298.829553767377</v>
+        <v>18087.051938551573</v>
       </c>
       <c r="G101">
-        <v>155689.46598390638</v>
+        <v>180870.51938551571</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -20427,16 +20607,16 @@
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D102" s="16">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E102">
-        <v>19780</v>
+        <v>4342</v>
       </c>
       <c r="F102" s="33">
-        <v>18087.051938551573</v>
+        <v>3970.3730797366497</v>
       </c>
       <c r="G102">
-        <v>180870.51938551571</v>
+        <v>35733.35771762985</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -20447,16 +20627,16 @@
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D103" s="16">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E103">
-        <v>4342</v>
+        <v>28098</v>
       </c>
       <c r="F103" s="33">
-        <v>3970.3730797366497</v>
+        <v>25693.123628383324</v>
       </c>
       <c r="G103">
-        <v>35733.35771762985</v>
+        <v>231238.11265544992</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -20467,16 +20647,16 @@
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D104" s="16">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E104">
-        <v>28098</v>
+        <v>13125</v>
       </c>
       <c r="F104" s="33">
-        <v>25693.123628383324</v>
+        <v>12001.645940014632</v>
       </c>
       <c r="G104">
-        <v>231238.11265544992</v>
+        <v>108014.81346013169</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -20487,309 +20667,295 @@
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D105" s="16">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="E105">
-        <v>13125</v>
+        <v>2242</v>
       </c>
       <c r="F105" s="33">
-        <v>12001.645940014632</v>
+        <v>2050.1097293343087</v>
       </c>
       <c r="G105">
-        <v>108014.81346013169</v>
+        <v>20501.097293343086</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D106" s="16">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="E106">
-        <v>2242</v>
+        <v>33502</v>
       </c>
       <c r="F106" s="33">
-        <v>2050.1097293343087</v>
+        <v>30634.601316752014</v>
       </c>
       <c r="G106">
-        <v>20501.097293343086</v>
+        <v>306346.01316752017</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D107" s="16">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E107">
-        <v>33502</v>
+        <v>11702</v>
       </c>
       <c r="F107" s="33">
-        <v>30634.601316752014</v>
+        <v>10700.438917337236</v>
       </c>
       <c r="G107">
-        <v>306346.01316752017</v>
+        <v>107004.38917337236</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D108" s="16">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E108">
-        <v>11702</v>
+        <v>26158</v>
       </c>
       <c r="F108" s="33">
-        <v>10700.438917337236</v>
+        <v>23919.166057059258</v>
       </c>
       <c r="G108">
-        <v>107004.38917337236</v>
+        <v>239191.66057059256</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D109" s="16">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E109">
-        <v>26158</v>
+        <v>10346</v>
       </c>
       <c r="F109" s="33">
-        <v>23919.166057059258</v>
+        <v>9460.4974396488669</v>
       </c>
       <c r="G109">
-        <v>239191.66057059256</v>
+        <v>85144.476956839804</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D110" s="16">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E110">
-        <v>10346</v>
+        <v>7587</v>
       </c>
       <c r="F110" s="33">
-        <v>9460.4974396488669</v>
+        <v>6937.6371616678862</v>
       </c>
       <c r="G110">
-        <v>85144.476956839804</v>
+        <v>69376.371616678865</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D111" s="16">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E111">
-        <v>7587</v>
+        <v>2244</v>
       </c>
       <c r="F111" s="33">
-        <v>6937.6371616678862</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>69376.371616678865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D112" s="16">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E112">
-        <v>2244</v>
+        <v>14872</v>
       </c>
       <c r="F112" s="33">
-        <v>0</v>
+        <v>13599.122165325531</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>163189.46598390635</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D113" s="16">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E113">
-        <v>14872</v>
+        <v>11018</v>
       </c>
       <c r="F113" s="33">
-        <v>13599.122165325531</v>
+        <v>10074.981711777617</v>
       </c>
       <c r="G113">
-        <v>163189.46598390635</v>
+        <v>120899.78054133139</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D114" s="16">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E114">
-        <v>11018</v>
+        <v>23305</v>
       </c>
       <c r="F114" s="33">
-        <v>10074.981711777617</v>
+        <v>21310.35113386979</v>
       </c>
       <c r="G114">
-        <v>120899.78054133139</v>
+        <v>213103.51133869789</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D115" s="16">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E115">
-        <v>23305</v>
+        <v>9308</v>
       </c>
       <c r="F115" s="33">
-        <v>21310.35113386979</v>
+        <v>8511.3386978785675</v>
       </c>
       <c r="G115">
-        <v>213103.51133869789</v>
+        <v>85113.386978785682</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D116" s="16">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E116">
-        <v>9308</v>
+        <v>20380</v>
       </c>
       <c r="F116" s="33">
-        <v>8511.3386978785675</v>
+        <v>18635.6986100951</v>
       </c>
       <c r="G116">
-        <v>85113.386978785682</v>
+        <v>186356.98610095101</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D117" s="16">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E117">
-        <v>20380</v>
+        <v>9796</v>
       </c>
       <c r="F117" s="33">
-        <v>18635.6986100951</v>
+        <v>8957.5713240673012</v>
       </c>
       <c r="G117">
-        <v>186356.98610095101</v>
+        <v>102414.04535479151</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D118" s="16">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E118">
-        <v>9796</v>
+        <v>25394</v>
       </c>
       <c r="F118" s="33">
-        <v>8957.5713240673012</v>
+        <v>23220.555961960501</v>
       </c>
       <c r="G118">
-        <v>102414.04535479151</v>
+        <v>232205.55961960502</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D119" s="16">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E119">
-        <v>25394</v>
+        <v>10496</v>
       </c>
       <c r="F119" s="33">
-        <v>23220.555961960501</v>
+        <v>9597.6591075347478</v>
       </c>
       <c r="G119">
-        <v>232205.55961960502</v>
+        <v>95976.591075347475</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D120" s="16">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E120">
-        <v>10496</v>
+        <v>9552</v>
       </c>
       <c r="F120" s="33">
-        <v>9597.6591075347478</v>
+        <v>8734.4550109729335</v>
       </c>
       <c r="G120">
-        <v>95976.591075347475</v>
+        <v>87344.550109729331</v>
       </c>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D121" s="16">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E121">
-        <v>9552</v>
+        <v>13908</v>
       </c>
       <c r="F121" s="33">
-        <v>8734.4550109729335</v>
+        <v>12717.629846378934</v>
       </c>
       <c r="G121">
-        <v>87344.550109729331</v>
+        <v>127176.29846378934</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D122" s="16">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E122">
-        <v>13908</v>
+        <v>10672</v>
       </c>
       <c r="F122" s="33">
-        <v>12717.629846378934</v>
+        <v>9758.5954645208494</v>
       </c>
       <c r="G122">
-        <v>127176.29846378934</v>
+        <v>97585.954645208491</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D123" s="16">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E123">
-        <v>10672</v>
+        <v>15800</v>
       </c>
       <c r="F123" s="33">
-        <v>9758.5954645208494</v>
+        <v>14447.695683979518</v>
       </c>
       <c r="G123">
-        <v>97585.954645208491</v>
+        <v>130029.26115581566</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D124" s="16">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E124">
-        <v>15800</v>
+        <v>6612</v>
       </c>
       <c r="F124" s="33">
-        <v>14447.695683979518</v>
+        <v>6046.0863204096568</v>
       </c>
       <c r="G124">
-        <v>130029.26115581566</v>
+        <v>54414.776883686907</v>
       </c>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D125" s="16">
-        <v>769</v>
+      <c r="D125" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="E125">
-        <v>6612</v>
+        <v>708886</v>
       </c>
       <c r="F125" s="33">
-        <v>6046.0863204096568</v>
+        <v>1617192.7578639355</v>
       </c>
       <c r="G125">
-        <v>54414.776883686907</v>
-      </c>
-    </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D126" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126">
-        <v>708886</v>
-      </c>
-      <c r="F126" s="33">
-        <v>1617192.7578639355</v>
-      </c>
-      <c r="G126">
         <v>16090770.391367961</v>
       </c>
     </row>
@@ -20819,7 +20985,7 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="95" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20832,7 +20998,7 @@
     <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
@@ -21253,7 +21419,7 @@
       </c>
       <c r="N14" s="17">
         <f>SUM(Table3[Total])</f>
-        <v>3332140</v>
+        <v>3937750</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -21626,29 +21792,151 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28">
+        <v>1961</v>
+      </c>
+      <c r="D28" s="11">
+        <v>297</v>
+      </c>
+      <c r="E28" s="11">
+        <v>765</v>
+      </c>
+      <c r="F28" s="11">
+        <v>31500</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" ref="G28:G29" si="8">D28*E28</f>
+        <v>227205</v>
+      </c>
+      <c r="H28" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>422500</v>
+      </c>
+      <c r="I28" s="11">
+        <f>(D28*E28)-Table3[[#This Row],[Paid]]</f>
+        <v>-195295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29">
+        <v>8141</v>
+      </c>
+      <c r="D29" s="11">
+        <v>249</v>
+      </c>
+      <c r="E29" s="11">
+        <v>810</v>
+      </c>
+      <c r="F29" s="11">
+        <v>40000</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="8"/>
+        <v>201690</v>
+      </c>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11">
+        <f>(D29*E29)-Table3[[#This Row],[Paid]]</f>
+        <v>201690</v>
+      </c>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30">
+        <v>3220</v>
+      </c>
+      <c r="D30" s="11">
+        <v>231</v>
+      </c>
+      <c r="E30" s="11">
+        <v>765</v>
+      </c>
+      <c r="F30" s="11">
+        <v>41000</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" ref="G30:G32" si="9">D30*E30</f>
+        <v>176715</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11">
+        <f>(D30*E30)-Table3[[#This Row],[Paid]]</f>
+        <v>176715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>45810</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11">
+        <f>(D31*E31)-Table3[[#This Row],[Paid]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>45779</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11">
+        <f>(D32*E32)-Table3[[#This Row],[Paid]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
         <f>SUBTOTAL(109,Table3[Total])</f>
-        <v>3332140</v>
-      </c>
-      <c r="H28" s="14">
+        <v>3937750</v>
+      </c>
+      <c r="H33" s="14">
         <f>SUBTOTAL(109,Table3[Paid])</f>
-        <v>2717100</v>
-      </c>
-      <c r="I28" s="14">
+        <v>3139600</v>
+      </c>
+      <c r="I33" s="14">
         <f>SUBTOTAL(109,Table3[balance])</f>
-        <v>1840487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K29" s="14"/>
-    </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
+        <v>2023597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E40" s="3" t="s">
         <v>2</v>
       </c>
@@ -21656,7 +21944,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E42" s="3" t="s">
         <v>109</v>
       </c>
@@ -21673,7 +21961,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E43" s="27">
         <v>45881</v>
       </c>
@@ -21690,7 +21978,7 @@
         <v>220320</v>
       </c>
     </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E44" s="49">
         <v>6691</v>
       </c>
@@ -21707,7 +21995,7 @@
         <v>220320</v>
       </c>
     </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E45" s="27">
         <v>45882</v>
       </c>
@@ -21724,7 +22012,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E46" s="49">
         <v>1055</v>
       </c>
@@ -21741,7 +22029,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E47" s="27">
         <v>45884</v>
       </c>
@@ -21758,7 +22046,7 @@
         <v>296820</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E48" s="49">
         <v>8395</v>
       </c>
@@ -22394,10 +22682,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBC7D8-36BA-4EBA-8685-891B9162141F}">
-  <dimension ref="A1:P221"/>
+  <dimension ref="A1:P245"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" zoomScale="101" workbookViewId="0">
-      <selection activeCell="I222" sqref="I222"/>
+    <sheetView topLeftCell="A238" zoomScale="163" workbookViewId="0">
+      <selection activeCell="H247" sqref="H247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22518,14 +22806,14 @@
       </c>
       <c r="K4" s="54">
         <f>Table14[[#Totals],[Debit]]</f>
-        <v>5515440</v>
+        <v>6003140</v>
       </c>
       <c r="M4" s="53" t="s">
         <v>118</v>
       </c>
       <c r="N4" s="59">
         <f>SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer")</f>
-        <v>120000</v>
+        <v>225000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -22550,14 +22838,14 @@
       </c>
       <c r="K5" s="54">
         <f>Table14[[#Totals],[Credit]]</f>
-        <v>6084987</v>
+        <v>6093387</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>119</v>
       </c>
       <c r="N5" s="54">
         <f>(SUMIFS(Table14[Credit],Table14[Mode],"Bank")-SUMIFS(Table14[Debit],Table14[Mode],"Bank")-SUMIFS(Table14[Withdrawal],Table14[Mode],"Transfer"))</f>
-        <v>559390</v>
+        <v>86020</v>
       </c>
       <c r="O5">
         <v>320</v>
@@ -22585,14 +22873,14 @@
       </c>
       <c r="K6" s="61">
         <f>(K5-K4)</f>
-        <v>569547</v>
+        <v>90247</v>
       </c>
       <c r="M6" s="53" t="s">
         <v>120</v>
       </c>
       <c r="N6" s="54">
         <f>((SUMIFS(Table14[Credit],Table14[Mode],"Cash")-SUMIFS(Table14[Debit],Table14[Mode],"Cash"))+SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer"))</f>
-        <v>10157</v>
+        <v>4227</v>
       </c>
       <c r="O6">
         <v>1520</v>
@@ -22620,7 +22908,7 @@
       </c>
       <c r="N7" s="57">
         <f>SUM(N5:N6)</f>
-        <v>569547</v>
+        <v>90247</v>
       </c>
       <c r="O7" s="100">
         <f>SUM(O5,O6)</f>
@@ -22628,7 +22916,7 @@
       </c>
       <c r="P7" s="14">
         <f>Table18[[#Totals],[amount]]-Table18[[#Totals],[Actual]]</f>
-        <v>567707</v>
+        <v>88407</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -26313,7 +26601,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="97">
         <v>45900</v>
       </c>
@@ -26331,7 +26619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="97">
         <v>45901</v>
       </c>
@@ -26349,7 +26637,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="43">
         <v>45901</v>
       </c>
@@ -26367,7 +26655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="97">
         <v>45901</v>
       </c>
@@ -26382,7 +26670,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="43">
         <v>45901</v>
       </c>
@@ -26400,7 +26688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="97">
         <v>45901</v>
       </c>
@@ -26418,7 +26706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="43">
         <v>45901</v>
       </c>
@@ -26436,7 +26724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="97">
         <v>45901</v>
       </c>
@@ -26454,7 +26742,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="43">
         <v>45901</v>
       </c>
@@ -26472,7 +26760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="97">
         <v>45901</v>
       </c>
@@ -26490,7 +26778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="43">
         <v>45901</v>
       </c>
@@ -26508,7 +26796,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="97">
         <v>45901</v>
       </c>
@@ -26526,19 +26814,427 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="43"/>
-      <c r="C221" s="14">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B221" t="s">
+        <v>127</v>
+      </c>
+      <c r="C221" s="11">
+        <v>3700</v>
+      </c>
+      <c r="D221" s="11"/>
+      <c r="F221" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B222" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C222" s="47">
+        <v>40000</v>
+      </c>
+      <c r="D222" s="47"/>
+      <c r="E222" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="F222" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="G222" s="103"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B223" t="s">
+        <v>104</v>
+      </c>
+      <c r="C223" s="11">
+        <v>303000</v>
+      </c>
+      <c r="D223" s="11"/>
+      <c r="E223" t="s">
+        <v>130</v>
+      </c>
+      <c r="F223" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B224" t="s">
+        <v>120</v>
+      </c>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="F224" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G224">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B225" t="s">
+        <v>104</v>
+      </c>
+      <c r="C225" s="11">
+        <v>31500</v>
+      </c>
+      <c r="D225" s="11"/>
+      <c r="E225" t="s">
+        <v>267</v>
+      </c>
+      <c r="F225" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B226" t="s">
+        <v>53</v>
+      </c>
+      <c r="C226" s="11">
+        <v>230</v>
+      </c>
+      <c r="D226" s="11"/>
+      <c r="E226" t="s">
+        <v>268</v>
+      </c>
+      <c r="F226" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B227" t="s">
+        <v>57</v>
+      </c>
+      <c r="C227" s="11">
+        <v>500</v>
+      </c>
+      <c r="D227" s="11"/>
+      <c r="E227" t="s">
+        <v>269</v>
+      </c>
+      <c r="F227" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B228" t="s">
+        <v>57</v>
+      </c>
+      <c r="C228" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D228" s="11"/>
+      <c r="E228" t="s">
+        <v>132</v>
+      </c>
+      <c r="F228" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B229" t="s">
+        <v>57</v>
+      </c>
+      <c r="C229" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D229" s="11"/>
+      <c r="E229" t="s">
+        <v>270</v>
+      </c>
+      <c r="F229" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B230" t="s">
+        <v>58</v>
+      </c>
+      <c r="C230" s="11">
+        <v>1170</v>
+      </c>
+      <c r="D230" s="11"/>
+      <c r="F230" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B231" t="s">
+        <v>104</v>
+      </c>
+      <c r="C231" s="11">
+        <v>41000</v>
+      </c>
+      <c r="D231" s="11"/>
+      <c r="E231" t="s">
+        <v>271</v>
+      </c>
+      <c r="F231" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B232" t="s">
+        <v>104</v>
+      </c>
+      <c r="C232" s="11">
+        <v>7000</v>
+      </c>
+      <c r="D232" s="11"/>
+      <c r="E232" t="s">
+        <v>272</v>
+      </c>
+      <c r="F232" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B233" t="s">
+        <v>53</v>
+      </c>
+      <c r="C233" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D233" s="11"/>
+      <c r="E233" t="s">
+        <v>272</v>
+      </c>
+      <c r="F233" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B234" t="s">
+        <v>196</v>
+      </c>
+      <c r="C234" s="11">
+        <v>8400</v>
+      </c>
+      <c r="D234" s="11"/>
+      <c r="E234" t="s">
+        <v>273</v>
+      </c>
+      <c r="F234" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11">
+        <v>6900</v>
+      </c>
+      <c r="F235" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B236" t="s">
+        <v>58</v>
+      </c>
+      <c r="C236" s="11">
+        <v>15000</v>
+      </c>
+      <c r="D236" s="11"/>
+      <c r="E236" t="s">
+        <v>274</v>
+      </c>
+      <c r="F236" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B237" t="s">
+        <v>58</v>
+      </c>
+      <c r="C237" s="11">
+        <v>3300</v>
+      </c>
+      <c r="D237" s="11"/>
+      <c r="E237" t="s">
+        <v>275</v>
+      </c>
+      <c r="F237" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B238" t="s">
+        <v>58</v>
+      </c>
+      <c r="C238" s="11">
+        <v>1600</v>
+      </c>
+      <c r="D238" s="11"/>
+      <c r="E238" t="s">
+        <v>276</v>
+      </c>
+      <c r="F238" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B239" t="s">
+        <v>57</v>
+      </c>
+      <c r="C239" s="11">
+        <v>1600</v>
+      </c>
+      <c r="D239" s="11"/>
+      <c r="E239" t="s">
+        <v>177</v>
+      </c>
+      <c r="F239" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B240" t="s">
+        <v>58</v>
+      </c>
+      <c r="C240" s="11">
+        <v>1200</v>
+      </c>
+      <c r="D240" s="11"/>
+      <c r="F240" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B241" t="s">
+        <v>120</v>
+      </c>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
+      <c r="F241" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="G241">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="102">
+        <v>45902</v>
+      </c>
+      <c r="B242" t="s">
+        <v>196</v>
+      </c>
+      <c r="C242" s="11">
+        <v>25000</v>
+      </c>
+      <c r="D242" s="11"/>
+      <c r="E242" t="s">
+        <v>178</v>
+      </c>
+      <c r="F242" s="52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="101">
+        <v>45902</v>
+      </c>
+      <c r="B243" t="s">
+        <v>188</v>
+      </c>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E243" t="s">
+        <v>277</v>
+      </c>
+      <c r="F243" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="102"/>
+      <c r="B244" s="103"/>
+      <c r="C244" s="47"/>
+      <c r="D244" s="47"/>
+      <c r="E244" s="103"/>
+      <c r="F244" s="104"/>
+      <c r="G244" s="103"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="43"/>
+      <c r="C245" s="14">
         <f>SUBTOTAL(109,Table14[Debit])</f>
-        <v>5515440</v>
-      </c>
-      <c r="D221" s="14">
+        <v>6003140</v>
+      </c>
+      <c r="D245" s="14">
         <f>SUBTOTAL(109,Table14[Credit])</f>
-        <v>6084987</v>
-      </c>
-      <c r="F221" s="62">
+        <v>6093387</v>
+      </c>
+      <c r="F245" s="62">
         <f>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</f>
-        <v>569547</v>
+        <v>90247</v>
       </c>
     </row>
   </sheetData>
@@ -26579,7 +27275,7 @@
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3701" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60152787-4E7A-4FD5-8AC1-7D2C66A14686}"/>
+  <xr:revisionPtr revIDLastSave="3813" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518BA6D8-96A7-4BF2-A691-17F453D979D7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="10" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -47,12 +47,12 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId18"/>
-    <pivotCache cacheId="13" r:id="rId19"/>
-    <pivotCache cacheId="18" r:id="rId20"/>
-    <pivotCache cacheId="24" r:id="rId21"/>
-    <pivotCache cacheId="31" r:id="rId22"/>
-    <pivotCache cacheId="35" r:id="rId23"/>
+    <pivotCache cacheId="39" r:id="rId18"/>
+    <pivotCache cacheId="43" r:id="rId19"/>
+    <pivotCache cacheId="48" r:id="rId20"/>
+    <pivotCache cacheId="54" r:id="rId21"/>
+    <pivotCache cacheId="61" r:id="rId22"/>
+    <pivotCache cacheId="65" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="283">
   <si>
     <t>Billing</t>
   </si>
@@ -979,6 +979,21 @@
   <si>
     <t>12k advance paid. 14500 left</t>
   </si>
+  <si>
+    <t>electric lesco</t>
+  </si>
+  <si>
+    <t>Package//khalid sahab</t>
+  </si>
+  <si>
+    <t>2/3 sept</t>
+  </si>
+  <si>
+    <t>lights x2</t>
+  </si>
+  <si>
+    <t>road//tractor</t>
+  </si>
 </sst>
 </file>
 
@@ -1446,7 +1461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1576,13 +1591,29 @@
     <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="140">
+  <dxfs count="160">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1661,6 +1692,171 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2046,15 +2242,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2062,25 +2249,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2135,27 +2303,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2224,24 +2371,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2617,19 +2746,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>698019</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>160107</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>199155</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>94322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>283898</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>36435</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>969149</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>151557</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Date">
@@ -2655,7 +2784,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2665,8 +2794,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5277417" y="12736806"/>
-              <a:ext cx="1879277" cy="1540891"/>
+              <a:off x="1333932" y="12938682"/>
+              <a:ext cx="1877361" cy="1504487"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2704,13 +2833,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>485674</xdr:colOff>
+      <xdr:colOff>448198</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>59339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>267928</xdr:colOff>
+      <xdr:colOff>230452</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>8022</xdr:rowOff>
     </xdr:to>
@@ -3521,13 +3650,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45903.050627546298" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="243" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.04227662037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="254" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table14"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-17T00:00:00" maxDate="2025-09-03T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-08-17T00:00:00" maxDate="2025-09-04T00:00:00"/>
     </cacheField>
     <cacheField name="Party" numFmtId="0">
       <sharedItems containsBlank="1" count="35">
@@ -3560,7 +3689,7 @@
         <s v="Aqib"/>
         <s v="Raaz fabrics"/>
         <s v="Shehzad Kamoki"/>
-        <m/>
+        <m u="1"/>
         <s v="Toll" u="1"/>
         <s v="Salary" u="1"/>
         <s v="Self" u="1"/>
@@ -3578,7 +3707,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Mode" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Withdrawal" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20000" maxValue="80000"/>
@@ -3593,7 +3722,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45903.050627893521" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042276967593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -3614,13 +3743,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Tiyaar" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="324901.24359912222"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="337289.68544257502"/>
     </cacheField>
     <cacheField name="Rate" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10" maxValue="10.5"/>
     </cacheField>
     <cacheField name="Total" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3179636.0643745428"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3303520.482809071"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3632,7 +3761,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45903.050628124998" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042277199071" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table8"/>
   </cacheSource>
@@ -3696,13 +3825,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45903.050628356483" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042277430555" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-03T00:00:00" count="39">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-04T00:00:00" count="40">
         <d v="2025-08-16T00:00:00"/>
         <d v="2025-08-12T00:00:00"/>
         <d v="2025-08-13T00:00:00"/>
@@ -3722,10 +3851,11 @@
         <d v="2025-08-31T00:00:00"/>
         <d v="2025-09-01T00:00:00"/>
         <d v="2025-09-02T00:00:00"/>
-        <d v="2025-08-02T00:00:00"/>
-        <d v="2025-07-02T00:00:00"/>
-        <d v="2025-06-02T00:00:00"/>
-        <d v="2025-05-02T00:00:00"/>
+        <d v="2025-09-03T00:00:00"/>
+        <d v="2025-08-02T00:00:00" u="1"/>
+        <d v="2025-07-02T00:00:00" u="1"/>
+        <d v="2025-06-02T00:00:00" u="1"/>
+        <d v="2025-05-02T00:00:00" u="1"/>
         <d v="2025-07-13T00:00:00" u="1"/>
         <d v="2025-07-14T00:00:00" u="1"/>
         <d v="2025-07-15T00:00:00" u="1"/>
@@ -3818,13 +3948,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45903.050628472221" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="62" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042277893517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="67" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-02T00:00:00" count="30">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-03T00:00:00" count="31">
         <d v="2025-08-17T00:00:00"/>
         <d v="2025-08-19T00:00:00"/>
         <d v="2025-08-16T00:00:00"/>
@@ -3839,6 +3969,7 @@
         <d v="2025-08-30T00:00:00"/>
         <d v="2025-08-31T00:00:00"/>
         <d v="2025-09-01T00:00:00"/>
+        <d v="2025-09-02T00:00:00"/>
         <d v="2025-07-25T00:00:00" u="1"/>
         <d v="2025-07-26T00:00:00" u="1"/>
         <d v="2025-07-28T00:00:00" u="1"/>
@@ -3879,7 +4010,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bill Number" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="772" count="163">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="777" count="168">
         <s v="July Closing CF"/>
         <n v="716"/>
         <n v="721"/>
@@ -3933,6 +4064,11 @@
         <n v="770"/>
         <n v="771"/>
         <n v="772"/>
+        <n v="773"/>
+        <n v="774"/>
+        <n v="775"/>
+        <n v="776"/>
+        <n v="777"/>
         <n v="653" u="1"/>
         <n v="654" u="1"/>
         <n v="655" u="1"/>
@@ -4078,6 +4214,7 @@
         <n v="1654"/>
         <n v="1659"/>
         <n v="1669"/>
+        <n v="1666"/>
         <n v="1595" u="1"/>
         <n v="1593" u="1"/>
         <n v="1599" u="1"/>
@@ -4131,14 +4268,13 @@
         <n v="1581" u="1"/>
         <n v="1596" u="1"/>
         <n v="1594" u="1"/>
-        <n v="1666" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Kora/metre" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3826" maxValue="167135"/>
     </cacheField>
     <cacheField name="Tiyaar/gaz" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1914" maxValue="48705"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="888" maxValue="48705"/>
     </cacheField>
     <cacheField name="shortage %" numFmtId="165">
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-3.2518265571699345" maxValue="85.60596464237544"/>
@@ -4165,7 +4301,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45903.050628819445" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042278356479" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -4210,7 +4346,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="243">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="254">
   <r>
     <d v="2025-08-17T00:00:00"/>
     <x v="0"/>
@@ -6390,12 +6526,111 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="29"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="4"/>
+    <n v="1840"/>
+    <m/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="6"/>
+    <n v="10000"/>
+    <m/>
+    <s v="electric lesco"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="4"/>
+    <n v="30000"/>
+    <m/>
+    <s v="Bearings+U"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="5"/>
+    <n v="4850"/>
+    <m/>
+    <s v="LPG"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="6"/>
+    <n v="920"/>
+    <m/>
+    <s v="chai"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="26"/>
+    <n v="30000"/>
+    <m/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <n v="30000"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="6"/>
+    <n v="580"/>
+    <m/>
+    <s v="Package//khalid sahab"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="3"/>
+    <m/>
+    <n v="180"/>
+    <s v="Package//khalid sahab"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="9"/>
+    <n v="3990"/>
+    <m/>
+    <s v="2/3 sept"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="4"/>
+    <n v="4400"/>
+    <m/>
+    <s v="lights x2"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-03T00:00:00"/>
+    <x v="6"/>
+    <n v="4000"/>
+    <m/>
+    <s v="road//tractor"/>
+    <s v="Bank"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -6405,9 +6640,9 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
   <r>
     <x v="0"/>
-    <n v="324901.24359912222"/>
+    <n v="337289.68544257502"/>
     <n v="10"/>
-    <n v="3179636.0643745428"/>
+    <n v="3303520.482809071"/>
   </r>
   <r>
     <x v="1"/>
@@ -6429,9 +6664,9 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="157327.1762984638"/>
+    <n v="184279.44403803951"/>
     <n v="10"/>
-    <n v="1529388.2589612291"/>
+    <n v="1852815.4718361376"/>
   </r>
   <r>
     <x v="5"/>
@@ -6970,7 +7205,7 @@
     <n v="-195295"/>
   </r>
   <r>
-    <x v="19"/>
+    <x v="18"/>
     <x v="0"/>
     <x v="18"/>
     <n v="249"/>
@@ -6981,7 +7216,7 @@
     <n v="201690"/>
   </r>
   <r>
-    <x v="20"/>
+    <x v="18"/>
     <x v="0"/>
     <x v="19"/>
     <n v="231"/>
@@ -6992,18 +7227,18 @@
     <n v="176715"/>
   </r>
   <r>
-    <x v="21"/>
-    <x v="2"/>
+    <x v="19"/>
+    <x v="1"/>
     <x v="5"/>
     <m/>
     <m/>
     <m/>
     <n v="0"/>
-    <m/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
+    <n v="30000"/>
+    <n v="-30000"/>
+  </r>
+  <r>
+    <x v="18"/>
     <x v="2"/>
     <x v="5"/>
     <m/>
@@ -7017,7 +7252,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="62">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7143,7 +7378,7 @@
     <x v="1"/>
     <n v="103550"/>
     <n v="43689"/>
-    <n v="3.6049079901958692"/>
+    <n v="2.8207485755320221"/>
     <n v="39949.70738844185"/>
     <n v="399497.07388441847"/>
     <m/>
@@ -7182,7 +7417,7 @@
     <x v="1"/>
     <n v="103550"/>
     <n v="8742"/>
-    <n v="3.6049079901958692"/>
+    <n v="2.8207485755320221"/>
     <n v="7993.7820043891743"/>
     <n v="79937.820043891741"/>
     <m/>
@@ -7221,7 +7456,7 @@
     <x v="6"/>
     <n v="60735"/>
     <n v="1980"/>
-    <n v="26.285530898047298"/>
+    <n v="3.0878078328742049"/>
     <n v="1810.534016093636"/>
     <n v="18105.340160936361"/>
     <m/>
@@ -7247,7 +7482,7 @@
     <x v="6"/>
     <n v="60735"/>
     <n v="6406"/>
-    <n v="26.285530898047298"/>
+    <n v="3.0878078328742049"/>
     <n v="5857.7176298463792"/>
     <n v="58577.17629846379"/>
     <m/>
@@ -7312,7 +7547,7 @@
     <x v="1"/>
     <n v="103550"/>
     <n v="16253"/>
-    <n v="3.6049079901958692"/>
+    <n v="2.8207485755320221"/>
     <n v="14861.923920994881"/>
     <n v="148619.23920994881"/>
     <m/>
@@ -7325,7 +7560,7 @@
     <x v="1"/>
     <n v="103550"/>
     <n v="33788"/>
-    <n v="3.6049079901958692"/>
+    <n v="2.8207485755320221"/>
     <n v="30896.122896854427"/>
     <n v="308961.22896854428"/>
     <m/>
@@ -7338,7 +7573,7 @@
     <x v="6"/>
     <n v="60735"/>
     <n v="8575"/>
-    <n v="26.285530898047298"/>
+    <n v="3.0878078328742049"/>
     <n v="7841.0753474762259"/>
     <n v="78410.753474762256"/>
     <m/>
@@ -7377,7 +7612,7 @@
     <x v="6"/>
     <n v="60735"/>
     <n v="8540"/>
-    <n v="26.285530898047298"/>
+    <n v="3.0878078328742049"/>
     <n v="7809.0709583028538"/>
     <n v="78090.70958302854"/>
     <m/>
@@ -7403,7 +7638,7 @@
     <x v="1"/>
     <n v="103550"/>
     <n v="6688"/>
-    <n v="3.6049079901958692"/>
+    <n v="2.8207485755320221"/>
     <n v="6115.5815654718363"/>
     <n v="61155.815654718361"/>
     <m/>
@@ -7442,7 +7677,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="21448"/>
-    <n v="39.837673547718609"/>
+    <n v="35.515510121751731"/>
     <n v="19612.289685442578"/>
     <n v="196122.89685442578"/>
     <m/>
@@ -7481,7 +7716,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="19780"/>
-    <n v="39.837673547718609"/>
+    <n v="35.515510121751731"/>
     <n v="18087.051938551573"/>
     <n v="180870.51938551571"/>
     <m/>
@@ -7546,7 +7781,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="11702"/>
-    <n v="39.837673547718609"/>
+    <n v="35.515510121751731"/>
     <n v="10700.438917337236"/>
     <n v="107004.38917337236"/>
     <m/>
@@ -7559,7 +7794,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="26158"/>
-    <n v="39.837673547718609"/>
+    <n v="35.515510121751731"/>
     <n v="23919.166057059258"/>
     <n v="239191.66057059256"/>
     <m/>
@@ -7663,7 +7898,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="20380"/>
-    <n v="39.837673547718609"/>
+    <n v="35.515510121751731"/>
     <n v="18635.6986100951"/>
     <n v="186356.98610095101"/>
     <m/>
@@ -7715,7 +7950,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="10496"/>
-    <n v="39.837673547718609"/>
+    <n v="35.515510121751731"/>
     <n v="9597.6591075347478"/>
     <n v="95976.591075347475"/>
     <m/>
@@ -7728,7 +7963,7 @@
     <x v="6"/>
     <n v="60735"/>
     <n v="9552"/>
-    <n v="26.285530898047298"/>
+    <n v="3.0878078328742049"/>
     <n v="8734.4550109729335"/>
     <n v="87344.550109729331"/>
     <m/>
@@ -7741,7 +7976,7 @@
     <x v="6"/>
     <n v="60735"/>
     <n v="13908"/>
-    <n v="26.285530898047298"/>
+    <n v="3.0878078328742049"/>
     <n v="12717.629846378934"/>
     <n v="127176.29846378934"/>
     <m/>
@@ -7780,7 +8015,7 @@
     <x v="26"/>
     <n v="21934"/>
     <n v="6612"/>
-    <n v="72.435094736894058"/>
+    <n v="0.30442461253548458"/>
     <n v="6046.0863204096568"/>
     <n v="54414.776883686907"/>
     <m/>
@@ -7793,7 +8028,7 @@
     <x v="6"/>
     <n v="60737"/>
     <n v="10650"/>
-    <n v="26.285530898047298"/>
+    <n v="3.0878078328742049"/>
     <n v="9738.4784198975867"/>
     <n v="97384.78419897586"/>
     <m/>
@@ -7806,7 +8041,7 @@
     <x v="26"/>
     <n v="21934"/>
     <n v="17302"/>
-    <n v="72.435094736894058"/>
+    <n v="0.30442461253548458"/>
     <n v="15821.141185076813"/>
     <n v="142390.27066569132"/>
     <m/>
@@ -7819,9 +8054,74 @@
     <x v="27"/>
     <n v="30140"/>
     <n v="8444"/>
-    <s v="NF"/>
+    <n v="0.38258427266271156"/>
     <n v="7721.2874908558897"/>
     <n v="92655.449890270684"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="53"/>
+    <s v="Silky"/>
+    <x v="27"/>
+    <n v="30140"/>
+    <n v="24391"/>
+    <n v="0.38258427266271156"/>
+    <n v="22303.401609363573"/>
+    <n v="267640.81931236287"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="4"/>
+    <x v="54"/>
+    <s v="Silky"/>
+    <x v="28"/>
+    <n v="9346"/>
+    <n v="5084"/>
+    <n v="50.258226725742091"/>
+    <n v="4648.8661302121436"/>
+    <n v="55786.393562545723"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="55"/>
+    <s v="Chamki"/>
+    <x v="6"/>
+    <n v="60737"/>
+    <n v="4760"/>
+    <n v="3.0878078328742049"/>
+    <n v="4352.5969275786401"/>
+    <n v="43525.969275786403"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="56"/>
+    <s v="Chamki"/>
+    <x v="1"/>
+    <n v="103550"/>
+    <n v="888"/>
+    <n v="2.8207485755320221"/>
+    <n v="811.99707388441846"/>
+    <n v="8119.9707388441848"/>
+    <m/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="57"/>
+    <s v="Chamki"/>
+    <x v="14"/>
+    <n v="167135"/>
+    <n v="7900"/>
+    <n v="35.515510121751731"/>
+    <n v="7223.8478419897592"/>
+    <n v="72238.478419897598"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -7913,7 +8213,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
@@ -7993,7 +8293,7 @@
     <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="139">
+    <format dxfId="159">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8002,7 +8302,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="138">
+    <format dxfId="158">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8011,7 +8311,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="137">
+    <format dxfId="157">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8021,7 +8321,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="136">
+    <format dxfId="156">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8045,19 +8345,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="D74:G128" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I75:K91" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="31">
-        <item m="1" x="14"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="32">
         <item m="1" x="15"/>
         <item m="1" x="16"/>
         <item m="1" x="17"/>
         <item m="1" x="18"/>
         <item m="1" x="19"/>
-        <item m="1" x="29"/>
         <item m="1" x="20"/>
+        <item m="1" x="30"/>
         <item m="1" x="21"/>
         <item m="1" x="22"/>
         <item m="1" x="23"/>
@@ -8066,6 +8365,7 @@
         <item m="1" x="26"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
+        <item m="1" x="29"/>
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
@@ -8080,6 +8380,152 @@
         <item x="11"/>
         <item x="12"/>
         <item x="13"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="136">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="D75:G134" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="32">
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="30"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8106,12 +8552,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="164">
-        <item m="1" x="115"/>
-        <item m="1" x="116"/>
-        <item m="1" x="117"/>
-        <item m="1" x="118"/>
-        <item m="1" x="119"/>
+      <items count="169">
         <item m="1" x="120"/>
         <item m="1" x="121"/>
         <item m="1" x="122"/>
@@ -8155,11 +8596,11 @@
         <item m="1" x="160"/>
         <item m="1" x="161"/>
         <item m="1" x="162"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="56"/>
-        <item m="1" x="57"/>
+        <item m="1" x="163"/>
+        <item m="1" x="164"/>
+        <item m="1" x="165"/>
+        <item m="1" x="166"/>
+        <item m="1" x="167"/>
         <item m="1" x="58"/>
         <item m="1" x="59"/>
         <item m="1" x="60"/>
@@ -8173,40 +8614,40 @@
         <item m="1" x="68"/>
         <item m="1" x="69"/>
         <item m="1" x="70"/>
-        <item m="1" x="99"/>
         <item m="1" x="71"/>
         <item m="1" x="72"/>
         <item m="1" x="73"/>
         <item m="1" x="74"/>
         <item m="1" x="75"/>
+        <item m="1" x="104"/>
         <item m="1" x="76"/>
-        <item m="1" x="88"/>
         <item m="1" x="77"/>
         <item m="1" x="78"/>
         <item m="1" x="79"/>
         <item m="1" x="80"/>
         <item m="1" x="81"/>
+        <item m="1" x="93"/>
         <item m="1" x="82"/>
         <item m="1" x="83"/>
         <item m="1" x="84"/>
         <item m="1" x="85"/>
         <item m="1" x="86"/>
         <item m="1" x="87"/>
+        <item m="1" x="88"/>
         <item m="1" x="89"/>
         <item m="1" x="90"/>
         <item m="1" x="91"/>
         <item m="1" x="92"/>
-        <item m="1" x="93"/>
         <item m="1" x="94"/>
         <item m="1" x="95"/>
         <item m="1" x="96"/>
         <item m="1" x="97"/>
         <item m="1" x="98"/>
+        <item m="1" x="99"/>
         <item m="1" x="100"/>
         <item m="1" x="101"/>
         <item m="1" x="102"/>
         <item m="1" x="103"/>
-        <item m="1" x="104"/>
         <item m="1" x="105"/>
         <item m="1" x="106"/>
         <item m="1" x="107"/>
@@ -8217,6 +8658,11 @@
         <item m="1" x="112"/>
         <item m="1" x="113"/>
         <item m="1" x="114"/>
+        <item m="1" x="115"/>
+        <item m="1" x="116"/>
+        <item m="1" x="117"/>
+        <item m="1" x="118"/>
+        <item m="1" x="119"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -8270,55 +8716,59 @@
         <item x="50"/>
         <item x="51"/>
         <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="83">
-        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
+        <item m="1" x="74"/>
         <item m="1" x="64"/>
-        <item m="1" x="65"/>
+        <item m="1" x="63"/>
+        <item m="1" x="67"/>
+        <item m="1" x="78"/>
+        <item m="1" x="70"/>
+        <item m="1" x="71"/>
+        <item m="1" x="68"/>
+        <item m="1" x="69"/>
+        <item m="1" x="79"/>
+        <item m="1" x="72"/>
         <item m="1" x="73"/>
-        <item m="1" x="63"/>
-        <item m="1" x="62"/>
-        <item m="1" x="66"/>
+        <item m="1" x="76"/>
         <item m="1" x="77"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="78"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
         <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="74"/>
+        <item m="1" x="30"/>
+        <item m="1" x="81"/>
         <item m="1" x="29"/>
         <item m="1" x="80"/>
-        <item m="1" x="28"/>
-        <item m="1" x="79"/>
+        <item m="1" x="32"/>
         <item m="1" x="31"/>
-        <item m="1" x="30"/>
-        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="39"/>
+        <item m="1" x="34"/>
+        <item m="1" x="36"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="60"/>
+        <item m="1" x="37"/>
         <item m="1" x="38"/>
-        <item m="1" x="33"/>
-        <item m="1" x="35"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="59"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="81"/>
+        <item x="28"/>
+        <item m="1" x="62"/>
         <item m="1" x="61"/>
-        <item m="1" x="60"/>
-        <item m="1" x="41"/>
         <item m="1" x="42"/>
         <item m="1" x="43"/>
         <item m="1" x="44"/>
         <item m="1" x="45"/>
+        <item m="1" x="46"/>
         <item x="2"/>
-        <item m="1" x="46"/>
         <item m="1" x="47"/>
         <item m="1" x="48"/>
         <item m="1" x="49"/>
@@ -8331,6 +8781,7 @@
         <item m="1" x="56"/>
         <item m="1" x="57"/>
         <item m="1" x="58"/>
+        <item m="1" x="59"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -8374,7 +8825,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="54">
+  <rowItems count="59">
     <i>
       <x v="110"/>
     </i>
@@ -8534,6 +8985,21 @@
     <i>
       <x v="162"/>
     </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8574,172 +9040,31 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I74:K89" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="31">
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="29"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="116">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
-  <location ref="E42:I95" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
+  <location ref="E42:I55" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="40">
-        <item m="1" x="23"/>
+      <items count="41">
         <item m="1" x="24"/>
         <item m="1" x="25"/>
         <item m="1" x="26"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
         <item m="1" x="29"/>
-        <item m="1" x="38"/>
-        <item x="19"/>
         <item m="1" x="30"/>
+        <item m="1" x="39"/>
+        <item m="1" x="20"/>
         <item m="1" x="31"/>
         <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
         <item m="1" x="35"/>
         <item m="1" x="36"/>
+        <item m="1" x="37"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="37"/>
+        <item m="1" x="38"/>
         <item x="3"/>
         <item x="0"/>
         <item x="4"/>
@@ -8757,9 +9082,10 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8822,19 +9148,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="53">
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="17"/>
-    </i>
+  <rowItems count="13">
     <i>
       <x v="17"/>
     </i>
@@ -8842,58 +9156,10 @@
       <x v="18"/>
     </i>
     <i>
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i>
       <x v="20"/>
     </i>
     <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
       <x v="21"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
     </i>
     <i>
       <x v="26"/>
@@ -8902,37 +9168,10 @@
       <x v="26"/>
     </i>
     <i>
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
       <x v="30"/>
     </i>
     <i r="1">
       <x v="29"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
     </i>
     <i>
       <x v="32"/>
@@ -8941,40 +9180,7 @@
       <x v="9"/>
     </i>
     <i>
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="38"/>
+      <x v="39"/>
     </i>
     <i r="1">
       <x v="9"/>
@@ -9001,7 +9207,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" hier="-1"/>
+    <pageField fld="1" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="4">
     <dataField name="Sum of Weight" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
@@ -9010,7 +9216,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="96">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9019,7 +9225,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9042,8 +9248,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J163:L194" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J163:L193" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -9068,7 +9274,7 @@
         <item x="22"/>
         <item x="3"/>
         <item x="8"/>
-        <item x="29"/>
+        <item m="1" x="29"/>
         <item x="7"/>
         <item m="1" x="33"/>
         <item x="20"/>
@@ -9095,7 +9301,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="30">
     <i>
       <x/>
     </i>
@@ -9151,9 +9357,6 @@
       <x v="19"/>
     </i>
     <i>
-      <x v="20"/>
-    </i>
-    <i>
       <x v="21"/>
     </i>
     <i>
@@ -9206,7 +9409,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="77">
+    <format dxfId="110">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9223,7 +9426,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K9:M14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -9315,7 +9518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -9388,8 +9591,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
-  <location ref="A3:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
+  <location ref="A3:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -9418,31 +9621,30 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="83">
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
         <item m="1" x="64"/>
-        <item m="1" x="65"/>
         <item m="1" x="63"/>
-        <item m="1" x="62"/>
-        <item m="1" x="66"/>
-        <item m="1" x="68"/>
         <item m="1" x="67"/>
         <item m="1" x="69"/>
+        <item m="1" x="68"/>
         <item m="1" x="70"/>
         <item m="1" x="71"/>
         <item m="1" x="72"/>
         <item m="1" x="73"/>
         <item m="1" x="74"/>
         <item m="1" x="75"/>
-        <item m="1" x="81"/>
-        <item m="1" x="61"/>
         <item m="1" x="76"/>
+        <item x="28"/>
+        <item m="1" x="62"/>
         <item m="1" x="77"/>
         <item m="1" x="78"/>
+        <item m="1" x="79"/>
+        <item m="1" x="30"/>
         <item m="1" x="29"/>
-        <item m="1" x="28"/>
-        <item m="1" x="79"/>
         <item m="1" x="80"/>
-        <item m="1" x="38"/>
-        <item m="1" x="30"/>
+        <item m="1" x="81"/>
+        <item m="1" x="39"/>
         <item m="1" x="31"/>
         <item m="1" x="32"/>
         <item m="1" x="33"/>
@@ -9450,17 +9652,17 @@
         <item m="1" x="35"/>
         <item m="1" x="36"/>
         <item m="1" x="37"/>
-        <item m="1" x="39"/>
-        <item m="1" x="59"/>
+        <item m="1" x="38"/>
         <item m="1" x="40"/>
         <item m="1" x="60"/>
         <item m="1" x="41"/>
+        <item m="1" x="61"/>
         <item m="1" x="42"/>
         <item m="1" x="43"/>
         <item m="1" x="44"/>
         <item m="1" x="45"/>
+        <item m="1" x="46"/>
         <item x="2"/>
-        <item m="1" x="46"/>
         <item m="1" x="47"/>
         <item m="1" x="48"/>
         <item m="1" x="49"/>
@@ -9473,6 +9675,7 @@
         <item m="1" x="56"/>
         <item m="1" x="57"/>
         <item m="1" x="58"/>
+        <item m="1" x="59"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -9516,7 +9719,10 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="29">
+  <rowItems count="30">
+    <i>
+      <x v="14"/>
+    </i>
     <i>
       <x v="41"/>
     </i>
@@ -9624,26 +9830,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="31">
+    <format dxfId="68">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="67">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="66">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9653,13 +9859,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="62">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="61">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9714,63 +9920,63 @@
         <i x="22" s="1"/>
         <i x="19" s="1"/>
         <i x="20" s="1"/>
+        <i x="28" s="1"/>
         <i x="27" s="1"/>
         <i x="17" s="1"/>
         <i x="9" s="1"/>
-        <i x="34" s="1" nd="1"/>
+        <i x="35" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
         <i x="64" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
+        <i x="63" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="71" s="1" nd="1"/>
+        <i x="68" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
         <i x="73" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
-        <i x="62" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
+        <i x="76" s="1" nd="1"/>
         <i x="77" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
         <i x="75" s="1" nd="1"/>
-        <i x="76" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
+        <i x="30" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
         <i x="29" s="1" nd="1"/>
         <i x="80" s="1" nd="1"/>
-        <i x="28" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
+        <i x="32" s="1" nd="1"/>
         <i x="31" s="1" nd="1"/>
-        <i x="30" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
+        <i x="33" s="1" nd="1"/>
+        <i x="39" s="1" nd="1"/>
+        <i x="34" s="1" nd="1"/>
+        <i x="36" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="40" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="41" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="42" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="37" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
         <i x="38" s="1" nd="1"/>
-        <i x="33" s="1" nd="1"/>
-        <i x="35" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="39" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="40" s="1" nd="1"/>
         <i x="43" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
+        <i x="47" s="1" nd="1"/>
         <i x="53" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="47" s="1" nd="1"/>
-        <i x="36" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="37" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
         <i x="50" s="1" nd="1"/>
         <i x="55" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
         <i x="58" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="62" s="1" nd="1"/>
         <i x="61" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -9874,14 +10080,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}" name="Table4" displayName="Table4" ref="B3:E15" totalsRowShown="0">
   <autoFilter ref="B3:E15" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="135">
+    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="155">
       <calculatedColumnFormula>B26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="134">
+    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="154">
       <calculatedColumnFormula>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC1535DD-3FE7-4F55-8040-E7643388A78E}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="133">
+    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="153">
       <calculatedColumnFormula>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9890,15 +10096,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G245" totalsRowCount="1">
-  <autoFilter ref="A1:G244" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G256" totalsRowCount="1">
+  <autoFilter ref="A1:G255" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="109" totalsRowDxfId="53"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="73" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="52" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="51" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="50">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -9908,25 +10114,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="68" tableBorderDxfId="67" totalsRowBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="105" tableBorderDxfId="104" totalsRowBorderDxfId="103">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="63" headerRowBorderDxfId="62" tableBorderDxfId="61" totalsRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98" totalsRowBorderDxfId="97">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="55">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="92">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9938,10 +10144,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="91" totalsRowDxfId="90"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -9950,17 +10156,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="50" headerRowBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="87" headerRowBorderDxfId="86">
   <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="85"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="47">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="84">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -9970,22 +10176,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="46" headerRowBorderDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="83" headerRowBorderDxfId="82">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="79"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="41">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="78">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="40">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="77">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10015,7 +10221,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10026,8 +10232,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -10042,7 +10248,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="70" totalsRowDxfId="69"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -10053,12 +10259,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="132" dataDxfId="131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
   <autoFilter ref="B7:D20" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="130"/>
-    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="129" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="128" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="149" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="148" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10068,7 +10274,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="59" totalsRowDxfId="58"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -10084,7 +10290,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="57" totalsRowDxfId="56"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -10099,10 +10305,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="55">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="54">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10115,7 +10321,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -10137,11 +10343,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="123" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="122" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="143" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="142" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10151,8 +10357,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="121"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10162,12 +10368,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="139" totalsRowDxfId="138"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="117">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="137">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -10179,23 +10385,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K64" totalsRowCount="1" headerRowDxfId="115" dataDxfId="114" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="A1:K63" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K69" totalsRowCount="1" headerRowDxfId="135" dataDxfId="134" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="A1:K68" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="113" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="112" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="111" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="110" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="133" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="132" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="131" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="130" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="129" totalsRowDxfId="32" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="128" totalsRowDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="127" totalsRowDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="126" totalsRowDxfId="29" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="28" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="27" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -10205,7 +10411,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="97" dataCellStyle="Comma" totalsRowCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="26" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10214,20 +10420,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I33" totalsRowCount="1" headerRowDxfId="94" headerRowBorderDxfId="93" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I33" totalsRowCount="1" headerRowDxfId="120" headerRowBorderDxfId="119" tableBorderDxfId="118">
   <autoFilter ref="A1:I32" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="117" totalsRowDxfId="25"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="116" totalsRowDxfId="24" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="115" totalsRowDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="114" totalsRowDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="21" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="19" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10567,9 +10773,9 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.21875" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" customWidth="1"/>
     <col min="15" max="15" width="14.88671875" customWidth="1"/>
@@ -10626,14 +10832,14 @@
       </c>
       <c r="C4" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>324901.24359912222</v>
+        <v>337289.68544257502</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>3179636.0643745428</v>
+        <v>3303520.482809071</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
@@ -10699,10 +10905,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="5">
-        <v>324901.24359912222</v>
+        <v>337289.68544257502</v>
       </c>
       <c r="K5" s="18">
-        <v>3179636.0643745428</v>
+        <v>3303520.482809071</v>
       </c>
       <c r="O5" s="25" t="str" cm="1">
         <f t="array" ref="O5:O14">_xlfn.UNIQUE(Table1[Party Name])</f>
@@ -10710,15 +10916,15 @@
       </c>
       <c r="P5" s="23" cm="1">
         <f t="array" ref="P5">_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C44,0)</f>
-        <v>808355</v>
+        <v>821903</v>
       </c>
       <c r="Q5" s="23" cm="1">
         <f t="array" ref="Q5">_xlfn.BYROW(B26, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D44,0)</f>
-        <v>739168.80029261159</v>
+        <v>751557.24213606445</v>
       </c>
       <c r="R5" s="23" cm="1">
         <f t="array" ref="R5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E44,0)</f>
-        <v>739168.80029261159</v>
+        <v>751557.24213606445</v>
       </c>
       <c r="S5" s="78" cm="1">
         <f t="array" ref="S5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F44,0)</f>
@@ -10726,7 +10932,7 @@
       </c>
       <c r="T5" s="23" cm="1">
         <f t="array" ref="T5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)+_xlfn.IFNA(G44,0)</f>
-        <v>7391688.0029261168</v>
+        <v>7515572.4213606445</v>
       </c>
       <c r="U5" s="23" cm="1">
         <f t="array" ref="U5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H44,0)</f>
@@ -10734,15 +10940,15 @@
       </c>
       <c r="V5" s="44">
         <f>T5+U5</f>
-        <v>7391688.0029261168</v>
+        <v>7515572.4213606445</v>
       </c>
       <c r="W5" s="23">
         <f>(SUMIF(Table14[Party],O5,Table14[Credit]))+_xlfn.IFNA(J44,0)</f>
-        <v>6277000</v>
+        <v>6307000</v>
       </c>
       <c r="X5" s="98">
         <f>V5-W5</f>
-        <v>1114688.0029261168</v>
+        <v>1208572.4213606445</v>
       </c>
       <c r="Y5" s="22">
         <v>10</v>
@@ -10900,14 +11106,14 @@
       </c>
       <c r="C8" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>157327.1762984638</v>
+        <v>184279.44403803951</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" s="14">
         <f>((SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936) *12) + ((SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)* 9)</f>
-        <v>1529388.2589612291</v>
+        <v>1852815.4718361376</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -10984,21 +11190,21 @@
         <v>24</v>
       </c>
       <c r="J9" s="5">
-        <v>157327.1762984638</v>
+        <v>184279.44403803951</v>
       </c>
       <c r="K9" s="18">
-        <v>1529388.2589612291</v>
+        <v>1852815.4718361376</v>
       </c>
       <c r="O9" s="25" t="str">
         <v>Sufi Nawaz Sahab</v>
       </c>
       <c r="P9" s="23" cm="1">
         <f t="array" ref="P9">_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C48,0)</f>
-        <v>324588</v>
+        <v>354063</v>
       </c>
       <c r="Q9" s="23" cm="1">
         <f t="array" ref="Q9">_xlfn.BYROW(B30, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D48,0)</f>
-        <v>296806.87637161673</v>
+        <v>323759.14411119244</v>
       </c>
       <c r="R9" s="23" cm="1">
         <f t="array" ref="R9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E48,0)</f>
@@ -11006,7 +11212,7 @@
       </c>
       <c r="S9" s="78" cm="1">
         <f t="array" ref="S9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F48,0)</f>
-        <v>57897.768836869058</v>
+        <v>84850.036576444778</v>
       </c>
       <c r="T9" s="23" cm="1">
         <f t="array" ref="T9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L30)+_xlfn.IFNA(G48,0)</f>
@@ -11014,11 +11220,11 @@
       </c>
       <c r="U9" s="23" cm="1">
         <f t="array" ref="U9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H48,0)</f>
-        <v>694773.22604242875</v>
+        <v>1018200.4389173373</v>
       </c>
       <c r="V9" s="44">
         <f t="shared" si="1"/>
-        <v>2844955.1938551581</v>
+        <v>3168382.4067300665</v>
       </c>
       <c r="W9" s="23">
         <f>(SUMIF(Table14[Party],O9,Table14[Credit]))+_xlfn.IFNA(J48,0)</f>
@@ -11026,7 +11232,7 @@
       </c>
       <c r="X9" s="98">
         <f t="shared" si="2"/>
-        <v>865855.19385515805</v>
+        <v>1189282.4067300665</v>
       </c>
       <c r="Y9" s="22">
         <v>9</v>
@@ -11403,10 +11609,10 @@
         <v>28</v>
       </c>
       <c r="J15" s="14">
-        <v>677604.24286759342</v>
+        <v>716944.95245062187</v>
       </c>
       <c r="K15" s="14">
-        <v>6662782.5530358441</v>
+        <v>7110094.1843452808</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" cm="1">
@@ -11458,7 +11664,7 @@
       </c>
       <c r="C16" s="46">
         <f>SUM(G26:G38)+SUM(H26:H38)</f>
-        <v>6774779.6269202642</v>
+        <v>7222091.2582296999</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -11559,7 +11765,7 @@
       </c>
       <c r="C18" s="42">
         <f ca="1">SUM(OFFSET(I26,0,0,COUNTA(I:I)-ROW(I26)+1))</f>
-        <v>6774779.6269202642</v>
+        <v>7222091.2582297008</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -11705,15 +11911,15 @@
       </c>
       <c r="C26" s="23" cm="1">
         <f t="array" ref="C26:C35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
-        <v>355312</v>
+        <v>368860</v>
       </c>
       <c r="D26" s="23" cm="1">
         <f t="array" ref="D26:D35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
-        <v>324901.24359912222</v>
+        <v>337289.68544257502</v>
       </c>
       <c r="E26" s="71" cm="1">
         <f t="array" ref="E26:E35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
-        <v>324901.24359912222</v>
+        <v>337289.68544257502</v>
       </c>
       <c r="F26" s="78" cm="1">
         <f t="array" ref="F26:F35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
@@ -11721,7 +11927,7 @@
       </c>
       <c r="G26" s="23" cm="1">
         <f t="array" ref="G26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)</f>
-        <v>3249012.435991222</v>
+        <v>3372896.8544257502</v>
       </c>
       <c r="H26" s="23" cm="1">
         <f t="array" ref="H26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M26)</f>
@@ -11729,15 +11935,15 @@
       </c>
       <c r="I26" s="44">
         <f t="shared" ref="I26:I34" si="7">G26+H26</f>
-        <v>3249012.435991222</v>
+        <v>3372896.8544257502</v>
       </c>
       <c r="J26" s="23">
         <f>(SUMIF(Table14[Party],B26,Table14[Credit]))</f>
-        <v>2448162</v>
+        <v>2478162</v>
       </c>
       <c r="K26" s="42">
         <f>I26-J26</f>
-        <v>800850.43599122204</v>
+        <v>894734.85442575021</v>
       </c>
       <c r="L26" s="22">
         <v>10</v>
@@ -11880,16 +12086,16 @@
         <v>Sufi Nawaz Sahab</v>
       </c>
       <c r="C30" s="23">
-        <v>172053</v>
+        <v>201528</v>
       </c>
       <c r="D30" s="23">
-        <v>157327.1762984638</v>
+        <v>184279.44403803951</v>
       </c>
       <c r="E30" s="71">
         <v>119512.61887344551</v>
       </c>
       <c r="F30" s="78">
-        <v>37814.557425018291</v>
+        <v>64766.825164594004</v>
       </c>
       <c r="G30" s="23" cm="1">
         <f t="array" ref="G30">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L30)</f>
@@ -11897,11 +12103,11 @@
       </c>
       <c r="H30" s="23" cm="1">
         <f t="array" ref="H30">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M30)</f>
-        <v>453774.68910021952</v>
+        <v>777201.9019751281</v>
       </c>
       <c r="I30" s="44">
         <f t="shared" si="7"/>
-        <v>1529388.2589612291</v>
+        <v>1852815.4718361376</v>
       </c>
       <c r="J30" s="23">
         <f>(SUMIF(Table14[Party],B30,Table14[Credit]))</f>
@@ -11909,7 +12115,7 @@
       </c>
       <c r="K30" s="42">
         <f t="shared" si="8"/>
-        <v>-149711.74103877088</v>
+        <v>173715.47183613759</v>
       </c>
       <c r="L30" s="22">
         <v>9</v>
@@ -12776,11 +12982,11 @@
       <c r="J5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101">
-        <v>0</v>
-      </c>
-      <c r="M5" s="101">
+      <c r="K5" s="105"/>
+      <c r="L5" s="105">
+        <v>0</v>
+      </c>
+      <c r="M5" s="105">
         <v>0</v>
       </c>
     </row>
@@ -12810,11 +13016,11 @@
       <c r="J6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101">
+      <c r="K6" s="105"/>
+      <c r="L6" s="105">
         <v>60000</v>
       </c>
-      <c r="M6" s="101">
+      <c r="M6" s="105">
         <v>35000</v>
       </c>
     </row>
@@ -12836,13 +13042,13 @@
       <c r="J7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="105">
         <v>123050</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="105">
         <v>123050</v>
       </c>
-      <c r="M7" s="101">
+      <c r="M7" s="105">
         <v>0</v>
       </c>
     </row>
@@ -12873,13 +13079,13 @@
       <c r="J8" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="105">
         <v>355350</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="105">
         <v>355350</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="105">
         <v>0</v>
       </c>
     </row>
@@ -12907,13 +13113,13 @@
       <c r="J9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="105">
         <v>478400</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="105">
         <v>538400</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9" s="105">
         <v>35000</v>
       </c>
     </row>
@@ -13013,7 +13219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5517EB1-FAC4-4151-BC54-C60611322E2D}">
   <dimension ref="B2:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -13797,15 +14003,15 @@
       </c>
       <c r="B2" s="38">
         <f>SUM(B4:INDEX(B:B, MATCH(1E+100, B:B)-1))</f>
-        <v>853222</v>
+        <v>862568</v>
       </c>
       <c r="C2" s="37">
         <f>GETPIVOTDATA("Sum of Tiyaar/gaz",$A$3)</f>
-        <v>745282</v>
+        <v>788305</v>
       </c>
       <c r="D2" s="36">
         <f>((B2*48)+((C2/1.0936)*10))/C2</f>
-        <v>64.09600322789008</v>
+        <v>61.665995488445027</v>
       </c>
       <c r="J2">
         <v>48</v>
@@ -13843,109 +14049,109 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
-        <v>1624</v>
+        <v>1666</v>
       </c>
       <c r="B4" s="14">
-        <v>30782</v>
+        <v>9346</v>
       </c>
       <c r="C4" s="14">
-        <v>2242</v>
+        <v>5084</v>
       </c>
       <c r="D4" s="33">
         <f>I4</f>
-        <v>668.16998095153576</v>
+        <v>97.383292939048275</v>
       </c>
       <c r="E4" s="11">
         <f>B4 * 1.0936</f>
-        <v>33663.195199999995</v>
+        <v>10220.785599999999</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>2242</v>
+        <v>5084</v>
       </c>
       <c r="G4" s="86">
         <f>100- (F4/E4 *100)</f>
-        <v>93.339907318126478</v>
+        <v>50.258226725742091</v>
       </c>
       <c r="H4" s="33">
         <f>F4/1.0936</f>
-        <v>2050.1097293343087</v>
+        <v>4648.8661302121436</v>
       </c>
       <c r="I4" s="33">
         <f>((B4*48)+(H4*10))/C4</f>
-        <v>668.16998095153576</v>
+        <v>97.383292939048275</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
       <c r="L4" s="33"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="33" t="e">
+      <c r="A5" s="16">
+        <v>1624</v>
+      </c>
+      <c r="B5" s="14">
+        <v>30782</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2242</v>
+      </c>
+      <c r="D5" s="33">
         <f t="shared" ref="D5:D38" si="1">I5</f>
-        <v>#DIV/0!</v>
+        <v>668.16998095153576</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" ref="E5:E38" si="2">B5 * 1.0936</f>
-        <v>0</v>
+        <v>33663.195199999995</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="86" t="e">
+        <v>2242</v>
+      </c>
+      <c r="G5" s="86">
         <f>100- (F5/E5 *100)</f>
-        <v>#DIV/0!</v>
+        <v>93.339907318126478</v>
       </c>
       <c r="H5" s="33">
         <f t="shared" ref="H5:H38" si="3">F5/1.0936</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="33" t="e">
+        <v>2050.1097293343087</v>
+      </c>
+      <c r="I5" s="33">
         <f>((B5*48)+(H5*10))/C5</f>
-        <v>#DIV/0!</v>
+        <v>668.16998095153576</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
       <c r="L5" s="33"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>1605</v>
-      </c>
-      <c r="B6" s="14">
-        <v>103550</v>
-      </c>
-      <c r="C6" s="14">
-        <v>109160</v>
-      </c>
-      <c r="D6" s="33">
+      <c r="A6" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="33" t="e">
         <f t="shared" si="1"/>
-        <v>54.677273522916096</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="2"/>
-        <v>113242.27999999998</v>
+        <v>0</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="0"/>
-        <v>109160</v>
-      </c>
-      <c r="G6" s="86">
+        <v>0</v>
+      </c>
+      <c r="G6" s="86" t="e">
         <f t="shared" ref="G6:G18" si="4">100- (F6/E6 *100)</f>
-        <v>3.6049079901958692</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H6" s="33">
         <f t="shared" si="3"/>
-        <v>99817.117776152169</v>
-      </c>
-      <c r="I6" s="33">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33" t="e">
         <f>((B6*48)+(H6*10))/C6</f>
-        <v>54.677273522916096</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
@@ -13953,37 +14159,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
-        <v>1646</v>
+        <v>1605</v>
       </c>
       <c r="B7" s="14">
-        <v>24008</v>
+        <v>103550</v>
       </c>
       <c r="C7" s="14">
-        <v>25952</v>
+        <v>110048</v>
       </c>
       <c r="D7" s="33">
         <f t="shared" si="1"/>
-        <v>53.54855015663378</v>
+        <v>54.309857048745691</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="2"/>
-        <v>26255.148799999999</v>
+        <v>113242.27999999998</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="0"/>
-        <v>25952</v>
+        <v>110048</v>
       </c>
       <c r="G7" s="86">
         <f t="shared" si="4"/>
-        <v>1.1546260975675722</v>
+        <v>2.8207485755320221</v>
       </c>
       <c r="H7" s="33">
         <f t="shared" si="3"/>
-        <v>23730.797366495979</v>
+        <v>100629.11485003658</v>
       </c>
       <c r="I7" s="33">
         <f>((B7*48)+(H7*10))/C7</f>
-        <v>53.54855015663378</v>
+        <v>54.309857048745691</v>
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -13991,37 +14197,37 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
-        <v>1640</v>
+        <v>1646</v>
       </c>
       <c r="B8" s="14">
-        <v>50373</v>
+        <v>24008</v>
       </c>
       <c r="C8" s="14">
-        <v>54302</v>
+        <v>25952</v>
       </c>
       <c r="D8" s="33">
         <f t="shared" si="1"/>
-        <v>53.671089940872818</v>
+        <v>53.54855015663378</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="2"/>
-        <v>55087.912799999998</v>
+        <v>26255.148799999999</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="0"/>
-        <v>54302</v>
+        <v>25952</v>
       </c>
       <c r="G8" s="86">
         <f t="shared" si="4"/>
-        <v>1.4266519823564607</v>
+        <v>1.1546260975675722</v>
       </c>
       <c r="H8" s="33">
         <f t="shared" si="3"/>
-        <v>49654.35259692758</v>
+        <v>23730.797366495979</v>
       </c>
       <c r="I8" s="33">
         <f t="shared" ref="I8:I38" si="5">((B8*48)+(H8*10))/C8</f>
-        <v>53.671089940872818</v>
+        <v>53.54855015663378</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -14029,37 +14235,37 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
-        <v>1649</v>
+        <v>1640</v>
       </c>
       <c r="B9" s="14">
-        <v>3826</v>
+        <v>50373</v>
       </c>
       <c r="C9" s="14">
-        <v>4140</v>
+        <v>54302</v>
       </c>
       <c r="D9" s="33">
         <f t="shared" si="1"/>
-        <v>53.503531482247176</v>
+        <v>53.671089940872818</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="2"/>
-        <v>4184.1135999999997</v>
+        <v>55087.912799999998</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="0"/>
-        <v>4140</v>
+        <v>54302</v>
       </c>
       <c r="G9" s="86">
         <f t="shared" si="4"/>
-        <v>1.0543117184963648</v>
+        <v>1.4266519823564607</v>
       </c>
       <c r="H9" s="33">
         <f t="shared" si="3"/>
-        <v>3785.6620336503297</v>
+        <v>49654.35259692758</v>
       </c>
       <c r="I9" s="33">
         <f t="shared" si="5"/>
-        <v>53.503531482247176</v>
+        <v>53.671089940872818</v>
       </c>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
@@ -14067,37 +14273,37 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
-        <v>1607</v>
+        <v>1649</v>
       </c>
       <c r="B10" s="14">
-        <v>60737</v>
+        <v>3826</v>
       </c>
       <c r="C10" s="14">
-        <v>59611</v>
+        <v>4140</v>
       </c>
       <c r="D10" s="33">
         <f t="shared" si="1"/>
-        <v>58.050789490021735</v>
+        <v>53.503531482247176</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="2"/>
-        <v>66421.983199999988</v>
+        <v>4184.1135999999997</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="0"/>
-        <v>59611</v>
+        <v>4140</v>
       </c>
       <c r="G10" s="86">
         <f t="shared" si="4"/>
-        <v>10.254109967616856</v>
+        <v>1.0543117184963648</v>
       </c>
       <c r="H10" s="33">
         <f t="shared" si="3"/>
-        <v>54508.961228968546</v>
+        <v>3785.6620336503297</v>
       </c>
       <c r="I10" s="33">
         <f t="shared" si="5"/>
-        <v>58.050789490021735</v>
+        <v>53.503531482247176</v>
       </c>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
@@ -14105,34 +14311,34 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
-        <v>1647</v>
+        <v>1607</v>
       </c>
       <c r="B11" s="14">
-        <v>20004</v>
+        <v>60737</v>
       </c>
       <c r="C11" s="14">
-        <v>21621</v>
+        <v>64371</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="11">
         <f t="shared" si="2"/>
-        <v>21876.374399999997</v>
+        <v>66421.983199999988</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="0"/>
-        <v>21621</v>
+        <v>64371</v>
       </c>
       <c r="G11" s="86">
         <f t="shared" si="4"/>
-        <v>1.1673524841483669</v>
+        <v>3.0878078328742049</v>
       </c>
       <c r="H11" s="33">
         <f t="shared" si="3"/>
-        <v>19770.48280907096</v>
+        <v>58861.558156547188</v>
       </c>
       <c r="I11" s="33">
         <f t="shared" si="5"/>
-        <v>53.554267984399871</v>
+        <v>54.434319516016089</v>
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
@@ -14140,764 +14346,773 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
-        <v>1643</v>
+        <v>1647</v>
       </c>
       <c r="B12" s="14">
-        <v>26739</v>
+        <v>20004</v>
       </c>
       <c r="C12" s="14">
-        <v>28619</v>
+        <v>21621</v>
       </c>
       <c r="D12" s="33">
         <f t="shared" si="1"/>
-        <v>53.99096118715083</v>
+        <v>53.554267984399871</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="2"/>
-        <v>29241.770399999998</v>
+        <v>21876.374399999997</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="0"/>
-        <v>28619</v>
+        <v>21621</v>
       </c>
       <c r="G12" s="86">
         <f t="shared" si="4"/>
-        <v>2.1297287800330906</v>
+        <v>1.1673524841483669</v>
       </c>
       <c r="H12" s="33">
         <f t="shared" si="3"/>
-        <v>26169.531821506953</v>
+        <v>19770.48280907096</v>
       </c>
       <c r="I12" s="33">
         <f t="shared" si="5"/>
-        <v>53.99096118715083</v>
+        <v>53.554267984399871</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="14"/>
+      <c r="A13" s="16">
+        <v>1643</v>
+      </c>
+      <c r="B13" s="14">
+        <v>26739</v>
+      </c>
       <c r="C13" s="14">
-        <v>4254</v>
+        <v>28619</v>
       </c>
       <c r="D13" s="33">
         <f t="shared" si="1"/>
-        <v>9.1441111923920992</v>
+        <v>53.99096118715083</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>29241.770399999998</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="0"/>
+        <v>28619</v>
+      </c>
+      <c r="G13" s="86">
+        <f t="shared" si="4"/>
+        <v>2.1297287800330906</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="3"/>
+        <v>26169.531821506953</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="5"/>
+        <v>53.99096118715083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14">
         <v>4254</v>
       </c>
-      <c r="G13" s="86" t="e">
+      <c r="D14" s="33">
+        <f t="shared" si="1"/>
+        <v>9.1441111923920992</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="0"/>
+        <v>4254</v>
+      </c>
+      <c r="G14" s="86" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H14" s="33">
         <f t="shared" si="3"/>
         <v>3889.9049012435994</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I14" s="33">
         <f t="shared" si="5"/>
         <v>9.1441111923920992</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>1644</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B15" s="14">
         <v>32450</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C15" s="14">
         <v>35074</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D15" s="33">
         <f t="shared" si="1"/>
         <v>53.553075097278906</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="2"/>
+      <c r="E15" s="11">
+        <f>B15 * 1.0936</f>
         <v>35487.32</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>35074</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G15" s="86">
         <f t="shared" si="4"/>
         <v>1.1646977004744201</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H15" s="33">
         <f t="shared" si="3"/>
         <v>32072.055596196053</v>
       </c>
-      <c r="I14" s="33">
-        <f t="shared" si="5"/>
+      <c r="I15" s="33">
+        <f>((B15*48)+(H15*10))/C15</f>
         <v>53.553075097278906</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>1651</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B16" s="14">
         <v>20493</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C16" s="14">
         <v>22478</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D16" s="33">
         <f t="shared" si="1"/>
         <v>52.90529991024956</v>
       </c>
-      <c r="E15" s="11">
-        <f>B15 * 1.0936</f>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
         <v>22411.144799999998</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <f t="shared" si="0"/>
         <v>22478</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G16" s="86">
         <f t="shared" si="4"/>
         <v>-0.29831229326579489</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H16" s="33">
         <f t="shared" si="3"/>
         <v>20554.133138258963</v>
       </c>
-      <c r="I15" s="33">
-        <f>((B15*48)+(H15*10))/C15</f>
+      <c r="I16" s="33">
+        <f>((B16*48)+(H16*10))/C16</f>
         <v>52.90529991024956</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
         <v>1641</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B17" s="14">
         <v>6605</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C17" s="14">
         <v>7214</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D17" s="33">
         <f t="shared" si="1"/>
         <v>53.091990316317798</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <f t="shared" si="2"/>
         <v>7223.2279999999992</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <f t="shared" si="0"/>
         <v>7214</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G17" s="86">
         <f t="shared" si="4"/>
         <v>0.1277545164018079</v>
       </c>
-      <c r="H16" s="33">
+      <c r="H17" s="33">
         <f t="shared" si="3"/>
         <v>6596.5618141916611</v>
       </c>
-      <c r="I16" s="33">
-        <f>((B16*48)+(H16*10))/C16</f>
+      <c r="I17" s="33">
+        <f>((B17*48)+(H17*10))/C17</f>
         <v>53.091990316317798</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>1652</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B18" s="14">
         <v>10175</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C18" s="14">
         <v>11128</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D18" s="33">
         <f t="shared" si="1"/>
         <v>53.033399474203748</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <f t="shared" si="2"/>
         <v>11127.38</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>11128</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G18" s="86">
         <f t="shared" si="4"/>
         <v>-5.5718417093686412E-3</v>
       </c>
-      <c r="H17" s="33">
+      <c r="H18" s="33">
         <f t="shared" si="3"/>
         <v>10175.56693489393</v>
       </c>
-      <c r="I17" s="33">
-        <f>((B17*48)+(H17*10))/C17</f>
+      <c r="I18" s="33">
+        <f>((B18*48)+(H18*10))/C18</f>
         <v>53.033399474203748</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
         <v>1655</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B19" s="14">
         <v>167135</v>
       </c>
-      <c r="C18" s="14">
-        <v>109964</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="C19" s="14">
+        <v>117864</v>
+      </c>
+      <c r="D19" s="33">
         <f t="shared" si="1"/>
-        <v>82.09962390564371</v>
-      </c>
-      <c r="E18" s="11">
+        <v>77.20967828667024</v>
+      </c>
+      <c r="E19" s="11">
         <f t="shared" si="2"/>
         <v>182778.83599999998</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>109964</v>
-      </c>
-      <c r="G18" s="86">
-        <f t="shared" si="4"/>
-        <v>39.837673547718609</v>
-      </c>
-      <c r="H18" s="33">
+        <v>117864</v>
+      </c>
+      <c r="G19" s="86">
+        <f t="shared" ref="G19:G38" si="6">100- (F19/E19 *100)</f>
+        <v>35.515510121751731</v>
+      </c>
+      <c r="H19" s="33">
         <f t="shared" si="3"/>
-        <v>100552.3043160205</v>
-      </c>
-      <c r="I18" s="33">
-        <f>((B18*48)+(H18*10))/C18</f>
-        <v>82.09962390564371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+        <v>107776.15215801026</v>
+      </c>
+      <c r="I19" s="33">
+        <f t="shared" si="5"/>
+        <v>77.20967828667024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
         <v>1650</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B20" s="14">
         <v>30156</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C20" s="14">
         <v>32440</v>
       </c>
-      <c r="D19" s="33">
+      <c r="D20" s="33">
         <f t="shared" si="1"/>
         <v>53.764579749728725</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="2"/>
+      <c r="E20" s="11">
+        <f>B20 * 1.0936</f>
         <v>32978.601599999995</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>32440</v>
       </c>
-      <c r="G19" s="86">
-        <f t="shared" ref="G19:G38" si="6">100- (F19/E19 *100)</f>
+      <c r="G20" s="86">
+        <f t="shared" si="6"/>
         <v>1.6331850771986467</v>
       </c>
-      <c r="H19" s="33">
+      <c r="H20" s="33">
         <f t="shared" si="3"/>
         <v>29663.496708119972</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I20" s="33">
         <f t="shared" si="5"/>
         <v>53.764579749728725</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
         <v>1653</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B21" s="14">
         <v>21812</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C21" s="14">
         <v>23471</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D21" s="33">
         <f t="shared" si="1"/>
         <v>53.751328609630391</v>
       </c>
-      <c r="E20" s="11">
-        <f>B20 * 1.0936</f>
+      <c r="E21" s="11">
+        <f t="shared" si="2"/>
         <v>23853.603199999998</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>23471</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G21" s="86">
         <f t="shared" si="6"/>
         <v>1.6039639663327563</v>
       </c>
-      <c r="H20" s="33">
+      <c r="H21" s="33">
         <f t="shared" si="3"/>
         <v>21462.143379663499</v>
       </c>
-      <c r="I20" s="33">
+      <c r="I21" s="33">
         <f t="shared" si="5"/>
         <v>53.751328609630391</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
         <v>1628</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B22" s="14">
         <v>48198</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C22" s="14">
         <v>7587</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D22" s="33">
         <f t="shared" si="1"/>
         <v>314.07412305478829</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <f t="shared" si="2"/>
         <v>52709.332799999996</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <f t="shared" si="0"/>
         <v>7587</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G22" s="86">
         <f t="shared" si="6"/>
         <v>85.60596464237544</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H22" s="33">
         <f t="shared" si="3"/>
         <v>6937.6371616678862</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I22" s="33">
         <f t="shared" si="5"/>
         <v>314.07412305478829</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B23" s="14">
         <v>40502</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C23" s="14">
         <v>42810</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D23" s="33">
         <f t="shared" si="1"/>
         <v>54.556304605146124</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <f t="shared" si="2"/>
         <v>44292.987199999996</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>42810</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G23" s="86">
         <f t="shared" si="6"/>
         <v>3.3481309203728671</v>
       </c>
-      <c r="H22" s="33">
+      <c r="H23" s="33">
         <f t="shared" si="3"/>
         <v>39145.940014630578</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I23" s="33">
         <f t="shared" si="5"/>
         <v>54.556304605146124</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>1662</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B24" s="14">
         <v>13594</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C24" s="14">
         <v>14872</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D24" s="33">
         <f t="shared" si="1"/>
         <v>53.019312913747669</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <f t="shared" si="2"/>
         <v>14866.398399999998</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>14872</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G24" s="86">
         <f t="shared" si="6"/>
         <v>-3.7679603689369401E-2</v>
       </c>
-      <c r="H23" s="33">
+      <c r="H24" s="33">
         <f t="shared" si="3"/>
         <v>13599.122165325531</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I24" s="33">
         <f t="shared" si="5"/>
         <v>53.019312913747669</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
         <v>1663</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B25" s="14">
         <v>10374</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C25" s="14">
         <v>11018</v>
       </c>
-      <c r="D24" s="33">
+      <c r="D25" s="33">
         <f t="shared" si="1"/>
         <v>54.338520341057915</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <f t="shared" si="2"/>
         <v>11345.006399999998</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
         <v>11018</v>
       </c>
-      <c r="G24" s="86">
+      <c r="G25" s="86">
         <f t="shared" si="6"/>
         <v>2.882381802799145</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H25" s="33">
         <f t="shared" si="3"/>
         <v>10074.981711777617</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I25" s="33">
         <f t="shared" si="5"/>
         <v>54.338520341057915</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>1598</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B26" s="14">
         <v>22631</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C26" s="14">
         <v>23305</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D26" s="33">
         <f t="shared" si="1"/>
         <v>55.755911235301348</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <f t="shared" si="2"/>
         <v>24749.261599999998</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <f t="shared" si="0"/>
         <v>23305</v>
       </c>
-      <c r="G25" s="86">
+      <c r="G26" s="86">
         <f t="shared" si="6"/>
         <v>5.8355745045743106</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H26" s="33">
         <f t="shared" si="3"/>
         <v>21310.35113386979</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I26" s="33">
         <f t="shared" si="5"/>
         <v>55.755911235301348</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>1661</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B27" s="14">
         <v>6217</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C27" s="14">
         <v>7020</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D27" s="33">
         <f t="shared" si="1"/>
         <v>51.65351290179381</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <f t="shared" si="2"/>
         <v>6798.9111999999996</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <f t="shared" si="0"/>
         <v>7020</v>
       </c>
-      <c r="G26" s="86">
+      <c r="G27" s="86">
         <f t="shared" si="6"/>
         <v>-3.2518265571699345</v>
       </c>
-      <c r="H26" s="33">
+      <c r="H27" s="33">
         <f t="shared" si="3"/>
         <v>6419.1660570592539</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I27" s="33">
         <f t="shared" si="5"/>
         <v>51.65351290179381</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
         <v>1658</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B28" s="14">
         <v>26004</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C28" s="14">
         <v>28170</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D28" s="33">
         <f t="shared" si="1"/>
         <v>53.453376368110952</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <f t="shared" si="2"/>
         <v>28437.974399999999</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <f t="shared" si="0"/>
         <v>28170</v>
       </c>
-      <c r="G27" s="86">
+      <c r="G28" s="86">
         <f t="shared" si="6"/>
         <v>0.9423118406070472</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H28" s="33">
         <f t="shared" si="3"/>
         <v>25758.961228968546</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I28" s="33">
         <f t="shared" si="5"/>
         <v>53.453376368110952</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
         <v>1656</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B29" s="14">
         <v>9784</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C29" s="14">
         <v>10672</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D29" s="33">
         <f t="shared" si="1"/>
         <v>53.150108193891356</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <f t="shared" si="2"/>
         <v>10699.782399999998</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>10672</v>
       </c>
-      <c r="G28" s="86">
+      <c r="G29" s="86">
         <f t="shared" si="6"/>
         <v>0.25965387856857092</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H29" s="33">
         <f t="shared" si="3"/>
         <v>9758.5954645208494</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I29" s="33">
         <f t="shared" si="5"/>
         <v>53.150108193891356</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="16">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
         <v>1654</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B30" s="14">
         <v>14999</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C30" s="14">
         <v>15800</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D30" s="33">
         <f t="shared" si="1"/>
         <v>54.710693470873117</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <f t="shared" si="2"/>
         <v>16402.9064</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <f t="shared" si="0"/>
         <v>15800</v>
       </c>
-      <c r="G29" s="86">
+      <c r="G30" s="86">
         <f t="shared" si="6"/>
         <v>3.6756071472797061</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H30" s="33">
         <f t="shared" si="3"/>
         <v>14447.695683979518</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I30" s="33">
         <f t="shared" si="5"/>
         <v>54.710693470873117</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="16">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
         <v>1659</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B31" s="14">
         <v>21934</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C31" s="14">
         <v>23914</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D31" s="33">
         <f t="shared" si="1"/>
         <v>53.169870162033313</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <f t="shared" si="2"/>
         <v>23987.022399999998</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <f t="shared" si="0"/>
         <v>23914</v>
       </c>
-      <c r="G30" s="86">
+      <c r="G31" s="86">
         <f t="shared" si="6"/>
         <v>0.30442461253548458</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H31" s="33">
         <f t="shared" si="3"/>
         <v>21867.227505486469</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I31" s="33">
         <f t="shared" si="5"/>
         <v>53.169870162033313</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="16">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
         <v>1669</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B32" s="14">
         <v>30140</v>
       </c>
-      <c r="C31" s="14">
-        <v>8444</v>
-      </c>
-      <c r="D31" s="33">
+      <c r="C32" s="14">
+        <v>32835</v>
+      </c>
+      <c r="D32" s="33">
         <f t="shared" si="1"/>
-        <v>180.47523388306001</v>
-      </c>
-      <c r="E31" s="11">
+        <v>53.204412699929783</v>
+      </c>
+      <c r="E32" s="11">
         <f t="shared" si="2"/>
         <v>32961.103999999999</v>
       </c>
-      <c r="F31" s="11">
-        <f t="shared" si="0"/>
-        <v>8444</v>
-      </c>
-      <c r="G31" s="86">
-        <f t="shared" si="6"/>
-        <v>74.381926042283055</v>
-      </c>
-      <c r="H31" s="33">
-        <f t="shared" si="3"/>
-        <v>7721.2874908558897</v>
-      </c>
-      <c r="I31" s="33">
-        <f t="shared" si="5"/>
-        <v>180.47523388306001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="35">
-        <v>167135</v>
-      </c>
-      <c r="C32" s="35">
-        <v>745282</v>
-      </c>
-      <c r="D32" s="33">
-        <f t="shared" si="1"/>
-        <v>19.908466161383704</v>
-      </c>
-      <c r="E32" s="11">
-        <f t="shared" si="2"/>
-        <v>182778.83599999998</v>
-      </c>
       <c r="F32" s="11">
         <f t="shared" si="0"/>
-        <v>745282</v>
+        <v>32835</v>
       </c>
       <c r="G32" s="86">
         <f t="shared" si="6"/>
-        <v>-307.75070916853855</v>
+        <v>0.38258427266271156</v>
       </c>
       <c r="H32" s="33">
         <f t="shared" si="3"/>
-        <v>681494.14776883693</v>
+        <v>30024.689100219461</v>
       </c>
       <c r="I32" s="33">
         <f t="shared" si="5"/>
-        <v>19.908466161383704</v>
-      </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D33" s="33" t="e">
+        <v>53.204412699929783</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="35">
+        <v>167135</v>
+      </c>
+      <c r="C33" s="35">
+        <v>788305</v>
+      </c>
+      <c r="D33" s="33">
         <f t="shared" ref="D33:D37" si="7">I33</f>
-        <v>#DIV/0!</v>
+        <v>19.320984356966729</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" ref="E33:E37" si="8">B33 * 1.0936</f>
-        <v>0</v>
+        <v>182778.83599999998</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" ref="F33:F37" si="9">C33</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="86" t="e">
+        <v>788305</v>
+      </c>
+      <c r="G33" s="86">
         <f t="shared" ref="G33:G37" si="10">100- (F33/E33 *100)</f>
-        <v>#DIV/0!</v>
+        <v>-331.2889923426365</v>
       </c>
       <c r="H33" s="33">
         <f t="shared" ref="H33:H37" si="11">F33/1.0936</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="33" t="e">
+        <v>720834.8573518655</v>
+      </c>
+      <c r="I33" s="33">
         <f t="shared" ref="I33:I37" si="12">((B33*48)+(H33*10))/C33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+        <v>19.320984356966729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D34" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -14923,7 +15138,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D35" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -14949,7 +15164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D36" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -14975,7 +15190,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D37" s="33" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
@@ -15001,7 +15216,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D38" s="33" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
@@ -15027,7 +15242,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D39" s="33" t="e">
         <f t="shared" ref="D39:D46" si="13">I39</f>
         <v>#DIV/0!</v>
@@ -15053,7 +15268,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D40" s="33" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -15079,7 +15294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D41" s="33" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -15105,7 +15320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D42" s="33" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -15131,7 +15346,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D43" s="33" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -15157,7 +15372,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D44" s="33" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -15183,7 +15398,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D45" s="33" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -15209,7 +15424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D46" s="33" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
@@ -15633,14 +15848,14 @@
       </c>
       <c r="D20">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</f>
-        <v>0</v>
+        <v>3990</v>
       </c>
       <c r="H20" s="1">
         <v>45903</v>
       </c>
       <c r="J20">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</f>
-        <v>0</v>
+        <v>36240</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
@@ -15913,12 +16128,12 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUM(Table5[Amount])</f>
-        <v>46699</v>
+        <v>50689</v>
       </c>
       <c r="H35" s="1"/>
       <c r="J35">
         <f>SUM(Table15[Amount])</f>
-        <v>279531</v>
+        <v>315771</v>
       </c>
     </row>
   </sheetData>
@@ -15958,7 +16173,7 @@
       </c>
       <c r="B2" s="14">
         <f>Billing!W5</f>
-        <v>6277000</v>
+        <v>6307000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -16326,7 +16541,7 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(Table14[Debit], Table14[Party],Table12[[#This Row],[Type]])</f>
-        <v>40165</v>
+        <v>55665</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16353,7 +16568,7 @@
       </c>
       <c r="C10" s="11">
         <f>Table5[[#Totals],[Amount]]</f>
-        <v>46699</v>
+        <v>50689</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -16362,7 +16577,7 @@
       </c>
       <c r="C11" s="11">
         <f>Table13[[#Totals],[Debit]]</f>
-        <v>90635</v>
+        <v>95485</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16371,7 +16586,7 @@
       </c>
       <c r="C12" s="11">
         <f>Table15[[#Totals],[Amount]]</f>
-        <v>279531</v>
+        <v>315771</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -16380,7 +16595,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <f>SUM(Table12[Amount])</f>
-        <v>6215330</v>
+        <v>6275910</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -16482,7 +16697,7 @@
       </c>
       <c r="C3" s="11">
         <f ca="1">Billing!C18 + SUMIFS(Table14[Credit], Table14[Party], "Transport")</f>
-        <v>6774779.6269202642</v>
+        <v>7222091.2582297008</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -16494,7 +16709,7 @@
       </c>
       <c r="C4" s="11">
         <f>Table12[[#Totals],[Amount]]</f>
-        <v>6215330</v>
+        <v>6275910</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -16504,7 +16719,7 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C3-C4</f>
-        <v>559449.62692026421</v>
+        <v>946181.25822970085</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16521,7 +16736,7 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">C3</f>
-        <v>6774779.6269202642</v>
+        <v>7222091.2582297008</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16530,7 +16745,7 @@
       </c>
       <c r="C12" s="67">
         <f>SUM(Table14[Credit])</f>
-        <v>6093387</v>
+        <v>6123567</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16539,7 +16754,7 @@
       </c>
       <c r="C13" s="81">
         <f ca="1">(C11-C12)</f>
-        <v>681392.62692026421</v>
+        <v>1098524.2582297008</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16552,7 +16767,7 @@
       </c>
       <c r="C15" s="65">
         <f>C4</f>
-        <v>6215330</v>
+        <v>6275910</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -16561,7 +16776,7 @@
       </c>
       <c r="C16" s="67">
         <f>SUM(Table14[Debit])</f>
-        <v>6003140</v>
+        <v>6093720</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16570,7 +16785,7 @@
       </c>
       <c r="C17" s="81">
         <f>C15-C16</f>
-        <v>212190</v>
+        <v>182190</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16583,7 +16798,7 @@
       </c>
       <c r="C19" s="84">
         <f>Table18[[#Totals],[amount]]</f>
-        <v>90247</v>
+        <v>29847</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16596,14 +16811,14 @@
       </c>
       <c r="C21" s="69">
         <f ca="1">(C13-C17)+C19</f>
-        <v>559449.62692026421</v>
+        <v>946181.25822970085</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>78</v>
       </c>
       <c r="F21" s="88">
         <f ca="1">C5*0.05</f>
-        <v>27972.481346013214</v>
+        <v>47309.062911485045</v>
       </c>
     </row>
   </sheetData>
@@ -16875,7 +17090,7 @@
       </c>
       <c r="D20">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="E20">
         <f>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
@@ -17068,7 +17283,7 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUBTOTAL(109,Table13[Debit])</f>
-        <v>90635</v>
+        <v>95485</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(109,Table13[Credit])</f>
@@ -17076,7 +17291,7 @@
       </c>
       <c r="F35">
         <f>Table13[[#Totals],[Debit]]-Table13[[#Totals],[Credit]]</f>
-        <v>90635</v>
+        <v>95485</v>
       </c>
     </row>
   </sheetData>
@@ -17092,10 +17307,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB128"/>
+  <dimension ref="A1:AB134"/>
   <sheetViews>
-    <sheetView topLeftCell="E61" zoomScale="141" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView topLeftCell="A59" zoomScale="139" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17103,14 +17318,14 @@
     <col min="1" max="1" width="16.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
@@ -17552,7 +17767,7 @@
       </c>
       <c r="H11" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>3.6049079901958692</v>
+        <v>2.8207485755320221</v>
       </c>
       <c r="I11" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -17705,7 +17920,7 @@
       </c>
       <c r="H14" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>3.6049079901958692</v>
+        <v>2.8207485755320221</v>
       </c>
       <c r="I14" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -17862,7 +18077,7 @@
       </c>
       <c r="H17" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>10.254109967616856</v>
+        <v>3.0878078328742049</v>
       </c>
       <c r="I17" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -17967,7 +18182,7 @@
       </c>
       <c r="H19" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>10.254109967616856</v>
+        <v>3.0878078328742049</v>
       </c>
       <c r="I19" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -18225,7 +18440,7 @@
       </c>
       <c r="H24" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>3.6049079901958692</v>
+        <v>2.8207485755320221</v>
       </c>
       <c r="I24" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -18277,7 +18492,7 @@
       </c>
       <c r="H25" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>3.6049079901958692</v>
+        <v>2.8207485755320221</v>
       </c>
       <c r="I25" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -18330,7 +18545,7 @@
       </c>
       <c r="H26" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>10.254109967616856</v>
+        <v>3.0878078328742049</v>
       </c>
       <c r="I26" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -18487,7 +18702,7 @@
       </c>
       <c r="H29" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>10.254109967616856</v>
+        <v>3.0878078328742049</v>
       </c>
       <c r="I29" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -18591,7 +18806,7 @@
       </c>
       <c r="H31" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>3.6049079901958692</v>
+        <v>2.8207485755320221</v>
       </c>
       <c r="I31" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -18747,7 +18962,7 @@
       </c>
       <c r="H34" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>39.837673547718609</v>
+        <v>35.515510121751731</v>
       </c>
       <c r="I34" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -18903,7 +19118,7 @@
       </c>
       <c r="H37" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>39.837673547718609</v>
+        <v>35.515510121751731</v>
       </c>
       <c r="I37" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19163,7 +19378,7 @@
       </c>
       <c r="H42" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>39.837673547718609</v>
+        <v>35.515510121751731</v>
       </c>
       <c r="I42" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19215,7 +19430,7 @@
       </c>
       <c r="H43" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>39.837673547718609</v>
+        <v>35.515510121751731</v>
       </c>
       <c r="I43" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19623,7 +19838,7 @@
       </c>
       <c r="H51" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>39.837673547718609</v>
+        <v>35.515510121751731</v>
       </c>
       <c r="I51" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19831,7 +20046,7 @@
       </c>
       <c r="H55" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>39.837673547718609</v>
+        <v>35.515510121751731</v>
       </c>
       <c r="I55" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19884,7 +20099,7 @@
       </c>
       <c r="H56" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>10.254109967616856</v>
+        <v>3.0878078328742049</v>
       </c>
       <c r="I56" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19937,7 +20152,7 @@
       </c>
       <c r="H57" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>10.254109967616856</v>
+        <v>3.0878078328742049</v>
       </c>
       <c r="I57" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20138,7 +20353,7 @@
       </c>
       <c r="H61" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>10.254109967616856</v>
+        <v>3.0878078328742049</v>
       </c>
       <c r="I61" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20234,7 +20449,7 @@
       </c>
       <c r="H63" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>74.381926042283055</v>
+        <v>0.38258427266271156</v>
       </c>
       <c r="I63" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20259,26 +20474,46 @@
       <c r="S63"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="50"/>
-      <c r="I64" s="50" cm="1">
-        <f t="array" aca="1" ref="I64" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>677604.2428675933</v>
-      </c>
-      <c r="J64" s="50" cm="1">
-        <f t="array" aca="1" ref="J64" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>6774779.6269202651</v>
-      </c>
-      <c r="K64" s="10">
-        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
-        <v>6774779.6269202651</v>
-      </c>
+      <c r="A64" s="28">
+        <v>45902</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="29">
+        <v>773</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="11">
+        <v>1669</v>
+      </c>
+      <c r="F64" s="11">
+        <v>30140</v>
+      </c>
+      <c r="G64" s="11">
+        <v>24391</v>
+      </c>
+      <c r="H64" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>0.38258427266271156</v>
+      </c>
+      <c r="I64" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>22303.401609363573</v>
+      </c>
+      <c r="J64" s="32" cm="1">
+        <f t="array" ref="J64">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>267640.81931236287</v>
+      </c>
+      <c r="K64" s="29"/>
       <c r="L64"/>
       <c r="M64"/>
       <c r="P64"/>
@@ -20286,7 +20521,47 @@
       <c r="R64"/>
       <c r="S64"/>
     </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="28">
+        <v>45902</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="29">
+        <v>774</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="11">
+        <v>1666</v>
+      </c>
+      <c r="F65" s="11">
+        <v>9346</v>
+      </c>
+      <c r="G65" s="11">
+        <v>5084</v>
+      </c>
+      <c r="H65" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>50.258226725742091</v>
+      </c>
+      <c r="I65" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>4648.8661302121436</v>
+      </c>
+      <c r="J65" s="32" cm="1">
+        <f t="array" ref="J65">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>55786.393562545723</v>
+      </c>
+      <c r="K65" s="29"/>
       <c r="L65"/>
       <c r="M65"/>
       <c r="P65"/>
@@ -20294,7 +20569,47 @@
       <c r="R65"/>
       <c r="S65"/>
     </row>
-    <row r="66" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" s="28">
+        <v>45902</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="29">
+        <v>775</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="11">
+        <v>1607</v>
+      </c>
+      <c r="F66" s="11">
+        <v>60737</v>
+      </c>
+      <c r="G66" s="11">
+        <v>4760</v>
+      </c>
+      <c r="H66" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>3.0878078328742049</v>
+      </c>
+      <c r="I66" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>4352.5969275786401</v>
+      </c>
+      <c r="J66" s="32" cm="1">
+        <f t="array" ref="J66">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>43525.969275786403</v>
+      </c>
+      <c r="K66" s="29"/>
       <c r="L66"/>
       <c r="M66"/>
       <c r="P66"/>
@@ -20302,7 +20617,47 @@
       <c r="R66"/>
       <c r="S66"/>
     </row>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="28">
+        <v>45902</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="29">
+        <v>776</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="11">
+        <v>1605</v>
+      </c>
+      <c r="F67" s="11">
+        <v>103550</v>
+      </c>
+      <c r="G67" s="11">
+        <v>888</v>
+      </c>
+      <c r="H67" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>2.8207485755320221</v>
+      </c>
+      <c r="I67" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>811.99707388441846</v>
+      </c>
+      <c r="J67" s="32" cm="1">
+        <f t="array" ref="J67">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>8119.9707388441848</v>
+      </c>
+      <c r="K67" s="29"/>
       <c r="L67"/>
       <c r="M67"/>
       <c r="P67"/>
@@ -20310,7 +20665,47 @@
       <c r="R67"/>
       <c r="S67"/>
     </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="28">
+        <v>45902</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="29">
+        <v>777</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="11">
+        <v>1655</v>
+      </c>
+      <c r="F68" s="11">
+        <v>167135</v>
+      </c>
+      <c r="G68" s="11">
+        <v>7900</v>
+      </c>
+      <c r="H68" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>35.515510121751731</v>
+      </c>
+      <c r="I68" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>7223.8478419897592</v>
+      </c>
+      <c r="J68" s="32" cm="1">
+        <f t="array" ref="J68">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>72238.478419897598</v>
+      </c>
+      <c r="K68" s="29"/>
       <c r="L68"/>
       <c r="M68"/>
       <c r="P68"/>
@@ -20318,7 +20713,27 @@
       <c r="R68"/>
       <c r="S68"/>
     </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="50" cm="1">
+        <f t="array" aca="1" ref="I69" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>716944.95245062187</v>
+      </c>
+      <c r="J69" s="50" cm="1">
+        <f t="array" aca="1" ref="J69" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>7222091.2582297018</v>
+      </c>
+      <c r="K69" s="104">
+        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
+        <v>7222091.2582297018</v>
+      </c>
       <c r="L69"/>
       <c r="M69"/>
       <c r="P69"/>
@@ -20326,13 +20741,7 @@
       <c r="R69"/>
       <c r="S69"/>
     </row>
-    <row r="70" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D70" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>94</v>
-      </c>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L70"/>
       <c r="M70"/>
       <c r="P70"/>
@@ -20340,9 +20749,9 @@
       <c r="R70"/>
       <c r="S70"/>
     </row>
-    <row r="71" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D71" s="3" t="s">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>94</v>
@@ -20354,9 +20763,9 @@
       <c r="R71"/>
       <c r="S71"/>
     </row>
-    <row r="72" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D72" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E72" t="s">
         <v>94</v>
@@ -20368,7 +20777,13 @@
       <c r="R72"/>
       <c r="S72"/>
     </row>
-    <row r="73" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" t="s">
+        <v>94</v>
+      </c>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
@@ -20376,28 +20791,7 @@
       <c r="P73"/>
       <c r="Q73"/>
     </row>
-    <row r="74" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" t="s">
-        <v>95</v>
-      </c>
-      <c r="F74" t="s">
-        <v>96</v>
-      </c>
-      <c r="G74" t="s">
-        <v>97</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" t="s">
-        <v>96</v>
-      </c>
-      <c r="K74" t="s">
-        <v>97</v>
-      </c>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
@@ -20405,25 +20799,27 @@
       <c r="P74"/>
       <c r="Q74"/>
     </row>
-    <row r="75" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D75" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="101"/>
-      <c r="F75" s="33">
-        <v>972869.42209217278</v>
-      </c>
-      <c r="G75" s="101">
-        <v>9691041.9714703746</v>
-      </c>
-      <c r="I75" s="27">
-        <v>45885</v>
-      </c>
-      <c r="J75" s="50">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="K75" s="14">
-        <v>20501.097293343086</v>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J75" t="s">
+        <v>96</v>
+      </c>
+      <c r="K75" t="s">
+        <v>97</v>
       </c>
       <c r="L75"/>
       <c r="M75"/>
@@ -20432,27 +20828,25 @@
       <c r="P75"/>
       <c r="Q75"/>
     </row>
-    <row r="76" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="D76" s="16">
-        <v>716</v>
-      </c>
-      <c r="E76" s="101">
-        <v>43689</v>
-      </c>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D76" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76" s="105"/>
       <c r="F76" s="33">
-        <v>39949.70738844185</v>
-      </c>
-      <c r="G76" s="101">
-        <v>399497.07388441847</v>
+        <v>972869.42209217278</v>
+      </c>
+      <c r="G76" s="105">
+        <v>9691041.9714703746</v>
       </c>
       <c r="I76" s="27">
-        <v>45886</v>
+        <v>45885</v>
       </c>
       <c r="J76" s="50">
-        <v>972869.42209217278</v>
+        <v>2050.1097293343087</v>
       </c>
       <c r="K76" s="14">
-        <v>9691041.9714703746</v>
+        <v>20501.097293343086</v>
       </c>
       <c r="L76"/>
       <c r="M76"/>
@@ -20461,27 +20855,27 @@
       <c r="P76"/>
       <c r="Q76"/>
     </row>
-    <row r="77" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D77" s="16">
-        <v>722</v>
-      </c>
-      <c r="E77" s="101">
-        <v>25952</v>
+        <v>716</v>
+      </c>
+      <c r="E77" s="105">
+        <v>43689</v>
       </c>
       <c r="F77" s="33">
-        <v>23730.797366495979</v>
-      </c>
-      <c r="G77" s="101">
-        <v>237307.97366495978</v>
+        <v>39949.70738844185</v>
+      </c>
+      <c r="G77" s="105">
+        <v>399497.07388441847</v>
       </c>
       <c r="I77" s="27">
-        <v>45888</v>
+        <v>45886</v>
       </c>
       <c r="J77" s="50">
-        <v>71674.286759327006</v>
+        <v>972869.42209217278</v>
       </c>
       <c r="K77" s="14">
-        <v>716742.86759327003</v>
+        <v>9691041.9714703746</v>
       </c>
       <c r="L77"/>
       <c r="M77"/>
@@ -20490,27 +20884,27 @@
       <c r="P77"/>
       <c r="Q77"/>
     </row>
-    <row r="78" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D78" s="16">
-        <v>723</v>
-      </c>
-      <c r="E78" s="101">
-        <v>8742</v>
+        <v>722</v>
+      </c>
+      <c r="E78" s="105">
+        <v>25952</v>
       </c>
       <c r="F78" s="33">
-        <v>7993.7820043891743</v>
-      </c>
-      <c r="G78" s="101">
-        <v>79937.820043891741</v>
+        <v>23730.797366495979</v>
+      </c>
+      <c r="G78" s="105">
+        <v>237307.97366495978</v>
       </c>
       <c r="I78" s="27">
-        <v>45890</v>
+        <v>45888</v>
       </c>
       <c r="J78" s="50">
-        <v>50132.589612289696</v>
+        <v>71674.286759327006</v>
       </c>
       <c r="K78" s="14">
-        <v>501325.89612289687</v>
+        <v>716742.86759327003</v>
       </c>
       <c r="L78"/>
       <c r="M78"/>
@@ -20519,27 +20913,27 @@
       <c r="P78"/>
       <c r="Q78"/>
     </row>
-    <row r="79" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D79" s="16">
-        <v>724</v>
-      </c>
-      <c r="E79" s="101">
-        <v>48705</v>
+        <v>723</v>
+      </c>
+      <c r="E79" s="105">
+        <v>8742</v>
       </c>
       <c r="F79" s="33">
-        <v>44536.393562545723</v>
-      </c>
-      <c r="G79" s="101">
-        <v>445363.9356254572</v>
+        <v>7993.7820043891743</v>
+      </c>
+      <c r="G79" s="105">
+        <v>79937.820043891741</v>
       </c>
       <c r="I79" s="27">
-        <v>45891</v>
+        <v>45890</v>
       </c>
       <c r="J79" s="50">
-        <v>37560.351133869786</v>
+        <v>50132.589612289696</v>
       </c>
       <c r="K79" s="14">
-        <v>375603.51133869792</v>
+        <v>501325.89612289687</v>
       </c>
       <c r="L79"/>
       <c r="M79"/>
@@ -20548,27 +20942,27 @@
       <c r="P79"/>
       <c r="Q79"/>
     </row>
-    <row r="80" spans="4:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D80" s="16">
-        <v>725</v>
-      </c>
-      <c r="E80" s="101">
-        <v>4140</v>
+        <v>724</v>
+      </c>
+      <c r="E80" s="105">
+        <v>48705</v>
       </c>
       <c r="F80" s="33">
-        <v>3785.6620336503297</v>
-      </c>
-      <c r="G80" s="101">
-        <v>37856.6203365033</v>
+        <v>44536.393562545723</v>
+      </c>
+      <c r="G80" s="105">
+        <v>445363.9356254572</v>
       </c>
       <c r="I80" s="27">
-        <v>45892</v>
+        <v>45891</v>
       </c>
       <c r="J80" s="50">
-        <v>76884.601316752029</v>
+        <v>37560.351133869786</v>
       </c>
       <c r="K80" s="14">
-        <v>764915.87417703005</v>
+        <v>375603.51133869792</v>
       </c>
       <c r="L80"/>
       <c r="M80"/>
@@ -20579,25 +20973,25 @@
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D81" s="16">
-        <v>726</v>
-      </c>
-      <c r="E81" s="101">
-        <v>1980</v>
+        <v>725</v>
+      </c>
+      <c r="E81" s="105">
+        <v>4140</v>
       </c>
       <c r="F81" s="33">
-        <v>1810.534016093636</v>
-      </c>
-      <c r="G81" s="101">
-        <v>18105.340160936361</v>
+        <v>3785.6620336503297</v>
+      </c>
+      <c r="G81" s="105">
+        <v>37856.6203365033</v>
       </c>
       <c r="I81" s="27">
-        <v>45894</v>
+        <v>45892</v>
       </c>
       <c r="J81" s="50">
-        <v>81706.291148500371</v>
+        <v>76884.601316752029</v>
       </c>
       <c r="K81" s="14">
-        <v>806219.82443306514</v>
+        <v>764915.87417703005</v>
       </c>
       <c r="L81"/>
       <c r="M81"/>
@@ -20608,25 +21002,25 @@
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D82" s="16">
-        <v>727</v>
-      </c>
-      <c r="E82" s="101">
-        <v>21621</v>
+        <v>726</v>
+      </c>
+      <c r="E82" s="105">
+        <v>1980</v>
       </c>
       <c r="F82" s="33">
-        <v>19770.48280907096</v>
-      </c>
-      <c r="G82" s="101">
-        <v>197704.82809070961</v>
+        <v>1810.534016093636</v>
+      </c>
+      <c r="G82" s="105">
+        <v>18105.340160936361</v>
       </c>
       <c r="I82" s="27">
-        <v>45895</v>
+        <v>45894</v>
       </c>
       <c r="J82" s="50">
-        <v>17298.829553767377</v>
+        <v>81706.291148500371</v>
       </c>
       <c r="K82" s="14">
-        <v>155689.46598390638</v>
+        <v>806219.82443306514</v>
       </c>
       <c r="L82"/>
       <c r="M82"/>
@@ -20637,25 +21031,25 @@
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D83" s="16">
-        <v>728</v>
-      </c>
-      <c r="E83" s="101">
-        <v>6406</v>
+        <v>727</v>
+      </c>
+      <c r="E83" s="105">
+        <v>21621</v>
       </c>
       <c r="F83" s="33">
-        <v>5857.7176298463792</v>
-      </c>
-      <c r="G83" s="101">
-        <v>58577.17629846379</v>
+        <v>19770.48280907096</v>
+      </c>
+      <c r="G83" s="105">
+        <v>197704.82809070961</v>
       </c>
       <c r="I83" s="27">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="J83" s="50">
-        <v>59752.194586686186</v>
+        <v>17298.829553767377</v>
       </c>
       <c r="K83" s="14">
-        <v>555856.80321872712</v>
+        <v>155689.46598390638</v>
       </c>
       <c r="L83"/>
       <c r="M83"/>
@@ -20666,25 +21060,25 @@
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D84" s="16">
-        <v>729</v>
-      </c>
-      <c r="E84" s="101">
-        <v>7452</v>
+        <v>728</v>
+      </c>
+      <c r="E84" s="105">
+        <v>6406</v>
       </c>
       <c r="F84" s="33">
-        <v>6814.1916605705928</v>
-      </c>
-      <c r="G84" s="101">
-        <v>68141.916605705934</v>
+        <v>5857.7176298463792</v>
+      </c>
+      <c r="G84" s="105">
+        <v>58577.17629846379</v>
       </c>
       <c r="I84" s="27">
-        <v>45897</v>
+        <v>45896</v>
       </c>
       <c r="J84" s="50">
-        <v>41335.040234089247</v>
+        <v>59752.194586686186</v>
       </c>
       <c r="K84" s="14">
-        <v>413350.40234089253</v>
+        <v>555856.80321872712</v>
       </c>
       <c r="L84"/>
       <c r="M84"/>
@@ -20695,25 +21089,25 @@
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D85" s="16">
-        <v>731</v>
-      </c>
-      <c r="E85" s="101">
-        <v>5597</v>
+        <v>729</v>
+      </c>
+      <c r="E85" s="105">
+        <v>7452</v>
       </c>
       <c r="F85" s="33">
-        <v>5117.9590343818581</v>
-      </c>
-      <c r="G85" s="101">
-        <v>51179.590343818578</v>
+        <v>6814.1916605705928</v>
+      </c>
+      <c r="G85" s="105">
+        <v>68141.916605705934</v>
       </c>
       <c r="I85" s="27">
-        <v>45898</v>
+        <v>45897</v>
       </c>
       <c r="J85" s="50">
-        <v>40317.300658376014</v>
+        <v>41335.040234089247</v>
       </c>
       <c r="K85" s="14">
-        <v>393712.50914411119</v>
+        <v>413350.40234089253</v>
       </c>
       <c r="L85"/>
       <c r="M85"/>
@@ -20724,25 +21118,25 @@
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D86" s="16">
-        <v>732</v>
-      </c>
-      <c r="E86" s="101">
-        <v>21167</v>
+        <v>731</v>
+      </c>
+      <c r="E86" s="105">
+        <v>5597</v>
       </c>
       <c r="F86" s="33">
-        <v>19355.340160936357</v>
-      </c>
-      <c r="G86" s="101">
-        <v>193553.40160936356</v>
+        <v>5117.9590343818581</v>
+      </c>
+      <c r="G86" s="105">
+        <v>51179.590343818578</v>
       </c>
       <c r="I86" s="27">
-        <v>45899</v>
+        <v>45898</v>
       </c>
       <c r="J86" s="50">
-        <v>53495.793708851503</v>
+        <v>40317.300658376014</v>
       </c>
       <c r="K86" s="14">
-        <v>624926.84711046098</v>
+        <v>393712.50914411119</v>
       </c>
       <c r="L86"/>
       <c r="M86"/>
@@ -20753,25 +21147,25 @@
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D87" s="16">
-        <v>733</v>
-      </c>
-      <c r="E87" s="101">
-        <v>2010</v>
+        <v>732</v>
+      </c>
+      <c r="E87" s="105">
+        <v>21167</v>
       </c>
       <c r="F87" s="33">
-        <v>0</v>
-      </c>
-      <c r="G87" s="101">
-        <v>0</v>
+        <v>19355.340160936357</v>
+      </c>
+      <c r="G87" s="105">
+        <v>193553.40160936356</v>
       </c>
       <c r="I87" s="27">
-        <v>45900</v>
+        <v>45899</v>
       </c>
       <c r="J87" s="50">
-        <v>112115.94732991954</v>
+        <v>53495.793708851503</v>
       </c>
       <c r="K87" s="14">
-        <v>1113504.0234089247</v>
+        <v>624926.84711046098</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
@@ -20782,25 +21176,25 @@
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D88" s="16">
-        <v>734</v>
-      </c>
-      <c r="E88" s="101">
-        <v>16253</v>
+        <v>733</v>
+      </c>
+      <c r="E88" s="105">
+        <v>2010</v>
       </c>
       <c r="F88" s="33">
-        <v>14861.923920994881</v>
-      </c>
-      <c r="G88" s="101">
-        <v>148619.23920994881</v>
+        <v>0</v>
+      </c>
+      <c r="G88" s="105">
+        <v>0</v>
       </c>
       <c r="I88" s="27">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="J88" s="50">
-        <v>33280.907095830291</v>
+        <v>112115.94732991954</v>
       </c>
       <c r="K88" s="14">
-        <v>332430.50475493784</v>
+        <v>1113504.0234089247</v>
       </c>
       <c r="L88"/>
       <c r="M88"/>
@@ -20811,25 +21205,25 @@
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D89" s="16">
-        <v>735</v>
-      </c>
-      <c r="E89" s="101">
-        <v>33788</v>
+        <v>734</v>
+      </c>
+      <c r="E89" s="105">
+        <v>16253</v>
       </c>
       <c r="F89" s="33">
-        <v>30896.122896854427</v>
-      </c>
-      <c r="G89" s="101">
-        <v>308961.22896854428</v>
-      </c>
-      <c r="I89" s="27" t="s">
-        <v>28</v>
+        <v>14861.923920994881</v>
+      </c>
+      <c r="G89" s="105">
+        <v>148619.23920994881</v>
+      </c>
+      <c r="I89" s="27">
+        <v>45901</v>
       </c>
       <c r="J89" s="50">
-        <v>1650473.664959766</v>
+        <v>33280.907095830291</v>
       </c>
       <c r="K89" s="14">
-        <v>16465821.598390641</v>
+        <v>332430.50475493784</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
@@ -20840,16 +21234,25 @@
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D90" s="16">
-        <v>736</v>
-      </c>
-      <c r="E90" s="101">
-        <v>8575</v>
+        <v>735</v>
+      </c>
+      <c r="E90" s="105">
+        <v>33788</v>
       </c>
       <c r="F90" s="33">
-        <v>7841.0753474762259</v>
-      </c>
-      <c r="G90" s="101">
-        <v>78410.753474762256</v>
+        <v>30896.122896854427</v>
+      </c>
+      <c r="G90" s="105">
+        <v>308961.22896854428</v>
+      </c>
+      <c r="I90" s="27">
+        <v>45902</v>
+      </c>
+      <c r="J90" s="50">
+        <v>39340.709583028533</v>
+      </c>
+      <c r="K90" s="14">
+        <v>447311.63130943681</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -20860,16 +21263,25 @@
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D91" s="16">
-        <v>737</v>
-      </c>
-      <c r="E91" s="101">
-        <v>4298</v>
+        <v>736</v>
+      </c>
+      <c r="E91" s="105">
+        <v>8575</v>
       </c>
       <c r="F91" s="33">
-        <v>3930.1389904901248</v>
-      </c>
-      <c r="G91" s="101">
-        <v>35371.250914411125</v>
+        <v>7841.0753474762259</v>
+      </c>
+      <c r="G91" s="105">
+        <v>78410.753474762256</v>
+      </c>
+      <c r="I91" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" s="50">
+        <v>1689814.3745427944</v>
+      </c>
+      <c r="K91" s="14">
+        <v>16913133.229700077</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -20880,16 +21292,16 @@
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D92" s="16">
-        <v>738</v>
-      </c>
-      <c r="E92" s="101">
-        <v>22478</v>
+        <v>737</v>
+      </c>
+      <c r="E92" s="105">
+        <v>4298</v>
       </c>
       <c r="F92" s="33">
-        <v>20554.133138258963</v>
-      </c>
-      <c r="G92" s="101">
-        <v>205541.33138258965</v>
+        <v>3930.1389904901248</v>
+      </c>
+      <c r="G92" s="105">
+        <v>35371.250914411125</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -20900,16 +21312,16 @@
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D93" s="16">
-        <v>739</v>
-      </c>
-      <c r="E93" s="101">
-        <v>8540</v>
+        <v>738</v>
+      </c>
+      <c r="E93" s="105">
+        <v>22478</v>
       </c>
       <c r="F93" s="33">
-        <v>7809.0709583028538</v>
-      </c>
-      <c r="G93" s="101">
-        <v>78090.70958302854</v>
+        <v>20554.133138258963</v>
+      </c>
+      <c r="G93" s="105">
+        <v>205541.33138258965</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -20920,16 +21332,16 @@
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D94" s="16">
-        <v>740</v>
-      </c>
-      <c r="E94" s="101">
-        <v>7214</v>
+        <v>739</v>
+      </c>
+      <c r="E94" s="105">
+        <v>8540</v>
       </c>
       <c r="F94" s="33">
-        <v>6596.5618141916611</v>
-      </c>
-      <c r="G94" s="101">
-        <v>65965.61814191661</v>
+        <v>7809.0709583028538</v>
+      </c>
+      <c r="G94" s="105">
+        <v>78090.70958302854</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -20940,16 +21352,16 @@
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D95" s="16">
-        <v>741</v>
-      </c>
-      <c r="E95" s="101">
-        <v>6688</v>
+        <v>740</v>
+      </c>
+      <c r="E95" s="105">
+        <v>7214</v>
       </c>
       <c r="F95" s="33">
-        <v>6115.5815654718363</v>
-      </c>
-      <c r="G95" s="101">
-        <v>61155.815654718361</v>
+        <v>6596.5618141916611</v>
+      </c>
+      <c r="G95" s="105">
+        <v>65965.61814191661</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -20960,16 +21372,16 @@
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D96" s="16">
-        <v>742</v>
-      </c>
-      <c r="E96" s="101">
-        <v>1914</v>
+        <v>741</v>
+      </c>
+      <c r="E96" s="105">
+        <v>6688</v>
       </c>
       <c r="F96" s="33">
-        <v>1750.1828822238481</v>
-      </c>
-      <c r="G96" s="101">
-        <v>17501.82882223848</v>
+        <v>6115.5815654718363</v>
+      </c>
+      <c r="G96" s="105">
+        <v>61155.815654718361</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -20980,16 +21392,16 @@
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D97" s="16">
-        <v>743</v>
-      </c>
-      <c r="E97" s="101">
-        <v>9214</v>
+        <v>742</v>
+      </c>
+      <c r="E97" s="105">
+        <v>1914</v>
       </c>
       <c r="F97" s="33">
-        <v>8425.3840526700806</v>
-      </c>
-      <c r="G97" s="101">
-        <v>84253.840526700806</v>
+        <v>1750.1828822238481</v>
+      </c>
+      <c r="G97" s="105">
+        <v>17501.82882223848</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -21000,16 +21412,16 @@
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D98" s="16">
-        <v>744</v>
-      </c>
-      <c r="E98" s="101">
-        <v>21448</v>
+        <v>743</v>
+      </c>
+      <c r="E98" s="105">
+        <v>9214</v>
       </c>
       <c r="F98" s="33">
-        <v>19612.289685442578</v>
-      </c>
-      <c r="G98" s="101">
-        <v>196122.89685442578</v>
+        <v>8425.3840526700806</v>
+      </c>
+      <c r="G98" s="105">
+        <v>84253.840526700806</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -21020,16 +21432,16 @@
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D99" s="16">
-        <v>745</v>
-      </c>
-      <c r="E99" s="101">
-        <v>11858</v>
+        <v>744</v>
+      </c>
+      <c r="E99" s="105">
+        <v>21448</v>
       </c>
       <c r="F99" s="33">
-        <v>10843.087051938552</v>
-      </c>
-      <c r="G99" s="101">
-        <v>97587.783467446963</v>
+        <v>19612.289685442578</v>
+      </c>
+      <c r="G99" s="105">
+        <v>196122.89685442578</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -21040,16 +21452,16 @@
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D100" s="16">
-        <v>746</v>
-      </c>
-      <c r="E100" s="101">
-        <v>18918</v>
+        <v>745</v>
+      </c>
+      <c r="E100" s="105">
+        <v>11858</v>
       </c>
       <c r="F100" s="33">
-        <v>17298.829553767377</v>
-      </c>
-      <c r="G100" s="101">
-        <v>155689.46598390638</v>
+        <v>10843.087051938552</v>
+      </c>
+      <c r="G100" s="105">
+        <v>97587.783467446963</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -21060,16 +21472,16 @@
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D101" s="16">
-        <v>747</v>
-      </c>
-      <c r="E101" s="101">
-        <v>19780</v>
+        <v>746</v>
+      </c>
+      <c r="E101" s="105">
+        <v>18918</v>
       </c>
       <c r="F101" s="33">
-        <v>18087.051938551573</v>
-      </c>
-      <c r="G101" s="101">
-        <v>180870.51938551571</v>
+        <v>17298.829553767377</v>
+      </c>
+      <c r="G101" s="105">
+        <v>155689.46598390638</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -21080,16 +21492,16 @@
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D102" s="16">
-        <v>748</v>
-      </c>
-      <c r="E102" s="101">
-        <v>4342</v>
+        <v>747</v>
+      </c>
+      <c r="E102" s="105">
+        <v>19780</v>
       </c>
       <c r="F102" s="33">
-        <v>3970.3730797366497</v>
-      </c>
-      <c r="G102" s="101">
-        <v>35733.35771762985</v>
+        <v>18087.051938551573</v>
+      </c>
+      <c r="G102" s="105">
+        <v>180870.51938551571</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -21100,16 +21512,16 @@
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D103" s="16">
-        <v>749</v>
-      </c>
-      <c r="E103" s="101">
-        <v>28098</v>
+        <v>748</v>
+      </c>
+      <c r="E103" s="105">
+        <v>4342</v>
       </c>
       <c r="F103" s="33">
-        <v>25693.123628383324</v>
-      </c>
-      <c r="G103" s="101">
-        <v>231238.11265544992</v>
+        <v>3970.3730797366497</v>
+      </c>
+      <c r="G103" s="105">
+        <v>35733.35771762985</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -21120,16 +21532,16 @@
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D104" s="16">
-        <v>750</v>
-      </c>
-      <c r="E104" s="101">
-        <v>13125</v>
+        <v>749</v>
+      </c>
+      <c r="E104" s="105">
+        <v>28098</v>
       </c>
       <c r="F104" s="33">
-        <v>12001.645940014632</v>
-      </c>
-      <c r="G104" s="101">
-        <v>108014.81346013169</v>
+        <v>25693.123628383324</v>
+      </c>
+      <c r="G104" s="105">
+        <v>231238.11265544992</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -21140,338 +21552,422 @@
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D105" s="16">
-        <v>721</v>
-      </c>
-      <c r="E105" s="101">
-        <v>2242</v>
+        <v>750</v>
+      </c>
+      <c r="E105" s="105">
+        <v>13125</v>
       </c>
       <c r="F105" s="33">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="G105" s="101">
-        <v>20501.097293343086</v>
+        <v>12001.645940014632</v>
+      </c>
+      <c r="G105" s="105">
+        <v>108014.81346013169</v>
       </c>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D106" s="16">
-        <v>751</v>
-      </c>
-      <c r="E106" s="101">
-        <v>33502</v>
+        <v>721</v>
+      </c>
+      <c r="E106" s="105">
+        <v>2242</v>
       </c>
       <c r="F106" s="33">
-        <v>30634.601316752014</v>
-      </c>
-      <c r="G106" s="101">
-        <v>306346.01316752017</v>
+        <v>2050.1097293343087</v>
+      </c>
+      <c r="G106" s="105">
+        <v>20501.097293343086</v>
       </c>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D107" s="16">
-        <v>752</v>
-      </c>
-      <c r="E107" s="101">
-        <v>11702</v>
+        <v>751</v>
+      </c>
+      <c r="E107" s="105">
+        <v>33502</v>
       </c>
       <c r="F107" s="33">
-        <v>10700.438917337236</v>
-      </c>
-      <c r="G107" s="101">
-        <v>107004.38917337236</v>
+        <v>30634.601316752014</v>
+      </c>
+      <c r="G107" s="105">
+        <v>306346.01316752017</v>
       </c>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D108" s="16">
-        <v>753</v>
-      </c>
-      <c r="E108" s="101">
-        <v>26158</v>
+        <v>752</v>
+      </c>
+      <c r="E108" s="105">
+        <v>11702</v>
       </c>
       <c r="F108" s="33">
-        <v>23919.166057059258</v>
-      </c>
-      <c r="G108" s="101">
-        <v>239191.66057059256</v>
+        <v>10700.438917337236</v>
+      </c>
+      <c r="G108" s="105">
+        <v>107004.38917337236</v>
       </c>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D109" s="16">
-        <v>754</v>
-      </c>
-      <c r="E109" s="101">
-        <v>10346</v>
+        <v>753</v>
+      </c>
+      <c r="E109" s="105">
+        <v>26158</v>
       </c>
       <c r="F109" s="33">
-        <v>9460.4974396488669</v>
-      </c>
-      <c r="G109" s="101">
-        <v>85144.476956839804</v>
+        <v>23919.166057059258</v>
+      </c>
+      <c r="G109" s="105">
+        <v>239191.66057059256</v>
       </c>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D110" s="16">
-        <v>755</v>
-      </c>
-      <c r="E110" s="101">
-        <v>7587</v>
+        <v>754</v>
+      </c>
+      <c r="E110" s="105">
+        <v>10346</v>
       </c>
       <c r="F110" s="33">
-        <v>6937.6371616678862</v>
-      </c>
-      <c r="G110" s="101">
-        <v>69376.371616678865</v>
+        <v>9460.4974396488669</v>
+      </c>
+      <c r="G110" s="105">
+        <v>85144.476956839804</v>
       </c>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D111" s="16">
-        <v>756</v>
-      </c>
-      <c r="E111" s="101">
-        <v>2244</v>
+        <v>755</v>
+      </c>
+      <c r="E111" s="105">
+        <v>7587</v>
       </c>
       <c r="F111" s="33">
-        <v>0</v>
-      </c>
-      <c r="G111" s="101">
-        <v>0</v>
+        <v>6937.6371616678862</v>
+      </c>
+      <c r="G111" s="105">
+        <v>69376.371616678865</v>
       </c>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D112" s="16">
-        <v>757</v>
-      </c>
-      <c r="E112" s="101">
-        <v>14872</v>
+        <v>756</v>
+      </c>
+      <c r="E112" s="105">
+        <v>2244</v>
       </c>
       <c r="F112" s="33">
-        <v>13599.122165325531</v>
-      </c>
-      <c r="G112" s="101">
-        <v>163189.46598390635</v>
+        <v>0</v>
+      </c>
+      <c r="G112" s="105">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D113" s="16">
-        <v>758</v>
-      </c>
-      <c r="E113" s="101">
-        <v>11018</v>
+        <v>757</v>
+      </c>
+      <c r="E113" s="105">
+        <v>14872</v>
       </c>
       <c r="F113" s="33">
-        <v>10074.981711777617</v>
-      </c>
-      <c r="G113" s="101">
-        <v>120899.78054133139</v>
+        <v>13599.122165325531</v>
+      </c>
+      <c r="G113" s="105">
+        <v>163189.46598390635</v>
       </c>
     </row>
     <row r="114" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D114" s="16">
-        <v>759</v>
-      </c>
-      <c r="E114" s="101">
-        <v>23305</v>
+        <v>758</v>
+      </c>
+      <c r="E114" s="105">
+        <v>11018</v>
       </c>
       <c r="F114" s="33">
-        <v>21310.35113386979</v>
-      </c>
-      <c r="G114" s="101">
-        <v>255724.21360643749</v>
+        <v>10074.981711777617</v>
+      </c>
+      <c r="G114" s="105">
+        <v>120899.78054133139</v>
       </c>
     </row>
     <row r="115" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D115" s="16">
-        <v>760</v>
-      </c>
-      <c r="E115" s="101">
-        <v>9308</v>
+        <v>759</v>
+      </c>
+      <c r="E115" s="105">
+        <v>23305</v>
       </c>
       <c r="F115" s="33">
-        <v>8511.3386978785675</v>
-      </c>
-      <c r="G115" s="101">
-        <v>85113.386978785682</v>
+        <v>21310.35113386979</v>
+      </c>
+      <c r="G115" s="105">
+        <v>255724.21360643749</v>
       </c>
     </row>
     <row r="116" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D116" s="16">
-        <v>761</v>
-      </c>
-      <c r="E116" s="101">
-        <v>20380</v>
+        <v>760</v>
+      </c>
+      <c r="E116" s="105">
+        <v>9308</v>
       </c>
       <c r="F116" s="33">
-        <v>18635.6986100951</v>
-      </c>
-      <c r="G116" s="101">
-        <v>186356.98610095101</v>
+        <v>8511.3386978785675</v>
+      </c>
+      <c r="G116" s="105">
+        <v>85113.386978785682</v>
       </c>
     </row>
     <row r="117" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D117" s="16">
-        <v>762</v>
-      </c>
-      <c r="E117" s="101">
-        <v>9796</v>
+        <v>761</v>
+      </c>
+      <c r="E117" s="105">
+        <v>20380</v>
       </c>
       <c r="F117" s="33">
-        <v>8957.5713240673012</v>
-      </c>
-      <c r="G117" s="101">
-        <v>102414.04535479151</v>
+        <v>18635.6986100951</v>
+      </c>
+      <c r="G117" s="105">
+        <v>186356.98610095101</v>
       </c>
     </row>
     <row r="118" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D118" s="16">
-        <v>763</v>
-      </c>
-      <c r="E118" s="101">
-        <v>25394</v>
+        <v>762</v>
+      </c>
+      <c r="E118" s="105">
+        <v>9796</v>
       </c>
       <c r="F118" s="33">
-        <v>23220.555961960501</v>
-      </c>
-      <c r="G118" s="101">
-        <v>232205.55961960502</v>
+        <v>8957.5713240673012</v>
+      </c>
+      <c r="G118" s="105">
+        <v>102414.04535479151</v>
       </c>
     </row>
     <row r="119" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D119" s="16">
-        <v>764</v>
-      </c>
-      <c r="E119" s="101">
-        <v>10496</v>
+        <v>763</v>
+      </c>
+      <c r="E119" s="105">
+        <v>25394</v>
       </c>
       <c r="F119" s="33">
-        <v>9597.6591075347478</v>
-      </c>
-      <c r="G119" s="101">
-        <v>95976.591075347475</v>
+        <v>23220.555961960501</v>
+      </c>
+      <c r="G119" s="105">
+        <v>232205.55961960502</v>
       </c>
     </row>
     <row r="120" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D120" s="16">
-        <v>765</v>
-      </c>
-      <c r="E120" s="101">
-        <v>9552</v>
+        <v>764</v>
+      </c>
+      <c r="E120" s="105">
+        <v>10496</v>
       </c>
       <c r="F120" s="33">
-        <v>8734.4550109729335</v>
-      </c>
-      <c r="G120" s="101">
-        <v>87344.550109729331</v>
+        <v>9597.6591075347478</v>
+      </c>
+      <c r="G120" s="105">
+        <v>95976.591075347475</v>
       </c>
     </row>
     <row r="121" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D121" s="16">
-        <v>766</v>
-      </c>
-      <c r="E121" s="101">
-        <v>13908</v>
+        <v>765</v>
+      </c>
+      <c r="E121" s="105">
+        <v>9552</v>
       </c>
       <c r="F121" s="33">
-        <v>12717.629846378934</v>
-      </c>
-      <c r="G121" s="101">
-        <v>127176.29846378934</v>
+        <v>8734.4550109729335</v>
+      </c>
+      <c r="G121" s="105">
+        <v>87344.550109729331</v>
       </c>
     </row>
     <row r="122" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D122" s="16">
-        <v>767</v>
-      </c>
-      <c r="E122" s="101">
-        <v>10672</v>
+        <v>766</v>
+      </c>
+      <c r="E122" s="105">
+        <v>13908</v>
       </c>
       <c r="F122" s="33">
-        <v>9758.5954645208494</v>
-      </c>
-      <c r="G122" s="101">
-        <v>97585.954645208491</v>
+        <v>12717.629846378934</v>
+      </c>
+      <c r="G122" s="105">
+        <v>127176.29846378934</v>
       </c>
     </row>
     <row r="123" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D123" s="16">
-        <v>768</v>
-      </c>
-      <c r="E123" s="101">
-        <v>15800</v>
+        <v>767</v>
+      </c>
+      <c r="E123" s="105">
+        <v>10672</v>
       </c>
       <c r="F123" s="33">
-        <v>14447.695683979518</v>
-      </c>
-      <c r="G123" s="101">
-        <v>130029.26115581566</v>
+        <v>9758.5954645208494</v>
+      </c>
+      <c r="G123" s="105">
+        <v>97585.954645208491</v>
       </c>
     </row>
     <row r="124" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D124" s="16">
-        <v>769</v>
-      </c>
-      <c r="E124" s="101">
-        <v>6612</v>
+        <v>768</v>
+      </c>
+      <c r="E124" s="105">
+        <v>15800</v>
       </c>
       <c r="F124" s="33">
-        <v>6046.0863204096568</v>
-      </c>
-      <c r="G124" s="101">
-        <v>54414.776883686907</v>
+        <v>14447.695683979518</v>
+      </c>
+      <c r="G124" s="105">
+        <v>130029.26115581566</v>
       </c>
     </row>
     <row r="125" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D125" s="16">
-        <v>770</v>
-      </c>
-      <c r="E125" s="101">
-        <v>10650</v>
+        <v>769</v>
+      </c>
+      <c r="E125" s="105">
+        <v>6612</v>
       </c>
       <c r="F125" s="33">
-        <v>9738.4784198975867</v>
-      </c>
-      <c r="G125" s="101">
-        <v>97384.78419897586</v>
+        <v>6046.0863204096568</v>
+      </c>
+      <c r="G125" s="105">
+        <v>54414.776883686907</v>
       </c>
     </row>
     <row r="126" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D126" s="16">
-        <v>771</v>
-      </c>
-      <c r="E126" s="101">
-        <v>17302</v>
+        <v>770</v>
+      </c>
+      <c r="E126" s="105">
+        <v>10650</v>
       </c>
       <c r="F126" s="33">
-        <v>15821.141185076813</v>
-      </c>
-      <c r="G126" s="101">
-        <v>142390.27066569132</v>
+        <v>9738.4784198975867</v>
+      </c>
+      <c r="G126" s="105">
+        <v>97384.78419897586</v>
       </c>
     </row>
     <row r="127" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D127" s="16">
+        <v>771</v>
+      </c>
+      <c r="E127" s="105">
+        <v>17302</v>
+      </c>
+      <c r="F127" s="33">
+        <v>15821.141185076813</v>
+      </c>
+      <c r="G127" s="105">
+        <v>142390.27066569132</v>
+      </c>
+    </row>
+    <row r="128" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D128" s="16">
         <v>772</v>
       </c>
-      <c r="E127" s="101">
+      <c r="E128" s="105">
         <v>8444</v>
       </c>
-      <c r="F127" s="33">
+      <c r="F128" s="33">
         <v>7721.2874908558897</v>
       </c>
-      <c r="G127" s="101">
+      <c r="G128" s="105">
         <v>92655.449890270684</v>
       </c>
     </row>
-    <row r="128" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D128" s="16" t="s">
+    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D129" s="16">
+        <v>773</v>
+      </c>
+      <c r="E129" s="105">
+        <v>24391</v>
+      </c>
+      <c r="F129" s="33">
+        <v>22303.401609363573</v>
+      </c>
+      <c r="G129" s="105">
+        <v>267640.81931236287</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D130" s="16">
+        <v>774</v>
+      </c>
+      <c r="E130" s="105">
+        <v>5084</v>
+      </c>
+      <c r="F130" s="33">
+        <v>4648.8661302121436</v>
+      </c>
+      <c r="G130" s="105">
+        <v>55786.393562545723</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D131" s="16">
+        <v>775</v>
+      </c>
+      <c r="E131" s="105">
+        <v>4760</v>
+      </c>
+      <c r="F131" s="33">
+        <v>4352.5969275786401</v>
+      </c>
+      <c r="G131" s="105">
+        <v>43525.969275786403</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D132" s="16">
+        <v>776</v>
+      </c>
+      <c r="E132" s="105">
+        <v>888</v>
+      </c>
+      <c r="F132" s="33">
+        <v>811.99707388441846</v>
+      </c>
+      <c r="G132" s="105">
+        <v>8119.9707388441848</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D133" s="16">
+        <v>777</v>
+      </c>
+      <c r="E133" s="105">
+        <v>7900</v>
+      </c>
+      <c r="F133" s="33">
+        <v>7223.8478419897592</v>
+      </c>
+      <c r="G133" s="105">
+        <v>72238.478419897598</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D134" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E128" s="101">
-        <v>745282</v>
-      </c>
-      <c r="F128" s="33">
-        <v>1650473.664959766</v>
-      </c>
-      <c r="G128" s="101">
-        <v>16465821.598390639</v>
+      <c r="E134" s="105">
+        <v>788305</v>
+      </c>
+      <c r="F134" s="33">
+        <v>1689814.3745427942</v>
+      </c>
+      <c r="G134" s="105">
+        <v>16913133.229700074</v>
       </c>
     </row>
   </sheetData>
@@ -21497,10 +21993,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="95" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21509,11 +22005,11 @@
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
@@ -22340,7 +22836,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>45871</v>
+        <v>45902</v>
       </c>
       <c r="B29" t="s">
         <v>103</v>
@@ -22370,7 +22866,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>45840</v>
+        <v>45902</v>
       </c>
       <c r="B30" t="s">
         <v>103</v>
@@ -22399,7 +22895,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>45810</v>
+        <v>45903</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -22408,15 +22907,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H31" s="11"/>
+      <c r="H31" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>30000</v>
+      </c>
       <c r="I31" s="11">
         <f>(D31*E31)-Table3[[#This Row],[Paid]]</f>
-        <v>0</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45779</v>
+        <v>45902</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -22444,11 +22946,11 @@
       </c>
       <c r="H33" s="14">
         <f>SUBTOTAL(109,Table3[Paid])</f>
-        <v>3139600</v>
+        <v>3169600</v>
       </c>
       <c r="I33" s="14">
         <f>SUBTOTAL(109,Table3[balance])</f>
-        <v>2023597</v>
+        <v>1993597</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -22456,7 +22958,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -22478,849 +22980,207 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E43" s="27">
-        <v>45871</v>
+        <v>45882</v>
       </c>
       <c r="F43" s="14">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="G43" s="14">
-        <v>201690</v>
-      </c>
-      <c r="H43" s="14"/>
+        <v>70000</v>
+      </c>
+      <c r="H43" s="14">
+        <v>0</v>
+      </c>
       <c r="I43" s="14">
-        <v>201690</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E44" s="49">
-        <v>8141</v>
+        <v>1055</v>
       </c>
       <c r="F44" s="14">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="G44" s="14">
-        <v>201690</v>
-      </c>
-      <c r="H44" s="14"/>
+        <v>70000</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
       <c r="I44" s="14">
-        <v>201690</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E45" s="27">
-        <v>45881</v>
-      </c>
-      <c r="F45" s="14">
-        <v>288</v>
-      </c>
+        <v>45885</v>
+      </c>
+      <c r="F45" s="14"/>
       <c r="G45" s="14">
-        <v>220320</v>
-      </c>
-      <c r="H45" s="14">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" s="14"/>
       <c r="I45" s="14">
-        <v>220320</v>
+        <v>-27400</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E46" s="49">
-        <v>6691</v>
-      </c>
-      <c r="F46" s="14">
-        <v>288</v>
-      </c>
+      <c r="E46" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="14"/>
       <c r="G46" s="14">
-        <v>220320</v>
-      </c>
-      <c r="H46" s="14">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" s="14"/>
       <c r="I46" s="14">
-        <v>220320</v>
+        <v>-27400</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E47" s="27">
-        <v>45882</v>
+        <v>45893</v>
       </c>
       <c r="F47" s="14">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="G47" s="14">
-        <v>70000</v>
+        <v>20300</v>
       </c>
       <c r="H47" s="14">
         <v>0</v>
       </c>
       <c r="I47" s="14">
-        <v>70000</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E48" s="49">
-        <v>1055</v>
+      <c r="E48" s="49" t="s">
+        <v>106</v>
       </c>
       <c r="F48" s="14">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="G48" s="14">
-        <v>70000</v>
+        <v>20300</v>
       </c>
       <c r="H48" s="14">
         <v>0</v>
       </c>
       <c r="I48" s="14">
-        <v>70000</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E49" s="27">
-        <v>45884</v>
+        <v>45896</v>
       </c>
       <c r="F49" s="14">
-        <v>388</v>
+        <v>133</v>
       </c>
       <c r="G49" s="14">
-        <v>296820</v>
+        <v>93100</v>
       </c>
       <c r="H49" s="14">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I49" s="14">
-        <v>296820</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E50" s="49">
-        <v>8395</v>
+        <v>5946</v>
       </c>
       <c r="F50" s="14">
-        <v>388</v>
+        <v>133</v>
       </c>
       <c r="G50" s="14">
-        <v>296820</v>
+        <v>93100</v>
       </c>
       <c r="H50" s="14">
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="I50" s="14">
-        <v>296820</v>
+        <v>18100</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E51" s="27">
-        <v>45885</v>
-      </c>
-      <c r="F51" s="14">
-        <v>236</v>
-      </c>
+        <v>45899</v>
+      </c>
+      <c r="F51" s="14"/>
       <c r="G51" s="14">
-        <v>180540</v>
+        <v>0</v>
       </c>
       <c r="H51" s="14">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I51" s="14">
-        <v>1405987</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E52" s="49">
-        <v>3229</v>
-      </c>
-      <c r="F52" s="14">
-        <v>236</v>
-      </c>
+      <c r="E52" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52" s="14"/>
       <c r="G52" s="14">
-        <v>180540</v>
+        <v>0</v>
       </c>
       <c r="H52" s="14">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="I52" s="14">
-        <v>180540</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E53" s="49" t="s">
-        <v>104</v>
+      <c r="E53" s="27">
+        <v>45903</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14">
         <v>0</v>
       </c>
-      <c r="H53" s="14"/>
+      <c r="H53" s="14">
+        <v>30000</v>
+      </c>
       <c r="I53" s="14">
-        <v>1225447</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="54" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E54" s="27">
-        <v>45886</v>
-      </c>
-      <c r="F54" s="14">
-        <v>265</v>
-      </c>
+      <c r="E54" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="14"/>
       <c r="G54" s="14">
-        <v>202725</v>
+        <v>0</v>
       </c>
       <c r="H54" s="14">
-        <v>26650</v>
+        <v>30000</v>
       </c>
       <c r="I54" s="14">
-        <v>176075</v>
+        <v>-30000</v>
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E55" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="14"/>
+      <c r="E55" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="14">
+        <v>262</v>
+      </c>
       <c r="G55" s="14">
-        <v>0</v>
+        <v>183400</v>
       </c>
       <c r="H55" s="14">
-        <v>26650</v>
+        <v>145000</v>
       </c>
       <c r="I55" s="14">
-        <v>-26650</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E56" s="49">
-        <v>4649</v>
-      </c>
-      <c r="F56" s="14">
-        <v>265</v>
-      </c>
-      <c r="G56" s="14">
-        <v>202725</v>
-      </c>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14">
-        <v>202725</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E57" s="27">
-        <v>45888</v>
-      </c>
-      <c r="F57" s="14">
-        <v>292</v>
-      </c>
-      <c r="G57" s="14">
-        <v>223380</v>
-      </c>
-      <c r="H57" s="14">
-        <v>331500</v>
-      </c>
-      <c r="I57" s="14">
-        <v>-108120</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E58" s="49">
-        <v>52</v>
-      </c>
-      <c r="F58" s="14">
-        <v>292</v>
-      </c>
-      <c r="G58" s="14">
-        <v>223380</v>
-      </c>
-      <c r="H58" s="14">
-        <v>331500</v>
-      </c>
-      <c r="I58" s="14">
-        <v>-108120</v>
-      </c>
-    </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E59" s="27">
-        <v>45889</v>
-      </c>
-      <c r="F59" s="14">
-        <v>347</v>
-      </c>
-      <c r="G59" s="14">
-        <v>265455</v>
-      </c>
-      <c r="H59" s="14">
-        <v>102000</v>
-      </c>
-      <c r="I59" s="14">
-        <v>163455</v>
-      </c>
-    </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E60" s="49">
-        <v>739</v>
-      </c>
-      <c r="F60" s="14">
-        <v>347</v>
-      </c>
-      <c r="G60" s="14">
-        <v>265455</v>
-      </c>
-      <c r="H60" s="14">
-        <v>102000</v>
-      </c>
-      <c r="I60" s="14">
-        <v>163455</v>
-      </c>
-    </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E61" s="27">
-        <v>45890</v>
-      </c>
-      <c r="F61" s="14">
-        <v>471</v>
-      </c>
-      <c r="G61" s="14">
-        <v>360315</v>
-      </c>
-      <c r="H61" s="14">
-        <v>407400</v>
-      </c>
-      <c r="I61" s="14">
-        <v>-47085</v>
-      </c>
-    </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E62" s="49">
-        <v>3229</v>
-      </c>
-      <c r="F62" s="14">
-        <v>215</v>
-      </c>
-      <c r="G62" s="14">
-        <v>164475</v>
-      </c>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14">
-        <v>164475</v>
-      </c>
-    </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E63" s="49">
-        <v>1288</v>
-      </c>
-      <c r="F63" s="14">
-        <v>256</v>
-      </c>
-      <c r="G63" s="14">
-        <v>195840</v>
-      </c>
-      <c r="H63" s="14">
-        <v>407400</v>
-      </c>
-      <c r="I63" s="14">
-        <v>-211560</v>
-      </c>
-    </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E64" s="27">
-        <v>45894</v>
-      </c>
-      <c r="F64" s="14">
-        <v>526</v>
-      </c>
-      <c r="G64" s="14">
-        <v>402390</v>
-      </c>
-      <c r="H64" s="14">
-        <v>69450</v>
-      </c>
-      <c r="I64" s="14">
-        <v>332940</v>
-      </c>
-    </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E65" s="49">
-        <v>3229</v>
-      </c>
-      <c r="F65" s="14">
-        <v>245</v>
-      </c>
-      <c r="G65" s="14">
-        <v>187425</v>
-      </c>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14">
-        <v>187425</v>
-      </c>
-    </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E66" s="49">
-        <v>5045</v>
-      </c>
-      <c r="F66" s="14">
-        <v>281</v>
-      </c>
-      <c r="G66" s="14">
-        <v>214965</v>
-      </c>
-      <c r="H66" s="14">
-        <v>69450</v>
-      </c>
-      <c r="I66" s="14">
-        <v>145515</v>
-      </c>
-    </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E67" s="27">
-        <v>45893</v>
-      </c>
-      <c r="F67" s="14">
-        <v>29</v>
-      </c>
-      <c r="G67" s="14">
-        <v>20300</v>
-      </c>
-      <c r="H67" s="14">
-        <v>0</v>
-      </c>
-      <c r="I67" s="14">
-        <v>20300</v>
-      </c>
-    </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E68" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="14">
-        <v>29</v>
-      </c>
-      <c r="G68" s="14">
-        <v>20300</v>
-      </c>
-      <c r="H68" s="14">
-        <v>0</v>
-      </c>
-      <c r="I68" s="14">
-        <v>20300</v>
-      </c>
-    </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E69" s="27">
-        <v>45895</v>
-      </c>
-      <c r="F69" s="14">
-        <v>516</v>
-      </c>
-      <c r="G69" s="14">
-        <v>394740</v>
-      </c>
-      <c r="H69" s="14">
-        <v>346500</v>
-      </c>
-      <c r="I69" s="14">
-        <v>48240</v>
-      </c>
-    </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E70" s="49">
-        <v>561</v>
-      </c>
-      <c r="F70" s="14">
-        <v>225</v>
-      </c>
-      <c r="G70" s="14">
-        <v>172125</v>
-      </c>
-      <c r="H70" s="14">
-        <v>346500</v>
-      </c>
-      <c r="I70" s="14">
-        <v>-174375</v>
-      </c>
-    </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E71" s="49">
-        <v>447</v>
-      </c>
-      <c r="F71" s="14">
-        <v>291</v>
-      </c>
-      <c r="G71" s="14">
-        <v>222615</v>
-      </c>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14">
-        <v>222615</v>
-      </c>
-    </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E72" s="27">
-        <v>45887</v>
-      </c>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14">
-        <v>0</v>
-      </c>
-      <c r="H72" s="14">
-        <v>300000</v>
-      </c>
-      <c r="I72" s="14">
-        <v>-300000</v>
-      </c>
-    </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E73" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14">
-        <v>0</v>
-      </c>
-      <c r="H73" s="14">
-        <v>300000</v>
-      </c>
-      <c r="I73" s="14">
-        <v>-300000</v>
-      </c>
-    </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E74" s="27">
-        <v>45892</v>
-      </c>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14">
-        <v>0</v>
-      </c>
-      <c r="H74" s="14">
-        <v>302100</v>
-      </c>
-      <c r="I74" s="14">
-        <v>-302100</v>
-      </c>
-    </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E75" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14">
-        <v>0</v>
-      </c>
-      <c r="H75" s="14">
-        <v>302100</v>
-      </c>
-      <c r="I75" s="14">
-        <v>-302100</v>
-      </c>
-    </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E76" s="27">
-        <v>45896</v>
-      </c>
-      <c r="F76" s="14">
-        <v>133</v>
-      </c>
-      <c r="G76" s="14">
-        <v>93100</v>
-      </c>
-      <c r="H76" s="14">
-        <v>75000</v>
-      </c>
-      <c r="I76" s="14">
-        <v>18100</v>
-      </c>
-    </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E77" s="49">
-        <v>5946</v>
-      </c>
-      <c r="F77" s="14">
-        <v>133</v>
-      </c>
-      <c r="G77" s="14">
-        <v>93100</v>
-      </c>
-      <c r="H77" s="14">
-        <v>75000</v>
-      </c>
-      <c r="I77" s="14">
-        <v>18100</v>
-      </c>
-    </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E78" s="27">
-        <v>45897</v>
-      </c>
-      <c r="F78" s="14">
-        <v>265</v>
-      </c>
-      <c r="G78" s="14">
-        <v>202725</v>
-      </c>
-      <c r="H78" s="14">
-        <v>345250</v>
-      </c>
-      <c r="I78" s="14">
-        <v>-142525</v>
-      </c>
-    </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E79" s="49">
-        <v>1910</v>
-      </c>
-      <c r="F79" s="14">
-        <v>265</v>
-      </c>
-      <c r="G79" s="14">
-        <v>202725</v>
-      </c>
-      <c r="H79" s="14">
-        <v>345250</v>
-      </c>
-      <c r="I79" s="14">
-        <v>-142525</v>
-      </c>
-    </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E80" s="27">
-        <v>45899</v>
-      </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14">
-        <v>0</v>
-      </c>
-      <c r="H80" s="14">
-        <v>340250</v>
-      </c>
-      <c r="I80" s="14">
-        <v>-340250</v>
-      </c>
-    </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E81" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14">
-        <v>0</v>
-      </c>
-      <c r="H81" s="14">
-        <v>340250</v>
-      </c>
-      <c r="I81" s="14">
-        <v>-340250</v>
-      </c>
-    </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E82" s="27">
-        <v>45900</v>
-      </c>
-      <c r="F82" s="14">
-        <v>220</v>
-      </c>
-      <c r="G82" s="14">
-        <v>168300</v>
-      </c>
-      <c r="H82" s="14">
-        <v>37000</v>
-      </c>
-      <c r="I82" s="14">
-        <v>131300</v>
-      </c>
-    </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E83" s="49">
-        <v>3229</v>
-      </c>
-      <c r="F83" s="14">
-        <v>220</v>
-      </c>
-      <c r="G83" s="14">
-        <v>168300</v>
-      </c>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14">
-        <v>168300</v>
-      </c>
-    </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E84" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14">
-        <v>0</v>
-      </c>
-      <c r="H84" s="14">
-        <v>37000</v>
-      </c>
-      <c r="I84" s="14">
-        <v>-37000</v>
-      </c>
-    </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E85" s="27">
-        <v>45901</v>
-      </c>
-      <c r="F85" s="14">
-        <v>302</v>
-      </c>
-      <c r="G85" s="14">
-        <v>231030</v>
-      </c>
-      <c r="H85" s="14">
-        <v>34000</v>
-      </c>
-      <c r="I85" s="14">
-        <v>197030</v>
-      </c>
-    </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E86" s="49">
-        <v>7286</v>
-      </c>
-      <c r="F86" s="14">
-        <v>302</v>
-      </c>
-      <c r="G86" s="14">
-        <v>231030</v>
-      </c>
-      <c r="H86" s="14">
-        <v>34000</v>
-      </c>
-      <c r="I86" s="14">
-        <v>197030</v>
-      </c>
-    </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E87" s="27">
-        <v>45902</v>
-      </c>
-      <c r="F87" s="14">
-        <v>297</v>
-      </c>
-      <c r="G87" s="14">
-        <v>227205</v>
-      </c>
-      <c r="H87" s="14">
-        <v>422500</v>
-      </c>
-      <c r="I87" s="14">
-        <v>-195295</v>
-      </c>
-    </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E88" s="49">
-        <v>1961</v>
-      </c>
-      <c r="F88" s="14">
-        <v>297</v>
-      </c>
-      <c r="G88" s="14">
-        <v>227205</v>
-      </c>
-      <c r="H88" s="14">
-        <v>422500</v>
-      </c>
-      <c r="I88" s="14">
-        <v>-195295</v>
-      </c>
-    </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E89" s="27">
-        <v>45840</v>
-      </c>
-      <c r="F89" s="14">
-        <v>231</v>
-      </c>
-      <c r="G89" s="14">
-        <v>176715</v>
-      </c>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14">
-        <v>176715</v>
-      </c>
-    </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E90" s="49">
-        <v>3220</v>
-      </c>
-      <c r="F90" s="14">
-        <v>231</v>
-      </c>
-      <c r="G90" s="14">
-        <v>176715</v>
-      </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14">
-        <v>176715</v>
-      </c>
-    </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E91" s="27">
-        <v>45810</v>
-      </c>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14">
-        <v>0</v>
-      </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E92" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14">
-        <v>0</v>
-      </c>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E93" s="27">
-        <v>45779</v>
-      </c>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14">
-        <v>0</v>
-      </c>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E94" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14">
-        <v>0</v>
-      </c>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E95" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F95" s="14">
-        <v>5155</v>
-      </c>
-      <c r="G95" s="14">
-        <v>3937750</v>
-      </c>
-      <c r="H95" s="14">
-        <v>3139600</v>
-      </c>
-      <c r="I95" s="14">
-        <v>2023597</v>
+        <v>11000</v>
       </c>
     </row>
   </sheetData>
@@ -23343,10 +23203,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBC7D8-36BA-4EBA-8685-891B9162141F}">
-  <dimension ref="A1:P245"/>
+  <dimension ref="A1:P256"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" zoomScale="163" workbookViewId="0">
-      <selection activeCell="H247" sqref="H247"/>
+    <sheetView topLeftCell="A246" zoomScale="163" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23467,7 +23327,7 @@
       </c>
       <c r="K4" s="54">
         <f>Table14[[#Totals],[Debit]]</f>
-        <v>6003140</v>
+        <v>6093720</v>
       </c>
       <c r="M4" s="53" t="s">
         <v>117</v>
@@ -23499,14 +23359,14 @@
       </c>
       <c r="K5" s="54">
         <f>Table14[[#Totals],[Credit]]</f>
-        <v>6093387</v>
+        <v>6123567</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="54">
         <f>(SUMIFS(Table14[Credit],Table14[Mode],"Bank")-SUMIFS(Table14[Debit],Table14[Mode],"Bank")-SUMIFS(Table14[Withdrawal],Table14[Mode],"Transfer"))</f>
-        <v>86020</v>
+        <v>26540</v>
       </c>
       <c r="O5">
         <v>320</v>
@@ -23534,14 +23394,14 @@
       </c>
       <c r="K6" s="61">
         <f>(K5-K4)</f>
-        <v>90247</v>
+        <v>29847</v>
       </c>
       <c r="M6" s="53" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="54">
         <f>((SUMIFS(Table14[Credit],Table14[Mode],"Cash")-SUMIFS(Table14[Debit],Table14[Mode],"Cash"))+SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer"))</f>
-        <v>4227</v>
+        <v>3307</v>
       </c>
       <c r="O6">
         <v>1520</v>
@@ -23569,7 +23429,7 @@
       </c>
       <c r="N7" s="57">
         <f>SUM(N5:N6)</f>
-        <v>90247</v>
+        <v>29847</v>
       </c>
       <c r="O7" s="100">
         <f>SUM(O5,O6)</f>
@@ -23577,7 +23437,7 @@
       </c>
       <c r="P7" s="14">
         <f>Table18[[#Totals],[amount]]-Table18[[#Totals],[Actual]]</f>
-        <v>88407</v>
+        <v>28007</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -26329,7 +26189,7 @@
         <v>21</v>
       </c>
       <c r="K166" s="14">
-        <v>2448162</v>
+        <v>2478162</v>
       </c>
       <c r="L166" s="14"/>
     </row>
@@ -26447,7 +26307,7 @@
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14">
-        <v>40165</v>
+        <v>55665</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -26472,7 +26332,7 @@
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14">
-        <v>199531</v>
+        <v>235771</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -26495,7 +26355,7 @@
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14">
-        <v>46699</v>
+        <v>50689</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -26545,7 +26405,7 @@
       </c>
       <c r="K175" s="14"/>
       <c r="L175" s="14">
-        <v>90635</v>
+        <v>95485</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -26595,7 +26455,7 @@
       </c>
       <c r="K177" s="14"/>
       <c r="L177" s="14">
-        <v>115000</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -26673,7 +26533,7 @@
         <v>126</v>
       </c>
       <c r="K180" s="14">
-        <v>84204</v>
+        <v>84384</v>
       </c>
       <c r="L180" s="14">
         <v>72750</v>
@@ -26716,9 +26576,11 @@
         <v>118</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="K182" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="K182" s="14">
+        <v>1000000</v>
+      </c>
       <c r="L182" s="14"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -26739,10 +26601,10 @@
         <v>118</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K183" s="14">
-        <v>1000000</v>
+        <v>1679100</v>
       </c>
       <c r="L183" s="14"/>
     </row>
@@ -26761,10 +26623,10 @@
         <v>118</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="K184" s="14">
-        <v>1679100</v>
+        <v>-861719</v>
       </c>
       <c r="L184" s="14"/>
     </row>
@@ -26786,12 +26648,12 @@
         <v>118</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K185" s="14">
-        <v>-861719</v>
-      </c>
-      <c r="L185" s="14"/>
+        <v>144</v>
+      </c>
+      <c r="K185" s="14"/>
+      <c r="L185" s="14">
+        <v>567500</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="97">
@@ -26812,12 +26674,12 @@
         <v>118</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K186" s="14"/>
-      <c r="L186" s="14">
-        <v>567500</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K186" s="14">
+        <v>200000</v>
+      </c>
+      <c r="L186" s="14"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="43">
@@ -26837,12 +26699,12 @@
         <v>118</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K187" s="14">
-        <v>200000</v>
-      </c>
-      <c r="L187" s="14"/>
+        <v>161</v>
+      </c>
+      <c r="K187" s="14"/>
+      <c r="L187" s="14">
+        <v>8218</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="97">
@@ -26862,11 +26724,11 @@
         <v>118</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K188" s="14"/>
       <c r="L188" s="14">
-        <v>8218</v>
+        <v>827438</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -26884,11 +26746,11 @@
         <v>118</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K189" s="14"/>
       <c r="L189" s="14">
-        <v>827438</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -26909,12 +26771,12 @@
         <v>118</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K190" s="14"/>
-      <c r="L190" s="14">
-        <v>100000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K190" s="14">
+        <v>199150</v>
+      </c>
+      <c r="L190" s="14"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="97">
@@ -26934,12 +26796,12 @@
         <v>118</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K191" s="14">
-        <v>199150</v>
-      </c>
-      <c r="L191" s="14"/>
+        <v>195</v>
+      </c>
+      <c r="K191" s="14"/>
+      <c r="L191" s="14">
+        <v>201800</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="97">
@@ -26959,12 +26821,12 @@
         <v>118</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K192" s="14"/>
-      <c r="L192" s="14">
-        <v>201800</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="K192" s="14">
+        <v>200000</v>
+      </c>
+      <c r="L192" s="14"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="97">
@@ -26984,12 +26846,14 @@
         <v>118</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="K193" s="14">
-        <v>200000</v>
-      </c>
-      <c r="L193" s="14"/>
+        <v>6123567</v>
+      </c>
+      <c r="L193" s="14">
+        <v>6093720</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="97">
@@ -27007,15 +26871,6 @@
       </c>
       <c r="F194" s="52" t="s">
         <v>118</v>
-      </c>
-      <c r="J194" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K194" s="14">
-        <v>6093387</v>
-      </c>
-      <c r="L194" s="14">
-        <v>6003140</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -27874,24 +27729,226 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="43"/>
-      <c r="C244" s="47"/>
+      <c r="A244" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B244" t="s">
+        <v>58</v>
+      </c>
+      <c r="C244" s="47">
+        <v>1840</v>
+      </c>
       <c r="D244" s="47"/>
-      <c r="F244" s="52"/>
+      <c r="F244" s="52" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="43"/>
-      <c r="C245" s="14">
+      <c r="A245" s="43">
+        <v>45903</v>
+      </c>
+      <c r="B245" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D245" s="11"/>
+      <c r="E245" t="s">
+        <v>278</v>
+      </c>
+      <c r="F245" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B246" t="s">
+        <v>58</v>
+      </c>
+      <c r="C246" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D246" s="11"/>
+      <c r="E246" t="s">
+        <v>249</v>
+      </c>
+      <c r="F246" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="43">
+        <v>45903</v>
+      </c>
+      <c r="B247" t="s">
+        <v>57</v>
+      </c>
+      <c r="C247" s="11">
+        <v>4850</v>
+      </c>
+      <c r="D247" s="11"/>
+      <c r="E247" t="s">
+        <v>133</v>
+      </c>
+      <c r="F247" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B248" t="s">
+        <v>53</v>
+      </c>
+      <c r="C248" s="11">
+        <v>920</v>
+      </c>
+      <c r="D248" s="11"/>
+      <c r="E248" t="s">
+        <v>151</v>
+      </c>
+      <c r="F248" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="43">
+        <v>45903</v>
+      </c>
+      <c r="B249" t="s">
+        <v>105</v>
+      </c>
+      <c r="C249" s="11">
+        <v>30000</v>
+      </c>
+      <c r="D249" s="11"/>
+      <c r="F249" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B250" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11">
+        <v>30000</v>
+      </c>
+      <c r="F250" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="43">
+        <v>45903</v>
+      </c>
+      <c r="B251" t="s">
+        <v>53</v>
+      </c>
+      <c r="C251" s="11">
+        <v>580</v>
+      </c>
+      <c r="D251" s="11"/>
+      <c r="E251" t="s">
+        <v>279</v>
+      </c>
+      <c r="F251" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B252" t="s">
+        <v>126</v>
+      </c>
+      <c r="C252" s="11"/>
+      <c r="D252" s="11">
+        <v>180</v>
+      </c>
+      <c r="E252" t="s">
+        <v>279</v>
+      </c>
+      <c r="F252" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="43">
+        <v>45903</v>
+      </c>
+      <c r="B253" t="s">
+        <v>138</v>
+      </c>
+      <c r="C253" s="11">
+        <v>3990</v>
+      </c>
+      <c r="D253" s="11"/>
+      <c r="E253" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="F253" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B254" t="s">
+        <v>58</v>
+      </c>
+      <c r="C254" s="11">
+        <v>4400</v>
+      </c>
+      <c r="D254" s="11"/>
+      <c r="E254" t="s">
+        <v>281</v>
+      </c>
+      <c r="F254" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B255" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C255" s="47">
+        <v>4000</v>
+      </c>
+      <c r="D255" s="47"/>
+      <c r="E255" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="F255" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="G255" s="102"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="43"/>
+      <c r="C256" s="14">
         <f>SUBTOTAL(109,Table14[Debit])</f>
-        <v>6003140</v>
-      </c>
-      <c r="D245" s="14">
+        <v>6093720</v>
+      </c>
+      <c r="D256" s="14">
         <f>SUBTOTAL(109,Table14[Credit])</f>
-        <v>6093387</v>
-      </c>
-      <c r="F245" s="62">
+        <v>6123567</v>
+      </c>
+      <c r="F256" s="62">
         <f>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</f>
-        <v>90247</v>
+        <v>29847</v>
       </c>
     </row>
   </sheetData>
@@ -28215,10 +28272,10 @@
       <c r="K10" s="27">
         <v>45888</v>
       </c>
-      <c r="L10" s="101">
+      <c r="L10" s="105">
         <v>60100</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="105">
         <v>-567500</v>
       </c>
     </row>
@@ -28249,10 +28306,10 @@
       <c r="K11" s="27">
         <v>45889</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="105">
         <v>659500</v>
       </c>
-      <c r="M11" s="101">
+      <c r="M11" s="105">
         <v>659500</v>
       </c>
     </row>
@@ -28283,10 +28340,10 @@
       <c r="K12" s="27">
         <v>45892</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12" s="105">
         <v>166500</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="105">
         <v>154500</v>
       </c>
     </row>
@@ -28317,10 +28374,10 @@
       <c r="K13" s="27">
         <v>45885</v>
       </c>
-      <c r="L13" s="101">
+      <c r="L13" s="105">
         <v>114250</v>
       </c>
-      <c r="M13" s="101">
+      <c r="M13" s="105">
         <v>567500</v>
       </c>
     </row>
@@ -28351,10 +28408,10 @@
       <c r="K14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="101">
+      <c r="L14" s="105">
         <v>1000350</v>
       </c>
-      <c r="M14" s="101">
+      <c r="M14" s="105">
         <v>814000</v>
       </c>
     </row>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3813" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518BA6D8-96A7-4BF2-A691-17F453D979D7}"/>
+  <xr:revisionPtr revIDLastSave="4038" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118C395A-03DF-4785-B7AB-100A1295C9F7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="298">
   <si>
     <t>Billing</t>
   </si>
@@ -994,6 +994,51 @@
   <si>
     <t>road//tractor</t>
   </si>
+  <si>
+    <t>petrol</t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>Z 5679</t>
+  </si>
+  <si>
+    <t>TID: 341364</t>
+  </si>
+  <si>
+    <t>Inverter x2</t>
+  </si>
+  <si>
+    <t>winding wire</t>
+  </si>
+  <si>
+    <t>Master Arshad</t>
+  </si>
+  <si>
+    <t>Azam Operator</t>
+  </si>
+  <si>
+    <t>Belt+wire</t>
+  </si>
+  <si>
+    <t>gutkay</t>
+  </si>
+  <si>
+    <t>MIB 9373</t>
+  </si>
+  <si>
+    <t>silai machine</t>
+  </si>
+  <si>
+    <t>Arshad sahab salary</t>
+  </si>
+  <si>
+    <t>Rafaqat</t>
+  </si>
 </sst>
 </file>
 
@@ -1461,7 +1506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1592,28 +1637,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
+  <dxfs count="159">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1694,43 +1730,6 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -1741,6 +1740,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1832,6 +1834,27 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1856,6 +1879,48 @@
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2239,48 +2304,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2670,17 +2693,17 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>177484</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>56879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1087960</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>74809</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>135111</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Party Name">
@@ -2703,7 +2726,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2713,8 +2736,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="12754183"/>
-              <a:ext cx="4557649" cy="1007034"/>
+              <a:off x="0" y="13263052"/>
+              <a:ext cx="4563557" cy="982764"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2748,14 +2771,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>199155</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>94322</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>55948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>969149</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>151557</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>113184</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -2794,7 +2817,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1333932" y="12938682"/>
+              <a:off x="1333932" y="13262121"/>
               <a:ext cx="1877361" cy="1504487"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2916,13 +2939,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>475012</xdr:colOff>
+      <xdr:colOff>498103</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>43181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>321521</xdr:colOff>
+      <xdr:colOff>367703</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
@@ -2994,13 +3017,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>381119</xdr:colOff>
+      <xdr:colOff>415756</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>132975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>653536</xdr:colOff>
+      <xdr:colOff>699718</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -3650,13 +3673,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.04227662037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="254" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035857175928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="282" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table14"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-08-17T00:00:00" maxDate="2025-09-04T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-17T00:00:00" maxDate="2025-09-05T00:00:00"/>
     </cacheField>
     <cacheField name="Party" numFmtId="0">
       <sharedItems containsBlank="1" count="35">
@@ -3689,7 +3712,7 @@
         <s v="Aqib"/>
         <s v="Raaz fabrics"/>
         <s v="Shehzad Kamoki"/>
-        <m u="1"/>
+        <m/>
         <s v="Toll" u="1"/>
         <s v="Salary" u="1"/>
         <s v="Self" u="1"/>
@@ -3707,10 +3730,10 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Mode" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Withdrawal" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20000" maxValue="80000"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="20000" maxValue="110000"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3722,7 +3745,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042276967593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035857754629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -3743,13 +3766,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Tiyaar" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="337289.68544257502"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="371456.65691294812"/>
     </cacheField>
     <cacheField name="Rate" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10" maxValue="10.5"/>
     </cacheField>
     <cacheField name="Total" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3303520.482809071"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3645190.1975128017"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3761,7 +3784,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042277199071" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035857986113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table8"/>
   </cacheSource>
@@ -3825,13 +3848,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042277430555" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="31" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.03585821759" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-04T00:00:00" count="40">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-05T00:00:00" count="41">
         <d v="2025-08-16T00:00:00"/>
         <d v="2025-08-12T00:00:00"/>
         <d v="2025-08-13T00:00:00"/>
@@ -3852,6 +3875,7 @@
         <d v="2025-09-01T00:00:00"/>
         <d v="2025-09-02T00:00:00"/>
         <d v="2025-09-03T00:00:00"/>
+        <d v="2025-09-04T00:00:00"/>
         <d v="2025-08-02T00:00:00" u="1"/>
         <d v="2025-07-02T00:00:00" u="1"/>
         <d v="2025-06-02T00:00:00" u="1"/>
@@ -3875,15 +3899,16 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Party Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
+      <sharedItems containsBlank="1" count="5">
         <s v="Malik Zaheer"/>
         <s v="Aqib"/>
+        <s v="Rafaqat"/>
         <m/>
         <s v="Aqib Freight" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vehicle Number" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="8994" count="34">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="9373" count="36">
         <s v="Closing Balance CF"/>
         <n v="6691"/>
         <n v="1055"/>
@@ -3904,6 +3929,8 @@
         <n v="1961"/>
         <n v="8141"/>
         <n v="3220"/>
+        <n v="5679"/>
+        <n v="9373"/>
         <n v="2980" u="1"/>
         <n v="7221" u="1"/>
         <n v="8901" u="1"/>
@@ -3924,7 +3951,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="29" maxValue="388"/>
     </cacheField>
     <cacheField name="Rate" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="700" maxValue="810"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="590" maxValue="810"/>
     </cacheField>
     <cacheField name="Rent" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12000" maxValue="56120"/>
@@ -3948,13 +3975,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042277893517" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="67" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035858449075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="70" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-03T00:00:00" count="31">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-04T00:00:00" count="32">
         <d v="2025-08-17T00:00:00"/>
         <d v="2025-08-19T00:00:00"/>
         <d v="2025-08-16T00:00:00"/>
@@ -3970,6 +3997,7 @@
         <d v="2025-08-31T00:00:00"/>
         <d v="2025-09-01T00:00:00"/>
         <d v="2025-09-02T00:00:00"/>
+        <d v="2025-09-03T00:00:00"/>
         <d v="2025-07-25T00:00:00" u="1"/>
         <d v="2025-07-26T00:00:00" u="1"/>
         <d v="2025-07-28T00:00:00" u="1"/>
@@ -4010,7 +4038,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bill Number" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="777" count="168">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="780" count="171">
         <s v="July Closing CF"/>
         <n v="716"/>
         <n v="721"/>
@@ -4069,6 +4097,9 @@
         <n v="775"/>
         <n v="776"/>
         <n v="777"/>
+        <n v="778"/>
+        <n v="779"/>
+        <n v="780"/>
         <n v="653" u="1"/>
         <n v="654" u="1"/>
         <n v="655" u="1"/>
@@ -4185,7 +4216,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Shipment Number" numFmtId="164">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1558" maxValue="17000" count="82">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1558" maxValue="17000" count="84">
         <m/>
         <n v="1605"/>
         <n v="1624"/>
@@ -4215,6 +4246,8 @@
         <n v="1659"/>
         <n v="1669"/>
         <n v="1666"/>
+        <n v="1657"/>
+        <n v="1676"/>
         <n v="1595" u="1"/>
         <n v="1593" u="1"/>
         <n v="1599" u="1"/>
@@ -4301,7 +4334,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45904.042278356479" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035859490737" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -4346,7 +4379,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="254">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="282">
   <r>
     <d v="2025-08-17T00:00:00"/>
     <x v="0"/>
@@ -6158,6 +6191,15 @@
   </r>
   <r>
     <d v="2025-08-30T00:00:00"/>
+    <x v="20"/>
+    <m/>
+    <n v="300000"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-08-30T00:00:00"/>
     <x v="3"/>
     <n v="1150"/>
     <m/>
@@ -6631,6 +6673,249 @@
     <m/>
     <s v="road//tractor"/>
     <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="5"/>
+    <n v="5335"/>
+    <m/>
+    <s v="petrol"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="2"/>
+    <n v="202500"/>
+    <m/>
+    <s v="wood"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="5"/>
+    <n v="2400"/>
+    <m/>
+    <s v="workshop"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="5"/>
+    <n v="1000"/>
+    <m/>
+    <s v="petrol//Farman"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="3"/>
+    <m/>
+    <n v="27000"/>
+    <s v="bore"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="4"/>
+    <n v="27000"/>
+    <m/>
+    <s v="bore"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Transfer"/>
+    <n v="110000"/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="2"/>
+    <n v="44750"/>
+    <m/>
+    <s v="Z 5679"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="3"/>
+    <m/>
+    <n v="5000"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="14"/>
+    <n v="5000"/>
+    <m/>
+    <s v="Khalid Sahab"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="7"/>
+    <m/>
+    <n v="500000"/>
+    <s v="TID: 341364"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="4"/>
+    <n v="140000"/>
+    <m/>
+    <s v="Inverter x2"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="4"/>
+    <n v="80000"/>
+    <m/>
+    <s v="winding wire"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="3"/>
+    <m/>
+    <n v="3036"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="4"/>
+    <n v="3036"/>
+    <m/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="14"/>
+    <n v="10000"/>
+    <m/>
+    <s v="Naeem Electric"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="3"/>
+    <m/>
+    <n v="10000"/>
+    <s v="Arshad sahab salary"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="14"/>
+    <n v="10000"/>
+    <m/>
+    <s v="Master Arshad"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="14"/>
+    <n v="5000"/>
+    <m/>
+    <s v="Azam Operator"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="4"/>
+    <n v="4115"/>
+    <m/>
+    <s v="Belt+wire"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="4"/>
+    <n v="1500"/>
+    <m/>
+    <s v="gutkay"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="2"/>
+    <n v="43300"/>
+    <m/>
+    <s v="MIB 9373"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="4"/>
+    <n v="11620"/>
+    <m/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="4"/>
+    <n v="2045"/>
+    <m/>
+    <s v="silai machine"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="3"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="6"/>
+    <n v="1000"/>
+    <m/>
+    <s v="Toll"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="29"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -6640,9 +6925,9 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
   <r>
     <x v="0"/>
-    <n v="337289.68544257502"/>
+    <n v="371456.65691294812"/>
     <n v="10"/>
-    <n v="3303520.482809071"/>
+    <n v="3645190.1975128017"/>
   </r>
   <r>
     <x v="1"/>
@@ -6652,9 +6937,9 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="26169.531821506953"/>
+    <n v="37770.665691294809"/>
     <n v="10"/>
-    <n v="261695.31821506954"/>
+    <n v="377706.65691294812"/>
   </r>
   <r>
     <x v="3"/>
@@ -6906,7 +7191,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="31">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7238,21 +7523,65 @@
     <n v="-30000"/>
   </r>
   <r>
-    <x v="18"/>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="20"/>
+    <n v="271"/>
+    <n v="765"/>
+    <n v="44750"/>
+    <n v="207315"/>
+    <m/>
+    <n v="207315"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="21"/>
+    <n v="266"/>
+    <n v="765"/>
+    <n v="43300"/>
+    <n v="203490"/>
+    <n v="290550"/>
+    <n v="-87060"/>
+  </r>
+  <r>
+    <x v="20"/>
     <x v="2"/>
+    <x v="11"/>
+    <n v="44"/>
+    <n v="590"/>
+    <m/>
+    <n v="25960"/>
+    <n v="0"/>
+    <n v="25960"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="43"/>
+    <n v="590"/>
+    <m/>
+    <n v="25370"/>
+    <n v="0"/>
+    <n v="25370"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="3"/>
     <x v="5"/>
     <m/>
     <m/>
     <m/>
     <n v="0"/>
-    <m/>
+    <n v="0"/>
     <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="70">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -8122,6 +8451,45 @@
     <n v="35.515510121751731"/>
     <n v="7223.8478419897592"/>
     <n v="72238.478419897598"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="58"/>
+    <s v="Chamki"/>
+    <x v="14"/>
+    <n v="167135"/>
+    <n v="17788"/>
+    <n v="35.515510121751731"/>
+    <n v="16265.544989027068"/>
+    <n v="162655.44989027068"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="59"/>
+    <s v="Chamki"/>
+    <x v="29"/>
+    <n v="55567"/>
+    <n v="19577"/>
+    <s v="NF"/>
+    <n v="17901.426481346014"/>
+    <n v="179014.26481346015"/>
+    <m/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="2"/>
+    <x v="60"/>
+    <s v="Chamki"/>
+    <x v="30"/>
+    <n v="30009"/>
+    <n v="12687"/>
+    <s v="NF"/>
+    <n v="11601.133869787858"/>
+    <n v="116011.33869787859"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -8293,7 +8661,7 @@
     <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="159">
+    <format dxfId="158">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8302,7 +8670,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="157">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8311,7 +8679,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="156">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8321,7 +8689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="155">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8345,19 +8713,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I75:K91" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="D89:G151" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="32">
-        <item m="1" x="15"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="33">
         <item m="1" x="16"/>
         <item m="1" x="17"/>
         <item m="1" x="18"/>
         <item m="1" x="19"/>
         <item m="1" x="20"/>
-        <item m="1" x="30"/>
         <item m="1" x="21"/>
+        <item m="1" x="31"/>
         <item m="1" x="22"/>
         <item m="1" x="23"/>
         <item m="1" x="24"/>
@@ -8366,6 +8733,7 @@
         <item m="1" x="27"/>
         <item m="1" x="28"/>
         <item m="1" x="29"/>
+        <item m="1" x="30"/>
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
@@ -8381,151 +8749,7 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="136">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="D75:G134" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="32">
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="30"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
+        <item x="15"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8552,10 +8776,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="169">
-        <item m="1" x="120"/>
-        <item m="1" x="121"/>
-        <item m="1" x="122"/>
+      <items count="172">
         <item m="1" x="123"/>
         <item m="1" x="124"/>
         <item m="1" x="125"/>
@@ -8601,9 +8822,9 @@
         <item m="1" x="165"/>
         <item m="1" x="166"/>
         <item m="1" x="167"/>
-        <item m="1" x="58"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
+        <item m="1" x="168"/>
+        <item m="1" x="169"/>
+        <item m="1" x="170"/>
         <item m="1" x="61"/>
         <item m="1" x="62"/>
         <item m="1" x="63"/>
@@ -8619,17 +8840,17 @@
         <item m="1" x="73"/>
         <item m="1" x="74"/>
         <item m="1" x="75"/>
-        <item m="1" x="104"/>
         <item m="1" x="76"/>
         <item m="1" x="77"/>
         <item m="1" x="78"/>
+        <item m="1" x="107"/>
         <item m="1" x="79"/>
         <item m="1" x="80"/>
         <item m="1" x="81"/>
-        <item m="1" x="93"/>
         <item m="1" x="82"/>
         <item m="1" x="83"/>
         <item m="1" x="84"/>
+        <item m="1" x="96"/>
         <item m="1" x="85"/>
         <item m="1" x="86"/>
         <item m="1" x="87"/>
@@ -8638,9 +8859,9 @@
         <item m="1" x="90"/>
         <item m="1" x="91"/>
         <item m="1" x="92"/>
+        <item m="1" x="93"/>
         <item m="1" x="94"/>
         <item m="1" x="95"/>
-        <item m="1" x="96"/>
         <item m="1" x="97"/>
         <item m="1" x="98"/>
         <item m="1" x="99"/>
@@ -8648,9 +8869,9 @@
         <item m="1" x="101"/>
         <item m="1" x="102"/>
         <item m="1" x="103"/>
+        <item m="1" x="104"/>
         <item m="1" x="105"/>
         <item m="1" x="106"/>
-        <item m="1" x="107"/>
         <item m="1" x="108"/>
         <item m="1" x="109"/>
         <item m="1" x="110"/>
@@ -8663,6 +8884,9 @@
         <item m="1" x="117"/>
         <item m="1" x="118"/>
         <item m="1" x="119"/>
+        <item m="1" x="120"/>
+        <item m="1" x="121"/>
+        <item m="1" x="122"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -8721,56 +8945,57 @@
         <item x="55"/>
         <item x="56"/>
         <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="83">
+      <items count="85">
+        <item m="1" x="37"/>
+        <item m="1" x="67"/>
+        <item m="1" x="68"/>
+        <item m="1" x="76"/>
+        <item m="1" x="66"/>
+        <item m="1" x="65"/>
+        <item m="1" x="69"/>
+        <item m="1" x="80"/>
+        <item m="1" x="72"/>
+        <item m="1" x="73"/>
+        <item m="1" x="70"/>
+        <item m="1" x="71"/>
+        <item m="1" x="81"/>
+        <item m="1" x="74"/>
+        <item m="1" x="75"/>
+        <item m="1" x="78"/>
+        <item m="1" x="79"/>
+        <item m="1" x="77"/>
+        <item m="1" x="32"/>
+        <item m="1" x="83"/>
+        <item m="1" x="31"/>
+        <item m="1" x="82"/>
+        <item m="1" x="34"/>
+        <item m="1" x="33"/>
         <item m="1" x="35"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="74"/>
+        <item m="1" x="41"/>
+        <item m="1" x="36"/>
+        <item m="1" x="38"/>
+        <item m="1" x="42"/>
+        <item m="1" x="43"/>
+        <item m="1" x="62"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item x="28"/>
         <item m="1" x="64"/>
         <item m="1" x="63"/>
-        <item m="1" x="67"/>
-        <item m="1" x="78"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="79"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="75"/>
-        <item m="1" x="30"/>
-        <item m="1" x="81"/>
-        <item m="1" x="29"/>
-        <item m="1" x="80"/>
-        <item m="1" x="32"/>
-        <item m="1" x="31"/>
-        <item m="1" x="33"/>
-        <item m="1" x="39"/>
-        <item m="1" x="34"/>
-        <item m="1" x="36"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="60"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item x="28"/>
-        <item m="1" x="62"/>
-        <item m="1" x="61"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
         <item m="1" x="44"/>
         <item m="1" x="45"/>
         <item m="1" x="46"/>
-        <item x="2"/>
         <item m="1" x="47"/>
         <item m="1" x="48"/>
+        <item x="2"/>
         <item m="1" x="49"/>
         <item m="1" x="50"/>
         <item m="1" x="51"/>
@@ -8782,6 +9007,8 @@
         <item m="1" x="57"/>
         <item m="1" x="58"/>
         <item m="1" x="59"/>
+        <item m="1" x="60"/>
+        <item m="1" x="61"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -8809,6 +9036,8 @@
         <item x="25"/>
         <item x="26"/>
         <item x="27"/>
+        <item x="29"/>
+        <item x="30"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8825,7 +9054,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="59">
+  <rowItems count="62">
     <i>
       <x v="110"/>
     </i>
@@ -9000,6 +9229,15 @@
     <i>
       <x v="167"/>
     </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9040,12 +9278,21 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
-  <location ref="E42:I55" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I89:K106" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="41">
+      <items count="33">
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="31"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
         <item m="1" x="24"/>
         <item m="1" x="25"/>
         <item m="1" x="26"/>
@@ -9053,18 +9300,158 @@
         <item m="1" x="28"/>
         <item m="1" x="29"/>
         <item m="1" x="30"/>
-        <item m="1" x="39"/>
-        <item m="1" x="20"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="135">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
+  <location ref="E42:I55" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="42">
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
         <item m="1" x="31"/>
+        <item m="1" x="40"/>
+        <item m="1" x="21"/>
         <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
         <item m="1" x="35"/>
         <item m="1" x="36"/>
         <item m="1" x="37"/>
+        <item m="1" x="38"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="38"/>
+        <item m="1" x="39"/>
         <item x="3"/>
         <item x="0"/>
         <item x="4"/>
@@ -9082,44 +9469,46 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item m="1" x="21"/>
         <item m="1" x="22"/>
         <item m="1" x="23"/>
+        <item m="1" x="24"/>
         <item x="19"/>
+        <item x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="5">
+      <items count="6">
         <item x="1"/>
         <item x="0"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
         <item x="2"/>
-        <item m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="35">
+      <items count="37">
+        <item m="1" x="26"/>
+        <item x="15"/>
+        <item m="1" x="22"/>
+        <item x="4"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="23"/>
         <item m="1" x="24"/>
-        <item x="15"/>
-        <item m="1" x="20"/>
-        <item x="4"/>
         <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
         <item x="5"/>
         <item x="7"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
         <item m="1" x="29"/>
         <item m="1" x="30"/>
         <item m="1" x="31"/>
         <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="33"/>
+        <item m="1" x="35"/>
         <item x="3"/>
         <item x="0"/>
         <item x="6"/>
@@ -9134,6 +9523,8 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9216,7 +9607,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="122">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9225,7 +9616,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9249,7 +9640,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J163:L193" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="J163:L194" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -9274,7 +9665,7 @@
         <item x="22"/>
         <item x="3"/>
         <item x="8"/>
-        <item m="1" x="29"/>
+        <item x="29"/>
         <item x="7"/>
         <item m="1" x="33"/>
         <item x="20"/>
@@ -9301,7 +9692,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="30">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
@@ -9357,6 +9748,9 @@
       <x v="19"/>
     </i>
     <i>
+      <x v="20"/>
+    </i>
+    <i>
       <x v="21"/>
     </i>
     <i>
@@ -9409,7 +9803,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="110">
+    <format dxfId="109">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9592,7 +9986,7 @@
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
-  <location ref="A3:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -9620,51 +10014,49 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="83">
+      <items count="85">
+        <item m="1" x="67"/>
+        <item m="1" x="68"/>
+        <item m="1" x="66"/>
         <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="64"/>
-        <item m="1" x="63"/>
-        <item m="1" x="67"/>
         <item m="1" x="69"/>
-        <item m="1" x="68"/>
+        <item m="1" x="71"/>
         <item m="1" x="70"/>
-        <item m="1" x="71"/>
         <item m="1" x="72"/>
         <item m="1" x="73"/>
         <item m="1" x="74"/>
         <item m="1" x="75"/>
         <item m="1" x="76"/>
-        <item x="28"/>
-        <item m="1" x="62"/>
         <item m="1" x="77"/>
         <item m="1" x="78"/>
+        <item x="28"/>
+        <item m="1" x="64"/>
         <item m="1" x="79"/>
-        <item m="1" x="30"/>
-        <item m="1" x="29"/>
         <item m="1" x="80"/>
         <item m="1" x="81"/>
-        <item m="1" x="39"/>
+        <item m="1" x="32"/>
         <item m="1" x="31"/>
-        <item m="1" x="32"/>
+        <item m="1" x="82"/>
+        <item m="1" x="83"/>
+        <item m="1" x="41"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
         <item m="1" x="35"/>
         <item m="1" x="36"/>
         <item m="1" x="37"/>
         <item m="1" x="38"/>
+        <item m="1" x="39"/>
         <item m="1" x="40"/>
-        <item m="1" x="60"/>
-        <item m="1" x="41"/>
-        <item m="1" x="61"/>
         <item m="1" x="42"/>
+        <item m="1" x="62"/>
         <item m="1" x="43"/>
+        <item m="1" x="63"/>
         <item m="1" x="44"/>
         <item m="1" x="45"/>
         <item m="1" x="46"/>
-        <item x="2"/>
         <item m="1" x="47"/>
         <item m="1" x="48"/>
+        <item x="2"/>
         <item m="1" x="49"/>
         <item m="1" x="50"/>
         <item m="1" x="51"/>
@@ -9676,6 +10068,8 @@
         <item m="1" x="57"/>
         <item m="1" x="58"/>
         <item m="1" x="59"/>
+        <item m="1" x="60"/>
+        <item m="1" x="61"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -9703,6 +10097,8 @@
         <item x="25"/>
         <item x="26"/>
         <item x="27"/>
+        <item x="29"/>
+        <item x="30"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9719,7 +10115,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="30">
+  <rowItems count="32">
     <i>
       <x v="14"/>
     </i>
@@ -9807,6 +10203,12 @@
     <i>
       <x v="81"/>
     </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9830,26 +10232,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="68">
+    <format dxfId="71">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="69">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9859,13 +10261,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="65">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="64">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -9895,7 +10297,7 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1341418871">
-      <items count="82">
+      <items count="84">
         <i x="21" s="1"/>
         <i x="1" s="1"/>
         <i x="6" s="1"/>
@@ -9915,6 +10317,7 @@
         <i x="25" s="1"/>
         <i x="14" s="1"/>
         <i x="24" s="1"/>
+        <i x="29" s="1"/>
         <i x="23" s="1"/>
         <i x="26" s="1"/>
         <i x="22" s="1"/>
@@ -9922,61 +10325,62 @@
         <i x="20" s="1"/>
         <i x="28" s="1"/>
         <i x="27" s="1"/>
+        <i x="30" s="1"/>
         <i x="17" s="1"/>
         <i x="9" s="1"/>
+        <i x="37" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="68" s="1" nd="1"/>
+        <i x="76" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
+        <i x="73" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="71" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
+        <i x="75" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="32" s="1" nd="1"/>
+        <i x="83" s="1" nd="1"/>
+        <i x="31" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="34" s="1" nd="1"/>
+        <i x="33" s="1" nd="1"/>
         <i x="35" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
+        <i x="41" s="1" nd="1"/>
+        <i x="36" s="1" nd="1"/>
+        <i x="38" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="42" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="43" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="62" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="50" s="1" nd="1"/>
+        <i x="39" s="1" nd="1"/>
+        <i x="47" s="1" nd="1"/>
+        <i x="40" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="55" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="53" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="61" s="1" nd="1"/>
         <i x="64" s="1" nd="1"/>
         <i x="63" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
-        <i x="76" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="75" s="1" nd="1"/>
-        <i x="30" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
-        <i x="29" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
-        <i x="31" s="1" nd="1"/>
-        <i x="33" s="1" nd="1"/>
-        <i x="39" s="1" nd="1"/>
-        <i x="34" s="1" nd="1"/>
-        <i x="36" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="40" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="37" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="38" s="1" nd="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="47" s="1" nd="1"/>
-        <i x="53" s="1" nd="1"/>
-        <i x="50" s="1" nd="1"/>
-        <i x="55" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="62" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -10059,8 +10463,8 @@
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Party" xr10:uid="{8CB7DD44-BF59-47B2-AB64-03EC8FC8FD4A}" cache="Slicer_Party" caption="Party" startItem="15" columnCount="3" rowHeight="180000"/>
-  <slicer name="Date 1" xr10:uid="{8E7BDD3C-DB8C-4BD4-9ACC-14DA5E7A745C}" cache="Slicer_Date1" caption="Date" startItem="13" rowHeight="247650"/>
+  <slicer name="Party" xr10:uid="{8CB7DD44-BF59-47B2-AB64-03EC8FC8FD4A}" cache="Slicer_Party" caption="Party" columnCount="3" rowHeight="180000"/>
+  <slicer name="Date 1" xr10:uid="{8E7BDD3C-DB8C-4BD4-9ACC-14DA5E7A745C}" cache="Slicer_Date1" caption="Date" startItem="15" rowHeight="247650"/>
 </slicers>
 </file>
 
@@ -10080,14 +10484,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}" name="Table4" displayName="Table4" ref="B3:E15" totalsRowShown="0">
   <autoFilter ref="B3:E15" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="155">
+    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="154">
       <calculatedColumnFormula>B26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="154">
+    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="153">
       <calculatedColumnFormula>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC1535DD-3FE7-4F55-8040-E7643388A78E}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="153">
+    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="152">
       <calculatedColumnFormula>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10096,15 +10500,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G256" totalsRowCount="1">
-  <autoFilter ref="A1:G255" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G284" totalsRowCount="1">
+  <autoFilter ref="A1:G283" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="109" totalsRowDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="56" totalsRowDxfId="52"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="108" totalsRowDxfId="52" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="107" totalsRowDxfId="51" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="51" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="50" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="50">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="49">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -10114,25 +10518,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="105" tableBorderDxfId="104" totalsRowBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="100" headerRowBorderDxfId="99" tableBorderDxfId="98" totalsRowBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101" totalsRowBorderDxfId="100">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="96" totalsRowDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="99" totalsRowDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="92">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="95">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10144,10 +10548,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="91" totalsRowDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="94" totalsRowDxfId="93"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10156,17 +10560,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="87" headerRowBorderDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="90" headerRowBorderDxfId="89">
   <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="88"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="84">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="87">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -10176,22 +10580,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="83" headerRowBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="86" headerRowBorderDxfId="85">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="82"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="78">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="81">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="77">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="80">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10221,7 +10625,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10232,8 +10636,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -10248,7 +10652,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="73" totalsRowDxfId="72"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -10259,12 +10663,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
   <autoFilter ref="B7:D20" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="150"/>
-    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="149" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="148" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="148" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="147" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10274,7 +10678,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="62" totalsRowDxfId="61"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -10290,7 +10694,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="60" totalsRowDxfId="59"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -10305,10 +10709,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="55">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="58">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="54">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="57">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10321,7 +10725,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -10343,11 +10747,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="143" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="142" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="142" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="141" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10357,8 +10761,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="140"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="140"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="139"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10368,12 +10772,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="139" totalsRowDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="138" totalsRowDxfId="137"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="137">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="136">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -10385,23 +10789,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K69" totalsRowCount="1" headerRowDxfId="135" dataDxfId="134" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="A1:K68" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K72" totalsRowCount="1" headerRowDxfId="134" dataDxfId="133" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="A1:K71" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="133" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="132" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="131" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="130" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="129" totalsRowDxfId="32" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="128" totalsRowDxfId="31" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="127" totalsRowDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="126" totalsRowDxfId="29" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="132" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="131" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="130" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="129" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="128" totalsRowDxfId="23" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="127" totalsRowDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="126" totalsRowDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="125" totalsRowDxfId="20" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="28" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="19" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="27" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="18" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -10411,7 +10815,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="26" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="17" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10420,20 +10824,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I33" totalsRowCount="1" headerRowDxfId="120" headerRowBorderDxfId="119" tableBorderDxfId="118">
-  <autoFilter ref="A1:I32" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I37" totalsRowCount="1" headerRowDxfId="119" headerRowBorderDxfId="118" tableBorderDxfId="117">
+  <autoFilter ref="A1:I36" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="117" totalsRowDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="116" totalsRowDxfId="48"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="116" totalsRowDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="115" totalsRowDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="114" totalsRowDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="21" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="115" totalsRowDxfId="47" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="114" totalsRowDxfId="46" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="113" totalsRowDxfId="45" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="44" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="19" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="43" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="42" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10832,23 +11236,23 @@
       </c>
       <c r="C4" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>337289.68544257502</v>
+        <v>371456.65691294812</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>3303520.482809071</v>
+        <v>3645190.1975128017</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="5">
-        <v>26169.531821506953</v>
+        <v>37770.665691294809</v>
       </c>
       <c r="K4" s="18">
-        <v>261695.31821506954</v>
+        <v>377706.65691294812</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="24" t="s">
@@ -10905,10 +11309,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="5">
-        <v>337289.68544257502</v>
+        <v>371456.65691294812</v>
       </c>
       <c r="K5" s="18">
-        <v>3303520.482809071</v>
+        <v>3645190.1975128017</v>
       </c>
       <c r="O5" s="25" t="str" cm="1">
         <f t="array" ref="O5:O14">_xlfn.UNIQUE(Table1[Party Name])</f>
@@ -10916,15 +11320,15 @@
       </c>
       <c r="P5" s="23" cm="1">
         <f t="array" ref="P5">_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C44,0)</f>
-        <v>821903</v>
+        <v>859268</v>
       </c>
       <c r="Q5" s="23" cm="1">
         <f t="array" ref="Q5">_xlfn.BYROW(B26, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D44,0)</f>
-        <v>751557.24213606445</v>
+        <v>785724.21360643755</v>
       </c>
       <c r="R5" s="23" cm="1">
         <f t="array" ref="R5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E44,0)</f>
-        <v>751557.24213606445</v>
+        <v>785724.21360643755</v>
       </c>
       <c r="S5" s="78" cm="1">
         <f t="array" ref="S5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F44,0)</f>
@@ -10932,7 +11336,7 @@
       </c>
       <c r="T5" s="23" cm="1">
         <f t="array" ref="T5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)+_xlfn.IFNA(G44,0)</f>
-        <v>7515572.4213606445</v>
+        <v>7857242.1360643748</v>
       </c>
       <c r="U5" s="23" cm="1">
         <f t="array" ref="U5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H44,0)</f>
@@ -10940,7 +11344,7 @@
       </c>
       <c r="V5" s="44">
         <f>T5+U5</f>
-        <v>7515572.4213606445</v>
+        <v>7857242.1360643748</v>
       </c>
       <c r="W5" s="23">
         <f>(SUMIF(Table14[Party],O5,Table14[Credit]))+_xlfn.IFNA(J44,0)</f>
@@ -10948,7 +11352,7 @@
       </c>
       <c r="X5" s="98">
         <f>V5-W5</f>
-        <v>1208572.4213606445</v>
+        <v>1550242.1360643748</v>
       </c>
       <c r="Y5" s="22">
         <v>10</v>
@@ -10964,14 +11368,14 @@
       </c>
       <c r="C6" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B6, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>26169.531821506953</v>
+        <v>37770.665691294809</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B6, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B6, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>261695.31821506954</v>
+        <v>377706.65691294812</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>22</v>
@@ -11058,15 +11462,15 @@
       </c>
       <c r="P7" s="23" cm="1">
         <f t="array" ref="P7">_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C46,0)</f>
-        <v>112299</v>
+        <v>124986</v>
       </c>
       <c r="Q7" s="23" cm="1">
         <f t="array" ref="Q7">_xlfn.BYROW(B28, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D46,0)</f>
-        <v>102687.45427944405</v>
+        <v>114288.5881492319</v>
       </c>
       <c r="R7" s="23" cm="1">
         <f t="array" ref="R7">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E46,0)</f>
-        <v>102687.45427944405</v>
+        <v>114288.5881492319</v>
       </c>
       <c r="S7" s="78" cm="1">
         <f t="array" ref="S7">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F46,0)</f>
@@ -11074,7 +11478,7 @@
       </c>
       <c r="T7" s="23" cm="1">
         <f t="array" ref="T7">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L28)+_xlfn.IFNA(G46,0)</f>
-        <v>1026874.5427944404</v>
+        <v>1142885.8814923191</v>
       </c>
       <c r="U7" s="23" cm="1">
         <f t="array" ref="U7">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H46,0)</f>
@@ -11082,7 +11486,7 @@
       </c>
       <c r="V7" s="44">
         <f t="shared" si="1"/>
-        <v>1026874.5427944404</v>
+        <v>1142885.8814923191</v>
       </c>
       <c r="W7" s="23">
         <f>(SUMIF(Table14[Party],O7,Table14[Credit]))+_xlfn.IFNA(J46,0)</f>
@@ -11090,7 +11494,7 @@
       </c>
       <c r="X7" s="98">
         <f>V7-W7</f>
-        <v>472664.54279444041</v>
+        <v>588675.88149231905</v>
       </c>
       <c r="Y7" s="22">
         <v>10</v>
@@ -11228,11 +11632,11 @@
       </c>
       <c r="W9" s="23">
         <f>(SUMIF(Table14[Party],O9,Table14[Credit]))+_xlfn.IFNA(J48,0)</f>
-        <v>1979100</v>
+        <v>2279100</v>
       </c>
       <c r="X9" s="98">
         <f t="shared" si="2"/>
-        <v>1189282.4067300665</v>
+        <v>889282.40673006652</v>
       </c>
       <c r="Y9" s="22">
         <v>9</v>
@@ -11299,11 +11703,11 @@
       </c>
       <c r="W10" s="23">
         <f>(SUMIF(Table14[Party],O10,Table14[Credit]))+_xlfn.IFNA(J49,0)</f>
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
       <c r="X10" s="98">
         <f t="shared" si="2"/>
-        <v>1210570.5925384052</v>
+        <v>710570.59253840521</v>
       </c>
       <c r="Y10" s="22">
         <v>10</v>
@@ -11609,10 +12013,10 @@
         <v>28</v>
       </c>
       <c r="J15" s="14">
-        <v>716944.95245062187</v>
+        <v>762713.05779078288</v>
       </c>
       <c r="K15" s="14">
-        <v>7110094.1843452808</v>
+        <v>7567775.2377468906</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" cm="1">
@@ -11664,7 +12068,7 @@
       </c>
       <c r="C16" s="46">
         <f>SUM(G26:G38)+SUM(H26:H38)</f>
-        <v>7222091.2582296999</v>
+        <v>7679772.3116313098</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -11765,7 +12169,7 @@
       </c>
       <c r="C18" s="42">
         <f ca="1">SUM(OFFSET(I26,0,0,COUNTA(I:I)-ROW(I26)+1))</f>
-        <v>7222091.2582297008</v>
+        <v>7679772.3116313098</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -11911,15 +12315,15 @@
       </c>
       <c r="C26" s="23" cm="1">
         <f t="array" ref="C26:C35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
-        <v>368860</v>
+        <v>406225</v>
       </c>
       <c r="D26" s="23" cm="1">
         <f t="array" ref="D26:D35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
-        <v>337289.68544257502</v>
+        <v>371456.65691294812</v>
       </c>
       <c r="E26" s="71" cm="1">
         <f t="array" ref="E26:E35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
-        <v>337289.68544257502</v>
+        <v>371456.65691294812</v>
       </c>
       <c r="F26" s="78" cm="1">
         <f t="array" ref="F26:F35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
@@ -11927,7 +12331,7 @@
       </c>
       <c r="G26" s="23" cm="1">
         <f t="array" ref="G26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)</f>
-        <v>3372896.8544257502</v>
+        <v>3714566.569129481</v>
       </c>
       <c r="H26" s="23" cm="1">
         <f t="array" ref="H26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M26)</f>
@@ -11935,7 +12339,7 @@
       </c>
       <c r="I26" s="44">
         <f t="shared" ref="I26:I34" si="7">G26+H26</f>
-        <v>3372896.8544257502</v>
+        <v>3714566.569129481</v>
       </c>
       <c r="J26" s="23">
         <f>(SUMIF(Table14[Party],B26,Table14[Credit]))</f>
@@ -11943,7 +12347,7 @@
       </c>
       <c r="K26" s="42">
         <f>I26-J26</f>
-        <v>894734.85442575021</v>
+        <v>1236404.569129481</v>
       </c>
       <c r="L26" s="22">
         <v>10</v>
@@ -12000,20 +12404,20 @@
         <v>Arshad</v>
       </c>
       <c r="C28" s="23">
-        <v>28619</v>
+        <v>41306</v>
       </c>
       <c r="D28" s="23">
-        <v>26169.531821506953</v>
+        <v>37770.665691294809</v>
       </c>
       <c r="E28" s="71">
-        <v>26169.531821506953</v>
+        <v>37770.665691294809</v>
       </c>
       <c r="F28" s="78">
         <v>0</v>
       </c>
       <c r="G28" s="23" cm="1">
         <f t="array" ref="G28">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L28)</f>
-        <v>261695.31821506954</v>
+        <v>377706.65691294812</v>
       </c>
       <c r="H28" s="23" cm="1">
         <f t="array" ref="H28">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M28)</f>
@@ -12021,7 +12425,7 @@
       </c>
       <c r="I28" s="44">
         <f t="shared" si="7"/>
-        <v>261695.31821506954</v>
+        <v>377706.65691294812</v>
       </c>
       <c r="J28" s="23">
         <f>(SUMIF(Table14[Party],B28,Table14[Credit]))</f>
@@ -12029,7 +12433,7 @@
       </c>
       <c r="K28" s="42">
         <f>I28-J28</f>
-        <v>-192514.68178493046</v>
+        <v>-76503.343087051879</v>
       </c>
       <c r="L28" s="22">
         <v>10</v>
@@ -12111,11 +12515,11 @@
       </c>
       <c r="J30" s="23">
         <f>(SUMIF(Table14[Party],B30,Table14[Credit]))</f>
-        <v>1679100</v>
+        <v>1979100</v>
       </c>
       <c r="K30" s="42">
         <f t="shared" si="8"/>
-        <v>173715.47183613759</v>
+        <v>-126284.52816386241</v>
       </c>
       <c r="L30" s="22">
         <v>9</v>
@@ -12154,11 +12558,11 @@
       </c>
       <c r="J31" s="23">
         <f>(SUMIF(Table14[Party],B31,Table14[Credit]))</f>
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="K31" s="42">
         <f t="shared" si="8"/>
-        <v>-53639.356254571932</v>
+        <v>-553639.35625457193</v>
       </c>
       <c r="L31" s="22">
         <v>10</v>
@@ -12982,11 +13386,11 @@
       <c r="J5" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105">
-        <v>0</v>
-      </c>
-      <c r="M5" s="105">
+      <c r="K5" s="106"/>
+      <c r="L5" s="106">
+        <v>0</v>
+      </c>
+      <c r="M5" s="106">
         <v>0</v>
       </c>
     </row>
@@ -13016,11 +13420,11 @@
       <c r="J6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105">
+      <c r="K6" s="106"/>
+      <c r="L6" s="106">
         <v>60000</v>
       </c>
-      <c r="M6" s="105">
+      <c r="M6" s="106">
         <v>35000</v>
       </c>
     </row>
@@ -13042,13 +13446,13 @@
       <c r="J7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="105">
+      <c r="K7" s="106">
         <v>123050</v>
       </c>
-      <c r="L7" s="105">
+      <c r="L7" s="106">
         <v>123050</v>
       </c>
-      <c r="M7" s="105">
+      <c r="M7" s="106">
         <v>0</v>
       </c>
     </row>
@@ -13079,13 +13483,13 @@
       <c r="J8" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="105">
+      <c r="K8" s="106">
         <v>355350</v>
       </c>
-      <c r="L8" s="105">
+      <c r="L8" s="106">
         <v>355350</v>
       </c>
-      <c r="M8" s="105">
+      <c r="M8" s="106">
         <v>0</v>
       </c>
     </row>
@@ -13113,13 +13517,13 @@
       <c r="J9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="105">
+      <c r="K9" s="106">
         <v>478400</v>
       </c>
-      <c r="L9" s="105">
+      <c r="L9" s="106">
         <v>538400</v>
       </c>
-      <c r="M9" s="105">
+      <c r="M9" s="106">
         <v>35000</v>
       </c>
     </row>
@@ -14003,15 +14407,15 @@
       </c>
       <c r="B2" s="38">
         <f>SUM(B4:INDEX(B:B, MATCH(1E+100, B:B)-1))</f>
-        <v>862568</v>
+        <v>948144</v>
       </c>
       <c r="C2" s="37">
         <f>GETPIVOTDATA("Sum of Tiyaar/gaz",$A$3)</f>
-        <v>788305</v>
+        <v>838357</v>
       </c>
       <c r="D2" s="36">
         <f>((B2*48)+((C2/1.0936)*10))/C2</f>
-        <v>61.665995488445027</v>
+        <v>63.429948848665028</v>
       </c>
       <c r="J2">
         <v>48</v>
@@ -14595,11 +14999,11 @@
         <v>167135</v>
       </c>
       <c r="C19" s="14">
-        <v>117864</v>
+        <v>135652</v>
       </c>
       <c r="D19" s="33">
         <f t="shared" si="1"/>
-        <v>77.20967828667024</v>
+        <v>68.284263936177666</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="2"/>
@@ -14607,19 +15011,19 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>117864</v>
+        <v>135652</v>
       </c>
       <c r="G19" s="86">
         <f t="shared" ref="G19:G38" si="6">100- (F19/E19 *100)</f>
-        <v>35.515510121751731</v>
+        <v>25.783529992498686</v>
       </c>
       <c r="H19" s="33">
         <f t="shared" si="3"/>
-        <v>107776.15215801026</v>
+        <v>124041.69714703732</v>
       </c>
       <c r="I19" s="33">
         <f t="shared" si="5"/>
-        <v>77.20967828667024</v>
+        <v>68.284263936177666</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -15078,90 +15482,108 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="35">
-        <v>167135</v>
-      </c>
-      <c r="C33" s="35">
-        <v>788305</v>
+      <c r="A33" s="16">
+        <v>1657</v>
+      </c>
+      <c r="B33" s="14">
+        <v>55567</v>
+      </c>
+      <c r="C33" s="14">
+        <v>19577</v>
       </c>
       <c r="D33" s="33">
         <f t="shared" ref="D33:D37" si="7">I33</f>
-        <v>19.320984356966729</v>
+        <v>145.3864363698963</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" ref="E33:E37" si="8">B33 * 1.0936</f>
-        <v>182778.83599999998</v>
+        <v>60768.071199999991</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" ref="F33:F37" si="9">C33</f>
-        <v>788305</v>
+        <v>19577</v>
       </c>
       <c r="G33" s="86">
         <f t="shared" ref="G33:G37" si="10">100- (F33/E33 *100)</f>
-        <v>-331.2889923426365</v>
+        <v>67.784068815401199</v>
       </c>
       <c r="H33" s="33">
         <f t="shared" ref="H33:H37" si="11">F33/1.0936</f>
-        <v>720834.8573518655</v>
+        <v>17901.426481346014</v>
       </c>
       <c r="I33" s="33">
         <f t="shared" ref="I33:I37" si="12">((B33*48)+(H33*10))/C33</f>
-        <v>19.320984356966729</v>
+        <v>145.3864363698963</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D34" s="33" t="e">
+      <c r="A34" s="16">
+        <v>1676</v>
+      </c>
+      <c r="B34" s="14">
+        <v>30009</v>
+      </c>
+      <c r="C34" s="14">
+        <v>12687</v>
+      </c>
+      <c r="D34" s="33">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>122.6801717267974</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>32817.842399999994</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="86" t="e">
+        <v>12687</v>
+      </c>
+      <c r="G34" s="86">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>61.341151421947224</v>
       </c>
       <c r="H34" s="33">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="33" t="e">
+        <v>11601.133869787858</v>
+      </c>
+      <c r="I34" s="33">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>122.6801717267974</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D35" s="33" t="e">
+      <c r="A35" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="35">
+        <v>167135</v>
+      </c>
+      <c r="C35" s="35">
+        <v>838357</v>
+      </c>
+      <c r="D35" s="33">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>18.713399693591469</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>182778.83599999998</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="86" t="e">
+        <v>838357</v>
+      </c>
+      <c r="G35" s="86">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>-358.67290674725609</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="33" t="e">
+        <v>766602.9626920264</v>
+      </c>
+      <c r="I35" s="33">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>18.713399693591469</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -15874,7 +16296,7 @@
       </c>
       <c r="J21">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</f>
-        <v>0</v>
+        <v>269316</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -16133,7 +16555,7 @@
       <c r="H35" s="1"/>
       <c r="J35">
         <f>SUM(Table15[Amount])</f>
-        <v>315771</v>
+        <v>585087</v>
       </c>
     </row>
   </sheetData>
@@ -16213,7 +16635,7 @@
       </c>
       <c r="B6" s="14">
         <f>Billing!W9</f>
-        <v>1979100</v>
+        <v>2279100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -16223,7 +16645,7 @@
       </c>
       <c r="B7" s="14">
         <f>Billing!W10</f>
-        <v>1300000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -16514,7 +16936,7 @@
       </c>
       <c r="C4" s="11">
         <f>Wood!N14</f>
-        <v>3937750</v>
+        <v>4399885</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -16541,7 +16963,7 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(Table14[Debit], Table14[Party],Table12[[#This Row],[Type]])</f>
-        <v>55665</v>
+        <v>56665</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16577,7 +16999,7 @@
       </c>
       <c r="C11" s="11">
         <f>Table13[[#Totals],[Debit]]</f>
-        <v>95485</v>
+        <v>104220</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16586,7 +17008,7 @@
       </c>
       <c r="C12" s="11">
         <f>Table15[[#Totals],[Amount]]</f>
-        <v>315771</v>
+        <v>585087</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -16595,7 +17017,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <f>SUM(Table12[Amount])</f>
-        <v>6275910</v>
+        <v>7017096</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -16697,7 +17119,7 @@
       </c>
       <c r="C3" s="11">
         <f ca="1">Billing!C18 + SUMIFS(Table14[Credit], Table14[Party], "Transport")</f>
-        <v>7222091.2582297008</v>
+        <v>7679772.3116313098</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -16709,7 +17131,7 @@
       </c>
       <c r="C4" s="11">
         <f>Table12[[#Totals],[Amount]]</f>
-        <v>6275910</v>
+        <v>7017096</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -16719,7 +17141,7 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C3-C4</f>
-        <v>946181.25822970085</v>
+        <v>662676.3116313098</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16736,7 +17158,7 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">C3</f>
-        <v>7222091.2582297008</v>
+        <v>7679772.3116313098</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -16745,7 +17167,7 @@
       </c>
       <c r="C12" s="67">
         <f>SUM(Table14[Credit])</f>
-        <v>6123567</v>
+        <v>6968603</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16754,7 +17176,7 @@
       </c>
       <c r="C13" s="81">
         <f ca="1">(C11-C12)</f>
-        <v>1098524.2582297008</v>
+        <v>711169.3116313098</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16767,7 +17189,7 @@
       </c>
       <c r="C15" s="65">
         <f>C4</f>
-        <v>6275910</v>
+        <v>7017096</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -16776,7 +17198,7 @@
       </c>
       <c r="C16" s="67">
         <f>SUM(Table14[Debit])</f>
-        <v>6093720</v>
+        <v>6693521</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16785,7 +17207,7 @@
       </c>
       <c r="C17" s="81">
         <f>C15-C16</f>
-        <v>182190</v>
+        <v>323575</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16798,7 +17220,7 @@
       </c>
       <c r="C19" s="84">
         <f>Table18[[#Totals],[amount]]</f>
-        <v>29847</v>
+        <v>275082</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16811,14 +17233,14 @@
       </c>
       <c r="C21" s="69">
         <f ca="1">(C13-C17)+C19</f>
-        <v>946181.25822970085</v>
+        <v>662676.3116313098</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>78</v>
       </c>
       <c r="F21" s="88">
         <f ca="1">C5*0.05</f>
-        <v>47309.062911485045</v>
+        <v>33133.81558156549</v>
       </c>
     </row>
   </sheetData>
@@ -17103,7 +17525,7 @@
       </c>
       <c r="D21">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
-        <v>0</v>
+        <v>8735</v>
       </c>
       <c r="E21">
         <f>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
@@ -17283,7 +17705,7 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUBTOTAL(109,Table13[Debit])</f>
-        <v>95485</v>
+        <v>104220</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(109,Table13[Credit])</f>
@@ -17291,7 +17713,7 @@
       </c>
       <c r="F35">
         <f>Table13[[#Totals],[Debit]]-Table13[[#Totals],[Credit]]</f>
-        <v>95485</v>
+        <v>104220</v>
       </c>
     </row>
   </sheetData>
@@ -17307,10 +17729,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB134"/>
+  <dimension ref="A1:AB151"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="139" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="139" workbookViewId="0">
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17325,7 +17747,7 @@
     <col min="8" max="8" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="10" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
@@ -18962,7 +19384,7 @@
       </c>
       <c r="H34" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>35.515510121751731</v>
+        <v>25.783529992498686</v>
       </c>
       <c r="I34" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19118,7 +19540,7 @@
       </c>
       <c r="H37" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>35.515510121751731</v>
+        <v>25.783529992498686</v>
       </c>
       <c r="I37" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19378,7 +19800,7 @@
       </c>
       <c r="H42" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>35.515510121751731</v>
+        <v>25.783529992498686</v>
       </c>
       <c r="I42" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19430,7 +19852,7 @@
       </c>
       <c r="H43" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>35.515510121751731</v>
+        <v>25.783529992498686</v>
       </c>
       <c r="I43" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19838,7 +20260,7 @@
       </c>
       <c r="H51" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>35.515510121751731</v>
+        <v>25.783529992498686</v>
       </c>
       <c r="I51" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20046,7 +20468,7 @@
       </c>
       <c r="H55" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>35.515510121751731</v>
+        <v>25.783529992498686</v>
       </c>
       <c r="I55" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20689,7 +21111,7 @@
       </c>
       <c r="H68" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>35.515510121751731</v>
+        <v>25.783529992498686</v>
       </c>
       <c r="I68" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20714,26 +21136,46 @@
       <c r="S68"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="50" cm="1">
-        <f t="array" aca="1" ref="I69" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>716944.95245062187</v>
-      </c>
-      <c r="J69" s="50" cm="1">
-        <f t="array" aca="1" ref="J69" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>7222091.2582297018</v>
-      </c>
-      <c r="K69" s="104">
-        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
-        <v>7222091.2582297018</v>
-      </c>
+      <c r="A69" s="28">
+        <v>45903</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="29">
+        <v>778</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="11">
+        <v>1655</v>
+      </c>
+      <c r="F69" s="11">
+        <v>167135</v>
+      </c>
+      <c r="G69" s="11">
+        <v>17788</v>
+      </c>
+      <c r="H69" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>25.783529992498686</v>
+      </c>
+      <c r="I69" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>16265.544989027068</v>
+      </c>
+      <c r="J69" s="32" cm="1">
+        <f t="array" ref="J69">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>162655.44989027068</v>
+      </c>
+      <c r="K69" s="29"/>
       <c r="L69"/>
       <c r="M69"/>
       <c r="P69"/>
@@ -20742,517 +21184,272 @@
       <c r="S69"/>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L70"/>
-      <c r="M70"/>
+      <c r="A70" s="28">
+        <v>45903</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="29">
+        <v>779</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="11">
+        <v>1657</v>
+      </c>
+      <c r="F70" s="11">
+        <v>55567</v>
+      </c>
+      <c r="G70" s="11">
+        <v>19577</v>
+      </c>
+      <c r="H70" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>67.784068815401199</v>
+      </c>
+      <c r="I70" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>17901.426481346014</v>
+      </c>
+      <c r="J70" s="32" cm="1">
+        <f t="array" ref="J70">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>179014.26481346015</v>
+      </c>
+      <c r="K70" s="29"/>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
       <c r="S70"/>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D71" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>94</v>
-      </c>
-      <c r="L71"/>
-      <c r="M71"/>
+      <c r="A71" s="28">
+        <v>45903</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="29">
+        <v>780</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="11">
+        <v>1676</v>
+      </c>
+      <c r="F71" s="11">
+        <v>30009</v>
+      </c>
+      <c r="G71" s="11">
+        <v>12687</v>
+      </c>
+      <c r="H71" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>61.341151421947224</v>
+      </c>
+      <c r="I71" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>11601.133869787858</v>
+      </c>
+      <c r="J71" s="32" cm="1">
+        <f t="array" ref="J71">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>116011.33869787859</v>
+      </c>
+      <c r="K71" s="29"/>
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
       <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D72" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" t="s">
-        <v>94</v>
-      </c>
-      <c r="L72"/>
-      <c r="M72"/>
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50" cm="1">
+        <f t="array" aca="1" ref="I72" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>762713.05779078288</v>
+      </c>
+      <c r="J72" s="50" cm="1">
+        <f t="array" aca="1" ref="J72" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>7679772.3116313117</v>
+      </c>
+      <c r="K72" s="33">
+        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
+        <v>7679772.3116313117</v>
+      </c>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
       <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D73" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E73" t="s">
-        <v>94</v>
-      </c>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" t="s">
-        <v>95</v>
-      </c>
-      <c r="F75" t="s">
-        <v>96</v>
-      </c>
-      <c r="G75" t="s">
-        <v>97</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J75" t="s">
-        <v>96</v>
-      </c>
-      <c r="K75" t="s">
-        <v>97</v>
-      </c>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D76" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" s="105"/>
-      <c r="F76" s="33">
-        <v>972869.42209217278</v>
-      </c>
-      <c r="G76" s="105">
-        <v>9691041.9714703746</v>
-      </c>
-      <c r="I76" s="27">
-        <v>45885</v>
-      </c>
-      <c r="J76" s="50">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="K76" s="14">
-        <v>20501.097293343086</v>
-      </c>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D77" s="16">
-        <v>716</v>
-      </c>
-      <c r="E77" s="105">
-        <v>43689</v>
-      </c>
-      <c r="F77" s="33">
-        <v>39949.70738844185</v>
-      </c>
-      <c r="G77" s="105">
-        <v>399497.07388441847</v>
-      </c>
-      <c r="I77" s="27">
-        <v>45886</v>
-      </c>
-      <c r="J77" s="50">
-        <v>972869.42209217278</v>
-      </c>
-      <c r="K77" s="14">
-        <v>9691041.9714703746</v>
-      </c>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D78" s="16">
-        <v>722</v>
-      </c>
-      <c r="E78" s="105">
-        <v>25952</v>
-      </c>
-      <c r="F78" s="33">
-        <v>23730.797366495979</v>
-      </c>
-      <c r="G78" s="105">
-        <v>237307.97366495978</v>
-      </c>
-      <c r="I78" s="27">
-        <v>45888</v>
-      </c>
-      <c r="J78" s="50">
-        <v>71674.286759327006</v>
-      </c>
-      <c r="K78" s="14">
-        <v>716742.86759327003</v>
-      </c>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D79" s="16">
-        <v>723</v>
-      </c>
-      <c r="E79" s="105">
-        <v>8742</v>
-      </c>
-      <c r="F79" s="33">
-        <v>7993.7820043891743</v>
-      </c>
-      <c r="G79" s="105">
-        <v>79937.820043891741</v>
-      </c>
-      <c r="I79" s="27">
-        <v>45890</v>
-      </c>
-      <c r="J79" s="50">
-        <v>50132.589612289696</v>
-      </c>
-      <c r="K79" s="14">
-        <v>501325.89612289687</v>
-      </c>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D80" s="16">
-        <v>724</v>
-      </c>
-      <c r="E80" s="105">
-        <v>48705</v>
-      </c>
-      <c r="F80" s="33">
-        <v>44536.393562545723</v>
-      </c>
-      <c r="G80" s="105">
-        <v>445363.9356254572</v>
-      </c>
-      <c r="I80" s="27">
-        <v>45891</v>
-      </c>
-      <c r="J80" s="50">
-        <v>37560.351133869786</v>
-      </c>
-      <c r="K80" s="14">
-        <v>375603.51133869792</v>
-      </c>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
     </row>
     <row r="81" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D81" s="16">
-        <v>725</v>
-      </c>
-      <c r="E81" s="105">
-        <v>4140</v>
-      </c>
-      <c r="F81" s="33">
-        <v>3785.6620336503297</v>
-      </c>
-      <c r="G81" s="105">
-        <v>37856.6203365033</v>
-      </c>
-      <c r="I81" s="27">
-        <v>45892</v>
-      </c>
-      <c r="J81" s="50">
-        <v>76884.601316752029</v>
-      </c>
-      <c r="K81" s="14">
-        <v>764915.87417703005</v>
-      </c>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
     </row>
     <row r="82" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D82" s="16">
-        <v>726</v>
-      </c>
-      <c r="E82" s="105">
-        <v>1980</v>
-      </c>
-      <c r="F82" s="33">
-        <v>1810.534016093636</v>
-      </c>
-      <c r="G82" s="105">
-        <v>18105.340160936361</v>
-      </c>
-      <c r="I82" s="27">
-        <v>45894</v>
-      </c>
-      <c r="J82" s="50">
-        <v>81706.291148500371</v>
-      </c>
-      <c r="K82" s="14">
-        <v>806219.82443306514</v>
-      </c>
-      <c r="L82"/>
-      <c r="M82"/>
-      <c r="N82"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
     </row>
     <row r="83" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D83" s="16">
-        <v>727</v>
-      </c>
-      <c r="E83" s="105">
-        <v>21621</v>
-      </c>
-      <c r="F83" s="33">
-        <v>19770.48280907096</v>
-      </c>
-      <c r="G83" s="105">
-        <v>197704.82809070961</v>
-      </c>
-      <c r="I83" s="27">
-        <v>45895</v>
-      </c>
-      <c r="J83" s="50">
-        <v>17298.829553767377</v>
-      </c>
-      <c r="K83" s="14">
-        <v>155689.46598390638</v>
-      </c>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
     <row r="84" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D84" s="16">
-        <v>728</v>
-      </c>
-      <c r="E84" s="105">
-        <v>6406</v>
-      </c>
-      <c r="F84" s="33">
-        <v>5857.7176298463792</v>
-      </c>
-      <c r="G84" s="105">
-        <v>58577.17629846379</v>
-      </c>
-      <c r="I84" s="27">
-        <v>45896</v>
-      </c>
-      <c r="J84" s="50">
-        <v>59752.194586686186</v>
-      </c>
-      <c r="K84" s="14">
-        <v>555856.80321872712</v>
-      </c>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
       <c r="O84"/>
       <c r="P84"/>
       <c r="Q84"/>
     </row>
     <row r="85" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D85" s="16">
-        <v>729</v>
-      </c>
-      <c r="E85" s="105">
-        <v>7452</v>
-      </c>
-      <c r="F85" s="33">
-        <v>6814.1916605705928</v>
-      </c>
-      <c r="G85" s="105">
-        <v>68141.916605705934</v>
-      </c>
-      <c r="I85" s="27">
-        <v>45897</v>
-      </c>
-      <c r="J85" s="50">
-        <v>41335.040234089247</v>
-      </c>
-      <c r="K85" s="14">
-        <v>413350.40234089253</v>
-      </c>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
+      <c r="D85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>94</v>
+      </c>
       <c r="O85"/>
       <c r="P85"/>
       <c r="Q85"/>
     </row>
     <row r="86" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D86" s="16">
-        <v>731</v>
-      </c>
-      <c r="E86" s="105">
-        <v>5597</v>
-      </c>
-      <c r="F86" s="33">
-        <v>5117.9590343818581</v>
-      </c>
-      <c r="G86" s="105">
-        <v>51179.590343818578</v>
-      </c>
-      <c r="I86" s="27">
-        <v>45898</v>
-      </c>
-      <c r="J86" s="50">
-        <v>40317.300658376014</v>
-      </c>
-      <c r="K86" s="14">
-        <v>393712.50914411119</v>
-      </c>
-      <c r="L86"/>
-      <c r="M86"/>
-      <c r="N86"/>
+      <c r="D86" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E86" t="s">
+        <v>94</v>
+      </c>
       <c r="O86"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
     <row r="87" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D87" s="16">
-        <v>732</v>
-      </c>
-      <c r="E87" s="105">
-        <v>21167</v>
-      </c>
-      <c r="F87" s="33">
-        <v>19355.340160936357</v>
-      </c>
-      <c r="G87" s="105">
-        <v>193553.40160936356</v>
-      </c>
-      <c r="I87" s="27">
-        <v>45899</v>
-      </c>
-      <c r="J87" s="50">
-        <v>53495.793708851503</v>
-      </c>
-      <c r="K87" s="14">
-        <v>624926.84711046098</v>
+      <c r="D87" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" t="s">
+        <v>94</v>
       </c>
       <c r="L87"/>
       <c r="M87"/>
-      <c r="N87"/>
       <c r="O87"/>
       <c r="P87"/>
       <c r="Q87"/>
     </row>
     <row r="88" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D88" s="16">
-        <v>733</v>
-      </c>
-      <c r="E88" s="105">
-        <v>2010</v>
-      </c>
-      <c r="F88" s="33">
-        <v>0</v>
-      </c>
-      <c r="G88" s="105">
-        <v>0</v>
-      </c>
-      <c r="I88" s="27">
-        <v>45900</v>
-      </c>
-      <c r="J88" s="50">
-        <v>112115.94732991954</v>
-      </c>
-      <c r="K88" s="14">
-        <v>1113504.0234089247</v>
-      </c>
       <c r="L88"/>
       <c r="M88"/>
-      <c r="N88"/>
       <c r="O88"/>
       <c r="P88"/>
       <c r="Q88"/>
     </row>
     <row r="89" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D89" s="16">
-        <v>734</v>
-      </c>
-      <c r="E89" s="105">
-        <v>16253</v>
-      </c>
-      <c r="F89" s="33">
-        <v>14861.923920994881</v>
-      </c>
-      <c r="G89" s="105">
-        <v>148619.23920994881</v>
-      </c>
-      <c r="I89" s="27">
-        <v>45901</v>
-      </c>
-      <c r="J89" s="50">
-        <v>33280.907095830291</v>
-      </c>
-      <c r="K89" s="14">
-        <v>332430.50475493784</v>
+      <c r="D89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" t="s">
+        <v>96</v>
+      </c>
+      <c r="G89" t="s">
+        <v>97</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J89" t="s">
+        <v>96</v>
+      </c>
+      <c r="K89" t="s">
+        <v>97</v>
       </c>
       <c r="L89"/>
       <c r="M89"/>
-      <c r="N89"/>
       <c r="O89"/>
       <c r="P89"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D90" s="16">
-        <v>735</v>
-      </c>
-      <c r="E90" s="105">
-        <v>33788</v>
-      </c>
+      <c r="D90" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="106"/>
       <c r="F90" s="33">
-        <v>30896.122896854427</v>
-      </c>
-      <c r="G90" s="105">
-        <v>308961.22896854428</v>
+        <v>972869.42209217278</v>
+      </c>
+      <c r="G90" s="106">
+        <v>9691041.9714703746</v>
       </c>
       <c r="I90" s="27">
-        <v>45902</v>
+        <v>45885</v>
       </c>
       <c r="J90" s="50">
-        <v>39340.709583028533</v>
+        <v>2050.1097293343087</v>
       </c>
       <c r="K90" s="14">
-        <v>447311.63130943681</v>
+        <v>20501.097293343086</v>
       </c>
       <c r="L90"/>
       <c r="M90"/>
@@ -21263,25 +21460,25 @@
     </row>
     <row r="91" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D91" s="16">
-        <v>736</v>
-      </c>
-      <c r="E91" s="105">
-        <v>8575</v>
+        <v>716</v>
+      </c>
+      <c r="E91" s="106">
+        <v>43689</v>
       </c>
       <c r="F91" s="33">
-        <v>7841.0753474762259</v>
-      </c>
-      <c r="G91" s="105">
-        <v>78410.753474762256</v>
-      </c>
-      <c r="I91" s="27" t="s">
-        <v>28</v>
+        <v>39949.70738844185</v>
+      </c>
+      <c r="G91" s="106">
+        <v>399497.07388441847</v>
+      </c>
+      <c r="I91" s="27">
+        <v>45886</v>
       </c>
       <c r="J91" s="50">
-        <v>1689814.3745427944</v>
+        <v>972869.42209217278</v>
       </c>
       <c r="K91" s="14">
-        <v>16913133.229700077</v>
+        <v>9691041.9714703746</v>
       </c>
       <c r="L91"/>
       <c r="M91"/>
@@ -21292,16 +21489,25 @@
     </row>
     <row r="92" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D92" s="16">
-        <v>737</v>
-      </c>
-      <c r="E92" s="105">
-        <v>4298</v>
+        <v>722</v>
+      </c>
+      <c r="E92" s="106">
+        <v>25952</v>
       </c>
       <c r="F92" s="33">
-        <v>3930.1389904901248</v>
-      </c>
-      <c r="G92" s="105">
-        <v>35371.250914411125</v>
+        <v>23730.797366495979</v>
+      </c>
+      <c r="G92" s="106">
+        <v>237307.97366495978</v>
+      </c>
+      <c r="I92" s="27">
+        <v>45888</v>
+      </c>
+      <c r="J92" s="50">
+        <v>71674.286759327006</v>
+      </c>
+      <c r="K92" s="14">
+        <v>716742.86759327003</v>
       </c>
       <c r="L92"/>
       <c r="M92"/>
@@ -21312,16 +21518,25 @@
     </row>
     <row r="93" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D93" s="16">
-        <v>738</v>
-      </c>
-      <c r="E93" s="105">
-        <v>22478</v>
+        <v>723</v>
+      </c>
+      <c r="E93" s="106">
+        <v>8742</v>
       </c>
       <c r="F93" s="33">
-        <v>20554.133138258963</v>
-      </c>
-      <c r="G93" s="105">
-        <v>205541.33138258965</v>
+        <v>7993.7820043891743</v>
+      </c>
+      <c r="G93" s="106">
+        <v>79937.820043891741</v>
+      </c>
+      <c r="I93" s="27">
+        <v>45890</v>
+      </c>
+      <c r="J93" s="50">
+        <v>50132.589612289696</v>
+      </c>
+      <c r="K93" s="14">
+        <v>501325.89612289687</v>
       </c>
       <c r="L93"/>
       <c r="M93"/>
@@ -21332,16 +21547,25 @@
     </row>
     <row r="94" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D94" s="16">
-        <v>739</v>
-      </c>
-      <c r="E94" s="105">
-        <v>8540</v>
+        <v>724</v>
+      </c>
+      <c r="E94" s="106">
+        <v>48705</v>
       </c>
       <c r="F94" s="33">
-        <v>7809.0709583028538</v>
-      </c>
-      <c r="G94" s="105">
-        <v>78090.70958302854</v>
+        <v>44536.393562545723</v>
+      </c>
+      <c r="G94" s="106">
+        <v>445363.9356254572</v>
+      </c>
+      <c r="I94" s="27">
+        <v>45891</v>
+      </c>
+      <c r="J94" s="50">
+        <v>37560.351133869786</v>
+      </c>
+      <c r="K94" s="14">
+        <v>375603.51133869792</v>
       </c>
       <c r="L94"/>
       <c r="M94"/>
@@ -21352,16 +21576,25 @@
     </row>
     <row r="95" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D95" s="16">
-        <v>740</v>
-      </c>
-      <c r="E95" s="105">
-        <v>7214</v>
+        <v>725</v>
+      </c>
+      <c r="E95" s="106">
+        <v>4140</v>
       </c>
       <c r="F95" s="33">
-        <v>6596.5618141916611</v>
-      </c>
-      <c r="G95" s="105">
-        <v>65965.61814191661</v>
+        <v>3785.6620336503297</v>
+      </c>
+      <c r="G95" s="106">
+        <v>37856.6203365033</v>
+      </c>
+      <c r="I95" s="27">
+        <v>45892</v>
+      </c>
+      <c r="J95" s="50">
+        <v>76884.601316752029</v>
+      </c>
+      <c r="K95" s="14">
+        <v>764915.87417703005</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -21372,16 +21605,25 @@
     </row>
     <row r="96" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D96" s="16">
-        <v>741</v>
-      </c>
-      <c r="E96" s="105">
-        <v>6688</v>
+        <v>726</v>
+      </c>
+      <c r="E96" s="106">
+        <v>1980</v>
       </c>
       <c r="F96" s="33">
-        <v>6115.5815654718363</v>
-      </c>
-      <c r="G96" s="105">
-        <v>61155.815654718361</v>
+        <v>1810.534016093636</v>
+      </c>
+      <c r="G96" s="106">
+        <v>18105.340160936361</v>
+      </c>
+      <c r="I96" s="27">
+        <v>45894</v>
+      </c>
+      <c r="J96" s="50">
+        <v>81706.291148500371</v>
+      </c>
+      <c r="K96" s="14">
+        <v>806219.82443306514</v>
       </c>
       <c r="L96"/>
       <c r="M96"/>
@@ -21392,16 +21634,25 @@
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D97" s="16">
-        <v>742</v>
-      </c>
-      <c r="E97" s="105">
-        <v>1914</v>
+        <v>727</v>
+      </c>
+      <c r="E97" s="106">
+        <v>21621</v>
       </c>
       <c r="F97" s="33">
-        <v>1750.1828822238481</v>
-      </c>
-      <c r="G97" s="105">
-        <v>17501.82882223848</v>
+        <v>19770.48280907096</v>
+      </c>
+      <c r="G97" s="106">
+        <v>197704.82809070961</v>
+      </c>
+      <c r="I97" s="27">
+        <v>45895</v>
+      </c>
+      <c r="J97" s="50">
+        <v>17298.829553767377</v>
+      </c>
+      <c r="K97" s="14">
+        <v>155689.46598390638</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -21412,16 +21663,25 @@
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D98" s="16">
-        <v>743</v>
-      </c>
-      <c r="E98" s="105">
-        <v>9214</v>
+        <v>728</v>
+      </c>
+      <c r="E98" s="106">
+        <v>6406</v>
       </c>
       <c r="F98" s="33">
-        <v>8425.3840526700806</v>
-      </c>
-      <c r="G98" s="105">
-        <v>84253.840526700806</v>
+        <v>5857.7176298463792</v>
+      </c>
+      <c r="G98" s="106">
+        <v>58577.17629846379</v>
+      </c>
+      <c r="I98" s="27">
+        <v>45896</v>
+      </c>
+      <c r="J98" s="50">
+        <v>59752.194586686186</v>
+      </c>
+      <c r="K98" s="14">
+        <v>555856.80321872712</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
@@ -21432,16 +21692,25 @@
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D99" s="16">
-        <v>744</v>
-      </c>
-      <c r="E99" s="105">
-        <v>21448</v>
+        <v>729</v>
+      </c>
+      <c r="E99" s="106">
+        <v>7452</v>
       </c>
       <c r="F99" s="33">
-        <v>19612.289685442578</v>
-      </c>
-      <c r="G99" s="105">
-        <v>196122.89685442578</v>
+        <v>6814.1916605705928</v>
+      </c>
+      <c r="G99" s="106">
+        <v>68141.916605705934</v>
+      </c>
+      <c r="I99" s="27">
+        <v>45897</v>
+      </c>
+      <c r="J99" s="50">
+        <v>41335.040234089247</v>
+      </c>
+      <c r="K99" s="14">
+        <v>413350.40234089253</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -21452,16 +21721,25 @@
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D100" s="16">
-        <v>745</v>
-      </c>
-      <c r="E100" s="105">
-        <v>11858</v>
+        <v>731</v>
+      </c>
+      <c r="E100" s="106">
+        <v>5597</v>
       </c>
       <c r="F100" s="33">
-        <v>10843.087051938552</v>
-      </c>
-      <c r="G100" s="105">
-        <v>97587.783467446963</v>
+        <v>5117.9590343818581</v>
+      </c>
+      <c r="G100" s="106">
+        <v>51179.590343818578</v>
+      </c>
+      <c r="I100" s="27">
+        <v>45898</v>
+      </c>
+      <c r="J100" s="50">
+        <v>40317.300658376014</v>
+      </c>
+      <c r="K100" s="14">
+        <v>393712.50914411119</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -21472,16 +21750,25 @@
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D101" s="16">
-        <v>746</v>
-      </c>
-      <c r="E101" s="105">
-        <v>18918</v>
+        <v>732</v>
+      </c>
+      <c r="E101" s="106">
+        <v>21167</v>
       </c>
       <c r="F101" s="33">
-        <v>17298.829553767377</v>
-      </c>
-      <c r="G101" s="105">
-        <v>155689.46598390638</v>
+        <v>19355.340160936357</v>
+      </c>
+      <c r="G101" s="106">
+        <v>193553.40160936356</v>
+      </c>
+      <c r="I101" s="27">
+        <v>45899</v>
+      </c>
+      <c r="J101" s="50">
+        <v>53495.793708851503</v>
+      </c>
+      <c r="K101" s="14">
+        <v>624926.84711046098</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -21492,16 +21779,25 @@
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D102" s="16">
-        <v>747</v>
-      </c>
-      <c r="E102" s="105">
-        <v>19780</v>
+        <v>733</v>
+      </c>
+      <c r="E102" s="106">
+        <v>2010</v>
       </c>
       <c r="F102" s="33">
-        <v>18087.051938551573</v>
-      </c>
-      <c r="G102" s="105">
-        <v>180870.51938551571</v>
+        <v>0</v>
+      </c>
+      <c r="G102" s="106">
+        <v>0</v>
+      </c>
+      <c r="I102" s="27">
+        <v>45900</v>
+      </c>
+      <c r="J102" s="50">
+        <v>112115.94732991954</v>
+      </c>
+      <c r="K102" s="14">
+        <v>1113504.0234089247</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -21512,16 +21808,25 @@
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D103" s="16">
-        <v>748</v>
-      </c>
-      <c r="E103" s="105">
-        <v>4342</v>
+        <v>734</v>
+      </c>
+      <c r="E103" s="106">
+        <v>16253</v>
       </c>
       <c r="F103" s="33">
-        <v>3970.3730797366497</v>
-      </c>
-      <c r="G103" s="105">
-        <v>35733.35771762985</v>
+        <v>14861.923920994881</v>
+      </c>
+      <c r="G103" s="106">
+        <v>148619.23920994881</v>
+      </c>
+      <c r="I103" s="27">
+        <v>45901</v>
+      </c>
+      <c r="J103" s="50">
+        <v>33280.907095830291</v>
+      </c>
+      <c r="K103" s="14">
+        <v>332430.50475493784</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -21532,16 +21837,25 @@
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D104" s="16">
-        <v>749</v>
-      </c>
-      <c r="E104" s="105">
-        <v>28098</v>
+        <v>735</v>
+      </c>
+      <c r="E104" s="106">
+        <v>33788</v>
       </c>
       <c r="F104" s="33">
-        <v>25693.123628383324</v>
-      </c>
-      <c r="G104" s="105">
-        <v>231238.11265544992</v>
+        <v>30896.122896854427</v>
+      </c>
+      <c r="G104" s="106">
+        <v>308961.22896854428</v>
+      </c>
+      <c r="I104" s="27">
+        <v>45902</v>
+      </c>
+      <c r="J104" s="50">
+        <v>39340.709583028533</v>
+      </c>
+      <c r="K104" s="14">
+        <v>447311.63130943681</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -21552,422 +21866,729 @@
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D105" s="16">
-        <v>750</v>
-      </c>
-      <c r="E105" s="105">
-        <v>13125</v>
+        <v>736</v>
+      </c>
+      <c r="E105" s="106">
+        <v>8575</v>
       </c>
       <c r="F105" s="33">
-        <v>12001.645940014632</v>
-      </c>
-      <c r="G105" s="105">
-        <v>108014.81346013169</v>
-      </c>
+        <v>7841.0753474762259</v>
+      </c>
+      <c r="G105" s="106">
+        <v>78410.753474762256</v>
+      </c>
+      <c r="I105" s="27">
+        <v>45903</v>
+      </c>
+      <c r="J105" s="50">
+        <v>45768.105340160946</v>
+      </c>
+      <c r="K105" s="14">
+        <v>457681.05340160942</v>
+      </c>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D106" s="16">
-        <v>721</v>
-      </c>
-      <c r="E106" s="105">
-        <v>2242</v>
+        <v>737</v>
+      </c>
+      <c r="E106" s="106">
+        <v>4298</v>
       </c>
       <c r="F106" s="33">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="G106" s="105">
-        <v>20501.097293343086</v>
-      </c>
+        <v>3930.1389904901248</v>
+      </c>
+      <c r="G106" s="106">
+        <v>35371.250914411125</v>
+      </c>
+      <c r="I106" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" s="50">
+        <v>1735582.4798829553</v>
+      </c>
+      <c r="K106" s="14">
+        <v>17370814.283101685</v>
+      </c>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D107" s="16">
-        <v>751</v>
-      </c>
-      <c r="E107" s="105">
-        <v>33502</v>
+        <v>738</v>
+      </c>
+      <c r="E107" s="106">
+        <v>22478</v>
       </c>
       <c r="F107" s="33">
-        <v>30634.601316752014</v>
-      </c>
-      <c r="G107" s="105">
-        <v>306346.01316752017</v>
-      </c>
+        <v>20554.133138258963</v>
+      </c>
+      <c r="G107" s="106">
+        <v>205541.33138258965</v>
+      </c>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D108" s="16">
-        <v>752</v>
-      </c>
-      <c r="E108" s="105">
-        <v>11702</v>
+        <v>739</v>
+      </c>
+      <c r="E108" s="106">
+        <v>8540</v>
       </c>
       <c r="F108" s="33">
-        <v>10700.438917337236</v>
-      </c>
-      <c r="G108" s="105">
-        <v>107004.38917337236</v>
-      </c>
+        <v>7809.0709583028538</v>
+      </c>
+      <c r="G108" s="106">
+        <v>78090.70958302854</v>
+      </c>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D109" s="16">
-        <v>753</v>
-      </c>
-      <c r="E109" s="105">
-        <v>26158</v>
+        <v>740</v>
+      </c>
+      <c r="E109" s="106">
+        <v>7214</v>
       </c>
       <c r="F109" s="33">
-        <v>23919.166057059258</v>
-      </c>
-      <c r="G109" s="105">
-        <v>239191.66057059256</v>
-      </c>
+        <v>6596.5618141916611</v>
+      </c>
+      <c r="G109" s="106">
+        <v>65965.61814191661</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D110" s="16">
-        <v>754</v>
-      </c>
-      <c r="E110" s="105">
-        <v>10346</v>
+        <v>741</v>
+      </c>
+      <c r="E110" s="106">
+        <v>6688</v>
       </c>
       <c r="F110" s="33">
-        <v>9460.4974396488669</v>
-      </c>
-      <c r="G110" s="105">
-        <v>85144.476956839804</v>
-      </c>
+        <v>6115.5815654718363</v>
+      </c>
+      <c r="G110" s="106">
+        <v>61155.815654718361</v>
+      </c>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D111" s="16">
-        <v>755</v>
-      </c>
-      <c r="E111" s="105">
-        <v>7587</v>
+        <v>742</v>
+      </c>
+      <c r="E111" s="106">
+        <v>1914</v>
       </c>
       <c r="F111" s="33">
-        <v>6937.6371616678862</v>
-      </c>
-      <c r="G111" s="105">
-        <v>69376.371616678865</v>
-      </c>
+        <v>1750.1828822238481</v>
+      </c>
+      <c r="G111" s="106">
+        <v>17501.82882223848</v>
+      </c>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D112" s="16">
+        <v>743</v>
+      </c>
+      <c r="E112" s="106">
+        <v>9214</v>
+      </c>
+      <c r="F112" s="33">
+        <v>8425.3840526700806</v>
+      </c>
+      <c r="G112" s="106">
+        <v>84253.840526700806</v>
+      </c>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D113" s="16">
+        <v>744</v>
+      </c>
+      <c r="E113" s="106">
+        <v>21448</v>
+      </c>
+      <c r="F113" s="33">
+        <v>19612.289685442578</v>
+      </c>
+      <c r="G113" s="106">
+        <v>196122.89685442578</v>
+      </c>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D114" s="16">
+        <v>745</v>
+      </c>
+      <c r="E114" s="106">
+        <v>11858</v>
+      </c>
+      <c r="F114" s="33">
+        <v>10843.087051938552</v>
+      </c>
+      <c r="G114" s="106">
+        <v>97587.783467446963</v>
+      </c>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D115" s="16">
+        <v>746</v>
+      </c>
+      <c r="E115" s="106">
+        <v>18918</v>
+      </c>
+      <c r="F115" s="33">
+        <v>17298.829553767377</v>
+      </c>
+      <c r="G115" s="106">
+        <v>155689.46598390638</v>
+      </c>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D116" s="16">
+        <v>747</v>
+      </c>
+      <c r="E116" s="106">
+        <v>19780</v>
+      </c>
+      <c r="F116" s="33">
+        <v>18087.051938551573</v>
+      </c>
+      <c r="G116" s="106">
+        <v>180870.51938551571</v>
+      </c>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D117" s="16">
+        <v>748</v>
+      </c>
+      <c r="E117" s="106">
+        <v>4342</v>
+      </c>
+      <c r="F117" s="33">
+        <v>3970.3730797366497</v>
+      </c>
+      <c r="G117" s="106">
+        <v>35733.35771762985</v>
+      </c>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D118" s="16">
+        <v>749</v>
+      </c>
+      <c r="E118" s="106">
+        <v>28098</v>
+      </c>
+      <c r="F118" s="33">
+        <v>25693.123628383324</v>
+      </c>
+      <c r="G118" s="106">
+        <v>231238.11265544992</v>
+      </c>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D119" s="16">
+        <v>750</v>
+      </c>
+      <c r="E119" s="106">
+        <v>13125</v>
+      </c>
+      <c r="F119" s="33">
+        <v>12001.645940014632</v>
+      </c>
+      <c r="G119" s="106">
+        <v>108014.81346013169</v>
+      </c>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D120" s="16">
+        <v>721</v>
+      </c>
+      <c r="E120" s="106">
+        <v>2242</v>
+      </c>
+      <c r="F120" s="33">
+        <v>2050.1097293343087</v>
+      </c>
+      <c r="G120" s="106">
+        <v>20501.097293343086</v>
+      </c>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D121" s="16">
+        <v>751</v>
+      </c>
+      <c r="E121" s="106">
+        <v>33502</v>
+      </c>
+      <c r="F121" s="33">
+        <v>30634.601316752014</v>
+      </c>
+      <c r="G121" s="106">
+        <v>306346.01316752017</v>
+      </c>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D122" s="16">
+        <v>752</v>
+      </c>
+      <c r="E122" s="106">
+        <v>11702</v>
+      </c>
+      <c r="F122" s="33">
+        <v>10700.438917337236</v>
+      </c>
+      <c r="G122" s="106">
+        <v>107004.38917337236</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D123" s="16">
+        <v>753</v>
+      </c>
+      <c r="E123" s="106">
+        <v>26158</v>
+      </c>
+      <c r="F123" s="33">
+        <v>23919.166057059258</v>
+      </c>
+      <c r="G123" s="106">
+        <v>239191.66057059256</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D124" s="16">
+        <v>754</v>
+      </c>
+      <c r="E124" s="106">
+        <v>10346</v>
+      </c>
+      <c r="F124" s="33">
+        <v>9460.4974396488669</v>
+      </c>
+      <c r="G124" s="106">
+        <v>85144.476956839804</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D125" s="16">
+        <v>755</v>
+      </c>
+      <c r="E125" s="106">
+        <v>7587</v>
+      </c>
+      <c r="F125" s="33">
+        <v>6937.6371616678862</v>
+      </c>
+      <c r="G125" s="106">
+        <v>69376.371616678865</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D126" s="16">
         <v>756</v>
       </c>
-      <c r="E112" s="105">
+      <c r="E126" s="106">
         <v>2244</v>
       </c>
-      <c r="F112" s="33">
-        <v>0</v>
-      </c>
-      <c r="G112" s="105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D113" s="16">
+      <c r="F126" s="33">
+        <v>0</v>
+      </c>
+      <c r="G126" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D127" s="16">
         <v>757</v>
       </c>
-      <c r="E113" s="105">
+      <c r="E127" s="106">
         <v>14872</v>
       </c>
-      <c r="F113" s="33">
+      <c r="F127" s="33">
         <v>13599.122165325531</v>
       </c>
-      <c r="G113" s="105">
+      <c r="G127" s="106">
         <v>163189.46598390635</v>
       </c>
     </row>
-    <row r="114" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D114" s="16">
+    <row r="128" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D128" s="16">
         <v>758</v>
       </c>
-      <c r="E114" s="105">
+      <c r="E128" s="106">
         <v>11018</v>
       </c>
-      <c r="F114" s="33">
+      <c r="F128" s="33">
         <v>10074.981711777617</v>
       </c>
-      <c r="G114" s="105">
+      <c r="G128" s="106">
         <v>120899.78054133139</v>
-      </c>
-    </row>
-    <row r="115" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D115" s="16">
-        <v>759</v>
-      </c>
-      <c r="E115" s="105">
-        <v>23305</v>
-      </c>
-      <c r="F115" s="33">
-        <v>21310.35113386979</v>
-      </c>
-      <c r="G115" s="105">
-        <v>255724.21360643749</v>
-      </c>
-    </row>
-    <row r="116" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D116" s="16">
-        <v>760</v>
-      </c>
-      <c r="E116" s="105">
-        <v>9308</v>
-      </c>
-      <c r="F116" s="33">
-        <v>8511.3386978785675</v>
-      </c>
-      <c r="G116" s="105">
-        <v>85113.386978785682</v>
-      </c>
-    </row>
-    <row r="117" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D117" s="16">
-        <v>761</v>
-      </c>
-      <c r="E117" s="105">
-        <v>20380</v>
-      </c>
-      <c r="F117" s="33">
-        <v>18635.6986100951</v>
-      </c>
-      <c r="G117" s="105">
-        <v>186356.98610095101</v>
-      </c>
-    </row>
-    <row r="118" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D118" s="16">
-        <v>762</v>
-      </c>
-      <c r="E118" s="105">
-        <v>9796</v>
-      </c>
-      <c r="F118" s="33">
-        <v>8957.5713240673012</v>
-      </c>
-      <c r="G118" s="105">
-        <v>102414.04535479151</v>
-      </c>
-    </row>
-    <row r="119" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D119" s="16">
-        <v>763</v>
-      </c>
-      <c r="E119" s="105">
-        <v>25394</v>
-      </c>
-      <c r="F119" s="33">
-        <v>23220.555961960501</v>
-      </c>
-      <c r="G119" s="105">
-        <v>232205.55961960502</v>
-      </c>
-    </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D120" s="16">
-        <v>764</v>
-      </c>
-      <c r="E120" s="105">
-        <v>10496</v>
-      </c>
-      <c r="F120" s="33">
-        <v>9597.6591075347478</v>
-      </c>
-      <c r="G120" s="105">
-        <v>95976.591075347475</v>
-      </c>
-    </row>
-    <row r="121" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D121" s="16">
-        <v>765</v>
-      </c>
-      <c r="E121" s="105">
-        <v>9552</v>
-      </c>
-      <c r="F121" s="33">
-        <v>8734.4550109729335</v>
-      </c>
-      <c r="G121" s="105">
-        <v>87344.550109729331</v>
-      </c>
-    </row>
-    <row r="122" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D122" s="16">
-        <v>766</v>
-      </c>
-      <c r="E122" s="105">
-        <v>13908</v>
-      </c>
-      <c r="F122" s="33">
-        <v>12717.629846378934</v>
-      </c>
-      <c r="G122" s="105">
-        <v>127176.29846378934</v>
-      </c>
-    </row>
-    <row r="123" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D123" s="16">
-        <v>767</v>
-      </c>
-      <c r="E123" s="105">
-        <v>10672</v>
-      </c>
-      <c r="F123" s="33">
-        <v>9758.5954645208494</v>
-      </c>
-      <c r="G123" s="105">
-        <v>97585.954645208491</v>
-      </c>
-    </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D124" s="16">
-        <v>768</v>
-      </c>
-      <c r="E124" s="105">
-        <v>15800</v>
-      </c>
-      <c r="F124" s="33">
-        <v>14447.695683979518</v>
-      </c>
-      <c r="G124" s="105">
-        <v>130029.26115581566</v>
-      </c>
-    </row>
-    <row r="125" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D125" s="16">
-        <v>769</v>
-      </c>
-      <c r="E125" s="105">
-        <v>6612</v>
-      </c>
-      <c r="F125" s="33">
-        <v>6046.0863204096568</v>
-      </c>
-      <c r="G125" s="105">
-        <v>54414.776883686907</v>
-      </c>
-    </row>
-    <row r="126" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D126" s="16">
-        <v>770</v>
-      </c>
-      <c r="E126" s="105">
-        <v>10650</v>
-      </c>
-      <c r="F126" s="33">
-        <v>9738.4784198975867</v>
-      </c>
-      <c r="G126" s="105">
-        <v>97384.78419897586</v>
-      </c>
-    </row>
-    <row r="127" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D127" s="16">
-        <v>771</v>
-      </c>
-      <c r="E127" s="105">
-        <v>17302</v>
-      </c>
-      <c r="F127" s="33">
-        <v>15821.141185076813</v>
-      </c>
-      <c r="G127" s="105">
-        <v>142390.27066569132</v>
-      </c>
-    </row>
-    <row r="128" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D128" s="16">
-        <v>772</v>
-      </c>
-      <c r="E128" s="105">
-        <v>8444</v>
-      </c>
-      <c r="F128" s="33">
-        <v>7721.2874908558897</v>
-      </c>
-      <c r="G128" s="105">
-        <v>92655.449890270684</v>
       </c>
     </row>
     <row r="129" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D129" s="16">
-        <v>773</v>
-      </c>
-      <c r="E129" s="105">
-        <v>24391</v>
+        <v>759</v>
+      </c>
+      <c r="E129" s="106">
+        <v>23305</v>
       </c>
       <c r="F129" s="33">
-        <v>22303.401609363573</v>
-      </c>
-      <c r="G129" s="105">
-        <v>267640.81931236287</v>
+        <v>21310.35113386979</v>
+      </c>
+      <c r="G129" s="106">
+        <v>255724.21360643749</v>
       </c>
     </row>
     <row r="130" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D130" s="16">
-        <v>774</v>
-      </c>
-      <c r="E130" s="105">
-        <v>5084</v>
+        <v>760</v>
+      </c>
+      <c r="E130" s="106">
+        <v>9308</v>
       </c>
       <c r="F130" s="33">
-        <v>4648.8661302121436</v>
-      </c>
-      <c r="G130" s="105">
-        <v>55786.393562545723</v>
+        <v>8511.3386978785675</v>
+      </c>
+      <c r="G130" s="106">
+        <v>85113.386978785682</v>
       </c>
     </row>
     <row r="131" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D131" s="16">
-        <v>775</v>
-      </c>
-      <c r="E131" s="105">
-        <v>4760</v>
+        <v>761</v>
+      </c>
+      <c r="E131" s="106">
+        <v>20380</v>
       </c>
       <c r="F131" s="33">
-        <v>4352.5969275786401</v>
-      </c>
-      <c r="G131" s="105">
-        <v>43525.969275786403</v>
+        <v>18635.6986100951</v>
+      </c>
+      <c r="G131" s="106">
+        <v>186356.98610095101</v>
       </c>
     </row>
     <row r="132" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D132" s="16">
-        <v>776</v>
-      </c>
-      <c r="E132" s="105">
-        <v>888</v>
+        <v>762</v>
+      </c>
+      <c r="E132" s="106">
+        <v>9796</v>
       </c>
       <c r="F132" s="33">
-        <v>811.99707388441846</v>
-      </c>
-      <c r="G132" s="105">
-        <v>8119.9707388441848</v>
+        <v>8957.5713240673012</v>
+      </c>
+      <c r="G132" s="106">
+        <v>102414.04535479151</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D133" s="16">
+        <v>763</v>
+      </c>
+      <c r="E133" s="106">
+        <v>25394</v>
+      </c>
+      <c r="F133" s="33">
+        <v>23220.555961960501</v>
+      </c>
+      <c r="G133" s="106">
+        <v>232205.55961960502</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D134" s="16">
+        <v>764</v>
+      </c>
+      <c r="E134" s="106">
+        <v>10496</v>
+      </c>
+      <c r="F134" s="33">
+        <v>9597.6591075347478</v>
+      </c>
+      <c r="G134" s="106">
+        <v>95976.591075347475</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D135" s="16">
+        <v>765</v>
+      </c>
+      <c r="E135" s="106">
+        <v>9552</v>
+      </c>
+      <c r="F135" s="33">
+        <v>8734.4550109729335</v>
+      </c>
+      <c r="G135" s="106">
+        <v>87344.550109729331</v>
+      </c>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D136" s="16">
+        <v>766</v>
+      </c>
+      <c r="E136" s="106">
+        <v>13908</v>
+      </c>
+      <c r="F136" s="33">
+        <v>12717.629846378934</v>
+      </c>
+      <c r="G136" s="106">
+        <v>127176.29846378934</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D137" s="16">
+        <v>767</v>
+      </c>
+      <c r="E137" s="106">
+        <v>10672</v>
+      </c>
+      <c r="F137" s="33">
+        <v>9758.5954645208494</v>
+      </c>
+      <c r="G137" s="106">
+        <v>97585.954645208491</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D138" s="16">
+        <v>768</v>
+      </c>
+      <c r="E138" s="106">
+        <v>15800</v>
+      </c>
+      <c r="F138" s="33">
+        <v>14447.695683979518</v>
+      </c>
+      <c r="G138" s="106">
+        <v>130029.26115581566</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D139" s="16">
+        <v>769</v>
+      </c>
+      <c r="E139" s="106">
+        <v>6612</v>
+      </c>
+      <c r="F139" s="33">
+        <v>6046.0863204096568</v>
+      </c>
+      <c r="G139" s="106">
+        <v>54414.776883686907</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D140" s="16">
+        <v>770</v>
+      </c>
+      <c r="E140" s="106">
+        <v>10650</v>
+      </c>
+      <c r="F140" s="33">
+        <v>9738.4784198975867</v>
+      </c>
+      <c r="G140" s="106">
+        <v>97384.78419897586</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D141" s="16">
+        <v>771</v>
+      </c>
+      <c r="E141" s="106">
+        <v>17302</v>
+      </c>
+      <c r="F141" s="33">
+        <v>15821.141185076813</v>
+      </c>
+      <c r="G141" s="106">
+        <v>142390.27066569132</v>
+      </c>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D142" s="16">
+        <v>772</v>
+      </c>
+      <c r="E142" s="106">
+        <v>8444</v>
+      </c>
+      <c r="F142" s="33">
+        <v>7721.2874908558897</v>
+      </c>
+      <c r="G142" s="106">
+        <v>92655.449890270684</v>
+      </c>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D143" s="16">
+        <v>773</v>
+      </c>
+      <c r="E143" s="106">
+        <v>24391</v>
+      </c>
+      <c r="F143" s="33">
+        <v>22303.401609363573</v>
+      </c>
+      <c r="G143" s="106">
+        <v>267640.81931236287</v>
+      </c>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D144" s="16">
+        <v>774</v>
+      </c>
+      <c r="E144" s="106">
+        <v>5084</v>
+      </c>
+      <c r="F144" s="33">
+        <v>4648.8661302121436</v>
+      </c>
+      <c r="G144" s="106">
+        <v>55786.393562545723</v>
+      </c>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D145" s="16">
+        <v>775</v>
+      </c>
+      <c r="E145" s="106">
+        <v>4760</v>
+      </c>
+      <c r="F145" s="33">
+        <v>4352.5969275786401</v>
+      </c>
+      <c r="G145" s="106">
+        <v>43525.969275786403</v>
+      </c>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D146" s="16">
+        <v>776</v>
+      </c>
+      <c r="E146" s="106">
+        <v>888</v>
+      </c>
+      <c r="F146" s="33">
+        <v>811.99707388441846</v>
+      </c>
+      <c r="G146" s="106">
+        <v>8119.9707388441848</v>
+      </c>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D147" s="16">
         <v>777</v>
       </c>
-      <c r="E133" s="105">
+      <c r="E147" s="106">
         <v>7900</v>
       </c>
-      <c r="F133" s="33">
+      <c r="F147" s="33">
         <v>7223.8478419897592</v>
       </c>
-      <c r="G133" s="105">
+      <c r="G147" s="106">
         <v>72238.478419897598</v>
       </c>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D134" s="16" t="s">
+    <row r="148" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D148" s="16">
+        <v>778</v>
+      </c>
+      <c r="E148" s="106">
+        <v>17788</v>
+      </c>
+      <c r="F148" s="33">
+        <v>16265.544989027068</v>
+      </c>
+      <c r="G148" s="106">
+        <v>162655.44989027068</v>
+      </c>
+    </row>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D149" s="16">
+        <v>779</v>
+      </c>
+      <c r="E149" s="106">
+        <v>19577</v>
+      </c>
+      <c r="F149" s="33">
+        <v>17901.426481346014</v>
+      </c>
+      <c r="G149" s="106">
+        <v>179014.26481346015</v>
+      </c>
+    </row>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D150" s="16">
+        <v>780</v>
+      </c>
+      <c r="E150" s="106">
+        <v>12687</v>
+      </c>
+      <c r="F150" s="33">
+        <v>11601.133869787858</v>
+      </c>
+      <c r="G150" s="106">
+        <v>116011.33869787859</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D151" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E134" s="105">
-        <v>788305</v>
-      </c>
-      <c r="F134" s="33">
-        <v>1689814.3745427942</v>
-      </c>
-      <c r="G134" s="105">
-        <v>16913133.229700074</v>
+      <c r="E151" s="106">
+        <v>838357</v>
+      </c>
+      <c r="F151" s="33">
+        <v>1735582.4798829551</v>
+      </c>
+      <c r="G151" s="106">
+        <v>17370814.283101682</v>
       </c>
     </row>
   </sheetData>
@@ -21995,8 +22616,8 @@
   </sheetPr>
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="122" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A21" zoomScale="122" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22430,7 +23051,7 @@
       </c>
       <c r="N14" s="17">
         <f>SUM(Table3[Total])</f>
-        <v>3937750</v>
+        <v>4399885</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -22918,39 +23539,163 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>45902</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+        <v>45904</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32">
+        <v>5679</v>
+      </c>
+      <c r="D32" s="11">
+        <v>271</v>
+      </c>
+      <c r="E32" s="11">
+        <v>765</v>
+      </c>
+      <c r="F32" s="11">
+        <v>44750</v>
+      </c>
       <c r="G32" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>207315</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11">
         <f>(D32*E32)-Table3[[#This Row],[Paid]]</f>
-        <v>0</v>
+        <v>207315</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33">
+        <v>9373</v>
+      </c>
+      <c r="D33" s="11">
+        <v>266</v>
+      </c>
+      <c r="E33" s="11">
+        <v>765</v>
+      </c>
+      <c r="F33" s="11">
+        <v>43300</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" ref="G33:G34" si="10">D33*E33</f>
+        <v>203490</v>
+      </c>
+      <c r="H33" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>290550</v>
+      </c>
+      <c r="I33" s="11">
+        <f>(D33*E33)-Table3[[#This Row],[Paid]]</f>
+        <v>-87060</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B34" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="11">
+        <v>44</v>
+      </c>
+      <c r="E34" s="11">
+        <v>590</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11">
+        <f t="shared" si="10"/>
+        <v>25960</v>
+      </c>
+      <c r="H34" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <f>(D34*E34)-Table3[[#This Row],[Paid]]</f>
+        <v>25960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="11">
+        <v>43</v>
+      </c>
+      <c r="E35" s="11">
+        <v>590</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
+        <f t="shared" ref="G35:G36" si="11">D35*E35</f>
+        <v>25370</v>
+      </c>
+      <c r="H35" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <f>(D35*E35)-Table3[[#This Row],[Paid]]</f>
+        <v>25370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>45904</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <f>(D36*E36)-Table3[[#This Row],[Paid]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14">
         <f>SUBTOTAL(109,Table3[Total])</f>
-        <v>3937750</v>
-      </c>
-      <c r="H33" s="14">
+        <v>4399885</v>
+      </c>
+      <c r="H37" s="14">
         <f>SUBTOTAL(109,Table3[Paid])</f>
-        <v>3169600</v>
-      </c>
-      <c r="I33" s="14">
+        <v>3460150</v>
+      </c>
+      <c r="I37" s="14">
         <f>SUBTOTAL(109,Table3[balance])</f>
-        <v>1993597</v>
+        <v>2165182</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -23203,10 +23948,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBC7D8-36BA-4EBA-8685-891B9162141F}">
-  <dimension ref="A1:P256"/>
+  <dimension ref="A1:P284"/>
   <sheetViews>
-    <sheetView topLeftCell="A246" zoomScale="163" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23220,9 +23965,9 @@
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.109375" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" customWidth="1"/>
@@ -23327,14 +24072,14 @@
       </c>
       <c r="K4" s="54">
         <f>Table14[[#Totals],[Debit]]</f>
-        <v>6093720</v>
+        <v>6693521</v>
       </c>
       <c r="M4" s="53" t="s">
         <v>117</v>
       </c>
       <c r="N4" s="59">
         <f>SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer")</f>
-        <v>225000</v>
+        <v>335000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -23359,14 +24104,14 @@
       </c>
       <c r="K5" s="54">
         <f>Table14[[#Totals],[Credit]]</f>
-        <v>6123567</v>
+        <v>6968603</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="54">
         <f>(SUMIFS(Table14[Credit],Table14[Mode],"Bank")-SUMIFS(Table14[Debit],Table14[Mode],"Bank")-SUMIFS(Table14[Withdrawal],Table14[Mode],"Transfer"))</f>
-        <v>26540</v>
+        <v>267025</v>
       </c>
       <c r="O5">
         <v>320</v>
@@ -23394,14 +24139,14 @@
       </c>
       <c r="K6" s="61">
         <f>(K5-K4)</f>
-        <v>29847</v>
+        <v>275082</v>
       </c>
       <c r="M6" s="53" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="54">
         <f>((SUMIFS(Table14[Credit],Table14[Mode],"Cash")-SUMIFS(Table14[Debit],Table14[Mode],"Cash"))+SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer"))</f>
-        <v>3307</v>
+        <v>8057</v>
       </c>
       <c r="O6">
         <v>1520</v>
@@ -23429,7 +24174,7 @@
       </c>
       <c r="N7" s="57">
         <f>SUM(N5:N6)</f>
-        <v>29847</v>
+        <v>275082</v>
       </c>
       <c r="O7" s="100">
         <f>SUM(O5,O6)</f>
@@ -23437,7 +24182,7 @@
       </c>
       <c r="P7" s="14">
         <f>Table18[[#Totals],[amount]]-Table18[[#Totals],[Actual]]</f>
-        <v>28007</v>
+        <v>273242</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -26143,7 +26888,7 @@
       </c>
       <c r="K164" s="14"/>
       <c r="L164" s="14">
-        <v>136000</v>
+        <v>166000</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -26282,7 +27027,7 @@
       </c>
       <c r="K170" s="14"/>
       <c r="L170" s="14">
-        <v>3024600</v>
+        <v>3315150</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -26307,7 +27052,7 @@
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14">
-        <v>55665</v>
+        <v>56665</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -26332,7 +27077,7 @@
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14">
-        <v>235771</v>
+        <v>505087</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -26405,7 +27150,7 @@
       </c>
       <c r="K175" s="14"/>
       <c r="L175" s="14">
-        <v>95485</v>
+        <v>104220</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -26533,10 +27278,10 @@
         <v>126</v>
       </c>
       <c r="K180" s="14">
-        <v>84384</v>
+        <v>129420</v>
       </c>
       <c r="L180" s="14">
-        <v>72750</v>
+        <v>72950</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -26576,11 +27321,9 @@
         <v>118</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K182" s="14">
-        <v>1000000</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K182" s="14"/>
       <c r="L182" s="14"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -26601,10 +27344,10 @@
         <v>118</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K183" s="14">
-        <v>1679100</v>
+        <v>1500000</v>
       </c>
       <c r="L183" s="14"/>
     </row>
@@ -26623,10 +27366,10 @@
         <v>118</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="K184" s="14">
-        <v>-861719</v>
+        <v>1979100</v>
       </c>
       <c r="L184" s="14"/>
     </row>
@@ -26648,12 +27391,12 @@
         <v>118</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K185" s="14"/>
-      <c r="L185" s="14">
-        <v>567500</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K185" s="14">
+        <v>-861719</v>
+      </c>
+      <c r="L185" s="14"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="97">
@@ -26674,12 +27417,12 @@
         <v>118</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K186" s="14">
-        <v>200000</v>
-      </c>
-      <c r="L186" s="14"/>
+        <v>144</v>
+      </c>
+      <c r="K186" s="14"/>
+      <c r="L186" s="14">
+        <v>567500</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="43">
@@ -26699,12 +27442,12 @@
         <v>118</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="K187" s="14"/>
-      <c r="L187" s="14">
-        <v>8218</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="K187" s="14">
+        <v>200000</v>
+      </c>
+      <c r="L187" s="14"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="97">
@@ -26724,11 +27467,11 @@
         <v>118</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K188" s="14"/>
       <c r="L188" s="14">
-        <v>827438</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -26746,11 +27489,11 @@
         <v>118</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="K189" s="14"/>
       <c r="L189" s="14">
-        <v>100000</v>
+        <v>827438</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -26771,12 +27514,12 @@
         <v>118</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K190" s="14">
-        <v>199150</v>
-      </c>
-      <c r="L190" s="14"/>
+        <v>181</v>
+      </c>
+      <c r="K190" s="14"/>
+      <c r="L190" s="14">
+        <v>100000</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="97">
@@ -26796,12 +27539,12 @@
         <v>118</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="K191" s="14"/>
-      <c r="L191" s="14">
-        <v>201800</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K191" s="14">
+        <v>199150</v>
+      </c>
+      <c r="L191" s="14"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="97">
@@ -26821,12 +27564,12 @@
         <v>118</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="K192" s="14">
-        <v>200000</v>
-      </c>
-      <c r="L192" s="14"/>
+        <v>195</v>
+      </c>
+      <c r="K192" s="14"/>
+      <c r="L192" s="14">
+        <v>201800</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="97">
@@ -26846,14 +27589,12 @@
         <v>118</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="K193" s="14">
-        <v>6123567</v>
-      </c>
-      <c r="L193" s="14">
-        <v>6093720</v>
-      </c>
+        <v>200000</v>
+      </c>
+      <c r="L193" s="14"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="97">
@@ -26871,6 +27612,15 @@
       </c>
       <c r="F194" s="52" t="s">
         <v>118</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K194" s="14">
+        <v>6968603</v>
+      </c>
+      <c r="L194" s="14">
+        <v>6693521</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -27016,34 +27766,31 @@
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="97">
+      <c r="A203" s="102">
         <v>45899</v>
       </c>
       <c r="B203" t="s">
-        <v>126</v>
-      </c>
-      <c r="C203" s="11">
-        <v>1150</v>
-      </c>
-      <c r="D203" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="C203" s="11"/>
+      <c r="D203" s="11">
+        <v>300000</v>
+      </c>
       <c r="F203" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="97">
-        <v>45900</v>
+        <v>45899</v>
       </c>
       <c r="B204" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C204" s="11">
-        <v>5000</v>
+        <v>1150</v>
       </c>
       <c r="D204" s="11"/>
-      <c r="E204" t="s">
-        <v>177</v>
-      </c>
       <c r="F204" s="52" t="s">
         <v>119</v>
       </c>
@@ -27053,17 +27800,17 @@
         <v>45900</v>
       </c>
       <c r="B205" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="C205" s="11">
-        <v>37000</v>
+        <v>5000</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F205" s="52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -27071,14 +27818,14 @@
         <v>45900</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
-      </c>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11">
-        <v>500000</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C206" s="11">
+        <v>37000</v>
+      </c>
+      <c r="D206" s="11"/>
       <c r="E206" t="s">
-        <v>88</v>
+        <v>192</v>
       </c>
       <c r="F206" s="52" t="s">
         <v>118</v>
@@ -27089,11 +27836,14 @@
         <v>45900</v>
       </c>
       <c r="B207" t="s">
-        <v>142</v>
-      </c>
-      <c r="C207" s="47"/>
-      <c r="D207" s="47">
-        <v>3000</v>
+        <v>24</v>
+      </c>
+      <c r="C207" s="11"/>
+      <c r="D207" s="11">
+        <v>500000</v>
+      </c>
+      <c r="E207" t="s">
+        <v>88</v>
       </c>
       <c r="F207" s="52" t="s">
         <v>118</v>
@@ -27104,449 +27854,446 @@
         <v>45900</v>
       </c>
       <c r="B208" t="s">
-        <v>53</v>
-      </c>
-      <c r="C208" s="11">
+        <v>142</v>
+      </c>
+      <c r="C208" s="47"/>
+      <c r="D208" s="47">
         <v>3000</v>
-      </c>
-      <c r="D208" s="11"/>
-      <c r="E208" t="s">
-        <v>255</v>
       </c>
       <c r="F208" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="97">
         <v>45900</v>
       </c>
       <c r="B209" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="C209" s="11">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="D209" s="11"/>
       <c r="E209" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="F209" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="97">
-        <v>45901</v>
+        <v>45900</v>
       </c>
       <c r="B210" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="C210" s="11">
-        <v>34000</v>
+        <v>100000</v>
       </c>
       <c r="D210" s="11"/>
       <c r="E210" t="s">
-        <v>256</v>
+        <v>126</v>
       </c>
       <c r="F210" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="43">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="97">
         <v>45901</v>
       </c>
       <c r="B211" t="s">
-        <v>23</v>
-      </c>
-      <c r="C211" s="47"/>
-      <c r="D211" s="47">
-        <v>250000</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C211" s="11">
+        <v>34000</v>
+      </c>
+      <c r="D211" s="11"/>
       <c r="E211" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="F211" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="97">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="43">
         <v>45901</v>
       </c>
       <c r="B212" t="s">
-        <v>21</v>
-      </c>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11">
-        <v>1000</v>
+        <v>23</v>
+      </c>
+      <c r="C212" s="47"/>
+      <c r="D212" s="47">
+        <v>250000</v>
+      </c>
+      <c r="E212" t="s">
+        <v>88</v>
       </c>
       <c r="F212" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="43">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="97">
         <v>45901</v>
       </c>
       <c r="B213" t="s">
-        <v>57</v>
-      </c>
-      <c r="C213" s="11">
+        <v>21</v>
+      </c>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11">
         <v>1000</v>
-      </c>
-      <c r="D213" s="11"/>
-      <c r="E213" t="s">
-        <v>143</v>
       </c>
       <c r="F213" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="97">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="43">
         <v>45901</v>
       </c>
       <c r="B214" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="C214" s="11">
-        <v>51600</v>
+        <v>1000</v>
       </c>
       <c r="D214" s="11"/>
       <c r="E214" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="F214" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="43">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="97">
         <v>45901</v>
       </c>
       <c r="B215" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="C215" s="11">
-        <v>800</v>
+        <v>51600</v>
       </c>
       <c r="D215" s="11"/>
       <c r="E215" t="s">
-        <v>257</v>
+        <v>170</v>
       </c>
       <c r="F215" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="97">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="43">
         <v>45901</v>
       </c>
       <c r="B216" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="C216" s="11">
-        <v>6115</v>
+        <v>800</v>
       </c>
       <c r="D216" s="11"/>
       <c r="E216" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F216" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="43">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="97">
         <v>45901</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="C217" s="11">
-        <v>3160</v>
+        <v>6115</v>
       </c>
       <c r="D217" s="11"/>
       <c r="E217" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F217" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="97">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="43">
         <v>45901</v>
       </c>
       <c r="B218" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="C218" s="11">
-        <v>10400</v>
+        <v>3160</v>
       </c>
       <c r="D218" s="11"/>
       <c r="E218" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F218" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="43">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="97">
         <v>45901</v>
       </c>
       <c r="B219" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="C219" s="11">
-        <v>6140</v>
+        <v>10400</v>
       </c>
       <c r="D219" s="11"/>
       <c r="E219" t="s">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="F219" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="97">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="43">
         <v>45901</v>
       </c>
       <c r="B220" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C220" s="11">
-        <v>1700</v>
+        <v>6140</v>
       </c>
       <c r="D220" s="11"/>
       <c r="E220" t="s">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="F220" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="97">
+        <v>45901</v>
+      </c>
+      <c r="B221" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221" s="11">
+        <v>1700</v>
+      </c>
+      <c r="D221" s="11"/>
+      <c r="E221" t="s">
+        <v>261</v>
+      </c>
+      <c r="F221" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="97">
         <v>45902</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>126</v>
       </c>
-      <c r="C221" s="11">
+      <c r="C222" s="11">
         <v>3700</v>
       </c>
-      <c r="D221" s="11"/>
-      <c r="F221" s="52" t="s">
+      <c r="D222" s="11"/>
+      <c r="F222" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="43">
-        <v>45902</v>
-      </c>
-      <c r="B222" t="s">
-        <v>103</v>
-      </c>
-      <c r="C222" s="47">
-        <v>40000</v>
-      </c>
-      <c r="D222" s="47"/>
-      <c r="E222" t="s">
-        <v>265</v>
-      </c>
-      <c r="F222" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="97">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="43">
         <v>45902</v>
       </c>
       <c r="B223" t="s">
         <v>103</v>
       </c>
-      <c r="C223" s="11">
-        <v>303000</v>
-      </c>
-      <c r="D223" s="11"/>
+      <c r="C223" s="47">
+        <v>40000</v>
+      </c>
+      <c r="D223" s="47"/>
       <c r="E223" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="F223" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="43">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="97">
         <v>45902</v>
       </c>
       <c r="B224" t="s">
+        <v>103</v>
+      </c>
+      <c r="C224" s="11">
+        <v>303000</v>
+      </c>
+      <c r="D224" s="11"/>
+      <c r="E224" t="s">
+        <v>129</v>
+      </c>
+      <c r="F224" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B225" t="s">
         <v>119</v>
       </c>
-      <c r="C224" s="11"/>
-      <c r="D224" s="11"/>
-      <c r="F224" s="52" t="s">
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
+      <c r="F225" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="G224">
+      <c r="G225">
         <v>80000</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="97">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="97">
         <v>45902</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>103</v>
       </c>
-      <c r="C225" s="11">
+      <c r="C226" s="11">
         <v>31500</v>
-      </c>
-      <c r="D225" s="11"/>
-      <c r="E225" t="s">
-        <v>266</v>
-      </c>
-      <c r="F225" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="43">
-        <v>45902</v>
-      </c>
-      <c r="B226" t="s">
-        <v>53</v>
-      </c>
-      <c r="C226" s="11">
-        <v>230</v>
       </c>
       <c r="D226" s="11"/>
       <c r="E226" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F226" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="97">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="43">
         <v>45902</v>
       </c>
       <c r="B227" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C227" s="11">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="D227" s="11"/>
       <c r="E227" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F227" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="43">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="97">
         <v>45902</v>
       </c>
       <c r="B228" t="s">
         <v>57</v>
       </c>
       <c r="C228" s="11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D228" s="11"/>
       <c r="E228" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="F228" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="97">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="43">
         <v>45902</v>
       </c>
       <c r="B229" t="s">
         <v>57</v>
       </c>
       <c r="C229" s="11">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D229" s="11"/>
       <c r="E229" t="s">
+        <v>131</v>
+      </c>
+      <c r="F229" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="97">
+        <v>45902</v>
+      </c>
+      <c r="B230" t="s">
+        <v>57</v>
+      </c>
+      <c r="C230" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D230" s="11"/>
+      <c r="E230" t="s">
         <v>269</v>
       </c>
-      <c r="F229" s="52" t="s">
+      <c r="F230" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="43">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="43">
         <v>45902</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>58</v>
       </c>
-      <c r="C230" s="11">
+      <c r="C231" s="11">
         <v>1170</v>
       </c>
-      <c r="D230" s="11"/>
-      <c r="F230" s="52" t="s">
+      <c r="D231" s="11"/>
+      <c r="F231" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="97">
-        <v>45902</v>
-      </c>
-      <c r="B231" t="s">
-        <v>103</v>
-      </c>
-      <c r="C231" s="11">
-        <v>41000</v>
-      </c>
-      <c r="D231" s="11"/>
-      <c r="E231" t="s">
-        <v>270</v>
-      </c>
-      <c r="F231" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="43">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="97">
         <v>45902</v>
       </c>
       <c r="B232" t="s">
         <v>103</v>
       </c>
       <c r="C232" s="11">
-        <v>7000</v>
+        <v>41000</v>
       </c>
       <c r="D232" s="11"/>
       <c r="E232" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F232" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="97">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="43">
         <v>45902</v>
       </c>
       <c r="B233" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C233" s="11">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="D233" s="11"/>
       <c r="E233" t="s">
@@ -27556,324 +28303,324 @@
         <v>119</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="43">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="97">
         <v>45902</v>
       </c>
       <c r="B234" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="C234" s="11">
-        <v>8400</v>
+        <v>1000</v>
       </c>
       <c r="D234" s="11"/>
       <c r="E234" t="s">
+        <v>271</v>
+      </c>
+      <c r="F234" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B235" t="s">
+        <v>195</v>
+      </c>
+      <c r="C235" s="11">
+        <v>8400</v>
+      </c>
+      <c r="D235" s="11"/>
+      <c r="E235" t="s">
         <v>272</v>
-      </c>
-      <c r="F234" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="97">
-        <v>45902</v>
-      </c>
-      <c r="B235" t="s">
-        <v>21</v>
-      </c>
-      <c r="C235" s="11"/>
-      <c r="D235" s="11">
-        <v>6900</v>
       </c>
       <c r="F235" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="43">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="97">
         <v>45902</v>
       </c>
       <c r="B236" t="s">
-        <v>58</v>
-      </c>
-      <c r="C236" s="11">
-        <v>15000</v>
-      </c>
-      <c r="D236" s="11"/>
-      <c r="E236" t="s">
-        <v>273</v>
+        <v>21</v>
+      </c>
+      <c r="C236" s="11"/>
+      <c r="D236" s="11">
+        <v>6900</v>
       </c>
       <c r="F236" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="97">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="43">
         <v>45902</v>
       </c>
       <c r="B237" t="s">
         <v>58</v>
       </c>
       <c r="C237" s="11">
-        <v>3300</v>
+        <v>15000</v>
       </c>
       <c r="D237" s="11"/>
       <c r="E237" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F237" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="43">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="97">
         <v>45902</v>
       </c>
       <c r="B238" t="s">
         <v>58</v>
       </c>
       <c r="C238" s="11">
-        <v>1600</v>
+        <v>3300</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F238" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="97">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="43">
         <v>45902</v>
       </c>
       <c r="B239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C239" s="11">
         <v>1600</v>
       </c>
       <c r="D239" s="11"/>
       <c r="E239" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="F239" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="43">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="97">
         <v>45902</v>
       </c>
       <c r="B240" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C240" s="11">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="D240" s="11"/>
+      <c r="E240" t="s">
+        <v>176</v>
+      </c>
       <c r="F240" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="97">
+      <c r="A241" s="43">
         <v>45902</v>
       </c>
       <c r="B241" t="s">
-        <v>119</v>
-      </c>
-      <c r="C241" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C241" s="11">
+        <v>1200</v>
+      </c>
       <c r="D241" s="11"/>
       <c r="F241" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="97">
+        <v>45902</v>
+      </c>
+      <c r="B242" t="s">
+        <v>119</v>
+      </c>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="F242" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="G241">
+      <c r="G242">
         <v>25000</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="43">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="43">
         <v>45902</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>195</v>
       </c>
-      <c r="C242" s="11">
+      <c r="C243" s="11">
         <v>25000</v>
       </c>
-      <c r="D242" s="11"/>
-      <c r="E242" t="s">
+      <c r="D243" s="11"/>
+      <c r="E243" t="s">
         <v>177</v>
       </c>
-      <c r="F242" s="52" t="s">
+      <c r="F243" s="52" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="97">
-        <v>45902</v>
-      </c>
-      <c r="B243" t="s">
-        <v>187</v>
-      </c>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11">
-        <v>1500</v>
-      </c>
-      <c r="E243" t="s">
-        <v>276</v>
-      </c>
-      <c r="F243" s="52" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="97">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="B244" t="s">
-        <v>58</v>
-      </c>
-      <c r="C244" s="47">
-        <v>1840</v>
-      </c>
-      <c r="D244" s="47"/>
+        <v>187</v>
+      </c>
+      <c r="C244" s="11"/>
+      <c r="D244" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E244" t="s">
+        <v>276</v>
+      </c>
       <c r="F244" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="43">
+      <c r="A245" s="97">
         <v>45903</v>
       </c>
       <c r="B245" t="s">
-        <v>53</v>
-      </c>
-      <c r="C245" s="11">
-        <v>10000</v>
-      </c>
-      <c r="D245" s="11"/>
-      <c r="E245" t="s">
-        <v>278</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C245" s="47">
+        <v>1840</v>
+      </c>
+      <c r="D245" s="47"/>
       <c r="F245" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="97">
+      <c r="A246" s="43">
         <v>45903</v>
       </c>
       <c r="B246" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C246" s="11">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="D246" s="11"/>
       <c r="E246" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="F246" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="43">
+      <c r="A247" s="97">
         <v>45903</v>
       </c>
       <c r="B247" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C247" s="11">
-        <v>4850</v>
+        <v>30000</v>
       </c>
       <c r="D247" s="11"/>
       <c r="E247" t="s">
-        <v>133</v>
+        <v>249</v>
       </c>
       <c r="F247" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="97">
+      <c r="A248" s="43">
         <v>45903</v>
       </c>
       <c r="B248" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C248" s="11">
-        <v>920</v>
+        <v>4850</v>
       </c>
       <c r="D248" s="11"/>
       <c r="E248" t="s">
+        <v>133</v>
+      </c>
+      <c r="F248" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B249" t="s">
+        <v>53</v>
+      </c>
+      <c r="C249" s="11">
+        <v>920</v>
+      </c>
+      <c r="D249" s="11"/>
+      <c r="E249" t="s">
         <v>151</v>
       </c>
-      <c r="F248" s="52" t="s">
+      <c r="F249" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="43">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="43">
         <v>45903</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>105</v>
       </c>
-      <c r="C249" s="11">
+      <c r="C250" s="11">
         <v>30000</v>
       </c>
-      <c r="D249" s="11"/>
-      <c r="F249" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="97">
-        <v>45903</v>
-      </c>
-      <c r="B250" t="s">
-        <v>21</v>
-      </c>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11">
-        <v>30000</v>
-      </c>
+      <c r="D250" s="11"/>
       <c r="F250" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="43">
+      <c r="A251" s="97">
         <v>45903</v>
       </c>
       <c r="B251" t="s">
-        <v>53</v>
-      </c>
-      <c r="C251" s="11">
-        <v>580</v>
-      </c>
-      <c r="D251" s="11"/>
-      <c r="E251" t="s">
-        <v>279</v>
+        <v>21</v>
+      </c>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11">
+        <v>30000</v>
       </c>
       <c r="F251" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="97">
+      <c r="A252" s="43">
         <v>45903</v>
       </c>
       <c r="B252" t="s">
-        <v>126</v>
-      </c>
-      <c r="C252" s="11"/>
-      <c r="D252" s="11">
-        <v>180</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C252" s="11">
+        <v>580</v>
+      </c>
+      <c r="D252" s="11"/>
       <c r="E252" t="s">
         <v>279</v>
       </c>
@@ -27882,36 +28629,36 @@
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="43">
+      <c r="A253" s="97">
         <v>45903</v>
       </c>
       <c r="B253" t="s">
-        <v>138</v>
-      </c>
-      <c r="C253" s="11">
-        <v>3990</v>
-      </c>
-      <c r="D253" s="11"/>
-      <c r="E253" s="101" t="s">
-        <v>280</v>
+        <v>126</v>
+      </c>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11">
+        <v>180</v>
+      </c>
+      <c r="E253" t="s">
+        <v>279</v>
       </c>
       <c r="F253" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="97">
+      <c r="A254" s="43">
         <v>45903</v>
       </c>
       <c r="B254" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="C254" s="11">
-        <v>4400</v>
+        <v>3990</v>
       </c>
       <c r="D254" s="11"/>
-      <c r="E254" t="s">
-        <v>281</v>
+      <c r="E254" s="101" t="s">
+        <v>280</v>
       </c>
       <c r="F254" s="52" t="s">
         <v>118</v>
@@ -27921,34 +28668,512 @@
       <c r="A255" s="97">
         <v>45903</v>
       </c>
-      <c r="B255" s="102" t="s">
+      <c r="B255" t="s">
+        <v>58</v>
+      </c>
+      <c r="C255" s="11">
+        <v>4400</v>
+      </c>
+      <c r="D255" s="11"/>
+      <c r="E255" t="s">
+        <v>281</v>
+      </c>
+      <c r="F255" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="97">
+        <v>45903</v>
+      </c>
+      <c r="B256" t="s">
         <v>53</v>
       </c>
-      <c r="C255" s="47">
+      <c r="C256" s="47">
         <v>4000</v>
       </c>
-      <c r="D255" s="47"/>
-      <c r="E255" s="102" t="s">
+      <c r="D256" s="47"/>
+      <c r="E256" t="s">
         <v>282</v>
       </c>
-      <c r="F255" s="103" t="s">
+      <c r="F256" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G255" s="102"/>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="43"/>
-      <c r="C256" s="14">
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B257" t="s">
+        <v>57</v>
+      </c>
+      <c r="C257" s="11">
+        <v>5335</v>
+      </c>
+      <c r="D257" s="11"/>
+      <c r="E257" t="s">
+        <v>283</v>
+      </c>
+      <c r="F257" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B258" t="s">
+        <v>103</v>
+      </c>
+      <c r="C258" s="11">
+        <v>202500</v>
+      </c>
+      <c r="D258" s="11"/>
+      <c r="E258" t="s">
+        <v>129</v>
+      </c>
+      <c r="F258" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B259" t="s">
+        <v>57</v>
+      </c>
+      <c r="C259" s="11">
+        <v>2400</v>
+      </c>
+      <c r="D259" s="11"/>
+      <c r="E259" t="s">
+        <v>284</v>
+      </c>
+      <c r="F259" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B260" t="s">
+        <v>57</v>
+      </c>
+      <c r="C260" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D260" s="11"/>
+      <c r="E260" t="s">
+        <v>131</v>
+      </c>
+      <c r="F260" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B261" t="s">
+        <v>126</v>
+      </c>
+      <c r="C261" s="11"/>
+      <c r="D261" s="11">
+        <v>27000</v>
+      </c>
+      <c r="E261" t="s">
+        <v>285</v>
+      </c>
+      <c r="F261" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B262" t="s">
+        <v>58</v>
+      </c>
+      <c r="C262" s="11">
+        <v>27000</v>
+      </c>
+      <c r="D262" s="11"/>
+      <c r="E262" t="s">
+        <v>285</v>
+      </c>
+      <c r="F262" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B263" t="s">
+        <v>119</v>
+      </c>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="F263" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G263">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B264" t="s">
+        <v>103</v>
+      </c>
+      <c r="C264" s="11">
+        <v>44750</v>
+      </c>
+      <c r="D264" s="11"/>
+      <c r="E264" t="s">
+        <v>286</v>
+      </c>
+      <c r="F264" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B265" t="s">
+        <v>126</v>
+      </c>
+      <c r="C265" s="11"/>
+      <c r="D265" s="11">
+        <v>5000</v>
+      </c>
+      <c r="F265" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B266" t="s">
+        <v>153</v>
+      </c>
+      <c r="C266" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D266" s="11"/>
+      <c r="E266" t="s">
+        <v>180</v>
+      </c>
+      <c r="F266" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B267" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267" s="47"/>
+      <c r="D267" s="47">
+        <v>500000</v>
+      </c>
+      <c r="E267" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="F267" s="105" t="s">
+        <v>118</v>
+      </c>
+      <c r="G267" s="104"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B268" t="s">
+        <v>58</v>
+      </c>
+      <c r="C268" s="11">
+        <v>140000</v>
+      </c>
+      <c r="D268" s="11"/>
+      <c r="E268" t="s">
+        <v>288</v>
+      </c>
+      <c r="F268" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B269" t="s">
+        <v>58</v>
+      </c>
+      <c r="C269" s="11">
+        <v>80000</v>
+      </c>
+      <c r="D269" s="11"/>
+      <c r="E269" t="s">
+        <v>289</v>
+      </c>
+      <c r="F269" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B270" t="s">
+        <v>126</v>
+      </c>
+      <c r="C270" s="11"/>
+      <c r="D270" s="11">
+        <v>3036</v>
+      </c>
+      <c r="F270" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B271" t="s">
+        <v>58</v>
+      </c>
+      <c r="C271" s="11">
+        <v>3036</v>
+      </c>
+      <c r="D271" s="11"/>
+      <c r="F271" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B272" t="s">
+        <v>153</v>
+      </c>
+      <c r="C272" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D272" s="11"/>
+      <c r="E272" t="s">
+        <v>235</v>
+      </c>
+      <c r="F272" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B273" t="s">
+        <v>126</v>
+      </c>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11">
+        <v>10000</v>
+      </c>
+      <c r="E273" t="s">
+        <v>296</v>
+      </c>
+      <c r="F273" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B274" t="s">
+        <v>153</v>
+      </c>
+      <c r="C274" s="11">
+        <v>10000</v>
+      </c>
+      <c r="D274" s="11"/>
+      <c r="E274" t="s">
+        <v>290</v>
+      </c>
+      <c r="F274" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B275" t="s">
+        <v>153</v>
+      </c>
+      <c r="C275" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D275" s="11"/>
+      <c r="E275" t="s">
+        <v>291</v>
+      </c>
+      <c r="F275" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B276" t="s">
+        <v>58</v>
+      </c>
+      <c r="C276" s="11">
+        <v>4115</v>
+      </c>
+      <c r="D276" s="11"/>
+      <c r="E276" t="s">
+        <v>292</v>
+      </c>
+      <c r="F276" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B277" t="s">
+        <v>58</v>
+      </c>
+      <c r="C277" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D277" s="11"/>
+      <c r="E277" t="s">
+        <v>293</v>
+      </c>
+      <c r="F277" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B278" t="s">
+        <v>103</v>
+      </c>
+      <c r="C278" s="11">
+        <v>43300</v>
+      </c>
+      <c r="D278" s="11"/>
+      <c r="E278" t="s">
+        <v>294</v>
+      </c>
+      <c r="F278" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B279" t="s">
+        <v>58</v>
+      </c>
+      <c r="C279" s="11">
+        <v>11620</v>
+      </c>
+      <c r="D279" s="11"/>
+      <c r="F279" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="97">
+        <v>45904</v>
+      </c>
+      <c r="B280" t="s">
+        <v>58</v>
+      </c>
+      <c r="C280" s="11">
+        <v>2045</v>
+      </c>
+      <c r="D280" s="11"/>
+      <c r="E280" t="s">
+        <v>295</v>
+      </c>
+      <c r="F280" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B281" t="s">
+        <v>126</v>
+      </c>
+      <c r="C281" s="11">
+        <v>200</v>
+      </c>
+      <c r="D281" s="11"/>
+      <c r="F281" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A282" s="102">
+        <v>45904</v>
+      </c>
+      <c r="B282" t="s">
+        <v>53</v>
+      </c>
+      <c r="C282" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D282" s="11"/>
+      <c r="E282" t="s">
+        <v>143</v>
+      </c>
+      <c r="F282" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A283" s="103"/>
+      <c r="B283" s="104"/>
+      <c r="C283" s="47"/>
+      <c r="D283" s="47"/>
+      <c r="E283" s="104"/>
+      <c r="F283" s="105"/>
+      <c r="G283" s="104"/>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="43"/>
+      <c r="C284" s="14">
         <f>SUBTOTAL(109,Table14[Debit])</f>
-        <v>6093720</v>
-      </c>
-      <c r="D256" s="14">
+        <v>6693521</v>
+      </c>
+      <c r="D284" s="14">
         <f>SUBTOTAL(109,Table14[Credit])</f>
-        <v>6123567</v>
-      </c>
-      <c r="F256" s="62">
+        <v>6968603</v>
+      </c>
+      <c r="F284" s="62">
         <f>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</f>
-        <v>29847</v>
+        <v>275082</v>
       </c>
     </row>
   </sheetData>
@@ -28272,10 +29497,10 @@
       <c r="K10" s="27">
         <v>45888</v>
       </c>
-      <c r="L10" s="105">
+      <c r="L10" s="106">
         <v>60100</v>
       </c>
-      <c r="M10" s="105">
+      <c r="M10" s="106">
         <v>-567500</v>
       </c>
     </row>
@@ -28306,10 +29531,10 @@
       <c r="K11" s="27">
         <v>45889</v>
       </c>
-      <c r="L11" s="105">
+      <c r="L11" s="106">
         <v>659500</v>
       </c>
-      <c r="M11" s="105">
+      <c r="M11" s="106">
         <v>659500</v>
       </c>
     </row>
@@ -28340,10 +29565,10 @@
       <c r="K12" s="27">
         <v>45892</v>
       </c>
-      <c r="L12" s="105">
+      <c r="L12" s="106">
         <v>166500</v>
       </c>
-      <c r="M12" s="105">
+      <c r="M12" s="106">
         <v>154500</v>
       </c>
     </row>
@@ -28374,10 +29599,10 @@
       <c r="K13" s="27">
         <v>45885</v>
       </c>
-      <c r="L13" s="105">
+      <c r="L13" s="106">
         <v>114250</v>
       </c>
-      <c r="M13" s="105">
+      <c r="M13" s="106">
         <v>567500</v>
       </c>
     </row>
@@ -28408,10 +29633,10 @@
       <c r="K14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="105">
+      <c r="L14" s="106">
         <v>1000350</v>
       </c>
-      <c r="M14" s="105">
+      <c r="M14" s="106">
         <v>814000</v>
       </c>
     </row>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr updateLinks="always"/>
+  <workbookPr updateLinks="always" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4038" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118C395A-03DF-4785-B7AB-100A1295C9F7}"/>
+  <xr:revisionPtr revIDLastSave="4227" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB736B9A-2A94-451F-A01F-4F45EA446CBD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="309">
   <si>
     <t>Billing</t>
   </si>
@@ -974,9 +974,6 @@
     <t>welding rods</t>
   </si>
   <si>
-    <t>waqas//ejaz salary</t>
-  </si>
-  <si>
     <t>12k advance paid. 14500 left</t>
   </si>
   <si>
@@ -1038,6 +1035,42 @@
   </si>
   <si>
     <t>Rafaqat</t>
+  </si>
+  <si>
+    <t>4/9/25s credit clear</t>
+  </si>
+  <si>
+    <t>atta 8 bags</t>
+  </si>
+  <si>
+    <t>scanner</t>
+  </si>
+  <si>
+    <t>TKQ 160</t>
+  </si>
+  <si>
+    <t>RIS 1973</t>
+  </si>
+  <si>
+    <t>folding</t>
+  </si>
+  <si>
+    <t>farman//naeem food</t>
+  </si>
+  <si>
+    <t>1500 paid (Waqas)</t>
+  </si>
+  <si>
+    <t>Sabir Chakki</t>
+  </si>
+  <si>
+    <t>BAHL credit</t>
+  </si>
+  <si>
+    <t>Carbon sizing</t>
+  </si>
+  <si>
+    <t>Bearing//jet depart</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1682,28 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="160">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1725,30 +1779,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1854,6 +1884,19 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
         <patternFill patternType="solid">
@@ -1861,6 +1904,15 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1880,15 +1932,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1991,9 +2034,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2691,16 +2731,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>56879</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>855195</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>117181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1087960</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>135111</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>679771</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>21928</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -2736,8 +2776,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="13263052"/>
-              <a:ext cx="4563557" cy="982764"/>
+              <a:off x="3097339" y="13866073"/>
+              <a:ext cx="4528144" cy="1351999"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2770,15 +2810,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>199155</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>55948</xdr:rowOff>
+      <xdr:colOff>89514</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>121733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>969149</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>113184</xdr:rowOff>
+      <xdr:colOff>859508</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>178968</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -2817,7 +2857,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1333932" y="13262121"/>
+              <a:off x="1224291" y="13870625"/>
               <a:ext cx="1877361" cy="1504487"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3611,7 +3651,6 @@
           </cell>
         </row>
         <row r="52">
-          <cell r="B52"/>
           <cell r="E52">
             <v>0</v>
           </cell>
@@ -3668,21 +3707,17 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035857175928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="282" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138707523147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="299" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table14"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-17T00:00:00" maxDate="2025-09-05T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-17T00:00:00" maxDate="2025-09-06T00:00:00"/>
     </cacheField>
     <cacheField name="Party" numFmtId="0">
-      <sharedItems containsBlank="1" count="35">
+      <sharedItems containsBlank="1" count="36">
         <s v="Closing July CF"/>
         <s v="BSC"/>
         <s v="Malik Zaheer"/>
@@ -3712,6 +3747,7 @@
         <s v="Aqib"/>
         <s v="Raaz fabrics"/>
         <s v="Shehzad Kamoki"/>
+        <s v="Rafaqat"/>
         <m/>
         <s v="Toll" u="1"/>
         <s v="Salary" u="1"/>
@@ -3745,7 +3781,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035857754629" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138707986109" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -3766,13 +3802,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Tiyaar" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="371456.65691294812"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="396608.4491587418"/>
     </cacheField>
     <cacheField name="Rate" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10" maxValue="10.5"/>
     </cacheField>
     <cacheField name="Total" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3645190.1975128017"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3896708.1199707394"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3784,7 +3820,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035857986113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138708217593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table8"/>
   </cacheSource>
@@ -3848,13 +3884,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.03585821759" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138708333332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="37" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-05T00:00:00" count="41">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-06T00:00:00" count="42">
         <d v="2025-08-16T00:00:00"/>
         <d v="2025-08-12T00:00:00"/>
         <d v="2025-08-13T00:00:00"/>
@@ -3876,6 +3912,7 @@
         <d v="2025-09-02T00:00:00"/>
         <d v="2025-09-03T00:00:00"/>
         <d v="2025-09-04T00:00:00"/>
+        <d v="2025-09-05T00:00:00"/>
         <d v="2025-08-02T00:00:00" u="1"/>
         <d v="2025-07-02T00:00:00" u="1"/>
         <d v="2025-06-02T00:00:00" u="1"/>
@@ -3903,12 +3940,12 @@
         <s v="Malik Zaheer"/>
         <s v="Aqib"/>
         <s v="Rafaqat"/>
-        <m/>
+        <m u="1"/>
         <s v="Aqib Freight" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vehicle Number" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="9373" count="36">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="9373" count="38">
         <s v="Closing Balance CF"/>
         <n v="6691"/>
         <n v="1055"/>
@@ -3931,6 +3968,8 @@
         <n v="3220"/>
         <n v="5679"/>
         <n v="9373"/>
+        <n v="160"/>
+        <n v="1973"/>
         <n v="2980" u="1"/>
         <n v="7221" u="1"/>
         <n v="8901" u="1"/>
@@ -3975,13 +4014,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035858449075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="70" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138708564817" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="73" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-04T00:00:00" count="32">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-06T00:00:00" count="33">
         <d v="2025-08-17T00:00:00"/>
         <d v="2025-08-19T00:00:00"/>
         <d v="2025-08-16T00:00:00"/>
@@ -3998,6 +4037,7 @@
         <d v="2025-09-01T00:00:00"/>
         <d v="2025-09-02T00:00:00"/>
         <d v="2025-09-03T00:00:00"/>
+        <d v="2025-09-05T00:00:00"/>
         <d v="2025-07-25T00:00:00" u="1"/>
         <d v="2025-07-26T00:00:00" u="1"/>
         <d v="2025-07-28T00:00:00" u="1"/>
@@ -4038,7 +4078,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bill Number" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="780" count="171">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="784" count="175">
         <s v="July Closing CF"/>
         <n v="716"/>
         <n v="721"/>
@@ -4100,6 +4140,10 @@
         <n v="778"/>
         <n v="779"/>
         <n v="780"/>
+        <n v="781"/>
+        <n v="782"/>
+        <n v="783"/>
+        <n v="784"/>
         <n v="653" u="1"/>
         <n v="654" u="1"/>
         <n v="655" u="1"/>
@@ -4313,7 +4357,7 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-3.2518265571699345" maxValue="85.60596464237544"/>
     </cacheField>
     <cacheField name="tiyar/meters" numFmtId="165">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="414267.55669348943"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="414267.55669348943"/>
     </cacheField>
     <cacheField name="billing" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4142675.5669348943"/>
@@ -4334,7 +4378,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45905.035859490737" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138709259256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -4379,7 +4423,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="282">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="299">
   <r>
     <d v="2025-08-17T00:00:00"/>
     <x v="0"/>
@@ -6353,6 +6397,15 @@
   </r>
   <r>
     <d v="2025-09-01T00:00:00"/>
+    <x v="20"/>
+    <m/>
+    <n v="300000"/>
+    <s v="Cash"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-01T00:00:00"/>
     <x v="6"/>
     <n v="1700"/>
     <m/>
@@ -6559,15 +6612,6 @@
     <m/>
   </r>
   <r>
-    <d v="2025-09-02T00:00:00"/>
-    <x v="22"/>
-    <m/>
-    <n v="1500"/>
-    <s v="waqas//ejaz salary"/>
-    <s v="Bank"/>
-    <m/>
-  </r>
-  <r>
     <d v="2025-09-03T00:00:00"/>
     <x v="4"/>
     <n v="1840"/>
@@ -6894,7 +6938,7 @@
   <r>
     <d v="2025-09-04T00:00:00"/>
     <x v="3"/>
-    <n v="200"/>
+    <n v="1000"/>
     <m/>
     <m/>
     <s v="Cash"/>
@@ -6910,8 +6954,161 @@
     <m/>
   </r>
   <r>
-    <m/>
+    <d v="2025-09-04T00:00:00"/>
+    <x v="3"/>
+    <n v="44836"/>
+    <m/>
+    <s v="4/9/25s credit clear"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="9"/>
+    <n v="17000"/>
+    <m/>
+    <s v="atta 8 bags"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="5"/>
+    <n v="5335"/>
+    <m/>
+    <s v="petrol"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Transfer"/>
+    <n v="85000"/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="6"/>
+    <n v="300"/>
+    <m/>
+    <s v="scanner"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
     <x v="29"/>
+    <n v="51330"/>
+    <m/>
+    <s v="wood"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="2"/>
+    <n v="44700"/>
+    <m/>
+    <s v="TKQ 160"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="2"/>
+    <n v="202100"/>
+    <m/>
+    <s v="wood"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="2"/>
+    <n v="33000"/>
+    <m/>
+    <s v="RIS 1973"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="4"/>
+    <n v="1500"/>
+    <m/>
+    <s v="folding"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="6"/>
+    <n v="500"/>
+    <m/>
+    <s v="farman//naeem food"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <s v="1500 paid (Waqas)"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="5"/>
+    <n v="5900"/>
+    <m/>
+    <s v="LPG"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="14"/>
+    <n v="5000"/>
+    <m/>
+    <s v="Sabir Chakki"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="16"/>
+    <m/>
+    <n v="100000"/>
+    <s v="BAHL credit"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="4"/>
+    <n v="2000"/>
+    <m/>
+    <s v="Carbon sizing"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-05T00:00:00"/>
+    <x v="4"/>
+    <n v="4400"/>
+    <m/>
+    <s v="Bearing//jet depart"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
     <m/>
     <m/>
     <m/>
@@ -6925,9 +7122,9 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
   <r>
     <x v="0"/>
-    <n v="371456.65691294812"/>
+    <n v="396608.4491587418"/>
     <n v="10"/>
-    <n v="3645190.1975128017"/>
+    <n v="3896708.1199707394"/>
   </r>
   <r>
     <x v="1"/>
@@ -6937,9 +7134,9 @@
   </r>
   <r>
     <x v="2"/>
-    <n v="37770.665691294809"/>
+    <n v="55363.935625457212"/>
     <n v="10"/>
-    <n v="377706.65691294812"/>
+    <n v="553639.35625457217"/>
   </r>
   <r>
     <x v="3"/>
@@ -7191,7 +7388,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="37">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7527,22 +7724,22 @@
     <x v="0"/>
     <x v="20"/>
     <n v="271"/>
-    <n v="765"/>
+    <n v="810"/>
     <n v="44750"/>
-    <n v="207315"/>
-    <m/>
-    <n v="207315"/>
+    <n v="219510"/>
+    <m/>
+    <n v="219510"/>
   </r>
   <r>
     <x v="20"/>
     <x v="0"/>
     <x v="21"/>
     <n v="266"/>
-    <n v="765"/>
+    <n v="810"/>
     <n v="43300"/>
-    <n v="203490"/>
+    <n v="215460"/>
     <n v="290550"/>
-    <n v="-87060"/>
+    <n v="-75090"/>
   </r>
   <r>
     <x v="20"/>
@@ -7567,21 +7764,43 @@
     <n v="25370"/>
   </r>
   <r>
-    <x v="20"/>
-    <x v="3"/>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <n v="0"/>
-    <n v="0"/>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="22"/>
+    <n v="284"/>
+    <n v="810"/>
+    <n v="44700"/>
+    <n v="230040"/>
+    <n v="279800"/>
+    <n v="-49760"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+    <x v="23"/>
+    <n v="187"/>
+    <n v="765"/>
+    <n v="33000"/>
+    <n v="143055"/>
+    <m/>
+    <n v="143055"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="41"/>
+    <n v="590"/>
+    <m/>
+    <n v="24190"/>
+    <n v="51330"/>
+    <n v="-27140"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="70">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="73">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -8006,7 +8225,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="21448"/>
-    <n v="35.515510121751731"/>
+    <n v="25.783529992498686"/>
     <n v="19612.289685442578"/>
     <n v="196122.89685442578"/>
     <m/>
@@ -8045,7 +8264,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="19780"/>
-    <n v="35.515510121751731"/>
+    <n v="25.783529992498686"/>
     <n v="18087.051938551573"/>
     <n v="180870.51938551571"/>
     <m/>
@@ -8110,7 +8329,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="11702"/>
-    <n v="35.515510121751731"/>
+    <n v="25.783529992498686"/>
     <n v="10700.438917337236"/>
     <n v="107004.38917337236"/>
     <m/>
@@ -8123,7 +8342,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="26158"/>
-    <n v="35.515510121751731"/>
+    <n v="25.783529992498686"/>
     <n v="23919.166057059258"/>
     <n v="239191.66057059256"/>
     <m/>
@@ -8227,7 +8446,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="20380"/>
-    <n v="35.515510121751731"/>
+    <n v="25.783529992498686"/>
     <n v="18635.6986100951"/>
     <n v="186356.98610095101"/>
     <m/>
@@ -8248,7 +8467,7 @@
   <r>
     <x v="12"/>
     <x v="0"/>
-    <x v="42"/>
+    <x v="43"/>
     <s v="Chamki"/>
     <x v="23"/>
     <n v="26004"/>
@@ -8261,7 +8480,7 @@
   <r>
     <x v="12"/>
     <x v="0"/>
-    <x v="43"/>
+    <x v="44"/>
     <s v="Chamki"/>
     <x v="23"/>
     <n v="26004"/>
@@ -8274,12 +8493,12 @@
   <r>
     <x v="12"/>
     <x v="0"/>
-    <x v="44"/>
+    <x v="45"/>
     <s v="Chamki"/>
     <x v="14"/>
     <n v="167135"/>
     <n v="10496"/>
-    <n v="35.515510121751731"/>
+    <n v="25.783529992498686"/>
     <n v="9597.6591075347478"/>
     <n v="95976.591075347475"/>
     <m/>
@@ -8287,7 +8506,7 @@
   <r>
     <x v="12"/>
     <x v="0"/>
-    <x v="45"/>
+    <x v="46"/>
     <s v="Chamki"/>
     <x v="6"/>
     <n v="60735"/>
@@ -8300,7 +8519,7 @@
   <r>
     <x v="12"/>
     <x v="0"/>
-    <x v="46"/>
+    <x v="47"/>
     <s v="Chamki"/>
     <x v="6"/>
     <n v="60735"/>
@@ -8313,7 +8532,7 @@
   <r>
     <x v="12"/>
     <x v="8"/>
-    <x v="47"/>
+    <x v="48"/>
     <s v="Chamki"/>
     <x v="24"/>
     <n v="9784"/>
@@ -8326,7 +8545,7 @@
   <r>
     <x v="12"/>
     <x v="4"/>
-    <x v="48"/>
+    <x v="49"/>
     <s v="Chamki"/>
     <x v="25"/>
     <n v="14999"/>
@@ -8339,7 +8558,7 @@
   <r>
     <x v="12"/>
     <x v="4"/>
-    <x v="49"/>
+    <x v="50"/>
     <s v="Chamki"/>
     <x v="26"/>
     <n v="21934"/>
@@ -8352,7 +8571,7 @@
   <r>
     <x v="13"/>
     <x v="0"/>
-    <x v="50"/>
+    <x v="51"/>
     <s v="Chamki"/>
     <x v="6"/>
     <n v="60737"/>
@@ -8365,7 +8584,7 @@
   <r>
     <x v="13"/>
     <x v="4"/>
-    <x v="51"/>
+    <x v="52"/>
     <s v="Chamki"/>
     <x v="26"/>
     <n v="21934"/>
@@ -8378,7 +8597,7 @@
   <r>
     <x v="13"/>
     <x v="4"/>
-    <x v="52"/>
+    <x v="53"/>
     <s v="Silky"/>
     <x v="27"/>
     <n v="30140"/>
@@ -8391,7 +8610,7 @@
   <r>
     <x v="14"/>
     <x v="4"/>
-    <x v="53"/>
+    <x v="54"/>
     <s v="Silky"/>
     <x v="27"/>
     <n v="30140"/>
@@ -8404,7 +8623,7 @@
   <r>
     <x v="14"/>
     <x v="4"/>
-    <x v="54"/>
+    <x v="55"/>
     <s v="Silky"/>
     <x v="28"/>
     <n v="9346"/>
@@ -8417,7 +8636,7 @@
   <r>
     <x v="14"/>
     <x v="0"/>
-    <x v="55"/>
+    <x v="56"/>
     <s v="Chamki"/>
     <x v="6"/>
     <n v="60737"/>
@@ -8430,7 +8649,7 @@
   <r>
     <x v="14"/>
     <x v="0"/>
-    <x v="56"/>
+    <x v="57"/>
     <s v="Chamki"/>
     <x v="1"/>
     <n v="103550"/>
@@ -8443,12 +8662,12 @@
   <r>
     <x v="14"/>
     <x v="0"/>
-    <x v="57"/>
+    <x v="58"/>
     <s v="Chamki"/>
     <x v="14"/>
     <n v="167135"/>
     <n v="7900"/>
-    <n v="35.515510121751731"/>
+    <n v="25.783529992498686"/>
     <n v="7223.8478419897592"/>
     <n v="72238.478419897598"/>
     <m/>
@@ -8456,12 +8675,12 @@
   <r>
     <x v="15"/>
     <x v="0"/>
-    <x v="58"/>
+    <x v="59"/>
     <s v="Chamki"/>
     <x v="14"/>
     <n v="167135"/>
     <n v="17788"/>
-    <n v="35.515510121751731"/>
+    <n v="25.783529992498686"/>
     <n v="16265.544989027068"/>
     <n v="162655.44989027068"/>
     <m/>
@@ -8469,12 +8688,12 @@
   <r>
     <x v="15"/>
     <x v="0"/>
-    <x v="59"/>
+    <x v="60"/>
     <s v="Chamki"/>
     <x v="29"/>
     <n v="55567"/>
     <n v="19577"/>
-    <s v="NF"/>
+    <n v="67.784068815401199"/>
     <n v="17901.426481346014"/>
     <n v="179014.26481346015"/>
     <m/>
@@ -8482,14 +8701,53 @@
   <r>
     <x v="15"/>
     <x v="2"/>
-    <x v="60"/>
+    <x v="61"/>
     <s v="Chamki"/>
     <x v="30"/>
     <n v="30009"/>
     <n v="12687"/>
-    <s v="NF"/>
+    <n v="61.341151421947224"/>
     <n v="11601.133869787858"/>
     <n v="116011.33869787859"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="62"/>
+    <s v="Chamki"/>
+    <x v="14"/>
+    <n v="167135"/>
+    <n v="14207"/>
+    <n v="25.783529992498686"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="2"/>
+    <x v="63"/>
+    <s v="Chamki"/>
+    <x v="30"/>
+    <n v="30009"/>
+    <n v="19240"/>
+    <n v="61.341151421947224"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="64"/>
+    <s v="Chamki"/>
+    <x v="29"/>
+    <n v="55576"/>
+    <n v="13299"/>
+    <n v="67.784068815401199"/>
+    <m/>
+    <n v="0"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -8661,7 +8919,7 @@
     <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="158">
+    <format dxfId="159">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8670,7 +8928,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="158">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8679,7 +8937,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="157">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8689,7 +8947,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="156">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8714,18 +8972,17 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="D89:G151" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <location ref="D89:G155" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" showAll="0">
-      <items count="33">
-        <item m="1" x="16"/>
+      <items count="34">
         <item m="1" x="17"/>
         <item m="1" x="18"/>
         <item m="1" x="19"/>
         <item m="1" x="20"/>
         <item m="1" x="21"/>
-        <item m="1" x="31"/>
         <item m="1" x="22"/>
+        <item m="1" x="32"/>
         <item m="1" x="23"/>
         <item m="1" x="24"/>
         <item m="1" x="25"/>
@@ -8734,6 +8991,7 @@
         <item m="1" x="28"/>
         <item m="1" x="29"/>
         <item m="1" x="30"/>
+        <item m="1" x="31"/>
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
@@ -8750,6 +9008,7 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8776,11 +9035,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="172">
-        <item m="1" x="123"/>
-        <item m="1" x="124"/>
-        <item m="1" x="125"/>
-        <item m="1" x="126"/>
+      <items count="176">
         <item m="1" x="127"/>
         <item m="1" x="128"/>
         <item m="1" x="129"/>
@@ -8825,10 +9080,10 @@
         <item m="1" x="168"/>
         <item m="1" x="169"/>
         <item m="1" x="170"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
+        <item m="1" x="171"/>
+        <item m="1" x="172"/>
+        <item m="1" x="173"/>
+        <item m="1" x="174"/>
         <item m="1" x="65"/>
         <item m="1" x="66"/>
         <item m="1" x="67"/>
@@ -8843,18 +9098,18 @@
         <item m="1" x="76"/>
         <item m="1" x="77"/>
         <item m="1" x="78"/>
-        <item m="1" x="107"/>
         <item m="1" x="79"/>
         <item m="1" x="80"/>
         <item m="1" x="81"/>
         <item m="1" x="82"/>
+        <item m="1" x="111"/>
         <item m="1" x="83"/>
         <item m="1" x="84"/>
-        <item m="1" x="96"/>
         <item m="1" x="85"/>
         <item m="1" x="86"/>
         <item m="1" x="87"/>
         <item m="1" x="88"/>
+        <item m="1" x="100"/>
         <item m="1" x="89"/>
         <item m="1" x="90"/>
         <item m="1" x="91"/>
@@ -8862,20 +9117,20 @@
         <item m="1" x="93"/>
         <item m="1" x="94"/>
         <item m="1" x="95"/>
+        <item m="1" x="96"/>
         <item m="1" x="97"/>
         <item m="1" x="98"/>
         <item m="1" x="99"/>
-        <item m="1" x="100"/>
         <item m="1" x="101"/>
         <item m="1" x="102"/>
         <item m="1" x="103"/>
         <item m="1" x="104"/>
         <item m="1" x="105"/>
         <item m="1" x="106"/>
+        <item m="1" x="107"/>
         <item m="1" x="108"/>
         <item m="1" x="109"/>
         <item m="1" x="110"/>
-        <item m="1" x="111"/>
         <item m="1" x="112"/>
         <item m="1" x="113"/>
         <item m="1" x="114"/>
@@ -8887,6 +9142,10 @@
         <item m="1" x="120"/>
         <item m="1" x="121"/>
         <item m="1" x="122"/>
+        <item m="1" x="123"/>
+        <item m="1" x="124"/>
+        <item m="1" x="125"/>
+        <item m="1" x="126"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -8948,6 +9207,10 @@
         <item x="58"/>
         <item x="59"/>
         <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9054,7 +9317,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="62">
+  <rowItems count="66">
     <i>
       <x v="110"/>
     </i>
@@ -9238,6 +9501,18 @@
     <i>
       <x v="170"/>
     </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9280,18 +9555,17 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I89:K106" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="I89:K107" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="33">
-        <item m="1" x="16"/>
+      <items count="34">
         <item m="1" x="17"/>
         <item m="1" x="18"/>
         <item m="1" x="19"/>
         <item m="1" x="20"/>
         <item m="1" x="21"/>
-        <item m="1" x="31"/>
         <item m="1" x="22"/>
+        <item m="1" x="32"/>
         <item m="1" x="23"/>
         <item m="1" x="24"/>
         <item m="1" x="25"/>
@@ -9300,6 +9574,7 @@
         <item m="1" x="28"/>
         <item m="1" x="29"/>
         <item m="1" x="30"/>
+        <item m="1" x="31"/>
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
@@ -9316,6 +9591,7 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9336,7 +9612,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="18">
     <i>
       <x v="16"/>
     </i>
@@ -9385,6 +9661,9 @@
     <i>
       <x v="31"/>
     </i>
+    <i>
+      <x v="32"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9405,7 +9684,7 @@
     <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="135">
+    <format dxfId="136">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9429,29 +9708,29 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
-  <location ref="E42:I55" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="E46:I59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="42">
-        <item m="1" x="25"/>
+      <items count="43">
         <item m="1" x="26"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
         <item m="1" x="29"/>
         <item m="1" x="30"/>
         <item m="1" x="31"/>
-        <item m="1" x="40"/>
-        <item m="1" x="21"/>
         <item m="1" x="32"/>
+        <item m="1" x="41"/>
+        <item m="1" x="22"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
         <item m="1" x="35"/>
         <item m="1" x="36"/>
         <item m="1" x="37"/>
         <item m="1" x="38"/>
+        <item m="1" x="39"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="39"/>
+        <item m="1" x="40"/>
         <item x="3"/>
         <item x="0"/>
         <item x="4"/>
@@ -9469,11 +9748,12 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item m="1" x="22"/>
         <item m="1" x="23"/>
         <item m="1" x="24"/>
+        <item m="1" x="25"/>
         <item x="19"/>
         <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9481,34 +9761,34 @@
       <items count="6">
         <item x="1"/>
         <item x="0"/>
-        <item x="3"/>
+        <item m="1" x="3"/>
         <item m="1" x="4"/>
         <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="37">
+      <items count="39">
+        <item m="1" x="28"/>
+        <item x="15"/>
+        <item m="1" x="24"/>
+        <item x="4"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="25"/>
         <item m="1" x="26"/>
-        <item x="15"/>
-        <item m="1" x="22"/>
-        <item x="4"/>
         <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
         <item x="5"/>
         <item x="7"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
         <item m="1" x="31"/>
         <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="35"/>
+        <item m="1" x="37"/>
         <item x="3"/>
         <item x="0"/>
         <item x="6"/>
@@ -9525,6 +9805,8 @@
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9607,7 +9889,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="121">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9616,7 +9898,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="120">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9640,11 +9922,11 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J163:L194" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="J163:L195" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="36">
+      <items count="37">
         <item x="14"/>
         <item x="16"/>
         <item x="1"/>
@@ -9655,8 +9937,8 @@
         <item x="6"/>
         <item x="4"/>
         <item x="9"/>
-        <item m="1" x="31"/>
         <item m="1" x="32"/>
+        <item m="1" x="33"/>
         <item x="28"/>
         <item x="5"/>
         <item x="15"/>
@@ -9665,12 +9947,12 @@
         <item x="22"/>
         <item x="3"/>
         <item x="8"/>
-        <item x="29"/>
+        <item x="30"/>
         <item x="7"/>
-        <item m="1" x="33"/>
+        <item m="1" x="34"/>
         <item x="20"/>
-        <item m="1" x="34"/>
-        <item m="1" x="30"/>
+        <item m="1" x="35"/>
+        <item m="1" x="31"/>
         <item x="0"/>
         <item x="12"/>
         <item x="13"/>
@@ -9680,6 +9962,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="27"/>
+        <item x="29"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9692,7 +9975,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="32">
     <i>
       <x/>
     </i>
@@ -9783,6 +10066,9 @@
     <i>
       <x v="34"/>
     </i>
+    <i>
+      <x v="35"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9803,7 +10089,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="109">
+    <format dxfId="110">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10232,26 +10518,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="71">
+    <format dxfId="73">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="72">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="71">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="70">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10261,13 +10547,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="67">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="66">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10457,14 +10743,14 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Party Name 1" xr10:uid="{663D6C72-DC00-4848-8A46-2F05DE4A2577}" cache="Slicer_Party_Name1" caption="Party Name" rowHeight="247650"/>
+  <slicer name="Party Name 1" xr10:uid="{663D6C72-DC00-4848-8A46-2F05DE4A2577}" cache="Slicer_Party_Name1" caption="Party Name" startItem="1" rowHeight="247650"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Party" xr10:uid="{8CB7DD44-BF59-47B2-AB64-03EC8FC8FD4A}" cache="Slicer_Party" caption="Party" columnCount="3" rowHeight="180000"/>
-  <slicer name="Date 1" xr10:uid="{8E7BDD3C-DB8C-4BD4-9ACC-14DA5E7A745C}" cache="Slicer_Date1" caption="Date" startItem="15" rowHeight="247650"/>
+  <slicer name="Date 1" xr10:uid="{8E7BDD3C-DB8C-4BD4-9ACC-14DA5E7A745C}" cache="Slicer_Date1" caption="Date" startItem="11" rowHeight="247650"/>
 </slicers>
 </file>
 
@@ -10484,14 +10770,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}" name="Table4" displayName="Table4" ref="B3:E15" totalsRowShown="0">
   <autoFilter ref="B3:E15" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="154">
+    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="155">
       <calculatedColumnFormula>B26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="153">
+    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="154">
       <calculatedColumnFormula>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC1535DD-3FE7-4F55-8040-E7643388A78E}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="152">
+    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="153">
       <calculatedColumnFormula>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10500,15 +10786,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G284" totalsRowCount="1">
-  <autoFilter ref="A1:G283" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G301" totalsRowCount="1">
+  <autoFilter ref="A1:G300" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="56" totalsRowDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="58" totalsRowDxfId="57"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="51" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="50" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="55" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="49">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="51">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -10518,25 +10804,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="108" tableBorderDxfId="107" totalsRowBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="109" tableBorderDxfId="108" totalsRowBorderDxfId="107">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="104" headerRowBorderDxfId="103" tableBorderDxfId="102" totalsRowBorderDxfId="101">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="99" totalsRowDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="100" totalsRowDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="95">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="96">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10548,10 +10834,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="95" totalsRowDxfId="94"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10560,17 +10846,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="90" headerRowBorderDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="91" headerRowBorderDxfId="90">
   <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="89"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="87">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="88">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -10580,22 +10866,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="86" headerRowBorderDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="87" headerRowBorderDxfId="86">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="84" totalsRowDxfId="83"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="85" totalsRowDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="83"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="81">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="82">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="80">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="81">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10625,7 +10911,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="79" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10636,8 +10922,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="75" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -10652,7 +10938,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="74" totalsRowDxfId="50"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -10663,12 +10949,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:D20" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151">
   <autoFilter ref="B7:D20" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="149"/>
-    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="148" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="147" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="150"/>
+    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="149" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="#" dataDxfId="148" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10678,7 +10964,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="64" totalsRowDxfId="63"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -10694,7 +10980,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="62" totalsRowDxfId="61"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -10709,10 +10995,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="60">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="57">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="59">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10725,7 +11011,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="147" totalsRowDxfId="146" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -10747,11 +11033,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="144" dataDxfId="143" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="142" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="141" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="143" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="142" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10761,8 +11047,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="139"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="140"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10772,12 +11058,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="138" totalsRowDxfId="137"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="139" totalsRowDxfId="138"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="136">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="137">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -10789,23 +11075,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K72" totalsRowCount="1" headerRowDxfId="134" dataDxfId="133" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="A1:K71" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K75" totalsRowCount="1" headerRowDxfId="135" dataDxfId="134" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="A1:K74" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="132" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="131" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="130" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="129" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="128" totalsRowDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="127" totalsRowDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="126" totalsRowDxfId="21" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="125" totalsRowDxfId="20" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="133" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="132" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="131" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="130" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="129" totalsRowDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="128" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="127" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="126" totalsRowDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="19" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="125" totalsRowDxfId="2" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="18" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="124" totalsRowDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -10815,7 +11101,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="17" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="0" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10824,20 +11110,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I37" totalsRowCount="1" headerRowDxfId="119" headerRowBorderDxfId="118" tableBorderDxfId="117">
-  <autoFilter ref="A1:I36" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I39" totalsRowCount="1" headerRowDxfId="120" headerRowBorderDxfId="119" tableBorderDxfId="118">
+  <autoFilter ref="A1:I38" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="116" totalsRowDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="117" totalsRowDxfId="47"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="115" totalsRowDxfId="47" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="114" totalsRowDxfId="46" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="113" totalsRowDxfId="45" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="44" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="116" totalsRowDxfId="46" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="115" totalsRowDxfId="45" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="114" totalsRowDxfId="44" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="113" totalsRowDxfId="43" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="43" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="42" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="112" totalsRowDxfId="42" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="41" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11164,7 +11450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E413788-DC3D-4686-B6D6-08186A86599F}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="103" workbookViewId="0">
       <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
@@ -11236,23 +11522,23 @@
       </c>
       <c r="C4" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>371456.65691294812</v>
+        <v>396608.4491587418</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>3645190.1975128017</v>
+        <v>3896708.1199707394</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="5">
-        <v>37770.665691294809</v>
+        <v>55363.935625457212</v>
       </c>
       <c r="K4" s="18">
-        <v>377706.65691294812</v>
+        <v>553639.35625457217</v>
       </c>
       <c r="O4" s="22"/>
       <c r="P4" s="24" t="s">
@@ -11309,10 +11595,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="5">
-        <v>371456.65691294812</v>
+        <v>396608.4491587418</v>
       </c>
       <c r="K5" s="18">
-        <v>3645190.1975128017</v>
+        <v>3896708.1199707394</v>
       </c>
       <c r="O5" s="25" t="str" cm="1">
         <f t="array" ref="O5:O14">_xlfn.UNIQUE(Table1[Party Name])</f>
@@ -11320,15 +11606,15 @@
       </c>
       <c r="P5" s="23" cm="1">
         <f t="array" ref="P5">_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C44,0)</f>
-        <v>859268</v>
+        <v>886774</v>
       </c>
       <c r="Q5" s="23" cm="1">
         <f t="array" ref="Q5">_xlfn.BYROW(B26, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D44,0)</f>
-        <v>785724.21360643755</v>
+        <v>810876.00585223129</v>
       </c>
       <c r="R5" s="23" cm="1">
         <f t="array" ref="R5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E44,0)</f>
-        <v>785724.21360643755</v>
+        <v>810876.00585223129</v>
       </c>
       <c r="S5" s="78" cm="1">
         <f t="array" ref="S5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F44,0)</f>
@@ -11336,7 +11622,7 @@
       </c>
       <c r="T5" s="23" cm="1">
         <f t="array" ref="T5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)+_xlfn.IFNA(G44,0)</f>
-        <v>7857242.1360643748</v>
+        <v>8108760.058522312</v>
       </c>
       <c r="U5" s="23" cm="1">
         <f t="array" ref="U5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H44,0)</f>
@@ -11344,7 +11630,7 @@
       </c>
       <c r="V5" s="44">
         <f>T5+U5</f>
-        <v>7857242.1360643748</v>
+        <v>8108760.058522312</v>
       </c>
       <c r="W5" s="23">
         <f>(SUMIF(Table14[Party],O5,Table14[Credit]))+_xlfn.IFNA(J44,0)</f>
@@ -11352,7 +11638,7 @@
       </c>
       <c r="X5" s="98">
         <f>V5-W5</f>
-        <v>1550242.1360643748</v>
+        <v>1801760.058522312</v>
       </c>
       <c r="Y5" s="22">
         <v>10</v>
@@ -11368,14 +11654,14 @@
       </c>
       <c r="C6" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B6, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>37770.665691294809</v>
+        <v>55363.935625457212</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B6, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B6, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>377706.65691294812</v>
+        <v>553639.35625457217</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>22</v>
@@ -11462,15 +11748,15 @@
       </c>
       <c r="P7" s="23" cm="1">
         <f t="array" ref="P7">_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C46,0)</f>
-        <v>124986</v>
+        <v>144226</v>
       </c>
       <c r="Q7" s="23" cm="1">
         <f t="array" ref="Q7">_xlfn.BYROW(B28, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D46,0)</f>
-        <v>114288.5881492319</v>
+        <v>131881.8580833943</v>
       </c>
       <c r="R7" s="23" cm="1">
         <f t="array" ref="R7">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E46,0)</f>
-        <v>114288.5881492319</v>
+        <v>131881.8580833943</v>
       </c>
       <c r="S7" s="78" cm="1">
         <f t="array" ref="S7">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F46,0)</f>
@@ -11478,7 +11764,7 @@
       </c>
       <c r="T7" s="23" cm="1">
         <f t="array" ref="T7">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L28)+_xlfn.IFNA(G46,0)</f>
-        <v>1142885.8814923191</v>
+        <v>1318818.5808339431</v>
       </c>
       <c r="U7" s="23" cm="1">
         <f t="array" ref="U7">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H46,0)</f>
@@ -11486,15 +11772,15 @@
       </c>
       <c r="V7" s="44">
         <f t="shared" si="1"/>
-        <v>1142885.8814923191</v>
+        <v>1318818.5808339431</v>
       </c>
       <c r="W7" s="23">
         <f>(SUMIF(Table14[Party],O7,Table14[Credit]))+_xlfn.IFNA(J46,0)</f>
-        <v>554210</v>
+        <v>654210</v>
       </c>
       <c r="X7" s="98">
         <f>V7-W7</f>
-        <v>588675.88149231905</v>
+        <v>664608.5808339431</v>
       </c>
       <c r="Y7" s="22">
         <v>10</v>
@@ -11632,11 +11918,11 @@
       </c>
       <c r="W9" s="23">
         <f>(SUMIF(Table14[Party],O9,Table14[Credit]))+_xlfn.IFNA(J48,0)</f>
-        <v>2279100</v>
+        <v>2579100</v>
       </c>
       <c r="X9" s="98">
         <f t="shared" si="2"/>
-        <v>889282.40673006652</v>
+        <v>589282.40673006652</v>
       </c>
       <c r="Y9" s="22">
         <v>9</v>
@@ -12013,10 +12299,10 @@
         <v>28</v>
       </c>
       <c r="J15" s="14">
-        <v>762713.05779078288</v>
+        <v>805458.11997073889</v>
       </c>
       <c r="K15" s="14">
-        <v>7567775.2377468906</v>
+        <v>7995225.8595464528</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" cm="1">
@@ -12068,7 +12354,7 @@
       </c>
       <c r="C16" s="46">
         <f>SUM(G26:G38)+SUM(H26:H38)</f>
-        <v>7679772.3116313098</v>
+        <v>8107222.933430871</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -12169,7 +12455,7 @@
       </c>
       <c r="C18" s="42">
         <f ca="1">SUM(OFFSET(I26,0,0,COUNTA(I:I)-ROW(I26)+1))</f>
-        <v>7679772.3116313098</v>
+        <v>8107222.933430871</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -12315,15 +12601,15 @@
       </c>
       <c r="C26" s="23" cm="1">
         <f t="array" ref="C26:C35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
-        <v>406225</v>
+        <v>433731</v>
       </c>
       <c r="D26" s="23" cm="1">
         <f t="array" ref="D26:D35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
-        <v>371456.65691294812</v>
+        <v>396608.4491587418</v>
       </c>
       <c r="E26" s="71" cm="1">
         <f t="array" ref="E26:E35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
-        <v>371456.65691294812</v>
+        <v>396608.4491587418</v>
       </c>
       <c r="F26" s="78" cm="1">
         <f t="array" ref="F26:F35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
@@ -12331,7 +12617,7 @@
       </c>
       <c r="G26" s="23" cm="1">
         <f t="array" ref="G26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)</f>
-        <v>3714566.569129481</v>
+        <v>3966084.4915874181</v>
       </c>
       <c r="H26" s="23" cm="1">
         <f t="array" ref="H26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M26)</f>
@@ -12339,7 +12625,7 @@
       </c>
       <c r="I26" s="44">
         <f t="shared" ref="I26:I34" si="7">G26+H26</f>
-        <v>3714566.569129481</v>
+        <v>3966084.4915874181</v>
       </c>
       <c r="J26" s="23">
         <f>(SUMIF(Table14[Party],B26,Table14[Credit]))</f>
@@ -12347,7 +12633,7 @@
       </c>
       <c r="K26" s="42">
         <f>I26-J26</f>
-        <v>1236404.569129481</v>
+        <v>1487922.4915874181</v>
       </c>
       <c r="L26" s="22">
         <v>10</v>
@@ -12404,20 +12690,20 @@
         <v>Arshad</v>
       </c>
       <c r="C28" s="23">
-        <v>41306</v>
+        <v>60546</v>
       </c>
       <c r="D28" s="23">
-        <v>37770.665691294809</v>
+        <v>55363.935625457212</v>
       </c>
       <c r="E28" s="71">
-        <v>37770.665691294809</v>
+        <v>55363.935625457212</v>
       </c>
       <c r="F28" s="78">
         <v>0</v>
       </c>
       <c r="G28" s="23" cm="1">
         <f t="array" ref="G28">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L28)</f>
-        <v>377706.65691294812</v>
+        <v>553639.35625457217</v>
       </c>
       <c r="H28" s="23" cm="1">
         <f t="array" ref="H28">(_xlfn.BYROW(B28,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M28)</f>
@@ -12425,15 +12711,15 @@
       </c>
       <c r="I28" s="44">
         <f t="shared" si="7"/>
-        <v>377706.65691294812</v>
+        <v>553639.35625457217</v>
       </c>
       <c r="J28" s="23">
         <f>(SUMIF(Table14[Party],B28,Table14[Credit]))</f>
-        <v>454210</v>
+        <v>554210</v>
       </c>
       <c r="K28" s="42">
         <f>I28-J28</f>
-        <v>-76503.343087051879</v>
+        <v>-570.6437454278348</v>
       </c>
       <c r="L28" s="22">
         <v>10</v>
@@ -12515,11 +12801,11 @@
       </c>
       <c r="J30" s="23">
         <f>(SUMIF(Table14[Party],B30,Table14[Credit]))</f>
-        <v>1979100</v>
+        <v>2279100</v>
       </c>
       <c r="K30" s="42">
         <f t="shared" si="8"/>
-        <v>-126284.52816386241</v>
+        <v>-426284.52816386241</v>
       </c>
       <c r="L30" s="22">
         <v>9</v>
@@ -13732,8 +14018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA2331-540A-4BE5-B987-3C6225CFE23F}">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A9" zoomScale="118" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13960,7 +14246,7 @@
         <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H12" s="1">
         <v>45894</v>
@@ -14131,11 +14417,14 @@
         <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>45901</v>
+        <v>45904</v>
       </c>
       <c r="I21">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</f>
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -14147,11 +14436,14 @@
         <v>0</v>
       </c>
       <c r="H22" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I22">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</f>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -14163,11 +14455,14 @@
         <v>0</v>
       </c>
       <c r="H23" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I23">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</f>
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="J23" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
@@ -14183,7 +14478,10 @@
       </c>
       <c r="I24">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</f>
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
@@ -14199,7 +14497,10 @@
       </c>
       <c r="I25">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</f>
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="J25" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -14355,7 +14656,7 @@
       <c r="H35" s="1"/>
       <c r="I35">
         <f>SUBTOTAL(109,Table16[Advance])</f>
-        <v>140000</v>
+        <v>175000</v>
       </c>
     </row>
   </sheetData>
@@ -14407,15 +14708,15 @@
       </c>
       <c r="B2" s="38">
         <f>SUM(B4:INDEX(B:B, MATCH(1E+100, B:B)-1))</f>
-        <v>948144</v>
+        <v>948153</v>
       </c>
       <c r="C2" s="37">
         <f>GETPIVOTDATA("Sum of Tiyaar/gaz",$A$3)</f>
-        <v>838357</v>
+        <v>885103</v>
       </c>
       <c r="D2" s="36">
         <f>((B2*48)+((C2/1.0936)*10))/C2</f>
-        <v>63.429948848665028</v>
+        <v>60.563374261210079</v>
       </c>
       <c r="J2">
         <v>48</v>
@@ -14999,11 +15300,11 @@
         <v>167135</v>
       </c>
       <c r="C19" s="14">
-        <v>135652</v>
+        <v>149859</v>
       </c>
       <c r="D19" s="33">
         <f t="shared" si="1"/>
-        <v>68.284263936177666</v>
+        <v>62.677632702611703</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="2"/>
@@ -15011,19 +15312,19 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>135652</v>
+        <v>149859</v>
       </c>
       <c r="G19" s="86">
         <f t="shared" ref="G19:G38" si="6">100- (F19/E19 *100)</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="H19" s="33">
         <f t="shared" si="3"/>
-        <v>124041.69714703732</v>
+        <v>137032.73591806876</v>
       </c>
       <c r="I19" s="33">
         <f t="shared" si="5"/>
-        <v>68.284263936177666</v>
+        <v>62.677632702611703</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -15486,34 +15787,34 @@
         <v>1657</v>
       </c>
       <c r="B33" s="14">
-        <v>55567</v>
+        <v>55576</v>
       </c>
       <c r="C33" s="14">
-        <v>19577</v>
+        <v>32876</v>
       </c>
       <c r="D33" s="33">
         <f t="shared" ref="D33:D37" si="7">I33</f>
-        <v>145.3864363698963</v>
+        <v>90.28682928461744</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" ref="E33:E37" si="8">B33 * 1.0936</f>
-        <v>60768.071199999991</v>
+        <v>60777.913599999993</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" ref="F33:F37" si="9">C33</f>
-        <v>19577</v>
+        <v>32876</v>
       </c>
       <c r="G33" s="86">
         <f t="shared" ref="G33:G37" si="10">100- (F33/E33 *100)</f>
-        <v>67.784068815401199</v>
+        <v>45.90798194165059</v>
       </c>
       <c r="H33" s="33">
         <f t="shared" ref="H33:H37" si="11">F33/1.0936</f>
-        <v>17901.426481346014</v>
+        <v>30062.17995610827</v>
       </c>
       <c r="I33" s="33">
         <f t="shared" ref="I33:I37" si="12">((B33*48)+(H33*10))/C33</f>
-        <v>145.3864363698963</v>
+        <v>90.28682928461744</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -15524,11 +15825,11 @@
         <v>30009</v>
       </c>
       <c r="C34" s="14">
-        <v>12687</v>
+        <v>31927</v>
       </c>
       <c r="D34" s="33">
         <f t="shared" si="7"/>
-        <v>122.6801717267974</v>
+        <v>54.260533029708483</v>
       </c>
       <c r="E34" s="11">
         <f t="shared" si="8"/>
@@ -15536,19 +15837,19 @@
       </c>
       <c r="F34" s="11">
         <f t="shared" si="9"/>
-        <v>12687</v>
+        <v>31927</v>
       </c>
       <c r="G34" s="86">
         <f t="shared" si="10"/>
-        <v>61.341151421947224</v>
+        <v>2.7145063016086368</v>
       </c>
       <c r="H34" s="33">
         <f t="shared" si="11"/>
-        <v>11601.133869787858</v>
+        <v>29194.403803950259</v>
       </c>
       <c r="I34" s="33">
         <f t="shared" si="12"/>
-        <v>122.6801717267974</v>
+        <v>54.260533029708483</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -15559,11 +15860,11 @@
         <v>167135</v>
       </c>
       <c r="C35" s="35">
-        <v>838357</v>
+        <v>885103</v>
       </c>
       <c r="D35" s="33">
         <f t="shared" si="7"/>
-        <v>18.713399693591469</v>
+        <v>18.208005451026409</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="8"/>
@@ -15571,19 +15872,19 @@
       </c>
       <c r="F35" s="11">
         <f t="shared" si="9"/>
-        <v>838357</v>
+        <v>885103</v>
       </c>
       <c r="G35" s="86">
         <f t="shared" si="10"/>
-        <v>-358.67290674725609</v>
+        <v>-384.24807782450267</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="11"/>
-        <v>766602.9626920264</v>
+        <v>809348.02487198252</v>
       </c>
       <c r="I35" s="33">
         <f t="shared" si="12"/>
-        <v>18.713399693591469</v>
+        <v>18.208005451026409</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -16308,14 +16609,14 @@
       </c>
       <c r="D22">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</f>
-        <v>0</v>
+        <v>17000</v>
       </c>
       <c r="H22" s="1">
         <v>45905</v>
       </c>
       <c r="J22">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</f>
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
@@ -16550,12 +16851,12 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUM(Table5[Amount])</f>
-        <v>50689</v>
+        <v>67689</v>
       </c>
       <c r="H35" s="1"/>
       <c r="J35">
         <f>SUM(Table15[Amount])</f>
-        <v>585087</v>
+        <v>592987</v>
       </c>
     </row>
   </sheetData>
@@ -16615,7 +16916,7 @@
       </c>
       <c r="B4" s="14">
         <f>Billing!W7</f>
-        <v>554210</v>
+        <v>654210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -16635,7 +16936,7 @@
       </c>
       <c r="B6" s="14">
         <f>Billing!W9</f>
-        <v>2279100</v>
+        <v>2579100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -16701,7 +17002,7 @@
   <dimension ref="B4:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16731,7 +17032,7 @@
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="72" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="J6" t="str">
         <v>Arshad</v>
@@ -16758,7 +17059,7 @@
       <c r="C8" s="74"/>
       <c r="D8" s="76" cm="1">
         <f t="array" ref="D8">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), INDEX(Billing!P5:P19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>23305</v>
+        <v>886774</v>
       </c>
       <c r="J8" t="str">
         <v>Sufi Nawaz Sahab</v>
@@ -16779,7 +17080,7 @@
       <c r="C10" s="74"/>
       <c r="D10" s="76" cm="1">
         <f t="array" ref="D10">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!Q5:Q20, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>21310.35113386979</v>
+        <v>810876.00585223129</v>
       </c>
       <c r="J10" t="str">
         <v>Raaz Fabrics</v>
@@ -16799,11 +17100,11 @@
       </c>
       <c r="C12" s="74" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$B$26), OFFSET(Billing!L26, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!$B$26))), "Not Found")</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="74" cm="1">
         <f t="array" ref="D12">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!R5:R19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>21310.35113386979</v>
+        <v>810876.00585223129</v>
       </c>
       <c r="J12" t="str">
         <v>Ubaidullah</v>
@@ -16842,7 +17143,7 @@
       <c r="C16" s="74"/>
       <c r="D16" s="76" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!V5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>255724.21360643749</v>
+        <v>8108760.058522312</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18" x14ac:dyDescent="0.35">
@@ -16857,7 +17158,7 @@
       <c r="C18" s="74"/>
       <c r="D18" s="76" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!W5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>0</v>
+        <v>6307000</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18" x14ac:dyDescent="0.35">
@@ -16872,7 +17173,7 @@
       <c r="C20" s="74"/>
       <c r="D20" s="76" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!X5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>255724.21360643749</v>
+        <v>1801760.058522312</v>
       </c>
     </row>
   </sheetData>
@@ -16936,7 +17237,7 @@
       </c>
       <c r="C4" s="11">
         <f>Wood!N14</f>
-        <v>4399885</v>
+        <v>4821335</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -16963,7 +17264,7 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(Table14[Debit], Table14[Party],Table12[[#This Row],[Type]])</f>
-        <v>56665</v>
+        <v>57465</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -16981,7 +17282,7 @@
       </c>
       <c r="C9" s="11">
         <f>Table11[[#Totals],[Amount]]+'Salary Acc'!I35</f>
-        <v>341800</v>
+        <v>376800</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -16990,7 +17291,7 @@
       </c>
       <c r="C10" s="11">
         <f>Table5[[#Totals],[Amount]]</f>
-        <v>50689</v>
+        <v>67689</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -16999,7 +17300,7 @@
       </c>
       <c r="C11" s="11">
         <f>Table13[[#Totals],[Debit]]</f>
-        <v>104220</v>
+        <v>115455</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -17008,7 +17309,7 @@
       </c>
       <c r="C12" s="11">
         <f>Table15[[#Totals],[Amount]]</f>
-        <v>585087</v>
+        <v>592987</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -17017,7 +17318,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <f>SUM(Table12[Amount])</f>
-        <v>7017096</v>
+        <v>7510481</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -17119,7 +17420,7 @@
       </c>
       <c r="C3" s="11">
         <f ca="1">Billing!C18 + SUMIFS(Table14[Credit], Table14[Party], "Transport")</f>
-        <v>7679772.3116313098</v>
+        <v>8107222.933430871</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -17131,7 +17432,7 @@
       </c>
       <c r="C4" s="11">
         <f>Table12[[#Totals],[Amount]]</f>
-        <v>7017096</v>
+        <v>7510481</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -17141,7 +17442,7 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C3-C4</f>
-        <v>662676.3116313098</v>
+        <v>596741.93343087099</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17158,7 +17459,7 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">C3</f>
-        <v>7679772.3116313098</v>
+        <v>8107222.933430871</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -17167,7 +17468,7 @@
       </c>
       <c r="C12" s="67">
         <f>SUM(Table14[Credit])</f>
-        <v>6968603</v>
+        <v>7367103</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17176,7 +17477,7 @@
       </c>
       <c r="C13" s="81">
         <f ca="1">(C11-C12)</f>
-        <v>711169.3116313098</v>
+        <v>740119.93343087099</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17189,7 +17490,7 @@
       </c>
       <c r="C15" s="65">
         <f>C4</f>
-        <v>7017096</v>
+        <v>7510481</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -17198,7 +17499,7 @@
       </c>
       <c r="C16" s="67">
         <f>SUM(Table14[Debit])</f>
-        <v>6693521</v>
+        <v>7112222</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17207,7 +17508,7 @@
       </c>
       <c r="C17" s="81">
         <f>C15-C16</f>
-        <v>323575</v>
+        <v>398259</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17220,7 +17521,7 @@
       </c>
       <c r="C19" s="84">
         <f>Table18[[#Totals],[amount]]</f>
-        <v>275082</v>
+        <v>254881</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17233,14 +17534,14 @@
       </c>
       <c r="C21" s="69">
         <f ca="1">(C13-C17)+C19</f>
-        <v>662676.3116313098</v>
+        <v>596741.93343087099</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>78</v>
       </c>
       <c r="F21" s="88">
         <f ca="1">C5*0.05</f>
-        <v>33133.81558156549</v>
+        <v>29837.09667154355</v>
       </c>
     </row>
   </sheetData>
@@ -17538,7 +17839,7 @@
       </c>
       <c r="D22">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
-        <v>0</v>
+        <v>11235</v>
       </c>
       <c r="E22">
         <f>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
@@ -17705,7 +18006,7 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUBTOTAL(109,Table13[Debit])</f>
-        <v>104220</v>
+        <v>115455</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(109,Table13[Credit])</f>
@@ -17713,7 +18014,7 @@
       </c>
       <c r="F35">
         <f>Table13[[#Totals],[Debit]]-Table13[[#Totals],[Credit]]</f>
-        <v>104220</v>
+        <v>115455</v>
       </c>
     </row>
   </sheetData>
@@ -17729,10 +18030,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB151"/>
+  <dimension ref="A1:AB155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="139" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="139" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17747,7 +18048,7 @@
     <col min="8" max="8" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="10" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
@@ -19384,7 +19685,7 @@
       </c>
       <c r="H34" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="I34" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19540,7 +19841,7 @@
       </c>
       <c r="H37" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="I37" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19800,7 +20101,7 @@
       </c>
       <c r="H42" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="I42" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19852,7 +20153,7 @@
       </c>
       <c r="H43" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="I43" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20260,7 +20561,7 @@
       </c>
       <c r="H51" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="I51" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20348,7 +20649,7 @@
         <v>21</v>
       </c>
       <c r="C53" s="29">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>90</v>
@@ -20400,7 +20701,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="29">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D54" s="29" t="s">
         <v>90</v>
@@ -20452,7 +20753,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="29">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>90</v>
@@ -20468,7 +20769,7 @@
       </c>
       <c r="H55" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="I55" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20504,7 +20805,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="29">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D56" s="29" t="s">
         <v>90</v>
@@ -20557,7 +20858,7 @@
         <v>21</v>
       </c>
       <c r="C57" s="29">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D57" s="29" t="s">
         <v>90</v>
@@ -20610,7 +20911,7 @@
         <v>37</v>
       </c>
       <c r="C58" s="29">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>90</v>
@@ -20660,7 +20961,7 @@
         <v>24</v>
       </c>
       <c r="C59" s="29">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="D59" s="29" t="s">
         <v>90</v>
@@ -20708,7 +21009,7 @@
         <v>24</v>
       </c>
       <c r="C60" s="29">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D60" s="29" t="s">
         <v>90</v>
@@ -20758,7 +21059,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="29">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D61" s="29" t="s">
         <v>90</v>
@@ -20807,7 +21108,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="29">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D62" s="29" t="s">
         <v>90</v>
@@ -20855,7 +21156,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="29">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D63" s="29" t="s">
         <v>92</v>
@@ -20903,7 +21204,7 @@
         <v>24</v>
       </c>
       <c r="C64" s="29">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D64" s="29" t="s">
         <v>92</v>
@@ -20951,7 +21252,7 @@
         <v>24</v>
       </c>
       <c r="C65" s="29">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D65" s="29" t="s">
         <v>92</v>
@@ -20999,7 +21300,7 @@
         <v>21</v>
       </c>
       <c r="C66" s="29">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D66" s="29" t="s">
         <v>90</v>
@@ -21047,7 +21348,7 @@
         <v>21</v>
       </c>
       <c r="C67" s="29">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D67" s="29" t="s">
         <v>90</v>
@@ -21095,7 +21396,7 @@
         <v>21</v>
       </c>
       <c r="C68" s="29">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D68" s="29" t="s">
         <v>90</v>
@@ -21111,7 +21412,7 @@
       </c>
       <c r="H68" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="I68" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21143,7 +21444,7 @@
         <v>21</v>
       </c>
       <c r="C69" s="29">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>90</v>
@@ -21159,7 +21460,7 @@
       </c>
       <c r="H69" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>25.783529992498686</v>
+        <v>18.010748246585834</v>
       </c>
       <c r="I69" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21191,7 +21492,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="29">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D70" s="29" t="s">
         <v>90</v>
@@ -21207,7 +21508,7 @@
       </c>
       <c r="H70" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>67.784068815401199</v>
+        <v>45.90798194165059</v>
       </c>
       <c r="I70" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21237,7 +21538,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="29">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D71" s="29" t="s">
         <v>90</v>
@@ -21253,7 +21554,7 @@
       </c>
       <c r="H71" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>61.341151421947224</v>
+        <v>2.7145063016086368</v>
       </c>
       <c r="I71" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21276,42 +21577,162 @@
       <c r="S71"/>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50" cm="1">
-        <f t="array" aca="1" ref="I72" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>762713.05779078288</v>
-      </c>
-      <c r="J72" s="50" cm="1">
-        <f t="array" aca="1" ref="J72" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>7679772.3116313117</v>
-      </c>
-      <c r="K72" s="33">
-        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
-        <v>7679772.3116313117</v>
-      </c>
+      <c r="A72" s="28">
+        <v>45905</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="29">
+        <v>782</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="11">
+        <v>1655</v>
+      </c>
+      <c r="F72" s="11">
+        <v>167135</v>
+      </c>
+      <c r="G72" s="11">
+        <v>14207</v>
+      </c>
+      <c r="H72" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>18.010748246585834</v>
+      </c>
+      <c r="I72" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>12991.038771031457</v>
+      </c>
+      <c r="J72" s="32" cm="1">
+        <f t="array" ref="J72">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>129910.38771031456</v>
+      </c>
+      <c r="K72" s="29"/>
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
       <c r="S72"/>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="28">
+        <v>45905</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="29">
+        <v>783</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="11">
+        <v>1676</v>
+      </c>
+      <c r="F73" s="11">
+        <v>30009</v>
+      </c>
+      <c r="G73" s="11">
+        <v>19240</v>
+      </c>
+      <c r="H73" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>2.7145063016086368</v>
+      </c>
+      <c r="I73" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>17593.269934162399</v>
+      </c>
+      <c r="J73" s="32" cm="1">
+        <f t="array" ref="J73">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>175932.69934162399</v>
+      </c>
+      <c r="K73" s="29"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="28">
+        <v>45905</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="29">
+        <v>784</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="11">
+        <v>1657</v>
+      </c>
+      <c r="F74" s="11">
+        <v>55576</v>
+      </c>
+      <c r="G74" s="11">
+        <v>13299</v>
+      </c>
+      <c r="H74" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>45.90798194165059</v>
+      </c>
+      <c r="I74" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>12160.753474762254</v>
+      </c>
+      <c r="J74" s="32" cm="1">
+        <f t="array" ref="J74">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>121607.53474762254</v>
+      </c>
+      <c r="K74" s="29"/>
       <c r="O74"/>
       <c r="P74"/>
       <c r="Q74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50" cm="1">
+        <f t="array" aca="1" ref="I75" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>805458.11997073889</v>
+      </c>
+      <c r="J75" s="50" cm="1">
+        <f t="array" aca="1" ref="J75" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>8107222.9334308729</v>
+      </c>
+      <c r="K75" s="33">
+        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
+        <v>8107222.9334308729</v>
+      </c>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
@@ -21903,14 +22324,12 @@
       <c r="G106" s="106">
         <v>35371.250914411125</v>
       </c>
-      <c r="I106" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J106" s="50">
-        <v>1735582.4798829553</v>
-      </c>
+      <c r="I106" s="27">
+        <v>45905</v>
+      </c>
+      <c r="J106" s="50"/>
       <c r="K106" s="14">
-        <v>17370814.283101685</v>
+        <v>0</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -21929,6 +22348,15 @@
       <c r="G107" s="106">
         <v>205541.33138258965</v>
       </c>
+      <c r="I107" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J107" s="50">
+        <v>1735582.4798829553</v>
+      </c>
+      <c r="K107" s="14">
+        <v>17370814.283101685</v>
+      </c>
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
@@ -22316,13 +22744,13 @@
         <v>762</v>
       </c>
       <c r="E132" s="106">
-        <v>9796</v>
+        <v>7020</v>
       </c>
       <c r="F132" s="33">
-        <v>8957.5713240673012</v>
+        <v>6419.1660570592539</v>
       </c>
       <c r="G132" s="106">
-        <v>102414.04535479151</v>
+        <v>77029.992684711047</v>
       </c>
     </row>
     <row r="133" spans="4:7" x14ac:dyDescent="0.3">
@@ -22330,13 +22758,13 @@
         <v>763</v>
       </c>
       <c r="E133" s="106">
-        <v>25394</v>
+        <v>2776</v>
       </c>
       <c r="F133" s="33">
-        <v>23220.555961960501</v>
+        <v>2538.4052670080468</v>
       </c>
       <c r="G133" s="106">
-        <v>232205.55961960502</v>
+        <v>25384.052670080469</v>
       </c>
     </row>
     <row r="134" spans="4:7" x14ac:dyDescent="0.3">
@@ -22344,13 +22772,13 @@
         <v>764</v>
       </c>
       <c r="E134" s="106">
-        <v>10496</v>
+        <v>25394</v>
       </c>
       <c r="F134" s="33">
-        <v>9597.6591075347478</v>
+        <v>23220.555961960501</v>
       </c>
       <c r="G134" s="106">
-        <v>95976.591075347475</v>
+        <v>232205.55961960502</v>
       </c>
     </row>
     <row r="135" spans="4:7" x14ac:dyDescent="0.3">
@@ -22358,13 +22786,13 @@
         <v>765</v>
       </c>
       <c r="E135" s="106">
-        <v>9552</v>
+        <v>10496</v>
       </c>
       <c r="F135" s="33">
-        <v>8734.4550109729335</v>
+        <v>9597.6591075347478</v>
       </c>
       <c r="G135" s="106">
-        <v>87344.550109729331</v>
+        <v>95976.591075347475</v>
       </c>
     </row>
     <row r="136" spans="4:7" x14ac:dyDescent="0.3">
@@ -22372,13 +22800,13 @@
         <v>766</v>
       </c>
       <c r="E136" s="106">
-        <v>13908</v>
+        <v>9552</v>
       </c>
       <c r="F136" s="33">
-        <v>12717.629846378934</v>
+        <v>8734.4550109729335</v>
       </c>
       <c r="G136" s="106">
-        <v>127176.29846378934</v>
+        <v>87344.550109729331</v>
       </c>
     </row>
     <row r="137" spans="4:7" x14ac:dyDescent="0.3">
@@ -22386,13 +22814,13 @@
         <v>767</v>
       </c>
       <c r="E137" s="106">
-        <v>10672</v>
+        <v>13908</v>
       </c>
       <c r="F137" s="33">
-        <v>9758.5954645208494</v>
+        <v>12717.629846378934</v>
       </c>
       <c r="G137" s="106">
-        <v>97585.954645208491</v>
+        <v>127176.29846378934</v>
       </c>
     </row>
     <row r="138" spans="4:7" x14ac:dyDescent="0.3">
@@ -22400,13 +22828,13 @@
         <v>768</v>
       </c>
       <c r="E138" s="106">
-        <v>15800</v>
+        <v>10672</v>
       </c>
       <c r="F138" s="33">
-        <v>14447.695683979518</v>
+        <v>9758.5954645208494</v>
       </c>
       <c r="G138" s="106">
-        <v>130029.26115581566</v>
+        <v>97585.954645208491</v>
       </c>
     </row>
     <row r="139" spans="4:7" x14ac:dyDescent="0.3">
@@ -22414,13 +22842,13 @@
         <v>769</v>
       </c>
       <c r="E139" s="106">
-        <v>6612</v>
+        <v>15800</v>
       </c>
       <c r="F139" s="33">
-        <v>6046.0863204096568</v>
+        <v>14447.695683979518</v>
       </c>
       <c r="G139" s="106">
-        <v>54414.776883686907</v>
+        <v>130029.26115581566</v>
       </c>
     </row>
     <row r="140" spans="4:7" x14ac:dyDescent="0.3">
@@ -22428,13 +22856,13 @@
         <v>770</v>
       </c>
       <c r="E140" s="106">
-        <v>10650</v>
+        <v>6612</v>
       </c>
       <c r="F140" s="33">
-        <v>9738.4784198975867</v>
+        <v>6046.0863204096568</v>
       </c>
       <c r="G140" s="106">
-        <v>97384.78419897586</v>
+        <v>54414.776883686907</v>
       </c>
     </row>
     <row r="141" spans="4:7" x14ac:dyDescent="0.3">
@@ -22442,13 +22870,13 @@
         <v>771</v>
       </c>
       <c r="E141" s="106">
-        <v>17302</v>
+        <v>10650</v>
       </c>
       <c r="F141" s="33">
-        <v>15821.141185076813</v>
+        <v>9738.4784198975867</v>
       </c>
       <c r="G141" s="106">
-        <v>142390.27066569132</v>
+        <v>97384.78419897586</v>
       </c>
     </row>
     <row r="142" spans="4:7" x14ac:dyDescent="0.3">
@@ -22456,13 +22884,13 @@
         <v>772</v>
       </c>
       <c r="E142" s="106">
-        <v>8444</v>
+        <v>17302</v>
       </c>
       <c r="F142" s="33">
-        <v>7721.2874908558897</v>
+        <v>15821.141185076813</v>
       </c>
       <c r="G142" s="106">
-        <v>92655.449890270684</v>
+        <v>142390.27066569132</v>
       </c>
     </row>
     <row r="143" spans="4:7" x14ac:dyDescent="0.3">
@@ -22470,13 +22898,13 @@
         <v>773</v>
       </c>
       <c r="E143" s="106">
-        <v>24391</v>
+        <v>8444</v>
       </c>
       <c r="F143" s="33">
-        <v>22303.401609363573</v>
+        <v>7721.2874908558897</v>
       </c>
       <c r="G143" s="106">
-        <v>267640.81931236287</v>
+        <v>92655.449890270684</v>
       </c>
     </row>
     <row r="144" spans="4:7" x14ac:dyDescent="0.3">
@@ -22484,13 +22912,13 @@
         <v>774</v>
       </c>
       <c r="E144" s="106">
-        <v>5084</v>
+        <v>24391</v>
       </c>
       <c r="F144" s="33">
-        <v>4648.8661302121436</v>
+        <v>22303.401609363573</v>
       </c>
       <c r="G144" s="106">
-        <v>55786.393562545723</v>
+        <v>267640.81931236287</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.3">
@@ -22498,13 +22926,13 @@
         <v>775</v>
       </c>
       <c r="E145" s="106">
-        <v>4760</v>
+        <v>5084</v>
       </c>
       <c r="F145" s="33">
-        <v>4352.5969275786401</v>
+        <v>4648.8661302121436</v>
       </c>
       <c r="G145" s="106">
-        <v>43525.969275786403</v>
+        <v>55786.393562545723</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.3">
@@ -22512,13 +22940,13 @@
         <v>776</v>
       </c>
       <c r="E146" s="106">
-        <v>888</v>
+        <v>4760</v>
       </c>
       <c r="F146" s="33">
-        <v>811.99707388441846</v>
+        <v>4352.5969275786401</v>
       </c>
       <c r="G146" s="106">
-        <v>8119.9707388441848</v>
+        <v>43525.969275786403</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.3">
@@ -22526,13 +22954,13 @@
         <v>777</v>
       </c>
       <c r="E147" s="106">
-        <v>7900</v>
+        <v>888</v>
       </c>
       <c r="F147" s="33">
-        <v>7223.8478419897592</v>
+        <v>811.99707388441846</v>
       </c>
       <c r="G147" s="106">
-        <v>72238.478419897598</v>
+        <v>8119.9707388441848</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.3">
@@ -22540,13 +22968,13 @@
         <v>778</v>
       </c>
       <c r="E148" s="106">
-        <v>17788</v>
+        <v>7900</v>
       </c>
       <c r="F148" s="33">
-        <v>16265.544989027068</v>
+        <v>7223.8478419897592</v>
       </c>
       <c r="G148" s="106">
-        <v>162655.44989027068</v>
+        <v>72238.478419897598</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.3">
@@ -22554,13 +22982,13 @@
         <v>779</v>
       </c>
       <c r="E149" s="106">
-        <v>19577</v>
+        <v>17788</v>
       </c>
       <c r="F149" s="33">
-        <v>17901.426481346014</v>
+        <v>16265.544989027068</v>
       </c>
       <c r="G149" s="106">
-        <v>179014.26481346015</v>
+        <v>162655.44989027068</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.3">
@@ -22568,26 +22996,76 @@
         <v>780</v>
       </c>
       <c r="E150" s="106">
+        <v>19577</v>
+      </c>
+      <c r="F150" s="33">
+        <v>17901.426481346014</v>
+      </c>
+      <c r="G150" s="106">
+        <v>179014.26481346015</v>
+      </c>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D151" s="16">
+        <v>781</v>
+      </c>
+      <c r="E151" s="106">
         <v>12687</v>
       </c>
-      <c r="F150" s="33">
+      <c r="F151" s="33">
         <v>11601.133869787858</v>
       </c>
-      <c r="G150" s="106">
+      <c r="G151" s="106">
         <v>116011.33869787859</v>
       </c>
     </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D151" s="16" t="s">
+    <row r="152" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D152" s="16">
+        <v>782</v>
+      </c>
+      <c r="E152" s="106">
+        <v>14207</v>
+      </c>
+      <c r="F152" s="33"/>
+      <c r="G152" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D153" s="16">
+        <v>783</v>
+      </c>
+      <c r="E153" s="106">
+        <v>19240</v>
+      </c>
+      <c r="F153" s="33"/>
+      <c r="G153" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D154" s="16">
+        <v>784</v>
+      </c>
+      <c r="E154" s="106">
+        <v>13299</v>
+      </c>
+      <c r="F154" s="33"/>
+      <c r="G154" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D155" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E151" s="106">
-        <v>838357</v>
-      </c>
-      <c r="F151" s="33">
-        <v>1735582.4798829551</v>
-      </c>
-      <c r="G151" s="106">
+      <c r="E155" s="106">
+        <v>885103</v>
+      </c>
+      <c r="F155" s="33">
+        <v>1735582.4798829553</v>
+      </c>
+      <c r="G155" s="106">
         <v>17370814.283101682</v>
       </c>
     </row>
@@ -22614,10 +23092,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="122" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A22" zoomScale="122" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23051,7 +23529,7 @@
       </c>
       <c r="N14" s="17">
         <f>SUM(Table3[Total])</f>
-        <v>4399885</v>
+        <v>4821335</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -23551,19 +24029,19 @@
         <v>271</v>
       </c>
       <c r="E32" s="11">
-        <v>765</v>
+        <v>810</v>
       </c>
       <c r="F32" s="11">
         <v>44750</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="9"/>
-        <v>207315</v>
+        <v>219510</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11">
         <f>(D32*E32)-Table3[[#This Row],[Paid]]</f>
-        <v>207315</v>
+        <v>219510</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -23580,14 +24058,14 @@
         <v>266</v>
       </c>
       <c r="E33" s="11">
-        <v>765</v>
+        <v>810</v>
       </c>
       <c r="F33" s="11">
         <v>43300</v>
       </c>
       <c r="G33" s="11">
         <f t="shared" ref="G33:G34" si="10">D33*E33</f>
-        <v>203490</v>
+        <v>215460</v>
       </c>
       <c r="H33" s="11">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
@@ -23595,7 +24073,7 @@
       </c>
       <c r="I33" s="11">
         <f>(D33*E33)-Table3[[#This Row],[Paid]]</f>
-        <v>-87060</v>
+        <v>-75090</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -23603,7 +24081,7 @@
         <v>45904</v>
       </c>
       <c r="B34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" t="s">
         <v>106</v>
@@ -23633,7 +24111,7 @@
         <v>45904</v>
       </c>
       <c r="B35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C35" t="s">
         <v>106</v>
@@ -23660,271 +24138,342 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>45904</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+        <v>45905</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36">
+        <v>160</v>
+      </c>
+      <c r="D36" s="11">
+        <v>284</v>
+      </c>
+      <c r="E36" s="11">
+        <v>810</v>
+      </c>
+      <c r="F36" s="11">
+        <v>44700</v>
+      </c>
       <c r="G36" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>230040</v>
       </c>
       <c r="H36" s="11">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
-        <v>0</v>
+        <v>279800</v>
       </c>
       <c r="I36" s="11">
         <f>(D36*E36)-Table3[[#This Row],[Paid]]</f>
-        <v>0</v>
+        <v>-49760</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37">
+        <v>1973</v>
+      </c>
+      <c r="D37" s="11">
+        <v>187</v>
+      </c>
+      <c r="E37" s="11">
+        <v>765</v>
+      </c>
+      <c r="F37" s="11">
+        <v>33000</v>
+      </c>
+      <c r="G37" s="11">
+        <f>D37*E37</f>
+        <v>143055</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11">
+        <f>(D37*E37)-Table3[[#This Row],[Paid]]</f>
+        <v>143055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="11">
+        <v>41</v>
+      </c>
+      <c r="E38" s="11">
+        <v>590</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11">
+        <f>D38*E38</f>
+        <v>24190</v>
+      </c>
+      <c r="H38" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>51330</v>
+      </c>
+      <c r="I38" s="11">
+        <f>(D38*E38)-Table3[[#This Row],[Paid]]</f>
+        <v>-27140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14">
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14">
         <f>SUBTOTAL(109,Table3[Total])</f>
-        <v>4399885</v>
-      </c>
-      <c r="H37" s="14">
+        <v>4821335</v>
+      </c>
+      <c r="H39" s="14">
         <f>SUBTOTAL(109,Table3[Paid])</f>
-        <v>3460150</v>
-      </c>
-      <c r="I37" s="14">
+        <v>3791280</v>
+      </c>
+      <c r="I39" s="14">
         <f>SUBTOTAL(109,Table3[balance])</f>
-        <v>2165182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E40" s="3" t="s">
+        <v>2255502</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F44" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E42" s="3" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F46" t="s">
         <v>109</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G46" t="s">
         <v>110</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H46" t="s">
         <v>111</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I46" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E43" s="27">
-        <v>45882</v>
-      </c>
-      <c r="F43" s="14">
-        <v>100</v>
-      </c>
-      <c r="G43" s="14">
-        <v>70000</v>
-      </c>
-      <c r="H43" s="14">
-        <v>0</v>
-      </c>
-      <c r="I43" s="14">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E44" s="49">
-        <v>1055</v>
-      </c>
-      <c r="F44" s="14">
-        <v>100</v>
-      </c>
-      <c r="G44" s="14">
-        <v>70000</v>
-      </c>
-      <c r="H44" s="14">
-        <v>0</v>
-      </c>
-      <c r="I44" s="14">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E45" s="27">
-        <v>45885</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14">
-        <v>0</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14">
-        <v>-27400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E46" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14">
-        <v>0</v>
-      </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14">
-        <v>-27400</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E47" s="27">
-        <v>45893</v>
+        <v>45882</v>
       </c>
       <c r="F47" s="14">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G47" s="14">
-        <v>20300</v>
+        <v>70000</v>
       </c>
       <c r="H47" s="14">
         <v>0</v>
       </c>
       <c r="I47" s="14">
-        <v>20300</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E48" s="49" t="s">
-        <v>106</v>
+      <c r="E48" s="49">
+        <v>1055</v>
       </c>
       <c r="F48" s="14">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="G48" s="14">
-        <v>20300</v>
+        <v>70000</v>
       </c>
       <c r="H48" s="14">
         <v>0</v>
       </c>
       <c r="I48" s="14">
-        <v>20300</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E49" s="27">
-        <v>45896</v>
-      </c>
-      <c r="F49" s="14">
-        <v>133</v>
-      </c>
+        <v>45885</v>
+      </c>
+      <c r="F49" s="14"/>
       <c r="G49" s="14">
-        <v>93100</v>
-      </c>
-      <c r="H49" s="14">
-        <v>75000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" s="14"/>
       <c r="I49" s="14">
-        <v>18100</v>
+        <v>-27400</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E50" s="49">
-        <v>5946</v>
-      </c>
-      <c r="F50" s="14">
-        <v>133</v>
-      </c>
+      <c r="E50" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="14"/>
       <c r="G50" s="14">
-        <v>93100</v>
-      </c>
-      <c r="H50" s="14">
-        <v>75000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" s="14"/>
       <c r="I50" s="14">
-        <v>18100</v>
+        <v>-27400</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E51" s="27">
-        <v>45899</v>
-      </c>
-      <c r="F51" s="14"/>
+        <v>45893</v>
+      </c>
+      <c r="F51" s="14">
+        <v>29</v>
+      </c>
       <c r="G51" s="14">
-        <v>0</v>
+        <v>20300</v>
       </c>
       <c r="H51" s="14">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I51" s="14">
-        <v>-40000</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="52" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E52" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="14"/>
+        <v>106</v>
+      </c>
+      <c r="F52" s="14">
+        <v>29</v>
+      </c>
       <c r="G52" s="14">
-        <v>0</v>
+        <v>20300</v>
       </c>
       <c r="H52" s="14">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="14">
-        <v>-40000</v>
+        <v>20300</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E53" s="27">
+        <v>45896</v>
+      </c>
+      <c r="F53" s="14">
+        <v>133</v>
+      </c>
+      <c r="G53" s="14">
+        <v>93100</v>
+      </c>
+      <c r="H53" s="14">
+        <v>75000</v>
+      </c>
+      <c r="I53" s="14">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E54" s="49">
+        <v>5946</v>
+      </c>
+      <c r="F54" s="14">
+        <v>133</v>
+      </c>
+      <c r="G54" s="14">
+        <v>93100</v>
+      </c>
+      <c r="H54" s="14">
+        <v>75000</v>
+      </c>
+      <c r="I54" s="14">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E55" s="27">
+        <v>45899</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>40000</v>
+      </c>
+      <c r="I55" s="14">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E56" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14">
+        <v>0</v>
+      </c>
+      <c r="H56" s="14">
+        <v>40000</v>
+      </c>
+      <c r="I56" s="14">
+        <v>-40000</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E57" s="27">
         <v>45903</v>
       </c>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14">
-        <v>0</v>
-      </c>
-      <c r="H53" s="14">
+      <c r="F57" s="14"/>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
         <v>30000</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I57" s="14">
         <v>-30000</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E54" s="49" t="s">
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E58" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14">
-        <v>0</v>
-      </c>
-      <c r="H54" s="14">
+      <c r="F58" s="14"/>
+      <c r="G58" s="14">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
         <v>30000</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I58" s="14">
         <v>-30000</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E55" s="27" t="s">
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E59" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F59" s="14">
         <v>262</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G59" s="14">
         <v>183400</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H59" s="14">
         <v>145000</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I59" s="14">
         <v>11000</v>
       </c>
     </row>
@@ -23948,10 +24497,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBC7D8-36BA-4EBA-8685-891B9162141F}">
-  <dimension ref="A1:P284"/>
+  <dimension ref="A1:P301"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="D177" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A300" sqref="A300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24072,14 +24621,14 @@
       </c>
       <c r="K4" s="54">
         <f>Table14[[#Totals],[Debit]]</f>
-        <v>6693521</v>
+        <v>7112222</v>
       </c>
       <c r="M4" s="53" t="s">
         <v>117</v>
       </c>
       <c r="N4" s="59">
         <f>SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer")</f>
-        <v>335000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -24104,14 +24653,14 @@
       </c>
       <c r="K5" s="54">
         <f>Table14[[#Totals],[Credit]]</f>
-        <v>6968603</v>
+        <v>7367103</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="54">
         <f>(SUMIFS(Table14[Credit],Table14[Mode],"Bank")-SUMIFS(Table14[Debit],Table14[Mode],"Bank")-SUMIFS(Table14[Withdrawal],Table14[Mode],"Transfer"))</f>
-        <v>267025</v>
+        <v>248124</v>
       </c>
       <c r="O5">
         <v>320</v>
@@ -24139,14 +24688,14 @@
       </c>
       <c r="K6" s="61">
         <f>(K5-K4)</f>
-        <v>275082</v>
+        <v>254881</v>
       </c>
       <c r="M6" s="53" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="54">
         <f>((SUMIFS(Table14[Credit],Table14[Mode],"Cash")-SUMIFS(Table14[Debit],Table14[Mode],"Cash"))+SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer"))</f>
-        <v>8057</v>
+        <v>6757</v>
       </c>
       <c r="O6">
         <v>1520</v>
@@ -24174,7 +24723,7 @@
       </c>
       <c r="N7" s="57">
         <f>SUM(N5:N6)</f>
-        <v>275082</v>
+        <v>254881</v>
       </c>
       <c r="O7" s="100">
         <f>SUM(O5,O6)</f>
@@ -24182,7 +24731,7 @@
       </c>
       <c r="P7" s="14">
         <f>Table18[[#Totals],[amount]]-Table18[[#Totals],[Actual]]</f>
-        <v>273242</v>
+        <v>253041</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -26888,7 +27437,7 @@
       </c>
       <c r="K164" s="14"/>
       <c r="L164" s="14">
-        <v>166000</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -26909,7 +27458,7 @@
         <v>9</v>
       </c>
       <c r="K165" s="14">
-        <v>454210</v>
+        <v>554210</v>
       </c>
       <c r="L165" s="14"/>
     </row>
@@ -27027,7 +27576,7 @@
       </c>
       <c r="K170" s="14"/>
       <c r="L170" s="14">
-        <v>3315150</v>
+        <v>3594950</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -27052,7 +27601,7 @@
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14">
-        <v>56665</v>
+        <v>57465</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -27077,7 +27626,7 @@
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14">
-        <v>505087</v>
+        <v>512987</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -27100,7 +27649,7 @@
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14">
-        <v>50689</v>
+        <v>67689</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -27150,7 +27699,7 @@
       </c>
       <c r="K175" s="14"/>
       <c r="L175" s="14">
-        <v>104220</v>
+        <v>115455</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -27251,7 +27800,7 @@
         <v>178</v>
       </c>
       <c r="K179" s="14">
-        <v>6100</v>
+        <v>4600</v>
       </c>
       <c r="L179" s="14">
         <v>4600</v>
@@ -27281,7 +27830,7 @@
         <v>129420</v>
       </c>
       <c r="L180" s="14">
-        <v>72950</v>
+        <v>118586</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -27369,7 +27918,7 @@
         <v>24</v>
       </c>
       <c r="K184" s="14">
-        <v>1979100</v>
+        <v>2279100</v>
       </c>
       <c r="L184" s="14"/>
     </row>
@@ -27614,13 +28163,11 @@
         <v>118</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K194" s="14">
-        <v>6968603</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="K194" s="14"/>
       <c r="L194" s="14">
-        <v>6693521</v>
+        <v>51330</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -27639,6 +28186,15 @@
       </c>
       <c r="F195" s="52" t="s">
         <v>118</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K195" s="14">
+        <v>7367103</v>
+      </c>
+      <c r="L195" s="14">
+        <v>7112222</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -27766,7 +28322,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A203" s="102">
+      <c r="A203" s="97">
         <v>45899</v>
       </c>
       <c r="B203" t="s">
@@ -28078,18 +28634,18 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="97">
+      <c r="A221" s="102">
         <v>45901</v>
       </c>
       <c r="B221" t="s">
-        <v>53</v>
-      </c>
-      <c r="C221" s="11">
-        <v>1700</v>
-      </c>
-      <c r="D221" s="11"/>
+        <v>24</v>
+      </c>
+      <c r="C221" s="11"/>
+      <c r="D221" s="11">
+        <v>300000</v>
+      </c>
       <c r="E221" t="s">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="F221" s="52" t="s">
         <v>118</v>
@@ -28097,221 +28653,221 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="97">
+        <v>45901</v>
+      </c>
+      <c r="B222" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="11">
+        <v>1700</v>
+      </c>
+      <c r="D222" s="11"/>
+      <c r="E222" t="s">
+        <v>261</v>
+      </c>
+      <c r="F222" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="97">
         <v>45902</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>126</v>
       </c>
-      <c r="C222" s="11">
+      <c r="C223" s="11">
         <v>3700</v>
       </c>
-      <c r="D222" s="11"/>
-      <c r="F222" s="52" t="s">
+      <c r="D223" s="11"/>
+      <c r="F223" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="43">
-        <v>45902</v>
-      </c>
-      <c r="B223" t="s">
-        <v>103</v>
-      </c>
-      <c r="C223" s="47">
-        <v>40000</v>
-      </c>
-      <c r="D223" s="47"/>
-      <c r="E223" t="s">
-        <v>265</v>
-      </c>
-      <c r="F223" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="97">
+      <c r="A224" s="43">
         <v>45902</v>
       </c>
       <c r="B224" t="s">
         <v>103</v>
       </c>
-      <c r="C224" s="11">
-        <v>303000</v>
-      </c>
-      <c r="D224" s="11"/>
+      <c r="C224" s="47">
+        <v>40000</v>
+      </c>
+      <c r="D224" s="47"/>
       <c r="E224" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="F224" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="43">
+      <c r="A225" s="97">
         <v>45902</v>
       </c>
       <c r="B225" t="s">
+        <v>103</v>
+      </c>
+      <c r="C225" s="11">
+        <v>303000</v>
+      </c>
+      <c r="D225" s="11"/>
+      <c r="E225" t="s">
+        <v>129</v>
+      </c>
+      <c r="F225" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B226" t="s">
         <v>119</v>
       </c>
-      <c r="C225" s="11"/>
-      <c r="D225" s="11"/>
-      <c r="F225" s="52" t="s">
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="F226" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="G225">
+      <c r="G226">
         <v>80000</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="97">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="97">
         <v>45902</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>103</v>
       </c>
-      <c r="C226" s="11">
+      <c r="C227" s="11">
         <v>31500</v>
-      </c>
-      <c r="D226" s="11"/>
-      <c r="E226" t="s">
-        <v>266</v>
-      </c>
-      <c r="F226" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="43">
-        <v>45902</v>
-      </c>
-      <c r="B227" t="s">
-        <v>53</v>
-      </c>
-      <c r="C227" s="11">
-        <v>230</v>
       </c>
       <c r="D227" s="11"/>
       <c r="E227" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F227" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="97">
+      <c r="A228" s="43">
         <v>45902</v>
       </c>
       <c r="B228" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C228" s="11">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="D228" s="11"/>
       <c r="E228" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F228" s="52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="43">
+      <c r="A229" s="97">
         <v>45902</v>
       </c>
       <c r="B229" t="s">
         <v>57</v>
       </c>
       <c r="C229" s="11">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D229" s="11"/>
       <c r="E229" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="F229" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="97">
+      <c r="A230" s="43">
         <v>45902</v>
       </c>
       <c r="B230" t="s">
         <v>57</v>
       </c>
       <c r="C230" s="11">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D230" s="11"/>
       <c r="E230" t="s">
+        <v>131</v>
+      </c>
+      <c r="F230" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="97">
+        <v>45902</v>
+      </c>
+      <c r="B231" t="s">
+        <v>57</v>
+      </c>
+      <c r="C231" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D231" s="11"/>
+      <c r="E231" t="s">
         <v>269</v>
       </c>
-      <c r="F230" s="52" t="s">
+      <c r="F231" s="52" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="43">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="43">
         <v>45902</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>58</v>
       </c>
-      <c r="C231" s="11">
+      <c r="C232" s="11">
         <v>1170</v>
       </c>
-      <c r="D231" s="11"/>
-      <c r="F231" s="52" t="s">
+      <c r="D232" s="11"/>
+      <c r="F232" s="52" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="97">
-        <v>45902</v>
-      </c>
-      <c r="B232" t="s">
-        <v>103</v>
-      </c>
-      <c r="C232" s="11">
-        <v>41000</v>
-      </c>
-      <c r="D232" s="11"/>
-      <c r="E232" t="s">
-        <v>270</v>
-      </c>
-      <c r="F232" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="43">
+      <c r="A233" s="97">
         <v>45902</v>
       </c>
       <c r="B233" t="s">
         <v>103</v>
       </c>
       <c r="C233" s="11">
-        <v>7000</v>
+        <v>41000</v>
       </c>
       <c r="D233" s="11"/>
       <c r="E233" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F233" s="52" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="97">
+      <c r="A234" s="43">
         <v>45902</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C234" s="11">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="D234" s="11"/>
       <c r="E234" t="s">
@@ -28322,175 +28878,175 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="43">
+      <c r="A235" s="97">
         <v>45902</v>
       </c>
       <c r="B235" t="s">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="C235" s="11">
-        <v>8400</v>
+        <v>1000</v>
       </c>
       <c r="D235" s="11"/>
       <c r="E235" t="s">
+        <v>271</v>
+      </c>
+      <c r="F235" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="43">
+        <v>45902</v>
+      </c>
+      <c r="B236" t="s">
+        <v>195</v>
+      </c>
+      <c r="C236" s="11">
+        <v>8400</v>
+      </c>
+      <c r="D236" s="11"/>
+      <c r="E236" t="s">
         <v>272</v>
-      </c>
-      <c r="F235" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" s="97">
-        <v>45902</v>
-      </c>
-      <c r="B236" t="s">
-        <v>21</v>
-      </c>
-      <c r="C236" s="11"/>
-      <c r="D236" s="11">
-        <v>6900</v>
       </c>
       <c r="F236" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A237" s="43">
+      <c r="A237" s="97">
         <v>45902</v>
       </c>
       <c r="B237" t="s">
-        <v>58</v>
-      </c>
-      <c r="C237" s="11">
-        <v>15000</v>
-      </c>
-      <c r="D237" s="11"/>
-      <c r="E237" t="s">
-        <v>273</v>
+        <v>21</v>
+      </c>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11">
+        <v>6900</v>
       </c>
       <c r="F237" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="97">
+      <c r="A238" s="43">
         <v>45902</v>
       </c>
       <c r="B238" t="s">
         <v>58</v>
       </c>
       <c r="C238" s="11">
-        <v>3300</v>
+        <v>15000</v>
       </c>
       <c r="D238" s="11"/>
       <c r="E238" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F238" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" s="43">
+      <c r="A239" s="97">
         <v>45902</v>
       </c>
       <c r="B239" t="s">
         <v>58</v>
       </c>
       <c r="C239" s="11">
-        <v>1600</v>
+        <v>3300</v>
       </c>
       <c r="D239" s="11"/>
       <c r="E239" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F239" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="97">
+      <c r="A240" s="43">
         <v>45902</v>
       </c>
       <c r="B240" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C240" s="11">
         <v>1600</v>
       </c>
       <c r="D240" s="11"/>
       <c r="E240" t="s">
-        <v>176</v>
+        <v>275</v>
       </c>
       <c r="F240" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="43">
+      <c r="A241" s="97">
         <v>45902</v>
       </c>
       <c r="B241" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C241" s="11">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="D241" s="11"/>
+      <c r="E241" t="s">
+        <v>176</v>
+      </c>
       <c r="F241" s="52" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="97">
+      <c r="A242" s="43">
         <v>45902</v>
       </c>
       <c r="B242" t="s">
-        <v>119</v>
-      </c>
-      <c r="C242" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C242" s="11">
+        <v>1200</v>
+      </c>
       <c r="D242" s="11"/>
       <c r="F242" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="97">
+        <v>45902</v>
+      </c>
+      <c r="B243" t="s">
+        <v>119</v>
+      </c>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
+      <c r="F243" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="G242">
+      <c r="G243">
         <v>25000</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="43">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="43">
         <v>45902</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>195</v>
       </c>
-      <c r="C243" s="11">
+      <c r="C244" s="11">
         <v>25000</v>
       </c>
-      <c r="D243" s="11"/>
-      <c r="E243" t="s">
+      <c r="D244" s="11"/>
+      <c r="E244" t="s">
         <v>177</v>
       </c>
-      <c r="F243" s="52" t="s">
+      <c r="F244" s="52" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="97">
-        <v>45902</v>
-      </c>
-      <c r="B244" t="s">
-        <v>187</v>
-      </c>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11">
-        <v>1500</v>
-      </c>
-      <c r="E244" t="s">
-        <v>276</v>
-      </c>
-      <c r="F244" s="52" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
@@ -28520,7 +29076,7 @@
       </c>
       <c r="D246" s="11"/>
       <c r="E246" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F246" s="52" t="s">
         <v>118</v>
@@ -28622,7 +29178,7 @@
       </c>
       <c r="D252" s="11"/>
       <c r="E252" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F252" s="52" t="s">
         <v>118</v>
@@ -28640,7 +29196,7 @@
         <v>180</v>
       </c>
       <c r="E253" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F253" s="52" t="s">
         <v>118</v>
@@ -28658,7 +29214,7 @@
       </c>
       <c r="D254" s="11"/>
       <c r="E254" s="101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F254" s="52" t="s">
         <v>118</v>
@@ -28676,7 +29232,7 @@
       </c>
       <c r="D255" s="11"/>
       <c r="E255" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F255" s="52" t="s">
         <v>118</v>
@@ -28694,7 +29250,7 @@
       </c>
       <c r="D256" s="47"/>
       <c r="E256" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F256" s="52" t="s">
         <v>118</v>
@@ -28712,7 +29268,7 @@
       </c>
       <c r="D257" s="11"/>
       <c r="E257" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F257" s="52" t="s">
         <v>118</v>
@@ -28748,7 +29304,7 @@
       </c>
       <c r="D259" s="11"/>
       <c r="E259" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F259" s="52" t="s">
         <v>118</v>
@@ -28784,7 +29340,7 @@
         <v>27000</v>
       </c>
       <c r="E261" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F261" s="52" t="s">
         <v>118</v>
@@ -28802,7 +29358,7 @@
       </c>
       <c r="D262" s="11"/>
       <c r="E262" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F262" s="52" t="s">
         <v>118</v>
@@ -28836,7 +29392,7 @@
       </c>
       <c r="D264" s="11"/>
       <c r="E264" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F264" s="52" t="s">
         <v>119</v>
@@ -28879,20 +29435,19 @@
       <c r="A267" s="97">
         <v>45904</v>
       </c>
-      <c r="B267" s="104" t="s">
+      <c r="B267" t="s">
         <v>25</v>
       </c>
       <c r="C267" s="47"/>
       <c r="D267" s="47">
         <v>500000</v>
       </c>
-      <c r="E267" s="104" t="s">
-        <v>287</v>
-      </c>
-      <c r="F267" s="105" t="s">
+      <c r="E267" t="s">
+        <v>286</v>
+      </c>
+      <c r="F267" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G267" s="104"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="43">
@@ -28906,7 +29461,7 @@
       </c>
       <c r="D268" s="11"/>
       <c r="E268" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F268" s="52" t="s">
         <v>118</v>
@@ -28924,7 +29479,7 @@
       </c>
       <c r="D269" s="11"/>
       <c r="E269" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F269" s="52" t="s">
         <v>118</v>
@@ -28990,7 +29545,7 @@
         <v>10000</v>
       </c>
       <c r="E273" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F273" s="52" t="s">
         <v>118</v>
@@ -29008,7 +29563,7 @@
       </c>
       <c r="D274" s="11"/>
       <c r="E274" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F274" s="52" t="s">
         <v>118</v>
@@ -29026,7 +29581,7 @@
       </c>
       <c r="D275" s="11"/>
       <c r="E275" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F275" s="52" t="s">
         <v>119</v>
@@ -29044,7 +29599,7 @@
       </c>
       <c r="D276" s="11"/>
       <c r="E276" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F276" s="52" t="s">
         <v>118</v>
@@ -29062,7 +29617,7 @@
       </c>
       <c r="D277" s="11"/>
       <c r="E277" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F277" s="52" t="s">
         <v>118</v>
@@ -29080,7 +29635,7 @@
       </c>
       <c r="D278" s="11"/>
       <c r="E278" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F278" s="52" t="s">
         <v>119</v>
@@ -29113,7 +29668,7 @@
       </c>
       <c r="D280" s="11"/>
       <c r="E280" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F280" s="52" t="s">
         <v>118</v>
@@ -29127,7 +29682,7 @@
         <v>126</v>
       </c>
       <c r="C281" s="11">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="D281" s="11"/>
       <c r="F281" s="52" t="s">
@@ -29135,7 +29690,7 @@
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="102">
+      <c r="A282" s="97">
         <v>45904</v>
       </c>
       <c r="B282" t="s">
@@ -29153,27 +29708,328 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="103"/>
-      <c r="B283" s="104"/>
-      <c r="C283" s="47"/>
+      <c r="A283" s="43">
+        <v>45904</v>
+      </c>
+      <c r="B283" t="s">
+        <v>126</v>
+      </c>
+      <c r="C283" s="47">
+        <v>44836</v>
+      </c>
       <c r="D283" s="47"/>
-      <c r="E283" s="104"/>
-      <c r="F283" s="105"/>
-      <c r="G283" s="104"/>
+      <c r="E283" t="s">
+        <v>297</v>
+      </c>
+      <c r="F283" s="52" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="43"/>
-      <c r="C284" s="14">
+      <c r="A284" s="43">
+        <v>45905</v>
+      </c>
+      <c r="B284" t="s">
+        <v>138</v>
+      </c>
+      <c r="C284" s="11">
+        <v>17000</v>
+      </c>
+      <c r="D284" s="11"/>
+      <c r="E284" t="s">
+        <v>298</v>
+      </c>
+      <c r="F284" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="97">
+        <v>45905</v>
+      </c>
+      <c r="B285" t="s">
+        <v>57</v>
+      </c>
+      <c r="C285" s="11">
+        <v>5335</v>
+      </c>
+      <c r="D285" s="11"/>
+      <c r="E285" t="s">
+        <v>282</v>
+      </c>
+      <c r="F285" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="43">
+        <v>45905</v>
+      </c>
+      <c r="B286" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C286" s="47"/>
+      <c r="D286" s="47"/>
+      <c r="E286" s="104"/>
+      <c r="F286" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="G286" s="104">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="97">
+        <v>45905</v>
+      </c>
+      <c r="B287" t="s">
+        <v>53</v>
+      </c>
+      <c r="C287" s="11">
+        <v>300</v>
+      </c>
+      <c r="D287" s="11"/>
+      <c r="E287" t="s">
+        <v>299</v>
+      </c>
+      <c r="F287" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288" s="43">
+        <v>45905</v>
+      </c>
+      <c r="B288" t="s">
+        <v>296</v>
+      </c>
+      <c r="C288" s="11">
+        <v>51330</v>
+      </c>
+      <c r="D288" s="11"/>
+      <c r="E288" t="s">
+        <v>129</v>
+      </c>
+      <c r="F288" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="97">
+        <v>45905</v>
+      </c>
+      <c r="B289" t="s">
+        <v>103</v>
+      </c>
+      <c r="C289" s="11">
+        <v>44700</v>
+      </c>
+      <c r="D289" s="11"/>
+      <c r="E289" t="s">
+        <v>300</v>
+      </c>
+      <c r="F289" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="43">
+        <v>45905</v>
+      </c>
+      <c r="B290" t="s">
+        <v>103</v>
+      </c>
+      <c r="C290" s="11">
+        <v>202100</v>
+      </c>
+      <c r="D290" s="11"/>
+      <c r="E290" t="s">
+        <v>129</v>
+      </c>
+      <c r="F290" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="97">
+        <v>45905</v>
+      </c>
+      <c r="B291" t="s">
+        <v>103</v>
+      </c>
+      <c r="C291" s="11">
+        <v>33000</v>
+      </c>
+      <c r="D291" s="11"/>
+      <c r="E291" t="s">
+        <v>301</v>
+      </c>
+      <c r="F291" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="43">
+        <v>45905</v>
+      </c>
+      <c r="B292" t="s">
+        <v>58</v>
+      </c>
+      <c r="C292" s="11">
+        <v>1500</v>
+      </c>
+      <c r="D292" s="11"/>
+      <c r="E292" t="s">
+        <v>302</v>
+      </c>
+      <c r="F292" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="97">
+        <v>45905</v>
+      </c>
+      <c r="B293" t="s">
+        <v>53</v>
+      </c>
+      <c r="C293" s="11">
+        <v>500</v>
+      </c>
+      <c r="D293" s="11"/>
+      <c r="E293" t="s">
+        <v>303</v>
+      </c>
+      <c r="F293" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="43">
+        <v>45905</v>
+      </c>
+      <c r="B294" t="s">
+        <v>178</v>
+      </c>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
+      <c r="E294" t="s">
+        <v>304</v>
+      </c>
+      <c r="F294" s="52"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="97">
+        <v>45905</v>
+      </c>
+      <c r="B295" t="s">
+        <v>57</v>
+      </c>
+      <c r="C295" s="11">
+        <v>5900</v>
+      </c>
+      <c r="D295" s="11"/>
+      <c r="E295" t="s">
+        <v>133</v>
+      </c>
+      <c r="F295" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="43">
+        <v>45905</v>
+      </c>
+      <c r="B296" t="s">
+        <v>153</v>
+      </c>
+      <c r="C296" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D296" s="11"/>
+      <c r="E296" t="s">
+        <v>305</v>
+      </c>
+      <c r="F296" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="97">
+        <v>45905</v>
+      </c>
+      <c r="B297" t="s">
+        <v>9</v>
+      </c>
+      <c r="C297" s="11"/>
+      <c r="D297" s="11">
+        <v>100000</v>
+      </c>
+      <c r="E297" t="s">
+        <v>306</v>
+      </c>
+      <c r="F297" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="43">
+        <v>45905</v>
+      </c>
+      <c r="B298" t="s">
+        <v>58</v>
+      </c>
+      <c r="C298" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D298" s="11"/>
+      <c r="E298" t="s">
+        <v>307</v>
+      </c>
+      <c r="F298" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="102">
+        <v>45905</v>
+      </c>
+      <c r="B299" t="s">
+        <v>58</v>
+      </c>
+      <c r="C299" s="11">
+        <v>4400</v>
+      </c>
+      <c r="D299" s="11"/>
+      <c r="E299" t="s">
+        <v>308</v>
+      </c>
+      <c r="F299" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="103"/>
+      <c r="B300" s="104"/>
+      <c r="C300" s="47"/>
+      <c r="D300" s="47"/>
+      <c r="E300" s="104"/>
+      <c r="F300" s="105"/>
+      <c r="G300" s="104"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="43"/>
+      <c r="C301" s="14">
         <f>SUBTOTAL(109,Table14[Debit])</f>
-        <v>6693521</v>
-      </c>
-      <c r="D284" s="14">
+        <v>7112222</v>
+      </c>
+      <c r="D301" s="14">
         <f>SUBTOTAL(109,Table14[Credit])</f>
-        <v>6968603</v>
-      </c>
-      <c r="F284" s="62">
+        <v>7367103</v>
+      </c>
+      <c r="F301" s="62">
         <f>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</f>
-        <v>275082</v>
+        <v>254881</v>
       </c>
     </row>
   </sheetData>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4300" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9016A3-8441-4CE8-88F9-7161EAB0AEF5}"/>
+  <xr:revisionPtr revIDLastSave="4307" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{050A958F-AE8F-49F9-A9F8-EEBCC3C0C244}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1688,12 +1688,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1705,32 +1699,16 @@
   </cellStyles>
   <dxfs count="125">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1739,17 +1717,7 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2135,6 +2103,15 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2142,6 +2119,25 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2275,9 +2271,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2288,24 +2281,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2472,6 +2447,25 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -8848,6 +8842,159 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I89:K107" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="34">
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="32"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="18">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="100">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="D89:G155" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
@@ -9430,159 +9577,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I89:K107" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="34">
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="32"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="101">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
   <location ref="E46:I59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
@@ -9766,7 +9760,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="80">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9775,7 +9769,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9966,7 +9960,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="61">
+    <format dxfId="67">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10395,26 +10389,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="19">
+    <format dxfId="21">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="19">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10424,13 +10418,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="15">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="14">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10666,12 +10660,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G306" totalsRowCount="1">
   <autoFilter ref="A1:G305" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="60" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="66" totalsRowDxfId="65"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="59" totalsRowDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="57" totalsRowDxfId="1">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -10681,25 +10675,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="56" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="43">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="45">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10711,10 +10705,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="44" totalsRowDxfId="43"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10723,17 +10717,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="38" headerRowBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="40" headerRowBorderDxfId="39">
   <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="38"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="35">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="37">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -10743,22 +10737,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="34" headerRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="36" headerRowBorderDxfId="35">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="31">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="30">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10788,7 +10782,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10799,8 +10793,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -10815,7 +10809,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -10832,7 +10826,7 @@
     <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="115"/>
     <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="114" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="gazana" dataDxfId="113" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{06FEE63C-6480-4079-8426-51BC26B38B34}" name="sum" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{06FEE63C-6480-4079-8426-51BC26B38B34}" name="sum" dataDxfId="112" dataCellStyle="Comma">
       <calculatedColumnFormula>Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10844,7 +10838,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="12" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -10860,7 +10854,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -10875,10 +10869,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="8">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="7">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10891,7 +10885,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -10913,11 +10907,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="110" dataDxfId="109" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="108" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="107" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="107" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="106" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10927,8 +10921,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="106"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10938,12 +10932,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="104" totalsRowDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="103" totalsRowDxfId="102"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="102">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="101">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -10955,23 +10949,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K75" totalsRowCount="1" headerRowDxfId="100" dataDxfId="99" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K75" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:K74" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="98" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="97" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="96" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="95" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="97" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="96" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="95" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="94" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="93" totalsRowDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="92" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="91" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="90" totalsRowDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="2" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -10981,7 +10975,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="0" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10990,20 +10984,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I39" totalsRowCount="1" headerRowDxfId="78" headerRowBorderDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I39" totalsRowCount="1" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="A1:I38" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="81" totalsRowDxfId="80"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="66" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="63" totalsRowDxfId="62" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11330,8 +11324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E413788-DC3D-4686-B6D6-08186A86599F}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="O1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11714,8 +11708,8 @@
         <v>0</v>
       </c>
       <c r="T8" s="23" cm="1">
-        <f t="array" ref="T8">(_xlfn.BYROW(B29,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L29)+_xlfn.IFNA(G47,0)</f>
-        <v>873134.14411119244</v>
+        <f t="array" ref="T8">(_xlfn.BYROW(B29,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L29)+_xlfn.IFNA(G47,0)-23134.1</f>
+        <v>850000.04411119246</v>
       </c>
       <c r="U8" s="23" cm="1">
         <f t="array" ref="U8">(_xlfn.BYROW(B29,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H47,0)</f>
@@ -11723,7 +11717,7 @@
       </c>
       <c r="V8" s="44">
         <f t="shared" si="1"/>
-        <v>873134.14411119244</v>
+        <v>850000.04411119246</v>
       </c>
       <c r="W8" s="23">
         <f>(SUMIF(Table14[Party],O8,Table14[Credit]))+_xlfn.IFNA(J47,0)</f>
@@ -11731,7 +11725,7 @@
       </c>
       <c r="X8" s="98">
         <f t="shared" ref="X8:X17" si="2">V8-W8</f>
-        <v>23134.144111192436</v>
+        <v>4.4111192459240556E-2</v>
       </c>
       <c r="Y8" s="22">
         <v>10.5</v>
@@ -16992,7 +16986,7 @@
         <f t="array" ref="D12">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!R5:R19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
         <v>83155.632772494515</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="103">
         <f ca="1">Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</f>
         <v>873134.14411119244</v>
       </c>
@@ -17037,8 +17031,8 @@
         <v>43</v>
       </c>
       <c r="C16" s="74"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="108">
+      <c r="D16" s="102"/>
+      <c r="E16" s="104">
         <f ca="1">E12+E14</f>
         <v>873134.14411119244</v>
       </c>
@@ -17054,8 +17048,8 @@
         <v>44</v>
       </c>
       <c r="C18" s="74"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="108" cm="1">
+      <c r="D18" s="102"/>
+      <c r="E18" s="104" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!W5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
         <v>850000</v>
       </c>
@@ -17071,10 +17065,10 @@
         <v>45</v>
       </c>
       <c r="C20" s="74"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="109" cm="1">
+      <c r="D20" s="102"/>
+      <c r="E20" s="105" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!X5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>23134.144111192436</v>
+        <v>4.4111192459240556E-2</v>
       </c>
     </row>
   </sheetData>
@@ -17295,7 +17289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8319B88-176D-4283-9F20-7A53851A72BB}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+    <sheetView zoomScale="111" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -17933,8 +17927,8 @@
   </sheetPr>
   <dimension ref="A1:AB155"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="139" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="C1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18150,8 +18144,8 @@
 AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
 Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
 Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
-)</f>
-        <v>873134.14411119244</v>
+)-23134.1</f>
+        <v>850000.04411119246</v>
       </c>
       <c r="K5" s="29"/>
     </row>
@@ -22995,7 +22989,7 @@
   </sheetPr>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="122" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="122" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -29714,7 +29708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="97">
         <v>45905</v>
       </c>
@@ -29732,7 +29726,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="43">
         <v>45905</v>
       </c>
@@ -29750,7 +29744,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="97">
         <v>45905</v>
       </c>
@@ -29768,7 +29762,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="43">
         <v>45905</v>
       </c>
@@ -29786,7 +29780,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="97">
         <v>45905</v>
       </c>
@@ -29804,7 +29798,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="43">
         <v>45905</v>
       </c>
@@ -29818,7 +29812,7 @@
       </c>
       <c r="F294" s="52"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="97">
         <v>45905</v>
       </c>
@@ -29836,7 +29830,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="43">
         <v>45905</v>
       </c>
@@ -29854,7 +29848,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="97">
         <v>45905</v>
       </c>
@@ -29872,7 +29866,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="43">
         <v>45905</v>
       </c>
@@ -29890,7 +29884,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="97">
         <v>45905</v>
       </c>
@@ -29908,7 +29902,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="43">
         <v>45906</v>
       </c>
@@ -29926,8 +29920,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="102">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="97">
         <v>45907</v>
       </c>
       <c r="B301" t="s">
@@ -29944,8 +29938,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A302" s="102">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="97">
         <v>45907</v>
       </c>
       <c r="B302" t="s">
@@ -29959,30 +29953,29 @@
         <v>117</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A303" s="103">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="43">
         <v>45907</v>
       </c>
-      <c r="B303" s="104" t="s">
+      <c r="B303" t="s">
         <v>23</v>
       </c>
       <c r="C303" s="47"/>
       <c r="D303" s="47">
         <v>250000</v>
       </c>
-      <c r="E303" s="104" t="s">
+      <c r="E303" t="s">
         <v>309</v>
       </c>
-      <c r="F303" s="105" t="s">
+      <c r="F303" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="G303" s="104"/>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A304" s="103">
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="43">
         <v>45907</v>
       </c>
-      <c r="B304" s="104" t="s">
+      <c r="B304" t="s">
         <v>310</v>
       </c>
       <c r="C304" s="47">
@@ -29990,24 +29983,20 @@
         <v>1150</v>
       </c>
       <c r="D304" s="47"/>
-      <c r="E304" s="104" t="s">
+      <c r="E304" t="s">
         <v>311</v>
       </c>
-      <c r="F304" s="105" t="s">
+      <c r="F304" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="G304" s="104"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A305" s="103"/>
-      <c r="B305" s="104"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="43"/>
       <c r="C305" s="47"/>
       <c r="D305" s="47"/>
-      <c r="E305" s="104"/>
-      <c r="F305" s="105"/>
-      <c r="G305" s="104"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F305" s="52"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="43"/>
       <c r="C306" s="14">
         <f>SUBTOTAL(109,Table14[Debit])</f>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4307" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{050A958F-AE8F-49F9-A9F8-EEBCC3C0C244}"/>
+  <xr:revisionPtr revIDLastSave="4530" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6EF2F2-8AE7-471B-A901-42D159543A4B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
@@ -47,12 +47,12 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
-    <pivotCache cacheId="1" r:id="rId19"/>
-    <pivotCache cacheId="2" r:id="rId20"/>
-    <pivotCache cacheId="3" r:id="rId21"/>
-    <pivotCache cacheId="4" r:id="rId22"/>
-    <pivotCache cacheId="5" r:id="rId23"/>
+    <pivotCache cacheId="39" r:id="rId18"/>
+    <pivotCache cacheId="43" r:id="rId19"/>
+    <pivotCache cacheId="48" r:id="rId20"/>
+    <pivotCache cacheId="54" r:id="rId21"/>
+    <pivotCache cacheId="61" r:id="rId22"/>
+    <pivotCache cacheId="65" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="318">
   <si>
     <t>Billing</t>
   </si>
@@ -1082,13 +1082,22 @@
     <t>haircut(500),eggs+kelay(650)</t>
   </si>
   <si>
-    <t>shehzad kamoki</t>
-  </si>
-  <si>
     <t>gazana</t>
   </si>
   <si>
     <t>sum</t>
+  </si>
+  <si>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>LES 9940</t>
+  </si>
+  <si>
+    <t>package//OSF</t>
+  </si>
+  <si>
+    <t>mazdoor</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1692,12 +1701,116 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="159">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1718,6 +1831,155 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1829,9 +2091,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2104,73 +2363,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2189,30 +2381,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2597,19 +2765,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>855195</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>117181</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>224763</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>144592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>679771</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>21928</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>531756</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>49339</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Party Name">
@@ -2632,7 +2800,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2642,8 +2810,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3097339" y="13866073"/>
-              <a:ext cx="4528144" cy="1351999"/>
+              <a:off x="5920576" y="16245268"/>
+              <a:ext cx="4522662" cy="1351999"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2675,19 +2843,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>89514</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>121733</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>528075</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>176552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>859508</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>178968</xdr:rowOff>
+      <xdr:colOff>163292</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>52881</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Date">
@@ -2713,7 +2881,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2723,7 +2891,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1224291" y="13870625"/>
+              <a:off x="528075" y="16096322"/>
               <a:ext cx="1877361" cy="1504487"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3579,13 +3747,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138707523147" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="299" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955830555555" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="320" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table14"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-17T00:00:00" maxDate="2025-09-06T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-08-17T00:00:00" maxDate="2025-09-10T00:00:00"/>
     </cacheField>
     <cacheField name="Party" numFmtId="0">
       <sharedItems containsBlank="1" count="36">
@@ -3619,7 +3787,7 @@
         <s v="Raaz fabrics"/>
         <s v="Shehzad Kamoki"/>
         <s v="Rafaqat"/>
-        <m/>
+        <m u="1"/>
         <s v="Toll" u="1"/>
         <s v="Salary" u="1"/>
         <s v="Self" u="1"/>
@@ -3652,7 +3820,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138707986109" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955831134263" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
@@ -3673,13 +3841,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Tiyaar" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="396608.4491587418"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="445547.73226042435"/>
     </cacheField>
     <cacheField name="Rate" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10" maxValue="10.5"/>
     </cacheField>
     <cacheField name="Total" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3896708.1199707394"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4386100.9509875644"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3691,7 +3859,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138708217593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955831250001" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table8"/>
   </cacheSource>
@@ -3755,13 +3923,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138708333332" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="37" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.95583136574" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-06T00:00:00" count="42">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-10T00:00:00" count="45">
         <d v="2025-08-16T00:00:00"/>
         <d v="2025-08-12T00:00:00"/>
         <d v="2025-08-13T00:00:00"/>
@@ -3784,6 +3952,9 @@
         <d v="2025-09-03T00:00:00"/>
         <d v="2025-09-04T00:00:00"/>
         <d v="2025-09-05T00:00:00"/>
+        <d v="2025-09-07T00:00:00"/>
+        <d v="2025-09-08T00:00:00"/>
+        <d v="2025-09-09T00:00:00"/>
         <d v="2025-08-02T00:00:00" u="1"/>
         <d v="2025-07-02T00:00:00" u="1"/>
         <d v="2025-06-02T00:00:00" u="1"/>
@@ -3816,7 +3987,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Vehicle Number" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="9373" count="38">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="9940" count="39">
         <s v="Closing Balance CF"/>
         <n v="6691"/>
         <n v="1055"/>
@@ -3841,6 +4012,7 @@
         <n v="9373"/>
         <n v="160"/>
         <n v="1973"/>
+        <n v="9940"/>
         <n v="2980" u="1"/>
         <n v="7221" u="1"/>
         <n v="8901" u="1"/>
@@ -3861,7 +4033,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="29" maxValue="388"/>
     </cacheField>
     <cacheField name="Rate" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="590" maxValue="810"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="550" maxValue="810"/>
     </cacheField>
     <cacheField name="Rent" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="12000" maxValue="56120"/>
@@ -3885,13 +4057,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138708564817" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="73" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955831481479" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="87" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-06T00:00:00" count="33">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-10T00:00:00" count="36">
         <d v="2025-08-17T00:00:00"/>
         <d v="2025-08-19T00:00:00"/>
         <d v="2025-08-16T00:00:00"/>
@@ -3909,6 +4081,9 @@
         <d v="2025-09-02T00:00:00"/>
         <d v="2025-09-03T00:00:00"/>
         <d v="2025-09-05T00:00:00"/>
+        <d v="2025-09-07T00:00:00"/>
+        <d v="2025-09-08T00:00:00"/>
+        <d v="2025-09-09T00:00:00"/>
         <d v="2025-07-25T00:00:00" u="1"/>
         <d v="2025-07-26T00:00:00" u="1"/>
         <d v="2025-07-28T00:00:00" u="1"/>
@@ -3949,7 +4124,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bill Number" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="784" count="175">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="798" count="189">
         <s v="July Closing CF"/>
         <n v="716"/>
         <n v="721"/>
@@ -4015,6 +4190,20 @@
         <n v="782"/>
         <n v="783"/>
         <n v="784"/>
+        <n v="785"/>
+        <n v="786"/>
+        <n v="787"/>
+        <n v="788"/>
+        <n v="789"/>
+        <n v="790"/>
+        <n v="791"/>
+        <n v="792"/>
+        <n v="793"/>
+        <n v="794"/>
+        <n v="795"/>
+        <n v="796"/>
+        <n v="797"/>
+        <n v="798"/>
         <n v="653" u="1"/>
         <n v="654" u="1"/>
         <n v="655" u="1"/>
@@ -4131,7 +4320,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Shipment Number" numFmtId="164">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1558" maxValue="17000" count="84">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1558" maxValue="17000" count="94">
         <m/>
         <n v="1605"/>
         <n v="1624"/>
@@ -4163,6 +4352,16 @@
         <n v="1666"/>
         <n v="1657"/>
         <n v="1676"/>
+        <n v="1683"/>
+        <n v="1673"/>
+        <n v="1679"/>
+        <n v="1668"/>
+        <n v="1664"/>
+        <n v="1660"/>
+        <n v="1678"/>
+        <n v="1677"/>
+        <n v="1667"/>
+        <n v="1675"/>
         <n v="1595" u="1"/>
         <n v="1593" u="1"/>
         <n v="1599" u="1"/>
@@ -4219,7 +4418,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Kora/metre" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3826" maxValue="167135"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3511" maxValue="167135"/>
     </cacheField>
     <cacheField name="Tiyaar/gaz" numFmtId="164">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="888" maxValue="48705"/>
@@ -4228,7 +4427,7 @@
       <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" minValue="-3.2518265571699345" maxValue="85.60596464237544"/>
     </cacheField>
     <cacheField name="tiyar/meters" numFmtId="165">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="414267.55669348943"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="414267.55669348943"/>
     </cacheField>
     <cacheField name="billing" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4142675.5669348943"/>
@@ -4249,7 +4448,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45906.138709259256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955831828702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -4294,7 +4493,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="299">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="320">
   <r>
     <d v="2025-08-17T00:00:00"/>
     <x v="0"/>
@@ -4391,7 +4590,7 @@
     <n v="260"/>
     <m/>
     <s v="Welding"/>
-    <s v="Bank"/>
+    <s v="Cash"/>
     <m/>
   </r>
   <r>
@@ -5291,7 +5490,7 @@
     <n v="360"/>
     <m/>
     <s v="boiler"/>
-    <s v="Bank"/>
+    <s v="Cash"/>
     <m/>
   </r>
   <r>
@@ -6809,7 +7008,7 @@
   <r>
     <d v="2025-09-04T00:00:00"/>
     <x v="3"/>
-    <n v="1000"/>
+    <n v="2700"/>
     <m/>
     <m/>
     <s v="Cash"/>
@@ -6978,12 +7177,201 @@
     <m/>
   </r>
   <r>
-    <m/>
-    <x v="30"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <d v="2025-09-06T00:00:00"/>
+    <x v="9"/>
+    <n v="10130"/>
+    <m/>
+    <s v="Daig"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-07T00:00:00"/>
+    <x v="4"/>
+    <n v="8144"/>
+    <m/>
+    <s v="Diesel"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-07T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <n v="8144"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-07T00:00:00"/>
+    <x v="28"/>
+    <m/>
+    <n v="250000"/>
+    <s v="23k left. Temp"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-07T00:00:00"/>
+    <x v="3"/>
+    <n v="1150"/>
+    <m/>
+    <s v="haircut(500),eggs+kelay(650)"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <x v="2"/>
+    <n v="200500"/>
+    <m/>
+    <s v="wood"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <x v="29"/>
+    <n v="134190"/>
+    <m/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <x v="4"/>
+    <n v="8144"/>
+    <m/>
+    <s v="Diesel"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="4"/>
+    <n v="2560"/>
+    <m/>
+    <s v="kerosene"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="4"/>
+    <n v="16289"/>
+    <m/>
+    <s v="Diesel"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="21"/>
+    <n v="69500"/>
+    <m/>
+    <s v="Starch"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <n v="85789"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="20"/>
+    <m/>
+    <n v="500000"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Transfer"/>
+    <n v="50000"/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="5"/>
+    <n v="500"/>
+    <m/>
+    <s v="petrol"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="5"/>
+    <n v="5180"/>
+    <m/>
+    <s v="LPG"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="16"/>
+    <m/>
+    <n v="50000"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="2"/>
+    <n v="36550"/>
+    <m/>
+    <s v="LES 9940"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="3"/>
+    <m/>
+    <n v="2500"/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="6"/>
+    <n v="2600"/>
+    <m/>
+    <s v="package//OSF"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="6"/>
+    <n v="200"/>
+    <m/>
+    <s v="mazdoor"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="2"/>
+    <n v="200400"/>
+    <m/>
+    <s v="wood"/>
+    <s v="Bank"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -6993,15 +7381,15 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
   <r>
     <x v="0"/>
-    <n v="396608.4491587418"/>
+    <n v="445547.73226042435"/>
     <n v="10"/>
-    <n v="3896708.1199707394"/>
+    <n v="4386100.9509875644"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="0"/>
+    <n v="12010.790051207025"/>
     <n v="10"/>
-    <n v="0"/>
+    <n v="120107.90051207025"/>
   </r>
   <r>
     <x v="2"/>
@@ -7017,9 +7405,9 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="184279.44403803951"/>
+    <n v="296661.4850036577"/>
     <n v="10"/>
-    <n v="1852815.4718361376"/>
+    <n v="2982706.656912948"/>
   </r>
   <r>
     <x v="5"/>
@@ -7259,7 +7647,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="37">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7667,11 +8055,44 @@
     <n v="51330"/>
     <n v="-27140"/>
   </r>
+  <r>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="200"/>
+    <n v="550"/>
+    <m/>
+    <n v="110000"/>
+    <n v="0"/>
+    <n v="110000"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="35"/>
+    <n v="550"/>
+    <m/>
+    <n v="19250"/>
+    <n v="134190"/>
+    <n v="-114940"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="24"/>
+    <n v="239"/>
+    <n v="810"/>
+    <n v="36550"/>
+    <n v="193590"/>
+    <n v="236950"/>
+    <n v="-43360"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="73">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="87">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -7721,7 +8142,7 @@
     <m/>
     <e v="#DIV/0!"/>
     <n v="83155.632772494515"/>
-    <n v="873134.14411119244"/>
+    <n v="850000.04411119246"/>
     <m/>
   </r>
   <r>
@@ -8096,7 +8517,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="21448"/>
-    <n v="25.783529992498686"/>
+    <n v="3.157825121503663"/>
     <n v="19612.289685442578"/>
     <n v="196122.89685442578"/>
     <m/>
@@ -8135,7 +8556,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="19780"/>
-    <n v="25.783529992498686"/>
+    <n v="3.157825121503663"/>
     <n v="18087.051938551573"/>
     <n v="180870.51938551571"/>
     <m/>
@@ -8200,7 +8621,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="11702"/>
-    <n v="25.783529992498686"/>
+    <n v="3.157825121503663"/>
     <n v="10700.438917337236"/>
     <n v="107004.38917337236"/>
     <m/>
@@ -8213,7 +8634,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="26158"/>
-    <n v="25.783529992498686"/>
+    <n v="3.157825121503663"/>
     <n v="23919.166057059258"/>
     <n v="239191.66057059256"/>
     <m/>
@@ -8317,7 +8738,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="20380"/>
-    <n v="25.783529992498686"/>
+    <n v="3.157825121503663"/>
     <n v="18635.6986100951"/>
     <n v="186356.98610095101"/>
     <m/>
@@ -8369,7 +8790,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="10496"/>
-    <n v="25.783529992498686"/>
+    <n v="3.157825121503663"/>
     <n v="9597.6591075347478"/>
     <n v="95976.591075347475"/>
     <m/>
@@ -8499,7 +8920,7 @@
     <x v="28"/>
     <n v="9346"/>
     <n v="5084"/>
-    <n v="50.258226725742091"/>
+    <n v="4.6822232529748931E-2"/>
     <n v="4648.8661302121436"/>
     <n v="55786.393562545723"/>
     <m/>
@@ -8538,7 +8959,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="7900"/>
-    <n v="25.783529992498686"/>
+    <n v="3.157825121503663"/>
     <n v="7223.8478419897592"/>
     <n v="72238.478419897598"/>
     <m/>
@@ -8551,7 +8972,7 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="17788"/>
-    <n v="25.783529992498686"/>
+    <n v="3.157825121503663"/>
     <n v="16265.544989027068"/>
     <n v="162655.44989027068"/>
     <m/>
@@ -8564,7 +8985,7 @@
     <x v="29"/>
     <n v="55567"/>
     <n v="19577"/>
-    <n v="67.784068815401199"/>
+    <n v="2.5172196763266186"/>
     <n v="17901.426481346014"/>
     <n v="179014.26481346015"/>
     <m/>
@@ -8577,7 +8998,7 @@
     <x v="30"/>
     <n v="30009"/>
     <n v="12687"/>
-    <n v="61.341151421947224"/>
+    <n v="2.7145063016086368"/>
     <n v="11601.133869787858"/>
     <n v="116011.33869787859"/>
     <m/>
@@ -8590,9 +9011,9 @@
     <x v="14"/>
     <n v="167135"/>
     <n v="14207"/>
-    <n v="25.783529992498686"/>
-    <m/>
-    <n v="0"/>
+    <n v="3.157825121503663"/>
+    <n v="12991.038771031457"/>
+    <n v="129910.38771031456"/>
     <m/>
   </r>
   <r>
@@ -8603,9 +9024,9 @@
     <x v="30"/>
     <n v="30009"/>
     <n v="19240"/>
-    <n v="61.341151421947224"/>
-    <m/>
-    <n v="0"/>
+    <n v="2.7145063016086368"/>
+    <n v="17593.269934162399"/>
+    <n v="175932.69934162399"/>
     <m/>
   </r>
   <r>
@@ -8616,9 +9037,191 @@
     <x v="29"/>
     <n v="55576"/>
     <n v="13299"/>
-    <n v="67.784068815401199"/>
-    <m/>
-    <n v="0"/>
+    <n v="2.5172196763266186"/>
+    <n v="12160.753474762254"/>
+    <n v="121607.53474762254"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="65"/>
+    <s v="Silky"/>
+    <x v="31"/>
+    <n v="6915"/>
+    <n v="7664"/>
+    <n v="-1.3455794338294282"/>
+    <n v="7008.0468178493056"/>
+    <n v="84096.561814191664"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="66"/>
+    <s v="Silky"/>
+    <x v="28"/>
+    <n v="9346"/>
+    <n v="5132"/>
+    <n v="4.6822232529748931E-2"/>
+    <n v="4692.7578639356261"/>
+    <n v="56313.094367227517"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="67"/>
+    <s v="Silky"/>
+    <x v="32"/>
+    <n v="16493"/>
+    <n v="18066"/>
+    <n v="-0.16219778194124501"/>
+    <n v="16519.751280175569"/>
+    <n v="198237.01536210685"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="68"/>
+    <s v="Silky"/>
+    <x v="33"/>
+    <n v="11403"/>
+    <n v="12318"/>
+    <n v="1.2214665720548226"/>
+    <n v="11263.716166788588"/>
+    <n v="135164.59400146306"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="4"/>
+    <x v="69"/>
+    <s v="Chamki"/>
+    <x v="34"/>
+    <n v="22329"/>
+    <n v="23797"/>
+    <n v="2.5471745060885951"/>
+    <n v="21760.241404535482"/>
+    <n v="195842.17264081934"/>
+    <m/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="70"/>
+    <s v="Chamki"/>
+    <x v="14"/>
+    <n v="167135"/>
+    <n v="27148"/>
+    <n v="3.157825121503663"/>
+    <n v="24824.433065106074"/>
+    <n v="248244.33065106074"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="0"/>
+    <x v="71"/>
+    <s v="Chamki"/>
+    <x v="29"/>
+    <n v="55576"/>
+    <n v="17480"/>
+    <n v="2.5172196763266186"/>
+    <n v="15983.906364301391"/>
+    <n v="159839.06364301391"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="72"/>
+    <s v="Chamki"/>
+    <x v="35"/>
+    <n v="22553"/>
+    <n v="22158"/>
+    <n v="10.160415110617578"/>
+    <n v="20261.521580102417"/>
+    <n v="182353.69422092175"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="73"/>
+    <s v="Chamki"/>
+    <x v="36"/>
+    <n v="10383"/>
+    <n v="11184"/>
+    <n v="1.5046329811102339"/>
+    <n v="10226.773957571326"/>
+    <n v="92040.965618141927"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="74"/>
+    <s v="Chamki"/>
+    <x v="37"/>
+    <n v="13434"/>
+    <n v="14474"/>
+    <n v="1.4799274983748347"/>
+    <n v="13235.186539868326"/>
+    <n v="119116.67885881494"/>
+    <m/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="4"/>
+    <x v="75"/>
+    <s v="Chamki"/>
+    <x v="38"/>
+    <n v="3511"/>
+    <n v="3774"/>
+    <n v="1.7092690399094721"/>
+    <n v="3450.9875640087785"/>
+    <n v="31058.888076079005"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="76"/>
+    <s v="Chamki"/>
+    <x v="29"/>
+    <n v="55576"/>
+    <n v="8892"/>
+    <n v="2.5172196763266186"/>
+    <n v="8130.9436722750552"/>
+    <n v="81309.436722750557"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="77"/>
+    <s v="Chamki"/>
+    <x v="39"/>
+    <n v="14638"/>
+    <n v="4334"/>
+    <n v="72.926234521227371"/>
+    <n v="3963.0577907827364"/>
+    <n v="35667.520117044631"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="78"/>
+    <s v="Chamki"/>
+    <x v="40"/>
+    <n v="25085"/>
+    <n v="13135"/>
+    <n v="52.119633042826294"/>
+    <n v="12010.790051207025"/>
+    <n v="120107.90051207025"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -8710,7 +9313,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
@@ -8790,7 +9393,7 @@
     <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="124">
+    <format dxfId="158">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8799,7 +9402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="123">
+    <format dxfId="157">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -8808,7 +9411,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="122">
+    <format dxfId="156">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8818,7 +9421,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="121">
+    <format dxfId="155">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -8842,27 +9445,27 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I89:K107" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="D101:G181" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="34">
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="37">
         <item m="1" x="20"/>
         <item m="1" x="21"/>
         <item m="1" x="22"/>
-        <item m="1" x="32"/>
         <item m="1" x="23"/>
         <item m="1" x="24"/>
         <item m="1" x="25"/>
+        <item m="1" x="35"/>
         <item m="1" x="26"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
         <item m="1" x="29"/>
         <item m="1" x="30"/>
         <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
@@ -8880,159 +9483,9 @@
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="18">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="100">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="D89:G155" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="34">
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="32"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9059,21 +9512,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="176">
-        <item m="1" x="127"/>
-        <item m="1" x="128"/>
-        <item m="1" x="129"/>
-        <item m="1" x="130"/>
-        <item m="1" x="131"/>
-        <item m="1" x="132"/>
-        <item m="1" x="133"/>
-        <item m="1" x="134"/>
-        <item m="1" x="135"/>
-        <item m="1" x="136"/>
-        <item m="1" x="137"/>
-        <item m="1" x="138"/>
-        <item m="1" x="139"/>
-        <item m="1" x="140"/>
+      <items count="190">
         <item m="1" x="141"/>
         <item m="1" x="142"/>
         <item m="1" x="143"/>
@@ -9108,32 +9547,30 @@
         <item m="1" x="172"/>
         <item m="1" x="173"/>
         <item m="1" x="174"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
+        <item m="1" x="175"/>
+        <item m="1" x="176"/>
+        <item m="1" x="177"/>
+        <item m="1" x="178"/>
+        <item m="1" x="179"/>
+        <item m="1" x="180"/>
+        <item m="1" x="181"/>
+        <item m="1" x="182"/>
+        <item m="1" x="183"/>
+        <item m="1" x="184"/>
+        <item m="1" x="185"/>
+        <item m="1" x="186"/>
+        <item m="1" x="187"/>
+        <item m="1" x="188"/>
         <item m="1" x="79"/>
         <item m="1" x="80"/>
         <item m="1" x="81"/>
         <item m="1" x="82"/>
-        <item m="1" x="111"/>
         <item m="1" x="83"/>
         <item m="1" x="84"/>
         <item m="1" x="85"/>
         <item m="1" x="86"/>
         <item m="1" x="87"/>
         <item m="1" x="88"/>
-        <item m="1" x="100"/>
         <item m="1" x="89"/>
         <item m="1" x="90"/>
         <item m="1" x="91"/>
@@ -9142,11 +9579,14 @@
         <item m="1" x="94"/>
         <item m="1" x="95"/>
         <item m="1" x="96"/>
+        <item m="1" x="125"/>
         <item m="1" x="97"/>
         <item m="1" x="98"/>
         <item m="1" x="99"/>
+        <item m="1" x="100"/>
         <item m="1" x="101"/>
         <item m="1" x="102"/>
+        <item m="1" x="114"/>
         <item m="1" x="103"/>
         <item m="1" x="104"/>
         <item m="1" x="105"/>
@@ -9155,9 +9595,9 @@
         <item m="1" x="108"/>
         <item m="1" x="109"/>
         <item m="1" x="110"/>
+        <item m="1" x="111"/>
         <item m="1" x="112"/>
         <item m="1" x="113"/>
-        <item m="1" x="114"/>
         <item m="1" x="115"/>
         <item m="1" x="116"/>
         <item m="1" x="117"/>
@@ -9168,8 +9608,21 @@
         <item m="1" x="122"/>
         <item m="1" x="123"/>
         <item m="1" x="124"/>
-        <item m="1" x="125"/>
         <item m="1" x="126"/>
+        <item m="1" x="127"/>
+        <item m="1" x="128"/>
+        <item m="1" x="129"/>
+        <item m="1" x="130"/>
+        <item m="1" x="131"/>
+        <item m="1" x="132"/>
+        <item m="1" x="133"/>
+        <item m="1" x="134"/>
+        <item m="1" x="135"/>
+        <item m="1" x="136"/>
+        <item m="1" x="137"/>
+        <item m="1" x="138"/>
+        <item m="1" x="139"/>
+        <item m="1" x="140"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -9235,67 +9688,81 @@
         <item x="62"/>
         <item x="63"/>
         <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="85">
-        <item m="1" x="37"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
+      <items count="95">
+        <item m="1" x="47"/>
+        <item m="1" x="77"/>
+        <item m="1" x="78"/>
+        <item m="1" x="86"/>
         <item m="1" x="76"/>
-        <item m="1" x="66"/>
-        <item m="1" x="65"/>
-        <item m="1" x="69"/>
+        <item m="1" x="75"/>
+        <item m="1" x="79"/>
+        <item m="1" x="90"/>
+        <item m="1" x="82"/>
+        <item m="1" x="83"/>
         <item m="1" x="80"/>
+        <item m="1" x="81"/>
+        <item m="1" x="91"/>
+        <item m="1" x="84"/>
+        <item m="1" x="85"/>
+        <item m="1" x="88"/>
+        <item m="1" x="89"/>
+        <item m="1" x="87"/>
+        <item m="1" x="42"/>
+        <item m="1" x="93"/>
+        <item m="1" x="41"/>
+        <item m="1" x="92"/>
+        <item m="1" x="44"/>
+        <item m="1" x="43"/>
+        <item m="1" x="45"/>
+        <item m="1" x="51"/>
+        <item m="1" x="46"/>
+        <item m="1" x="48"/>
+        <item m="1" x="52"/>
+        <item m="1" x="53"/>
         <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="81"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="77"/>
-        <item m="1" x="32"/>
-        <item m="1" x="83"/>
-        <item m="1" x="31"/>
-        <item m="1" x="82"/>
-        <item m="1" x="34"/>
-        <item m="1" x="33"/>
-        <item m="1" x="35"/>
-        <item m="1" x="41"/>
-        <item m="1" x="36"/>
-        <item m="1" x="38"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="62"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item x="28"/>
-        <item m="1" x="64"/>
-        <item m="1" x="63"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item x="2"/>
         <item m="1" x="49"/>
         <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
+        <item x="28"/>
+        <item m="1" x="74"/>
+        <item m="1" x="73"/>
         <item m="1" x="54"/>
         <item m="1" x="55"/>
         <item m="1" x="56"/>
         <item m="1" x="57"/>
         <item m="1" x="58"/>
+        <item x="2"/>
         <item m="1" x="59"/>
         <item m="1" x="60"/>
         <item m="1" x="61"/>
+        <item m="1" x="62"/>
+        <item m="1" x="63"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
+        <item m="1" x="67"/>
+        <item m="1" x="68"/>
+        <item m="1" x="69"/>
+        <item m="1" x="70"/>
+        <item m="1" x="71"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -9325,6 +9792,16 @@
         <item x="27"/>
         <item x="29"/>
         <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9341,7 +9818,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="66">
+  <rowItems count="80">
     <i>
       <x v="110"/>
     </i>
@@ -9537,6 +10014,48 @@
     <i>
       <x v="174"/>
     </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9577,12 +10096,19 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
-  <location ref="E46:I59" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I101:K122" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="43">
+      <items count="37">
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="35"/>
         <item m="1" x="26"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
@@ -9590,18 +10116,176 @@
         <item m="1" x="30"/>
         <item m="1" x="31"/>
         <item m="1" x="32"/>
-        <item m="1" x="41"/>
-        <item m="1" x="22"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="21">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="134">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
+  <location ref="E47:I60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="46">
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
         <item m="1" x="35"/>
+        <item m="1" x="44"/>
+        <item m="1" x="25"/>
         <item m="1" x="36"/>
         <item m="1" x="37"/>
         <item m="1" x="38"/>
         <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="40"/>
+        <item m="1" x="43"/>
         <item x="3"/>
         <item x="0"/>
         <item x="4"/>
@@ -9619,12 +10303,15 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9639,27 +10326,27 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="39">
-        <item m="1" x="28"/>
+      <items count="40">
+        <item m="1" x="29"/>
         <item x="15"/>
-        <item m="1" x="24"/>
+        <item m="1" x="25"/>
         <item x="4"/>
-        <item m="1" x="29"/>
         <item m="1" x="30"/>
-        <item m="1" x="25"/>
+        <item m="1" x="31"/>
         <item m="1" x="26"/>
         <item m="1" x="27"/>
+        <item m="1" x="28"/>
         <item x="5"/>
         <item x="7"/>
-        <item m="1" x="31"/>
         <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
         <item m="1" x="35"/>
         <item m="1" x="36"/>
+        <item m="1" x="37"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="37"/>
+        <item m="1" x="38"/>
         <item x="3"/>
         <item x="0"/>
         <item x="6"/>
@@ -9678,6 +10365,7 @@
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9760,7 +10448,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="86">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9769,7 +10457,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9792,8 +10480,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J163:L195" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J163:L194" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -9818,7 +10506,7 @@
         <item x="22"/>
         <item x="3"/>
         <item x="8"/>
-        <item x="30"/>
+        <item m="1" x="30"/>
         <item x="7"/>
         <item m="1" x="34"/>
         <item x="20"/>
@@ -9846,7 +10534,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
@@ -9900,9 +10588,6 @@
     </i>
     <i>
       <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
     </i>
     <i>
       <x v="21"/>
@@ -9960,7 +10645,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="67">
+    <format dxfId="108">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -9977,7 +10662,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K9:M14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -10069,7 +10754,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -10142,8 +10827,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
-  <location ref="A3:C35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
+  <location ref="A3:C45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
@@ -10171,62 +10856,62 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="85">
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="66"/>
-        <item m="1" x="65"/>
-        <item m="1" x="69"/>
-        <item m="1" x="71"/>
-        <item m="1" x="70"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
+      <items count="95">
         <item m="1" x="77"/>
         <item m="1" x="78"/>
-        <item x="28"/>
-        <item m="1" x="64"/>
+        <item m="1" x="76"/>
+        <item m="1" x="75"/>
         <item m="1" x="79"/>
+        <item m="1" x="81"/>
         <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="32"/>
-        <item m="1" x="31"/>
         <item m="1" x="82"/>
         <item m="1" x="83"/>
+        <item m="1" x="84"/>
+        <item m="1" x="85"/>
+        <item m="1" x="86"/>
+        <item m="1" x="87"/>
+        <item m="1" x="88"/>
+        <item x="28"/>
+        <item m="1" x="74"/>
+        <item m="1" x="89"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="42"/>
         <item m="1" x="41"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item m="1" x="42"/>
-        <item m="1" x="62"/>
+        <item m="1" x="92"/>
+        <item m="1" x="93"/>
+        <item m="1" x="51"/>
         <item m="1" x="43"/>
-        <item m="1" x="63"/>
         <item m="1" x="44"/>
         <item m="1" x="45"/>
         <item m="1" x="46"/>
         <item m="1" x="47"/>
         <item m="1" x="48"/>
-        <item x="2"/>
         <item m="1" x="49"/>
         <item m="1" x="50"/>
-        <item m="1" x="51"/>
         <item m="1" x="52"/>
+        <item m="1" x="72"/>
         <item m="1" x="53"/>
+        <item m="1" x="73"/>
         <item m="1" x="54"/>
         <item m="1" x="55"/>
         <item m="1" x="56"/>
         <item m="1" x="57"/>
         <item m="1" x="58"/>
+        <item x="2"/>
         <item m="1" x="59"/>
         <item m="1" x="60"/>
         <item m="1" x="61"/>
+        <item m="1" x="62"/>
+        <item m="1" x="63"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
+        <item m="1" x="67"/>
+        <item m="1" x="68"/>
+        <item m="1" x="69"/>
+        <item m="1" x="70"/>
+        <item m="1" x="71"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -10256,6 +10941,16 @@
         <item x="27"/>
         <item x="29"/>
         <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10272,7 +10967,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="42">
     <i>
       <x v="14"/>
     </i>
@@ -10366,6 +11061,36 @@
     <i>
       <x v="83"/>
     </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -10389,26 +11114,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="21">
+    <format dxfId="71">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="70">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="69">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10418,13 +11143,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="65">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="64">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -10454,7 +11179,7 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1341418871">
-      <items count="84">
+      <items count="94">
         <i x="21" s="1"/>
         <i x="1" s="1"/>
         <i x="6" s="1"/>
@@ -10477,67 +11202,77 @@
         <i x="29" s="1"/>
         <i x="23" s="1"/>
         <i x="26" s="1"/>
+        <i x="36" s="1"/>
         <i x="22" s="1"/>
         <i x="19" s="1"/>
         <i x="20" s="1"/>
+        <i x="35" s="1"/>
         <i x="28" s="1"/>
+        <i x="39" s="1"/>
+        <i x="34" s="1"/>
         <i x="27" s="1"/>
+        <i x="32" s="1"/>
+        <i x="40" s="1"/>
         <i x="30" s="1"/>
+        <i x="38" s="1"/>
+        <i x="37" s="1"/>
+        <i x="33" s="1"/>
+        <i x="31" s="1"/>
         <i x="17" s="1"/>
         <i x="9" s="1"/>
-        <i x="37" s="1" nd="1"/>
+        <i x="47" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="86" s="1" nd="1"/>
+        <i x="76" s="1" nd="1"/>
+        <i x="75" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
+        <i x="90" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="83" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
+        <i x="91" s="1" nd="1"/>
+        <i x="84" s="1" nd="1"/>
+        <i x="85" s="1" nd="1"/>
+        <i x="88" s="1" nd="1"/>
+        <i x="89" s="1" nd="1"/>
+        <i x="87" s="1" nd="1"/>
+        <i x="42" s="1" nd="1"/>
+        <i x="93" s="1" nd="1"/>
+        <i x="41" s="1" nd="1"/>
+        <i x="92" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="43" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="64" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
+        <i x="53" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="61" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="50" s="1" nd="1"/>
+        <i x="55" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="62" s="1" nd="1"/>
         <i x="67" s="1" nd="1"/>
+        <i x="63" s="1" nd="1"/>
         <i x="68" s="1" nd="1"/>
-        <i x="76" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
         <i x="70" s="1" nd="1"/>
         <i x="71" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
         <i x="74" s="1" nd="1"/>
-        <i x="75" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
-        <i x="83" s="1" nd="1"/>
-        <i x="31" s="1" nd="1"/>
-        <i x="82" s="1" nd="1"/>
-        <i x="34" s="1" nd="1"/>
-        <i x="33" s="1" nd="1"/>
-        <i x="35" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
-        <i x="36" s="1" nd="1"/>
-        <i x="38" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="62" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="50" s="1" nd="1"/>
-        <i x="39" s="1" nd="1"/>
-        <i x="47" s="1" nd="1"/>
-        <i x="40" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="55" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="53" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
-        <i x="64" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
+        <i x="73" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -10641,14 +11376,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}" name="Table4" displayName="Table4" ref="B3:E15" totalsRowShown="0">
   <autoFilter ref="B3:E15" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="120">
+    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="154">
       <calculatedColumnFormula>B26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="119">
+    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="153">
       <calculatedColumnFormula>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC1535DD-3FE7-4F55-8040-E7643388A78E}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="118">
+    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="152">
       <calculatedColumnFormula>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10657,15 +11392,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G306" totalsRowCount="1">
-  <autoFilter ref="A1:G305" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G322" totalsRowCount="1">
+  <autoFilter ref="A1:G321" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="56" totalsRowDxfId="52"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="51" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="50" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="49">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -10675,25 +11410,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="107" tableBorderDxfId="106" totalsRowBorderDxfId="105">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="104"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="102" headerRowBorderDxfId="101" tableBorderDxfId="100" totalsRowBorderDxfId="99">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="98" totalsRowDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="45">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="94">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10705,10 +11440,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="93" totalsRowDxfId="92"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10717,17 +11452,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="40" headerRowBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="89" headerRowBorderDxfId="88">
   <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="87"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="37">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="86">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -10737,22 +11472,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="36" headerRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="85" headerRowBorderDxfId="84">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="83" totalsRowDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="82"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="81">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="80">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10782,7 +11517,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -10793,8 +11528,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -10809,7 +11544,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="73" totalsRowDxfId="72"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -10820,13 +11555,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:E20" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:E20" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
   <autoFilter ref="B7:E20" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="115"/>
-    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="114" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="gazana" dataDxfId="113" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{06FEE63C-6480-4079-8426-51BC26B38B34}" name="sum" dataDxfId="112" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="149"/>
+    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="148" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="gazana" dataDxfId="147" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{06FEE63C-6480-4079-8426-51BC26B38B34}" name="sum" dataDxfId="146" dataCellStyle="Comma">
       <calculatedColumnFormula>Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10838,7 +11573,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="62" totalsRowDxfId="61"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -10854,7 +11589,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="60" totalsRowDxfId="59"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -10869,10 +11604,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="58">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="57">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10885,7 +11620,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -10907,11 +11642,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="107" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="106" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="141" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="140" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10921,8 +11656,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="104"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="139"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10932,12 +11667,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="103" totalsRowDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="137" totalsRowDxfId="136"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="101">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="135">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -10949,23 +11684,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K75" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="A1:K74" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K89" totalsRowCount="1" headerRowDxfId="133" dataDxfId="132" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="A1:K88" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="97" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="96" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="95" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="94" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="93" totalsRowDxfId="6" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="92" totalsRowDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="91" totalsRowDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="90" totalsRowDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="131" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="130" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="129" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="128" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="127" totalsRowDxfId="31" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="126" totalsRowDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="125" totalsRowDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="124" totalsRowDxfId="28" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="27" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="26" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -10975,7 +11710,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="25" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -10984,20 +11719,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I39" totalsRowCount="1" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
-  <autoFilter ref="A1:I38" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I44" totalsRowCount="1" headerRowDxfId="118" headerRowBorderDxfId="117" tableBorderDxfId="116">
+  <autoFilter ref="A1:I43" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="115" totalsRowDxfId="6"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="114" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="113" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="112" totalsRowDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="2" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="0" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11324,8 +12059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E413788-DC3D-4686-B6D6-08186A86599F}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView topLeftCell="P1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11337,7 +12072,7 @@
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.21875" customWidth="1"/>
@@ -11346,7 +12081,7 @@
     <col min="16" max="16" width="19.109375" customWidth="1"/>
     <col min="17" max="17" width="11.109375" customWidth="1"/>
     <col min="18" max="18" width="13.88671875" customWidth="1"/>
-    <col min="19" max="19" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
     <col min="21" max="21" width="10.6640625" customWidth="1"/>
     <col min="22" max="22" width="12.6640625" customWidth="1"/>
@@ -11396,14 +12131,14 @@
       </c>
       <c r="C4" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>396608.4491587418</v>
+        <v>445547.73226042435</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>3896708.1199707394</v>
+        <v>4386100.9509875644</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
@@ -11456,23 +12191,23 @@
       </c>
       <c r="C5" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B5, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>0</v>
+        <v>12010.790051207025</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B5, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B5, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>0</v>
+        <v>120107.90051207025</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="5">
-        <v>396608.4491587418</v>
+        <v>445547.73226042435</v>
       </c>
       <c r="K5" s="18">
-        <v>3896708.1199707394</v>
+        <v>4386100.9509875644</v>
       </c>
       <c r="O5" s="25" t="str" cm="1">
         <f t="array" ref="O5:O14">_xlfn.UNIQUE(Table1[Party Name])</f>
@@ -11480,15 +12215,15 @@
       </c>
       <c r="P5" s="23" cm="1">
         <f t="array" ref="P5">_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C44,0)</f>
-        <v>886774</v>
+        <v>940294</v>
       </c>
       <c r="Q5" s="23" cm="1">
         <f t="array" ref="Q5">_xlfn.BYROW(B26, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D44,0)</f>
-        <v>810876.00585223129</v>
+        <v>859815.28895391384</v>
       </c>
       <c r="R5" s="23" cm="1">
         <f t="array" ref="R5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E44,0)</f>
-        <v>810876.00585223129</v>
+        <v>859815.28895391384</v>
       </c>
       <c r="S5" s="78" cm="1">
         <f t="array" ref="S5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F44,0)</f>
@@ -11496,7 +12231,7 @@
       </c>
       <c r="T5" s="23" cm="1">
         <f t="array" ref="T5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)+_xlfn.IFNA(G44,0)</f>
-        <v>8108760.058522312</v>
+        <v>8598152.8895391375</v>
       </c>
       <c r="U5" s="23" cm="1">
         <f t="array" ref="U5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H44,0)</f>
@@ -11504,15 +12239,15 @@
       </c>
       <c r="V5" s="44">
         <f>T5+U5</f>
-        <v>8108760.058522312</v>
+        <v>8598152.8895391375</v>
       </c>
       <c r="W5" s="23">
         <f>(SUMIF(Table14[Party],O5,Table14[Credit]))+_xlfn.IFNA(J44,0)</f>
-        <v>6315144</v>
+        <v>6400933</v>
       </c>
       <c r="X5" s="98">
         <f>V5-W5</f>
-        <v>1793616.058522312</v>
+        <v>2197219.8895391375</v>
       </c>
       <c r="Y5" s="22">
         <v>10</v>
@@ -11541,25 +12276,25 @@
         <v>22</v>
       </c>
       <c r="J6" s="5">
-        <v>0</v>
+        <v>12010.790051207025</v>
       </c>
       <c r="K6" s="18">
-        <v>0</v>
+        <v>120107.90051207025</v>
       </c>
       <c r="O6" s="25" t="str">
         <v>Ejaz Sahab</v>
       </c>
       <c r="P6" s="23" cm="1">
         <f t="array" ref="P6">_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C45,0)</f>
-        <v>66967</v>
+        <v>80102</v>
       </c>
       <c r="Q6" s="23" cm="1">
         <f t="array" ref="Q6">_xlfn.BYROW(B27, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D45,0)</f>
-        <v>61235.369422092175</v>
+        <v>73246.159473299194</v>
       </c>
       <c r="R6" s="23" cm="1">
         <f t="array" ref="R6">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E45,0)</f>
-        <v>61235.369422092175</v>
+        <v>73246.159473299194</v>
       </c>
       <c r="S6" s="78" cm="1">
         <f t="array" ref="S6">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F45,0)</f>
@@ -11567,7 +12302,7 @@
       </c>
       <c r="T6" s="23" cm="1">
         <f t="array" ref="T6">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L27)+_xlfn.IFNA(G45,0)</f>
-        <v>612353.69422092172</v>
+        <v>732461.594732992</v>
       </c>
       <c r="U6" s="23" cm="1">
         <f t="array" ref="U6">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H45,0)</f>
@@ -11575,7 +12310,7 @@
       </c>
       <c r="V6" s="44">
         <f t="shared" ref="V6:V12" si="1">T6+U6</f>
-        <v>612353.69422092172</v>
+        <v>732461.594732992</v>
       </c>
       <c r="W6" s="23">
         <f>(SUMIF(Table14[Party],O6,Table14[Credit]))+_xlfn.IFNA(J45,0)</f>
@@ -11583,7 +12318,7 @@
       </c>
       <c r="X6" s="98">
         <f>V6-W6</f>
-        <v>-0.30577907827682793</v>
+        <v>120107.594732992</v>
       </c>
       <c r="Y6" s="22">
         <v>10</v>
@@ -11650,11 +12385,11 @@
       </c>
       <c r="W7" s="23">
         <f>(SUMIF(Table14[Party],O7,Table14[Credit]))+_xlfn.IFNA(J46,0)</f>
-        <v>654210</v>
+        <v>704210</v>
       </c>
       <c r="X7" s="98">
         <f>V7-W7</f>
-        <v>664608.5808339431</v>
+        <v>614608.5808339431</v>
       </c>
       <c r="Y7" s="22">
         <v>10</v>
@@ -11670,14 +12405,14 @@
       </c>
       <c r="C8" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>184279.44403803951</v>
+        <v>296661.4850036577</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" s="14">
         <f>((SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936) *12) + ((SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)* 9)</f>
-        <v>1852815.4718361376</v>
+        <v>2982706.656912948</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -11754,49 +12489,49 @@
         <v>24</v>
       </c>
       <c r="J9" s="5">
-        <v>184279.44403803951</v>
+        <v>296661.4850036577</v>
       </c>
       <c r="K9" s="18">
-        <v>1852815.4718361376</v>
+        <v>2982706.656912948</v>
       </c>
       <c r="O9" s="25" t="str">
         <v>Sufi Nawaz Sahab</v>
       </c>
       <c r="P9" s="23" cm="1">
         <f t="array" ref="P9">_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C48,0)</f>
-        <v>354063</v>
+        <v>476964</v>
       </c>
       <c r="Q9" s="23" cm="1">
         <f t="array" ref="Q9">_xlfn.BYROW(B30, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D48,0)</f>
-        <v>323759.14411119244</v>
+        <v>436141.18507681059</v>
       </c>
       <c r="R9" s="23" cm="1">
         <f t="array" ref="R9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E48,0)</f>
-        <v>238909.10753474763</v>
+        <v>311806.87637161673</v>
       </c>
       <c r="S9" s="78" cm="1">
         <f t="array" ref="S9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F48,0)</f>
-        <v>84850.036576444778</v>
+        <v>124334.30870519386</v>
       </c>
       <c r="T9" s="23" cm="1">
         <f t="array" ref="T9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L30)+_xlfn.IFNA(G48,0)</f>
-        <v>2150181.9678127291</v>
+        <v>2806261.8873445503</v>
       </c>
       <c r="U9" s="23" cm="1">
         <f t="array" ref="U9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H48,0)</f>
-        <v>1018200.4389173373</v>
+        <v>1492011.7044623261</v>
       </c>
       <c r="V9" s="44">
         <f t="shared" si="1"/>
-        <v>3168382.4067300665</v>
+        <v>4298273.5918068765</v>
       </c>
       <c r="W9" s="23">
         <f>(SUMIF(Table14[Party],O9,Table14[Credit]))+_xlfn.IFNA(J48,0)</f>
-        <v>2579100</v>
+        <v>3079100</v>
       </c>
       <c r="X9" s="98">
         <f t="shared" si="2"/>
-        <v>589282.40673006652</v>
+        <v>1219173.5918068765</v>
       </c>
       <c r="Y9" s="22">
         <v>9</v>
@@ -12173,10 +12908,10 @@
         <v>28</v>
       </c>
       <c r="J15" s="14">
-        <v>805458.11997073889</v>
+        <v>978790.2340892466</v>
       </c>
       <c r="K15" s="14">
-        <v>7995225.8595464528</v>
+        <v>9734617.7761521582</v>
       </c>
       <c r="O15" s="25"/>
       <c r="P15" s="23" cm="1">
@@ -12228,7 +12963,7 @@
       </c>
       <c r="C16" s="46">
         <f>SUM(G26:G38)+SUM(H26:H38)</f>
-        <v>8107222.933430871</v>
+        <v>9846614.8500365764</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -12329,7 +13064,7 @@
       </c>
       <c r="C18" s="42">
         <f ca="1">SUM(OFFSET(I26,0,0,COUNTA(I:I)-ROW(I26)+1))</f>
-        <v>8107222.933430871</v>
+        <v>9846614.8500365783</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -12475,15 +13210,15 @@
       </c>
       <c r="C26" s="23" cm="1">
         <f t="array" ref="C26:C35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
-        <v>433731</v>
+        <v>487251</v>
       </c>
       <c r="D26" s="23" cm="1">
         <f t="array" ref="D26:D35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
-        <v>396608.4491587418</v>
+        <v>445547.73226042435</v>
       </c>
       <c r="E26" s="71" cm="1">
         <f t="array" ref="E26:E35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
-        <v>396608.4491587418</v>
+        <v>445547.73226042435</v>
       </c>
       <c r="F26" s="78" cm="1">
         <f t="array" ref="F26:F35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
@@ -12491,7 +13226,7 @@
       </c>
       <c r="G26" s="23" cm="1">
         <f t="array" ref="G26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)</f>
-        <v>3966084.4915874181</v>
+        <v>4455477.3226042436</v>
       </c>
       <c r="H26" s="23" cm="1">
         <f t="array" ref="H26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M26)</f>
@@ -12499,15 +13234,15 @@
       </c>
       <c r="I26" s="44">
         <f t="shared" ref="I26:I34" si="7">G26+H26</f>
-        <v>3966084.4915874181</v>
+        <v>4455477.3226042436</v>
       </c>
       <c r="J26" s="23">
         <f>(SUMIF(Table14[Party],B26,Table14[Credit]))</f>
-        <v>2486306</v>
+        <v>2572095</v>
       </c>
       <c r="K26" s="42">
         <f>I26-J26</f>
-        <v>1479778.4915874181</v>
+        <v>1883382.3226042436</v>
       </c>
       <c r="L26" s="22">
         <v>10</v>
@@ -12521,20 +13256,20 @@
         <v>Ejaz Sahab</v>
       </c>
       <c r="C27" s="23">
-        <v>0</v>
+        <v>13135</v>
       </c>
       <c r="D27" s="23">
-        <v>0</v>
+        <v>12010.790051207025</v>
       </c>
       <c r="E27" s="71">
-        <v>0</v>
+        <v>12010.790051207025</v>
       </c>
       <c r="F27" s="78">
         <v>0</v>
       </c>
       <c r="G27" s="23" cm="1">
         <f t="array" ref="G27">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L27)</f>
-        <v>0</v>
+        <v>120107.90051207025</v>
       </c>
       <c r="H27" s="23" cm="1">
         <f t="array" ref="H27">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M27)</f>
@@ -12542,7 +13277,7 @@
       </c>
       <c r="I27" s="44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>120107.90051207025</v>
       </c>
       <c r="J27" s="23">
         <f>(SUMIF(Table14[Party],B27,Table14[Credit]))</f>
@@ -12550,7 +13285,7 @@
       </c>
       <c r="K27" s="42">
         <f>I27-J27</f>
-        <v>-412354</v>
+        <v>-292246.09948792972</v>
       </c>
       <c r="L27" s="22">
         <v>10</v>
@@ -12589,11 +13324,11 @@
       </c>
       <c r="J28" s="23">
         <f>(SUMIF(Table14[Party],B28,Table14[Credit]))</f>
-        <v>554210</v>
+        <v>604210</v>
       </c>
       <c r="K28" s="42">
         <f>I28-J28</f>
-        <v>-570.6437454278348</v>
+        <v>-50570.643745427835</v>
       </c>
       <c r="L28" s="22">
         <v>10</v>
@@ -12650,36 +13385,36 @@
         <v>Sufi Nawaz Sahab</v>
       </c>
       <c r="C30" s="23">
-        <v>201528</v>
+        <v>324429</v>
       </c>
       <c r="D30" s="23">
-        <v>184279.44403803951</v>
+        <v>296661.4850036577</v>
       </c>
       <c r="E30" s="71">
-        <v>119512.61887344551</v>
+        <v>192410.38771031456</v>
       </c>
       <c r="F30" s="78">
-        <v>64766.825164594004</v>
+        <v>104251.09729334309</v>
       </c>
       <c r="G30" s="23" cm="1">
         <f t="array" ref="G30">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L30)</f>
-        <v>1075613.5698610095</v>
+        <v>1731693.489392831</v>
       </c>
       <c r="H30" s="23" cm="1">
         <f t="array" ref="H30">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M30)</f>
-        <v>777201.9019751281</v>
+        <v>1251013.167520117</v>
       </c>
       <c r="I30" s="44">
         <f t="shared" si="7"/>
-        <v>1852815.4718361376</v>
+        <v>2982706.656912948</v>
       </c>
       <c r="J30" s="23">
         <f>(SUMIF(Table14[Party],B30,Table14[Credit]))</f>
-        <v>2279100</v>
+        <v>2779100</v>
       </c>
       <c r="K30" s="42">
         <f t="shared" si="8"/>
-        <v>-426284.52816386241</v>
+        <v>203606.656912948</v>
       </c>
       <c r="L30" s="22">
         <v>9</v>
@@ -13468,7 +14203,7 @@
   <dimension ref="A4:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13482,7 +14217,7 @@
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -13546,10 +14281,11 @@
       <c r="J5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
+      <c r="K5" s="106"/>
+      <c r="L5" s="106">
+        <v>0</v>
+      </c>
+      <c r="M5" s="106">
         <v>0</v>
       </c>
     </row>
@@ -13579,10 +14315,11 @@
       <c r="J6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L6">
+      <c r="K6" s="106"/>
+      <c r="L6" s="106">
         <v>60000</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="106">
         <v>35000</v>
       </c>
     </row>
@@ -13604,13 +14341,13 @@
       <c r="J7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="106">
         <v>123050</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="106">
         <v>123050</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="106">
         <v>0</v>
       </c>
     </row>
@@ -13641,13 +14378,13 @@
       <c r="J8" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="106">
         <v>355350</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="106">
         <v>355350</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="106">
         <v>0</v>
       </c>
     </row>
@@ -13675,13 +14412,13 @@
       <c r="J9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="106">
         <v>478400</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="106">
         <v>538400</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="106">
         <v>35000</v>
       </c>
     </row>
@@ -13733,11 +14470,24 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>69500</v>
+      </c>
       <c r="G12">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</f>
-        <v>0</v>
+        <v>69500</v>
       </c>
       <c r="H12">
         <f>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</f>
@@ -13748,11 +14498,11 @@
       <c r="A13" s="1"/>
       <c r="F13">
         <f>SUBTOTAL(109,Table2[Price])</f>
-        <v>478400</v>
+        <v>547900</v>
       </c>
       <c r="G13">
         <f>SUBTOTAL(109,Table2[Paid])</f>
-        <v>538400</v>
+        <v>607900</v>
       </c>
       <c r="H13">
         <f>SUBTOTAL(109,Table2[Balance])</f>
@@ -14580,15 +15330,15 @@
       </c>
       <c r="B2" s="38">
         <f>SUM(B4:INDEX(B:B, MATCH(1E+100, B:B)-1))</f>
-        <v>948153</v>
+        <v>1094897</v>
       </c>
       <c r="C2" s="37">
         <f>GETPIVOTDATA("Sum of Tiyaar/gaz",$A$3)</f>
-        <v>885103</v>
+        <v>1074659</v>
       </c>
       <c r="D2" s="36">
         <f>((B2*48)+((C2/1.0936)*10))/C2</f>
-        <v>60.563374261210079</v>
+        <v>58.04804816216577</v>
       </c>
       <c r="J2">
         <v>48</v>
@@ -14632,11 +15382,11 @@
         <v>9346</v>
       </c>
       <c r="C4" s="14">
-        <v>5084</v>
+        <v>10216</v>
       </c>
       <c r="D4" s="33">
         <f>I4</f>
-        <v>97.383292939048275</v>
+        <v>53.056405632486069</v>
       </c>
       <c r="E4" s="11">
         <f>B4 * 1.0936</f>
@@ -14644,19 +15394,19 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>5084</v>
+        <v>10216</v>
       </c>
       <c r="G4" s="86">
         <f>100- (F4/E4 *100)</f>
-        <v>50.258226725742091</v>
+        <v>4.6822232529748931E-2</v>
       </c>
       <c r="H4" s="33">
         <f>F4/1.0936</f>
-        <v>4648.8661302121436</v>
+        <v>9341.6239941477688</v>
       </c>
       <c r="I4" s="33">
         <f>((B4*48)+(H4*10))/C4</f>
-        <v>97.383292939048275</v>
+        <v>53.056405632486069</v>
       </c>
       <c r="J4" s="33"/>
       <c r="K4" s="33"/>
@@ -15172,11 +15922,11 @@
         <v>167135</v>
       </c>
       <c r="C19" s="14">
-        <v>149859</v>
+        <v>177007</v>
       </c>
       <c r="D19" s="33">
         <f t="shared" si="1"/>
-        <v>62.677632702611703</v>
+        <v>54.467064521921444</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="2"/>
@@ -15184,19 +15934,19 @@
       </c>
       <c r="F19" s="11">
         <f t="shared" si="0"/>
-        <v>149859</v>
+        <v>177007</v>
       </c>
       <c r="G19" s="86">
         <f t="shared" ref="G19:G38" si="6">100- (F19/E19 *100)</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="H19" s="33">
         <f t="shared" si="3"/>
-        <v>137032.73591806876</v>
+        <v>161857.16898317484</v>
       </c>
       <c r="I19" s="33">
         <f t="shared" si="5"/>
-        <v>62.677632702611703</v>
+        <v>54.467064521921444</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -15662,11 +16412,11 @@
         <v>55576</v>
       </c>
       <c r="C33" s="14">
-        <v>32876</v>
+        <v>59248</v>
       </c>
       <c r="D33" s="33">
         <f t="shared" ref="D33:D37" si="7">I33</f>
-        <v>90.28682928461744</v>
+        <v>54.169225964198745</v>
       </c>
       <c r="E33" s="11">
         <f t="shared" ref="E33:E37" si="8">B33 * 1.0936</f>
@@ -15674,19 +16424,19 @@
       </c>
       <c r="F33" s="11">
         <f t="shared" ref="F33:F37" si="9">C33</f>
-        <v>32876</v>
+        <v>59248</v>
       </c>
       <c r="G33" s="86">
         <f t="shared" ref="G33:G37" si="10">100- (F33/E33 *100)</f>
-        <v>45.90798194165059</v>
+        <v>2.5172196763266186</v>
       </c>
       <c r="H33" s="33">
         <f t="shared" ref="H33:H37" si="11">F33/1.0936</f>
-        <v>30062.17995610827</v>
+        <v>54177.029992684715</v>
       </c>
       <c r="I33" s="33">
         <f t="shared" ref="I33:I37" si="12">((B33*48)+(H33*10))/C33</f>
-        <v>90.28682928461744</v>
+        <v>54.169225964198745</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -15725,298 +16475,388 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="35">
-        <v>167135</v>
-      </c>
-      <c r="C35" s="35">
-        <v>885103</v>
+      <c r="A35" s="16">
+        <v>1683</v>
+      </c>
+      <c r="B35" s="14">
+        <v>6915</v>
+      </c>
+      <c r="C35" s="14">
+        <v>7664</v>
       </c>
       <c r="D35" s="33">
         <f t="shared" si="7"/>
-        <v>18.208005451026409</v>
+        <v>52.453088227882709</v>
       </c>
       <c r="E35" s="11">
         <f t="shared" si="8"/>
-        <v>182778.83599999998</v>
+        <v>7562.2439999999997</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="9"/>
-        <v>885103</v>
+        <v>7664</v>
       </c>
       <c r="G35" s="86">
         <f t="shared" si="10"/>
-        <v>-384.24807782450267</v>
+        <v>-1.3455794338294282</v>
       </c>
       <c r="H35" s="33">
         <f t="shared" si="11"/>
-        <v>809348.02487198252</v>
+        <v>7008.0468178493056</v>
       </c>
       <c r="I35" s="33">
         <f t="shared" si="12"/>
-        <v>18.208005451026409</v>
+        <v>52.453088227882709</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D36" s="33" t="e">
+      <c r="A36" s="16">
+        <v>1673</v>
+      </c>
+      <c r="B36" s="14">
+        <v>16493</v>
+      </c>
+      <c r="C36" s="14">
+        <v>18066</v>
+      </c>
+      <c r="D36" s="33">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>52.964768781233019</v>
       </c>
       <c r="E36" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18036.744799999997</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="86" t="e">
+        <v>18066</v>
+      </c>
+      <c r="G36" s="86">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>-0.16219778194124501</v>
       </c>
       <c r="H36" s="33">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="33" t="e">
+        <v>16519.751280175569</v>
+      </c>
+      <c r="I36" s="33">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>52.964768781233019</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D37" s="33" t="e">
+      <c r="A37" s="16">
+        <v>1679</v>
+      </c>
+      <c r="B37" s="14">
+        <v>11403</v>
+      </c>
+      <c r="C37" s="14">
+        <v>12318</v>
+      </c>
+      <c r="D37" s="33">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>53.578597310268378</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12470.3208</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="86" t="e">
+        <v>12318</v>
+      </c>
+      <c r="G37" s="86">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
+        <v>1.2214665720548226</v>
       </c>
       <c r="H37" s="33">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="33" t="e">
+        <v>11263.716166788588</v>
+      </c>
+      <c r="I37" s="33">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>53.578597310268378</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D38" s="33" t="e">
+      <c r="A38" s="16">
+        <v>1668</v>
+      </c>
+      <c r="B38" s="14">
+        <v>22329</v>
+      </c>
+      <c r="C38" s="14">
+        <v>23797</v>
+      </c>
+      <c r="D38" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>54.183065682453872</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24418.9944</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="86" t="e">
+        <v>23797</v>
+      </c>
+      <c r="G38" s="86">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2.5471745060885951</v>
       </c>
       <c r="H38" s="33">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="33" t="e">
+        <v>21760.241404535482</v>
+      </c>
+      <c r="I38" s="33">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>54.183065682453872</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D39" s="33" t="e">
+      <c r="A39" s="16">
+        <v>1664</v>
+      </c>
+      <c r="B39" s="14">
+        <v>22553</v>
+      </c>
+      <c r="C39" s="14">
+        <v>22158</v>
+      </c>
+      <c r="D39" s="33">
         <f t="shared" ref="D39:D46" si="13">I39</f>
-        <v>#DIV/0!</v>
+        <v>57.999784087057684</v>
       </c>
       <c r="E39" s="11">
         <f t="shared" ref="E39:E46" si="14">B39 * 1.0936</f>
-        <v>0</v>
+        <v>24663.960799999997</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" ref="F39:F46" si="15">C39</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="86" t="e">
+        <v>22158</v>
+      </c>
+      <c r="G39" s="86">
         <f t="shared" ref="G39:G46" si="16">100- (F39/E39 *100)</f>
-        <v>#DIV/0!</v>
+        <v>10.160415110617578</v>
       </c>
       <c r="H39" s="33">
         <f t="shared" ref="H39:H46" si="17">F39/1.0936</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="33" t="e">
+        <v>20261.521580102417</v>
+      </c>
+      <c r="I39" s="33">
         <f t="shared" ref="I39:I46" si="18">((B39*48)+(H39*10))/C39</f>
-        <v>#DIV/0!</v>
+        <v>57.999784087057684</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D40" s="33" t="e">
+      <c r="A40" s="16">
+        <v>1660</v>
+      </c>
+      <c r="B40" s="14">
+        <v>10383</v>
+      </c>
+      <c r="C40" s="14">
+        <v>11184</v>
+      </c>
+      <c r="D40" s="33">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>53.706342952048757</v>
       </c>
       <c r="E40" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>11354.8488</v>
       </c>
       <c r="F40" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="86" t="e">
+        <v>11184</v>
+      </c>
+      <c r="G40" s="86">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.5046329811102339</v>
       </c>
       <c r="H40" s="33">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="33" t="e">
+        <v>10226.773957571326</v>
+      </c>
+      <c r="I40" s="33">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>53.706342952048757</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D41" s="33" t="e">
+      <c r="A41" s="16">
+        <v>1678</v>
+      </c>
+      <c r="B41" s="14">
+        <v>13434</v>
+      </c>
+      <c r="C41" s="14">
+        <v>14474</v>
+      </c>
+      <c r="D41" s="33">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>53.695168260237892</v>
       </c>
       <c r="E41" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>14691.422399999999</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="86" t="e">
+        <v>14474</v>
+      </c>
+      <c r="G41" s="86">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.4799274983748347</v>
       </c>
       <c r="H41" s="33">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="33" t="e">
+        <v>13235.186539868326</v>
+      </c>
+      <c r="I41" s="33">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>53.695168260237892</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D42" s="33" t="e">
+      <c r="A42" s="16">
+        <v>1677</v>
+      </c>
+      <c r="B42" s="14">
+        <v>3511</v>
+      </c>
+      <c r="C42" s="14">
+        <v>3774</v>
+      </c>
+      <c r="D42" s="33">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>53.7991191415177</v>
       </c>
       <c r="E42" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3839.6295999999998</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="86" t="e">
+        <v>3774</v>
+      </c>
+      <c r="G42" s="86">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>1.7092690399094721</v>
       </c>
       <c r="H42" s="33">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="33" t="e">
+        <v>3450.9875640087785</v>
+      </c>
+      <c r="I42" s="33">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>53.7991191415177</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D43" s="33" t="e">
+      <c r="A43" s="16">
+        <v>1667</v>
+      </c>
+      <c r="B43" s="14">
+        <v>14638</v>
+      </c>
+      <c r="C43" s="14">
+        <v>4334</v>
+      </c>
+      <c r="D43" s="33">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>171.26316979876034</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>16008.116799999998</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="86" t="e">
+        <v>4334</v>
+      </c>
+      <c r="G43" s="86">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>72.926234521227371</v>
       </c>
       <c r="H43" s="33">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="33" t="e">
+        <v>3963.0577907827364</v>
+      </c>
+      <c r="I43" s="33">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>171.26316979876034</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D44" s="33" t="e">
+      <c r="A44" s="16">
+        <v>1675</v>
+      </c>
+      <c r="B44" s="14">
+        <v>25085</v>
+      </c>
+      <c r="C44" s="14">
+        <v>13135</v>
+      </c>
+      <c r="D44" s="33">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>100.81369627042788</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>27432.955999999998</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="86" t="e">
+        <v>13135</v>
+      </c>
+      <c r="G44" s="86">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>52.119633042826294</v>
       </c>
       <c r="H44" s="33">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="33" t="e">
+        <v>12010.790051207025</v>
+      </c>
+      <c r="I44" s="33">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>100.81369627042788</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D45" s="33" t="e">
+      <c r="A45" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="35">
+        <v>167135</v>
+      </c>
+      <c r="C45" s="35">
+        <v>1074659</v>
+      </c>
+      <c r="D45" s="33">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>16.609251297299796</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>182778.83599999998</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="86" t="e">
+        <v>1074659</v>
+      </c>
+      <c r="G45" s="86">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>-487.95592723875325</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="33" t="e">
+        <v>982680.13899049023</v>
+      </c>
+      <c r="I45" s="33">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>16.609251297299796</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -16062,8 +16902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E4D408-891B-4465-8F80-7726ACC6CDF3}">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16545,7 +17385,7 @@
       </c>
       <c r="J25">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</f>
-        <v>0</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
@@ -16564,7 +17404,7 @@
       </c>
       <c r="J26">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</f>
-        <v>0</v>
+        <v>18849</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
@@ -16728,7 +17568,7 @@
       <c r="H35" s="1"/>
       <c r="J35">
         <f>SUM(Table15[Amount])</f>
-        <v>601131</v>
+        <v>628124</v>
       </c>
     </row>
   </sheetData>
@@ -16768,7 +17608,7 @@
       </c>
       <c r="B2" s="14">
         <f>Billing!W5</f>
-        <v>6315144</v>
+        <v>6400933</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -16788,7 +17628,7 @@
       </c>
       <c r="B4" s="14">
         <f>Billing!W7</f>
-        <v>654210</v>
+        <v>704210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -16808,7 +17648,7 @@
       </c>
       <c r="B6" s="14">
         <f>Billing!W9</f>
-        <v>2579100</v>
+        <v>3079100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -16873,8 +17713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7D53AD-D664-44CF-A1E1-2DB6CE627410}">
   <dimension ref="B4:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A12" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16882,7 +17722,7 @@
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
@@ -16905,7 +17745,7 @@
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="72" t="s">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="J6" t="str">
         <v>Arshad</v>
@@ -16919,10 +17759,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="70" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>313</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>314</v>
       </c>
       <c r="J7" t="str">
         <v>Shehzad Kamoki</v>
@@ -16935,7 +17775,7 @@
       <c r="C8" s="74"/>
       <c r="D8" s="76" cm="1">
         <f t="array" ref="D8">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), INDEX(Billing!P5:P19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>90939</v>
+        <v>476964</v>
       </c>
       <c r="E8" s="74"/>
       <c r="J8" t="str">
@@ -16958,7 +17798,7 @@
       <c r="C10" s="74"/>
       <c r="D10" s="76" cm="1">
         <f t="array" ref="D10">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!Q5:Q20, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>83155.632772494515</v>
+        <v>436141.18507681059</v>
       </c>
       <c r="E10" s="74"/>
       <c r="J10" t="str">
@@ -16980,15 +17820,15 @@
       </c>
       <c r="C12" s="74" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$B$26), OFFSET(Billing!L26, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!$B$26))), "Not Found")</f>
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="D12" s="74" cm="1">
         <f t="array" ref="D12">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!R5:R19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>83155.632772494515</v>
+        <v>311806.87637161673</v>
       </c>
       <c r="E12" s="103">
         <f ca="1">Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</f>
-        <v>873134.14411119244</v>
+        <v>2806261.8873445503</v>
       </c>
       <c r="J12" t="str">
         <v>Ubaidullah</v>
@@ -17009,15 +17849,15 @@
       </c>
       <c r="C14" s="74" cm="1">
         <f t="array" aca="1" ref="C14" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$B$26), OFFSET(Billing!M26, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!$B$26))), "Not Found")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="74" cm="1">
         <f t="array" ref="D14">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!S5:S19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>0</v>
+        <v>124334.30870519386</v>
       </c>
       <c r="E14" s="74">
         <f ca="1">Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</f>
-        <v>0</v>
+        <v>1492011.7044623264</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -17034,7 +17874,7 @@
       <c r="D16" s="102"/>
       <c r="E16" s="104">
         <f ca="1">E12+E14</f>
-        <v>873134.14411119244</v>
+        <v>4298273.5918068765</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -17051,7 +17891,7 @@
       <c r="D18" s="102"/>
       <c r="E18" s="104" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!W5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>850000</v>
+        <v>3079100</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -17068,7 +17908,7 @@
       <c r="D20" s="102"/>
       <c r="E20" s="105" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!X5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>4.4111192459240556E-2</v>
+        <v>1219173.5918068765</v>
       </c>
     </row>
   </sheetData>
@@ -17132,7 +17972,7 @@
       </c>
       <c r="C4" s="11">
         <f>Wood!N14</f>
-        <v>4821335</v>
+        <v>5144175</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -17150,7 +17990,7 @@
       </c>
       <c r="C6" s="11">
         <f>SUM(Table2[Price])</f>
-        <v>478400</v>
+        <v>547900</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -17159,7 +17999,7 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(Table14[Debit], Table14[Party],Table12[[#This Row],[Type]])</f>
-        <v>57465</v>
+        <v>60265</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -17195,7 +18035,7 @@
       </c>
       <c r="C11" s="11">
         <f>Table13[[#Totals],[Debit]]</f>
-        <v>115455</v>
+        <v>121135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -17204,7 +18044,7 @@
       </c>
       <c r="C12" s="11">
         <f>Table15[[#Totals],[Amount]]</f>
-        <v>601131</v>
+        <v>628124</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -17213,7 +18053,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <f>SUM(Table12[Amount])</f>
-        <v>7528755</v>
+        <v>7956568</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -17315,7 +18155,7 @@
       </c>
       <c r="C3" s="11">
         <f ca="1">Billing!C18 + SUMIFS(Table14[Credit], Table14[Party], "Transport")</f>
-        <v>8107222.933430871</v>
+        <v>9846614.8500365783</v>
       </c>
       <c r="D3" t="s">
         <v>70</v>
@@ -17327,7 +18167,7 @@
       </c>
       <c r="C4" s="11">
         <f>Table12[[#Totals],[Amount]]</f>
-        <v>7528755</v>
+        <v>7956568</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -17337,7 +18177,7 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C3-C4</f>
-        <v>578467.93343087099</v>
+        <v>1890046.8500365783</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17354,7 +18194,7 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">C3</f>
-        <v>8107222.933430871</v>
+        <v>9846614.8500365783</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -17363,7 +18203,7 @@
       </c>
       <c r="C12" s="67">
         <f>SUM(Table14[Credit])</f>
-        <v>7625247</v>
+        <v>8263536</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17372,7 +18212,7 @@
       </c>
       <c r="C13" s="81">
         <f ca="1">(C11-C12)</f>
-        <v>481975.93343087099</v>
+        <v>1583078.8500365783</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17385,7 +18225,7 @@
       </c>
       <c r="C15" s="65">
         <f>C4</f>
-        <v>7528755</v>
+        <v>7956568</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -17394,7 +18234,7 @@
       </c>
       <c r="C16" s="67">
         <f>SUM(Table14[Debit])</f>
-        <v>7133346</v>
+        <v>7809959</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17403,7 +18243,7 @@
       </c>
       <c r="C17" s="81">
         <f>C15-C16</f>
-        <v>395409</v>
+        <v>146609</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17416,7 +18256,7 @@
       </c>
       <c r="C19" s="84">
         <f>Table18[[#Totals],[amount]]</f>
-        <v>491901</v>
+        <v>453577</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -17429,14 +18269,14 @@
       </c>
       <c r="C21" s="69">
         <f ca="1">(C13-C17)+C19</f>
-        <v>578467.93343087099</v>
+        <v>1890046.8500365783</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>77</v>
       </c>
       <c r="F21" s="88">
         <f ca="1">C5*0.05</f>
-        <v>28923.396671543553</v>
+        <v>94502.342501828913</v>
       </c>
     </row>
   </sheetData>
@@ -17786,7 +18626,7 @@
       </c>
       <c r="D26">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
-        <v>0</v>
+        <v>5680</v>
       </c>
       <c r="E26">
         <f>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
@@ -17901,7 +18741,7 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUBTOTAL(109,Table13[Debit])</f>
-        <v>115455</v>
+        <v>121135</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(109,Table13[Credit])</f>
@@ -17909,7 +18749,7 @@
       </c>
       <c r="F35">
         <f>Table13[[#Totals],[Debit]]-Table13[[#Totals],[Credit]]</f>
-        <v>115455</v>
+        <v>121135</v>
       </c>
     </row>
   </sheetData>
@@ -17925,10 +18765,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB155"/>
+  <dimension ref="A1:AB181"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17938,12 +18778,12 @@
     <col min="3" max="3" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" style="10" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
@@ -19580,7 +20420,7 @@
       </c>
       <c r="H34" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I34" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19736,7 +20576,7 @@
       </c>
       <c r="H37" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I37" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -19996,7 +20836,7 @@
       </c>
       <c r="H42" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I42" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20048,7 +20888,7 @@
       </c>
       <c r="H43" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I43" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20456,7 +21296,7 @@
       </c>
       <c r="H51" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I51" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -20664,7 +21504,7 @@
       </c>
       <c r="H55" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I55" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21163,7 +22003,7 @@
       </c>
       <c r="H65" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>50.258226725742091</v>
+        <v>4.6822232529748931E-2</v>
       </c>
       <c r="I65" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21307,7 +22147,7 @@
       </c>
       <c r="H68" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I68" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21355,7 +22195,7 @@
       </c>
       <c r="H69" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I69" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21403,7 +22243,7 @@
       </c>
       <c r="H70" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>45.90798194165059</v>
+        <v>2.5172196763266186</v>
       </c>
       <c r="I70" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21495,7 +22335,7 @@
       </c>
       <c r="H72" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>18.010748246585834</v>
+        <v>3.157825121503663</v>
       </c>
       <c r="I72" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21586,7 +22426,7 @@
       </c>
       <c r="H74" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>45.90798194165059</v>
+        <v>2.5172196763266186</v>
       </c>
       <c r="I74" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -21608,483 +22448,749 @@
       <c r="Q74"/>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50" cm="1">
-        <f t="array" aca="1" ref="I75" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>805458.11997073889</v>
-      </c>
-      <c r="J75" s="50" cm="1">
-        <f t="array" aca="1" ref="J75" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>8107222.9334308729</v>
-      </c>
-      <c r="K75" s="33">
-        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
-        <v>8107222.9334308729</v>
-      </c>
+      <c r="A75" s="28">
+        <v>45907</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="29">
+        <v>785</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="11">
+        <v>1683</v>
+      </c>
+      <c r="F75" s="11">
+        <v>6915</v>
+      </c>
+      <c r="G75" s="11">
+        <v>7664</v>
+      </c>
+      <c r="H75" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>-1.3455794338294282</v>
+      </c>
+      <c r="I75" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>7008.0468178493056</v>
+      </c>
+      <c r="J75" s="32" cm="1">
+        <f t="array" ref="J75">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>84096.561814191664</v>
+      </c>
+      <c r="K75" s="29"/>
       <c r="O75"/>
       <c r="P75"/>
       <c r="Q75"/>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="28">
+        <v>45907</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="29">
+        <v>786</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E76" s="11">
+        <v>1666</v>
+      </c>
+      <c r="F76" s="11">
+        <v>9346</v>
+      </c>
+      <c r="G76" s="11">
+        <v>5132</v>
+      </c>
+      <c r="H76" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>4.6822232529748931E-2</v>
+      </c>
+      <c r="I76" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>4692.7578639356261</v>
+      </c>
+      <c r="J76" s="32" cm="1">
+        <f t="array" ref="J76">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>56313.094367227517</v>
+      </c>
+      <c r="K76" s="29"/>
       <c r="O76"/>
       <c r="P76"/>
       <c r="Q76"/>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="28">
+        <v>45907</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="29">
+        <v>787</v>
+      </c>
+      <c r="D77" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E77" s="11">
+        <v>1673</v>
+      </c>
+      <c r="F77" s="11">
+        <v>16493</v>
+      </c>
+      <c r="G77" s="11">
+        <v>18066</v>
+      </c>
+      <c r="H77" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>-0.16219778194124501</v>
+      </c>
+      <c r="I77" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>16519.751280175569</v>
+      </c>
+      <c r="J77" s="32" cm="1">
+        <f t="array" ref="J77">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>198237.01536210685</v>
+      </c>
+      <c r="K77" s="29"/>
       <c r="O77"/>
       <c r="P77"/>
       <c r="Q77"/>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78" s="28">
+        <v>45907</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="29">
+        <v>788</v>
+      </c>
+      <c r="D78" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1679</v>
+      </c>
+      <c r="F78" s="11">
+        <v>11403</v>
+      </c>
+      <c r="G78" s="11">
+        <v>12318</v>
+      </c>
+      <c r="H78" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>1.2214665720548226</v>
+      </c>
+      <c r="I78" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>11263.716166788588</v>
+      </c>
+      <c r="J78" s="32" cm="1">
+        <f t="array" ref="J78">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>135164.59400146306</v>
+      </c>
+      <c r="K78" s="29"/>
       <c r="O78"/>
       <c r="P78"/>
       <c r="Q78"/>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79" s="28">
+        <v>45907</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="29">
+        <v>789</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E79" s="11">
+        <v>1668</v>
+      </c>
+      <c r="F79" s="11">
+        <v>22329</v>
+      </c>
+      <c r="G79" s="11">
+        <v>23797</v>
+      </c>
+      <c r="H79" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>2.5471745060885951</v>
+      </c>
+      <c r="I79" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>21760.241404535482</v>
+      </c>
+      <c r="J79" s="32" cm="1">
+        <f t="array" ref="J79">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>195842.17264081934</v>
+      </c>
+      <c r="K79" s="29"/>
       <c r="O79"/>
       <c r="P79"/>
       <c r="Q79"/>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80" s="28">
+        <v>45907</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="29">
+        <v>790</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="11">
+        <v>1655</v>
+      </c>
+      <c r="F80" s="11">
+        <v>167135</v>
+      </c>
+      <c r="G80" s="11">
+        <v>27148</v>
+      </c>
+      <c r="H80" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>3.157825121503663</v>
+      </c>
+      <c r="I80" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>24824.433065106074</v>
+      </c>
+      <c r="J80" s="32" cm="1">
+        <f t="array" ref="J80">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>248244.33065106074</v>
+      </c>
+      <c r="K80" s="29"/>
       <c r="O80"/>
       <c r="P80"/>
       <c r="Q80"/>
     </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="28">
+        <v>45908</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="29">
+        <v>791</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="11">
+        <v>1657</v>
+      </c>
+      <c r="F81" s="11">
+        <v>55576</v>
+      </c>
+      <c r="G81" s="11">
+        <v>17480</v>
+      </c>
+      <c r="H81" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>2.5172196763266186</v>
+      </c>
+      <c r="I81" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>15983.906364301391</v>
+      </c>
+      <c r="J81" s="32" cm="1">
+        <f t="array" ref="J81">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>159839.06364301391</v>
+      </c>
+      <c r="K81" s="29"/>
       <c r="O81"/>
       <c r="P81"/>
       <c r="Q81"/>
     </row>
-    <row r="82" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="28">
+        <v>45908</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="29">
+        <v>792</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="11">
+        <v>1664</v>
+      </c>
+      <c r="F82" s="11">
+        <v>22553</v>
+      </c>
+      <c r="G82" s="11">
+        <v>22158</v>
+      </c>
+      <c r="H82" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>10.160415110617578</v>
+      </c>
+      <c r="I82" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>20261.521580102417</v>
+      </c>
+      <c r="J82" s="32" cm="1">
+        <f t="array" ref="J82">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>182353.69422092175</v>
+      </c>
+      <c r="K82" s="29"/>
       <c r="O82"/>
       <c r="P82"/>
       <c r="Q82"/>
     </row>
-    <row r="83" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="28">
+        <v>45908</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="29">
+        <v>793</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="11">
+        <v>1660</v>
+      </c>
+      <c r="F83" s="11">
+        <v>10383</v>
+      </c>
+      <c r="G83" s="11">
+        <v>11184</v>
+      </c>
+      <c r="H83" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>1.5046329811102339</v>
+      </c>
+      <c r="I83" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>10226.773957571326</v>
+      </c>
+      <c r="J83" s="32" cm="1">
+        <f t="array" ref="J83">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>92040.965618141927</v>
+      </c>
+      <c r="K83" s="29"/>
       <c r="O83"/>
       <c r="P83"/>
       <c r="Q83"/>
     </row>
-    <row r="84" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="O84"/>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="28">
+        <v>45908</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="29">
+        <v>794</v>
+      </c>
+      <c r="D84" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E84" s="11">
+        <v>1678</v>
+      </c>
+      <c r="F84" s="11">
+        <v>13434</v>
+      </c>
+      <c r="G84" s="11">
+        <v>14474</v>
+      </c>
+      <c r="H84" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>1.4799274983748347</v>
+      </c>
+      <c r="I84" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>13235.186539868326</v>
+      </c>
+      <c r="J84" s="32" cm="1">
+        <f t="array" ref="J84">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>119116.67885881494</v>
+      </c>
+      <c r="K84" s="29"/>
       <c r="P84"/>
       <c r="Q84"/>
     </row>
-    <row r="85" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s">
-        <v>93</v>
-      </c>
-      <c r="O85"/>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="28">
+        <v>45908</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="29">
+        <v>795</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E85" s="11">
+        <v>1677</v>
+      </c>
+      <c r="F85" s="11">
+        <v>3511</v>
+      </c>
+      <c r="G85" s="11">
+        <v>3774</v>
+      </c>
+      <c r="H85" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>1.7092690399094721</v>
+      </c>
+      <c r="I85" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>3450.9875640087785</v>
+      </c>
+      <c r="J85" s="32" cm="1">
+        <f t="array" ref="J85">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>31058.888076079005</v>
+      </c>
+      <c r="K85" s="29"/>
       <c r="P85"/>
       <c r="Q85"/>
     </row>
-    <row r="86" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D86" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" t="s">
-        <v>93</v>
-      </c>
-      <c r="O86"/>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="28">
+        <v>45909</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="29">
+        <v>796</v>
+      </c>
+      <c r="D86" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86" s="11">
+        <v>1657</v>
+      </c>
+      <c r="F86" s="11">
+        <v>55576</v>
+      </c>
+      <c r="G86" s="11">
+        <v>8892</v>
+      </c>
+      <c r="H86" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>2.5172196763266186</v>
+      </c>
+      <c r="I86" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>8130.9436722750552</v>
+      </c>
+      <c r="J86" s="32" cm="1">
+        <f t="array" ref="J86">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>81309.436722750557</v>
+      </c>
+      <c r="K86" s="29"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D87" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E87" t="s">
-        <v>93</v>
-      </c>
-      <c r="L87"/>
-      <c r="M87"/>
-      <c r="O87"/>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="28">
+        <v>45909</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="29">
+        <v>797</v>
+      </c>
+      <c r="D87" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1667</v>
+      </c>
+      <c r="F87" s="11">
+        <v>14638</v>
+      </c>
+      <c r="G87" s="11">
+        <v>4334</v>
+      </c>
+      <c r="H87" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>72.926234521227371</v>
+      </c>
+      <c r="I87" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>3963.0577907827364</v>
+      </c>
+      <c r="J87" s="32" cm="1">
+        <f t="array" ref="J87">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>35667.520117044631</v>
+      </c>
+      <c r="K87" s="29"/>
       <c r="P87"/>
       <c r="Q87"/>
     </row>
-    <row r="88" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="O88"/>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="28">
+        <v>45909</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="29">
+        <v>798</v>
+      </c>
+      <c r="D88" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E88" s="11">
+        <v>1675</v>
+      </c>
+      <c r="F88" s="11">
+        <v>25085</v>
+      </c>
+      <c r="G88" s="11">
+        <v>13135</v>
+      </c>
+      <c r="H88" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>52.119633042826294</v>
+      </c>
+      <c r="I88" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>12010.790051207025</v>
+      </c>
+      <c r="J88" s="32" cm="1">
+        <f t="array" ref="J88">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>120107.90051207025</v>
+      </c>
+      <c r="K88" s="29"/>
       <c r="P88"/>
       <c r="Q88"/>
     </row>
-    <row r="89" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D89" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" t="s">
-        <v>95</v>
-      </c>
-      <c r="G89" t="s">
-        <v>96</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J89" t="s">
-        <v>95</v>
-      </c>
-      <c r="K89" t="s">
-        <v>96</v>
-      </c>
-      <c r="L89"/>
-      <c r="M89"/>
-      <c r="O89"/>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="50" cm="1">
+        <f t="array" aca="1" ref="I89" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>978790.2340892466</v>
+      </c>
+      <c r="J89" s="50" cm="1">
+        <f t="array" aca="1" ref="J89" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>9846614.8500365764</v>
+      </c>
+      <c r="K89" s="33">
+        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
+        <v>9846614.8500365764</v>
+      </c>
       <c r="P89"/>
       <c r="Q89"/>
     </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D90" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90"/>
-      <c r="F90" s="33">
-        <v>972869.42209217278</v>
-      </c>
-      <c r="G90">
-        <v>9691041.9714703746</v>
-      </c>
-      <c r="I90" s="27">
-        <v>45885</v>
-      </c>
-      <c r="J90" s="50">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="K90" s="14">
-        <v>20501.097293343086</v>
-      </c>
-      <c r="L90"/>
-      <c r="M90"/>
-      <c r="N90"/>
-      <c r="O90"/>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P90"/>
       <c r="Q90"/>
     </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D91" s="16">
-        <v>716</v>
-      </c>
-      <c r="E91">
-        <v>43689</v>
-      </c>
-      <c r="F91" s="33">
-        <v>39949.70738844185</v>
-      </c>
-      <c r="G91">
-        <v>399497.07388441847</v>
-      </c>
-      <c r="I91" s="27">
-        <v>45886</v>
-      </c>
-      <c r="J91" s="50">
-        <v>972869.42209217278</v>
-      </c>
-      <c r="K91" s="14">
-        <v>9691041.9714703746</v>
-      </c>
-      <c r="L91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="O91"/>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P91"/>
       <c r="Q91"/>
     </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D92" s="16">
-        <v>722</v>
-      </c>
-      <c r="E92">
-        <v>25952</v>
-      </c>
-      <c r="F92" s="33">
-        <v>23730.797366495979</v>
-      </c>
-      <c r="G92">
-        <v>237307.97366495978</v>
-      </c>
-      <c r="I92" s="27">
-        <v>45888</v>
-      </c>
-      <c r="J92" s="50">
-        <v>71674.286759327006</v>
-      </c>
-      <c r="K92" s="14">
-        <v>716742.86759327003</v>
-      </c>
-      <c r="L92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="O92"/>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P92"/>
       <c r="Q92"/>
     </row>
-    <row r="93" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D93" s="16">
-        <v>723</v>
-      </c>
-      <c r="E93">
-        <v>8742</v>
-      </c>
-      <c r="F93" s="33">
-        <v>7993.7820043891743</v>
-      </c>
-      <c r="G93">
-        <v>79937.820043891741</v>
-      </c>
-      <c r="I93" s="27">
-        <v>45890</v>
-      </c>
-      <c r="J93" s="50">
-        <v>50132.589612289696</v>
-      </c>
-      <c r="K93" s="14">
-        <v>501325.89612289687</v>
-      </c>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93"/>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P93"/>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D94" s="16">
-        <v>724</v>
-      </c>
-      <c r="E94">
-        <v>48705</v>
-      </c>
-      <c r="F94" s="33">
-        <v>44536.393562545723</v>
-      </c>
-      <c r="G94">
-        <v>445363.9356254572</v>
-      </c>
-      <c r="I94" s="27">
-        <v>45891</v>
-      </c>
-      <c r="J94" s="50">
-        <v>37560.351133869786</v>
-      </c>
-      <c r="K94" s="14">
-        <v>375603.51133869792</v>
-      </c>
-      <c r="L94"/>
-      <c r="M94"/>
-      <c r="N94"/>
-      <c r="O94"/>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P94"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D95" s="16">
-        <v>725</v>
-      </c>
-      <c r="E95">
-        <v>4140</v>
-      </c>
-      <c r="F95" s="33">
-        <v>3785.6620336503297</v>
-      </c>
-      <c r="G95">
-        <v>37856.6203365033</v>
-      </c>
-      <c r="I95" s="27">
-        <v>45892</v>
-      </c>
-      <c r="J95" s="50">
-        <v>76884.601316752029</v>
-      </c>
-      <c r="K95" s="14">
-        <v>764915.87417703005</v>
-      </c>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O95"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D96" s="16">
-        <v>726</v>
-      </c>
-      <c r="E96">
-        <v>1980</v>
-      </c>
-      <c r="F96" s="33">
-        <v>1810.534016093636</v>
-      </c>
-      <c r="G96">
-        <v>18105.340160936361</v>
-      </c>
-      <c r="I96" s="27">
-        <v>45894</v>
-      </c>
-      <c r="J96" s="50">
-        <v>81706.291148500371</v>
-      </c>
-      <c r="K96" s="14">
-        <v>806219.82443306514</v>
-      </c>
-      <c r="L96"/>
-      <c r="M96"/>
-      <c r="N96"/>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O96"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D97" s="16">
-        <v>727</v>
-      </c>
-      <c r="E97">
-        <v>21621</v>
-      </c>
-      <c r="F97" s="33">
-        <v>19770.48280907096</v>
-      </c>
-      <c r="G97">
-        <v>197704.82809070961</v>
-      </c>
-      <c r="I97" s="27">
-        <v>45895</v>
-      </c>
-      <c r="J97" s="50">
-        <v>17298.829553767377</v>
-      </c>
-      <c r="K97" s="14">
-        <v>155689.46598390638</v>
-      </c>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
+      <c r="D97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>93</v>
+      </c>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D98" s="16">
-        <v>728</v>
-      </c>
-      <c r="E98">
-        <v>6406</v>
-      </c>
-      <c r="F98" s="33">
-        <v>5857.7176298463792</v>
-      </c>
-      <c r="G98">
-        <v>58577.17629846379</v>
-      </c>
-      <c r="I98" s="27">
-        <v>45896</v>
-      </c>
-      <c r="J98" s="50">
-        <v>59752.194586686186</v>
-      </c>
-      <c r="K98" s="14">
-        <v>555856.80321872712</v>
+      <c r="D98" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E98" t="s">
+        <v>93</v>
       </c>
       <c r="L98"/>
       <c r="M98"/>
-      <c r="N98"/>
       <c r="O98"/>
       <c r="P98"/>
       <c r="Q98"/>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D99" s="16">
-        <v>729</v>
-      </c>
-      <c r="E99">
-        <v>7452</v>
-      </c>
-      <c r="F99" s="33">
-        <v>6814.1916605705928</v>
-      </c>
-      <c r="G99">
-        <v>68141.916605705934</v>
-      </c>
-      <c r="I99" s="27">
-        <v>45897</v>
-      </c>
-      <c r="J99" s="50">
-        <v>41335.040234089247</v>
-      </c>
-      <c r="K99" s="14">
-        <v>413350.40234089253</v>
+      <c r="D99" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" t="s">
+        <v>93</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
-      <c r="N99"/>
       <c r="O99"/>
       <c r="P99"/>
       <c r="Q99"/>
     </row>
     <row r="100" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D100" s="16">
-        <v>731</v>
-      </c>
-      <c r="E100">
-        <v>5597</v>
-      </c>
-      <c r="F100" s="33">
-        <v>5117.9590343818581</v>
-      </c>
-      <c r="G100">
-        <v>51179.590343818578</v>
-      </c>
-      <c r="I100" s="27">
-        <v>45898</v>
-      </c>
-      <c r="J100" s="50">
-        <v>40317.300658376014</v>
-      </c>
-      <c r="K100" s="14">
-        <v>393712.50914411119</v>
-      </c>
       <c r="L100"/>
       <c r="M100"/>
-      <c r="N100"/>
       <c r="O100"/>
       <c r="P100"/>
       <c r="Q100"/>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D101" s="16">
-        <v>732</v>
-      </c>
-      <c r="E101">
-        <v>21167</v>
-      </c>
-      <c r="F101" s="33">
-        <v>19355.340160936357</v>
-      </c>
-      <c r="G101">
-        <v>193553.40160936356</v>
-      </c>
-      <c r="I101" s="27">
-        <v>45899</v>
-      </c>
-      <c r="J101" s="50">
-        <v>53495.793708851503</v>
-      </c>
-      <c r="K101" s="14">
-        <v>624926.84711046098</v>
+      <c r="D101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
+        <v>94</v>
+      </c>
+      <c r="F101" t="s">
+        <v>95</v>
+      </c>
+      <c r="G101" t="s">
+        <v>96</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J101" t="s">
+        <v>95</v>
+      </c>
+      <c r="K101" t="s">
+        <v>96</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -22094,26 +23200,24 @@
       <c r="Q101"/>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D102" s="16">
-        <v>733</v>
-      </c>
-      <c r="E102">
-        <v>2010</v>
-      </c>
+      <c r="D102" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E102" s="106"/>
       <c r="F102" s="33">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
+        <v>972869.42209217278</v>
+      </c>
+      <c r="G102" s="106">
+        <v>9667907.8714703731</v>
       </c>
       <c r="I102" s="27">
-        <v>45900</v>
+        <v>45885</v>
       </c>
       <c r="J102" s="50">
-        <v>112115.94732991954</v>
+        <v>2050.1097293343087</v>
       </c>
       <c r="K102" s="14">
-        <v>1113504.0234089247</v>
+        <v>20501.097293343086</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -22124,25 +23228,25 @@
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D103" s="16">
-        <v>734</v>
-      </c>
-      <c r="E103">
-        <v>16253</v>
+        <v>716</v>
+      </c>
+      <c r="E103" s="106">
+        <v>43689</v>
       </c>
       <c r="F103" s="33">
-        <v>14861.923920994881</v>
-      </c>
-      <c r="G103">
-        <v>148619.23920994881</v>
+        <v>39949.70738844185</v>
+      </c>
+      <c r="G103" s="106">
+        <v>399497.07388441847</v>
       </c>
       <c r="I103" s="27">
-        <v>45901</v>
+        <v>45886</v>
       </c>
       <c r="J103" s="50">
-        <v>33280.907095830291</v>
+        <v>972869.42209217278</v>
       </c>
       <c r="K103" s="14">
-        <v>332430.50475493784</v>
+        <v>9667907.8714703731</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -22153,25 +23257,25 @@
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D104" s="16">
-        <v>735</v>
-      </c>
-      <c r="E104">
-        <v>33788</v>
+        <v>722</v>
+      </c>
+      <c r="E104" s="106">
+        <v>25952</v>
       </c>
       <c r="F104" s="33">
-        <v>30896.122896854427</v>
-      </c>
-      <c r="G104">
-        <v>308961.22896854428</v>
+        <v>23730.797366495979</v>
+      </c>
+      <c r="G104" s="106">
+        <v>237307.97366495978</v>
       </c>
       <c r="I104" s="27">
-        <v>45902</v>
+        <v>45888</v>
       </c>
       <c r="J104" s="50">
-        <v>39340.709583028533</v>
+        <v>71674.286759327006</v>
       </c>
       <c r="K104" s="14">
-        <v>447311.63130943681</v>
+        <v>716742.86759327003</v>
       </c>
       <c r="L104"/>
       <c r="M104"/>
@@ -22182,786 +23286,1337 @@
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D105" s="16">
-        <v>736</v>
-      </c>
-      <c r="E105">
-        <v>8575</v>
+        <v>723</v>
+      </c>
+      <c r="E105" s="106">
+        <v>8742</v>
       </c>
       <c r="F105" s="33">
-        <v>7841.0753474762259</v>
-      </c>
-      <c r="G105">
-        <v>78410.753474762256</v>
+        <v>7993.7820043891743</v>
+      </c>
+      <c r="G105" s="106">
+        <v>79937.820043891741</v>
       </c>
       <c r="I105" s="27">
-        <v>45903</v>
+        <v>45890</v>
       </c>
       <c r="J105" s="50">
-        <v>45768.105340160946</v>
+        <v>50132.589612289696</v>
       </c>
       <c r="K105" s="14">
-        <v>457681.05340160942</v>
+        <v>501325.89612289687</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
+      <c r="O105"/>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D106" s="16">
-        <v>737</v>
-      </c>
-      <c r="E106">
-        <v>4298</v>
+        <v>724</v>
+      </c>
+      <c r="E106" s="106">
+        <v>48705</v>
       </c>
       <c r="F106" s="33">
-        <v>3930.1389904901248</v>
-      </c>
-      <c r="G106">
-        <v>35371.250914411125</v>
+        <v>44536.393562545723</v>
+      </c>
+      <c r="G106" s="106">
+        <v>445363.9356254572</v>
       </c>
       <c r="I106" s="27">
-        <v>45905</v>
-      </c>
-      <c r="J106" s="50"/>
+        <v>45891</v>
+      </c>
+      <c r="J106" s="50">
+        <v>37560.351133869786</v>
+      </c>
       <c r="K106" s="14">
-        <v>0</v>
+        <v>375603.51133869792</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
+      <c r="O106"/>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D107" s="16">
-        <v>738</v>
-      </c>
-      <c r="E107">
-        <v>22478</v>
+        <v>725</v>
+      </c>
+      <c r="E107" s="106">
+        <v>4140</v>
       </c>
       <c r="F107" s="33">
-        <v>20554.133138258963</v>
-      </c>
-      <c r="G107">
-        <v>205541.33138258965</v>
-      </c>
-      <c r="I107" s="27" t="s">
-        <v>28</v>
+        <v>3785.6620336503297</v>
+      </c>
+      <c r="G107" s="106">
+        <v>37856.6203365033</v>
+      </c>
+      <c r="I107" s="27">
+        <v>45892</v>
       </c>
       <c r="J107" s="50">
-        <v>1735582.4798829553</v>
+        <v>76884.601316752029</v>
       </c>
       <c r="K107" s="14">
-        <v>17370814.283101685</v>
+        <v>764915.87417703005</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
+      <c r="O107"/>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D108" s="16">
-        <v>739</v>
-      </c>
-      <c r="E108">
-        <v>8540</v>
+        <v>726</v>
+      </c>
+      <c r="E108" s="106">
+        <v>1980</v>
       </c>
       <c r="F108" s="33">
-        <v>7809.0709583028538</v>
-      </c>
-      <c r="G108">
-        <v>78090.70958302854</v>
+        <v>1810.534016093636</v>
+      </c>
+      <c r="G108" s="106">
+        <v>18105.340160936361</v>
+      </c>
+      <c r="I108" s="27">
+        <v>45894</v>
+      </c>
+      <c r="J108" s="50">
+        <v>81706.291148500371</v>
+      </c>
+      <c r="K108" s="14">
+        <v>806219.82443306514</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
+      <c r="O108"/>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D109" s="16">
-        <v>740</v>
-      </c>
-      <c r="E109">
-        <v>7214</v>
+        <v>727</v>
+      </c>
+      <c r="E109" s="106">
+        <v>21621</v>
       </c>
       <c r="F109" s="33">
-        <v>6596.5618141916611</v>
-      </c>
-      <c r="G109">
-        <v>65965.61814191661</v>
+        <v>19770.48280907096</v>
+      </c>
+      <c r="G109" s="106">
+        <v>197704.82809070961</v>
+      </c>
+      <c r="I109" s="27">
+        <v>45895</v>
+      </c>
+      <c r="J109" s="50">
+        <v>17298.829553767377</v>
+      </c>
+      <c r="K109" s="14">
+        <v>155689.46598390638</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
+      <c r="O109"/>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D110" s="16">
-        <v>741</v>
-      </c>
-      <c r="E110">
-        <v>6688</v>
+        <v>728</v>
+      </c>
+      <c r="E110" s="106">
+        <v>6406</v>
       </c>
       <c r="F110" s="33">
-        <v>6115.5815654718363</v>
-      </c>
-      <c r="G110">
-        <v>61155.815654718361</v>
+        <v>5857.7176298463792</v>
+      </c>
+      <c r="G110" s="106">
+        <v>58577.17629846379</v>
+      </c>
+      <c r="I110" s="27">
+        <v>45896</v>
+      </c>
+      <c r="J110" s="50">
+        <v>59752.194586686186</v>
+      </c>
+      <c r="K110" s="14">
+        <v>555856.80321872712</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
       <c r="N110"/>
+      <c r="O110"/>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D111" s="16">
-        <v>742</v>
-      </c>
-      <c r="E111">
-        <v>1914</v>
+        <v>729</v>
+      </c>
+      <c r="E111" s="106">
+        <v>7452</v>
       </c>
       <c r="F111" s="33">
-        <v>1750.1828822238481</v>
-      </c>
-      <c r="G111">
-        <v>17501.82882223848</v>
+        <v>6814.1916605705928</v>
+      </c>
+      <c r="G111" s="106">
+        <v>68141.916605705934</v>
+      </c>
+      <c r="I111" s="27">
+        <v>45897</v>
+      </c>
+      <c r="J111" s="50">
+        <v>41335.040234089247</v>
+      </c>
+      <c r="K111" s="14">
+        <v>413350.40234089253</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
+      <c r="O111"/>
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D112" s="16">
-        <v>743</v>
-      </c>
-      <c r="E112">
-        <v>9214</v>
+        <v>731</v>
+      </c>
+      <c r="E112" s="106">
+        <v>5597</v>
       </c>
       <c r="F112" s="33">
-        <v>8425.3840526700806</v>
-      </c>
-      <c r="G112">
-        <v>84253.840526700806</v>
+        <v>5117.9590343818581</v>
+      </c>
+      <c r="G112" s="106">
+        <v>51179.590343818578</v>
+      </c>
+      <c r="I112" s="27">
+        <v>45898</v>
+      </c>
+      <c r="J112" s="50">
+        <v>40317.300658376014</v>
+      </c>
+      <c r="K112" s="14">
+        <v>393712.50914411119</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
-    </row>
-    <row r="113" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D113" s="16">
-        <v>744</v>
-      </c>
-      <c r="E113">
-        <v>21448</v>
+        <v>732</v>
+      </c>
+      <c r="E113" s="106">
+        <v>21167</v>
       </c>
       <c r="F113" s="33">
-        <v>19612.289685442578</v>
-      </c>
-      <c r="G113">
-        <v>196122.89685442578</v>
+        <v>19355.340160936357</v>
+      </c>
+      <c r="G113" s="106">
+        <v>193553.40160936356</v>
+      </c>
+      <c r="I113" s="27">
+        <v>45899</v>
+      </c>
+      <c r="J113" s="50">
+        <v>53495.793708851503</v>
+      </c>
+      <c r="K113" s="14">
+        <v>624926.84711046098</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
-    </row>
-    <row r="114" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D114" s="16">
-        <v>745</v>
-      </c>
-      <c r="E114">
-        <v>11858</v>
+        <v>733</v>
+      </c>
+      <c r="E114" s="106">
+        <v>2010</v>
       </c>
       <c r="F114" s="33">
-        <v>10843.087051938552</v>
-      </c>
-      <c r="G114">
-        <v>97587.783467446963</v>
+        <v>0</v>
+      </c>
+      <c r="G114" s="106">
+        <v>0</v>
+      </c>
+      <c r="I114" s="27">
+        <v>45900</v>
+      </c>
+      <c r="J114" s="50">
+        <v>112115.94732991954</v>
+      </c>
+      <c r="K114" s="14">
+        <v>1113504.0234089247</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
-    </row>
-    <row r="115" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D115" s="16">
-        <v>746</v>
-      </c>
-      <c r="E115">
-        <v>18918</v>
+        <v>734</v>
+      </c>
+      <c r="E115" s="106">
+        <v>16253</v>
       </c>
       <c r="F115" s="33">
-        <v>17298.829553767377</v>
-      </c>
-      <c r="G115">
-        <v>155689.46598390638</v>
+        <v>14861.923920994881</v>
+      </c>
+      <c r="G115" s="106">
+        <v>148619.23920994881</v>
+      </c>
+      <c r="I115" s="27">
+        <v>45901</v>
+      </c>
+      <c r="J115" s="50">
+        <v>33280.907095830291</v>
+      </c>
+      <c r="K115" s="14">
+        <v>332430.50475493784</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
-    </row>
-    <row r="116" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D116" s="16">
-        <v>747</v>
-      </c>
-      <c r="E116">
-        <v>19780</v>
+        <v>735</v>
+      </c>
+      <c r="E116" s="106">
+        <v>33788</v>
       </c>
       <c r="F116" s="33">
-        <v>18087.051938551573</v>
-      </c>
-      <c r="G116">
-        <v>180870.51938551571</v>
+        <v>30896.122896854427</v>
+      </c>
+      <c r="G116" s="106">
+        <v>308961.22896854428</v>
+      </c>
+      <c r="I116" s="27">
+        <v>45902</v>
+      </c>
+      <c r="J116" s="50">
+        <v>39340.709583028533</v>
+      </c>
+      <c r="K116" s="14">
+        <v>447311.63130943681</v>
       </c>
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
     </row>
-    <row r="117" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D117" s="16">
-        <v>748</v>
-      </c>
-      <c r="E117">
-        <v>4342</v>
+        <v>736</v>
+      </c>
+      <c r="E117" s="106">
+        <v>8575</v>
       </c>
       <c r="F117" s="33">
-        <v>3970.3730797366497</v>
-      </c>
-      <c r="G117">
-        <v>35733.35771762985</v>
+        <v>7841.0753474762259</v>
+      </c>
+      <c r="G117" s="106">
+        <v>78410.753474762256</v>
+      </c>
+      <c r="I117" s="27">
+        <v>45903</v>
+      </c>
+      <c r="J117" s="50">
+        <v>45768.105340160946</v>
+      </c>
+      <c r="K117" s="14">
+        <v>457681.05340160942</v>
       </c>
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
     </row>
-    <row r="118" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D118" s="16">
-        <v>749</v>
-      </c>
-      <c r="E118">
-        <v>28098</v>
+        <v>737</v>
+      </c>
+      <c r="E118" s="106">
+        <v>4298</v>
       </c>
       <c r="F118" s="33">
-        <v>25693.123628383324</v>
-      </c>
-      <c r="G118">
-        <v>231238.11265544992</v>
+        <v>3930.1389904901248</v>
+      </c>
+      <c r="G118" s="106">
+        <v>35371.250914411125</v>
+      </c>
+      <c r="I118" s="27">
+        <v>45905</v>
+      </c>
+      <c r="J118" s="50">
+        <v>42745.062179956112</v>
+      </c>
+      <c r="K118" s="14">
+        <v>427450.62179956108</v>
       </c>
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118"/>
     </row>
-    <row r="119" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D119" s="16">
-        <v>750</v>
-      </c>
-      <c r="E119">
-        <v>13125</v>
+        <v>738</v>
+      </c>
+      <c r="E119" s="106">
+        <v>22478</v>
       </c>
       <c r="F119" s="33">
-        <v>12001.645940014632</v>
-      </c>
-      <c r="G119">
-        <v>108014.81346013169</v>
+        <v>20554.133138258963</v>
+      </c>
+      <c r="G119" s="106">
+        <v>205541.33138258965</v>
+      </c>
+      <c r="I119" s="27">
+        <v>45907</v>
+      </c>
+      <c r="J119" s="50">
+        <v>86068.946598390641</v>
+      </c>
+      <c r="K119" s="14">
+        <v>917897.76883686916</v>
       </c>
       <c r="L119"/>
       <c r="M119"/>
       <c r="N119"/>
     </row>
-    <row r="120" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D120" s="16">
-        <v>721</v>
-      </c>
-      <c r="E120">
-        <v>2242</v>
+        <v>739</v>
+      </c>
+      <c r="E120" s="106">
+        <v>8540</v>
       </c>
       <c r="F120" s="33">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="G120">
-        <v>20501.097293343086</v>
+        <v>7809.0709583028538</v>
+      </c>
+      <c r="G120" s="106">
+        <v>78090.70958302854</v>
+      </c>
+      <c r="I120" s="27">
+        <v>45908</v>
+      </c>
+      <c r="J120" s="50">
+        <v>63158.376005852238</v>
+      </c>
+      <c r="K120" s="14">
+        <v>584409.29041697143</v>
       </c>
       <c r="L120"/>
       <c r="M120"/>
       <c r="N120"/>
     </row>
-    <row r="121" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D121" s="16">
-        <v>751</v>
-      </c>
-      <c r="E121">
-        <v>33502</v>
+        <v>740</v>
+      </c>
+      <c r="E121" s="106">
+        <v>7214</v>
       </c>
       <c r="F121" s="33">
-        <v>30634.601316752014</v>
-      </c>
-      <c r="G121">
-        <v>306346.01316752017</v>
+        <v>6596.5618141916611</v>
+      </c>
+      <c r="G121" s="106">
+        <v>65965.61814191661</v>
+      </c>
+      <c r="I121" s="27">
+        <v>45909</v>
+      </c>
+      <c r="J121" s="50">
+        <v>24104.791514264816</v>
+      </c>
+      <c r="K121" s="14">
+        <v>237084.85735186544</v>
       </c>
       <c r="L121"/>
       <c r="M121"/>
       <c r="N121"/>
     </row>
-    <row r="122" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D122" s="16">
+        <v>741</v>
+      </c>
+      <c r="E122" s="106">
+        <v>6688</v>
+      </c>
+      <c r="F122" s="33">
+        <v>6115.5815654718363</v>
+      </c>
+      <c r="G122" s="106">
+        <v>61155.815654718361</v>
+      </c>
+      <c r="I122" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J122" s="50">
+        <v>1951659.656181419</v>
+      </c>
+      <c r="K122" s="14">
+        <v>19514522.721506953</v>
+      </c>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D123" s="16">
+        <v>742</v>
+      </c>
+      <c r="E123" s="106">
+        <v>1914</v>
+      </c>
+      <c r="F123" s="33">
+        <v>1750.1828822238481</v>
+      </c>
+      <c r="G123" s="106">
+        <v>17501.82882223848</v>
+      </c>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+    </row>
+    <row r="124" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D124" s="16">
+        <v>743</v>
+      </c>
+      <c r="E124" s="106">
+        <v>9214</v>
+      </c>
+      <c r="F124" s="33">
+        <v>8425.3840526700806</v>
+      </c>
+      <c r="G124" s="106">
+        <v>84253.840526700806</v>
+      </c>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+    </row>
+    <row r="125" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D125" s="16">
+        <v>744</v>
+      </c>
+      <c r="E125" s="106">
+        <v>21448</v>
+      </c>
+      <c r="F125" s="33">
+        <v>19612.289685442578</v>
+      </c>
+      <c r="G125" s="106">
+        <v>196122.89685442578</v>
+      </c>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+    </row>
+    <row r="126" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D126" s="16">
+        <v>745</v>
+      </c>
+      <c r="E126" s="106">
+        <v>11858</v>
+      </c>
+      <c r="F126" s="33">
+        <v>10843.087051938552</v>
+      </c>
+      <c r="G126" s="106">
+        <v>97587.783467446963</v>
+      </c>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+    </row>
+    <row r="127" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D127" s="16">
+        <v>746</v>
+      </c>
+      <c r="E127" s="106">
+        <v>18918</v>
+      </c>
+      <c r="F127" s="33">
+        <v>17298.829553767377</v>
+      </c>
+      <c r="G127" s="106">
+        <v>155689.46598390638</v>
+      </c>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+    </row>
+    <row r="128" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D128" s="16">
+        <v>747</v>
+      </c>
+      <c r="E128" s="106">
+        <v>19780</v>
+      </c>
+      <c r="F128" s="33">
+        <v>18087.051938551573</v>
+      </c>
+      <c r="G128" s="106">
+        <v>180870.51938551571</v>
+      </c>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+    </row>
+    <row r="129" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D129" s="16">
+        <v>748</v>
+      </c>
+      <c r="E129" s="106">
+        <v>4342</v>
+      </c>
+      <c r="F129" s="33">
+        <v>3970.3730797366497</v>
+      </c>
+      <c r="G129" s="106">
+        <v>35733.35771762985</v>
+      </c>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+    </row>
+    <row r="130" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D130" s="16">
+        <v>749</v>
+      </c>
+      <c r="E130" s="106">
+        <v>28098</v>
+      </c>
+      <c r="F130" s="33">
+        <v>25693.123628383324</v>
+      </c>
+      <c r="G130" s="106">
+        <v>231238.11265544992</v>
+      </c>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+    </row>
+    <row r="131" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D131" s="16">
+        <v>750</v>
+      </c>
+      <c r="E131" s="106">
+        <v>13125</v>
+      </c>
+      <c r="F131" s="33">
+        <v>12001.645940014632</v>
+      </c>
+      <c r="G131" s="106">
+        <v>108014.81346013169</v>
+      </c>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+    </row>
+    <row r="132" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D132" s="16">
+        <v>721</v>
+      </c>
+      <c r="E132" s="106">
+        <v>2242</v>
+      </c>
+      <c r="F132" s="33">
+        <v>2050.1097293343087</v>
+      </c>
+      <c r="G132" s="106">
+        <v>20501.097293343086</v>
+      </c>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+    </row>
+    <row r="133" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D133" s="16">
+        <v>751</v>
+      </c>
+      <c r="E133" s="106">
+        <v>33502</v>
+      </c>
+      <c r="F133" s="33">
+        <v>30634.601316752014</v>
+      </c>
+      <c r="G133" s="106">
+        <v>306346.01316752017</v>
+      </c>
+    </row>
+    <row r="134" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D134" s="16">
         <v>752</v>
       </c>
-      <c r="E122">
+      <c r="E134" s="106">
         <v>11702</v>
       </c>
-      <c r="F122" s="33">
+      <c r="F134" s="33">
         <v>10700.438917337236</v>
       </c>
-      <c r="G122">
+      <c r="G134" s="106">
         <v>107004.38917337236</v>
       </c>
     </row>
-    <row r="123" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D123" s="16">
+    <row r="135" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D135" s="16">
         <v>753</v>
       </c>
-      <c r="E123">
+      <c r="E135" s="106">
         <v>26158</v>
       </c>
-      <c r="F123" s="33">
+      <c r="F135" s="33">
         <v>23919.166057059258</v>
       </c>
-      <c r="G123">
+      <c r="G135" s="106">
         <v>239191.66057059256</v>
       </c>
     </row>
-    <row r="124" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D124" s="16">
+    <row r="136" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D136" s="16">
         <v>754</v>
       </c>
-      <c r="E124">
+      <c r="E136" s="106">
         <v>10346</v>
       </c>
-      <c r="F124" s="33">
+      <c r="F136" s="33">
         <v>9460.4974396488669</v>
       </c>
-      <c r="G124">
+      <c r="G136" s="106">
         <v>85144.476956839804</v>
       </c>
     </row>
-    <row r="125" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D125" s="16">
+    <row r="137" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D137" s="16">
         <v>755</v>
       </c>
-      <c r="E125">
+      <c r="E137" s="106">
         <v>7587</v>
       </c>
-      <c r="F125" s="33">
+      <c r="F137" s="33">
         <v>6937.6371616678862</v>
       </c>
-      <c r="G125">
+      <c r="G137" s="106">
         <v>69376.371616678865</v>
       </c>
     </row>
-    <row r="126" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D126" s="16">
+    <row r="138" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D138" s="16">
         <v>756</v>
       </c>
-      <c r="E126">
+      <c r="E138" s="106">
         <v>2244</v>
       </c>
-      <c r="F126" s="33">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D127" s="16">
+      <c r="F138" s="33">
+        <v>0</v>
+      </c>
+      <c r="G138" s="106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D139" s="16">
         <v>757</v>
       </c>
-      <c r="E127">
+      <c r="E139" s="106">
         <v>14872</v>
       </c>
-      <c r="F127" s="33">
+      <c r="F139" s="33">
         <v>13599.122165325531</v>
       </c>
-      <c r="G127">
+      <c r="G139" s="106">
         <v>163189.46598390635</v>
       </c>
     </row>
-    <row r="128" spans="4:14" x14ac:dyDescent="0.3">
-      <c r="D128" s="16">
+    <row r="140" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D140" s="16">
         <v>758</v>
       </c>
-      <c r="E128">
+      <c r="E140" s="106">
         <v>11018</v>
       </c>
-      <c r="F128" s="33">
+      <c r="F140" s="33">
         <v>10074.981711777617</v>
       </c>
-      <c r="G128">
+      <c r="G140" s="106">
         <v>120899.78054133139</v>
       </c>
     </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D129" s="16">
+    <row r="141" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D141" s="16">
         <v>759</v>
       </c>
-      <c r="E129">
+      <c r="E141" s="106">
         <v>23305</v>
       </c>
-      <c r="F129" s="33">
+      <c r="F141" s="33">
         <v>21310.35113386979</v>
       </c>
-      <c r="G129">
+      <c r="G141" s="106">
         <v>255724.21360643749</v>
       </c>
     </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D130" s="16">
+    <row r="142" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D142" s="16">
         <v>760</v>
       </c>
-      <c r="E130">
+      <c r="E142" s="106">
         <v>9308</v>
       </c>
-      <c r="F130" s="33">
+      <c r="F142" s="33">
         <v>8511.3386978785675</v>
       </c>
-      <c r="G130">
+      <c r="G142" s="106">
         <v>85113.386978785682</v>
       </c>
     </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D131" s="16">
+    <row r="143" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D143" s="16">
         <v>761</v>
       </c>
-      <c r="E131">
+      <c r="E143" s="106">
         <v>20380</v>
       </c>
-      <c r="F131" s="33">
+      <c r="F143" s="33">
         <v>18635.6986100951</v>
       </c>
-      <c r="G131">
+      <c r="G143" s="106">
         <v>186356.98610095101</v>
       </c>
     </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D132" s="16">
+    <row r="144" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D144" s="16">
         <v>762</v>
       </c>
-      <c r="E132">
+      <c r="E144" s="106">
         <v>7020</v>
       </c>
-      <c r="F132" s="33">
+      <c r="F144" s="33">
         <v>6419.1660570592539</v>
       </c>
-      <c r="G132">
+      <c r="G144" s="106">
         <v>77029.992684711047</v>
-      </c>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D133" s="16">
-        <v>763</v>
-      </c>
-      <c r="E133">
-        <v>2776</v>
-      </c>
-      <c r="F133" s="33">
-        <v>2538.4052670080468</v>
-      </c>
-      <c r="G133">
-        <v>25384.052670080469</v>
-      </c>
-    </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D134" s="16">
-        <v>764</v>
-      </c>
-      <c r="E134">
-        <v>25394</v>
-      </c>
-      <c r="F134" s="33">
-        <v>23220.555961960501</v>
-      </c>
-      <c r="G134">
-        <v>232205.55961960502</v>
-      </c>
-    </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D135" s="16">
-        <v>765</v>
-      </c>
-      <c r="E135">
-        <v>10496</v>
-      </c>
-      <c r="F135" s="33">
-        <v>9597.6591075347478</v>
-      </c>
-      <c r="G135">
-        <v>95976.591075347475</v>
-      </c>
-    </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D136" s="16">
-        <v>766</v>
-      </c>
-      <c r="E136">
-        <v>9552</v>
-      </c>
-      <c r="F136" s="33">
-        <v>8734.4550109729335</v>
-      </c>
-      <c r="G136">
-        <v>87344.550109729331</v>
-      </c>
-    </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D137" s="16">
-        <v>767</v>
-      </c>
-      <c r="E137">
-        <v>13908</v>
-      </c>
-      <c r="F137" s="33">
-        <v>12717.629846378934</v>
-      </c>
-      <c r="G137">
-        <v>127176.29846378934</v>
-      </c>
-    </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D138" s="16">
-        <v>768</v>
-      </c>
-      <c r="E138">
-        <v>10672</v>
-      </c>
-      <c r="F138" s="33">
-        <v>9758.5954645208494</v>
-      </c>
-      <c r="G138">
-        <v>97585.954645208491</v>
-      </c>
-    </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D139" s="16">
-        <v>769</v>
-      </c>
-      <c r="E139">
-        <v>15800</v>
-      </c>
-      <c r="F139" s="33">
-        <v>14447.695683979518</v>
-      </c>
-      <c r="G139">
-        <v>130029.26115581566</v>
-      </c>
-    </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D140" s="16">
-        <v>770</v>
-      </c>
-      <c r="E140">
-        <v>6612</v>
-      </c>
-      <c r="F140" s="33">
-        <v>6046.0863204096568</v>
-      </c>
-      <c r="G140">
-        <v>54414.776883686907</v>
-      </c>
-    </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D141" s="16">
-        <v>771</v>
-      </c>
-      <c r="E141">
-        <v>10650</v>
-      </c>
-      <c r="F141" s="33">
-        <v>9738.4784198975867</v>
-      </c>
-      <c r="G141">
-        <v>97384.78419897586</v>
-      </c>
-    </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D142" s="16">
-        <v>772</v>
-      </c>
-      <c r="E142">
-        <v>17302</v>
-      </c>
-      <c r="F142" s="33">
-        <v>15821.141185076813</v>
-      </c>
-      <c r="G142">
-        <v>142390.27066569132</v>
-      </c>
-    </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D143" s="16">
-        <v>773</v>
-      </c>
-      <c r="E143">
-        <v>8444</v>
-      </c>
-      <c r="F143" s="33">
-        <v>7721.2874908558897</v>
-      </c>
-      <c r="G143">
-        <v>92655.449890270684</v>
-      </c>
-    </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D144" s="16">
-        <v>774</v>
-      </c>
-      <c r="E144">
-        <v>24391</v>
-      </c>
-      <c r="F144" s="33">
-        <v>22303.401609363573</v>
-      </c>
-      <c r="G144">
-        <v>267640.81931236287</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D145" s="16">
-        <v>775</v>
-      </c>
-      <c r="E145">
-        <v>5084</v>
+        <v>763</v>
+      </c>
+      <c r="E145" s="106">
+        <v>2776</v>
       </c>
       <c r="F145" s="33">
-        <v>4648.8661302121436</v>
-      </c>
-      <c r="G145">
-        <v>55786.393562545723</v>
+        <v>2538.4052670080468</v>
+      </c>
+      <c r="G145" s="106">
+        <v>25384.052670080469</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D146" s="16">
-        <v>776</v>
-      </c>
-      <c r="E146">
-        <v>4760</v>
+        <v>764</v>
+      </c>
+      <c r="E146" s="106">
+        <v>25394</v>
       </c>
       <c r="F146" s="33">
-        <v>4352.5969275786401</v>
-      </c>
-      <c r="G146">
-        <v>43525.969275786403</v>
+        <v>23220.555961960501</v>
+      </c>
+      <c r="G146" s="106">
+        <v>232205.55961960502</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D147" s="16">
-        <v>777</v>
-      </c>
-      <c r="E147">
-        <v>888</v>
+        <v>765</v>
+      </c>
+      <c r="E147" s="106">
+        <v>10496</v>
       </c>
       <c r="F147" s="33">
-        <v>811.99707388441846</v>
-      </c>
-      <c r="G147">
-        <v>8119.9707388441848</v>
+        <v>9597.6591075347478</v>
+      </c>
+      <c r="G147" s="106">
+        <v>95976.591075347475</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D148" s="16">
-        <v>778</v>
-      </c>
-      <c r="E148">
-        <v>7900</v>
+        <v>766</v>
+      </c>
+      <c r="E148" s="106">
+        <v>9552</v>
       </c>
       <c r="F148" s="33">
-        <v>7223.8478419897592</v>
-      </c>
-      <c r="G148">
-        <v>72238.478419897598</v>
+        <v>8734.4550109729335</v>
+      </c>
+      <c r="G148" s="106">
+        <v>87344.550109729331</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D149" s="16">
-        <v>779</v>
-      </c>
-      <c r="E149">
-        <v>17788</v>
+        <v>767</v>
+      </c>
+      <c r="E149" s="106">
+        <v>13908</v>
       </c>
       <c r="F149" s="33">
-        <v>16265.544989027068</v>
-      </c>
-      <c r="G149">
-        <v>162655.44989027068</v>
+        <v>12717.629846378934</v>
+      </c>
+      <c r="G149" s="106">
+        <v>127176.29846378934</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D150" s="16">
-        <v>780</v>
-      </c>
-      <c r="E150">
-        <v>19577</v>
+        <v>768</v>
+      </c>
+      <c r="E150" s="106">
+        <v>10672</v>
       </c>
       <c r="F150" s="33">
-        <v>17901.426481346014</v>
-      </c>
-      <c r="G150">
-        <v>179014.26481346015</v>
+        <v>9758.5954645208494</v>
+      </c>
+      <c r="G150" s="106">
+        <v>97585.954645208491</v>
       </c>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D151" s="16">
-        <v>781</v>
-      </c>
-      <c r="E151">
-        <v>12687</v>
+        <v>769</v>
+      </c>
+      <c r="E151" s="106">
+        <v>15800</v>
       </c>
       <c r="F151" s="33">
-        <v>11601.133869787858</v>
-      </c>
-      <c r="G151">
-        <v>116011.33869787859</v>
+        <v>14447.695683979518</v>
+      </c>
+      <c r="G151" s="106">
+        <v>130029.26115581566</v>
       </c>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D152" s="16">
-        <v>782</v>
-      </c>
-      <c r="E152">
-        <v>14207</v>
-      </c>
-      <c r="F152" s="33"/>
-      <c r="G152">
-        <v>0</v>
+        <v>770</v>
+      </c>
+      <c r="E152" s="106">
+        <v>6612</v>
+      </c>
+      <c r="F152" s="33">
+        <v>6046.0863204096568</v>
+      </c>
+      <c r="G152" s="106">
+        <v>54414.776883686907</v>
       </c>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D153" s="16">
-        <v>783</v>
-      </c>
-      <c r="E153">
-        <v>19240</v>
-      </c>
-      <c r="F153" s="33"/>
-      <c r="G153">
-        <v>0</v>
+        <v>771</v>
+      </c>
+      <c r="E153" s="106">
+        <v>10650</v>
+      </c>
+      <c r="F153" s="33">
+        <v>9738.4784198975867</v>
+      </c>
+      <c r="G153" s="106">
+        <v>97384.78419897586</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D154" s="16">
+        <v>772</v>
+      </c>
+      <c r="E154" s="106">
+        <v>17302</v>
+      </c>
+      <c r="F154" s="33">
+        <v>15821.141185076813</v>
+      </c>
+      <c r="G154" s="106">
+        <v>142390.27066569132</v>
+      </c>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D155" s="16">
+        <v>773</v>
+      </c>
+      <c r="E155" s="106">
+        <v>8444</v>
+      </c>
+      <c r="F155" s="33">
+        <v>7721.2874908558897</v>
+      </c>
+      <c r="G155" s="106">
+        <v>92655.449890270684</v>
+      </c>
+    </row>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D156" s="16">
+        <v>774</v>
+      </c>
+      <c r="E156" s="106">
+        <v>24391</v>
+      </c>
+      <c r="F156" s="33">
+        <v>22303.401609363573</v>
+      </c>
+      <c r="G156" s="106">
+        <v>267640.81931236287</v>
+      </c>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D157" s="16">
+        <v>775</v>
+      </c>
+      <c r="E157" s="106">
+        <v>5084</v>
+      </c>
+      <c r="F157" s="33">
+        <v>4648.8661302121436</v>
+      </c>
+      <c r="G157" s="106">
+        <v>55786.393562545723</v>
+      </c>
+    </row>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D158" s="16">
+        <v>776</v>
+      </c>
+      <c r="E158" s="106">
+        <v>4760</v>
+      </c>
+      <c r="F158" s="33">
+        <v>4352.5969275786401</v>
+      </c>
+      <c r="G158" s="106">
+        <v>43525.969275786403</v>
+      </c>
+    </row>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D159" s="16">
+        <v>777</v>
+      </c>
+      <c r="E159" s="106">
+        <v>888</v>
+      </c>
+      <c r="F159" s="33">
+        <v>811.99707388441846</v>
+      </c>
+      <c r="G159" s="106">
+        <v>8119.9707388441848</v>
+      </c>
+    </row>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D160" s="16">
+        <v>778</v>
+      </c>
+      <c r="E160" s="106">
+        <v>7900</v>
+      </c>
+      <c r="F160" s="33">
+        <v>7223.8478419897592</v>
+      </c>
+      <c r="G160" s="106">
+        <v>72238.478419897598</v>
+      </c>
+    </row>
+    <row r="161" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D161" s="16">
+        <v>779</v>
+      </c>
+      <c r="E161" s="106">
+        <v>17788</v>
+      </c>
+      <c r="F161" s="33">
+        <v>16265.544989027068</v>
+      </c>
+      <c r="G161" s="106">
+        <v>162655.44989027068</v>
+      </c>
+    </row>
+    <row r="162" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D162" s="16">
+        <v>780</v>
+      </c>
+      <c r="E162" s="106">
+        <v>19577</v>
+      </c>
+      <c r="F162" s="33">
+        <v>17901.426481346014</v>
+      </c>
+      <c r="G162" s="106">
+        <v>179014.26481346015</v>
+      </c>
+    </row>
+    <row r="163" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D163" s="16">
+        <v>781</v>
+      </c>
+      <c r="E163" s="106">
+        <v>12687</v>
+      </c>
+      <c r="F163" s="33">
+        <v>11601.133869787858</v>
+      </c>
+      <c r="G163" s="106">
+        <v>116011.33869787859</v>
+      </c>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D164" s="16">
+        <v>782</v>
+      </c>
+      <c r="E164" s="106">
+        <v>14207</v>
+      </c>
+      <c r="F164" s="33">
+        <v>12991.038771031457</v>
+      </c>
+      <c r="G164" s="106">
+        <v>129910.38771031456</v>
+      </c>
+    </row>
+    <row r="165" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D165" s="16">
+        <v>783</v>
+      </c>
+      <c r="E165" s="106">
+        <v>19240</v>
+      </c>
+      <c r="F165" s="33">
+        <v>17593.269934162399</v>
+      </c>
+      <c r="G165" s="106">
+        <v>175932.69934162399</v>
+      </c>
+    </row>
+    <row r="166" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D166" s="16">
         <v>784</v>
       </c>
-      <c r="E154">
+      <c r="E166" s="106">
         <v>13299</v>
       </c>
-      <c r="F154" s="33"/>
-      <c r="G154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D155" s="16" t="s">
+      <c r="F166" s="33">
+        <v>12160.753474762254</v>
+      </c>
+      <c r="G166" s="106">
+        <v>121607.53474762254</v>
+      </c>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D167" s="16">
+        <v>785</v>
+      </c>
+      <c r="E167" s="106">
+        <v>7664</v>
+      </c>
+      <c r="F167" s="33">
+        <v>7008.0468178493056</v>
+      </c>
+      <c r="G167" s="106">
+        <v>84096.561814191664</v>
+      </c>
+    </row>
+    <row r="168" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D168" s="16">
+        <v>786</v>
+      </c>
+      <c r="E168" s="106">
+        <v>5132</v>
+      </c>
+      <c r="F168" s="33">
+        <v>4692.7578639356261</v>
+      </c>
+      <c r="G168" s="106">
+        <v>56313.094367227517</v>
+      </c>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D169" s="16">
+        <v>787</v>
+      </c>
+      <c r="E169" s="106">
+        <v>18066</v>
+      </c>
+      <c r="F169" s="33">
+        <v>16519.751280175569</v>
+      </c>
+      <c r="G169" s="106">
+        <v>198237.01536210685</v>
+      </c>
+    </row>
+    <row r="170" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D170" s="16">
+        <v>788</v>
+      </c>
+      <c r="E170" s="106">
+        <v>12318</v>
+      </c>
+      <c r="F170" s="33">
+        <v>11263.716166788588</v>
+      </c>
+      <c r="G170" s="106">
+        <v>135164.59400146306</v>
+      </c>
+    </row>
+    <row r="171" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D171" s="16">
+        <v>789</v>
+      </c>
+      <c r="E171" s="106">
+        <v>23797</v>
+      </c>
+      <c r="F171" s="33">
+        <v>21760.241404535482</v>
+      </c>
+      <c r="G171" s="106">
+        <v>195842.17264081934</v>
+      </c>
+    </row>
+    <row r="172" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D172" s="16">
+        <v>790</v>
+      </c>
+      <c r="E172" s="106">
+        <v>27148</v>
+      </c>
+      <c r="F172" s="33">
+        <v>24824.433065106074</v>
+      </c>
+      <c r="G172" s="106">
+        <v>248244.33065106074</v>
+      </c>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D173" s="16">
+        <v>791</v>
+      </c>
+      <c r="E173" s="106">
+        <v>17480</v>
+      </c>
+      <c r="F173" s="33">
+        <v>15983.906364301391</v>
+      </c>
+      <c r="G173" s="106">
+        <v>159839.06364301391</v>
+      </c>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D174" s="16">
+        <v>792</v>
+      </c>
+      <c r="E174" s="106">
+        <v>22158</v>
+      </c>
+      <c r="F174" s="33">
+        <v>20261.521580102417</v>
+      </c>
+      <c r="G174" s="106">
+        <v>182353.69422092175</v>
+      </c>
+    </row>
+    <row r="175" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D175" s="16">
+        <v>793</v>
+      </c>
+      <c r="E175" s="106">
+        <v>11184</v>
+      </c>
+      <c r="F175" s="33">
+        <v>10226.773957571326</v>
+      </c>
+      <c r="G175" s="106">
+        <v>92040.965618141927</v>
+      </c>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D176" s="16">
+        <v>794</v>
+      </c>
+      <c r="E176" s="106">
+        <v>14474</v>
+      </c>
+      <c r="F176" s="33">
+        <v>13235.186539868326</v>
+      </c>
+      <c r="G176" s="106">
+        <v>119116.67885881494</v>
+      </c>
+    </row>
+    <row r="177" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D177" s="16">
+        <v>795</v>
+      </c>
+      <c r="E177" s="106">
+        <v>3774</v>
+      </c>
+      <c r="F177" s="33">
+        <v>3450.9875640087785</v>
+      </c>
+      <c r="G177" s="106">
+        <v>31058.888076079005</v>
+      </c>
+    </row>
+    <row r="178" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D178" s="16">
+        <v>796</v>
+      </c>
+      <c r="E178" s="106">
+        <v>8892</v>
+      </c>
+      <c r="F178" s="33">
+        <v>8130.9436722750552</v>
+      </c>
+      <c r="G178" s="106">
+        <v>81309.436722750557</v>
+      </c>
+    </row>
+    <row r="179" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D179" s="16">
+        <v>797</v>
+      </c>
+      <c r="E179" s="106">
+        <v>4334</v>
+      </c>
+      <c r="F179" s="33">
+        <v>3963.0577907827364</v>
+      </c>
+      <c r="G179" s="106">
+        <v>35667.520117044631</v>
+      </c>
+    </row>
+    <row r="180" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D180" s="16">
+        <v>798</v>
+      </c>
+      <c r="E180" s="106">
+        <v>13135</v>
+      </c>
+      <c r="F180" s="33">
+        <v>12010.790051207025</v>
+      </c>
+      <c r="G180" s="106">
+        <v>120107.90051207025</v>
+      </c>
+    </row>
+    <row r="181" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D181" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E155">
-        <v>885103</v>
-      </c>
-      <c r="F155" s="33">
-        <v>1735582.4798829553</v>
-      </c>
-      <c r="G155">
-        <v>17370814.283101682</v>
+      <c r="E181" s="106">
+        <v>1074659</v>
+      </c>
+      <c r="F181" s="33">
+        <v>1951659.656181419</v>
+      </c>
+      <c r="G181" s="106">
+        <v>19514522.72150695</v>
       </c>
     </row>
   </sheetData>
@@ -22987,10 +24642,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="122" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23424,7 +25079,7 @@
       </c>
       <c r="N14" s="17">
         <f>SUM(Table3[Total])</f>
-        <v>4821335</v>
+        <v>5144175</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -24123,70 +25778,183 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B39" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="11">
+        <v>200</v>
+      </c>
+      <c r="E39" s="11">
+        <v>550</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11">
+        <f t="shared" ref="G39:G42" si="12">D39*E39</f>
+        <v>110000</v>
+      </c>
+      <c r="H39" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="11">
+        <f>(D39*E39)-Table3[[#This Row],[Paid]]</f>
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="11">
+        <v>35</v>
+      </c>
+      <c r="E40" s="11">
+        <v>550</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11">
+        <f t="shared" si="12"/>
+        <v>19250</v>
+      </c>
+      <c r="H40" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>134190</v>
+      </c>
+      <c r="I40" s="11">
+        <f>(D40*E40)-Table3[[#This Row],[Paid]]</f>
+        <v>-114940</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11">
+        <f>D41*E41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>200500</v>
+      </c>
+      <c r="I41" s="11">
+        <f>(D41*E41)-Table3[[#This Row],[Paid]]</f>
+        <v>-200500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42">
+        <v>9940</v>
+      </c>
+      <c r="D42" s="11">
+        <v>239</v>
+      </c>
+      <c r="E42" s="11">
+        <v>810</v>
+      </c>
+      <c r="F42" s="11">
+        <v>36550</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="12"/>
+        <v>193590</v>
+      </c>
+      <c r="H42" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>236950</v>
+      </c>
+      <c r="I42" s="11">
+        <f>(D42*E42)-Table3[[#This Row],[Paid]]</f>
+        <v>-43360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11">
+        <f>D43*E43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11">
+        <f>(D43*E43)-Table3[[#This Row],[Paid]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14">
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14">
         <f>SUBTOTAL(109,Table3[Total])</f>
-        <v>4821335</v>
-      </c>
-      <c r="H39" s="14">
+        <v>5144175</v>
+      </c>
+      <c r="H44" s="14">
         <f>SUBTOTAL(109,Table3[Paid])</f>
-        <v>3791280</v>
-      </c>
-      <c r="I39" s="14">
+        <v>4362920</v>
+      </c>
+      <c r="I44" s="14">
         <f>SUBTOTAL(109,Table3[balance])</f>
-        <v>2255502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E44" s="3" t="s">
+        <v>2006702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E46" s="3" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>108</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>109</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>110</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E47" s="27">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="27">
         <v>45882</v>
-      </c>
-      <c r="F47" s="14">
-        <v>100</v>
-      </c>
-      <c r="G47" s="14">
-        <v>70000</v>
-      </c>
-      <c r="H47" s="14">
-        <v>0</v>
-      </c>
-      <c r="I47" s="14">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E48" s="49">
-        <v>1055</v>
       </c>
       <c r="F48" s="14">
         <v>100</v>
@@ -24202,21 +25970,25 @@
       </c>
     </row>
     <row r="49" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E49" s="27">
+      <c r="E49" s="49">
+        <v>1055</v>
+      </c>
+      <c r="F49" s="14">
+        <v>100</v>
+      </c>
+      <c r="G49" s="14">
+        <v>70000</v>
+      </c>
+      <c r="H49" s="14">
+        <v>0</v>
+      </c>
+      <c r="I49" s="14">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E50" s="27">
         <v>45885</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14">
-        <v>0</v>
-      </c>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14">
-        <v>-27400</v>
-      </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E50" s="49" t="s">
-        <v>103</v>
       </c>
       <c r="F50" s="14"/>
       <c r="G50" s="14">
@@ -24228,25 +26000,21 @@
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E51" s="27">
+      <c r="E51" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14">
+        <v>-27400</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E52" s="27">
         <v>45893</v>
-      </c>
-      <c r="F51" s="14">
-        <v>29</v>
-      </c>
-      <c r="G51" s="14">
-        <v>20300</v>
-      </c>
-      <c r="H51" s="14">
-        <v>0</v>
-      </c>
-      <c r="I51" s="14">
-        <v>20300</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E52" s="49" t="s">
-        <v>105</v>
       </c>
       <c r="F52" s="14">
         <v>29</v>
@@ -24262,25 +26030,25 @@
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E53" s="27">
+      <c r="E53" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="14">
+        <v>29</v>
+      </c>
+      <c r="G53" s="14">
+        <v>20300</v>
+      </c>
+      <c r="H53" s="14">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E54" s="27">
         <v>45896</v>
-      </c>
-      <c r="F53" s="14">
-        <v>133</v>
-      </c>
-      <c r="G53" s="14">
-        <v>93100</v>
-      </c>
-      <c r="H53" s="14">
-        <v>75000</v>
-      </c>
-      <c r="I53" s="14">
-        <v>18100</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E54" s="49">
-        <v>5946</v>
       </c>
       <c r="F54" s="14">
         <v>133</v>
@@ -24296,23 +26064,25 @@
       </c>
     </row>
     <row r="55" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E55" s="27">
+      <c r="E55" s="49">
+        <v>5946</v>
+      </c>
+      <c r="F55" s="14">
+        <v>133</v>
+      </c>
+      <c r="G55" s="14">
+        <v>93100</v>
+      </c>
+      <c r="H55" s="14">
+        <v>75000</v>
+      </c>
+      <c r="I55" s="14">
+        <v>18100</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E56" s="27">
         <v>45899</v>
-      </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14">
-        <v>0</v>
-      </c>
-      <c r="H55" s="14">
-        <v>40000</v>
-      </c>
-      <c r="I55" s="14">
-        <v>-40000</v>
-      </c>
-    </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E56" s="49" t="s">
-        <v>112</v>
       </c>
       <c r="F56" s="14"/>
       <c r="G56" s="14">
@@ -24326,23 +26096,23 @@
       </c>
     </row>
     <row r="57" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E57" s="27">
-        <v>45903</v>
+      <c r="E57" s="49" t="s">
+        <v>112</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="14">
         <v>0</v>
       </c>
       <c r="H57" s="14">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="I57" s="14">
-        <v>-30000</v>
+        <v>-40000</v>
       </c>
     </row>
     <row r="58" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E58" s="49" t="s">
-        <v>112</v>
+      <c r="E58" s="27">
+        <v>45903</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="14">
@@ -24356,19 +26126,34 @@
       </c>
     </row>
     <row r="59" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
+        <v>30000</v>
+      </c>
+      <c r="I59" s="14">
+        <v>-30000</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E60" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F60" s="14">
         <v>262</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>183400</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H60" s="14">
         <v>145000</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I60" s="14">
         <v>11000</v>
       </c>
     </row>
@@ -24392,10 +26177,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBC7D8-36BA-4EBA-8685-891B9162141F}">
-  <dimension ref="A1:P306"/>
+  <dimension ref="A1:P322"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A306" sqref="A306"/>
+    <sheetView topLeftCell="J1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24516,14 +26301,14 @@
       </c>
       <c r="K4" s="54">
         <f>Table14[[#Totals],[Debit]]</f>
-        <v>7133346</v>
+        <v>7809959</v>
       </c>
       <c r="M4" s="53" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="59">
         <f>SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer")</f>
-        <v>420000</v>
+        <v>470000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -24548,14 +26333,14 @@
       </c>
       <c r="K5" s="54">
         <f>Table14[[#Totals],[Credit]]</f>
-        <v>7625247</v>
+        <v>8263536</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>117</v>
       </c>
       <c r="N5" s="54">
         <f>(SUMIFS(Table14[Credit],Table14[Mode],"Bank")-SUMIFS(Table14[Debit],Table14[Mode],"Bank")-SUMIFS(Table14[Withdrawal],Table14[Mode],"Transfer"))</f>
-        <v>488614</v>
+        <v>437540</v>
       </c>
       <c r="O5">
         <v>320</v>
@@ -24583,14 +26368,14 @@
       </c>
       <c r="K6" s="61">
         <f>(K5-K4)</f>
-        <v>491901</v>
+        <v>453577</v>
       </c>
       <c r="M6" s="53" t="s">
         <v>118</v>
       </c>
       <c r="N6" s="54">
         <f>((SUMIFS(Table14[Credit],Table14[Mode],"Cash")-SUMIFS(Table14[Debit],Table14[Mode],"Cash"))+SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer"))</f>
-        <v>3287</v>
+        <v>16037</v>
       </c>
       <c r="O6">
         <v>1520</v>
@@ -24618,7 +26403,7 @@
       </c>
       <c r="N7" s="57">
         <f>SUM(N5:N6)</f>
-        <v>491901</v>
+        <v>453577</v>
       </c>
       <c r="O7" s="100">
         <f>SUM(O5,O6)</f>
@@ -24626,7 +26411,7 @@
       </c>
       <c r="P7" s="14">
         <f>Table18[[#Totals],[amount]]-Table18[[#Totals],[Actual]]</f>
-        <v>490061</v>
+        <v>451737</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -27353,7 +29138,7 @@
         <v>9</v>
       </c>
       <c r="K165" s="14">
-        <v>554210</v>
+        <v>604210</v>
       </c>
       <c r="L165" s="14"/>
     </row>
@@ -27378,7 +29163,7 @@
         <v>21</v>
       </c>
       <c r="K166" s="14">
-        <v>2478162</v>
+        <v>2572095</v>
       </c>
       <c r="L166" s="14"/>
     </row>
@@ -27446,7 +29231,7 @@
       </c>
       <c r="K169" s="14"/>
       <c r="L169" s="14">
-        <v>408450</v>
+        <v>477950</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -27471,7 +29256,7 @@
       </c>
       <c r="K170" s="14"/>
       <c r="L170" s="14">
-        <v>3594950</v>
+        <v>4032400</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -27496,7 +29281,7 @@
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14">
-        <v>57465</v>
+        <v>60265</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -27521,7 +29306,7 @@
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14">
-        <v>512987</v>
+        <v>548124</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -27544,7 +29329,7 @@
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14">
-        <v>67689</v>
+        <v>77819</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -27568,7 +29353,7 @@
         <v>23</v>
       </c>
       <c r="K174" s="14">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="L174" s="14"/>
     </row>
@@ -27594,7 +29379,7 @@
       </c>
       <c r="K175" s="14"/>
       <c r="L175" s="14">
-        <v>115455</v>
+        <v>121135</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -27722,10 +29507,10 @@
         <v>125</v>
       </c>
       <c r="K180" s="14">
-        <v>129420</v>
+        <v>131920</v>
       </c>
       <c r="L180" s="14">
-        <v>118586</v>
+        <v>121436</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -27765,9 +29550,11 @@
         <v>117</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K182" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="K182" s="14">
+        <v>1500000</v>
+      </c>
       <c r="L182" s="14"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -27788,10 +29575,10 @@
         <v>117</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K183" s="14">
-        <v>1500000</v>
+        <v>2779100</v>
       </c>
       <c r="L183" s="14"/>
     </row>
@@ -27810,10 +29597,10 @@
         <v>117</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="K184" s="14">
-        <v>2279100</v>
+        <v>-861719</v>
       </c>
       <c r="L184" s="14"/>
     </row>
@@ -27835,12 +29622,12 @@
         <v>117</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K185" s="14">
-        <v>-861719</v>
-      </c>
-      <c r="L185" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="K185" s="14"/>
+      <c r="L185" s="14">
+        <v>567500</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="97">
@@ -27861,12 +29648,12 @@
         <v>117</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K186" s="14"/>
-      <c r="L186" s="14">
-        <v>567500</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="K186" s="14">
+        <v>200000</v>
+      </c>
+      <c r="L186" s="14"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="43">
@@ -27886,12 +29673,12 @@
         <v>117</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K187" s="14">
-        <v>200000</v>
-      </c>
-      <c r="L187" s="14"/>
+        <v>160</v>
+      </c>
+      <c r="K187" s="14"/>
+      <c r="L187" s="14">
+        <v>8218</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="97">
@@ -27911,11 +29698,11 @@
         <v>117</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K188" s="14"/>
       <c r="L188" s="14">
-        <v>8218</v>
+        <v>827438</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -27933,11 +29720,11 @@
         <v>117</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K189" s="14"/>
       <c r="L189" s="14">
-        <v>827438</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -27958,12 +29745,12 @@
         <v>117</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K190" s="14"/>
-      <c r="L190" s="14">
-        <v>100000</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K190" s="14">
+        <v>199150</v>
+      </c>
+      <c r="L190" s="14"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="97">
@@ -27983,12 +29770,12 @@
         <v>117</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K191" s="14">
-        <v>199150</v>
-      </c>
-      <c r="L191" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="K191" s="14"/>
+      <c r="L191" s="14">
+        <v>201800</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="97">
@@ -28008,12 +29795,12 @@
         <v>117</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K192" s="14"/>
-      <c r="L192" s="14">
-        <v>201800</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K192" s="14">
+        <v>200000</v>
+      </c>
+      <c r="L192" s="14"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="97">
@@ -28033,12 +29820,12 @@
         <v>117</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K193" s="14">
-        <v>200000</v>
-      </c>
-      <c r="L193" s="14"/>
+        <v>295</v>
+      </c>
+      <c r="K193" s="14"/>
+      <c r="L193" s="14">
+        <v>185520</v>
+      </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="97">
@@ -28058,11 +29845,13 @@
         <v>117</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K194" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="K194" s="14">
+        <v>8263536</v>
+      </c>
       <c r="L194" s="14">
-        <v>51330</v>
+        <v>7809959</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -28081,15 +29870,6 @@
       </c>
       <c r="F195" s="52" t="s">
         <v>117</v>
-      </c>
-      <c r="J195" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K195" s="14">
-        <v>7367103</v>
-      </c>
-      <c r="L195" s="14">
-        <v>7112222</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -29990,25 +31770,309 @@
         <v>118</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="43"/>
-      <c r="C305" s="47"/>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="43">
+        <v>45908</v>
+      </c>
+      <c r="B305" t="s">
+        <v>102</v>
+      </c>
+      <c r="C305" s="47">
+        <v>200500</v>
+      </c>
       <c r="D305" s="47"/>
-      <c r="F305" s="52"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A306" s="43"/>
-      <c r="C306" s="14">
+      <c r="E305" t="s">
+        <v>128</v>
+      </c>
+      <c r="F305" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="43">
+        <v>45908</v>
+      </c>
+      <c r="B306" t="s">
+        <v>295</v>
+      </c>
+      <c r="C306" s="11">
+        <v>134190</v>
+      </c>
+      <c r="D306" s="11"/>
+      <c r="F306" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="43">
+        <v>45908</v>
+      </c>
+      <c r="B307" t="s">
+        <v>57</v>
+      </c>
+      <c r="C307" s="11">
+        <v>8144</v>
+      </c>
+      <c r="D307" s="11"/>
+      <c r="E307" t="s">
+        <v>160</v>
+      </c>
+      <c r="F307" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B308" t="s">
+        <v>57</v>
+      </c>
+      <c r="C308" s="11">
+        <v>2560</v>
+      </c>
+      <c r="D308" s="11"/>
+      <c r="E308" t="s">
+        <v>314</v>
+      </c>
+      <c r="F308" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B309" t="s">
+        <v>57</v>
+      </c>
+      <c r="C309" s="11">
+        <v>16289</v>
+      </c>
+      <c r="D309" s="11"/>
+      <c r="E309" t="s">
+        <v>160</v>
+      </c>
+      <c r="F309" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B310" t="s">
+        <v>168</v>
+      </c>
+      <c r="C310" s="11">
+        <v>69500</v>
+      </c>
+      <c r="D310" s="11"/>
+      <c r="E310" t="s">
+        <v>63</v>
+      </c>
+      <c r="F310" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B311" t="s">
+        <v>21</v>
+      </c>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11">
+        <f>16289+69500</f>
+        <v>85789</v>
+      </c>
+      <c r="F311" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B312" t="s">
+        <v>24</v>
+      </c>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F312" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B313" t="s">
+        <v>118</v>
+      </c>
+      <c r="C313" s="11"/>
+      <c r="D313" s="11"/>
+      <c r="F313" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G313">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B314" t="s">
+        <v>56</v>
+      </c>
+      <c r="C314" s="11">
+        <v>500</v>
+      </c>
+      <c r="D314" s="11"/>
+      <c r="E314" t="s">
+        <v>281</v>
+      </c>
+      <c r="F314" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B315" t="s">
+        <v>56</v>
+      </c>
+      <c r="C315" s="11">
+        <v>5180</v>
+      </c>
+      <c r="D315" s="11"/>
+      <c r="E315" t="s">
+        <v>132</v>
+      </c>
+      <c r="F315" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B316" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" s="11"/>
+      <c r="D316" s="11">
+        <v>50000</v>
+      </c>
+      <c r="F316" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B317" t="s">
+        <v>102</v>
+      </c>
+      <c r="C317" s="11">
+        <v>36550</v>
+      </c>
+      <c r="D317" s="11"/>
+      <c r="E317" t="s">
+        <v>315</v>
+      </c>
+      <c r="F317" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B318" t="s">
+        <v>125</v>
+      </c>
+      <c r="C318" s="11"/>
+      <c r="D318" s="11">
+        <v>2500</v>
+      </c>
+      <c r="F318" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B319" t="s">
+        <v>52</v>
+      </c>
+      <c r="C319" s="11">
+        <v>2600</v>
+      </c>
+      <c r="D319" s="11"/>
+      <c r="E319" t="s">
+        <v>316</v>
+      </c>
+      <c r="F319" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B320" t="s">
+        <v>52</v>
+      </c>
+      <c r="C320" s="11">
+        <v>200</v>
+      </c>
+      <c r="D320" s="11"/>
+      <c r="E320" t="s">
+        <v>317</v>
+      </c>
+      <c r="F320" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B321" t="s">
+        <v>102</v>
+      </c>
+      <c r="C321" s="11">
+        <v>200400</v>
+      </c>
+      <c r="D321" s="11"/>
+      <c r="E321" t="s">
+        <v>128</v>
+      </c>
+      <c r="F321" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="43"/>
+      <c r="C322" s="14">
         <f>SUBTOTAL(109,Table14[Debit])</f>
-        <v>7133346</v>
-      </c>
-      <c r="D306" s="14">
+        <v>7809959</v>
+      </c>
+      <c r="D322" s="14">
         <f>SUBTOTAL(109,Table14[Credit])</f>
-        <v>7625247</v>
-      </c>
-      <c r="F306" s="62">
+        <v>8263536</v>
+      </c>
+      <c r="F322" s="62">
         <f>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</f>
-        <v>491901</v>
+        <v>453577</v>
       </c>
     </row>
   </sheetData>
@@ -30049,7 +32113,7 @@
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -30332,10 +32396,10 @@
       <c r="K10" s="27">
         <v>45888</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="106">
         <v>60100</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="106">
         <v>-567500</v>
       </c>
     </row>
@@ -30366,10 +32430,10 @@
       <c r="K11" s="27">
         <v>45889</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="106">
         <v>659500</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="106">
         <v>659500</v>
       </c>
     </row>
@@ -30400,10 +32464,10 @@
       <c r="K12" s="27">
         <v>45892</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="106">
         <v>166500</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="106">
         <v>154500</v>
       </c>
     </row>
@@ -30434,10 +32498,10 @@
       <c r="K13" s="27">
         <v>45885</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="106">
         <v>114250</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="106">
         <v>567500</v>
       </c>
     </row>
@@ -30468,10 +32532,10 @@
       <c r="K14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="106">
         <v>1000350</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="106">
         <v>814000</v>
       </c>
     </row>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4530" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6EF2F2-8AE7-471B-A901-42D159543A4B}"/>
+  <xr:revisionPtr revIDLastSave="4800" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E5FD4F5-742C-44C1-BD03-F23C38BFD640}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="325">
   <si>
     <t>Billing</t>
   </si>
@@ -1099,6 +1099,27 @@
   <si>
     <t>mazdoor</t>
   </si>
+  <si>
+    <t>TW 685</t>
+  </si>
+  <si>
+    <t>balance cleared</t>
+  </si>
+  <si>
+    <t>Dilawar stenter</t>
+  </si>
+  <si>
+    <t>dasti</t>
+  </si>
+  <si>
+    <t>Master Akbar</t>
+  </si>
+  <si>
+    <t>nozzle</t>
+  </si>
+  <si>
+    <t>Azam</t>
+  </si>
 </sst>
 </file>
 
@@ -1566,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1701,37 +1722,19 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="7" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="159">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
+  <dxfs count="162">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1812,22 +1815,35 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1910,6 +1926,60 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2091,6 +2161,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2442,39 +2515,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -2766,18 +2806,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>224763</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>144592</xdr:rowOff>
+      <xdr:colOff>1114887</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>164821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>531756</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>49339</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>181102</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>69568</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Party Name">
@@ -2800,7 +2840,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2810,8 +2850,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5920576" y="16245268"/>
-              <a:ext cx="4522662" cy="1351999"/>
+              <a:off x="6765825" y="17461547"/>
+              <a:ext cx="4521595" cy="1361313"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2844,15 +2884,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>528075</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>176552</xdr:rowOff>
+      <xdr:colOff>426925</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>61915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>163292</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>52881</xdr:rowOff>
+      <xdr:colOff>62142</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -2891,8 +2931,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="528075" y="16096322"/>
-              <a:ext cx="1877361" cy="1504487"/>
+              <a:off x="426925" y="17358641"/>
+              <a:ext cx="1874013" cy="1514966"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2932,13 +2972,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>448198</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>59339</xdr:rowOff>
+      <xdr:rowOff>59338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>230452</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>8022</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168639</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -3742,18 +3782,14 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955830555555" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="320" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45910.926787268516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="343" xr:uid="{B5BDFB73-D93A-4A7A-8149-666BC190B09B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table14"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-08-17T00:00:00" maxDate="2025-09-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-17T00:00:00" maxDate="2025-09-11T00:00:00"/>
     </cacheField>
     <cacheField name="Party" numFmtId="0">
       <sharedItems containsBlank="1" count="36">
@@ -3787,7 +3823,7 @@
         <s v="Raaz fabrics"/>
         <s v="Shehzad Kamoki"/>
         <s v="Rafaqat"/>
-        <m u="1"/>
+        <m/>
         <s v="Toll" u="1"/>
         <s v="Salary" u="1"/>
         <s v="Self" u="1"/>
@@ -3820,13 +3856,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955831134263" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45910.926787615739" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{C9337D87-FB7F-43A5-B835-F515E859066B}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table4"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Party Name" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="11">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="12">
         <s v="BSC"/>
         <s v="Ejaz Sahab"/>
         <s v="Arshad"/>
@@ -3837,17 +3873,18 @@
         <s v="Hafiz Qureshi"/>
         <s v="Ubaidullah"/>
         <s v="Ashraf Zia"/>
+        <s v="Azam"/>
         <n v="0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tiyaar" numFmtId="1">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="445547.73226042435"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="469624.17702999274"/>
     </cacheField>
     <cacheField name="Rate" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="10" maxValue="10.5"/>
     </cacheField>
     <cacheField name="Total" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4386100.9509875644"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="4626865.3986832481"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3859,17 +3896,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955831250001" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="17" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45910.926787731485" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{AC867DCC-CE64-4D1A-827D-F1F3EE10EE4E}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table8"/>
   </cacheSource>
   <cacheFields count="9">
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-16T00:00:00" maxDate="2025-08-29T00:00:00" count="17">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-05-16T00:00:00" maxDate="2025-09-11T00:00:00" count="19">
         <d v="2025-08-16T00:00:00"/>
         <d v="2025-08-19T00:00:00"/>
         <d v="2025-08-20T00:00:00"/>
         <d v="2025-08-23T00:00:00"/>
+        <d v="2025-09-10T00:00:00"/>
+        <m/>
         <d v="2025-08-21T00:00:00" u="1"/>
         <d v="2025-08-22T00:00:00" u="1"/>
         <d v="2025-08-24T00:00:00" u="1"/>
@@ -3886,7 +3925,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Chemical Name" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Boxes" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
@@ -3923,13 +3962,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.95583136574" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45910.926788194447" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table3"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-10T00:00:00" count="45">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-05-02T00:00:00" maxDate="2025-09-11T00:00:00" count="46">
         <d v="2025-08-16T00:00:00"/>
         <d v="2025-08-12T00:00:00"/>
         <d v="2025-08-13T00:00:00"/>
@@ -3955,6 +3994,7 @@
         <d v="2025-09-07T00:00:00"/>
         <d v="2025-09-08T00:00:00"/>
         <d v="2025-09-09T00:00:00"/>
+        <d v="2025-09-10T00:00:00"/>
         <d v="2025-08-02T00:00:00" u="1"/>
         <d v="2025-07-02T00:00:00" u="1"/>
         <d v="2025-06-02T00:00:00" u="1"/>
@@ -3987,7 +4027,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Vehicle Number" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="9940" count="39">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="52" maxValue="9940" count="40">
         <s v="Closing Balance CF"/>
         <n v="6691"/>
         <n v="1055"/>
@@ -4013,6 +4053,7 @@
         <n v="160"/>
         <n v="1973"/>
         <n v="9940"/>
+        <n v="685"/>
         <n v="2980" u="1"/>
         <n v="7221" u="1"/>
         <n v="8901" u="1"/>
@@ -4057,13 +4098,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955831481479" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="87" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45910.92678854167" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="92" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-10T00:00:00" count="36">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-11T00:00:00" count="37">
         <d v="2025-08-17T00:00:00"/>
         <d v="2025-08-19T00:00:00"/>
         <d v="2025-08-16T00:00:00"/>
@@ -4084,6 +4125,7 @@
         <d v="2025-09-07T00:00:00"/>
         <d v="2025-09-08T00:00:00"/>
         <d v="2025-09-09T00:00:00"/>
+        <d v="2025-09-10T00:00:00"/>
         <d v="2025-07-25T00:00:00" u="1"/>
         <d v="2025-07-26T00:00:00" u="1"/>
         <d v="2025-07-28T00:00:00" u="1"/>
@@ -4103,7 +4145,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Party Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="17">
+      <sharedItems containsBlank="1" count="18">
         <s v="BSC"/>
         <s v="Ejaz Sahab"/>
         <s v="Arshad"/>
@@ -4114,6 +4156,7 @@
         <s v="Hafiz Qureshi"/>
         <s v="Ubaidullah"/>
         <s v="Ashraf Zia"/>
+        <s v="Azam"/>
         <m u="1"/>
         <s v="YING" u="1"/>
         <s v="Meow" u="1"/>
@@ -4124,7 +4167,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bill Number" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="798" count="189">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="803" count="194">
         <s v="July Closing CF"/>
         <n v="716"/>
         <n v="721"/>
@@ -4204,6 +4247,11 @@
         <n v="796"/>
         <n v="797"/>
         <n v="798"/>
+        <n v="799"/>
+        <n v="800"/>
+        <n v="801"/>
+        <n v="802"/>
+        <n v="803"/>
         <n v="653" u="1"/>
         <n v="654" u="1"/>
         <n v="655" u="1"/>
@@ -4320,7 +4368,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Shipment Number" numFmtId="164">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1558" maxValue="17000" count="94">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1558" maxValue="17000" count="96">
         <m/>
         <n v="1605"/>
         <n v="1624"/>
@@ -4362,6 +4410,8 @@
         <n v="1677"/>
         <n v="1667"/>
         <n v="1675"/>
+        <n v="1681"/>
+        <n v="1674"/>
         <n v="1595" u="1"/>
         <n v="1593" u="1"/>
         <n v="1599" u="1"/>
@@ -4448,20 +4498,20 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45909.955831828702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45910.926789120371" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="8" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-16T00:00:00" maxDate="2025-09-02T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-08-16T00:00:00" maxDate="2025-09-10T00:00:00"/>
     </cacheField>
     <cacheField name="Party Name" numFmtId="14">
       <sharedItems containsBlank="1" count="5">
         <s v="Faysal Akraam"/>
         <s v="-"/>
         <s v="Finish"/>
-        <m/>
+        <m u="1"/>
         <s v="Faysal" u="1"/>
       </sharedItems>
     </cacheField>
@@ -4493,7 +4543,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="320">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="343">
   <r>
     <d v="2025-08-17T00:00:00"/>
     <x v="0"/>
@@ -7372,6 +7422,213 @@
     <m/>
     <s v="wood"/>
     <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-08T00:00:00"/>
+    <x v="3"/>
+    <n v="1100"/>
+    <m/>
+    <m/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="6"/>
+    <n v="920"/>
+    <m/>
+    <s v="Toll"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <n v="500000"/>
+    <s v="Dyes"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="12"/>
+    <n v="500000"/>
+    <m/>
+    <s v="Dyes"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="2"/>
+    <n v="37500"/>
+    <m/>
+    <s v="TW 685"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="5"/>
+    <n v="2050"/>
+    <m/>
+    <s v="workshop"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="1"/>
+    <m/>
+    <n v="2050"/>
+    <s v="workshop"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="29"/>
+    <n v="148610"/>
+    <m/>
+    <s v="balance cleared"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="Transfer"/>
+    <n v="55000"/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="25"/>
+    <n v="2000"/>
+    <m/>
+    <s v="Dilawar stenter"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="16"/>
+    <m/>
+    <n v="50000"/>
+    <s v="billing"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="5"/>
+    <n v="1600"/>
+    <m/>
+    <s v="engine oil"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="11"/>
+    <n v="6400"/>
+    <m/>
+    <s v="mazdoor"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="2"/>
+    <n v="13000"/>
+    <m/>
+    <s v="unloading"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="25"/>
+    <n v="5000"/>
+    <m/>
+    <s v="Master Akbar"/>
+    <s v="Cash"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="9"/>
+    <n v="7692"/>
+    <m/>
+    <m/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="4"/>
+    <n v="3900"/>
+    <m/>
+    <s v="nozzle"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="24"/>
+    <m/>
+    <n v="97000"/>
+    <s v="billing"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="2"/>
+    <n v="201450"/>
+    <m/>
+    <s v="wood"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <d v="2025-09-10T00:00:00"/>
+    <x v="5"/>
+    <n v="5335"/>
+    <m/>
+    <s v="petrol"/>
+    <s v="Bank"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="30"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -7381,15 +7638,15 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
   <r>
     <x v="0"/>
-    <n v="445547.73226042435"/>
+    <n v="469624.17702999274"/>
     <n v="10"/>
-    <n v="4386100.9509875644"/>
+    <n v="4626865.3986832481"/>
   </r>
   <r>
     <x v="1"/>
-    <n v="12010.790051207025"/>
+    <n v="24754.937820043895"/>
     <n v="10"/>
-    <n v="120107.90051207025"/>
+    <n v="247549.37820043895"/>
   </r>
   <r>
     <x v="2"/>
@@ -7405,9 +7662,9 @@
   </r>
   <r>
     <x v="4"/>
-    <n v="296661.4850036577"/>
+    <n v="307038.22238478425"/>
     <n v="10"/>
-    <n v="2982706.656912948"/>
+    <n v="3076097.2933430872"/>
   </r>
   <r>
     <x v="5"/>
@@ -7441,12 +7698,12 @@
   </r>
   <r>
     <x v="10"/>
-    <n v="0"/>
-    <m/>
-    <n v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
+    <n v="22580.468178493051"/>
+    <m/>
+    <n v="225804.68178493052"/>
+  </r>
+  <r>
+    <x v="11"/>
     <n v="0"/>
     <m/>
     <n v="0"/>
@@ -7455,7 +7712,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="17">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
   <r>
     <x v="0"/>
     <s v="Dyes"/>
@@ -7643,11 +7900,33 @@
     <n v="57000"/>
     <m/>
   </r>
+  <r>
+    <x v="4"/>
+    <s v="Dyes"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="500000"/>
+    <n v="-500000"/>
+    <m/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="45">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -8078,6 +8357,17 @@
     <n v="-114940"/>
   </r>
   <r>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <n v="200500"/>
+    <n v="-200500"/>
+  </r>
+  <r>
     <x v="24"/>
     <x v="0"/>
     <x v="24"/>
@@ -8088,11 +8378,55 @@
     <n v="236950"/>
     <n v="-43360"/>
   </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="50"/>
+    <n v="765"/>
+    <n v="37500"/>
+    <n v="38250"/>
+    <m/>
+    <n v="38250"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="0"/>
+    <x v="25"/>
+    <n v="173"/>
+    <n v="810"/>
+    <m/>
+    <n v="140130"/>
+    <n v="251950"/>
+    <n v="-111820"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="44"/>
+    <n v="590"/>
+    <m/>
+    <n v="25960"/>
+    <n v="148610"/>
+    <n v="-122650"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="2"/>
+    <x v="11"/>
+    <n v="188"/>
+    <n v="550"/>
+    <m/>
+    <n v="103400"/>
+    <m/>
+    <n v="103400"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="87">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="92">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -8101,7 +8435,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="414267.55669348943"/>
     <n v="4142675.5669348943"/>
     <m/>
@@ -8114,7 +8448,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="61235.369422092175"/>
     <n v="612353.69422092172"/>
     <m/>
@@ -8127,7 +8461,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="76517.922457937093"/>
     <n v="765179.22457937093"/>
     <m/>
@@ -8140,7 +8474,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="83155.632772494515"/>
     <n v="850000.04411119246"/>
     <m/>
@@ -8153,7 +8487,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="119396.48866130214"/>
     <n v="1074568.3979517194"/>
     <m/>
@@ -8166,7 +8500,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="156420.99487929774"/>
     <n v="1564209.9487929773"/>
     <m/>
@@ -8179,7 +8513,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="21851.682516459401"/>
     <n v="218516.82516459402"/>
     <m/>
@@ -8192,7 +8526,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="19940.563277249454"/>
     <n v="199405.63277249454"/>
     <m/>
@@ -8205,7 +8539,7 @@
     <x v="0"/>
     <m/>
     <m/>
-    <e v="#DIV/0!"/>
+    <n v="0"/>
     <n v="20083.211411850771"/>
     <n v="240998.53694220923"/>
     <m/>
@@ -9206,7 +9540,7 @@
     <x v="39"/>
     <n v="14638"/>
     <n v="4334"/>
-    <n v="72.926234521227371"/>
+    <n v="2.0371965302002195"/>
     <n v="3963.0577907827364"/>
     <n v="35667.520117044631"/>
     <m/>
@@ -9219,9 +9553,74 @@
     <x v="40"/>
     <n v="25085"/>
     <n v="13135"/>
-    <n v="52.119633042826294"/>
+    <n v="1.3157750845369947"/>
     <n v="12010.790051207025"/>
     <n v="120107.90051207025"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="1"/>
+    <x v="79"/>
+    <s v="Chamki"/>
+    <x v="40"/>
+    <n v="25085"/>
+    <n v="13937"/>
+    <n v="1.3157750845369947"/>
+    <n v="12744.14776883687"/>
+    <n v="127441.4776883687"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="80"/>
+    <s v="Chamki"/>
+    <x v="39"/>
+    <n v="14638"/>
+    <n v="11348"/>
+    <n v="2.0371965302002195"/>
+    <n v="10376.737381126555"/>
+    <n v="93390.636430138999"/>
+    <m/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="81"/>
+    <s v="Chamki"/>
+    <x v="41"/>
+    <n v="24262"/>
+    <n v="6181"/>
+    <n v="0.76479775134613703"/>
+    <n v="5651.9751280175569"/>
+    <n v="56519.751280175566"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="82"/>
+    <s v="Chamki"/>
+    <x v="41"/>
+    <n v="24262"/>
+    <n v="20149"/>
+    <n v="0.76479775134613703"/>
+    <n v="18424.469641550844"/>
+    <n v="184244.69641550846"/>
+    <m/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="10"/>
+    <x v="83"/>
+    <s v="Chamki"/>
+    <x v="42"/>
+    <n v="26274"/>
+    <n v="24694"/>
+    <n v="14.057744620183243"/>
+    <n v="22580.468178493051"/>
+    <n v="225804.68178493052"/>
     <m/>
   </r>
 </pivotCacheRecords>
@@ -9300,13 +9699,13 @@
     <n v="0"/>
   </r>
   <r>
-    <m/>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <n v="0"/>
+    <d v="2025-09-09T00:00:00"/>
+    <x v="2"/>
+    <s v="Starch"/>
+    <n v="10"/>
+    <m/>
+    <n v="69500"/>
+    <n v="69500"/>
     <n v="0"/>
   </r>
 </pivotCacheRecords>
@@ -9314,21 +9713,22 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I3:K15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="I3:K16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="12">
+      <items count="13">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
-        <item x="10"/>
+        <item x="11"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9339,7 +9739,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -9373,6 +9773,9 @@
     <i>
       <x v="10"/>
     </i>
+    <i>
+      <x v="11"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -9393,7 +9796,7 @@
     <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="158">
+    <format dxfId="161">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9402,7 +9805,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="157">
+    <format dxfId="160">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9411,7 +9814,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="156">
+    <format dxfId="159">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9421,7 +9824,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="158">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9445,19 +9848,18 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="D101:G181" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I110:K132" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
-    <pivotField axis="axisPage" showAll="0">
-      <items count="37">
-        <item m="1" x="20"/>
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="38">
         <item m="1" x="21"/>
         <item m="1" x="22"/>
         <item m="1" x="23"/>
         <item m="1" x="24"/>
         <item m="1" x="25"/>
-        <item m="1" x="35"/>
         <item m="1" x="26"/>
+        <item m="1" x="36"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
         <item m="1" x="29"/>
@@ -9466,6 +9868,7 @@
         <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
+        <item m="1" x="35"/>
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
@@ -9486,38 +9889,204 @@
         <item x="17"/>
         <item x="18"/>
         <item x="19"/>
+        <item x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="22">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="137">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="D110:G195" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisPage" showAll="0">
+      <items count="38">
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="36"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="18">
+      <items count="19">
         <item x="2"/>
         <item x="0"/>
+        <item m="1" x="17"/>
+        <item x="6"/>
         <item m="1" x="16"/>
-        <item x="6"/>
         <item m="1" x="15"/>
         <item m="1" x="14"/>
-        <item m="1" x="13"/>
         <item x="1"/>
         <item x="3"/>
+        <item m="1" x="13"/>
+        <item x="4"/>
         <item m="1" x="12"/>
-        <item x="4"/>
         <item m="1" x="11"/>
-        <item m="1" x="10"/>
         <item x="5"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
-      <items count="190">
-        <item m="1" x="141"/>
-        <item m="1" x="142"/>
-        <item m="1" x="143"/>
-        <item m="1" x="144"/>
-        <item m="1" x="145"/>
+      <items count="195">
         <item m="1" x="146"/>
         <item m="1" x="147"/>
         <item m="1" x="148"/>
@@ -9561,11 +10130,11 @@
         <item m="1" x="186"/>
         <item m="1" x="187"/>
         <item m="1" x="188"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="82"/>
-        <item m="1" x="83"/>
+        <item m="1" x="189"/>
+        <item m="1" x="190"/>
+        <item m="1" x="191"/>
+        <item m="1" x="192"/>
+        <item m="1" x="193"/>
         <item m="1" x="84"/>
         <item m="1" x="85"/>
         <item m="1" x="86"/>
@@ -9579,40 +10148,40 @@
         <item m="1" x="94"/>
         <item m="1" x="95"/>
         <item m="1" x="96"/>
-        <item m="1" x="125"/>
         <item m="1" x="97"/>
         <item m="1" x="98"/>
         <item m="1" x="99"/>
         <item m="1" x="100"/>
         <item m="1" x="101"/>
+        <item m="1" x="130"/>
         <item m="1" x="102"/>
-        <item m="1" x="114"/>
         <item m="1" x="103"/>
         <item m="1" x="104"/>
         <item m="1" x="105"/>
         <item m="1" x="106"/>
         <item m="1" x="107"/>
+        <item m="1" x="119"/>
         <item m="1" x="108"/>
         <item m="1" x="109"/>
         <item m="1" x="110"/>
         <item m="1" x="111"/>
         <item m="1" x="112"/>
         <item m="1" x="113"/>
+        <item m="1" x="114"/>
         <item m="1" x="115"/>
         <item m="1" x="116"/>
         <item m="1" x="117"/>
         <item m="1" x="118"/>
-        <item m="1" x="119"/>
         <item m="1" x="120"/>
         <item m="1" x="121"/>
         <item m="1" x="122"/>
         <item m="1" x="123"/>
         <item m="1" x="124"/>
+        <item m="1" x="125"/>
         <item m="1" x="126"/>
         <item m="1" x="127"/>
         <item m="1" x="128"/>
         <item m="1" x="129"/>
-        <item m="1" x="130"/>
         <item m="1" x="131"/>
         <item m="1" x="132"/>
         <item m="1" x="133"/>
@@ -9623,6 +10192,11 @@
         <item m="1" x="138"/>
         <item m="1" x="139"/>
         <item m="1" x="140"/>
+        <item m="1" x="141"/>
+        <item m="1" x="142"/>
+        <item m="1" x="143"/>
+        <item m="1" x="144"/>
+        <item m="1" x="145"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -9702,56 +10276,59 @@
         <item x="76"/>
         <item x="77"/>
         <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="95">
+      <items count="97">
+        <item m="1" x="49"/>
+        <item m="1" x="79"/>
+        <item m="1" x="80"/>
+        <item m="1" x="88"/>
+        <item m="1" x="78"/>
+        <item m="1" x="77"/>
+        <item m="1" x="81"/>
+        <item m="1" x="92"/>
+        <item m="1" x="84"/>
+        <item m="1" x="85"/>
+        <item m="1" x="82"/>
+        <item m="1" x="83"/>
+        <item m="1" x="93"/>
+        <item m="1" x="86"/>
+        <item m="1" x="87"/>
+        <item m="1" x="90"/>
+        <item m="1" x="91"/>
+        <item m="1" x="89"/>
+        <item m="1" x="44"/>
+        <item m="1" x="95"/>
+        <item m="1" x="43"/>
+        <item m="1" x="94"/>
+        <item m="1" x="46"/>
+        <item m="1" x="45"/>
         <item m="1" x="47"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="86"/>
+        <item m="1" x="53"/>
+        <item m="1" x="48"/>
+        <item m="1" x="50"/>
+        <item m="1" x="54"/>
+        <item m="1" x="55"/>
+        <item m="1" x="74"/>
+        <item m="1" x="51"/>
+        <item m="1" x="52"/>
+        <item x="28"/>
         <item m="1" x="76"/>
         <item m="1" x="75"/>
-        <item m="1" x="79"/>
-        <item m="1" x="90"/>
-        <item m="1" x="82"/>
-        <item m="1" x="83"/>
-        <item m="1" x="80"/>
-        <item m="1" x="81"/>
-        <item m="1" x="91"/>
-        <item m="1" x="84"/>
-        <item m="1" x="85"/>
-        <item m="1" x="88"/>
-        <item m="1" x="89"/>
-        <item m="1" x="87"/>
-        <item m="1" x="42"/>
-        <item m="1" x="93"/>
-        <item m="1" x="41"/>
-        <item m="1" x="92"/>
-        <item m="1" x="44"/>
-        <item m="1" x="43"/>
-        <item m="1" x="45"/>
-        <item m="1" x="51"/>
-        <item m="1" x="46"/>
-        <item m="1" x="48"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="72"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item x="28"/>
-        <item m="1" x="74"/>
-        <item m="1" x="73"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
         <item m="1" x="56"/>
         <item m="1" x="57"/>
         <item m="1" x="58"/>
-        <item x="2"/>
         <item m="1" x="59"/>
         <item m="1" x="60"/>
+        <item x="2"/>
         <item m="1" x="61"/>
         <item m="1" x="62"/>
         <item m="1" x="63"/>
@@ -9763,6 +10340,8 @@
         <item m="1" x="69"/>
         <item m="1" x="70"/>
         <item m="1" x="71"/>
+        <item m="1" x="72"/>
+        <item m="1" x="73"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -9802,6 +10381,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9818,7 +10399,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="80">
+  <rowItems count="85">
     <i>
       <x v="110"/>
     </i>
@@ -10056,6 +10637,21 @@
     <i>
       <x v="188"/>
     </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -10096,196 +10692,31 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I101:K122" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="37">
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item m="1" x="35"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="21">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="134">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="54" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
-  <location ref="E47:I60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="E59:I126" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="46">
-        <item m="1" x="29"/>
+      <items count="47">
         <item m="1" x="30"/>
         <item m="1" x="31"/>
         <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
         <item m="1" x="35"/>
-        <item m="1" x="44"/>
-        <item m="1" x="25"/>
         <item m="1" x="36"/>
+        <item m="1" x="45"/>
+        <item m="1" x="26"/>
         <item m="1" x="37"/>
         <item m="1" x="38"/>
         <item m="1" x="39"/>
         <item m="1" x="40"/>
         <item m="1" x="41"/>
         <item m="1" x="42"/>
+        <item m="1" x="43"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="43"/>
+        <item m="1" x="44"/>
         <item x="3"/>
         <item x="0"/>
         <item x="4"/>
@@ -10303,15 +10734,16 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item m="1" x="26"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
+        <item m="1" x="29"/>
         <item x="19"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10326,27 +10758,27 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="40">
-        <item m="1" x="29"/>
+      <items count="41">
+        <item m="1" x="30"/>
         <item x="15"/>
-        <item m="1" x="25"/>
+        <item m="1" x="26"/>
         <item x="4"/>
-        <item m="1" x="30"/>
         <item m="1" x="31"/>
-        <item m="1" x="26"/>
+        <item m="1" x="32"/>
         <item m="1" x="27"/>
         <item m="1" x="28"/>
+        <item m="1" x="29"/>
         <item x="5"/>
         <item x="7"/>
-        <item m="1" x="32"/>
         <item m="1" x="33"/>
         <item m="1" x="34"/>
         <item m="1" x="35"/>
         <item m="1" x="36"/>
         <item m="1" x="37"/>
+        <item m="1" x="38"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="38"/>
+        <item m="1" x="39"/>
         <item x="3"/>
         <item x="0"/>
         <item x="6"/>
@@ -10366,6 +10798,7 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10380,7 +10813,13 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="67">
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
     <i>
       <x v="17"/>
     </i>
@@ -10388,10 +10827,58 @@
       <x v="18"/>
     </i>
     <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i>
       <x v="20"/>
     </i>
     <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
       <x v="21"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
     </i>
     <i>
       <x v="26"/>
@@ -10400,10 +10887,37 @@
       <x v="26"/>
     </i>
     <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
       <x v="30"/>
     </i>
     <i r="1">
       <x v="29"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i>
       <x v="32"/>
@@ -10412,10 +10926,91 @@
       <x v="9"/>
     </i>
     <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i>
       <x v="39"/>
     </i>
     <i r="1">
       <x v="9"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
     </i>
     <i t="grand">
       <x/>
@@ -10439,7 +11034,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
   </pageFields>
   <dataFields count="4">
     <dataField name="Sum of Weight" fld="3" baseField="0" baseItem="0" numFmtId="164"/>
@@ -10448,7 +11043,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="120">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -10457,7 +11052,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="119">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -10481,7 +11076,7 @@
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J163:L194" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="J163:L195" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -10506,7 +11101,7 @@
         <item x="22"/>
         <item x="3"/>
         <item x="8"/>
-        <item m="1" x="30"/>
+        <item x="30"/>
         <item x="7"/>
         <item m="1" x="34"/>
         <item x="20"/>
@@ -10534,7 +11129,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="32">
     <i>
       <x/>
     </i>
@@ -10588,6 +11183,9 @@
     </i>
     <i>
       <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
     </i>
     <i>
       <x v="21"/>
@@ -10645,7 +11243,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="108">
+    <format dxfId="122">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -10663,27 +11261,29 @@
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="K9:M14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="K9:M15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
-      <items count="18">
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
+      <items count="20">
         <item m="1" x="14"/>
         <item m="1" x="15"/>
         <item m="1" x="16"/>
-        <item m="1" x="11"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="13"/>
         <item x="1"/>
         <item x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="5"/>
-        <item x="3"/>
         <item m="1" x="6"/>
         <item m="1" x="7"/>
+        <item x="3"/>
         <item m="1" x="8"/>
         <item m="1" x="9"/>
         <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
         <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10706,7 +11306,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="6">
     <i>
       <x v="6"/>
     </i>
@@ -10718,6 +11318,9 @@
     </i>
     <i>
       <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i t="grand">
       <x/>
@@ -10735,7 +11338,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="5" hier="-1"/>
+    <pageField fld="5" item="0" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Price" fld="4" baseField="0" baseItem="0"/>
@@ -10755,13 +11358,13 @@
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="65" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J4:M9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="J4:M8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item m="1" x="4"/>
-        <item x="3"/>
+        <item m="1" x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -10778,10 +11381,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
+  <rowItems count="4">
     <i>
       <x v="2"/>
     </i>
@@ -10828,79 +11428,78 @@
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
-  <location ref="A3:C45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A3:C47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="18">
-        <item m="1" x="14"/>
+      <items count="19">
+        <item m="1" x="15"/>
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="17"/>
+        <item m="1" x="13"/>
+        <item x="6"/>
         <item m="1" x="16"/>
-        <item m="1" x="12"/>
-        <item x="6"/>
-        <item m="1" x="15"/>
         <item x="3"/>
         <item x="4"/>
-        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
         <item m="1" x="11"/>
-        <item m="1" x="10"/>
         <item x="5"/>
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="95">
+      <items count="97">
+        <item m="1" x="79"/>
+        <item m="1" x="80"/>
+        <item m="1" x="78"/>
         <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="76"/>
-        <item m="1" x="75"/>
-        <item m="1" x="79"/>
         <item m="1" x="81"/>
-        <item m="1" x="80"/>
+        <item m="1" x="83"/>
         <item m="1" x="82"/>
-        <item m="1" x="83"/>
         <item m="1" x="84"/>
         <item m="1" x="85"/>
         <item m="1" x="86"/>
         <item m="1" x="87"/>
         <item m="1" x="88"/>
-        <item x="28"/>
-        <item m="1" x="74"/>
         <item m="1" x="89"/>
         <item m="1" x="90"/>
+        <item x="28"/>
+        <item m="1" x="76"/>
         <item m="1" x="91"/>
-        <item m="1" x="42"/>
-        <item m="1" x="41"/>
         <item m="1" x="92"/>
         <item m="1" x="93"/>
-        <item m="1" x="51"/>
+        <item m="1" x="44"/>
         <item m="1" x="43"/>
-        <item m="1" x="44"/>
+        <item m="1" x="94"/>
+        <item m="1" x="95"/>
+        <item m="1" x="53"/>
         <item m="1" x="45"/>
         <item m="1" x="46"/>
         <item m="1" x="47"/>
         <item m="1" x="48"/>
         <item m="1" x="49"/>
         <item m="1" x="50"/>
+        <item m="1" x="51"/>
         <item m="1" x="52"/>
-        <item m="1" x="72"/>
-        <item m="1" x="53"/>
-        <item m="1" x="73"/>
         <item m="1" x="54"/>
+        <item m="1" x="74"/>
         <item m="1" x="55"/>
+        <item m="1" x="75"/>
         <item m="1" x="56"/>
         <item m="1" x="57"/>
         <item m="1" x="58"/>
-        <item x="2"/>
         <item m="1" x="59"/>
         <item m="1" x="60"/>
+        <item x="2"/>
         <item m="1" x="61"/>
         <item m="1" x="62"/>
         <item m="1" x="63"/>
@@ -10912,6 +11511,8 @@
         <item m="1" x="69"/>
         <item m="1" x="70"/>
         <item m="1" x="71"/>
+        <item m="1" x="72"/>
+        <item m="1" x="73"/>
         <item x="0"/>
         <item x="1"/>
         <item x="3"/>
@@ -10951,6 +11552,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10967,7 +11570,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="44">
     <i>
       <x v="14"/>
     </i>
@@ -11091,6 +11694,12 @@
     <i>
       <x v="93"/>
     </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -11114,26 +11723,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="71">
+    <format dxfId="84">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="82">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -11143,13 +11752,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="78">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="77">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -11179,7 +11788,7 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1341418871">
-      <items count="94">
+      <items count="96">
         <i x="21" s="1"/>
         <i x="1" s="1"/>
         <i x="6" s="1"/>
@@ -11212,67 +11821,69 @@
         <i x="34" s="1"/>
         <i x="27" s="1"/>
         <i x="32" s="1"/>
+        <i x="42" s="1"/>
         <i x="40" s="1"/>
         <i x="30" s="1"/>
         <i x="38" s="1"/>
         <i x="37" s="1"/>
         <i x="33" s="1"/>
+        <i x="41" s="1"/>
         <i x="31" s="1"/>
         <i x="17" s="1"/>
         <i x="9" s="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
+        <i x="88" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
+        <i x="92" s="1" nd="1"/>
+        <i x="84" s="1" nd="1"/>
+        <i x="85" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="83" s="1" nd="1"/>
+        <i x="93" s="1" nd="1"/>
+        <i x="86" s="1" nd="1"/>
+        <i x="87" s="1" nd="1"/>
+        <i x="90" s="1" nd="1"/>
+        <i x="91" s="1" nd="1"/>
+        <i x="89" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="95" s="1" nd="1"/>
+        <i x="43" s="1" nd="1"/>
+        <i x="94" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
         <i x="47" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="86" s="1" nd="1"/>
+        <i x="53" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="50" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="55" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
+        <i x="63" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="68" s="1" nd="1"/>
+        <i x="71" s="1" nd="1"/>
+        <i x="62" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="61" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="64" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
+        <i x="73" s="1" nd="1"/>
         <i x="76" s="1" nd="1"/>
         <i x="75" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="90" s="1" nd="1"/>
-        <i x="82" s="1" nd="1"/>
-        <i x="83" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
-        <i x="91" s="1" nd="1"/>
-        <i x="84" s="1" nd="1"/>
-        <i x="85" s="1" nd="1"/>
-        <i x="88" s="1" nd="1"/>
-        <i x="89" s="1" nd="1"/>
-        <i x="87" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="93" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
-        <i x="92" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="64" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
-        <i x="53" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="50" s="1" nd="1"/>
-        <i x="55" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="62" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -11349,7 +11960,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Party Name 1" xr10:uid="{663D6C72-DC00-4848-8A46-2F05DE4A2577}" cache="Slicer_Party_Name1" caption="Party Name" startItem="1" rowHeight="247650"/>
+  <slicer name="Party Name 1" xr10:uid="{663D6C72-DC00-4848-8A46-2F05DE4A2577}" cache="Slicer_Party_Name1" caption="Party Name" rowHeight="247650"/>
 </slicers>
 </file>
 
@@ -11376,14 +11987,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}" name="Table4" displayName="Table4" ref="B3:E15" totalsRowShown="0">
   <autoFilter ref="B3:E15" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="154">
+    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="157">
       <calculatedColumnFormula>B26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="153">
+    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="156">
       <calculatedColumnFormula>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC1535DD-3FE7-4F55-8040-E7643388A78E}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="152">
+    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="155">
       <calculatedColumnFormula>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11392,15 +12003,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G322" totalsRowCount="1">
-  <autoFilter ref="A1:G321" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G345" totalsRowCount="1">
+  <autoFilter ref="A1:G344" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="56" totalsRowDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="69" totalsRowDxfId="65"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="51" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="50" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="64" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="67" totalsRowDxfId="63" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="49">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="66" totalsRowDxfId="62">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -11410,25 +12021,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="107" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="121" tableBorderDxfId="120" totalsRowBorderDxfId="119">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="104"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="102" headerRowBorderDxfId="101" tableBorderDxfId="100" totalsRowBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="116" headerRowBorderDxfId="115" tableBorderDxfId="114" totalsRowBorderDxfId="113">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="98" totalsRowDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="94">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="108">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -11440,10 +12051,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="93" totalsRowDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="107" totalsRowDxfId="106"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -11452,17 +12063,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I19" totalsRowCount="1" headerRowDxfId="89" headerRowBorderDxfId="88">
-  <autoFilter ref="A1:I18" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I21" totalsRowCount="1" headerRowDxfId="103" headerRowBorderDxfId="102">
+  <autoFilter ref="A1:I20" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="101"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="86">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="100">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -11472,22 +12083,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="85" headerRowBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H13" totalsRowCount="1" headerRowDxfId="99" headerRowBorderDxfId="98">
   <autoFilter ref="A4:H12" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="83" totalsRowDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="97" totalsRowDxfId="96"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="95"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="81">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="94">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="80">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="93">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11517,7 +12128,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -11528,8 +12139,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -11542,9 +12153,24 @@
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
-  <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
+  <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Ali Ahmad"/>
+        <filter val="Azam Operator"/>
+        <filter val="Kamran"/>
+        <filter val="Khalid Sahab"/>
+        <filter val="Master Arshad"/>
+        <filter val="Naeem driver OSF"/>
+        <filter val="Naeem Electric"/>
+        <filter val="Qadeer Driver"/>
+        <filter val="Sabir Chakki"/>
+        <filter val="Sajid Operator"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="86" totalsRowDxfId="85"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -11555,13 +12181,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:E20" totalsRowShown="0" headerRowDxfId="151" dataDxfId="150">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:E20" totalsRowShown="0" headerRowDxfId="154" dataDxfId="153">
   <autoFilter ref="B7:E20" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="149"/>
-    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="148" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="gazana" dataDxfId="147" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{06FEE63C-6480-4079-8426-51BC26B38B34}" name="sum" dataDxfId="146" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="152"/>
+    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="151" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="gazana" dataDxfId="150" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{06FEE63C-6480-4079-8426-51BC26B38B34}" name="sum" dataDxfId="149" dataCellStyle="Comma">
       <calculatedColumnFormula>Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11573,7 +12199,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="75" totalsRowDxfId="74"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -11589,7 +12215,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="73" totalsRowDxfId="72"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -11604,10 +12230,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="71">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="57">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="70">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11620,7 +12246,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="145" totalsRowDxfId="144" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -11642,11 +12268,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="141" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="140" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="144" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="143" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11656,8 +12282,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="139"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="141"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11667,12 +12293,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="137" totalsRowDxfId="136"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="140" totalsRowDxfId="139"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="135">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="138">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -11684,23 +12310,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K89" totalsRowCount="1" headerRowDxfId="133" dataDxfId="132" headerRowCellStyle="Comma" dataCellStyle="Comma">
-  <autoFilter ref="A1:K88" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K94" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135" headerRowCellStyle="Comma" dataCellStyle="Comma">
+  <autoFilter ref="A1:K93" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="131" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="130" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="129" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="128" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="127" totalsRowDxfId="31" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="126" totalsRowDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="125" totalsRowDxfId="29" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="124" totalsRowDxfId="28" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="61" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="60" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="59" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="58" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="57" totalsRowDxfId="50" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="56" totalsRowDxfId="49" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="55" totalsRowDxfId="48" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="54" totalsRowDxfId="47" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="123" totalsRowDxfId="27" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="53" totalsRowDxfId="46" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="122" totalsRowDxfId="26" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="45" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -11710,7 +12336,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="121" totalsRowDxfId="25" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="26" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -11719,20 +12345,26 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I44" totalsRowCount="1" headerRowDxfId="118" headerRowBorderDxfId="117" tableBorderDxfId="116">
-  <autoFilter ref="A1:I43" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I47" totalsRowCount="1" headerRowDxfId="132" headerRowBorderDxfId="131" tableBorderDxfId="130">
+  <autoFilter ref="A1:I46" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Malik Zaheer"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="115" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="129" totalsRowDxfId="23"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="114" totalsRowDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="113" totalsRowDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="112" totalsRowDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="111" totalsRowDxfId="2" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="128" totalsRowDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="127" totalsRowDxfId="21" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="126" totalsRowDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="19" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="110" totalsRowDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="109" totalsRowDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="124" totalsRowDxfId="18" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="123" totalsRowDxfId="17" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -12057,10 +12689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E413788-DC3D-4686-B6D6-08186A86599F}">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView topLeftCell="L1" zoomScale="103" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12069,12 +12701,12 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="16.21875" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" customWidth="1"/>
     <col min="15" max="15" width="14.88671875" customWidth="1"/>
@@ -12131,14 +12763,14 @@
       </c>
       <c r="C4" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>445547.73226042435</v>
+        <v>469624.17702999274</v>
       </c>
       <c r="D4">
         <v>10</v>
       </c>
       <c r="E4" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>4386100.9509875644</v>
+        <v>4626865.3986832481</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>9</v>
@@ -12191,39 +12823,39 @@
       </c>
       <c r="C5" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B5, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>12010.790051207025</v>
+        <v>24754.937820043895</v>
       </c>
       <c r="D5">
         <v>10</v>
       </c>
       <c r="E5" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B5, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B5, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>120107.90051207025</v>
+        <v>247549.37820043895</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="5">
-        <v>445547.73226042435</v>
+        <v>469624.17702999274</v>
       </c>
       <c r="K5" s="18">
-        <v>4386100.9509875644</v>
+        <v>4626865.3986832481</v>
       </c>
       <c r="O5" s="25" t="str" cm="1">
-        <f t="array" ref="O5:O14">_xlfn.UNIQUE(Table1[Party Name])</f>
+        <f t="array" ref="O5:O15">_xlfn.UNIQUE(Table1[Party Name])</f>
         <v>BSC</v>
       </c>
       <c r="P5" s="23" cm="1">
         <f t="array" ref="P5">_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C44,0)</f>
-        <v>940294</v>
+        <v>966624</v>
       </c>
       <c r="Q5" s="23" cm="1">
         <f t="array" ref="Q5">_xlfn.BYROW(B26, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D44,0)</f>
-        <v>859815.28895391384</v>
+        <v>883891.73372348212</v>
       </c>
       <c r="R5" s="23" cm="1">
         <f t="array" ref="R5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E44,0)</f>
-        <v>859815.28895391384</v>
+        <v>883891.73372348212</v>
       </c>
       <c r="S5" s="78" cm="1">
         <f t="array" ref="S5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F44,0)</f>
@@ -12231,7 +12863,7 @@
       </c>
       <c r="T5" s="23" cm="1">
         <f t="array" ref="T5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)+_xlfn.IFNA(G44,0)</f>
-        <v>8598152.8895391375</v>
+        <v>8838917.3372348212</v>
       </c>
       <c r="U5" s="23" cm="1">
         <f t="array" ref="U5">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H44,0)</f>
@@ -12239,15 +12871,15 @@
       </c>
       <c r="V5" s="44">
         <f>T5+U5</f>
-        <v>8598152.8895391375</v>
+        <v>8838917.3372348212</v>
       </c>
       <c r="W5" s="23">
         <f>(SUMIF(Table14[Party],O5,Table14[Credit]))+_xlfn.IFNA(J44,0)</f>
-        <v>6400933</v>
+        <v>6902983</v>
       </c>
       <c r="X5" s="98">
         <f>V5-W5</f>
-        <v>2197219.8895391375</v>
+        <v>1935934.3372348212</v>
       </c>
       <c r="Y5" s="22">
         <v>10</v>
@@ -12276,25 +12908,25 @@
         <v>22</v>
       </c>
       <c r="J6" s="5">
-        <v>12010.790051207025</v>
+        <v>24754.937820043895</v>
       </c>
       <c r="K6" s="18">
-        <v>120107.90051207025</v>
+        <v>247549.37820043895</v>
       </c>
       <c r="O6" s="25" t="str">
         <v>Ejaz Sahab</v>
       </c>
       <c r="P6" s="23" cm="1">
         <f t="array" ref="P6">_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C45,0)</f>
-        <v>80102</v>
+        <v>94039</v>
       </c>
       <c r="Q6" s="23" cm="1">
         <f t="array" ref="Q6">_xlfn.BYROW(B27, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D45,0)</f>
-        <v>73246.159473299194</v>
+        <v>85990.30724213607</v>
       </c>
       <c r="R6" s="23" cm="1">
         <f t="array" ref="R6">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E45,0)</f>
-        <v>73246.159473299194</v>
+        <v>85990.30724213607</v>
       </c>
       <c r="S6" s="78" cm="1">
         <f t="array" ref="S6">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F45,0)</f>
@@ -12302,7 +12934,7 @@
       </c>
       <c r="T6" s="23" cm="1">
         <f t="array" ref="T6">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L27)+_xlfn.IFNA(G45,0)</f>
-        <v>732461.594732992</v>
+        <v>859903.07242136064</v>
       </c>
       <c r="U6" s="23" cm="1">
         <f t="array" ref="U6">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H45,0)</f>
@@ -12310,7 +12942,7 @@
       </c>
       <c r="V6" s="44">
         <f t="shared" ref="V6:V12" si="1">T6+U6</f>
-        <v>732461.594732992</v>
+        <v>859903.07242136064</v>
       </c>
       <c r="W6" s="23">
         <f>(SUMIF(Table14[Party],O6,Table14[Credit]))+_xlfn.IFNA(J45,0)</f>
@@ -12318,7 +12950,7 @@
       </c>
       <c r="X6" s="98">
         <f>V6-W6</f>
-        <v>120107.594732992</v>
+        <v>247549.07242136064</v>
       </c>
       <c r="Y6" s="22">
         <v>10</v>
@@ -12385,11 +13017,11 @@
       </c>
       <c r="W7" s="23">
         <f>(SUMIF(Table14[Party],O7,Table14[Credit]))+_xlfn.IFNA(J46,0)</f>
-        <v>704210</v>
+        <v>754210</v>
       </c>
       <c r="X7" s="98">
         <f>V7-W7</f>
-        <v>614608.5808339431</v>
+        <v>564608.5808339431</v>
       </c>
       <c r="Y7" s="22">
         <v>10</v>
@@ -12405,14 +13037,14 @@
       </c>
       <c r="C8" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>296661.4850036577</v>
+        <v>307038.22238478425</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" s="14">
         <f>((SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936) *12) + ((SUMIFS(ledger!G:G, ledger!B:B, B8, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)* 9)</f>
-        <v>2982706.656912948</v>
+        <v>3076097.2933430872</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
@@ -12489,25 +13121,25 @@
         <v>24</v>
       </c>
       <c r="J9" s="5">
-        <v>296661.4850036577</v>
+        <v>307038.22238478425</v>
       </c>
       <c r="K9" s="18">
-        <v>2982706.656912948</v>
+        <v>3076097.2933430872</v>
       </c>
       <c r="O9" s="25" t="str">
         <v>Sufi Nawaz Sahab</v>
       </c>
       <c r="P9" s="23" cm="1">
         <f t="array" ref="P9">_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C48,0)</f>
-        <v>476964</v>
+        <v>488312</v>
       </c>
       <c r="Q9" s="23" cm="1">
         <f t="array" ref="Q9">_xlfn.BYROW(B30, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D48,0)</f>
-        <v>436141.18507681059</v>
+        <v>446517.92245793715</v>
       </c>
       <c r="R9" s="23" cm="1">
         <f t="array" ref="R9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E48,0)</f>
-        <v>311806.87637161673</v>
+        <v>322183.61375274323</v>
       </c>
       <c r="S9" s="78" cm="1">
         <f t="array" ref="S9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F48,0)</f>
@@ -12515,7 +13147,7 @@
       </c>
       <c r="T9" s="23" cm="1">
         <f t="array" ref="T9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L30)+_xlfn.IFNA(G48,0)</f>
-        <v>2806261.8873445503</v>
+        <v>2899652.5237746895</v>
       </c>
       <c r="U9" s="23" cm="1">
         <f t="array" ref="U9">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H48,0)</f>
@@ -12523,7 +13155,7 @@
       </c>
       <c r="V9" s="44">
         <f t="shared" si="1"/>
-        <v>4298273.5918068765</v>
+        <v>4391664.2282370161</v>
       </c>
       <c r="W9" s="23">
         <f>(SUMIF(Table14[Party],O9,Table14[Credit]))+_xlfn.IFNA(J48,0)</f>
@@ -12531,7 +13163,7 @@
       </c>
       <c r="X9" s="98">
         <f t="shared" si="2"/>
-        <v>1219173.5918068765</v>
+        <v>1312564.2282370161</v>
       </c>
       <c r="Y9" s="22">
         <v>9</v>
@@ -12810,11 +13442,11 @@
       </c>
       <c r="W13" s="23">
         <f>(SUMIF(Table14[Party],O13,Table14[Credit]))+_xlfn.IFNA(J52,0)</f>
-        <v>199150</v>
+        <v>296150</v>
       </c>
       <c r="X13" s="98">
         <f t="shared" si="2"/>
-        <v>96140.782735918125</v>
+        <v>-859.21726408187533</v>
       </c>
       <c r="Y13" s="22">
         <v>10</v>
@@ -12824,17 +13456,17 @@
       </c>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="B14" t="str">
         <f>B36</f>
-        <v>0</v>
+        <v>Azam</v>
       </c>
       <c r="C14" s="18">
         <f>SUMIFS(ledger!G:G, ledger!B:B, B14, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</f>
-        <v>0</v>
+        <v>22580.468178493051</v>
       </c>
       <c r="E14" s="14">
         <f>(SUMIFS(ledger!G:G, ledger!B:B, B14, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B14, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</f>
-        <v>0</v>
+        <v>225804.68178493052</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>263</v>
@@ -12905,26 +13537,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="14">
-        <v>978790.2340892466</v>
-      </c>
-      <c r="K15" s="14">
-        <v>9734617.7761521582</v>
-      </c>
-      <c r="O15" s="25"/>
+        <v>324</v>
+      </c>
+      <c r="J15" s="5">
+        <v>22580.468178493051</v>
+      </c>
+      <c r="K15" s="18">
+        <v>225804.68178493052</v>
+      </c>
+      <c r="O15" s="25" t="str">
+        <v>Azam</v>
+      </c>
       <c r="P15" s="23" cm="1">
         <f t="array" ref="P15">_xlfn.BYROW(B36,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))+_xlfn.IFNA(C54,0)</f>
-        <v>0</v>
+        <v>24694</v>
       </c>
       <c r="Q15" s="23" cm="1">
         <f t="array" ref="Q15">_xlfn.BYROW(B36, _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))+_xlfn.IFNA(D54,0)</f>
-        <v>0</v>
+        <v>22580.468178493051</v>
       </c>
       <c r="R15" s="23" cm="1">
         <f t="array" ref="R15">(_xlfn.BYROW(B36,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)+_xlfn.IFNA(E54,0)</f>
-        <v>0</v>
+        <v>22580.468178493051</v>
       </c>
       <c r="S15" s="78" cm="1">
         <f t="array" ref="S15">(_xlfn.BYROW(B36,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)+_xlfn.IFNA(F54,0)</f>
@@ -12932,7 +13566,7 @@
       </c>
       <c r="T15" s="23" cm="1">
         <f t="array" ref="T15">(_xlfn.BYROW(B36,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L36)+_xlfn.IFNA(G54,0)</f>
-        <v>0</v>
+        <v>225804.68178493052</v>
       </c>
       <c r="U15" s="23" cm="1">
         <f t="array" ref="U15">(_xlfn.BYROW(B36,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* 12)+_xlfn.IFNA(H54,0)</f>
@@ -12940,7 +13574,7 @@
       </c>
       <c r="V15" s="44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>225804.68178493052</v>
       </c>
       <c r="W15" s="23">
         <f>(SUMIF(Table14[Party],O15,Table14[Credit]))+_xlfn.IFNA(J54,0)</f>
@@ -12948,7 +13582,7 @@
       </c>
       <c r="X15" s="42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>225804.68178493052</v>
       </c>
       <c r="Y15" s="22">
         <v>10</v>
@@ -12963,10 +13597,19 @@
       </c>
       <c r="C16" s="46">
         <f>SUM(G26:G38)+SUM(H26:H38)</f>
-        <v>9846614.8500365764</v>
+        <v>10534016.093635699</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1048568.0321872716</v>
+      </c>
+      <c r="K16" s="14">
+        <v>10422019.019751279</v>
       </c>
       <c r="O16" s="25"/>
       <c r="P16" s="23" cm="1">
@@ -13064,7 +13707,7 @@
       </c>
       <c r="C18" s="42">
         <f ca="1">SUM(OFFSET(I26,0,0,COUNTA(I:I)-ROW(I26)+1))</f>
-        <v>9846614.8500365783</v>
+        <v>10534016.093635699</v>
       </c>
       <c r="D18" t="s">
         <v>32</v>
@@ -13205,28 +13848,28 @@
         <v>34</v>
       </c>
       <c r="B26" s="25" t="str" cm="1">
-        <f t="array" ref="B26:B35">_xlfn.UNIQUE(Table1[Party Name])</f>
+        <f t="array" ref="B26:B36">_xlfn.UNIQUE(Table1[Party Name])</f>
         <v>BSC</v>
       </c>
       <c r="C26" s="23" cm="1">
-        <f t="array" ref="C26:C35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
-        <v>487251</v>
+        <f t="array" ref="C26:C36">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*")))</f>
+        <v>513581</v>
       </c>
       <c r="D26" s="23" cm="1">
-        <f t="array" ref="D26:D35">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
-        <v>445547.73226042435</v>
+        <f t="array" ref="D26:D36">_xlfn.BYROW(_xlfn.ANCHORARRAY(B26), _xlfn.LAMBDA(_xlpm.party, SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*") / 1.0936 ))</f>
+        <v>469624.17702999274</v>
       </c>
       <c r="E26" s="71" cm="1">
-        <f t="array" ref="E26:E35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
-        <v>445547.73226042435</v>
+        <f t="array" ref="E26:E36">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle")))/1.0936)</f>
+        <v>469624.17702999274</v>
       </c>
       <c r="F26" s="78" cm="1">
-        <f t="array" ref="F26:F35">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
+        <f t="array" ref="F26:F36">(_xlfn.BYROW(_xlfn.ANCHORARRAY(B26),_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D,"Silky")))/1.0936)</f>
         <v>0</v>
       </c>
       <c r="G26" s="23" cm="1">
         <f t="array" ref="G26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L26)</f>
-        <v>4455477.3226042436</v>
+        <v>4696241.7702999273</v>
       </c>
       <c r="H26" s="23" cm="1">
         <f t="array" ref="H26">(_xlfn.BYROW(B26,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M26)</f>
@@ -13234,15 +13877,15 @@
       </c>
       <c r="I26" s="44">
         <f t="shared" ref="I26:I34" si="7">G26+H26</f>
-        <v>4455477.3226042436</v>
+        <v>4696241.7702999273</v>
       </c>
       <c r="J26" s="23">
         <f>(SUMIF(Table14[Party],B26,Table14[Credit]))</f>
-        <v>2572095</v>
+        <v>3074145</v>
       </c>
       <c r="K26" s="42">
         <f>I26-J26</f>
-        <v>1883382.3226042436</v>
+        <v>1622096.7702999273</v>
       </c>
       <c r="L26" s="22">
         <v>10</v>
@@ -13256,20 +13899,20 @@
         <v>Ejaz Sahab</v>
       </c>
       <c r="C27" s="23">
-        <v>13135</v>
+        <v>27072</v>
       </c>
       <c r="D27" s="23">
-        <v>12010.790051207025</v>
+        <v>24754.937820043895</v>
       </c>
       <c r="E27" s="71">
-        <v>12010.790051207025</v>
+        <v>24754.937820043895</v>
       </c>
       <c r="F27" s="78">
         <v>0</v>
       </c>
       <c r="G27" s="23" cm="1">
         <f t="array" ref="G27">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L27)</f>
-        <v>120107.90051207025</v>
+        <v>247549.37820043895</v>
       </c>
       <c r="H27" s="23" cm="1">
         <f t="array" ref="H27">(_xlfn.BYROW(B27,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M27)</f>
@@ -13277,7 +13920,7 @@
       </c>
       <c r="I27" s="44">
         <f t="shared" si="7"/>
-        <v>120107.90051207025</v>
+        <v>247549.37820043895</v>
       </c>
       <c r="J27" s="23">
         <f>(SUMIF(Table14[Party],B27,Table14[Credit]))</f>
@@ -13285,7 +13928,7 @@
       </c>
       <c r="K27" s="42">
         <f>I27-J27</f>
-        <v>-292246.09948792972</v>
+        <v>-164804.62179956105</v>
       </c>
       <c r="L27" s="22">
         <v>10</v>
@@ -13324,11 +13967,11 @@
       </c>
       <c r="J28" s="23">
         <f>(SUMIF(Table14[Party],B28,Table14[Credit]))</f>
-        <v>604210</v>
+        <v>654210</v>
       </c>
       <c r="K28" s="42">
         <f>I28-J28</f>
-        <v>-50570.643745427835</v>
+        <v>-100570.64374542783</v>
       </c>
       <c r="L28" s="22">
         <v>10</v>
@@ -13385,20 +14028,20 @@
         <v>Sufi Nawaz Sahab</v>
       </c>
       <c r="C30" s="23">
-        <v>324429</v>
+        <v>335777</v>
       </c>
       <c r="D30" s="23">
-        <v>296661.4850036577</v>
+        <v>307038.22238478425</v>
       </c>
       <c r="E30" s="71">
-        <v>192410.38771031456</v>
+        <v>202787.12509144112</v>
       </c>
       <c r="F30" s="78">
         <v>104251.09729334309</v>
       </c>
       <c r="G30" s="23" cm="1">
         <f t="array" ref="G30">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L30)</f>
-        <v>1731693.489392831</v>
+        <v>1825084.1258229702</v>
       </c>
       <c r="H30" s="23" cm="1">
         <f t="array" ref="H30">(_xlfn.BYROW(B30,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M30)</f>
@@ -13406,7 +14049,7 @@
       </c>
       <c r="I30" s="44">
         <f t="shared" si="7"/>
-        <v>2982706.656912948</v>
+        <v>3076097.2933430872</v>
       </c>
       <c r="J30" s="23">
         <f>(SUMIF(Table14[Party],B30,Table14[Credit]))</f>
@@ -13414,7 +14057,7 @@
       </c>
       <c r="K30" s="42">
         <f t="shared" si="8"/>
-        <v>203606.656912948</v>
+        <v>296997.29334308719</v>
       </c>
       <c r="L30" s="22">
         <v>9</v>
@@ -13582,11 +14225,11 @@
       </c>
       <c r="J34" s="23">
         <f>SUMIF(Table14[Party], B34, Table14[Credit])</f>
-        <v>199150</v>
+        <v>296150</v>
       </c>
       <c r="K34" s="42">
         <f t="shared" si="9"/>
-        <v>96140.782735918125</v>
+        <v>-859.21726408187533</v>
       </c>
       <c r="L34" s="22">
         <v>10</v>
@@ -13639,14 +14282,24 @@
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="22"/>
+      <c r="B36" s="25" t="str">
+        <v>Azam</v>
+      </c>
+      <c r="C36" s="23">
+        <v>24694</v>
+      </c>
+      <c r="D36" s="23">
+        <v>22580.468178493051</v>
+      </c>
+      <c r="E36" s="71">
+        <v>22580.468178493051</v>
+      </c>
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
       <c r="G36" s="23" cm="1">
         <f t="array" ref="G36">(_xlfn.BYROW(B36,_xlfn.LAMBDA(_xlpm.party,(SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Chamki")+SUMIFS(ledger!G:G, ledger!B:B, _xlpm.party, ledger!E:E, "&lt;&gt;*RD*", ledger!D:D, "Crinkle"))/1.0936))*L36)</f>
-        <v>0</v>
+        <v>225804.68178493052</v>
       </c>
       <c r="H36" s="23" cm="1">
         <f t="array" ref="H36">(_xlfn.BYROW(B36,_xlfn.LAMBDA(_xlpm.party,SUMIFS(ledger!G:G,ledger!B:B,_xlpm.party,ledger!E:E,"&lt;&gt;*RD*",ledger!D:D, "Silky")/1.0936))* M36)</f>
@@ -13654,7 +14307,7 @@
       </c>
       <c r="I36" s="44">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>225804.68178493052</v>
       </c>
       <c r="J36" s="23">
         <f>SUMIF(Table14[Party], B36, Table14[Credit])</f>
@@ -13662,7 +14315,7 @@
       </c>
       <c r="K36" s="42">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>225804.68178493052</v>
       </c>
       <c r="L36" s="22">
         <v>10</v>
@@ -13782,7 +14435,7 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="25" t="str" cm="1">
-        <f t="array" ref="B44:B53">_xlfn.UNIQUE(Table1[Party Name])</f>
+        <f t="array" ref="B44:B54">_xlfn.UNIQUE(Table1[Party Name])</f>
         <v>BSC</v>
       </c>
       <c r="C44" s="23">
@@ -13798,15 +14451,15 @@
         <v>414267.55669348943</v>
       </c>
       <c r="F44" s="78" cm="1">
-        <f t="array" ref="F44:F53">+_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$F$21:$F$29)</f>
+        <f t="array" ref="F44:F54">+_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$F$21:$F$29)</f>
         <v>0</v>
       </c>
       <c r="G44" s="23" cm="1">
-        <f t="array" ref="G44:G53">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$G$21:$G$29)</f>
+        <f t="array" ref="G44:G54">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$G$21:$G$29)</f>
         <v>4142675.5669348943</v>
       </c>
       <c r="H44" s="23" cm="1">
-        <f t="array" ref="H44:H53">+_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$H$21:$H$29)</f>
+        <f t="array" ref="H44:H54">+_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(B26),[1]Billing!$B$21:$B$29,[1]Billing!$H$21:$H$29)</f>
         <v>0</v>
       </c>
       <c r="I44" s="44">
@@ -14185,6 +14838,20 @@
         <v>#N/A</v>
       </c>
       <c r="H53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <v>Azam</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H54" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -14279,14 +14946,14 @@
         <v>95000</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106">
-        <v>0</v>
-      </c>
-      <c r="M5" s="106">
-        <v>0</v>
+        <v>153</v>
+      </c>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110">
+        <v>60000</v>
+      </c>
+      <c r="M5" s="110">
+        <v>35000</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -14313,14 +14980,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106">
-        <v>60000</v>
-      </c>
-      <c r="M6" s="106">
-        <v>35000</v>
+        <v>105</v>
+      </c>
+      <c r="K6" s="110">
+        <v>123050</v>
+      </c>
+      <c r="L6" s="110">
+        <v>123050</v>
+      </c>
+      <c r="M6" s="110">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -14339,15 +15008,15 @@
         <v>-60000</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K7" s="106">
-        <v>123050</v>
-      </c>
-      <c r="L7" s="106">
-        <v>123050</v>
-      </c>
-      <c r="M7" s="106">
+        <v>168</v>
+      </c>
+      <c r="K7" s="110">
+        <v>424850</v>
+      </c>
+      <c r="L7" s="110">
+        <v>424850</v>
+      </c>
+      <c r="M7" s="110">
         <v>0</v>
       </c>
     </row>
@@ -14376,16 +15045,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="K8" s="106">
-        <v>355350</v>
-      </c>
-      <c r="L8" s="106">
-        <v>355350</v>
-      </c>
-      <c r="M8" s="106">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="K8" s="110">
+        <v>547900</v>
+      </c>
+      <c r="L8" s="110">
+        <v>607900</v>
+      </c>
+      <c r="M8" s="110">
+        <v>35000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -14408,18 +15077,6 @@
       <c r="H9">
         <f>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</f>
         <v>0</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="106">
-        <v>478400</v>
-      </c>
-      <c r="L9" s="106">
-        <v>538400</v>
-      </c>
-      <c r="M9" s="106">
-        <v>35000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -14640,8 +15297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AA2331-540A-4BE5-B987-3C6225CFE23F}">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="118" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="E1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14677,7 +15334,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1">
         <v>45893</v>
       </c>
@@ -14787,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>45899</v>
       </c>
@@ -14878,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>45902</v>
       </c>
@@ -14957,7 +15614,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>45907</v>
       </c>
@@ -15278,7 +15935,7 @@
       <c r="H35" s="1"/>
       <c r="I35">
         <f>SUBTOTAL(109,Table16[Advance])</f>
-        <v>175000</v>
+        <v>105000</v>
       </c>
     </row>
   </sheetData>
@@ -15294,7 +15951,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B029A8C4-D49C-464B-A701-37B1759EDEA7}">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="90" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
@@ -15330,15 +15987,15 @@
       </c>
       <c r="B2" s="38">
         <f>SUM(B4:INDEX(B:B, MATCH(1E+100, B:B)-1))</f>
-        <v>1094897</v>
+        <v>1145433</v>
       </c>
       <c r="C2" s="37">
         <f>GETPIVOTDATA("Sum of Tiyaar/gaz",$A$3)</f>
-        <v>1074659</v>
+        <v>1150968</v>
       </c>
       <c r="D2" s="36">
         <f>((B2*48)+((C2/1.0936)*10))/C2</f>
-        <v>58.04804816216577</v>
+        <v>56.913279405583083</v>
       </c>
       <c r="J2">
         <v>48</v>
@@ -16762,11 +17419,11 @@
         <v>14638</v>
       </c>
       <c r="C43" s="14">
-        <v>4334</v>
+        <v>15682</v>
       </c>
       <c r="D43" s="33">
         <f t="shared" si="13"/>
-        <v>171.26316979876034</v>
+        <v>53.94860041570545</v>
       </c>
       <c r="E43" s="11">
         <f t="shared" si="14"/>
@@ -16774,19 +17431,19 @@
       </c>
       <c r="F43" s="11">
         <f t="shared" si="15"/>
-        <v>4334</v>
+        <v>15682</v>
       </c>
       <c r="G43" s="86">
         <f t="shared" si="16"/>
-        <v>72.926234521227371</v>
+        <v>2.0371965302002195</v>
       </c>
       <c r="H43" s="33">
         <f t="shared" si="17"/>
-        <v>3963.0577907827364</v>
+        <v>14339.795171909293</v>
       </c>
       <c r="I43" s="33">
         <f t="shared" si="18"/>
-        <v>171.26316979876034</v>
+        <v>53.94860041570545</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -16797,11 +17454,11 @@
         <v>25085</v>
       </c>
       <c r="C44" s="14">
-        <v>13135</v>
+        <v>27072</v>
       </c>
       <c r="D44" s="33">
         <f t="shared" si="13"/>
-        <v>100.81369627042788</v>
+        <v>53.621061547002036</v>
       </c>
       <c r="E44" s="11">
         <f t="shared" si="14"/>
@@ -16809,80 +17466,100 @@
       </c>
       <c r="F44" s="11">
         <f t="shared" si="15"/>
-        <v>13135</v>
+        <v>27072</v>
       </c>
       <c r="G44" s="86">
         <f t="shared" si="16"/>
-        <v>52.119633042826294</v>
+        <v>1.3157750845369947</v>
       </c>
       <c r="H44" s="33">
         <f t="shared" si="17"/>
-        <v>12010.790051207025</v>
+        <v>24754.937820043895</v>
       </c>
       <c r="I44" s="33">
         <f t="shared" si="18"/>
-        <v>100.81369627042788</v>
+        <v>53.621061547002036</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="35">
-        <v>167135</v>
-      </c>
-      <c r="C45" s="35">
-        <v>1074659</v>
+      <c r="A45" s="16">
+        <v>1681</v>
+      </c>
+      <c r="B45" s="14">
+        <v>24262</v>
+      </c>
+      <c r="C45" s="14">
+        <v>26330</v>
       </c>
       <c r="D45" s="33">
         <f t="shared" si="13"/>
-        <v>16.609251297299796</v>
+        <v>53.374114990341205</v>
       </c>
       <c r="E45" s="11">
         <f t="shared" si="14"/>
-        <v>182778.83599999998</v>
+        <v>26532.923199999997</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="15"/>
-        <v>1074659</v>
+        <v>26330</v>
       </c>
       <c r="G45" s="86">
         <f t="shared" si="16"/>
-        <v>-487.95592723875325</v>
+        <v>0.76479775134613703</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="17"/>
-        <v>982680.13899049023</v>
+        <v>24076.444769568399</v>
       </c>
       <c r="I45" s="33">
         <f t="shared" si="18"/>
-        <v>16.609251297299796</v>
+        <v>53.374114990341205</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D46" s="33" t="e">
+      <c r="A46" s="16">
+        <v>1674</v>
+      </c>
+      <c r="B46" s="14">
+        <v>26274</v>
+      </c>
+      <c r="C46" s="14">
+        <v>24694</v>
+      </c>
+      <c r="D46" s="33">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>60.215302574914176</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>28733.246399999996</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="86" t="e">
+        <v>24694</v>
+      </c>
+      <c r="G46" s="86">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>14.057744620183243</v>
       </c>
       <c r="H46" s="33">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="33" t="e">
+        <v>22580.468178493051</v>
+      </c>
+      <c r="I46" s="33">
         <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+        <v>60.215302574914176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="35">
+        <v>167135</v>
+      </c>
+      <c r="C47" s="35">
+        <v>1150968</v>
       </c>
     </row>
   </sheetData>
@@ -17416,14 +18093,14 @@
       </c>
       <c r="D27">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</f>
-        <v>0</v>
+        <v>7692</v>
       </c>
       <c r="H27" s="1">
         <v>45910</v>
       </c>
       <c r="J27">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</f>
-        <v>0</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
@@ -17563,12 +18240,12 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUM(Table5[Amount])</f>
-        <v>77819</v>
+        <v>85511</v>
       </c>
       <c r="H35" s="1"/>
       <c r="J35">
         <f>SUM(Table15[Amount])</f>
-        <v>628124</v>
+        <v>632024</v>
       </c>
     </row>
   </sheetData>
@@ -17608,7 +18285,7 @@
       </c>
       <c r="B2" s="14">
         <f>Billing!W5</f>
-        <v>6400933</v>
+        <v>6902983</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -17628,7 +18305,7 @@
       </c>
       <c r="B4" s="14">
         <f>Billing!W7</f>
-        <v>704210</v>
+        <v>754210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -17688,7 +18365,7 @@
       </c>
       <c r="B10" s="14">
         <f>Billing!W13</f>
-        <v>199150</v>
+        <v>296150</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -17734,7 +18411,7 @@
         <v>36</v>
       </c>
       <c r="J4" t="str" cm="1">
-        <f t="array" ref="J4:J13">_xlfn.UNIQUE(Table1[Party Name])</f>
+        <f t="array" ref="J4:J14">_xlfn.UNIQUE(Table1[Party Name])</f>
         <v>BSC</v>
       </c>
     </row>
@@ -17775,7 +18452,7 @@
       <c r="C8" s="74"/>
       <c r="D8" s="76" cm="1">
         <f t="array" ref="D8">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), INDEX(Billing!P5:P19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>476964</v>
+        <v>488312</v>
       </c>
       <c r="E8" s="74"/>
       <c r="J8" t="str">
@@ -17798,7 +18475,7 @@
       <c r="C10" s="74"/>
       <c r="D10" s="76" cm="1">
         <f t="array" ref="D10">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!Q5:Q20, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>436141.18507681059</v>
+        <v>446517.92245793715</v>
       </c>
       <c r="E10" s="74"/>
       <c r="J10" t="str">
@@ -17824,11 +18501,11 @@
       </c>
       <c r="D12" s="74" cm="1">
         <f t="array" ref="D12">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!R5:R19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>311806.87637161673</v>
+        <v>322183.61375274323</v>
       </c>
       <c r="E12" s="103">
         <f ca="1">Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</f>
-        <v>2806261.8873445503</v>
+        <v>2899652.5237746891</v>
       </c>
       <c r="J12" t="str">
         <v>Ubaidullah</v>
@@ -17859,6 +18536,9 @@
         <f ca="1">Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</f>
         <v>1492011.7044623264</v>
       </c>
+      <c r="J14" t="str">
+        <v>Azam</v>
+      </c>
     </row>
     <row r="15" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="73"/>
@@ -17874,7 +18554,7 @@
       <c r="D16" s="102"/>
       <c r="E16" s="104">
         <f ca="1">E12+E14</f>
-        <v>4298273.5918068765</v>
+        <v>4391664.2282370152</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -17908,7 +18588,7 @@
       <c r="D20" s="102"/>
       <c r="E20" s="105" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!X5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>1219173.5918068765</v>
+        <v>1312564.2282370161</v>
       </c>
     </row>
   </sheetData>
@@ -17972,7 +18652,7 @@
       </c>
       <c r="C4" s="11">
         <f>Wood!N14</f>
-        <v>5144175</v>
+        <v>5451915</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -17999,7 +18679,7 @@
       </c>
       <c r="C7" s="11">
         <f>SUMIFS(Table14[Debit], Table14[Party],Table12[[#This Row],[Type]])</f>
-        <v>60265</v>
+        <v>61185</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -18017,7 +18697,7 @@
       </c>
       <c r="C9" s="11">
         <f>Table11[[#Totals],[Amount]]+'Salary Acc'!I35</f>
-        <v>376800</v>
+        <v>306800</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -18026,7 +18706,7 @@
       </c>
       <c r="C10" s="11">
         <f>Table5[[#Totals],[Amount]]</f>
-        <v>77819</v>
+        <v>85511</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -18035,7 +18715,7 @@
       </c>
       <c r="C11" s="11">
         <f>Table13[[#Totals],[Debit]]</f>
-        <v>121135</v>
+        <v>130120</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -18044,7 +18724,7 @@
       </c>
       <c r="C12" s="11">
         <f>Table15[[#Totals],[Amount]]</f>
-        <v>628124</v>
+        <v>632024</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -18053,7 +18733,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <f>SUM(Table12[Amount])</f>
-        <v>7956568</v>
+        <v>8215805</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
@@ -18155,7 +18835,7 @@
       </c>
       <c r="C3" s="11">
         <f ca="1">Billing!C18 + SUMIFS(Table14[Credit], Table14[Party], "Transport")</f>
-        <v>9846614.8500365783</v>
+        <v>10534016.093635699</v>
       </c>
       <c r="D3" t="s">
         <v>70</v>
@@ -18167,7 +18847,7 @@
       </c>
       <c r="C4" s="11">
         <f>Table12[[#Totals],[Amount]]</f>
-        <v>7956568</v>
+        <v>8215805</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -18177,7 +18857,7 @@
       </c>
       <c r="C5" s="15">
         <f ca="1">C3-C4</f>
-        <v>1890046.8500365783</v>
+        <v>2318211.0936356988</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18194,7 +18874,7 @@
       </c>
       <c r="C11" s="65">
         <f ca="1">C3</f>
-        <v>9846614.8500365783</v>
+        <v>10534016.093635699</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -18203,7 +18883,7 @@
       </c>
       <c r="C12" s="67">
         <f>SUM(Table14[Credit])</f>
-        <v>8263536</v>
+        <v>8912586</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18212,7 +18892,7 @@
       </c>
       <c r="C13" s="81">
         <f ca="1">(C11-C12)</f>
-        <v>1583078.8500365783</v>
+        <v>1621430.0936356988</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18225,7 +18905,7 @@
       </c>
       <c r="C15" s="65">
         <f>C4</f>
-        <v>7956568</v>
+        <v>8215805</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -18234,7 +18914,7 @@
       </c>
       <c r="C16" s="67">
         <f>SUM(Table14[Debit])</f>
-        <v>7809959</v>
+        <v>8746516</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18243,7 +18923,7 @@
       </c>
       <c r="C17" s="81">
         <f>C15-C16</f>
-        <v>146609</v>
+        <v>-530711</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18256,7 +18936,7 @@
       </c>
       <c r="C19" s="84">
         <f>Table18[[#Totals],[amount]]</f>
-        <v>453577</v>
+        <v>166070</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -18269,14 +18949,14 @@
       </c>
       <c r="C21" s="69">
         <f ca="1">(C13-C17)+C19</f>
-        <v>1890046.8500365783</v>
+        <v>2318211.0936356988</v>
       </c>
       <c r="E21" s="87" t="s">
         <v>77</v>
       </c>
       <c r="F21" s="88">
         <f ca="1">C5*0.05</f>
-        <v>94502.342501828913</v>
+        <v>115910.55468178494</v>
       </c>
     </row>
   </sheetData>
@@ -18639,7 +19319,7 @@
       </c>
       <c r="D27">
         <f>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
-        <v>0</v>
+        <v>8985</v>
       </c>
       <c r="E27">
         <f>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</f>
@@ -18741,7 +19421,7 @@
       <c r="B35" s="1"/>
       <c r="D35">
         <f>SUBTOTAL(109,Table13[Debit])</f>
-        <v>121135</v>
+        <v>130120</v>
       </c>
       <c r="E35">
         <f>SUBTOTAL(109,Table13[Credit])</f>
@@ -18749,7 +19429,7 @@
       </c>
       <c r="F35">
         <f>Table13[[#Totals],[Debit]]-Table13[[#Totals],[Credit]]</f>
-        <v>121135</v>
+        <v>130120</v>
       </c>
     </row>
   </sheetData>
@@ -18765,10 +19445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB181"/>
+  <dimension ref="A1:AB195"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView topLeftCell="A181" zoomScale="113" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18776,14 +19456,14 @@
     <col min="1" max="1" width="16.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.88671875" style="10" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
@@ -18853,9 +19533,9 @@
       <c r="E2" s="21"/>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
-      <c r="H2" s="32" t="e">
+      <c r="H2" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I2" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -18891,9 +19571,9 @@
       <c r="E3" s="21"/>
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
-      <c r="H3" s="32" t="e">
+      <c r="H3" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I3" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -18929,9 +19609,9 @@
       <c r="E4" s="21"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="32" t="e">
+      <c r="H4" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I4" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -18967,9 +19647,9 @@
       <c r="E5" s="21"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="32" t="e">
+      <c r="H5" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I5" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -19005,9 +19685,9 @@
       <c r="E6" s="21"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="32" t="e">
+      <c r="H6" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I6" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -19048,9 +19728,9 @@
       <c r="E7" s="21"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="32" t="e">
+      <c r="H7" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I7" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -19091,9 +19771,9 @@
       <c r="E8" s="21"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="32" t="e">
+      <c r="H8" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I8" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -19134,9 +19814,9 @@
       <c r="E9" s="21"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="32" t="e">
+      <c r="H9" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I9" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -19177,9 +19857,9 @@
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="32" t="e">
+      <c r="H10" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I10" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Party Name]],
@@ -23008,7 +23688,7 @@
       </c>
       <c r="H87" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>72.926234521227371</v>
+        <v>2.0371965302002195</v>
       </c>
       <c r="I87" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -23052,7 +23732,7 @@
       </c>
       <c r="H88" s="32">
         <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
-        <v>52.119633042826294</v>
+        <v>1.3157750845369947</v>
       </c>
       <c r="I88" s="32">
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
@@ -23073,46 +23753,246 @@
       <c r="Q88"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50" cm="1">
-        <f t="array" aca="1" ref="I89" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>978790.2340892466</v>
-      </c>
-      <c r="J89" s="50" cm="1">
-        <f t="array" aca="1" ref="J89" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>9846614.8500365764</v>
-      </c>
-      <c r="K89" s="33">
-        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
-        <v>9846614.8500365764</v>
-      </c>
+      <c r="A89" s="28">
+        <v>45909</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="29">
+        <v>799</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E89" s="11">
+        <v>1675</v>
+      </c>
+      <c r="F89" s="11">
+        <v>25085</v>
+      </c>
+      <c r="G89" s="11">
+        <v>13937</v>
+      </c>
+      <c r="H89" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>1.3157750845369947</v>
+      </c>
+      <c r="I89" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>12744.14776883687</v>
+      </c>
+      <c r="J89" s="32" cm="1">
+        <f t="array" ref="J89">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>127441.4776883687</v>
+      </c>
+      <c r="K89" s="29"/>
       <c r="P89"/>
       <c r="Q89"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="28">
+        <v>45909</v>
+      </c>
+      <c r="B90" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="29">
+        <v>800</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="11">
+        <v>1667</v>
+      </c>
+      <c r="F90" s="11">
+        <v>14638</v>
+      </c>
+      <c r="G90" s="11">
+        <v>11348</v>
+      </c>
+      <c r="H90" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>2.0371965302002195</v>
+      </c>
+      <c r="I90" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>10376.737381126555</v>
+      </c>
+      <c r="J90" s="32" cm="1">
+        <f t="array" ref="J90">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>93390.636430138999</v>
+      </c>
+      <c r="K90" s="29"/>
       <c r="P90"/>
       <c r="Q90"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="28">
+        <v>45909</v>
+      </c>
+      <c r="B91" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" s="29">
+        <v>801</v>
+      </c>
+      <c r="D91" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E91" s="11">
+        <v>1681</v>
+      </c>
+      <c r="F91" s="11">
+        <v>24262</v>
+      </c>
+      <c r="G91" s="11">
+        <v>6181</v>
+      </c>
+      <c r="H91" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>0.76479775134613703</v>
+      </c>
+      <c r="I91" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>5651.9751280175569</v>
+      </c>
+      <c r="J91" s="32" cm="1">
+        <f t="array" ref="J91">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>56519.751280175566</v>
+      </c>
+      <c r="K91" s="29"/>
       <c r="P91"/>
       <c r="Q91"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="28">
+        <v>45910</v>
+      </c>
+      <c r="B92" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="29">
+        <v>802</v>
+      </c>
+      <c r="D92" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" s="11">
+        <v>1681</v>
+      </c>
+      <c r="F92" s="11">
+        <v>24262</v>
+      </c>
+      <c r="G92" s="11">
+        <v>20149</v>
+      </c>
+      <c r="H92" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>0.76479775134613703</v>
+      </c>
+      <c r="I92" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>18424.469641550844</v>
+      </c>
+      <c r="J92" s="32" cm="1">
+        <f t="array" ref="J92">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>184244.69641550846</v>
+      </c>
+      <c r="K92" s="29"/>
       <c r="P92"/>
       <c r="Q92"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="28">
+        <v>45910</v>
+      </c>
+      <c r="B93" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C93" s="29">
+        <v>803</v>
+      </c>
+      <c r="D93" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" s="11">
+        <v>1674</v>
+      </c>
+      <c r="F93" s="11">
+        <v>26274</v>
+      </c>
+      <c r="G93" s="11">
+        <v>24694</v>
+      </c>
+      <c r="H93" s="32">
+        <f>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</f>
+        <v>14.057744620183243</v>
+      </c>
+      <c r="I93" s="32">
+        <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
+        <v>22580.468178493051</v>
+      </c>
+      <c r="J93" s="32" cm="1">
+        <f t="array" ref="J93">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>225804.68178493052</v>
+      </c>
+      <c r="K93" s="29"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50" cm="1">
+        <f t="array" aca="1" ref="I94" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>1048568.0321872714</v>
+      </c>
+      <c r="J94" s="50" cm="1">
+        <f t="array" aca="1" ref="J94" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
+        <v>10534016.093635697</v>
+      </c>
+      <c r="K94" s="14">
+        <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
+        <v>10534016.093635697</v>
+      </c>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
@@ -23127,23 +24007,11 @@
       <c r="Q96"/>
     </row>
     <row r="97" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D97" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E97" t="s">
-        <v>93</v>
-      </c>
       <c r="O97"/>
       <c r="P97"/>
       <c r="Q97"/>
     </row>
     <row r="98" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D98" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E98" t="s">
-        <v>93</v>
-      </c>
       <c r="L98"/>
       <c r="M98"/>
       <c r="O98"/>
@@ -23151,12 +24019,6 @@
       <c r="Q98"/>
     </row>
     <row r="99" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D99" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E99" t="s">
-        <v>93</v>
-      </c>
       <c r="L99"/>
       <c r="M99"/>
       <c r="O99"/>
@@ -23171,27 +24033,6 @@
       <c r="Q100"/>
     </row>
     <row r="101" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" t="s">
-        <v>94</v>
-      </c>
-      <c r="F101" t="s">
-        <v>95</v>
-      </c>
-      <c r="G101" t="s">
-        <v>96</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J101" t="s">
-        <v>95</v>
-      </c>
-      <c r="K101" t="s">
-        <v>96</v>
-      </c>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
@@ -23200,25 +24041,6 @@
       <c r="Q101"/>
     </row>
     <row r="102" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D102" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E102" s="106"/>
-      <c r="F102" s="33">
-        <v>972869.42209217278</v>
-      </c>
-      <c r="G102" s="106">
-        <v>9667907.8714703731</v>
-      </c>
-      <c r="I102" s="27">
-        <v>45885</v>
-      </c>
-      <c r="J102" s="50">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="K102" s="14">
-        <v>20501.097293343086</v>
-      </c>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
@@ -23227,27 +24049,6 @@
       <c r="Q102"/>
     </row>
     <row r="103" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D103" s="16">
-        <v>716</v>
-      </c>
-      <c r="E103" s="106">
-        <v>43689</v>
-      </c>
-      <c r="F103" s="33">
-        <v>39949.70738844185</v>
-      </c>
-      <c r="G103" s="106">
-        <v>399497.07388441847</v>
-      </c>
-      <c r="I103" s="27">
-        <v>45886</v>
-      </c>
-      <c r="J103" s="50">
-        <v>972869.42209217278</v>
-      </c>
-      <c r="K103" s="14">
-        <v>9667907.8714703731</v>
-      </c>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103"/>
@@ -23256,27 +24057,6 @@
       <c r="Q103"/>
     </row>
     <row r="104" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D104" s="16">
-        <v>722</v>
-      </c>
-      <c r="E104" s="106">
-        <v>25952</v>
-      </c>
-      <c r="F104" s="33">
-        <v>23730.797366495979</v>
-      </c>
-      <c r="G104" s="106">
-        <v>237307.97366495978</v>
-      </c>
-      <c r="I104" s="27">
-        <v>45888</v>
-      </c>
-      <c r="J104" s="50">
-        <v>71674.286759327006</v>
-      </c>
-      <c r="K104" s="14">
-        <v>716742.86759327003</v>
-      </c>
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
@@ -23285,53 +24065,17 @@
       <c r="Q104"/>
     </row>
     <row r="105" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D105" s="16">
-        <v>723</v>
-      </c>
-      <c r="E105" s="106">
-        <v>8742</v>
-      </c>
-      <c r="F105" s="33">
-        <v>7993.7820043891743</v>
-      </c>
-      <c r="G105" s="106">
-        <v>79937.820043891741</v>
-      </c>
-      <c r="I105" s="27">
-        <v>45890</v>
-      </c>
-      <c r="J105" s="50">
-        <v>50132.589612289696</v>
-      </c>
-      <c r="K105" s="14">
-        <v>501325.89612289687</v>
-      </c>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
       <c r="O105"/>
     </row>
     <row r="106" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D106" s="16">
-        <v>724</v>
-      </c>
-      <c r="E106" s="106">
-        <v>48705</v>
-      </c>
-      <c r="F106" s="33">
-        <v>44536.393562545723</v>
-      </c>
-      <c r="G106" s="106">
-        <v>445363.9356254572</v>
-      </c>
-      <c r="I106" s="27">
-        <v>45891</v>
-      </c>
-      <c r="J106" s="50">
-        <v>37560.351133869786</v>
-      </c>
-      <c r="K106" s="14">
-        <v>375603.51133869792</v>
+      <c r="D106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>93</v>
       </c>
       <c r="L106"/>
       <c r="M106"/>
@@ -23339,26 +24083,11 @@
       <c r="O106"/>
     </row>
     <row r="107" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D107" s="16">
-        <v>725</v>
-      </c>
-      <c r="E107" s="106">
-        <v>4140</v>
-      </c>
-      <c r="F107" s="33">
-        <v>3785.6620336503297</v>
-      </c>
-      <c r="G107" s="106">
-        <v>37856.6203365033</v>
-      </c>
-      <c r="I107" s="27">
-        <v>45892</v>
-      </c>
-      <c r="J107" s="50">
-        <v>76884.601316752029</v>
-      </c>
-      <c r="K107" s="14">
-        <v>764915.87417703005</v>
+      <c r="D107" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E107" t="s">
+        <v>93</v>
       </c>
       <c r="L107"/>
       <c r="M107"/>
@@ -23366,26 +24095,11 @@
       <c r="O107"/>
     </row>
     <row r="108" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D108" s="16">
-        <v>726</v>
-      </c>
-      <c r="E108" s="106">
-        <v>1980</v>
-      </c>
-      <c r="F108" s="33">
-        <v>1810.534016093636</v>
-      </c>
-      <c r="G108" s="106">
-        <v>18105.340160936361</v>
-      </c>
-      <c r="I108" s="27">
-        <v>45894</v>
-      </c>
-      <c r="J108" s="50">
-        <v>81706.291148500371</v>
-      </c>
-      <c r="K108" s="14">
-        <v>806219.82443306514</v>
+      <c r="D108" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E108" t="s">
+        <v>93</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -23393,53 +24107,32 @@
       <c r="O108"/>
     </row>
     <row r="109" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D109" s="16">
-        <v>727</v>
-      </c>
-      <c r="E109" s="106">
-        <v>21621</v>
-      </c>
-      <c r="F109" s="33">
-        <v>19770.48280907096</v>
-      </c>
-      <c r="G109" s="106">
-        <v>197704.82809070961</v>
-      </c>
-      <c r="I109" s="27">
-        <v>45895</v>
-      </c>
-      <c r="J109" s="50">
-        <v>17298.829553767377</v>
-      </c>
-      <c r="K109" s="14">
-        <v>155689.46598390638</v>
-      </c>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
       <c r="O109"/>
     </row>
     <row r="110" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D110" s="16">
-        <v>728</v>
-      </c>
-      <c r="E110" s="106">
-        <v>6406</v>
-      </c>
-      <c r="F110" s="33">
-        <v>5857.7176298463792</v>
-      </c>
-      <c r="G110" s="106">
-        <v>58577.17629846379</v>
-      </c>
-      <c r="I110" s="27">
-        <v>45896</v>
-      </c>
-      <c r="J110" s="50">
-        <v>59752.194586686186</v>
-      </c>
-      <c r="K110" s="14">
-        <v>555856.80321872712</v>
+      <c r="D110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" t="s">
+        <v>95</v>
+      </c>
+      <c r="G110" t="s">
+        <v>96</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J110" t="s">
+        <v>95</v>
+      </c>
+      <c r="K110" t="s">
+        <v>96</v>
       </c>
       <c r="L110"/>
       <c r="M110"/>
@@ -23447,26 +24140,24 @@
       <c r="O110"/>
     </row>
     <row r="111" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D111" s="16">
-        <v>729</v>
-      </c>
-      <c r="E111" s="106">
-        <v>7452</v>
-      </c>
+      <c r="D111" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E111" s="110"/>
       <c r="F111" s="33">
-        <v>6814.1916605705928</v>
-      </c>
-      <c r="G111" s="106">
-        <v>68141.916605705934</v>
+        <v>972869.42209217278</v>
+      </c>
+      <c r="G111" s="110">
+        <v>9667907.8714703731</v>
       </c>
       <c r="I111" s="27">
-        <v>45897</v>
+        <v>45885</v>
       </c>
       <c r="J111" s="50">
-        <v>41335.040234089247</v>
+        <v>2050.1097293343087</v>
       </c>
       <c r="K111" s="14">
-        <v>413350.40234089253</v>
+        <v>20501.097293343086</v>
       </c>
       <c r="L111"/>
       <c r="M111"/>
@@ -23475,25 +24166,25 @@
     </row>
     <row r="112" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D112" s="16">
-        <v>731</v>
-      </c>
-      <c r="E112" s="106">
-        <v>5597</v>
+        <v>716</v>
+      </c>
+      <c r="E112" s="110">
+        <v>43689</v>
       </c>
       <c r="F112" s="33">
-        <v>5117.9590343818581</v>
-      </c>
-      <c r="G112" s="106">
-        <v>51179.590343818578</v>
+        <v>39949.70738844185</v>
+      </c>
+      <c r="G112" s="110">
+        <v>399497.07388441847</v>
       </c>
       <c r="I112" s="27">
-        <v>45898</v>
+        <v>45886</v>
       </c>
       <c r="J112" s="50">
-        <v>40317.300658376014</v>
+        <v>972869.42209217278</v>
       </c>
       <c r="K112" s="14">
-        <v>393712.50914411119</v>
+        <v>9667907.8714703731</v>
       </c>
       <c r="L112"/>
       <c r="M112"/>
@@ -23502,25 +24193,25 @@
     </row>
     <row r="113" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D113" s="16">
-        <v>732</v>
-      </c>
-      <c r="E113" s="106">
-        <v>21167</v>
+        <v>722</v>
+      </c>
+      <c r="E113" s="110">
+        <v>25952</v>
       </c>
       <c r="F113" s="33">
-        <v>19355.340160936357</v>
-      </c>
-      <c r="G113" s="106">
-        <v>193553.40160936356</v>
+        <v>23730.797366495979</v>
+      </c>
+      <c r="G113" s="110">
+        <v>237307.97366495978</v>
       </c>
       <c r="I113" s="27">
-        <v>45899</v>
+        <v>45888</v>
       </c>
       <c r="J113" s="50">
-        <v>53495.793708851503</v>
+        <v>71674.286759327006</v>
       </c>
       <c r="K113" s="14">
-        <v>624926.84711046098</v>
+        <v>716742.86759327003</v>
       </c>
       <c r="L113"/>
       <c r="M113"/>
@@ -23529,25 +24220,25 @@
     </row>
     <row r="114" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D114" s="16">
-        <v>733</v>
-      </c>
-      <c r="E114" s="106">
-        <v>2010</v>
+        <v>723</v>
+      </c>
+      <c r="E114" s="110">
+        <v>8742</v>
       </c>
       <c r="F114" s="33">
-        <v>0</v>
-      </c>
-      <c r="G114" s="106">
-        <v>0</v>
+        <v>7993.7820043891743</v>
+      </c>
+      <c r="G114" s="110">
+        <v>79937.820043891741</v>
       </c>
       <c r="I114" s="27">
-        <v>45900</v>
+        <v>45890</v>
       </c>
       <c r="J114" s="50">
-        <v>112115.94732991954</v>
+        <v>50132.589612289696</v>
       </c>
       <c r="K114" s="14">
-        <v>1113504.0234089247</v>
+        <v>501325.89612289687</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>
@@ -23556,25 +24247,25 @@
     </row>
     <row r="115" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D115" s="16">
-        <v>734</v>
-      </c>
-      <c r="E115" s="106">
-        <v>16253</v>
+        <v>724</v>
+      </c>
+      <c r="E115" s="110">
+        <v>48705</v>
       </c>
       <c r="F115" s="33">
-        <v>14861.923920994881</v>
-      </c>
-      <c r="G115" s="106">
-        <v>148619.23920994881</v>
+        <v>44536.393562545723</v>
+      </c>
+      <c r="G115" s="110">
+        <v>445363.9356254572</v>
       </c>
       <c r="I115" s="27">
-        <v>45901</v>
+        <v>45891</v>
       </c>
       <c r="J115" s="50">
-        <v>33280.907095830291</v>
+        <v>37560.351133869786</v>
       </c>
       <c r="K115" s="14">
-        <v>332430.50475493784</v>
+        <v>375603.51133869792</v>
       </c>
       <c r="L115"/>
       <c r="M115"/>
@@ -23583,25 +24274,25 @@
     </row>
     <row r="116" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D116" s="16">
-        <v>735</v>
-      </c>
-      <c r="E116" s="106">
-        <v>33788</v>
+        <v>725</v>
+      </c>
+      <c r="E116" s="110">
+        <v>4140</v>
       </c>
       <c r="F116" s="33">
-        <v>30896.122896854427</v>
-      </c>
-      <c r="G116" s="106">
-        <v>308961.22896854428</v>
+        <v>3785.6620336503297</v>
+      </c>
+      <c r="G116" s="110">
+        <v>37856.6203365033</v>
       </c>
       <c r="I116" s="27">
-        <v>45902</v>
+        <v>45892</v>
       </c>
       <c r="J116" s="50">
-        <v>39340.709583028533</v>
+        <v>76884.601316752029</v>
       </c>
       <c r="K116" s="14">
-        <v>447311.63130943681</v>
+        <v>764915.87417703005</v>
       </c>
       <c r="L116"/>
       <c r="M116"/>
@@ -23609,25 +24300,25 @@
     </row>
     <row r="117" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D117" s="16">
-        <v>736</v>
-      </c>
-      <c r="E117" s="106">
-        <v>8575</v>
+        <v>726</v>
+      </c>
+      <c r="E117" s="110">
+        <v>1980</v>
       </c>
       <c r="F117" s="33">
-        <v>7841.0753474762259</v>
-      </c>
-      <c r="G117" s="106">
-        <v>78410.753474762256</v>
+        <v>1810.534016093636</v>
+      </c>
+      <c r="G117" s="110">
+        <v>18105.340160936361</v>
       </c>
       <c r="I117" s="27">
-        <v>45903</v>
+        <v>45894</v>
       </c>
       <c r="J117" s="50">
-        <v>45768.105340160946</v>
+        <v>81706.291148500371</v>
       </c>
       <c r="K117" s="14">
-        <v>457681.05340160942</v>
+        <v>806219.82443306514</v>
       </c>
       <c r="L117"/>
       <c r="M117"/>
@@ -23635,25 +24326,25 @@
     </row>
     <row r="118" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D118" s="16">
-        <v>737</v>
-      </c>
-      <c r="E118" s="106">
-        <v>4298</v>
+        <v>727</v>
+      </c>
+      <c r="E118" s="110">
+        <v>21621</v>
       </c>
       <c r="F118" s="33">
-        <v>3930.1389904901248</v>
-      </c>
-      <c r="G118" s="106">
-        <v>35371.250914411125</v>
+        <v>19770.48280907096</v>
+      </c>
+      <c r="G118" s="110">
+        <v>197704.82809070961</v>
       </c>
       <c r="I118" s="27">
-        <v>45905</v>
+        <v>45895</v>
       </c>
       <c r="J118" s="50">
-        <v>42745.062179956112</v>
+        <v>17298.829553767377</v>
       </c>
       <c r="K118" s="14">
-        <v>427450.62179956108</v>
+        <v>155689.46598390638</v>
       </c>
       <c r="L118"/>
       <c r="M118"/>
@@ -23661,25 +24352,25 @@
     </row>
     <row r="119" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D119" s="16">
-        <v>738</v>
-      </c>
-      <c r="E119" s="106">
-        <v>22478</v>
+        <v>728</v>
+      </c>
+      <c r="E119" s="110">
+        <v>6406</v>
       </c>
       <c r="F119" s="33">
-        <v>20554.133138258963</v>
-      </c>
-      <c r="G119" s="106">
-        <v>205541.33138258965</v>
+        <v>5857.7176298463792</v>
+      </c>
+      <c r="G119" s="110">
+        <v>58577.17629846379</v>
       </c>
       <c r="I119" s="27">
-        <v>45907</v>
+        <v>45896</v>
       </c>
       <c r="J119" s="50">
-        <v>86068.946598390641</v>
+        <v>59752.194586686186</v>
       </c>
       <c r="K119" s="14">
-        <v>917897.76883686916</v>
+        <v>555856.80321872712</v>
       </c>
       <c r="L119"/>
       <c r="M119"/>
@@ -23687,25 +24378,25 @@
     </row>
     <row r="120" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D120" s="16">
-        <v>739</v>
-      </c>
-      <c r="E120" s="106">
-        <v>8540</v>
+        <v>729</v>
+      </c>
+      <c r="E120" s="110">
+        <v>7452</v>
       </c>
       <c r="F120" s="33">
-        <v>7809.0709583028538</v>
-      </c>
-      <c r="G120" s="106">
-        <v>78090.70958302854</v>
+        <v>6814.1916605705928</v>
+      </c>
+      <c r="G120" s="110">
+        <v>68141.916605705934</v>
       </c>
       <c r="I120" s="27">
-        <v>45908</v>
+        <v>45897</v>
       </c>
       <c r="J120" s="50">
-        <v>63158.376005852238</v>
+        <v>41335.040234089247</v>
       </c>
       <c r="K120" s="14">
-        <v>584409.29041697143</v>
+        <v>413350.40234089253</v>
       </c>
       <c r="L120"/>
       <c r="M120"/>
@@ -23713,25 +24404,25 @@
     </row>
     <row r="121" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D121" s="16">
-        <v>740</v>
-      </c>
-      <c r="E121" s="106">
-        <v>7214</v>
+        <v>731</v>
+      </c>
+      <c r="E121" s="110">
+        <v>5597</v>
       </c>
       <c r="F121" s="33">
-        <v>6596.5618141916611</v>
-      </c>
-      <c r="G121" s="106">
-        <v>65965.61814191661</v>
+        <v>5117.9590343818581</v>
+      </c>
+      <c r="G121" s="110">
+        <v>51179.590343818578</v>
       </c>
       <c r="I121" s="27">
-        <v>45909</v>
+        <v>45898</v>
       </c>
       <c r="J121" s="50">
-        <v>24104.791514264816</v>
+        <v>40317.300658376014</v>
       </c>
       <c r="K121" s="14">
-        <v>237084.85735186544</v>
+        <v>393712.50914411119</v>
       </c>
       <c r="L121"/>
       <c r="M121"/>
@@ -23739,25 +24430,25 @@
     </row>
     <row r="122" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D122" s="16">
-        <v>741</v>
-      </c>
-      <c r="E122" s="106">
-        <v>6688</v>
+        <v>732</v>
+      </c>
+      <c r="E122" s="110">
+        <v>21167</v>
       </c>
       <c r="F122" s="33">
-        <v>6115.5815654718363</v>
-      </c>
-      <c r="G122" s="106">
-        <v>61155.815654718361</v>
-      </c>
-      <c r="I122" s="27" t="s">
-        <v>28</v>
+        <v>19355.340160936357</v>
+      </c>
+      <c r="G122" s="110">
+        <v>193553.40160936356</v>
+      </c>
+      <c r="I122" s="27">
+        <v>45899</v>
       </c>
       <c r="J122" s="50">
-        <v>1951659.656181419</v>
+        <v>53495.793708851503</v>
       </c>
       <c r="K122" s="14">
-        <v>19514522.721506953</v>
+        <v>624926.84711046098</v>
       </c>
       <c r="L122"/>
       <c r="M122"/>
@@ -23765,16 +24456,25 @@
     </row>
     <row r="123" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D123" s="16">
-        <v>742</v>
-      </c>
-      <c r="E123" s="106">
-        <v>1914</v>
+        <v>733</v>
+      </c>
+      <c r="E123" s="110">
+        <v>2010</v>
       </c>
       <c r="F123" s="33">
-        <v>1750.1828822238481</v>
-      </c>
-      <c r="G123" s="106">
-        <v>17501.82882223848</v>
+        <v>0</v>
+      </c>
+      <c r="G123" s="110">
+        <v>0</v>
+      </c>
+      <c r="I123" s="27">
+        <v>45900</v>
+      </c>
+      <c r="J123" s="50">
+        <v>112115.94732991954</v>
+      </c>
+      <c r="K123" s="14">
+        <v>1113504.0234089247</v>
       </c>
       <c r="L123"/>
       <c r="M123"/>
@@ -23782,16 +24482,25 @@
     </row>
     <row r="124" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D124" s="16">
-        <v>743</v>
-      </c>
-      <c r="E124" s="106">
-        <v>9214</v>
+        <v>734</v>
+      </c>
+      <c r="E124" s="110">
+        <v>16253</v>
       </c>
       <c r="F124" s="33">
-        <v>8425.3840526700806</v>
-      </c>
-      <c r="G124" s="106">
-        <v>84253.840526700806</v>
+        <v>14861.923920994881</v>
+      </c>
+      <c r="G124" s="110">
+        <v>148619.23920994881</v>
+      </c>
+      <c r="I124" s="27">
+        <v>45901</v>
+      </c>
+      <c r="J124" s="50">
+        <v>33280.907095830291</v>
+      </c>
+      <c r="K124" s="14">
+        <v>332430.50475493784</v>
       </c>
       <c r="L124"/>
       <c r="M124"/>
@@ -23799,16 +24508,25 @@
     </row>
     <row r="125" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D125" s="16">
-        <v>744</v>
-      </c>
-      <c r="E125" s="106">
-        <v>21448</v>
+        <v>735</v>
+      </c>
+      <c r="E125" s="110">
+        <v>33788</v>
       </c>
       <c r="F125" s="33">
-        <v>19612.289685442578</v>
-      </c>
-      <c r="G125" s="106">
-        <v>196122.89685442578</v>
+        <v>30896.122896854427</v>
+      </c>
+      <c r="G125" s="110">
+        <v>308961.22896854428</v>
+      </c>
+      <c r="I125" s="27">
+        <v>45902</v>
+      </c>
+      <c r="J125" s="50">
+        <v>39340.709583028533</v>
+      </c>
+      <c r="K125" s="14">
+        <v>447311.63130943681</v>
       </c>
       <c r="L125"/>
       <c r="M125"/>
@@ -23816,16 +24534,25 @@
     </row>
     <row r="126" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D126" s="16">
-        <v>745</v>
-      </c>
-      <c r="E126" s="106">
-        <v>11858</v>
+        <v>736</v>
+      </c>
+      <c r="E126" s="110">
+        <v>8575</v>
       </c>
       <c r="F126" s="33">
-        <v>10843.087051938552</v>
-      </c>
-      <c r="G126" s="106">
-        <v>97587.783467446963</v>
+        <v>7841.0753474762259</v>
+      </c>
+      <c r="G126" s="110">
+        <v>78410.753474762256</v>
+      </c>
+      <c r="I126" s="27">
+        <v>45903</v>
+      </c>
+      <c r="J126" s="50">
+        <v>45768.105340160946</v>
+      </c>
+      <c r="K126" s="14">
+        <v>457681.05340160942</v>
       </c>
       <c r="L126"/>
       <c r="M126"/>
@@ -23833,16 +24560,25 @@
     </row>
     <row r="127" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D127" s="16">
-        <v>746</v>
-      </c>
-      <c r="E127" s="106">
-        <v>18918</v>
+        <v>737</v>
+      </c>
+      <c r="E127" s="110">
+        <v>4298</v>
       </c>
       <c r="F127" s="33">
-        <v>17298.829553767377</v>
-      </c>
-      <c r="G127" s="106">
-        <v>155689.46598390638</v>
+        <v>3930.1389904901248</v>
+      </c>
+      <c r="G127" s="110">
+        <v>35371.250914411125</v>
+      </c>
+      <c r="I127" s="27">
+        <v>45905</v>
+      </c>
+      <c r="J127" s="50">
+        <v>42745.062179956112</v>
+      </c>
+      <c r="K127" s="14">
+        <v>427450.62179956108</v>
       </c>
       <c r="L127"/>
       <c r="M127"/>
@@ -23850,16 +24586,25 @@
     </row>
     <row r="128" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D128" s="16">
-        <v>747</v>
-      </c>
-      <c r="E128" s="106">
-        <v>19780</v>
+        <v>738</v>
+      </c>
+      <c r="E128" s="110">
+        <v>22478</v>
       </c>
       <c r="F128" s="33">
-        <v>18087.051938551573</v>
-      </c>
-      <c r="G128" s="106">
-        <v>180870.51938551571</v>
+        <v>20554.133138258963</v>
+      </c>
+      <c r="G128" s="110">
+        <v>205541.33138258965</v>
+      </c>
+      <c r="I128" s="27">
+        <v>45907</v>
+      </c>
+      <c r="J128" s="50">
+        <v>86068.946598390641</v>
+      </c>
+      <c r="K128" s="14">
+        <v>917897.76883686916</v>
       </c>
       <c r="L128"/>
       <c r="M128"/>
@@ -23867,16 +24612,25 @@
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D129" s="16">
-        <v>748</v>
-      </c>
-      <c r="E129" s="106">
-        <v>4342</v>
+        <v>739</v>
+      </c>
+      <c r="E129" s="110">
+        <v>8540</v>
       </c>
       <c r="F129" s="33">
-        <v>3970.3730797366497</v>
-      </c>
-      <c r="G129" s="106">
-        <v>35733.35771762985</v>
+        <v>7809.0709583028538</v>
+      </c>
+      <c r="G129" s="110">
+        <v>78090.70958302854</v>
+      </c>
+      <c r="I129" s="27">
+        <v>45908</v>
+      </c>
+      <c r="J129" s="50">
+        <v>63158.376005852238</v>
+      </c>
+      <c r="K129" s="14">
+        <v>584409.29041697143</v>
       </c>
       <c r="L129"/>
       <c r="M129"/>
@@ -23884,16 +24638,25 @@
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D130" s="16">
-        <v>749</v>
-      </c>
-      <c r="E130" s="106">
-        <v>28098</v>
+        <v>740</v>
+      </c>
+      <c r="E130" s="110">
+        <v>7214</v>
       </c>
       <c r="F130" s="33">
-        <v>25693.123628383324</v>
-      </c>
-      <c r="G130" s="106">
-        <v>231238.11265544992</v>
+        <v>6596.5618141916611</v>
+      </c>
+      <c r="G130" s="110">
+        <v>65965.61814191661</v>
+      </c>
+      <c r="I130" s="27">
+        <v>45909</v>
+      </c>
+      <c r="J130" s="50">
+        <v>52877.651792245801</v>
+      </c>
+      <c r="K130" s="14">
+        <v>514436.72275054874</v>
       </c>
       <c r="L130"/>
       <c r="M130"/>
@@ -23901,16 +24664,25 @@
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D131" s="16">
-        <v>750</v>
-      </c>
-      <c r="E131" s="106">
-        <v>13125</v>
+        <v>741</v>
+      </c>
+      <c r="E131" s="110">
+        <v>6688</v>
       </c>
       <c r="F131" s="33">
-        <v>12001.645940014632</v>
-      </c>
-      <c r="G131" s="106">
-        <v>108014.81346013169</v>
+        <v>6115.5815654718363</v>
+      </c>
+      <c r="G131" s="110">
+        <v>61155.815654718361</v>
+      </c>
+      <c r="I131" s="27">
+        <v>45910</v>
+      </c>
+      <c r="J131" s="50">
+        <v>41004.937820043895</v>
+      </c>
+      <c r="K131" s="14">
+        <v>410049.37820043898</v>
       </c>
       <c r="L131"/>
       <c r="M131"/>
@@ -23918,16 +24690,25 @@
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D132" s="16">
-        <v>721</v>
-      </c>
-      <c r="E132" s="106">
-        <v>2242</v>
+        <v>742</v>
+      </c>
+      <c r="E132" s="110">
+        <v>1914</v>
       </c>
       <c r="F132" s="33">
-        <v>2050.1097293343087</v>
-      </c>
-      <c r="G132" s="106">
-        <v>20501.097293343086</v>
+        <v>1750.1828822238481</v>
+      </c>
+      <c r="G132" s="110">
+        <v>17501.82882223848</v>
+      </c>
+      <c r="I132" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="J132" s="50">
+        <v>2021437.4542794437</v>
+      </c>
+      <c r="K132" s="14">
+        <v>20201923.965106074</v>
       </c>
       <c r="L132"/>
       <c r="M132"/>
@@ -23935,694 +24716,890 @@
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D133" s="16">
-        <v>751</v>
-      </c>
-      <c r="E133" s="106">
-        <v>33502</v>
+        <v>743</v>
+      </c>
+      <c r="E133" s="110">
+        <v>9214</v>
       </c>
       <c r="F133" s="33">
-        <v>30634.601316752014</v>
-      </c>
-      <c r="G133" s="106">
-        <v>306346.01316752017</v>
+        <v>8425.3840526700806</v>
+      </c>
+      <c r="G133" s="110">
+        <v>84253.840526700806</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D134" s="16">
-        <v>752</v>
-      </c>
-      <c r="E134" s="106">
-        <v>11702</v>
+        <v>744</v>
+      </c>
+      <c r="E134" s="110">
+        <v>21448</v>
       </c>
       <c r="F134" s="33">
-        <v>10700.438917337236</v>
-      </c>
-      <c r="G134" s="106">
-        <v>107004.38917337236</v>
+        <v>19612.289685442578</v>
+      </c>
+      <c r="G134" s="110">
+        <v>196122.89685442578</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D135" s="16">
-        <v>753</v>
-      </c>
-      <c r="E135" s="106">
-        <v>26158</v>
+        <v>745</v>
+      </c>
+      <c r="E135" s="110">
+        <v>11858</v>
       </c>
       <c r="F135" s="33">
-        <v>23919.166057059258</v>
-      </c>
-      <c r="G135" s="106">
-        <v>239191.66057059256</v>
+        <v>10843.087051938552</v>
+      </c>
+      <c r="G135" s="110">
+        <v>97587.783467446963</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D136" s="16">
-        <v>754</v>
-      </c>
-      <c r="E136" s="106">
-        <v>10346</v>
+        <v>746</v>
+      </c>
+      <c r="E136" s="110">
+        <v>18918</v>
       </c>
       <c r="F136" s="33">
-        <v>9460.4974396488669</v>
-      </c>
-      <c r="G136" s="106">
-        <v>85144.476956839804</v>
+        <v>17298.829553767377</v>
+      </c>
+      <c r="G136" s="110">
+        <v>155689.46598390638</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D137" s="16">
-        <v>755</v>
-      </c>
-      <c r="E137" s="106">
-        <v>7587</v>
+        <v>747</v>
+      </c>
+      <c r="E137" s="110">
+        <v>19780</v>
       </c>
       <c r="F137" s="33">
-        <v>6937.6371616678862</v>
-      </c>
-      <c r="G137" s="106">
-        <v>69376.371616678865</v>
+        <v>18087.051938551573</v>
+      </c>
+      <c r="G137" s="110">
+        <v>180870.51938551571</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D138" s="16">
-        <v>756</v>
-      </c>
-      <c r="E138" s="106">
-        <v>2244</v>
+        <v>748</v>
+      </c>
+      <c r="E138" s="110">
+        <v>4342</v>
       </c>
       <c r="F138" s="33">
-        <v>0</v>
-      </c>
-      <c r="G138" s="106">
-        <v>0</v>
+        <v>3970.3730797366497</v>
+      </c>
+      <c r="G138" s="110">
+        <v>35733.35771762985</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D139" s="16">
-        <v>757</v>
-      </c>
-      <c r="E139" s="106">
-        <v>14872</v>
+        <v>749</v>
+      </c>
+      <c r="E139" s="110">
+        <v>28098</v>
       </c>
       <c r="F139" s="33">
-        <v>13599.122165325531</v>
-      </c>
-      <c r="G139" s="106">
-        <v>163189.46598390635</v>
+        <v>25693.123628383324</v>
+      </c>
+      <c r="G139" s="110">
+        <v>231238.11265544992</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D140" s="16">
-        <v>758</v>
-      </c>
-      <c r="E140" s="106">
-        <v>11018</v>
+        <v>750</v>
+      </c>
+      <c r="E140" s="110">
+        <v>13125</v>
       </c>
       <c r="F140" s="33">
-        <v>10074.981711777617</v>
-      </c>
-      <c r="G140" s="106">
-        <v>120899.78054133139</v>
+        <v>12001.645940014632</v>
+      </c>
+      <c r="G140" s="110">
+        <v>108014.81346013169</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D141" s="16">
-        <v>759</v>
-      </c>
-      <c r="E141" s="106">
-        <v>23305</v>
+        <v>721</v>
+      </c>
+      <c r="E141" s="110">
+        <v>2242</v>
       </c>
       <c r="F141" s="33">
-        <v>21310.35113386979</v>
-      </c>
-      <c r="G141" s="106">
-        <v>255724.21360643749</v>
+        <v>2050.1097293343087</v>
+      </c>
+      <c r="G141" s="110">
+        <v>20501.097293343086</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D142" s="16">
-        <v>760</v>
-      </c>
-      <c r="E142" s="106">
-        <v>9308</v>
+        <v>751</v>
+      </c>
+      <c r="E142" s="110">
+        <v>33502</v>
       </c>
       <c r="F142" s="33">
-        <v>8511.3386978785675</v>
-      </c>
-      <c r="G142" s="106">
-        <v>85113.386978785682</v>
+        <v>30634.601316752014</v>
+      </c>
+      <c r="G142" s="110">
+        <v>306346.01316752017</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D143" s="16">
-        <v>761</v>
-      </c>
-      <c r="E143" s="106">
-        <v>20380</v>
+        <v>752</v>
+      </c>
+      <c r="E143" s="110">
+        <v>11702</v>
       </c>
       <c r="F143" s="33">
-        <v>18635.6986100951</v>
-      </c>
-      <c r="G143" s="106">
-        <v>186356.98610095101</v>
+        <v>10700.438917337236</v>
+      </c>
+      <c r="G143" s="110">
+        <v>107004.38917337236</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D144" s="16">
-        <v>762</v>
-      </c>
-      <c r="E144" s="106">
-        <v>7020</v>
+        <v>753</v>
+      </c>
+      <c r="E144" s="110">
+        <v>26158</v>
       </c>
       <c r="F144" s="33">
-        <v>6419.1660570592539</v>
-      </c>
-      <c r="G144" s="106">
-        <v>77029.992684711047</v>
+        <v>23919.166057059258</v>
+      </c>
+      <c r="G144" s="110">
+        <v>239191.66057059256</v>
       </c>
     </row>
     <row r="145" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D145" s="16">
-        <v>763</v>
-      </c>
-      <c r="E145" s="106">
-        <v>2776</v>
+        <v>754</v>
+      </c>
+      <c r="E145" s="110">
+        <v>10346</v>
       </c>
       <c r="F145" s="33">
-        <v>2538.4052670080468</v>
-      </c>
-      <c r="G145" s="106">
-        <v>25384.052670080469</v>
+        <v>9460.4974396488669</v>
+      </c>
+      <c r="G145" s="110">
+        <v>85144.476956839804</v>
       </c>
     </row>
     <row r="146" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D146" s="16">
-        <v>764</v>
-      </c>
-      <c r="E146" s="106">
-        <v>25394</v>
+        <v>755</v>
+      </c>
+      <c r="E146" s="110">
+        <v>7587</v>
       </c>
       <c r="F146" s="33">
-        <v>23220.555961960501</v>
-      </c>
-      <c r="G146" s="106">
-        <v>232205.55961960502</v>
+        <v>6937.6371616678862</v>
+      </c>
+      <c r="G146" s="110">
+        <v>69376.371616678865</v>
       </c>
     </row>
     <row r="147" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D147" s="16">
-        <v>765</v>
-      </c>
-      <c r="E147" s="106">
-        <v>10496</v>
+        <v>756</v>
+      </c>
+      <c r="E147" s="110">
+        <v>2244</v>
       </c>
       <c r="F147" s="33">
-        <v>9597.6591075347478</v>
-      </c>
-      <c r="G147" s="106">
-        <v>95976.591075347475</v>
+        <v>0</v>
+      </c>
+      <c r="G147" s="110">
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D148" s="16">
-        <v>766</v>
-      </c>
-      <c r="E148" s="106">
-        <v>9552</v>
+        <v>757</v>
+      </c>
+      <c r="E148" s="110">
+        <v>14872</v>
       </c>
       <c r="F148" s="33">
-        <v>8734.4550109729335</v>
-      </c>
-      <c r="G148" s="106">
-        <v>87344.550109729331</v>
+        <v>13599.122165325531</v>
+      </c>
+      <c r="G148" s="110">
+        <v>163189.46598390635</v>
       </c>
     </row>
     <row r="149" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D149" s="16">
-        <v>767</v>
-      </c>
-      <c r="E149" s="106">
-        <v>13908</v>
+        <v>758</v>
+      </c>
+      <c r="E149" s="110">
+        <v>11018</v>
       </c>
       <c r="F149" s="33">
-        <v>12717.629846378934</v>
-      </c>
-      <c r="G149" s="106">
-        <v>127176.29846378934</v>
+        <v>10074.981711777617</v>
+      </c>
+      <c r="G149" s="110">
+        <v>120899.78054133139</v>
       </c>
     </row>
     <row r="150" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D150" s="16">
-        <v>768</v>
-      </c>
-      <c r="E150" s="106">
-        <v>10672</v>
+        <v>759</v>
+      </c>
+      <c r="E150" s="110">
+        <v>23305</v>
       </c>
       <c r="F150" s="33">
-        <v>9758.5954645208494</v>
-      </c>
-      <c r="G150" s="106">
-        <v>97585.954645208491</v>
+        <v>21310.35113386979</v>
+      </c>
+      <c r="G150" s="110">
+        <v>255724.21360643749</v>
       </c>
     </row>
     <row r="151" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D151" s="16">
-        <v>769</v>
-      </c>
-      <c r="E151" s="106">
-        <v>15800</v>
+        <v>760</v>
+      </c>
+      <c r="E151" s="110">
+        <v>9308</v>
       </c>
       <c r="F151" s="33">
-        <v>14447.695683979518</v>
-      </c>
-      <c r="G151" s="106">
-        <v>130029.26115581566</v>
+        <v>8511.3386978785675</v>
+      </c>
+      <c r="G151" s="110">
+        <v>85113.386978785682</v>
       </c>
     </row>
     <row r="152" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D152" s="16">
-        <v>770</v>
-      </c>
-      <c r="E152" s="106">
-        <v>6612</v>
+        <v>761</v>
+      </c>
+      <c r="E152" s="110">
+        <v>20380</v>
       </c>
       <c r="F152" s="33">
-        <v>6046.0863204096568</v>
-      </c>
-      <c r="G152" s="106">
-        <v>54414.776883686907</v>
+        <v>18635.6986100951</v>
+      </c>
+      <c r="G152" s="110">
+        <v>186356.98610095101</v>
       </c>
     </row>
     <row r="153" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D153" s="16">
-        <v>771</v>
-      </c>
-      <c r="E153" s="106">
-        <v>10650</v>
+        <v>762</v>
+      </c>
+      <c r="E153" s="110">
+        <v>7020</v>
       </c>
       <c r="F153" s="33">
-        <v>9738.4784198975867</v>
-      </c>
-      <c r="G153" s="106">
-        <v>97384.78419897586</v>
+        <v>6419.1660570592539</v>
+      </c>
+      <c r="G153" s="110">
+        <v>77029.992684711047</v>
       </c>
     </row>
     <row r="154" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D154" s="16">
-        <v>772</v>
-      </c>
-      <c r="E154" s="106">
-        <v>17302</v>
+        <v>763</v>
+      </c>
+      <c r="E154" s="110">
+        <v>2776</v>
       </c>
       <c r="F154" s="33">
-        <v>15821.141185076813</v>
-      </c>
-      <c r="G154" s="106">
-        <v>142390.27066569132</v>
+        <v>2538.4052670080468</v>
+      </c>
+      <c r="G154" s="110">
+        <v>25384.052670080469</v>
       </c>
     </row>
     <row r="155" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D155" s="16">
-        <v>773</v>
-      </c>
-      <c r="E155" s="106">
-        <v>8444</v>
+        <v>764</v>
+      </c>
+      <c r="E155" s="110">
+        <v>25394</v>
       </c>
       <c r="F155" s="33">
-        <v>7721.2874908558897</v>
-      </c>
-      <c r="G155" s="106">
-        <v>92655.449890270684</v>
+        <v>23220.555961960501</v>
+      </c>
+      <c r="G155" s="110">
+        <v>232205.55961960502</v>
       </c>
     </row>
     <row r="156" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D156" s="16">
-        <v>774</v>
-      </c>
-      <c r="E156" s="106">
-        <v>24391</v>
+        <v>765</v>
+      </c>
+      <c r="E156" s="110">
+        <v>10496</v>
       </c>
       <c r="F156" s="33">
-        <v>22303.401609363573</v>
-      </c>
-      <c r="G156" s="106">
-        <v>267640.81931236287</v>
+        <v>9597.6591075347478</v>
+      </c>
+      <c r="G156" s="110">
+        <v>95976.591075347475</v>
       </c>
     </row>
     <row r="157" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D157" s="16">
-        <v>775</v>
-      </c>
-      <c r="E157" s="106">
-        <v>5084</v>
+        <v>766</v>
+      </c>
+      <c r="E157" s="110">
+        <v>9552</v>
       </c>
       <c r="F157" s="33">
-        <v>4648.8661302121436</v>
-      </c>
-      <c r="G157" s="106">
-        <v>55786.393562545723</v>
+        <v>8734.4550109729335</v>
+      </c>
+      <c r="G157" s="110">
+        <v>87344.550109729331</v>
       </c>
     </row>
     <row r="158" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D158" s="16">
-        <v>776</v>
-      </c>
-      <c r="E158" s="106">
-        <v>4760</v>
+        <v>767</v>
+      </c>
+      <c r="E158" s="110">
+        <v>13908</v>
       </c>
       <c r="F158" s="33">
-        <v>4352.5969275786401</v>
-      </c>
-      <c r="G158" s="106">
-        <v>43525.969275786403</v>
+        <v>12717.629846378934</v>
+      </c>
+      <c r="G158" s="110">
+        <v>127176.29846378934</v>
       </c>
     </row>
     <row r="159" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D159" s="16">
-        <v>777</v>
-      </c>
-      <c r="E159" s="106">
-        <v>888</v>
+        <v>768</v>
+      </c>
+      <c r="E159" s="110">
+        <v>10672</v>
       </c>
       <c r="F159" s="33">
-        <v>811.99707388441846</v>
-      </c>
-      <c r="G159" s="106">
-        <v>8119.9707388441848</v>
+        <v>9758.5954645208494</v>
+      </c>
+      <c r="G159" s="110">
+        <v>97585.954645208491</v>
       </c>
     </row>
     <row r="160" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D160" s="16">
-        <v>778</v>
-      </c>
-      <c r="E160" s="106">
-        <v>7900</v>
+        <v>769</v>
+      </c>
+      <c r="E160" s="110">
+        <v>15800</v>
       </c>
       <c r="F160" s="33">
-        <v>7223.8478419897592</v>
-      </c>
-      <c r="G160" s="106">
-        <v>72238.478419897598</v>
+        <v>14447.695683979518</v>
+      </c>
+      <c r="G160" s="110">
+        <v>130029.26115581566</v>
       </c>
     </row>
     <row r="161" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D161" s="16">
-        <v>779</v>
-      </c>
-      <c r="E161" s="106">
-        <v>17788</v>
+        <v>770</v>
+      </c>
+      <c r="E161" s="110">
+        <v>6612</v>
       </c>
       <c r="F161" s="33">
-        <v>16265.544989027068</v>
-      </c>
-      <c r="G161" s="106">
-        <v>162655.44989027068</v>
+        <v>6046.0863204096568</v>
+      </c>
+      <c r="G161" s="110">
+        <v>54414.776883686907</v>
       </c>
     </row>
     <row r="162" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D162" s="16">
-        <v>780</v>
-      </c>
-      <c r="E162" s="106">
-        <v>19577</v>
+        <v>771</v>
+      </c>
+      <c r="E162" s="110">
+        <v>10650</v>
       </c>
       <c r="F162" s="33">
-        <v>17901.426481346014</v>
-      </c>
-      <c r="G162" s="106">
-        <v>179014.26481346015</v>
+        <v>9738.4784198975867</v>
+      </c>
+      <c r="G162" s="110">
+        <v>97384.78419897586</v>
       </c>
     </row>
     <row r="163" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D163" s="16">
-        <v>781</v>
-      </c>
-      <c r="E163" s="106">
-        <v>12687</v>
+        <v>772</v>
+      </c>
+      <c r="E163" s="110">
+        <v>17302</v>
       </c>
       <c r="F163" s="33">
-        <v>11601.133869787858</v>
-      </c>
-      <c r="G163" s="106">
-        <v>116011.33869787859</v>
+        <v>15821.141185076813</v>
+      </c>
+      <c r="G163" s="110">
+        <v>142390.27066569132</v>
       </c>
     </row>
     <row r="164" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D164" s="16">
-        <v>782</v>
-      </c>
-      <c r="E164" s="106">
-        <v>14207</v>
+        <v>773</v>
+      </c>
+      <c r="E164" s="110">
+        <v>8444</v>
       </c>
       <c r="F164" s="33">
-        <v>12991.038771031457</v>
-      </c>
-      <c r="G164" s="106">
-        <v>129910.38771031456</v>
+        <v>7721.2874908558897</v>
+      </c>
+      <c r="G164" s="110">
+        <v>92655.449890270684</v>
       </c>
     </row>
     <row r="165" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D165" s="16">
-        <v>783</v>
-      </c>
-      <c r="E165" s="106">
-        <v>19240</v>
+        <v>774</v>
+      </c>
+      <c r="E165" s="110">
+        <v>24391</v>
       </c>
       <c r="F165" s="33">
-        <v>17593.269934162399</v>
-      </c>
-      <c r="G165" s="106">
-        <v>175932.69934162399</v>
+        <v>22303.401609363573</v>
+      </c>
+      <c r="G165" s="110">
+        <v>267640.81931236287</v>
       </c>
     </row>
     <row r="166" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D166" s="16">
-        <v>784</v>
-      </c>
-      <c r="E166" s="106">
-        <v>13299</v>
+        <v>775</v>
+      </c>
+      <c r="E166" s="110">
+        <v>5084</v>
       </c>
       <c r="F166" s="33">
-        <v>12160.753474762254</v>
-      </c>
-      <c r="G166" s="106">
-        <v>121607.53474762254</v>
+        <v>4648.8661302121436</v>
+      </c>
+      <c r="G166" s="110">
+        <v>55786.393562545723</v>
       </c>
     </row>
     <row r="167" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D167" s="16">
-        <v>785</v>
-      </c>
-      <c r="E167" s="106">
-        <v>7664</v>
+        <v>776</v>
+      </c>
+      <c r="E167" s="110">
+        <v>4760</v>
       </c>
       <c r="F167" s="33">
-        <v>7008.0468178493056</v>
-      </c>
-      <c r="G167" s="106">
-        <v>84096.561814191664</v>
+        <v>4352.5969275786401</v>
+      </c>
+      <c r="G167" s="110">
+        <v>43525.969275786403</v>
       </c>
     </row>
     <row r="168" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D168" s="16">
-        <v>786</v>
-      </c>
-      <c r="E168" s="106">
-        <v>5132</v>
+        <v>777</v>
+      </c>
+      <c r="E168" s="110">
+        <v>888</v>
       </c>
       <c r="F168" s="33">
-        <v>4692.7578639356261</v>
-      </c>
-      <c r="G168" s="106">
-        <v>56313.094367227517</v>
+        <v>811.99707388441846</v>
+      </c>
+      <c r="G168" s="110">
+        <v>8119.9707388441848</v>
       </c>
     </row>
     <row r="169" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D169" s="16">
-        <v>787</v>
-      </c>
-      <c r="E169" s="106">
-        <v>18066</v>
+        <v>778</v>
+      </c>
+      <c r="E169" s="110">
+        <v>7900</v>
       </c>
       <c r="F169" s="33">
-        <v>16519.751280175569</v>
-      </c>
-      <c r="G169" s="106">
-        <v>198237.01536210685</v>
+        <v>7223.8478419897592</v>
+      </c>
+      <c r="G169" s="110">
+        <v>72238.478419897598</v>
       </c>
     </row>
     <row r="170" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D170" s="16">
-        <v>788</v>
-      </c>
-      <c r="E170" s="106">
-        <v>12318</v>
+        <v>779</v>
+      </c>
+      <c r="E170" s="110">
+        <v>17788</v>
       </c>
       <c r="F170" s="33">
-        <v>11263.716166788588</v>
-      </c>
-      <c r="G170" s="106">
-        <v>135164.59400146306</v>
+        <v>16265.544989027068</v>
+      </c>
+      <c r="G170" s="110">
+        <v>162655.44989027068</v>
       </c>
     </row>
     <row r="171" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D171" s="16">
-        <v>789</v>
-      </c>
-      <c r="E171" s="106">
-        <v>23797</v>
+        <v>780</v>
+      </c>
+      <c r="E171" s="110">
+        <v>19577</v>
       </c>
       <c r="F171" s="33">
-        <v>21760.241404535482</v>
-      </c>
-      <c r="G171" s="106">
-        <v>195842.17264081934</v>
+        <v>17901.426481346014</v>
+      </c>
+      <c r="G171" s="110">
+        <v>179014.26481346015</v>
       </c>
     </row>
     <row r="172" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D172" s="16">
-        <v>790</v>
-      </c>
-      <c r="E172" s="106">
-        <v>27148</v>
+        <v>781</v>
+      </c>
+      <c r="E172" s="110">
+        <v>12687</v>
       </c>
       <c r="F172" s="33">
-        <v>24824.433065106074</v>
-      </c>
-      <c r="G172" s="106">
-        <v>248244.33065106074</v>
+        <v>11601.133869787858</v>
+      </c>
+      <c r="G172" s="110">
+        <v>116011.33869787859</v>
       </c>
     </row>
     <row r="173" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D173" s="16">
-        <v>791</v>
-      </c>
-      <c r="E173" s="106">
-        <v>17480</v>
+        <v>782</v>
+      </c>
+      <c r="E173" s="110">
+        <v>14207</v>
       </c>
       <c r="F173" s="33">
-        <v>15983.906364301391</v>
-      </c>
-      <c r="G173" s="106">
-        <v>159839.06364301391</v>
+        <v>12991.038771031457</v>
+      </c>
+      <c r="G173" s="110">
+        <v>129910.38771031456</v>
       </c>
     </row>
     <row r="174" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D174" s="16">
-        <v>792</v>
-      </c>
-      <c r="E174" s="106">
-        <v>22158</v>
+        <v>783</v>
+      </c>
+      <c r="E174" s="110">
+        <v>19240</v>
       </c>
       <c r="F174" s="33">
-        <v>20261.521580102417</v>
-      </c>
-      <c r="G174" s="106">
-        <v>182353.69422092175</v>
+        <v>17593.269934162399</v>
+      </c>
+      <c r="G174" s="110">
+        <v>175932.69934162399</v>
       </c>
     </row>
     <row r="175" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D175" s="16">
-        <v>793</v>
-      </c>
-      <c r="E175" s="106">
-        <v>11184</v>
+        <v>784</v>
+      </c>
+      <c r="E175" s="110">
+        <v>13299</v>
       </c>
       <c r="F175" s="33">
-        <v>10226.773957571326</v>
-      </c>
-      <c r="G175" s="106">
-        <v>92040.965618141927</v>
+        <v>12160.753474762254</v>
+      </c>
+      <c r="G175" s="110">
+        <v>121607.53474762254</v>
       </c>
     </row>
     <row r="176" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D176" s="16">
-        <v>794</v>
-      </c>
-      <c r="E176" s="106">
-        <v>14474</v>
+        <v>785</v>
+      </c>
+      <c r="E176" s="110">
+        <v>7664</v>
       </c>
       <c r="F176" s="33">
-        <v>13235.186539868326</v>
-      </c>
-      <c r="G176" s="106">
-        <v>119116.67885881494</v>
+        <v>7008.0468178493056</v>
+      </c>
+      <c r="G176" s="110">
+        <v>84096.561814191664</v>
       </c>
     </row>
     <row r="177" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D177" s="16">
-        <v>795</v>
-      </c>
-      <c r="E177" s="106">
-        <v>3774</v>
+        <v>786</v>
+      </c>
+      <c r="E177" s="110">
+        <v>5132</v>
       </c>
       <c r="F177" s="33">
-        <v>3450.9875640087785</v>
-      </c>
-      <c r="G177" s="106">
-        <v>31058.888076079005</v>
+        <v>4692.7578639356261</v>
+      </c>
+      <c r="G177" s="110">
+        <v>56313.094367227517</v>
       </c>
     </row>
     <row r="178" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D178" s="16">
-        <v>796</v>
-      </c>
-      <c r="E178" s="106">
-        <v>8892</v>
+        <v>787</v>
+      </c>
+      <c r="E178" s="110">
+        <v>18066</v>
       </c>
       <c r="F178" s="33">
-        <v>8130.9436722750552</v>
-      </c>
-      <c r="G178" s="106">
-        <v>81309.436722750557</v>
+        <v>16519.751280175569</v>
+      </c>
+      <c r="G178" s="110">
+        <v>198237.01536210685</v>
       </c>
     </row>
     <row r="179" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D179" s="16">
-        <v>797</v>
-      </c>
-      <c r="E179" s="106">
-        <v>4334</v>
+        <v>788</v>
+      </c>
+      <c r="E179" s="110">
+        <v>12318</v>
       </c>
       <c r="F179" s="33">
-        <v>3963.0577907827364</v>
-      </c>
-      <c r="G179" s="106">
-        <v>35667.520117044631</v>
+        <v>11263.716166788588</v>
+      </c>
+      <c r="G179" s="110">
+        <v>135164.59400146306</v>
       </c>
     </row>
     <row r="180" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D180" s="16">
+        <v>789</v>
+      </c>
+      <c r="E180" s="110">
+        <v>23797</v>
+      </c>
+      <c r="F180" s="33">
+        <v>21760.241404535482</v>
+      </c>
+      <c r="G180" s="110">
+        <v>195842.17264081934</v>
+      </c>
+    </row>
+    <row r="181" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D181" s="16">
+        <v>790</v>
+      </c>
+      <c r="E181" s="110">
+        <v>27148</v>
+      </c>
+      <c r="F181" s="33">
+        <v>24824.433065106074</v>
+      </c>
+      <c r="G181" s="110">
+        <v>248244.33065106074</v>
+      </c>
+    </row>
+    <row r="182" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D182" s="16">
+        <v>791</v>
+      </c>
+      <c r="E182" s="110">
+        <v>17480</v>
+      </c>
+      <c r="F182" s="33">
+        <v>15983.906364301391</v>
+      </c>
+      <c r="G182" s="110">
+        <v>159839.06364301391</v>
+      </c>
+    </row>
+    <row r="183" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D183" s="16">
+        <v>792</v>
+      </c>
+      <c r="E183" s="110">
+        <v>22158</v>
+      </c>
+      <c r="F183" s="33">
+        <v>20261.521580102417</v>
+      </c>
+      <c r="G183" s="110">
+        <v>182353.69422092175</v>
+      </c>
+    </row>
+    <row r="184" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D184" s="16">
+        <v>793</v>
+      </c>
+      <c r="E184" s="110">
+        <v>11184</v>
+      </c>
+      <c r="F184" s="33">
+        <v>10226.773957571326</v>
+      </c>
+      <c r="G184" s="110">
+        <v>92040.965618141927</v>
+      </c>
+    </row>
+    <row r="185" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D185" s="16">
+        <v>794</v>
+      </c>
+      <c r="E185" s="110">
+        <v>14474</v>
+      </c>
+      <c r="F185" s="33">
+        <v>13235.186539868326</v>
+      </c>
+      <c r="G185" s="110">
+        <v>119116.67885881494</v>
+      </c>
+    </row>
+    <row r="186" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D186" s="16">
+        <v>795</v>
+      </c>
+      <c r="E186" s="110">
+        <v>3774</v>
+      </c>
+      <c r="F186" s="33">
+        <v>3450.9875640087785</v>
+      </c>
+      <c r="G186" s="110">
+        <v>31058.888076079005</v>
+      </c>
+    </row>
+    <row r="187" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D187" s="16">
+        <v>796</v>
+      </c>
+      <c r="E187" s="110">
+        <v>8892</v>
+      </c>
+      <c r="F187" s="33">
+        <v>8130.9436722750552</v>
+      </c>
+      <c r="G187" s="110">
+        <v>81309.436722750557</v>
+      </c>
+    </row>
+    <row r="188" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D188" s="16">
+        <v>797</v>
+      </c>
+      <c r="E188" s="110">
+        <v>4334</v>
+      </c>
+      <c r="F188" s="33">
+        <v>3963.0577907827364</v>
+      </c>
+      <c r="G188" s="110">
+        <v>35667.520117044631</v>
+      </c>
+    </row>
+    <row r="189" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D189" s="16">
         <v>798</v>
       </c>
-      <c r="E180" s="106">
+      <c r="E189" s="110">
         <v>13135</v>
       </c>
-      <c r="F180" s="33">
+      <c r="F189" s="33">
         <v>12010.790051207025</v>
       </c>
-      <c r="G180" s="106">
+      <c r="G189" s="110">
         <v>120107.90051207025</v>
       </c>
     </row>
-    <row r="181" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D181" s="16" t="s">
+    <row r="190" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D190" s="16">
+        <v>799</v>
+      </c>
+      <c r="E190" s="110">
+        <v>13937</v>
+      </c>
+      <c r="F190" s="33">
+        <v>12744.14776883687</v>
+      </c>
+      <c r="G190" s="110">
+        <v>127441.4776883687</v>
+      </c>
+    </row>
+    <row r="191" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D191" s="16">
+        <v>800</v>
+      </c>
+      <c r="E191" s="110">
+        <v>11348</v>
+      </c>
+      <c r="F191" s="33">
+        <v>10376.737381126555</v>
+      </c>
+      <c r="G191" s="110">
+        <v>93390.636430138999</v>
+      </c>
+    </row>
+    <row r="192" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D192" s="16">
+        <v>801</v>
+      </c>
+      <c r="E192" s="110">
+        <v>6181</v>
+      </c>
+      <c r="F192" s="33">
+        <v>5651.9751280175569</v>
+      </c>
+      <c r="G192" s="110">
+        <v>56519.751280175566</v>
+      </c>
+    </row>
+    <row r="193" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D193" s="16">
+        <v>802</v>
+      </c>
+      <c r="E193" s="110">
+        <v>20149</v>
+      </c>
+      <c r="F193" s="33">
+        <v>18424.469641550844</v>
+      </c>
+      <c r="G193" s="110">
+        <v>184244.69641550846</v>
+      </c>
+    </row>
+    <row r="194" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D194" s="16">
+        <v>803</v>
+      </c>
+      <c r="E194" s="110">
+        <v>24694</v>
+      </c>
+      <c r="F194" s="33">
+        <v>22580.468178493051</v>
+      </c>
+      <c r="G194" s="110">
+        <v>225804.68178493052</v>
+      </c>
+    </row>
+    <row r="195" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D195" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E181" s="106">
-        <v>1074659</v>
-      </c>
-      <c r="F181" s="33">
-        <v>1951659.656181419</v>
-      </c>
-      <c r="G181" s="106">
-        <v>19514522.72150695</v>
+      <c r="E195" s="110">
+        <v>1150968</v>
+      </c>
+      <c r="F195" s="33">
+        <v>2021437.4542794439</v>
+      </c>
+      <c r="G195" s="110">
+        <v>20201923.965106077</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="12" scale="93" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="93" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <drawing r:id="rId4"/>
   <tableParts count="1">
     <tablePart r:id="rId5"/>
@@ -24642,10 +25619,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A27" zoomScale="122" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24716,7 +25693,7 @@
         <v>1252847</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="93">
         <v>45885</v>
       </c>
@@ -24773,7 +25750,7 @@
       </c>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45882</v>
       </c>
@@ -25079,7 +26056,7 @@
       </c>
       <c r="N14" s="17">
         <f>SUM(Table3[Total])</f>
-        <v>5144175</v>
+        <v>5451915</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -25166,7 +26143,7 @@
         <v>187425</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45893</v>
       </c>
@@ -25257,7 +26234,7 @@
         <v>222615</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45896</v>
       </c>
@@ -25344,7 +26321,7 @@
         <v>-300250</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45899</v>
       </c>
@@ -25542,7 +26519,7 @@
         <v>176715</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45903</v>
       </c>
@@ -25626,7 +26603,7 @@
         <v>-75090</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>45904</v>
       </c>
@@ -25656,7 +26633,7 @@
         <v>25960</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>45904</v>
       </c>
@@ -25747,7 +26724,7 @@
         <v>143055</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>45905</v>
       </c>
@@ -25777,7 +26754,7 @@
         <v>-27140</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>45907</v>
       </c>
@@ -25807,7 +26784,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>45908</v>
       </c>
@@ -25893,268 +26870,1259 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43">
+        <v>685</v>
+      </c>
+      <c r="D43" s="11">
+        <v>50</v>
+      </c>
+      <c r="E43" s="11">
+        <v>765</v>
+      </c>
+      <c r="F43" s="11">
+        <v>37500</v>
+      </c>
       <c r="G43" s="11">
         <f>D43*E43</f>
-        <v>0</v>
+        <v>38250</v>
       </c>
       <c r="H43" s="11"/>
       <c r="I43" s="11">
         <f>(D43*E43)-Table3[[#This Row],[Paid]]</f>
+        <v>38250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44">
+        <v>685</v>
+      </c>
+      <c r="D44" s="11">
+        <v>173</v>
+      </c>
+      <c r="E44" s="11">
+        <v>810</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11">
+        <f>D44*E44</f>
+        <v>140130</v>
+      </c>
+      <c r="H44" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>251950</v>
+      </c>
+      <c r="I44" s="11">
+        <f>(D44*E44)-Table3[[#This Row],[Paid]]</f>
+        <v>-111820</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B45" t="s">
+        <v>295</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="11">
+        <v>44</v>
+      </c>
+      <c r="E45" s="11">
+        <v>590</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11">
+        <f>D45*E45</f>
+        <v>25960</v>
+      </c>
+      <c r="H45" s="11">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table3[[#This Row],[Date]], Table14[Party], Table3[[#This Row],[Party Name]])</f>
+        <v>148610</v>
+      </c>
+      <c r="I45" s="11">
+        <f>(D45*E45)-Table3[[#This Row],[Paid]]</f>
+        <v>-122650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="11">
+        <v>188</v>
+      </c>
+      <c r="E46" s="11">
+        <v>550</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11">
+        <f>D46*E46</f>
+        <v>103400</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11">
+        <f>(D46*E46)-Table3[[#This Row],[Paid]]</f>
+        <v>103400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14">
+        <f>SUBTOTAL(109,Table3[Total])</f>
+        <v>4934385</v>
+      </c>
+      <c r="H47" s="14">
+        <f>SUBTOTAL(109,Table3[Paid])</f>
+        <v>4284350</v>
+      </c>
+      <c r="I47" s="14">
+        <f>SUBTOTAL(109,Table3[balance])</f>
+        <v>1902882</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E57" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E59" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" t="s">
+        <v>110</v>
+      </c>
+      <c r="I59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E60" s="27">
+        <v>45881</v>
+      </c>
+      <c r="F60" s="14">
+        <v>288</v>
+      </c>
+      <c r="G60" s="14">
+        <v>220320</v>
+      </c>
+      <c r="H60" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14">
-        <f>SUBTOTAL(109,Table3[Total])</f>
-        <v>5144175</v>
-      </c>
-      <c r="H44" s="14">
-        <f>SUBTOTAL(109,Table3[Paid])</f>
-        <v>4362920</v>
-      </c>
-      <c r="I44" s="14">
-        <f>SUBTOTAL(109,Table3[balance])</f>
-        <v>2006702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E45" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E47" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H47" t="s">
-        <v>110</v>
-      </c>
-      <c r="I47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E48" s="27">
+      <c r="I60" s="14">
+        <v>220320</v>
+      </c>
+    </row>
+    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E61" s="49">
+        <v>6691</v>
+      </c>
+      <c r="F61" s="14">
+        <v>288</v>
+      </c>
+      <c r="G61" s="14">
+        <v>220320</v>
+      </c>
+      <c r="H61" s="14">
+        <v>0</v>
+      </c>
+      <c r="I61" s="14">
+        <v>220320</v>
+      </c>
+    </row>
+    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E62" s="27">
         <v>45882</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F62" s="14">
         <v>100</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G62" s="14">
         <v>70000</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H62" s="14">
         <v>0</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I62" s="14">
         <v>70000</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E49" s="49">
+    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E63" s="49">
         <v>1055</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F63" s="14">
         <v>100</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G63" s="14">
         <v>70000</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H63" s="14">
         <v>0</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I63" s="14">
         <v>70000</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E50" s="27">
+    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E64" s="27">
+        <v>45884</v>
+      </c>
+      <c r="F64" s="14">
+        <v>388</v>
+      </c>
+      <c r="G64" s="14">
+        <v>296820</v>
+      </c>
+      <c r="H64" s="14">
+        <v>0</v>
+      </c>
+      <c r="I64" s="14">
+        <v>296820</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E65" s="49">
+        <v>8395</v>
+      </c>
+      <c r="F65" s="14">
+        <v>388</v>
+      </c>
+      <c r="G65" s="14">
+        <v>296820</v>
+      </c>
+      <c r="H65" s="14">
+        <v>0</v>
+      </c>
+      <c r="I65" s="14">
+        <v>296820</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E66" s="27">
         <v>45885</v>
       </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14">
+      <c r="F66" s="14">
+        <v>236</v>
+      </c>
+      <c r="G66" s="14">
+        <v>180540</v>
+      </c>
+      <c r="H66" s="14">
         <v>0</v>
       </c>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14">
-        <v>-27400</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E51" s="49" t="s">
+      <c r="I66" s="14">
+        <v>1405987</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E67" s="49">
+        <v>3229</v>
+      </c>
+      <c r="F67" s="14">
+        <v>236</v>
+      </c>
+      <c r="G67" s="14">
+        <v>180540</v>
+      </c>
+      <c r="H67" s="14">
+        <v>0</v>
+      </c>
+      <c r="I67" s="14">
+        <v>180540</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E68" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14">
+      <c r="F68" s="14"/>
+      <c r="G68" s="14">
         <v>0</v>
       </c>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14">
-        <v>-27400</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E52" s="27">
+      <c r="H68" s="14"/>
+      <c r="I68" s="14">
+        <v>1225447</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E69" s="27">
+        <v>45886</v>
+      </c>
+      <c r="F69" s="14">
+        <v>265</v>
+      </c>
+      <c r="G69" s="14">
+        <v>202725</v>
+      </c>
+      <c r="H69" s="14">
+        <v>26650</v>
+      </c>
+      <c r="I69" s="14">
+        <v>176075</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E70" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>26650</v>
+      </c>
+      <c r="I70" s="14">
+        <v>-26650</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E71" s="49">
+        <v>4649</v>
+      </c>
+      <c r="F71" s="14">
+        <v>265</v>
+      </c>
+      <c r="G71" s="14">
+        <v>202725</v>
+      </c>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14">
+        <v>202725</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E72" s="27">
+        <v>45888</v>
+      </c>
+      <c r="F72" s="14">
+        <v>292</v>
+      </c>
+      <c r="G72" s="14">
+        <v>223380</v>
+      </c>
+      <c r="H72" s="14">
+        <v>331500</v>
+      </c>
+      <c r="I72" s="14">
+        <v>-108120</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E73" s="49">
+        <v>52</v>
+      </c>
+      <c r="F73" s="14">
+        <v>292</v>
+      </c>
+      <c r="G73" s="14">
+        <v>223380</v>
+      </c>
+      <c r="H73" s="14">
+        <v>331500</v>
+      </c>
+      <c r="I73" s="14">
+        <v>-108120</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E74" s="27">
+        <v>45889</v>
+      </c>
+      <c r="F74" s="14">
+        <v>347</v>
+      </c>
+      <c r="G74" s="14">
+        <v>265455</v>
+      </c>
+      <c r="H74" s="14">
+        <v>102000</v>
+      </c>
+      <c r="I74" s="14">
+        <v>163455</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E75" s="49">
+        <v>739</v>
+      </c>
+      <c r="F75" s="14">
+        <v>347</v>
+      </c>
+      <c r="G75" s="14">
+        <v>265455</v>
+      </c>
+      <c r="H75" s="14">
+        <v>102000</v>
+      </c>
+      <c r="I75" s="14">
+        <v>163455</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E76" s="27">
+        <v>45890</v>
+      </c>
+      <c r="F76" s="14">
+        <v>471</v>
+      </c>
+      <c r="G76" s="14">
+        <v>360315</v>
+      </c>
+      <c r="H76" s="14">
+        <v>407400</v>
+      </c>
+      <c r="I76" s="14">
+        <v>-47085</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E77" s="49">
+        <v>3229</v>
+      </c>
+      <c r="F77" s="14">
+        <v>215</v>
+      </c>
+      <c r="G77" s="14">
+        <v>164475</v>
+      </c>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14">
+        <v>164475</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E78" s="49">
+        <v>1288</v>
+      </c>
+      <c r="F78" s="14">
+        <v>256</v>
+      </c>
+      <c r="G78" s="14">
+        <v>195840</v>
+      </c>
+      <c r="H78" s="14">
+        <v>407400</v>
+      </c>
+      <c r="I78" s="14">
+        <v>-211560</v>
+      </c>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E79" s="27">
+        <v>45894</v>
+      </c>
+      <c r="F79" s="14">
+        <v>526</v>
+      </c>
+      <c r="G79" s="14">
+        <v>402390</v>
+      </c>
+      <c r="H79" s="14">
+        <v>69450</v>
+      </c>
+      <c r="I79" s="14">
+        <v>332940</v>
+      </c>
+    </row>
+    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E80" s="49">
+        <v>3229</v>
+      </c>
+      <c r="F80" s="14">
+        <v>245</v>
+      </c>
+      <c r="G80" s="14">
+        <v>187425</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14">
+        <v>187425</v>
+      </c>
+    </row>
+    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E81" s="49">
+        <v>5045</v>
+      </c>
+      <c r="F81" s="14">
+        <v>281</v>
+      </c>
+      <c r="G81" s="14">
+        <v>214965</v>
+      </c>
+      <c r="H81" s="14">
+        <v>69450</v>
+      </c>
+      <c r="I81" s="14">
+        <v>145515</v>
+      </c>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E82" s="27">
         <v>45893</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F82" s="14">
         <v>29</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G82" s="14">
         <v>20300</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H82" s="14">
         <v>0</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I82" s="14">
         <v>20300</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E53" s="49" t="s">
+    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E83" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F83" s="14">
         <v>29</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G83" s="14">
         <v>20300</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H83" s="14">
         <v>0</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I83" s="14">
         <v>20300</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E54" s="27">
+    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E84" s="27">
+        <v>45895</v>
+      </c>
+      <c r="F84" s="14">
+        <v>516</v>
+      </c>
+      <c r="G84" s="14">
+        <v>394740</v>
+      </c>
+      <c r="H84" s="14">
+        <v>346500</v>
+      </c>
+      <c r="I84" s="14">
+        <v>48240</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E85" s="49">
+        <v>561</v>
+      </c>
+      <c r="F85" s="14">
+        <v>225</v>
+      </c>
+      <c r="G85" s="14">
+        <v>172125</v>
+      </c>
+      <c r="H85" s="14">
+        <v>346500</v>
+      </c>
+      <c r="I85" s="14">
+        <v>-174375</v>
+      </c>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E86" s="49">
+        <v>447</v>
+      </c>
+      <c r="F86" s="14">
+        <v>291</v>
+      </c>
+      <c r="G86" s="14">
+        <v>222615</v>
+      </c>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14">
+        <v>222615</v>
+      </c>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E87" s="27">
+        <v>45887</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14">
+        <v>0</v>
+      </c>
+      <c r="H87" s="14">
+        <v>300000</v>
+      </c>
+      <c r="I87" s="14">
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E88" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14">
+        <v>0</v>
+      </c>
+      <c r="H88" s="14">
+        <v>300000</v>
+      </c>
+      <c r="I88" s="14">
+        <v>-300000</v>
+      </c>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E89" s="27">
+        <v>45892</v>
+      </c>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14">
+        <v>0</v>
+      </c>
+      <c r="H89" s="14">
+        <v>302100</v>
+      </c>
+      <c r="I89" s="14">
+        <v>-302100</v>
+      </c>
+    </row>
+    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E90" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14">
+        <v>0</v>
+      </c>
+      <c r="H90" s="14">
+        <v>302100</v>
+      </c>
+      <c r="I90" s="14">
+        <v>-302100</v>
+      </c>
+    </row>
+    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E91" s="27">
         <v>45896</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F91" s="14">
         <v>133</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G91" s="14">
         <v>93100</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H91" s="14">
         <v>75000</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I91" s="14">
         <v>18100</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E55" s="49">
+    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E92" s="49">
         <v>5946</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F92" s="14">
         <v>133</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G92" s="14">
         <v>93100</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H92" s="14">
         <v>75000</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I92" s="14">
         <v>18100</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E56" s="27">
+    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E93" s="27">
+        <v>45897</v>
+      </c>
+      <c r="F93" s="14">
+        <v>265</v>
+      </c>
+      <c r="G93" s="14">
+        <v>202725</v>
+      </c>
+      <c r="H93" s="14">
+        <v>345250</v>
+      </c>
+      <c r="I93" s="14">
+        <v>-142525</v>
+      </c>
+    </row>
+    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E94" s="49">
+        <v>1910</v>
+      </c>
+      <c r="F94" s="14">
+        <v>265</v>
+      </c>
+      <c r="G94" s="14">
+        <v>202725</v>
+      </c>
+      <c r="H94" s="14">
+        <v>345250</v>
+      </c>
+      <c r="I94" s="14">
+        <v>-142525</v>
+      </c>
+    </row>
+    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E95" s="27">
         <v>45899</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14">
+      <c r="F95" s="14"/>
+      <c r="G95" s="14">
         <v>0</v>
       </c>
-      <c r="H56" s="14">
-        <v>40000</v>
-      </c>
-      <c r="I56" s="14">
-        <v>-40000</v>
-      </c>
-    </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E57" s="49" t="s">
+      <c r="H95" s="14">
+        <v>340250</v>
+      </c>
+      <c r="I95" s="14">
+        <v>-340250</v>
+      </c>
+    </row>
+    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E96" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14">
+      <c r="F96" s="14"/>
+      <c r="G96" s="14">
         <v>0</v>
       </c>
-      <c r="H57" s="14">
-        <v>40000</v>
-      </c>
-      <c r="I57" s="14">
-        <v>-40000</v>
-      </c>
-    </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E58" s="27">
+      <c r="H96" s="14">
+        <v>340250</v>
+      </c>
+      <c r="I96" s="14">
+        <v>-340250</v>
+      </c>
+    </row>
+    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E97" s="27">
+        <v>45900</v>
+      </c>
+      <c r="F97" s="14">
+        <v>220</v>
+      </c>
+      <c r="G97" s="14">
+        <v>168300</v>
+      </c>
+      <c r="H97" s="14">
+        <v>37000</v>
+      </c>
+      <c r="I97" s="14">
+        <v>131300</v>
+      </c>
+    </row>
+    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E98" s="49">
+        <v>3229</v>
+      </c>
+      <c r="F98" s="14">
+        <v>220</v>
+      </c>
+      <c r="G98" s="14">
+        <v>168300</v>
+      </c>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14">
+        <v>168300</v>
+      </c>
+    </row>
+    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E99" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14">
+        <v>0</v>
+      </c>
+      <c r="H99" s="14">
+        <v>37000</v>
+      </c>
+      <c r="I99" s="14">
+        <v>-37000</v>
+      </c>
+    </row>
+    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E100" s="27">
+        <v>45901</v>
+      </c>
+      <c r="F100" s="14">
+        <v>302</v>
+      </c>
+      <c r="G100" s="14">
+        <v>231030</v>
+      </c>
+      <c r="H100" s="14">
+        <v>34000</v>
+      </c>
+      <c r="I100" s="14">
+        <v>197030</v>
+      </c>
+    </row>
+    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E101" s="49">
+        <v>7286</v>
+      </c>
+      <c r="F101" s="14">
+        <v>302</v>
+      </c>
+      <c r="G101" s="14">
+        <v>231030</v>
+      </c>
+      <c r="H101" s="14">
+        <v>34000</v>
+      </c>
+      <c r="I101" s="14">
+        <v>197030</v>
+      </c>
+    </row>
+    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E102" s="27">
+        <v>45902</v>
+      </c>
+      <c r="F102" s="14">
+        <v>777</v>
+      </c>
+      <c r="G102" s="14">
+        <v>605610</v>
+      </c>
+      <c r="H102" s="14">
+        <v>422500</v>
+      </c>
+      <c r="I102" s="14">
+        <v>183110</v>
+      </c>
+    </row>
+    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E103" s="49">
+        <v>1961</v>
+      </c>
+      <c r="F103" s="14">
+        <v>297</v>
+      </c>
+      <c r="G103" s="14">
+        <v>227205</v>
+      </c>
+      <c r="H103" s="14">
+        <v>422500</v>
+      </c>
+      <c r="I103" s="14">
+        <v>-195295</v>
+      </c>
+    </row>
+    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E104" s="49">
+        <v>8141</v>
+      </c>
+      <c r="F104" s="14">
+        <v>249</v>
+      </c>
+      <c r="G104" s="14">
+        <v>201690</v>
+      </c>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14">
+        <v>201690</v>
+      </c>
+    </row>
+    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E105" s="49">
+        <v>3220</v>
+      </c>
+      <c r="F105" s="14">
+        <v>231</v>
+      </c>
+      <c r="G105" s="14">
+        <v>176715</v>
+      </c>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14">
+        <v>176715</v>
+      </c>
+    </row>
+    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E106" s="27">
         <v>45903</v>
       </c>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14">
+      <c r="F106" s="14"/>
+      <c r="G106" s="14">
         <v>0</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H106" s="14">
         <v>30000</v>
       </c>
-      <c r="I58" s="14">
+      <c r="I106" s="14">
         <v>-30000</v>
       </c>
     </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E59" s="49" t="s">
+    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E107" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14">
+      <c r="F107" s="14"/>
+      <c r="G107" s="14">
         <v>0</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H107" s="14">
         <v>30000</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I107" s="14">
         <v>-30000</v>
       </c>
     </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E60" s="27" t="s">
+    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E108" s="27">
+        <v>45904</v>
+      </c>
+      <c r="F108" s="14">
+        <v>624</v>
+      </c>
+      <c r="G108" s="14">
+        <v>486300</v>
+      </c>
+      <c r="H108" s="14">
+        <v>290550</v>
+      </c>
+      <c r="I108" s="14">
+        <v>195750</v>
+      </c>
+    </row>
+    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E109" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F109" s="14">
+        <v>87</v>
+      </c>
+      <c r="G109" s="14">
+        <v>51330</v>
+      </c>
+      <c r="H109" s="14">
+        <v>0</v>
+      </c>
+      <c r="I109" s="14">
+        <v>51330</v>
+      </c>
+    </row>
+    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E110" s="49">
+        <v>5679</v>
+      </c>
+      <c r="F110" s="14">
+        <v>271</v>
+      </c>
+      <c r="G110" s="14">
+        <v>219510</v>
+      </c>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14">
+        <v>219510</v>
+      </c>
+    </row>
+    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E111" s="49">
+        <v>9373</v>
+      </c>
+      <c r="F111" s="14">
+        <v>266</v>
+      </c>
+      <c r="G111" s="14">
+        <v>215460</v>
+      </c>
+      <c r="H111" s="14">
+        <v>290550</v>
+      </c>
+      <c r="I111" s="14">
+        <v>-75090</v>
+      </c>
+    </row>
+    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E112" s="27">
+        <v>45905</v>
+      </c>
+      <c r="F112" s="14">
+        <v>512</v>
+      </c>
+      <c r="G112" s="14">
+        <v>397285</v>
+      </c>
+      <c r="H112" s="14">
+        <v>331130</v>
+      </c>
+      <c r="I112" s="14">
+        <v>66155</v>
+      </c>
+    </row>
+    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E113" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F113" s="14">
+        <v>41</v>
+      </c>
+      <c r="G113" s="14">
+        <v>24190</v>
+      </c>
+      <c r="H113" s="14">
+        <v>51330</v>
+      </c>
+      <c r="I113" s="14">
+        <v>-27140</v>
+      </c>
+    </row>
+    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E114" s="49">
+        <v>160</v>
+      </c>
+      <c r="F114" s="14">
+        <v>284</v>
+      </c>
+      <c r="G114" s="14">
+        <v>230040</v>
+      </c>
+      <c r="H114" s="14">
+        <v>279800</v>
+      </c>
+      <c r="I114" s="14">
+        <v>-49760</v>
+      </c>
+    </row>
+    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E115" s="49">
+        <v>1973</v>
+      </c>
+      <c r="F115" s="14">
+        <v>187</v>
+      </c>
+      <c r="G115" s="14">
+        <v>143055</v>
+      </c>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14">
+        <v>143055</v>
+      </c>
+    </row>
+    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E116" s="27">
+        <v>45907</v>
+      </c>
+      <c r="F116" s="14">
+        <v>200</v>
+      </c>
+      <c r="G116" s="14">
+        <v>110000</v>
+      </c>
+      <c r="H116" s="14">
+        <v>0</v>
+      </c>
+      <c r="I116" s="14">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E117" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F117" s="14">
+        <v>200</v>
+      </c>
+      <c r="G117" s="14">
+        <v>110000</v>
+      </c>
+      <c r="H117" s="14">
+        <v>0</v>
+      </c>
+      <c r="I117" s="14">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="118" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E118" s="27">
+        <v>45908</v>
+      </c>
+      <c r="F118" s="14">
+        <v>35</v>
+      </c>
+      <c r="G118" s="14">
+        <v>19250</v>
+      </c>
+      <c r="H118" s="14">
+        <v>334690</v>
+      </c>
+      <c r="I118" s="14">
+        <v>-315440</v>
+      </c>
+    </row>
+    <row r="119" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E119" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14">
+        <v>0</v>
+      </c>
+      <c r="H119" s="14">
+        <v>200500</v>
+      </c>
+      <c r="I119" s="14">
+        <v>-200500</v>
+      </c>
+    </row>
+    <row r="120" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E120" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F120" s="14">
+        <v>35</v>
+      </c>
+      <c r="G120" s="14">
+        <v>19250</v>
+      </c>
+      <c r="H120" s="14">
+        <v>134190</v>
+      </c>
+      <c r="I120" s="14">
+        <v>-114940</v>
+      </c>
+    </row>
+    <row r="121" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E121" s="27">
+        <v>45909</v>
+      </c>
+      <c r="F121" s="14">
+        <v>239</v>
+      </c>
+      <c r="G121" s="14">
+        <v>193590</v>
+      </c>
+      <c r="H121" s="14">
+        <v>236950</v>
+      </c>
+      <c r="I121" s="14">
+        <v>-43360</v>
+      </c>
+    </row>
+    <row r="122" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E122" s="49">
+        <v>9940</v>
+      </c>
+      <c r="F122" s="14">
+        <v>239</v>
+      </c>
+      <c r="G122" s="14">
+        <v>193590</v>
+      </c>
+      <c r="H122" s="14">
+        <v>236950</v>
+      </c>
+      <c r="I122" s="14">
+        <v>-43360</v>
+      </c>
+    </row>
+    <row r="123" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E123" s="27">
+        <v>45910</v>
+      </c>
+      <c r="F123" s="14">
+        <v>455</v>
+      </c>
+      <c r="G123" s="14">
+        <v>307740</v>
+      </c>
+      <c r="H123" s="14">
+        <v>400560</v>
+      </c>
+      <c r="I123" s="14">
+        <v>-92820</v>
+      </c>
+    </row>
+    <row r="124" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E124" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F124" s="14">
+        <v>232</v>
+      </c>
+      <c r="G124" s="14">
+        <v>129360</v>
+      </c>
+      <c r="H124" s="14">
+        <v>148610</v>
+      </c>
+      <c r="I124" s="14">
+        <v>-19250</v>
+      </c>
+    </row>
+    <row r="125" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E125" s="49">
+        <v>685</v>
+      </c>
+      <c r="F125" s="14">
+        <v>223</v>
+      </c>
+      <c r="G125" s="14">
+        <v>178380</v>
+      </c>
+      <c r="H125" s="14">
+        <v>251950</v>
+      </c>
+      <c r="I125" s="14">
+        <v>-73570</v>
+      </c>
+    </row>
+    <row r="126" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E126" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="14">
-        <v>262</v>
-      </c>
-      <c r="G60" s="14">
-        <v>183400</v>
-      </c>
-      <c r="H60" s="14">
-        <v>145000</v>
-      </c>
-      <c r="I60" s="14">
-        <v>11000</v>
+      <c r="F126" s="14">
+        <v>7220</v>
+      </c>
+      <c r="G126" s="14">
+        <v>5451915</v>
+      </c>
+      <c r="H126" s="14">
+        <v>4763480</v>
+      </c>
+      <c r="I126" s="14">
+        <v>1913882</v>
       </c>
     </row>
   </sheetData>
@@ -26177,10 +28145,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBC7D8-36BA-4EBA-8685-891B9162141F}">
-  <dimension ref="A1:P322"/>
+  <dimension ref="A1:P345"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A319" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26301,14 +28269,14 @@
       </c>
       <c r="K4" s="54">
         <f>Table14[[#Totals],[Debit]]</f>
-        <v>7809959</v>
+        <v>8746516</v>
       </c>
       <c r="M4" s="53" t="s">
         <v>116</v>
       </c>
       <c r="N4" s="59">
         <f>SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer")</f>
-        <v>470000</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -26333,14 +28301,14 @@
       </c>
       <c r="K5" s="54">
         <f>Table14[[#Totals],[Credit]]</f>
-        <v>8263536</v>
+        <v>8912586</v>
       </c>
       <c r="M5" s="53" t="s">
         <v>117</v>
       </c>
       <c r="N5" s="54">
         <f>(SUMIFS(Table14[Credit],Table14[Mode],"Bank")-SUMIFS(Table14[Debit],Table14[Mode],"Bank")-SUMIFS(Table14[Withdrawal],Table14[Mode],"Transfer"))</f>
-        <v>437540</v>
+        <v>160953</v>
       </c>
       <c r="O5">
         <v>320</v>
@@ -26368,14 +28336,14 @@
       </c>
       <c r="K6" s="61">
         <f>(K5-K4)</f>
-        <v>453577</v>
+        <v>166070</v>
       </c>
       <c r="M6" s="53" t="s">
         <v>118</v>
       </c>
       <c r="N6" s="54">
         <f>((SUMIFS(Table14[Credit],Table14[Mode],"Cash")-SUMIFS(Table14[Debit],Table14[Mode],"Cash"))+SUMIFS(Table14[Withdrawal],Table14[Party],"Cash",Table14[Mode],"Transfer"))</f>
-        <v>16037</v>
+        <v>5117</v>
       </c>
       <c r="O6">
         <v>1520</v>
@@ -26403,7 +28371,7 @@
       </c>
       <c r="N7" s="57">
         <f>SUM(N5:N6)</f>
-        <v>453577</v>
+        <v>166070</v>
       </c>
       <c r="O7" s="100">
         <f>SUM(O5,O6)</f>
@@ -26411,7 +28379,7 @@
       </c>
       <c r="P7" s="14">
         <f>Table18[[#Totals],[amount]]-Table18[[#Totals],[Actual]]</f>
-        <v>451737</v>
+        <v>164230</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -29138,7 +31106,7 @@
         <v>9</v>
       </c>
       <c r="K165" s="14">
-        <v>604210</v>
+        <v>654210</v>
       </c>
       <c r="L165" s="14"/>
     </row>
@@ -29163,7 +31131,7 @@
         <v>21</v>
       </c>
       <c r="K166" s="14">
-        <v>2572095</v>
+        <v>3074145</v>
       </c>
       <c r="L166" s="14"/>
     </row>
@@ -29256,7 +31224,7 @@
       </c>
       <c r="K170" s="14"/>
       <c r="L170" s="14">
-        <v>4032400</v>
+        <v>4284350</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
@@ -29281,7 +31249,7 @@
       </c>
       <c r="K171" s="14"/>
       <c r="L171" s="14">
-        <v>60265</v>
+        <v>61185</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -29306,7 +31274,7 @@
       </c>
       <c r="K172" s="14"/>
       <c r="L172" s="14">
-        <v>548124</v>
+        <v>552024</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -29329,7 +31297,7 @@
       </c>
       <c r="K173" s="14"/>
       <c r="L173" s="14">
-        <v>77819</v>
+        <v>85511</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
@@ -29379,7 +31347,7 @@
       </c>
       <c r="K175" s="14"/>
       <c r="L175" s="14">
-        <v>121135</v>
+        <v>130120</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
@@ -29456,7 +31424,7 @@
         <v>21826</v>
       </c>
       <c r="L178" s="14">
-        <v>27654</v>
+        <v>34054</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
@@ -29510,7 +31478,7 @@
         <v>131920</v>
       </c>
       <c r="L180" s="14">
-        <v>121436</v>
+        <v>122536</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
@@ -29550,11 +31518,9 @@
         <v>117</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K182" s="14">
-        <v>1500000</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K182" s="14"/>
       <c r="L182" s="14"/>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -29575,10 +31541,10 @@
         <v>117</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K183" s="14">
-        <v>2779100</v>
+        <v>1500000</v>
       </c>
       <c r="L183" s="14"/>
     </row>
@@ -29597,10 +31563,10 @@
         <v>117</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="K184" s="14">
-        <v>-861719</v>
+        <v>2779100</v>
       </c>
       <c r="L184" s="14"/>
     </row>
@@ -29622,12 +31588,12 @@
         <v>117</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K185" s="14"/>
-      <c r="L185" s="14">
-        <v>567500</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="K185" s="14">
+        <v>-861719</v>
+      </c>
+      <c r="L185" s="14"/>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="97">
@@ -29648,12 +31614,12 @@
         <v>117</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K186" s="14">
-        <v>200000</v>
-      </c>
-      <c r="L186" s="14"/>
+        <v>143</v>
+      </c>
+      <c r="K186" s="14"/>
+      <c r="L186" s="14">
+        <v>1067500</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="43">
@@ -29673,12 +31639,12 @@
         <v>117</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="K187" s="14"/>
-      <c r="L187" s="14">
-        <v>8218</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="K187" s="14">
+        <v>200000</v>
+      </c>
+      <c r="L187" s="14"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="97">
@@ -29698,11 +31664,11 @@
         <v>117</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K188" s="14"/>
       <c r="L188" s="14">
-        <v>827438</v>
+        <v>8218</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
@@ -29720,11 +31686,11 @@
         <v>117</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K189" s="14"/>
       <c r="L189" s="14">
-        <v>100000</v>
+        <v>827438</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
@@ -29745,12 +31711,12 @@
         <v>117</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K190" s="14">
-        <v>199150</v>
-      </c>
-      <c r="L190" s="14"/>
+        <v>180</v>
+      </c>
+      <c r="K190" s="14"/>
+      <c r="L190" s="14">
+        <v>100000</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="97">
@@ -29770,12 +31736,12 @@
         <v>117</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K191" s="14"/>
-      <c r="L191" s="14">
-        <v>201800</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="K191" s="14">
+        <v>296150</v>
+      </c>
+      <c r="L191" s="14"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="97">
@@ -29795,12 +31761,12 @@
         <v>117</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K192" s="14">
-        <v>200000</v>
-      </c>
-      <c r="L192" s="14"/>
+        <v>194</v>
+      </c>
+      <c r="K192" s="14"/>
+      <c r="L192" s="14">
+        <v>208800</v>
+      </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="97">
@@ -29820,12 +31786,12 @@
         <v>117</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="K193" s="14"/>
-      <c r="L193" s="14">
-        <v>185520</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K193" s="14">
+        <v>200000</v>
+      </c>
+      <c r="L193" s="14"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="97">
@@ -29845,13 +31811,11 @@
         <v>117</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K194" s="14">
-        <v>8263536</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="K194" s="14"/>
       <c r="L194" s="14">
-        <v>7809959</v>
+        <v>334130</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.3">
@@ -29870,6 +31834,15 @@
       </c>
       <c r="F195" s="52" t="s">
         <v>117</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K195" s="14">
+        <v>8912586</v>
+      </c>
+      <c r="L195" s="14">
+        <v>8746516</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.3">
@@ -32042,7 +34015,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="43">
         <v>45909</v>
       </c>
@@ -32060,19 +34033,392 @@
         <v>117</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A322" s="43"/>
-      <c r="C322" s="14">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="43">
+        <v>45908</v>
+      </c>
+      <c r="B322" t="s">
+        <v>125</v>
+      </c>
+      <c r="C322" s="47">
+        <v>1100</v>
+      </c>
+      <c r="D322" s="47"/>
+      <c r="F322" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="43">
+        <v>45909</v>
+      </c>
+      <c r="B323" t="s">
+        <v>52</v>
+      </c>
+      <c r="C323" s="47">
+        <v>920</v>
+      </c>
+      <c r="D323" s="47"/>
+      <c r="E323" t="s">
+        <v>142</v>
+      </c>
+      <c r="F323" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B324" t="s">
+        <v>21</v>
+      </c>
+      <c r="C324" s="11"/>
+      <c r="D324" s="11">
+        <v>500000</v>
+      </c>
+      <c r="E324" t="s">
+        <v>66</v>
+      </c>
+      <c r="F324" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B325" t="s">
+        <v>143</v>
+      </c>
+      <c r="C325" s="11">
+        <v>500000</v>
+      </c>
+      <c r="D325" s="11"/>
+      <c r="E325" t="s">
+        <v>66</v>
+      </c>
+      <c r="F325" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B326" t="s">
+        <v>102</v>
+      </c>
+      <c r="C326" s="11">
+        <v>37500</v>
+      </c>
+      <c r="D326" s="11"/>
+      <c r="E326" t="s">
+        <v>318</v>
+      </c>
+      <c r="F326" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B327" t="s">
+        <v>56</v>
+      </c>
+      <c r="C327" s="11">
+        <v>2050</v>
+      </c>
+      <c r="D327" s="11"/>
+      <c r="E327" t="s">
+        <v>282</v>
+      </c>
+      <c r="F327" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B328" t="s">
+        <v>21</v>
+      </c>
+      <c r="C328" s="11"/>
+      <c r="D328" s="11">
+        <v>2050</v>
+      </c>
+      <c r="E328" t="s">
+        <v>282</v>
+      </c>
+      <c r="F328" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B329" t="s">
+        <v>295</v>
+      </c>
+      <c r="C329" s="11">
+        <v>148610</v>
+      </c>
+      <c r="D329" s="11"/>
+      <c r="E329" t="s">
+        <v>319</v>
+      </c>
+      <c r="F329" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B330" t="s">
+        <v>118</v>
+      </c>
+      <c r="C330" s="11"/>
+      <c r="D330" s="11"/>
+      <c r="F330" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G330">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B331" t="s">
+        <v>194</v>
+      </c>
+      <c r="C331" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D331" s="11"/>
+      <c r="E331" t="s">
+        <v>320</v>
+      </c>
+      <c r="F331" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C332" s="11"/>
+      <c r="D332" s="11">
+        <v>50000</v>
+      </c>
+      <c r="E332" t="s">
+        <v>87</v>
+      </c>
+      <c r="F332" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B333" t="s">
+        <v>56</v>
+      </c>
+      <c r="C333" s="11">
+        <v>1600</v>
+      </c>
+      <c r="D333" s="11"/>
+      <c r="E333" t="s">
+        <v>175</v>
+      </c>
+      <c r="F333" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B334" t="s">
+        <v>321</v>
+      </c>
+      <c r="C334" s="11">
+        <v>6400</v>
+      </c>
+      <c r="D334" s="11"/>
+      <c r="E334" t="s">
+        <v>317</v>
+      </c>
+      <c r="F334" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B335" t="s">
+        <v>102</v>
+      </c>
+      <c r="C335" s="11">
+        <v>13000</v>
+      </c>
+      <c r="D335" s="11"/>
+      <c r="E335" t="s">
+        <v>270</v>
+      </c>
+      <c r="F335" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B336" t="s">
+        <v>194</v>
+      </c>
+      <c r="C336" s="11">
+        <v>5000</v>
+      </c>
+      <c r="D336" s="11"/>
+      <c r="E336" t="s">
+        <v>322</v>
+      </c>
+      <c r="F336" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B337" t="s">
+        <v>137</v>
+      </c>
+      <c r="C337" s="11">
+        <v>7692</v>
+      </c>
+      <c r="D337" s="11"/>
+      <c r="F337" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B338" t="s">
+        <v>57</v>
+      </c>
+      <c r="C338" s="11">
+        <v>3900</v>
+      </c>
+      <c r="D338" s="11"/>
+      <c r="E338" t="s">
+        <v>323</v>
+      </c>
+      <c r="F338" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B339" t="s">
+        <v>37</v>
+      </c>
+      <c r="C339" s="11"/>
+      <c r="D339" s="11">
+        <v>97000</v>
+      </c>
+      <c r="E339" t="s">
+        <v>87</v>
+      </c>
+      <c r="F339" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B340" t="s">
+        <v>102</v>
+      </c>
+      <c r="C340" s="11">
+        <v>201450</v>
+      </c>
+      <c r="D340" s="11"/>
+      <c r="E340" t="s">
+        <v>128</v>
+      </c>
+      <c r="F340" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341" s="107">
+        <v>45910</v>
+      </c>
+      <c r="B341" t="s">
+        <v>56</v>
+      </c>
+      <c r="C341" s="11">
+        <v>5335</v>
+      </c>
+      <c r="D341" s="11"/>
+      <c r="E341" t="s">
+        <v>281</v>
+      </c>
+      <c r="F341" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342" s="107"/>
+      <c r="C342" s="11"/>
+      <c r="D342" s="11"/>
+      <c r="F342" s="52"/>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343" s="107"/>
+      <c r="C343" s="11"/>
+      <c r="D343" s="11"/>
+      <c r="F343" s="52"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" s="108"/>
+      <c r="B344" s="106"/>
+      <c r="C344" s="47"/>
+      <c r="D344" s="47"/>
+      <c r="E344" s="106"/>
+      <c r="F344" s="109"/>
+      <c r="G344" s="106"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" s="43"/>
+      <c r="C345" s="14">
         <f>SUBTOTAL(109,Table14[Debit])</f>
-        <v>7809959</v>
-      </c>
-      <c r="D322" s="14">
+        <v>8746516</v>
+      </c>
+      <c r="D345" s="14">
         <f>SUBTOTAL(109,Table14[Credit])</f>
-        <v>8263536</v>
-      </c>
-      <c r="F322" s="62">
+        <v>8912586</v>
+      </c>
+      <c r="F345" s="62">
         <f>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</f>
-        <v>453577</v>
+        <v>166070</v>
       </c>
     </row>
   </sheetData>
@@ -32096,10 +34442,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EEDB14-19DB-4B01-8C13-74C417326C5D}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32307,7 +34653,7 @@
         <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -32396,10 +34742,8 @@
       <c r="K10" s="27">
         <v>45888</v>
       </c>
-      <c r="L10" s="106">
-        <v>60100</v>
-      </c>
-      <c r="M10" s="106">
+      <c r="L10" s="110"/>
+      <c r="M10" s="110">
         <v>-567500</v>
       </c>
     </row>
@@ -32430,10 +34774,10 @@
       <c r="K11" s="27">
         <v>45889</v>
       </c>
-      <c r="L11" s="106">
+      <c r="L11" s="110">
         <v>659500</v>
       </c>
-      <c r="M11" s="106">
+      <c r="M11" s="110">
         <v>659500</v>
       </c>
     </row>
@@ -32464,10 +34808,10 @@
       <c r="K12" s="27">
         <v>45892</v>
       </c>
-      <c r="L12" s="106">
-        <v>166500</v>
-      </c>
-      <c r="M12" s="106">
+      <c r="L12" s="110">
+        <v>154500</v>
+      </c>
+      <c r="M12" s="110">
         <v>154500</v>
       </c>
     </row>
@@ -32498,10 +34842,8 @@
       <c r="K13" s="27">
         <v>45885</v>
       </c>
-      <c r="L13" s="106">
-        <v>114250</v>
-      </c>
-      <c r="M13" s="106">
+      <c r="L13" s="110"/>
+      <c r="M13" s="110">
         <v>567500</v>
       </c>
     </row>
@@ -32529,14 +34871,12 @@
         <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
         <v>36250</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="106">
-        <v>1000350</v>
-      </c>
-      <c r="M14" s="106">
-        <v>814000</v>
+      <c r="K14" s="27">
+        <v>45910</v>
+      </c>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110">
+        <v>-500000</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -32563,6 +34903,15 @@
         <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
         <v>41250</v>
       </c>
+      <c r="K15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="110">
+        <v>814000</v>
+      </c>
+      <c r="M15" s="110">
+        <v>314000</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -32640,13 +34989,40 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E19">
+      <c r="A19" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="F19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19">
+        <f>SUMIFS(Table14[Debit], Table14[Date], Table8[[#This Row],[Date]], Table14[Party], Table8[[#This Row],[Party]])</f>
+        <v>500000</v>
+      </c>
+      <c r="H19" s="110">
+        <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
+        <v>-500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="110"/>
+      <c r="H20" s="110">
+        <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21">
         <f>SUBTOTAL(109,Table8[Price])</f>
         <v>1000350</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <f>SUBTOTAL(109,Table8[Balance])</f>
-        <v>814000</v>
+        <v>314000</v>
       </c>
     </row>
   </sheetData>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5498" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15DDB907-CAFE-4782-83D7-E5BF943E7D6D}"/>
+  <xr:revisionPtr revIDLastSave="5504" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D88BD83-BE78-445B-94CC-51C65188AFE8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="13" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -48,12 +48,12 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId18"/>
-    <pivotCache cacheId="16" r:id="rId19"/>
-    <pivotCache cacheId="22" r:id="rId20"/>
-    <pivotCache cacheId="27" r:id="rId21"/>
-    <pivotCache cacheId="31" r:id="rId22"/>
-    <pivotCache cacheId="35" r:id="rId23"/>
+    <pivotCache cacheId="0" r:id="rId18"/>
+    <pivotCache cacheId="1" r:id="rId19"/>
+    <pivotCache cacheId="2" r:id="rId20"/>
+    <pivotCache cacheId="3" r:id="rId21"/>
+    <pivotCache cacheId="4" r:id="rId22"/>
+    <pivotCache cacheId="5" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1643,7 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1787,133 +1787,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="144">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
+  <dxfs count="125">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <fill>
@@ -2097,6 +1977,12 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -2381,6 +2267,27 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -10726,7 +10633,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A44D32CB-E765-4B1C-8CB9-BD089352B637}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I3:K16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
@@ -10810,7 +10717,7 @@
     <dataField name="Sum of Total" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="143">
+    <format dxfId="124">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10819,7 +10726,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="142">
+    <format dxfId="123">
       <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisRow" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10828,7 +10735,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="141">
+    <format dxfId="122">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10838,7 +10745,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="140">
+    <format dxfId="121">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -10862,7 +10769,192 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I143:K169" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="42">
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="40"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="37"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="100">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="D143:G246" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField axis="axisPage" showAll="0">
@@ -11622,193 +11714,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I143:K169" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="42">
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="40"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="119">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
   <location ref="E69:I150" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" numFmtId="14" showAll="0">
@@ -12208,7 +12115,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="98">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12217,7 +12124,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="97">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12240,7 +12147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB0047DD-2C16-4A8B-96A1-89F799ED19DB}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J163:L196" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12413,7 +12320,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="86">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12430,7 +12337,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8501352D-875A-40F5-872B-61931E55FFF0}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K9:M15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -12527,7 +12434,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F22051E1-B88F-4951-8A35-C5B5AE69E8EC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J4:M8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -12597,7 +12504,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{171D3480-4DC4-4678-B47A-3C0EAA1BC14F}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Shipment number">
   <location ref="A3:C57" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -12932,26 +12839,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="46">
+    <format dxfId="18">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="16">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12961,13 +12868,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="12">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="11">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13221,14 +13128,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}" name="Table4" displayName="Table4" ref="B3:E15" totalsRowShown="0">
   <autoFilter ref="B3:E15" xr:uid="{726F66F6-6434-425A-A910-C3CBF3339B20}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="139">
+    <tableColumn id="1" xr3:uid="{7A2445A9-BF1B-49FB-84BB-52F6CB270F38}" name="Party Name" dataDxfId="120">
       <calculatedColumnFormula>B26</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="138">
+    <tableColumn id="2" xr3:uid="{7EDCC2ED-0339-42B3-9633-FFEA7A3DD9F3}" name="Tiyaar" dataDxfId="119">
       <calculatedColumnFormula>SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*") / 1.0936</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CC1535DD-3FE7-4F55-8040-E7643388A78E}" name="Rate"/>
-    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="137">
+    <tableColumn id="4" xr3:uid="{059CB70B-ADAD-4985-84AA-0D530BAC5567}" name="Total" dataDxfId="118">
       <calculatedColumnFormula>(SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Silky") / 1.0936)*12 + (SUMIFS(ledger!G:G, ledger!B:B, B4, ledger!E:E, "&lt;&gt;*RD*",ledger!D:D, "Chamki") / 1.0936)*10</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13240,12 +13147,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G388" totalsRowCount="1">
   <autoFilter ref="A1:G387" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="85" totalsRowDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="59" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="83" totalsRowDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="1" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="28">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="0">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -13255,25 +13162,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="81" tableBorderDxfId="80" totalsRowBorderDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="68">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="42">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -13285,10 +13192,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="41" totalsRowDxfId="40"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -13297,17 +13204,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I30" totalsRowCount="1" headerRowDxfId="63" headerRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I30" totalsRowCount="1" headerRowDxfId="37" headerRowBorderDxfId="36">
   <autoFilter ref="A1:I29" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="35"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="34">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -13317,22 +13224,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H15" totalsRowCount="1" headerRowDxfId="61" headerRowBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H15" totalsRowCount="1" headerRowDxfId="33" headerRowBorderDxfId="32">
   <autoFilter ref="A4:H14" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="56">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="28">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="55">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="27">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13362,7 +13269,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="53" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13373,8 +13280,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E37" totalsRowCount="1">
   <autoFilter ref="B2:E36" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -13389,7 +13296,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -13400,13 +13307,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:E20" totalsRowShown="0" headerRowDxfId="136" dataDxfId="135">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}" name="Table21" displayName="Table21" ref="B7:E20" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
   <autoFilter ref="B7:E20" xr:uid="{449E5D32-DF9C-4018-96AB-CA98E118D910}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="133" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="gazana" dataDxfId="132" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{06FEE63C-6480-4079-8426-51BC26B38B34}" name="sum" dataDxfId="131" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{F663704C-91DD-4BB9-B7EB-EEB0C5EDED6C}" name="Description" dataDxfId="115"/>
+    <tableColumn id="2" xr3:uid="{6D94D495-CD0B-4FD3-9771-81D731982A97}" name="Rate" dataDxfId="114" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{2D14CEAD-3602-40E7-A488-3584EBC9141E}" name="gazana" dataDxfId="113" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{06FEE63C-6480-4079-8426-51BC26B38B34}" name="sum" dataDxfId="112" dataCellStyle="Comma">
       <calculatedColumnFormula>Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13418,7 +13325,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -13434,7 +13341,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -13446,13 +13353,13 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B14" totalsRowShown="0">
+  <autoFilter ref="A1:B14" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="5">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="4">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13465,7 +13372,7 @@
   <autoFilter ref="B3:D13" xr:uid="{40D0749A-70DE-4EC8-A4EE-00E713C72289}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1EA52ED7-9CB7-4573-9DD3-268050EECEA4}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="129" dataCellStyle="Comma">
+    <tableColumn id="2" xr3:uid="{8DE1A7AC-456D-429D-A522-6C6D0DAD1C74}" name="Amount" totalsRowFunction="custom" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table12[Amount])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{12F975D1-A51D-47BD-82DF-F0C35A709016}" name="Description"/>
@@ -13487,11 +13394,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}" name="Table6" displayName="Table6" ref="B2:C5" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="B2:C5" xr:uid="{136E8F7F-D03F-4198-8335-91A003EA9E45}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="126" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="125" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{279FA697-9952-479A-AC05-0D4992B41374}" name="Column1" dataDxfId="107" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{8A64998B-65EF-41CD-BCB0-3DDB7B359C54}" name="Column2" dataDxfId="106" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13501,8 +13408,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}" name="Table19" displayName="Table19" ref="B10:C21" totalsRowShown="0">
   <autoFilter ref="B10:C21" xr:uid="{2B0C9E74-2F66-4C26-94CA-FD4A0A4B2ACA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="124"/>
-    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="123"/>
+    <tableColumn id="1" xr3:uid="{4311E5F0-1C85-4B10-9FF6-5ACB13038079}" name="Column1" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{51D27FA2-8DDF-4369-BAF7-7D1FE90E16A0}" name="Column2" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13512,12 +13419,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}" name="Table13" displayName="Table13" ref="B2:F35" totalsRowCount="1">
   <autoFilter ref="B2:F34" xr:uid="{A0F58B95-D9E6-473F-8BE5-C4A8DDED103B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="1" xr3:uid="{8D801E24-A4A4-436D-ACAE-08E5208293FB}" name="Date" dataDxfId="103" totalsRowDxfId="102"/>
     <tableColumn id="2" xr3:uid="{8A25A580-75B6-436A-86F0-A6F6FD45C9B8}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D0F39D34-97FE-4856-BF51-811617A1CC29}" name="Debit" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="120">
+    <tableColumn id="4" xr3:uid="{920800CF-A78E-443D-8B14-2DF96850B1AA}" name="Credit" totalsRowFunction="sum" dataDxfId="101">
       <calculatedColumnFormula>SUMIFS(Table14[Credit], Table14[Date], Table13[[#This Row],[Date]], Table14[Party], "Transport")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3EAACA7A-7CB5-4CE5-AAFF-541AAE704336}" name="Diff" totalsRowFunction="custom">
@@ -13529,23 +13436,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K114" totalsRowCount="1" headerRowDxfId="118" dataDxfId="117" headerRowCellStyle="Comma" dataCellStyle="Comma">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}" name="Table1" displayName="Table1" ref="A1:K114" totalsRowCount="1" headerRowDxfId="99" dataDxfId="98" headerRowCellStyle="Comma" dataCellStyle="Comma">
   <autoFilter ref="A1:K113" xr:uid="{11DACEC6-751B-4B1D-817F-5C5BCD38EF6D}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="116" dataCellStyle="Comma"/>
-    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="115" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="114" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="113" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{2FCE3FA8-A48C-4685-8919-AE44C6C71FD9}" name="Date" dataDxfId="97" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="96" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="95" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="94" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -13555,7 +13462,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -13564,20 +13471,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I58" totalsRowCount="1" headerRowDxfId="96" headerRowBorderDxfId="95" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I58" totalsRowCount="1" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75">
   <autoFilter ref="A1:I57" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="93" totalsRowDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="74" totalsRowDxfId="73"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="92" totalsRowDxfId="24" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="91" totalsRowDxfId="23" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="90" totalsRowDxfId="22" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="21" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="20" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="87" totalsRowDxfId="19" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -16187,13 +16094,13 @@
       <c r="J5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="K5" s="115">
+      <c r="K5">
         <v>25000</v>
       </c>
-      <c r="L5" s="115">
+      <c r="L5">
         <v>60000</v>
       </c>
-      <c r="M5" s="115">
+      <c r="M5">
         <v>60000</v>
       </c>
     </row>
@@ -16223,13 +16130,13 @@
       <c r="J6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="115">
+      <c r="K6">
         <v>123050</v>
       </c>
-      <c r="L6" s="115">
+      <c r="L6">
         <v>123050</v>
       </c>
-      <c r="M6" s="115">
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
@@ -16251,13 +16158,13 @@
       <c r="J7" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K7" s="115">
+      <c r="K7">
         <v>735350</v>
       </c>
-      <c r="L7" s="115">
+      <c r="L7">
         <v>424850</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7">
         <v>310500</v>
       </c>
     </row>
@@ -16288,13 +16195,13 @@
       <c r="J8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="115">
+      <c r="K8">
         <v>883400</v>
       </c>
-      <c r="L8" s="115">
+      <c r="L8">
         <v>607900</v>
       </c>
-      <c r="M8" s="115">
+      <c r="M8">
         <v>370500</v>
       </c>
     </row>
@@ -17270,7 +17177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B029A8C4-D49C-464B-A701-37B1759EDEA7}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScale="90" workbookViewId="0">
       <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
@@ -20418,10 +20325,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EE5FCD-38DA-4943-8A91-71F737A33574}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20534,6 +20441,36 @@
       </c>
       <c r="B11" s="14">
         <f>Billing!W14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="113" t="str">
+        <f>Billing!O15</f>
+        <v>Azam</v>
+      </c>
+      <c r="B12" s="14">
+        <f>Billing!W15</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="113">
+        <f>Billing!O16</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <f>Billing!W16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="113">
+        <f>Billing!O17</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
+        <f>Billing!W17</f>
         <v>0</v>
       </c>
     </row>
@@ -20549,7 +20486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C7D53AD-D664-44CF-A1E1-2DB6CE627410}">
   <dimension ref="B4:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="105" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="105" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -20581,7 +20518,7 @@
     </row>
     <row r="6" spans="2:10" ht="21" x14ac:dyDescent="0.4">
       <c r="B6" s="72" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="J6" t="str">
         <v>Arshad</v>
@@ -20611,7 +20548,7 @@
       <c r="C8" s="74"/>
       <c r="D8" s="76" cm="1">
         <f t="array" ref="D8">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), INDEX(Billing!P5:P19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>556790</v>
+        <v>28549</v>
       </c>
       <c r="E8" s="74"/>
       <c r="J8" t="str">
@@ -20634,7 +20571,7 @@
       <c r="C10" s="74"/>
       <c r="D10" s="76" cm="1">
         <f t="array" ref="D10">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!Q5:Q20, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>509134.96708119975</v>
+        <v>26105.523043160207</v>
       </c>
       <c r="E10" s="74"/>
       <c r="J10" t="str">
@@ -20656,15 +20593,15 @@
       </c>
       <c r="C12" s="74" cm="1">
         <f t="array" aca="1" ref="C12" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$B$26), OFFSET(Billing!L26, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!$B$26))), "Not Found")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="74" cm="1">
         <f t="array" ref="D12">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!R5:R19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>341463.97220190201</v>
+        <v>26105.523043160207</v>
       </c>
       <c r="E12" s="103">
         <f ca="1">Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</f>
-        <v>3073175.749817118</v>
+        <v>261055.23043160207</v>
       </c>
       <c r="J12" t="str">
         <v>Ubaidullah</v>
@@ -20689,11 +20626,11 @@
       </c>
       <c r="D14" s="74" cm="1">
         <f t="array" ref="D14">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!$O$5), INDEX(Billing!S5:S19, _xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(Billing!$O$5)))), "Not Found")</f>
-        <v>167670.99487929774</v>
+        <v>0</v>
       </c>
       <c r="E14" s="74">
         <f ca="1">Table21[[#This Row],[gazana]]*Table21[[#This Row],[Rate]]</f>
-        <v>2012051.9385515728</v>
+        <v>0</v>
       </c>
       <c r="J14" t="str">
         <v>Azam</v>
@@ -20716,7 +20653,7 @@
       <c r="D16" s="102"/>
       <c r="E16" s="104">
         <f ca="1">E12+E14</f>
-        <v>5085227.6883686911</v>
+        <v>261055.23043160207</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -20733,7 +20670,7 @@
       <c r="D18" s="102"/>
       <c r="E18" s="104" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!W5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>4079100</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
@@ -20750,7 +20687,7 @@
       <c r="D20" s="102"/>
       <c r="E20" s="105" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">_xlfn.XLOOKUP($B$6,_xlfn.ANCHORARRAY( Billing!O5), OFFSET(Billing!X5, 0, 0, ROWS(_xlfn.ANCHORARRAY(Billing!O5))), "Not Found")</f>
-        <v>1006127.6883686911</v>
+        <v>61055.230431602075</v>
       </c>
     </row>
   </sheetData>
@@ -21609,7 +21546,7 @@
   </sheetPr>
   <dimension ref="A1:AB246"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="113" workbookViewId="0">
       <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
@@ -27131,11 +27068,11 @@
       <c r="D144" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E144" s="115"/>
+      <c r="E144"/>
       <c r="F144" s="33">
         <v>972869.42209217278</v>
       </c>
-      <c r="G144" s="115">
+      <c r="G144">
         <v>9667907.8714703731</v>
       </c>
       <c r="I144" s="27">
@@ -27152,13 +27089,13 @@
       <c r="D145" s="16">
         <v>716</v>
       </c>
-      <c r="E145" s="115">
+      <c r="E145">
         <v>43689</v>
       </c>
       <c r="F145" s="33">
         <v>39949.70738844185</v>
       </c>
-      <c r="G145" s="115">
+      <c r="G145">
         <v>399497.07388441847</v>
       </c>
       <c r="I145" s="27">
@@ -27175,13 +27112,13 @@
       <c r="D146" s="16">
         <v>722</v>
       </c>
-      <c r="E146" s="115">
+      <c r="E146">
         <v>25952</v>
       </c>
       <c r="F146" s="33">
         <v>23730.797366495979</v>
       </c>
-      <c r="G146" s="115">
+      <c r="G146">
         <v>237307.97366495978</v>
       </c>
       <c r="I146" s="27">
@@ -27198,13 +27135,13 @@
       <c r="D147" s="16">
         <v>723</v>
       </c>
-      <c r="E147" s="115">
+      <c r="E147">
         <v>8742</v>
       </c>
       <c r="F147" s="33">
         <v>7993.7820043891743</v>
       </c>
-      <c r="G147" s="115">
+      <c r="G147">
         <v>79937.820043891741</v>
       </c>
       <c r="I147" s="27">
@@ -27221,13 +27158,13 @@
       <c r="D148" s="16">
         <v>724</v>
       </c>
-      <c r="E148" s="115">
+      <c r="E148">
         <v>48705</v>
       </c>
       <c r="F148" s="33">
         <v>44536.393562545723</v>
       </c>
-      <c r="G148" s="115">
+      <c r="G148">
         <v>445363.9356254572</v>
       </c>
       <c r="I148" s="27">
@@ -27244,13 +27181,13 @@
       <c r="D149" s="16">
         <v>725</v>
       </c>
-      <c r="E149" s="115">
+      <c r="E149">
         <v>4140</v>
       </c>
       <c r="F149" s="33">
         <v>3785.6620336503297</v>
       </c>
-      <c r="G149" s="115">
+      <c r="G149">
         <v>37856.6203365033</v>
       </c>
       <c r="I149" s="27">
@@ -27267,13 +27204,13 @@
       <c r="D150" s="16">
         <v>726</v>
       </c>
-      <c r="E150" s="115">
+      <c r="E150">
         <v>1980</v>
       </c>
       <c r="F150" s="33">
         <v>1810.534016093636</v>
       </c>
-      <c r="G150" s="115">
+      <c r="G150">
         <v>18105.340160936361</v>
       </c>
       <c r="I150" s="27">
@@ -27290,13 +27227,13 @@
       <c r="D151" s="16">
         <v>727</v>
       </c>
-      <c r="E151" s="115">
+      <c r="E151">
         <v>21621</v>
       </c>
       <c r="F151" s="33">
         <v>19770.48280907096</v>
       </c>
-      <c r="G151" s="115">
+      <c r="G151">
         <v>197704.82809070961</v>
       </c>
       <c r="I151" s="27">
@@ -27313,13 +27250,13 @@
       <c r="D152" s="16">
         <v>728</v>
       </c>
-      <c r="E152" s="115">
+      <c r="E152">
         <v>6406</v>
       </c>
       <c r="F152" s="33">
         <v>5857.7176298463792</v>
       </c>
-      <c r="G152" s="115">
+      <c r="G152">
         <v>58577.17629846379</v>
       </c>
       <c r="I152" s="27">
@@ -27336,13 +27273,13 @@
       <c r="D153" s="16">
         <v>729</v>
       </c>
-      <c r="E153" s="115">
+      <c r="E153">
         <v>7452</v>
       </c>
       <c r="F153" s="33">
         <v>6814.1916605705928</v>
       </c>
-      <c r="G153" s="115">
+      <c r="G153">
         <v>68141.916605705934</v>
       </c>
       <c r="I153" s="27">
@@ -27359,13 +27296,13 @@
       <c r="D154" s="16">
         <v>731</v>
       </c>
-      <c r="E154" s="115">
+      <c r="E154">
         <v>5597</v>
       </c>
       <c r="F154" s="33">
         <v>5117.9590343818581</v>
       </c>
-      <c r="G154" s="115">
+      <c r="G154">
         <v>51179.590343818578</v>
       </c>
       <c r="I154" s="27">
@@ -27382,13 +27319,13 @@
       <c r="D155" s="16">
         <v>732</v>
       </c>
-      <c r="E155" s="115">
+      <c r="E155">
         <v>21167</v>
       </c>
       <c r="F155" s="33">
         <v>19355.340160936357</v>
       </c>
-      <c r="G155" s="115">
+      <c r="G155">
         <v>193553.40160936356</v>
       </c>
       <c r="I155" s="27">
@@ -27405,13 +27342,13 @@
       <c r="D156" s="16">
         <v>733</v>
       </c>
-      <c r="E156" s="115">
+      <c r="E156">
         <v>2010</v>
       </c>
       <c r="F156" s="33">
         <v>0</v>
       </c>
-      <c r="G156" s="115">
+      <c r="G156">
         <v>0</v>
       </c>
       <c r="I156" s="27">
@@ -27428,13 +27365,13 @@
       <c r="D157" s="16">
         <v>734</v>
       </c>
-      <c r="E157" s="115">
+      <c r="E157">
         <v>16253</v>
       </c>
       <c r="F157" s="33">
         <v>14861.923920994881</v>
       </c>
-      <c r="G157" s="115">
+      <c r="G157">
         <v>148619.23920994881</v>
       </c>
       <c r="I157" s="27">
@@ -27451,13 +27388,13 @@
       <c r="D158" s="16">
         <v>735</v>
       </c>
-      <c r="E158" s="115">
+      <c r="E158">
         <v>33788</v>
       </c>
       <c r="F158" s="33">
         <v>30896.122896854427</v>
       </c>
-      <c r="G158" s="115">
+      <c r="G158">
         <v>308961.22896854428</v>
       </c>
       <c r="I158" s="27">
@@ -27474,13 +27411,13 @@
       <c r="D159" s="16">
         <v>736</v>
       </c>
-      <c r="E159" s="115">
+      <c r="E159">
         <v>8575</v>
       </c>
       <c r="F159" s="33">
         <v>7841.0753474762259</v>
       </c>
-      <c r="G159" s="115">
+      <c r="G159">
         <v>78410.753474762256</v>
       </c>
       <c r="I159" s="27">
@@ -27497,13 +27434,13 @@
       <c r="D160" s="16">
         <v>737</v>
       </c>
-      <c r="E160" s="115">
+      <c r="E160">
         <v>4298</v>
       </c>
       <c r="F160" s="33">
         <v>3930.1389904901248</v>
       </c>
-      <c r="G160" s="115">
+      <c r="G160">
         <v>35371.250914411125</v>
       </c>
       <c r="I160" s="27">
@@ -27520,13 +27457,13 @@
       <c r="D161" s="16">
         <v>738</v>
       </c>
-      <c r="E161" s="115">
+      <c r="E161">
         <v>22478</v>
       </c>
       <c r="F161" s="33">
         <v>20554.133138258963</v>
       </c>
-      <c r="G161" s="115">
+      <c r="G161">
         <v>205541.33138258965</v>
       </c>
       <c r="I161" s="27">
@@ -27543,13 +27480,13 @@
       <c r="D162" s="16">
         <v>739</v>
       </c>
-      <c r="E162" s="115">
+      <c r="E162">
         <v>8540</v>
       </c>
       <c r="F162" s="33">
         <v>7809.0709583028538</v>
       </c>
-      <c r="G162" s="115">
+      <c r="G162">
         <v>78090.70958302854</v>
       </c>
       <c r="I162" s="27">
@@ -27566,13 +27503,13 @@
       <c r="D163" s="16">
         <v>740</v>
       </c>
-      <c r="E163" s="115">
+      <c r="E163">
         <v>7214</v>
       </c>
       <c r="F163" s="33">
         <v>6596.5618141916611</v>
       </c>
-      <c r="G163" s="115">
+      <c r="G163">
         <v>65965.61814191661</v>
       </c>
       <c r="I163" s="27">
@@ -27589,13 +27526,13 @@
       <c r="D164" s="16">
         <v>741</v>
       </c>
-      <c r="E164" s="115">
+      <c r="E164">
         <v>6688</v>
       </c>
       <c r="F164" s="33">
         <v>6115.5815654718363</v>
       </c>
-      <c r="G164" s="115">
+      <c r="G164">
         <v>61155.815654718361</v>
       </c>
       <c r="I164" s="27">
@@ -27612,13 +27549,13 @@
       <c r="D165" s="16">
         <v>742</v>
       </c>
-      <c r="E165" s="115">
+      <c r="E165">
         <v>1914</v>
       </c>
       <c r="F165" s="33">
         <v>1750.1828822238481</v>
       </c>
-      <c r="G165" s="115">
+      <c r="G165">
         <v>17501.82882223848</v>
       </c>
       <c r="I165" s="27">
@@ -27635,13 +27572,13 @@
       <c r="D166" s="16">
         <v>743</v>
       </c>
-      <c r="E166" s="115">
+      <c r="E166">
         <v>9214</v>
       </c>
       <c r="F166" s="33">
         <v>8425.3840526700806</v>
       </c>
-      <c r="G166" s="115">
+      <c r="G166">
         <v>84253.840526700806</v>
       </c>
       <c r="I166" s="27">
@@ -27658,13 +27595,13 @@
       <c r="D167" s="16">
         <v>744</v>
       </c>
-      <c r="E167" s="115">
+      <c r="E167">
         <v>21448</v>
       </c>
       <c r="F167" s="33">
         <v>19612.289685442578</v>
       </c>
-      <c r="G167" s="115">
+      <c r="G167">
         <v>196122.89685442578</v>
       </c>
       <c r="I167" s="27">
@@ -27681,13 +27618,13 @@
       <c r="D168" s="16">
         <v>745</v>
       </c>
-      <c r="E168" s="115">
+      <c r="E168">
         <v>11858</v>
       </c>
       <c r="F168" s="33">
         <v>10843.087051938552</v>
       </c>
-      <c r="G168" s="115">
+      <c r="G168">
         <v>97587.783467446963</v>
       </c>
       <c r="I168" s="27" t="s">
@@ -27702,13 +27639,13 @@
       <c r="D169" s="16">
         <v>746</v>
       </c>
-      <c r="E169" s="115">
+      <c r="E169">
         <v>18918</v>
       </c>
       <c r="F169" s="33">
         <v>17298.829553767377</v>
       </c>
-      <c r="G169" s="115">
+      <c r="G169">
         <v>155689.46598390638</v>
       </c>
       <c r="I169" s="27" t="s">
@@ -27725,13 +27662,13 @@
       <c r="D170" s="16">
         <v>747</v>
       </c>
-      <c r="E170" s="115">
+      <c r="E170">
         <v>19780</v>
       </c>
       <c r="F170" s="33">
         <v>18087.051938551573</v>
       </c>
-      <c r="G170" s="115">
+      <c r="G170">
         <v>180870.51938551571</v>
       </c>
     </row>
@@ -27739,13 +27676,13 @@
       <c r="D171" s="16">
         <v>748</v>
       </c>
-      <c r="E171" s="115">
+      <c r="E171">
         <v>4342</v>
       </c>
       <c r="F171" s="33">
         <v>3970.3730797366497</v>
       </c>
-      <c r="G171" s="115">
+      <c r="G171">
         <v>35733.35771762985</v>
       </c>
     </row>
@@ -27753,13 +27690,13 @@
       <c r="D172" s="16">
         <v>749</v>
       </c>
-      <c r="E172" s="115">
+      <c r="E172">
         <v>28098</v>
       </c>
       <c r="F172" s="33">
         <v>25693.123628383324</v>
       </c>
-      <c r="G172" s="115">
+      <c r="G172">
         <v>231238.11265544992</v>
       </c>
     </row>
@@ -27767,13 +27704,13 @@
       <c r="D173" s="16">
         <v>750</v>
       </c>
-      <c r="E173" s="115">
+      <c r="E173">
         <v>13125</v>
       </c>
       <c r="F173" s="33">
         <v>12001.645940014632</v>
       </c>
-      <c r="G173" s="115">
+      <c r="G173">
         <v>108014.81346013169</v>
       </c>
     </row>
@@ -27781,13 +27718,13 @@
       <c r="D174" s="16">
         <v>721</v>
       </c>
-      <c r="E174" s="115">
+      <c r="E174">
         <v>2242</v>
       </c>
       <c r="F174" s="33">
         <v>2050.1097293343087</v>
       </c>
-      <c r="G174" s="115">
+      <c r="G174">
         <v>20501.097293343086</v>
       </c>
     </row>
@@ -27795,13 +27732,13 @@
       <c r="D175" s="16">
         <v>751</v>
       </c>
-      <c r="E175" s="115">
+      <c r="E175">
         <v>33502</v>
       </c>
       <c r="F175" s="33">
         <v>30634.601316752014</v>
       </c>
-      <c r="G175" s="115">
+      <c r="G175">
         <v>306346.01316752017</v>
       </c>
     </row>
@@ -27809,13 +27746,13 @@
       <c r="D176" s="16">
         <v>752</v>
       </c>
-      <c r="E176" s="115">
+      <c r="E176">
         <v>11702</v>
       </c>
       <c r="F176" s="33">
         <v>10700.438917337236</v>
       </c>
-      <c r="G176" s="115">
+      <c r="G176">
         <v>107004.38917337236</v>
       </c>
     </row>
@@ -27823,13 +27760,13 @@
       <c r="D177" s="16">
         <v>753</v>
       </c>
-      <c r="E177" s="115">
+      <c r="E177">
         <v>26158</v>
       </c>
       <c r="F177" s="33">
         <v>23919.166057059258</v>
       </c>
-      <c r="G177" s="115">
+      <c r="G177">
         <v>239191.66057059256</v>
       </c>
     </row>
@@ -27837,13 +27774,13 @@
       <c r="D178" s="16">
         <v>754</v>
       </c>
-      <c r="E178" s="115">
+      <c r="E178">
         <v>10346</v>
       </c>
       <c r="F178" s="33">
         <v>9460.4974396488669</v>
       </c>
-      <c r="G178" s="115">
+      <c r="G178">
         <v>85144.476956839804</v>
       </c>
     </row>
@@ -27851,13 +27788,13 @@
       <c r="D179" s="16">
         <v>755</v>
       </c>
-      <c r="E179" s="115">
+      <c r="E179">
         <v>7587</v>
       </c>
       <c r="F179" s="33">
         <v>6937.6371616678862</v>
       </c>
-      <c r="G179" s="115">
+      <c r="G179">
         <v>69376.371616678865</v>
       </c>
     </row>
@@ -27865,13 +27802,13 @@
       <c r="D180" s="16">
         <v>756</v>
       </c>
-      <c r="E180" s="115">
+      <c r="E180">
         <v>2244</v>
       </c>
       <c r="F180" s="33">
         <v>0</v>
       </c>
-      <c r="G180" s="115">
+      <c r="G180">
         <v>0</v>
       </c>
     </row>
@@ -27879,13 +27816,13 @@
       <c r="D181" s="16">
         <v>757</v>
       </c>
-      <c r="E181" s="115">
+      <c r="E181">
         <v>14872</v>
       </c>
       <c r="F181" s="33">
         <v>13599.122165325531</v>
       </c>
-      <c r="G181" s="115">
+      <c r="G181">
         <v>163189.46598390635</v>
       </c>
     </row>
@@ -27893,13 +27830,13 @@
       <c r="D182" s="16">
         <v>758</v>
       </c>
-      <c r="E182" s="115">
+      <c r="E182">
         <v>11018</v>
       </c>
       <c r="F182" s="33">
         <v>10074.981711777617</v>
       </c>
-      <c r="G182" s="115">
+      <c r="G182">
         <v>120899.78054133139</v>
       </c>
     </row>
@@ -27907,13 +27844,13 @@
       <c r="D183" s="16">
         <v>759</v>
       </c>
-      <c r="E183" s="115">
+      <c r="E183">
         <v>23305</v>
       </c>
       <c r="F183" s="33">
         <v>21310.35113386979</v>
       </c>
-      <c r="G183" s="115">
+      <c r="G183">
         <v>255724.21360643749</v>
       </c>
     </row>
@@ -27921,13 +27858,13 @@
       <c r="D184" s="16">
         <v>760</v>
       </c>
-      <c r="E184" s="115">
+      <c r="E184">
         <v>9308</v>
       </c>
       <c r="F184" s="33">
         <v>8511.3386978785675</v>
       </c>
-      <c r="G184" s="115">
+      <c r="G184">
         <v>85113.386978785682</v>
       </c>
     </row>
@@ -27935,13 +27872,13 @@
       <c r="D185" s="16">
         <v>761</v>
       </c>
-      <c r="E185" s="115">
+      <c r="E185">
         <v>20380</v>
       </c>
       <c r="F185" s="33">
         <v>18635.6986100951</v>
       </c>
-      <c r="G185" s="115">
+      <c r="G185">
         <v>186356.98610095101</v>
       </c>
     </row>
@@ -27949,13 +27886,13 @@
       <c r="D186" s="16">
         <v>762</v>
       </c>
-      <c r="E186" s="115">
+      <c r="E186">
         <v>7020</v>
       </c>
       <c r="F186" s="33">
         <v>6419.1660570592539</v>
       </c>
-      <c r="G186" s="115">
+      <c r="G186">
         <v>77029.992684711047</v>
       </c>
     </row>
@@ -27963,13 +27900,13 @@
       <c r="D187" s="16">
         <v>763</v>
       </c>
-      <c r="E187" s="115">
+      <c r="E187">
         <v>2776</v>
       </c>
       <c r="F187" s="33">
         <v>2538.4052670080468</v>
       </c>
-      <c r="G187" s="115">
+      <c r="G187">
         <v>25384.052670080469</v>
       </c>
     </row>
@@ -27977,13 +27914,13 @@
       <c r="D188" s="16">
         <v>764</v>
       </c>
-      <c r="E188" s="115">
+      <c r="E188">
         <v>25394</v>
       </c>
       <c r="F188" s="33">
         <v>23220.555961960501</v>
       </c>
-      <c r="G188" s="115">
+      <c r="G188">
         <v>232205.55961960502</v>
       </c>
     </row>
@@ -27991,13 +27928,13 @@
       <c r="D189" s="16">
         <v>765</v>
       </c>
-      <c r="E189" s="115">
+      <c r="E189">
         <v>10496</v>
       </c>
       <c r="F189" s="33">
         <v>9597.6591075347478</v>
       </c>
-      <c r="G189" s="115">
+      <c r="G189">
         <v>95976.591075347475</v>
       </c>
     </row>
@@ -28005,13 +27942,13 @@
       <c r="D190" s="16">
         <v>766</v>
       </c>
-      <c r="E190" s="115">
+      <c r="E190">
         <v>9552</v>
       </c>
       <c r="F190" s="33">
         <v>8734.4550109729335</v>
       </c>
-      <c r="G190" s="115">
+      <c r="G190">
         <v>87344.550109729331</v>
       </c>
     </row>
@@ -28019,13 +27956,13 @@
       <c r="D191" s="16">
         <v>767</v>
       </c>
-      <c r="E191" s="115">
+      <c r="E191">
         <v>13908</v>
       </c>
       <c r="F191" s="33">
         <v>12717.629846378934</v>
       </c>
-      <c r="G191" s="115">
+      <c r="G191">
         <v>127176.29846378934</v>
       </c>
     </row>
@@ -28033,13 +27970,13 @@
       <c r="D192" s="16">
         <v>768</v>
       </c>
-      <c r="E192" s="115">
+      <c r="E192">
         <v>10672</v>
       </c>
       <c r="F192" s="33">
         <v>9758.5954645208494</v>
       </c>
-      <c r="G192" s="115">
+      <c r="G192">
         <v>97585.954645208491</v>
       </c>
     </row>
@@ -28047,13 +27984,13 @@
       <c r="D193" s="16">
         <v>769</v>
       </c>
-      <c r="E193" s="115">
+      <c r="E193">
         <v>15800</v>
       </c>
       <c r="F193" s="33">
         <v>14447.695683979518</v>
       </c>
-      <c r="G193" s="115">
+      <c r="G193">
         <v>130029.26115581566</v>
       </c>
     </row>
@@ -28061,13 +27998,13 @@
       <c r="D194" s="16">
         <v>770</v>
       </c>
-      <c r="E194" s="115">
+      <c r="E194">
         <v>6612</v>
       </c>
       <c r="F194" s="33">
         <v>6046.0863204096568</v>
       </c>
-      <c r="G194" s="115">
+      <c r="G194">
         <v>54414.776883686907</v>
       </c>
     </row>
@@ -28075,13 +28012,13 @@
       <c r="D195" s="16">
         <v>771</v>
       </c>
-      <c r="E195" s="115">
+      <c r="E195">
         <v>10650</v>
       </c>
       <c r="F195" s="33">
         <v>9738.4784198975867</v>
       </c>
-      <c r="G195" s="115">
+      <c r="G195">
         <v>97384.78419897586</v>
       </c>
     </row>
@@ -28089,13 +28026,13 @@
       <c r="D196" s="16">
         <v>772</v>
       </c>
-      <c r="E196" s="115">
+      <c r="E196">
         <v>17302</v>
       </c>
       <c r="F196" s="33">
         <v>15821.141185076813</v>
       </c>
-      <c r="G196" s="115">
+      <c r="G196">
         <v>142390.27066569132</v>
       </c>
     </row>
@@ -28103,13 +28040,13 @@
       <c r="D197" s="16">
         <v>773</v>
       </c>
-      <c r="E197" s="115">
+      <c r="E197">
         <v>8444</v>
       </c>
       <c r="F197" s="33">
         <v>7721.2874908558897</v>
       </c>
-      <c r="G197" s="115">
+      <c r="G197">
         <v>92655.449890270684</v>
       </c>
     </row>
@@ -28117,13 +28054,13 @@
       <c r="D198" s="16">
         <v>774</v>
       </c>
-      <c r="E198" s="115">
+      <c r="E198">
         <v>24391</v>
       </c>
       <c r="F198" s="33">
         <v>22303.401609363573</v>
       </c>
-      <c r="G198" s="115">
+      <c r="G198">
         <v>267640.81931236287</v>
       </c>
     </row>
@@ -28131,13 +28068,13 @@
       <c r="D199" s="16">
         <v>775</v>
       </c>
-      <c r="E199" s="115">
+      <c r="E199">
         <v>5084</v>
       </c>
       <c r="F199" s="33">
         <v>4648.8661302121436</v>
       </c>
-      <c r="G199" s="115">
+      <c r="G199">
         <v>55786.393562545723</v>
       </c>
     </row>
@@ -28145,13 +28082,13 @@
       <c r="D200" s="16">
         <v>776</v>
       </c>
-      <c r="E200" s="115">
+      <c r="E200">
         <v>4760</v>
       </c>
       <c r="F200" s="33">
         <v>4352.5969275786401</v>
       </c>
-      <c r="G200" s="115">
+      <c r="G200">
         <v>43525.969275786403</v>
       </c>
     </row>
@@ -28159,13 +28096,13 @@
       <c r="D201" s="16">
         <v>777</v>
       </c>
-      <c r="E201" s="115">
+      <c r="E201">
         <v>888</v>
       </c>
       <c r="F201" s="33">
         <v>811.99707388441846</v>
       </c>
-      <c r="G201" s="115">
+      <c r="G201">
         <v>8119.9707388441848</v>
       </c>
     </row>
@@ -28173,13 +28110,13 @@
       <c r="D202" s="16">
         <v>778</v>
       </c>
-      <c r="E202" s="115">
+      <c r="E202">
         <v>7900</v>
       </c>
       <c r="F202" s="33">
         <v>7223.8478419897592</v>
       </c>
-      <c r="G202" s="115">
+      <c r="G202">
         <v>72238.478419897598</v>
       </c>
     </row>
@@ -28187,13 +28124,13 @@
       <c r="D203" s="16">
         <v>779</v>
       </c>
-      <c r="E203" s="115">
+      <c r="E203">
         <v>17788</v>
       </c>
       <c r="F203" s="33">
         <v>16265.544989027068</v>
       </c>
-      <c r="G203" s="115">
+      <c r="G203">
         <v>162655.44989027068</v>
       </c>
     </row>
@@ -28201,13 +28138,13 @@
       <c r="D204" s="16">
         <v>780</v>
       </c>
-      <c r="E204" s="115">
+      <c r="E204">
         <v>19577</v>
       </c>
       <c r="F204" s="33">
         <v>17901.426481346014</v>
       </c>
-      <c r="G204" s="115">
+      <c r="G204">
         <v>179014.26481346015</v>
       </c>
     </row>
@@ -28215,13 +28152,13 @@
       <c r="D205" s="16">
         <v>781</v>
       </c>
-      <c r="E205" s="115">
+      <c r="E205">
         <v>12687</v>
       </c>
       <c r="F205" s="33">
         <v>11601.133869787858</v>
       </c>
-      <c r="G205" s="115">
+      <c r="G205">
         <v>116011.33869787859</v>
       </c>
     </row>
@@ -28229,13 +28166,13 @@
       <c r="D206" s="16">
         <v>782</v>
       </c>
-      <c r="E206" s="115">
+      <c r="E206">
         <v>14207</v>
       </c>
       <c r="F206" s="33">
         <v>12991.038771031457</v>
       </c>
-      <c r="G206" s="115">
+      <c r="G206">
         <v>129910.38771031456</v>
       </c>
     </row>
@@ -28243,13 +28180,13 @@
       <c r="D207" s="16">
         <v>783</v>
       </c>
-      <c r="E207" s="115">
+      <c r="E207">
         <v>19240</v>
       </c>
       <c r="F207" s="33">
         <v>17593.269934162399</v>
       </c>
-      <c r="G207" s="115">
+      <c r="G207">
         <v>175932.69934162399</v>
       </c>
     </row>
@@ -28257,13 +28194,13 @@
       <c r="D208" s="16">
         <v>784</v>
       </c>
-      <c r="E208" s="115">
+      <c r="E208">
         <v>13299</v>
       </c>
       <c r="F208" s="33">
         <v>12160.753474762254</v>
       </c>
-      <c r="G208" s="115">
+      <c r="G208">
         <v>121607.53474762254</v>
       </c>
     </row>
@@ -28271,13 +28208,13 @@
       <c r="D209" s="16">
         <v>785</v>
       </c>
-      <c r="E209" s="115">
+      <c r="E209">
         <v>7664</v>
       </c>
       <c r="F209" s="33">
         <v>7008.0468178493056</v>
       </c>
-      <c r="G209" s="115">
+      <c r="G209">
         <v>84096.561814191664</v>
       </c>
     </row>
@@ -28285,13 +28222,13 @@
       <c r="D210" s="16">
         <v>786</v>
       </c>
-      <c r="E210" s="115">
+      <c r="E210">
         <v>5132</v>
       </c>
       <c r="F210" s="33">
         <v>4692.7578639356261</v>
       </c>
-      <c r="G210" s="115">
+      <c r="G210">
         <v>56313.094367227517</v>
       </c>
     </row>
@@ -28299,13 +28236,13 @@
       <c r="D211" s="16">
         <v>787</v>
       </c>
-      <c r="E211" s="115">
+      <c r="E211">
         <v>18066</v>
       </c>
       <c r="F211" s="33">
         <v>16519.751280175569</v>
       </c>
-      <c r="G211" s="115">
+      <c r="G211">
         <v>198237.01536210685</v>
       </c>
     </row>
@@ -28313,13 +28250,13 @@
       <c r="D212" s="16">
         <v>788</v>
       </c>
-      <c r="E212" s="115">
+      <c r="E212">
         <v>12318</v>
       </c>
       <c r="F212" s="33">
         <v>11263.716166788588</v>
       </c>
-      <c r="G212" s="115">
+      <c r="G212">
         <v>135164.59400146306</v>
       </c>
     </row>
@@ -28327,13 +28264,13 @@
       <c r="D213" s="16">
         <v>789</v>
       </c>
-      <c r="E213" s="115">
+      <c r="E213">
         <v>23797</v>
       </c>
       <c r="F213" s="33">
         <v>21760.241404535482</v>
       </c>
-      <c r="G213" s="115">
+      <c r="G213">
         <v>195842.17264081934</v>
       </c>
     </row>
@@ -28341,13 +28278,13 @@
       <c r="D214" s="16">
         <v>790</v>
       </c>
-      <c r="E214" s="115">
+      <c r="E214">
         <v>27148</v>
       </c>
       <c r="F214" s="33">
         <v>24824.433065106074</v>
       </c>
-      <c r="G214" s="115">
+      <c r="G214">
         <v>248244.33065106074</v>
       </c>
     </row>
@@ -28355,13 +28292,13 @@
       <c r="D215" s="16">
         <v>791</v>
       </c>
-      <c r="E215" s="115">
+      <c r="E215">
         <v>17480</v>
       </c>
       <c r="F215" s="33">
         <v>15983.906364301391</v>
       </c>
-      <c r="G215" s="115">
+      <c r="G215">
         <v>159839.06364301391</v>
       </c>
     </row>
@@ -28369,13 +28306,13 @@
       <c r="D216" s="16">
         <v>792</v>
       </c>
-      <c r="E216" s="115">
+      <c r="E216">
         <v>22158</v>
       </c>
       <c r="F216" s="33">
         <v>20261.521580102417</v>
       </c>
-      <c r="G216" s="115">
+      <c r="G216">
         <v>182353.69422092175</v>
       </c>
     </row>
@@ -28383,13 +28320,13 @@
       <c r="D217" s="16">
         <v>793</v>
       </c>
-      <c r="E217" s="115">
+      <c r="E217">
         <v>11184</v>
       </c>
       <c r="F217" s="33">
         <v>10226.773957571326</v>
       </c>
-      <c r="G217" s="115">
+      <c r="G217">
         <v>92040.965618141927</v>
       </c>
     </row>
@@ -28397,13 +28334,13 @@
       <c r="D218" s="16">
         <v>794</v>
       </c>
-      <c r="E218" s="115">
+      <c r="E218">
         <v>14474</v>
       </c>
       <c r="F218" s="33">
         <v>13235.186539868326</v>
       </c>
-      <c r="G218" s="115">
+      <c r="G218">
         <v>119116.67885881494</v>
       </c>
     </row>
@@ -28411,13 +28348,13 @@
       <c r="D219" s="16">
         <v>795</v>
       </c>
-      <c r="E219" s="115">
+      <c r="E219">
         <v>3774</v>
       </c>
       <c r="F219" s="33">
         <v>3450.9875640087785</v>
       </c>
-      <c r="G219" s="115">
+      <c r="G219">
         <v>31058.888076079005</v>
       </c>
     </row>
@@ -28425,13 +28362,13 @@
       <c r="D220" s="16">
         <v>796</v>
       </c>
-      <c r="E220" s="115">
+      <c r="E220">
         <v>8892</v>
       </c>
       <c r="F220" s="33">
         <v>8130.9436722750552</v>
       </c>
-      <c r="G220" s="115">
+      <c r="G220">
         <v>81309.436722750557</v>
       </c>
     </row>
@@ -28439,13 +28376,13 @@
       <c r="D221" s="16">
         <v>797</v>
       </c>
-      <c r="E221" s="115">
+      <c r="E221">
         <v>4334</v>
       </c>
       <c r="F221" s="33">
         <v>3963.0577907827364</v>
       </c>
-      <c r="G221" s="115">
+      <c r="G221">
         <v>35667.520117044631</v>
       </c>
     </row>
@@ -28453,13 +28390,13 @@
       <c r="D222" s="16">
         <v>798</v>
       </c>
-      <c r="E222" s="115">
+      <c r="E222">
         <v>13135</v>
       </c>
       <c r="F222" s="33">
         <v>12010.790051207025</v>
       </c>
-      <c r="G222" s="115">
+      <c r="G222">
         <v>120107.90051207025</v>
       </c>
     </row>
@@ -28467,13 +28404,13 @@
       <c r="D223" s="16">
         <v>799</v>
       </c>
-      <c r="E223" s="115">
+      <c r="E223">
         <v>13937</v>
       </c>
       <c r="F223" s="33">
         <v>12744.14776883687</v>
       </c>
-      <c r="G223" s="115">
+      <c r="G223">
         <v>127441.4776883687</v>
       </c>
     </row>
@@ -28481,13 +28418,13 @@
       <c r="D224" s="16">
         <v>800</v>
       </c>
-      <c r="E224" s="115">
+      <c r="E224">
         <v>11348</v>
       </c>
       <c r="F224" s="33">
         <v>10376.737381126555</v>
       </c>
-      <c r="G224" s="115">
+      <c r="G224">
         <v>93390.636430138999</v>
       </c>
     </row>
@@ -28495,13 +28432,13 @@
       <c r="D225" s="16">
         <v>801</v>
       </c>
-      <c r="E225" s="115">
+      <c r="E225">
         <v>6181</v>
       </c>
       <c r="F225" s="33">
         <v>5651.9751280175569</v>
       </c>
-      <c r="G225" s="115">
+      <c r="G225">
         <v>56519.751280175566</v>
       </c>
     </row>
@@ -28509,13 +28446,13 @@
       <c r="D226" s="16">
         <v>802</v>
       </c>
-      <c r="E226" s="115">
+      <c r="E226">
         <v>20149</v>
       </c>
       <c r="F226" s="33">
         <v>18424.469641550844</v>
       </c>
-      <c r="G226" s="115">
+      <c r="G226">
         <v>184244.69641550846</v>
       </c>
     </row>
@@ -28523,13 +28460,13 @@
       <c r="D227" s="16">
         <v>803</v>
       </c>
-      <c r="E227" s="115">
+      <c r="E227">
         <v>24694</v>
       </c>
       <c r="F227" s="33">
         <v>22580.468178493051</v>
       </c>
-      <c r="G227" s="115">
+      <c r="G227">
         <v>225804.68178493052</v>
       </c>
     </row>
@@ -28537,13 +28474,13 @@
       <c r="D228" s="16">
         <v>804</v>
       </c>
-      <c r="E228" s="115">
+      <c r="E228">
         <v>8999</v>
       </c>
       <c r="F228" s="33">
         <v>8228.7856620336515</v>
       </c>
-      <c r="G228" s="115">
+      <c r="G228">
         <v>74059.070958302866</v>
       </c>
     </row>
@@ -28551,13 +28488,13 @@
       <c r="D229" s="16">
         <v>805</v>
       </c>
-      <c r="E229" s="115">
+      <c r="E229">
         <v>9858</v>
       </c>
       <c r="F229" s="33">
         <v>9014.2648134601332</v>
       </c>
-      <c r="G229" s="115">
+      <c r="G229">
         <v>81128.383321141198</v>
       </c>
     </row>
@@ -28565,13 +28502,13 @@
       <c r="D230" s="16">
         <v>806</v>
       </c>
-      <c r="E230" s="115">
+      <c r="E230">
         <v>28756</v>
       </c>
       <c r="F230" s="33">
         <v>26294.806144842725</v>
       </c>
-      <c r="G230" s="115">
+      <c r="G230">
         <v>276095.46452084859</v>
       </c>
     </row>
@@ -28579,35 +28516,35 @@
       <c r="D231" s="16">
         <v>807</v>
       </c>
-      <c r="E231" s="115"/>
+      <c r="E231"/>
       <c r="F231" s="33">
         <v>0</v>
       </c>
-      <c r="G231" s="115"/>
+      <c r="G231"/>
     </row>
     <row r="232" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D232" s="16">
         <v>808</v>
       </c>
-      <c r="E232" s="115">
+      <c r="E232">
         <v>3855</v>
       </c>
       <c r="F232" s="33">
         <v>3525.0548646671546</v>
       </c>
-      <c r="G232" s="115"/>
+      <c r="G232"/>
     </row>
     <row r="233" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D233" s="16">
         <v>809</v>
       </c>
-      <c r="E233" s="115">
+      <c r="E233">
         <v>2228</v>
       </c>
       <c r="F233" s="33">
         <v>2037.3079736649599</v>
       </c>
-      <c r="G233" s="115">
+      <c r="G233">
         <v>18335.771762984641</v>
       </c>
     </row>
@@ -28615,13 +28552,13 @@
       <c r="D234" s="16">
         <v>810</v>
       </c>
-      <c r="E234" s="115">
+      <c r="E234">
         <v>19760</v>
       </c>
       <c r="F234" s="33">
         <v>18068.763716166792</v>
       </c>
-      <c r="G234" s="115">
+      <c r="G234">
         <v>216825.16459400149</v>
       </c>
     </row>
@@ -28629,13 +28566,13 @@
       <c r="D235" s="16">
         <v>811</v>
       </c>
-      <c r="E235" s="115">
+      <c r="E235">
         <v>14695</v>
       </c>
       <c r="F235" s="33">
         <v>13437.271397220191</v>
       </c>
-      <c r="G235" s="115">
+      <c r="G235">
         <v>161247.2567666423</v>
       </c>
     </row>
@@ -28643,13 +28580,13 @@
       <c r="D236" s="16">
         <v>812</v>
       </c>
-      <c r="E236" s="115">
+      <c r="E236">
         <v>6490</v>
       </c>
       <c r="F236" s="33">
         <v>5934.5281638624729</v>
       </c>
-      <c r="G236" s="115">
+      <c r="G236">
         <v>71214.337966349674</v>
       </c>
     </row>
@@ -28657,13 +28594,13 @@
       <c r="D237" s="16">
         <v>813</v>
       </c>
-      <c r="E237" s="115">
+      <c r="E237">
         <v>6448</v>
       </c>
       <c r="F237" s="33">
         <v>5896.1228968544265</v>
       </c>
-      <c r="G237" s="115">
+      <c r="G237">
         <v>70753.474762253114</v>
       </c>
     </row>
@@ -28671,13 +28608,13 @@
       <c r="D238" s="16">
         <v>814</v>
       </c>
-      <c r="E238" s="115">
+      <c r="E238">
         <v>13600</v>
       </c>
       <c r="F238" s="33">
         <v>12435.991221653256</v>
       </c>
-      <c r="G238" s="115">
+      <c r="G238">
         <v>124359.91221653255</v>
       </c>
     </row>
@@ -28685,13 +28622,13 @@
       <c r="D239" s="16">
         <v>815</v>
       </c>
-      <c r="E239" s="115">
+      <c r="E239">
         <v>4344</v>
       </c>
       <c r="F239" s="33">
         <v>3972.2019019751283</v>
       </c>
-      <c r="G239" s="115">
+      <c r="G239">
         <v>39722.019019751286</v>
       </c>
     </row>
@@ -28699,13 +28636,13 @@
       <c r="D240" s="16">
         <v>816</v>
       </c>
-      <c r="E240" s="115">
+      <c r="E240">
         <v>2202</v>
       </c>
       <c r="F240" s="33">
         <v>2013.5332845647404</v>
       </c>
-      <c r="G240" s="115">
+      <c r="G240">
         <v>20135.332845647405</v>
       </c>
     </row>
@@ -28713,13 +28650,13 @@
       <c r="D241" s="16">
         <v>817</v>
       </c>
-      <c r="E241" s="115">
+      <c r="E241">
         <v>1676</v>
       </c>
       <c r="F241" s="33">
         <v>1532.5530358449159</v>
       </c>
-      <c r="G241" s="115">
+      <c r="G241">
         <v>18390.636430138991</v>
       </c>
     </row>
@@ -28727,13 +28664,13 @@
       <c r="D242" s="16">
         <v>819</v>
       </c>
-      <c r="E242" s="115">
+      <c r="E242">
         <v>14923</v>
       </c>
       <c r="F242" s="33">
         <v>13645.757132406732</v>
       </c>
-      <c r="G242" s="115">
+      <c r="G242">
         <v>136457.57132406731</v>
       </c>
     </row>
@@ -28741,13 +28678,13 @@
       <c r="D243" s="16">
         <v>820</v>
       </c>
-      <c r="E243" s="115">
+      <c r="E243">
         <v>11388</v>
       </c>
       <c r="F243" s="33">
         <v>10413.313825896124</v>
       </c>
-      <c r="G243" s="115">
+      <c r="G243">
         <v>104133.13825896125</v>
       </c>
     </row>
@@ -28755,13 +28692,13 @@
       <c r="D244" s="16">
         <v>821</v>
       </c>
-      <c r="E244" s="115">
+      <c r="E244">
         <v>24722</v>
       </c>
       <c r="F244" s="33">
         <v>22606.071689831751</v>
       </c>
-      <c r="G244" s="115">
+      <c r="G244">
         <v>226060.71689831751</v>
       </c>
     </row>
@@ -28769,23 +28706,23 @@
       <c r="D245" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E245" s="115"/>
+      <c r="E245"/>
       <c r="F245" s="33">
         <v>0</v>
       </c>
-      <c r="G245" s="115"/>
+      <c r="G245"/>
     </row>
     <row r="246" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D246" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E246" s="115">
+      <c r="E246">
         <v>1324912</v>
       </c>
       <c r="F246" s="33">
         <v>2180493.782004389</v>
       </c>
-      <c r="G246" s="115">
+      <c r="G246">
         <v>21840842.216752023</v>
       </c>
     </row>
@@ -31874,8 +31811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCBC7D8-36BA-4EBA-8685-891B9162141F}">
   <dimension ref="A1:P388"/>
   <sheetViews>
-    <sheetView topLeftCell="A375" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B388" sqref="B388"/>
+    <sheetView topLeftCell="A376" zoomScale="132" workbookViewId="0">
+      <selection activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38869,26 +38806,25 @@
         <v>117</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="97">
         <v>45914</v>
       </c>
-      <c r="B385" s="113" t="s">
+      <c r="B385" t="s">
         <v>102</v>
       </c>
       <c r="C385" s="47">
         <v>41500</v>
       </c>
       <c r="D385" s="47"/>
-      <c r="E385" s="113" t="s">
+      <c r="E385" t="s">
         <v>341</v>
       </c>
-      <c r="F385" s="114" t="s">
+      <c r="F385" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="G385" s="113"/>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="43">
         <v>45914</v>
       </c>
@@ -38903,7 +38839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="97">
         <v>45914</v>
       </c>
@@ -38918,7 +38854,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="43"/>
       <c r="C388" s="14">
         <f>SUBTOTAL(109,Table14[Debit])</f>
@@ -39254,8 +39190,7 @@
       <c r="K10" s="27">
         <v>45888</v>
       </c>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115">
+      <c r="M10">
         <v>-567500</v>
       </c>
     </row>
@@ -39286,10 +39221,10 @@
       <c r="K11" s="27">
         <v>45889</v>
       </c>
-      <c r="L11" s="115">
+      <c r="L11">
         <v>659500</v>
       </c>
-      <c r="M11" s="115">
+      <c r="M11">
         <v>659500</v>
       </c>
     </row>
@@ -39320,10 +39255,10 @@
       <c r="K12" s="27">
         <v>45892</v>
       </c>
-      <c r="L12" s="115">
+      <c r="L12">
         <v>154500</v>
       </c>
-      <c r="M12" s="115">
+      <c r="M12">
         <v>154500</v>
       </c>
     </row>
@@ -39354,8 +39289,7 @@
       <c r="K13" s="27">
         <v>45885</v>
       </c>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115">
+      <c r="M13">
         <v>567500</v>
       </c>
     </row>
@@ -39386,8 +39320,7 @@
       <c r="K14" s="27">
         <v>45910</v>
       </c>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115">
+      <c r="M14">
         <v>-500000</v>
       </c>
     </row>
@@ -39418,10 +39351,10 @@
       <c r="K15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L15" s="115">
+      <c r="L15">
         <v>814000</v>
       </c>
-      <c r="M15" s="115">
+      <c r="M15">
         <v>314000</v>
       </c>
     </row>
@@ -39617,14 +39550,14 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="115">
+      <c r="D24">
         <v>1140</v>
       </c>
       <c r="E24">
         <f>Table8[[#This Row],[Boxes]]*Table8[[#This Row],[Rate]]*25</f>
         <v>57000</v>
       </c>
-      <c r="H24" s="115">
+      <c r="H24">
         <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
         <v>57000</v>
       </c>
@@ -39639,14 +39572,14 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="115">
+      <c r="D25">
         <v>1300</v>
       </c>
       <c r="E25">
         <f>Table8[[#This Row],[Boxes]]*Table8[[#This Row],[Rate]]*25</f>
         <v>65000</v>
       </c>
-      <c r="H25" s="115">
+      <c r="H25">
         <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
         <v>65000</v>
       </c>
@@ -39661,14 +39594,14 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="115">
+      <c r="D26">
         <v>920</v>
       </c>
       <c r="E26">
         <f>Table8[[#This Row],[Boxes]]*Table8[[#This Row],[Rate]]*25</f>
         <v>46000</v>
       </c>
-      <c r="H26" s="115">
+      <c r="H26">
         <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
         <v>46000</v>
       </c>
@@ -39683,14 +39616,14 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="115">
+      <c r="D27">
         <v>1130</v>
       </c>
       <c r="E27">
         <f>Table8[[#This Row],[Boxes]]*Table8[[#This Row],[Rate]]*25</f>
         <v>56500</v>
       </c>
-      <c r="H27" s="115">
+      <c r="H27">
         <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
         <v>56500</v>
       </c>
@@ -39705,14 +39638,14 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="115">
+      <c r="D28">
         <v>3100</v>
       </c>
       <c r="E28">
         <f>Table8[[#This Row],[Boxes]]*Table8[[#This Row],[Rate]]*25</f>
         <v>77500</v>
       </c>
-      <c r="H28" s="115">
+      <c r="H28">
         <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
         <v>77500</v>
       </c>
@@ -39727,14 +39660,14 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="115">
+      <c r="D29">
         <v>1400</v>
       </c>
       <c r="E29">
         <f>Table8[[#This Row],[Boxes]]*Table8[[#This Row],[Rate]]*25</f>
         <v>35000</v>
       </c>
-      <c r="H29" s="115">
+      <c r="H29">
         <f>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</f>
         <v>35000</v>
       </c>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5504" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D88BD83-BE78-445B-94CC-51C65188AFE8}"/>
+  <xr:revisionPtr revIDLastSave="5508" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AF1DFBC-C39F-4464-ADFE-7E785EC40E55}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
@@ -1643,7 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1787,7 +1787,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1796,12 +1795,15 @@
   <dxfs count="125">
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1810,17 +1812,7 @@
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2206,6 +2198,15 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2213,6 +2214,25 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2346,9 +2366,6 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -2359,24 +2376,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -3753,6 +3752,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45914.952315856484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
   <cacheSource type="worksheet">
@@ -10769,191 +10772,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I143:K169" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="42">
-        <item m="1" x="25"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="40"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item m="1" x="39"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField dataField="1" numFmtId="165" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
-    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="100">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA55365D-3B4E-4711-A8D8-6B7EF497ABAB}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="D143:G246" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="14">
@@ -11714,6 +11532,191 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AF80067-C0F6-464A-918D-8D015F3C13D1}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I143:K169" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="42">
+        <item m="1" x="25"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="40"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="37"/>
+        <item m="1" x="38"/>
+        <item m="1" x="39"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of tiyar/meters" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField name="Sum of billing" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="100">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F9766807-2FAF-42B6-B070-4BF70FC56CD7}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Gari #">
   <location ref="E69:I150" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
@@ -12115,7 +12118,7 @@
     <dataField name="Sum of balance" fld="8" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="79">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12124,7 +12127,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -12320,7 +12323,7 @@
     <dataField name="Sum of Debit" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="60">
+    <format dxfId="67">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -12839,26 +12842,26 @@
     <dataField name="Sum of Tiyaar/gaz" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="18">
+    <format dxfId="21">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="19">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -12868,13 +12871,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="15">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="14">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -13147,12 +13150,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}" name="Table14" displayName="Table14" ref="A1:G388" totalsRowCount="1">
   <autoFilter ref="A1:G387" xr:uid="{CB032221-B416-47A8-9A76-693DE76CFD04}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="59" totalsRowDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{554B1EED-65B6-4E9A-B646-82727FAC40DE}" name="Date" dataDxfId="66" totalsRowDxfId="65"/>
     <tableColumn id="2" xr3:uid="{32259059-42CF-4947-83DE-115AA430BE2B}" name="Party"/>
-    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{A1320223-D55D-483C-91C3-AB19B95CC9D8}" name="Debit" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{E9745767-9FF0-4B1C-9052-FF335D1D7588}" name="Credit" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma"/>
     <tableColumn id="5" xr3:uid="{5C88A48E-2467-4E6D-B626-2442B7FD0BE4}" name="Description"/>
-    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{63CA4666-144E-4BE6-8B7C-7CB992BD3041}" name="Mode" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
       <totalsRowFormula>(Table14[[#Totals],[Credit]]-Table14[[#Totals],[Debit]])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{949C7305-E4C4-48D6-B5DE-F5966AE105DD}" name="Withdrawal"/>
@@ -13162,25 +13165,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="55" tableBorderDxfId="54" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}" name="Table17" displayName="Table17" ref="J3:K6" totalsRowShown="0" headerRowBorderDxfId="58" tableBorderDxfId="57" totalsRowBorderDxfId="56">
   <autoFilter ref="J3:K6" xr:uid="{DCE01694-23ED-48BF-8B92-4186B9ED10A8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{C8484DAF-2989-4C2F-9AEC-A6917E1C57F6}" name="Type" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{B07B7A2A-4D4E-4654-BED6-FE2F0A7BEC34}" name="Amount" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}" name="Table18" displayName="Table18" ref="M3:O7" totalsRowCount="1" headerRowDxfId="53" headerRowBorderDxfId="52" tableBorderDxfId="51" totalsRowBorderDxfId="50">
   <autoFilter ref="M3:O6" xr:uid="{D166BDD1-ACD7-45D7-8AE9-7350373F8CEB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="1" xr3:uid="{64F0205E-DEA7-4571-BA86-E4374A5FEE28}" name="Type" totalsRowLabel="Total" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{15FA05F9-789C-4459-9BE0-5C1EC84D3365}" name="amount" totalsRowFunction="custom" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>SUM(N5:N6)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="42">
+    <tableColumn id="3" xr3:uid="{3681D409-90C6-44D0-BDE2-4B5943A516F0}" name="Actual" totalsRowFunction="custom" totalsRowDxfId="45">
       <totalsRowFormula>SUM(O5,O6)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -13192,10 +13195,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}" name="Table7" displayName="Table7" ref="K2:N5" totalsRowCount="1">
   <autoFilter ref="K2:N4" xr:uid="{77E0731B-E176-4C4A-A6F7-CD6C16273723}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{ED2EE743-D65D-40B8-B1D2-9A3999DB9021}" name="Date" dataDxfId="44" totalsRowDxfId="43"/>
     <tableColumn id="2" xr3:uid="{5B9D0FEE-4304-4C5C-A05C-5B27CF7841D3}" name="Type"/>
     <tableColumn id="3" xr3:uid="{6A91CA0D-C802-4C6F-9F39-CA53687E8EDE}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{A251D40C-AB87-4BB4-85F8-444B20E32FDF}" name="Total" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="41" dataCellStyle="Comma">
       <totalsRowFormula>SUM(Table7[Total])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -13204,17 +13207,17 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I30" totalsRowCount="1" headerRowDxfId="37" headerRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}" name="Table8" displayName="Table8" ref="A1:I30" totalsRowCount="1" headerRowDxfId="40" headerRowBorderDxfId="39">
   <autoFilter ref="A1:I29" xr:uid="{B276AC52-D856-4F5C-BAC5-B41503DDA11B}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{1A00B993-AF25-45A2-BFF9-E0DD747BB444}" name="Date"/>
     <tableColumn id="2" xr3:uid="{0A3FC504-E40A-4FB2-9B51-E79A4BC1EC63}" name="Chemical Name"/>
     <tableColumn id="3" xr3:uid="{216C88B1-47EE-4EC2-975B-32C391B36543}" name="Boxes"/>
-    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{124DE3CE-AA7A-4822-99BD-69CE8547DD00}" name="Rate" dataDxfId="38"/>
     <tableColumn id="4" xr3:uid="{1889A312-9B41-4EC4-BD8F-05252F27084A}" name="Price" totalsRowFunction="sum"/>
     <tableColumn id="6" xr3:uid="{8B974B20-F003-4E67-8660-024FA4F324A9}" name="Party"/>
     <tableColumn id="7" xr3:uid="{0A5A5C21-FD61-47DA-9F54-66A6479FA557}" name="Paid"/>
-    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{8DCB3B43-2161-4081-82EC-CDB0F4DE4E6F}" name="Balance" totalsRowFunction="sum" dataDxfId="37">
       <calculatedColumnFormula>Table8[[#This Row],[Price]]-Table8[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{774991E8-E731-4369-B42A-6867C4E08D5A}" name="info"/>
@@ -13224,22 +13227,22 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H15" totalsRowCount="1" headerRowDxfId="33" headerRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}" name="Table2" displayName="Table2" ref="A4:H15" totalsRowCount="1" headerRowDxfId="36" headerRowBorderDxfId="35">
   <autoFilter ref="A4:H14" xr:uid="{A4C80688-A8BA-4BA7-90B4-791CD99446B4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H5">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{4A818912-918E-4111-ACFC-BC93FEF7C1AD}" name="Date" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{477ACFD5-62AF-4F69-974B-E9B974C11D7D}" name="Party Name" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{5B0EA59B-2D3B-4B7B-BA56-6C615D2F6506}" name="Item"/>
     <tableColumn id="3" xr3:uid="{6300FCFD-553D-4800-9CD0-2405B6C4D56F}" name="Boxes"/>
     <tableColumn id="4" xr3:uid="{9FBD2AB3-9F7F-4D27-86AD-36F05B132D6A}" name="Quantity"/>
     <tableColumn id="5" xr3:uid="{F5590721-CD26-461E-BC7A-3AC6FD6C8D07}" name="Price" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="28">
+    <tableColumn id="6" xr3:uid="{30432929-CBD4-4BA8-B63F-CD0F6CF6405F}" name="Paid" totalsRowFunction="sum" dataDxfId="31">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table2[[#This Row],[Date]], Table14[Party], Table2[[#This Row],[Party Name]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="27">
+    <tableColumn id="7" xr3:uid="{BB689DF2-5D1E-436D-84C4-9745D88E8F3D}" name="Balance" totalsRowFunction="sum" dataDxfId="30">
       <calculatedColumnFormula>Table2[[#This Row],[Price]]-Table2[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13269,7 +13272,7 @@
   <tableColumns count="4">
     <tableColumn id="11" xr3:uid="{98DE5394-4EDB-4DDA-8F3F-AA0DF0DC98BB}" name="Date" totalsRowLabel="Total"/>
     <tableColumn id="1" xr3:uid="{72BAEFE6-C0F7-4E56-9269-EAE763B50636}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{5CD13227-2772-4576-B38D-C6906BDDB84D}" name="Amount" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{8816813F-07CA-42C2-B1D6-851406F94D6E}" name="Column1" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -13280,8 +13283,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}" name="Table11" displayName="Table11" ref="B2:E37" totalsRowCount="1">
   <autoFilter ref="B2:E36" xr:uid="{62116EC9-BBDE-41BB-A2D7-8BCF3AB6260F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{7DB097C9-B24B-4164-AE75-219BA075790F}" name="Date" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{053BFC14-4828-417C-9F9F-95B6E232A945}" name="Amount" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Comma">
       <calculatedColumnFormula>Cashbook!#REF!</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table11[Amount])</totalsRowFormula>
     </tableColumn>
@@ -13296,7 +13299,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}" name="Table16" displayName="Table16" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7B203B0-1AB7-490A-A749-F34A78C46DF4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{B4CDCF07-E9DA-48C6-997D-76B3FCF36D4E}" name="Date" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" xr3:uid="{EC66B9BB-B8FA-42B5-8213-88EBD296FC5F}" name="Advance" totalsRowFunction="sum">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table16[[#This Row],[Date]], Table14[Party], "Advance Salary", Table14[Description], Table16[[#This Row],[Person]] )</calculatedColumnFormula>
     </tableColumn>
@@ -13325,7 +13328,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}" name="Table5" displayName="Table5" ref="B2:E35" totalsRowCount="1">
   <autoFilter ref="B2:E34" xr:uid="{4694C645-BA0B-477E-AE5E-02046C12E841}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1D391A77-9D14-4B37-AD91-EEEDC97B6A4E}" name="Date" dataDxfId="12" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{B579509C-6B30-4107-AD5D-29484D2620F7}" name="Type"/>
     <tableColumn id="3" xr3:uid="{4563E1C4-DFFB-47FA-BCFB-33EA270AD884}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table5[[#This Row],[Date]], Table14[Party], "Rashan")</calculatedColumnFormula>
@@ -13341,7 +13344,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}" name="Table15" displayName="Table15" ref="H2:J35" totalsRowCount="1">
   <autoFilter ref="H2:J34" xr:uid="{A7265B0E-A50D-4BC5-9C1C-E62AF5B48CAF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{AB5830E5-ECCF-4406-AB96-EB98EE86F300}" name="Date" dataDxfId="10" totalsRowDxfId="9"/>
     <tableColumn id="2" xr3:uid="{4EBD2B2B-3B34-41C2-ABCE-6323AB3BD2BC}" name="Type"/>
     <tableColumn id="3" xr3:uid="{D68E9581-5913-4B55-8149-35CB7814F997}" name="Amount" totalsRowFunction="custom">
       <calculatedColumnFormula>SUMIFS(Table14[Debit], Table14[Date], Table15[[#This Row],[Date]], Table14[Party], "Parts")</calculatedColumnFormula>
@@ -13356,10 +13359,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{12993807-B770-4023-98E3-8834035352C5}" name="Table22" displayName="Table22" ref="A1:B14" totalsRowShown="0">
   <autoFilter ref="A1:B14" xr:uid="{12993807-B770-4023-98E3-8834035352C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{DF7536DF-F3D0-48F5-83DE-312320C1F7F4}" name="Party Name" dataDxfId="8">
       <calculatedColumnFormula>Billing!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{7093A59E-B58F-487D-888A-9AA8156B5F9A}" name="Amount Paid" dataDxfId="7">
       <calculatedColumnFormula>Billing!W5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -13443,16 +13446,16 @@
     <tableColumn id="2" xr3:uid="{5780FD5F-0890-44E6-B59C-8E37A559FE36}" name="Party Name" dataDxfId="96" dataCellStyle="Comma"/>
     <tableColumn id="3" xr3:uid="{5B3ECD85-9174-40AC-BFBD-49CAC97A83D3}" name="Bill Number" dataDxfId="95" dataCellStyle="Comma"/>
     <tableColumn id="4" xr3:uid="{11B50761-04B6-4262-AD4D-7182450037D1}" name="Quality" dataDxfId="94" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="Comma">
+    <tableColumn id="5" xr3:uid="{2C556969-B713-4967-BD24-466AACCBE5F5}" name="Shipment Number" dataDxfId="93" totalsRowDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{F4E1FD2B-9017-4DEB-B772-BF447ECE56F7}" name="Kora/metre" dataDxfId="92" totalsRowDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{52ACC1DA-7A76-4A90-B809-3A1AE728E7EA}" name="Tiyaar/gaz" dataDxfId="91" totalsRowDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{31A0FF5E-56F0-44D1-9865-73256B964660}" name="shortage %" dataDxfId="90" totalsRowDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table1[[#This Row],[Shipment Number]], 'pivot '!A:A,'pivot '!G:G, "NF")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{F99075E0-AC8E-094D-BB85-272AD2C6C568}" name="tiyar/meters" totalsRowFunction="custom" dataDxfId="89" totalsRowDxfId="2" dataCellStyle="Comma">
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[tiyar/meters], ROW(Table1[tiyar/meters])-MIN(ROW(Table1[tiyar/meters])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="Comma">
+    <tableColumn id="10" xr3:uid="{4B2AF87E-7D86-A946-B130-EA2852096C91}" name="billing" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="1" dataCellStyle="Comma">
       <calculatedColumnFormula array="1">_xlfn.IFS(
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
 AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
@@ -13462,7 +13465,7 @@
 )</calculatedColumnFormula>
       <totalsRowFormula array="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="Comma">
+    <tableColumn id="11" xr3:uid="{0D198F0C-D2D3-4F75-9F3B-25A393B5D570}" name="Total Billing" totalsRowFunction="custom" dataDxfId="87" totalsRowDxfId="0" dataCellStyle="Comma">
       <totalsRowFormula>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -13471,20 +13474,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I58" totalsRowCount="1" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}" name="Table3" displayName="Table3" ref="A1:I58" totalsRowCount="1" headerRowDxfId="84" headerRowBorderDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="A1:I57" xr:uid="{F8E8C957-ABE7-4E4F-8D4E-7D44E26B334F}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{C2E817D6-AB98-4DDD-8890-736B27F261CD}" name="Date" totalsRowLabel="." dataDxfId="81" totalsRowDxfId="80"/>
     <tableColumn id="2" xr3:uid="{CFB51890-CCDC-463C-81C9-3F8BD7469CB9}" name="Party Name"/>
     <tableColumn id="3" xr3:uid="{A113D971-1C9D-4733-99C4-BD0CC4333209}" name="Vehicle Number"/>
-    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="72" totalsRowDxfId="71" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="70" totalsRowDxfId="69" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="68" totalsRowDxfId="67" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="65" dataCellStyle="Comma">
+    <tableColumn id="4" xr3:uid="{49780304-3DD1-4AE9-98EE-2BC7EB8F3B57}" name="Weight" dataDxfId="79" totalsRowDxfId="78" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{FCAF1BC6-1D8C-42AD-8BBC-F924BF2DC7FE}" name="Rate" dataDxfId="77" totalsRowDxfId="76" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8C70A624-4134-410C-9C45-9FDEB51D51BF}" name="Rent" dataDxfId="75" totalsRowDxfId="74" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{EBCE10AE-9634-4982-9C95-37ABC8A7078C}" name="Total" totalsRowFunction="sum" dataDxfId="73" totalsRowDxfId="72" dataCellStyle="Comma">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="63" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61" dataCellStyle="Comma">
+    <tableColumn id="9" xr3:uid="{D4788559-C94A-44D9-B9AE-E72B214355AC}" name="Paid" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{E26F5BF0-1875-4FC6-994D-49F202ED562B}" name="balance" totalsRowFunction="sum" dataDxfId="69" totalsRowDxfId="68" dataCellStyle="Comma">
       <calculatedColumnFormula>(D2*E2)-Table3[[#This Row],[Paid]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -20445,7 +20448,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="113" t="str">
+      <c r="A12" t="str">
         <f>Billing!O15</f>
         <v>Azam</v>
       </c>
@@ -20455,7 +20458,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="113">
+      <c r="A13">
         <f>Billing!O16</f>
         <v>0</v>
       </c>
@@ -20465,7 +20468,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="113">
+      <c r="A14">
         <f>Billing!O17</f>
         <v>0</v>
       </c>
@@ -21546,8 +21549,8 @@
   </sheetPr>
   <dimension ref="A1:AB246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="113" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26261,7 +26264,16 @@
         <f>IF(Table1[[#This Row],[Shipment Number]]="RD",0,Table1[[#This Row],[Tiyaar/gaz]]/1.0936)</f>
         <v>3525.0548646671546</v>
       </c>
-      <c r="J98" s="32"/>
+      <c r="J98" s="32" cm="1">
+        <f t="array" ref="J98">_xlfn.IFS(
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*9,
+AND(Table1[[#This Row],[Party Name]]="Sufi Nawaz Sahab",Table1[[#This Row],[Quality]]="Silky"),Table1[[#This Row],[tiyar/meters]]*12,
+AND(Table1[[#This Row],[Party Name]]="Shehzad Kamoki",Table1[[#This Row],[Quality]]="Chamki"),Table1[[#This Row],[tiyar/meters]]*10.5,
+Table1[[#This Row],[Quality]]="Chamki",Table1[[#This Row],[tiyar/meters]]*10,
+Table1[[#This Row],[Quality]]="Silky",Table1[[#This Row],[tiyar/meters]]*12,Table1[[#This Row],[Quality]]="Crinkle",Table1[[#This Row],[tiyar/meters]]*10
+)</f>
+        <v>35250.548646671545</v>
+      </c>
       <c r="K98" s="29"/>
       <c r="L98"/>
       <c r="M98"/>
@@ -26915,11 +26927,11 @@
       </c>
       <c r="J114" s="50" cm="1">
         <f t="array" aca="1" ref="J114" ca="1">SUMPRODUCT( SUBTOTAL(109, OFFSET(Table1[billing], ROW(Table1[billing])-MIN(ROW(Table1[billing])), 0, 1)), --(Table1[Bill Number]&lt;&gt;"July Closing CF") )</f>
-        <v>12172934.345281638</v>
+        <v>12208184.89392831</v>
       </c>
       <c r="K114" s="14">
         <f>SUMIFS(Table1[billing], Table1[Bill Number], "&lt;&gt;July Closing CF")</f>
-        <v>12172934.345281638</v>
+        <v>12208184.89392831</v>
       </c>
       <c r="L114"/>
       <c r="M114"/>

--- a/Factory_Khata_August.xlsx
+++ b/Factory_Khata_August.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr updateLinks="always" hidePivotFieldList="1"/>
+  <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pern-my.sharepoint.com/personal/25020299_lums_edu_pk/Documents/Desktop/Factory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5508" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AF1DFBC-C39F-4464-ADFE-7E785EC40E55}"/>
+  <xr:revisionPtr revIDLastSave="5731" documentId="8_{4224AC12-CADB-4490-A83D-F531F0CDC7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{859A040C-247B-4072-B6A4-65DEDF29FFAE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{E7D9A63E-D9E8-4997-9BC3-9785CA208C4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Billing" sheetId="9" r:id="rId1"/>
@@ -48,12 +48,12 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
-    <pivotCache cacheId="1" r:id="rId19"/>
-    <pivotCache cacheId="2" r:id="rId20"/>
-    <pivotCache cacheId="3" r:id="rId21"/>
-    <pivotCache cacheId="4" r:id="rId22"/>
-    <pivotCache cacheId="5" r:id="rId23"/>
+    <pivotCache cacheId="39" r:id="rId18"/>
+    <pivotCache cacheId="46" r:id="rId19"/>
+    <pivotCache cacheId="52" r:id="rId20"/>
+    <pivotCache cacheId="57" r:id="rId21"/>
+    <pivotCache cacheId="61" r:id="rId22"/>
+    <pivotCache cacheId="65" r:id="rId23"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="351">
   <si>
     <t>Billing</t>
   </si>
@@ -1176,6 +1176,30 @@
   <si>
     <t>Blue GSL</t>
   </si>
+  <si>
+    <t>1709+1703</t>
+  </si>
+  <si>
+    <t>GAS 1561</t>
+  </si>
+  <si>
+    <t>Sufyan Salary</t>
+  </si>
+  <si>
+    <t>camera bulbs</t>
+  </si>
+  <si>
+    <t>bearing</t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>255 man</t>
+  </si>
+  <si>
+    <t>Faysal Akram</t>
+  </si>
 </sst>
 </file>
 
@@ -1643,7 +1667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1787,12 +1811,151 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="125">
+  <dxfs count="142">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -1924,9 +2087,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2198,15 +2358,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2214,25 +2365,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2287,27 +2419,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -2692,19 +2803,19 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15718</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>2981</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>872125</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>36698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>322711</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>89798</xdr:rowOff>
+      <xdr:colOff>302481</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>123515</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Party Name">
@@ -2727,7 +2838,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2737,8 +2848,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7770585" y="21305264"/>
-              <a:ext cx="4494622" cy="1361313"/>
+              <a:off x="7744368" y="22440922"/>
+              <a:ext cx="4486618" cy="1382929"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2771,18 +2882,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>757350</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>1225</xdr:rowOff>
+      <xdr:colOff>689917</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>48429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>392567</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>59625</xdr:rowOff>
+      <xdr:colOff>325134</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>106829</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-      <mc:Choice Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Date">
@@ -2808,7 +2919,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2818,8 +2929,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="757350" y="20939367"/>
-              <a:ext cx="1874013" cy="1514966"/>
+              <a:off x="689917" y="22082336"/>
+              <a:ext cx="1871367" cy="1539671"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2864,7 +2975,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>230452</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>168639</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -3752,18 +3863,14 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45914.952315856484" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45915.983654629628" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{376A650C-1F79-4049-BC45-E34989F046B2}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-13T00:00:00" maxDate="2025-09-10T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-08-16T00:00:00" maxDate="2025-09-16T00:00:00"/>
     </cacheField>
     <cacheField name="Party Name" numFmtId="14">
       <sharedItems containsBlank="1" count="5">
@@ -3790,7 +3897,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="303750"/>
     </cacheField>
     <cacheField name="Balance" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-60000" maxValue="310500"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-115000" maxValue="310500"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -3802,13 +3909,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45914.9523162037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="112" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45915.98365509259" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="117" xr:uid="{46CBB50D-3613-4E5B-8212-DD0313DCD05A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="14">
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-07-25T00:00:00" maxDate="2025-09-14T00:00:00" count="41">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-25T00:00:00" maxDate="2025-09-16T00:00:00" count="41">
         <d v="2025-08-17T00:00:00"/>
         <d v="2025-08-19T00:00:00"/>
         <d v="2025-08-16T00:00:00"/>
@@ -3833,7 +3940,7 @@
         <d v="2025-09-11T00:00:00"/>
         <d v="2025-09-12T00:00:00"/>
         <d v="2025-09-13T00:00:00"/>
-        <m/>
+        <d v="2025-09-15T00:00:00"/>
         <d v="2025-07-25T00:00:00" u="1"/>
         <d v="2025-07-26T00:00:00" u="1"/>
         <d v="2025-07-28T00:00:00" u="1"/>
@@ -3875,7 +3982,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bill Number" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="821" count="212">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="604" maxValue="828" count="219">
         <s v="July Closing CF"/>
         <n v="716"/>
         <n v="721"/>
@@ -3974,10 +4081,17 @@
         <n v="815"/>
         <n v="816"/>
         <n v="817"/>
+        <n v="818"/>
         <n v="819"/>
         <n v="820"/>
         <n v="821"/>
-        <m/>
+        <n v="822"/>
+        <n v="823"/>
+        <n v="824"/>
+        <n v="825"/>
+        <n v="826"/>
+        <n v="827"/>
+        <n v="828"/>
         <n v="653" u="1"/>
         <n v="654" u="1"/>
         <n v="655" u="1"/>
@@ -4094,7 +4208,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Shipment Number" numFmtId="164">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1558" maxValue="17000" count="105">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1558" maxValue="17000" count="110">
         <m/>
         <n v="1605"/>
         <n v="1624"/>
@@ -4148,6 +4262,11 @@
         <n v="1700"/>
         <n v="1672"/>
         <n v="1705"/>
+        <n v="1704"/>
+        <n v="1689"/>
+        <s v="1709+1703"/>
+        <n v="1699"/>
+        <n v="1695"/>
         <n v="1595" u="1"/>
         <n v="1593" u="1"/>
         <n v="1599" u="1"/>
@@ -4233,13 +4352,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Omer Razzaq" refreshedDate="45914.95231666667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="58" xr:uid="{3E5C2981-ACF5-44A9-8567-B1D65DB3A8D2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/mai